--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -1788,6 +1788,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,9 +1820,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1827,12 +1839,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1841,12 +1847,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2131,8 +2131,8 @@
   <dimension ref="A1:J367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,8 +2142,8 @@
     <col min="3" max="3" width="13.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" style="6" customWidth="1"/>
@@ -2162,22 +2162,22 @@
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2185,794 +2185,794 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J2" s="30"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="30" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="30" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="F4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="30" t="s">
+      <c r="F4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J4" s="30"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="30" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="F5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J5" s="30"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="30" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="F6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="30" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J7" s="30"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="30" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="F8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J8" s="30"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="30" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="F9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="30" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="F10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J10" s="30"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="30" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="30" t="s">
+      <c r="F11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I11" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J11" s="30"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="30" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="F12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="30" t="s">
+      <c r="F12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J12" s="30"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="30" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="F13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="30" t="s">
+      <c r="F13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="I13" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="30" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="F14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="30" t="s">
+      <c r="F14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="30" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="F15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="30" t="s">
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="30" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="F16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="30" t="s">
+      <c r="F16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="30" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="F17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" s="30" t="s">
+      <c r="F17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="30" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="F18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="30" t="s">
+      <c r="F18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="30" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="F19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="30" t="s">
+      <c r="F19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="30" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="F20" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="30" t="s">
+      <c r="F20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="30" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="F21" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="30" t="s">
+      <c r="F21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="I21" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J21" s="30"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="30" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="F22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="30" t="s">
+      <c r="F22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="I22" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="30" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="30" t="s">
+      <c r="F23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="30" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="30" t="s">
+      <c r="F24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="30" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="30" t="s">
+      <c r="F25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="30" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="F26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" s="30" t="s">
+      <c r="F26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I26" s="30" t="s">
+      <c r="I26" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="30" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="30" t="s">
+      <c r="F27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="30" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="F28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="30" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="F29" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="30" t="s">
+      <c r="F29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="30" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="30" t="s">
+      <c r="F30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="I30" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J30" s="30"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="30" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="30" t="s">
+      <c r="F31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J31" s="30"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="30" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="30" t="s">
+      <c r="F32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="I32" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J32" s="30"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="J33" s="30"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H34" s="4" t="s">
@@ -2985,16 +2985,16 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -3007,8 +3007,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="4" t="s">
         <v>64</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="F36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -3031,7 +3031,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="4" t="s">
         <v>119</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="F37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -3057,7 +3057,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="4" t="s">
         <v>12</v>
       </c>
@@ -3083,7 +3083,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="4" t="s">
         <v>58</v>
       </c>
@@ -3106,30 +3106,30 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E41" s="4" t="s">
@@ -3151,9 +3151,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
       <c r="E42" s="4" t="s">
         <v>36</v>
       </c>
@@ -3173,9 +3173,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="4" t="s">
         <v>37</v>
       </c>
@@ -3195,9 +3195,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
       <c r="E44" s="4" t="s">
         <v>38</v>
       </c>
@@ -3217,9 +3217,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
       <c r="E45" s="4" t="s">
         <v>39</v>
       </c>
@@ -3239,9 +3239,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="4" t="s">
         <v>40</v>
       </c>
@@ -3261,9 +3261,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
       <c r="E47" s="4" t="s">
         <v>41</v>
       </c>
@@ -3283,9 +3283,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
       <c r="E48" s="4" t="s">
         <v>42</v>
       </c>
@@ -3305,11 +3305,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25" t="s">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3331,9 +3331,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
       <c r="E50" s="4" t="s">
         <v>54</v>
       </c>
@@ -3353,9 +3353,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
       <c r="E51" s="4" t="s">
         <v>55</v>
       </c>
@@ -3375,9 +3375,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
       <c r="E52" s="4" t="s">
         <v>56</v>
       </c>
@@ -3397,13 +3397,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C53" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -3425,9 +3425,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
       <c r="E54" s="4" t="s">
         <v>46</v>
       </c>
@@ -3447,9 +3447,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
       <c r="E55" s="4" t="s">
         <v>52</v>
       </c>
@@ -3469,9 +3469,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
       <c r="E56" s="4" t="s">
         <v>48</v>
       </c>
@@ -3491,9 +3491,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="4" t="s">
         <v>51</v>
       </c>
@@ -3513,9 +3513,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
       <c r="E58" s="4" t="s">
         <v>49</v>
       </c>
@@ -3535,9 +3535,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
       <c r="E59" s="4" t="s">
         <v>50</v>
       </c>
@@ -3557,9 +3557,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
       <c r="E60" s="4" t="s">
         <v>47</v>
       </c>
@@ -3579,11 +3579,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="25" t="s">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -3605,9 +3605,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
       <c r="E62" s="4" t="s">
         <v>69</v>
       </c>
@@ -3627,9 +3627,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
       <c r="E63" s="4" t="s">
         <v>70</v>
       </c>
@@ -3649,9 +3649,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
       <c r="E64" s="4" t="s">
         <v>71</v>
       </c>
@@ -3668,30 +3668,30 @@
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -3713,9 +3713,9 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="4" t="s">
         <v>26</v>
       </c>
@@ -3735,9 +3735,9 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="4" t="s">
         <v>27</v>
       </c>
@@ -3757,9 +3757,9 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="4" t="s">
         <v>28</v>
       </c>
@@ -3779,9 +3779,9 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="5" t="s">
         <v>33</v>
       </c>
@@ -3801,9 +3801,9 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="5" t="s">
         <v>434</v>
       </c>
@@ -3823,9 +3823,9 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="16"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="21"/>
       <c r="E72" s="5" t="s">
         <v>435</v>
       </c>
@@ -3845,8 +3845,8 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="15"/>
+      <c r="C73" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -3871,8 +3871,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="13"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="4" t="s">
         <v>64</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="25"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="4" t="s">
         <v>119</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="25"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="4" t="s">
         <v>12</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="25"/>
+      <c r="B77" s="15"/>
       <c r="C77" s="4" t="s">
         <v>58</v>
       </c>
@@ -3970,30 +3970,30 @@
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E79" s="4" t="s">
@@ -4015,9 +4015,9 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="15"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="4" t="s">
         <v>86</v>
       </c>
@@ -4037,9 +4037,9 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="15"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="4" t="s">
         <v>266</v>
       </c>
@@ -4059,9 +4059,9 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="5" t="s">
         <v>436</v>
       </c>
@@ -4081,9 +4081,9 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="15"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="5" t="s">
         <v>437</v>
       </c>
@@ -4103,9 +4103,9 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="16"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="21"/>
       <c r="E84" s="5" t="s">
         <v>438</v>
       </c>
@@ -4125,8 +4125,8 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="15"/>
+      <c r="C85" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="4" t="s">
@@ -4151,8 +4151,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="13"/>
+      <c r="B86" s="15"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="4" t="s">
         <v>64</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="25"/>
+      <c r="B87" s="15"/>
       <c r="C87" s="4" t="s">
         <v>119</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="25"/>
+      <c r="B88" s="15"/>
       <c r="C88" s="4" t="s">
         <v>12</v>
       </c>
@@ -4227,7 +4227,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="25"/>
+      <c r="B89" s="15"/>
       <c r="C89" s="4" t="s">
         <v>58</v>
       </c>
@@ -4250,30 +4250,30 @@
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="s">
+      <c r="A90" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E91" s="4" t="s">
@@ -4295,9 +4295,9 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="4" t="s">
         <v>98</v>
       </c>
@@ -4317,9 +4317,9 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="25"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="4" t="s">
         <v>267</v>
       </c>
@@ -4339,9 +4339,9 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="5" t="s">
         <v>439</v>
       </c>
@@ -4361,9 +4361,9 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="5" t="s">
         <v>440</v>
       </c>
@@ -4383,9 +4383,9 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="16"/>
+      <c r="B96" s="15"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="21"/>
       <c r="E96" s="5" t="s">
         <v>441</v>
       </c>
@@ -4405,8 +4405,8 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="11" t="s">
+      <c r="B97" s="15"/>
+      <c r="C97" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -4431,8 +4431,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="13"/>
+      <c r="B98" s="15"/>
+      <c r="C98" s="18"/>
       <c r="D98" s="4" t="s">
         <v>64</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="25"/>
+      <c r="B99" s="15"/>
       <c r="C99" s="4" t="s">
         <v>119</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="25"/>
+      <c r="B100" s="15"/>
       <c r="C100" s="4" t="s">
         <v>12</v>
       </c>
@@ -4507,7 +4507,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="25"/>
+      <c r="B101" s="15"/>
       <c r="C101" s="4" t="s">
         <v>58</v>
       </c>
@@ -4530,30 +4530,30 @@
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="25" t="s">
+      <c r="B103" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C103" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E103" s="4" t="s">
@@ -4575,9 +4575,9 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="25"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="15"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="4" t="s">
         <v>107</v>
       </c>
@@ -4597,9 +4597,9 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="25"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="15"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="4" t="s">
         <v>108</v>
       </c>
@@ -4619,9 +4619,9 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="25"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="15"/>
+      <c r="B106" s="15"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="4" t="s">
         <v>109</v>
       </c>
@@ -4641,9 +4641,9 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="15"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="5" t="s">
         <v>114</v>
       </c>
@@ -4663,9 +4663,9 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="25"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="15"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="20"/>
       <c r="E108" s="5" t="s">
         <v>115</v>
       </c>
@@ -4685,9 +4685,9 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="25"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="15"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="5" t="s">
         <v>442</v>
       </c>
@@ -4707,9 +4707,9 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="25"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="16"/>
+      <c r="B110" s="15"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="21"/>
       <c r="E110" s="5" t="s">
         <v>443</v>
       </c>
@@ -4729,8 +4729,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25" t="s">
+      <c r="B111" s="15"/>
+      <c r="C111" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="4" t="s">
@@ -4755,8 +4755,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
       <c r="D112" s="4" t="s">
         <v>66</v>
       </c>
@@ -4779,8 +4779,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="25"/>
-      <c r="C113" s="25"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="15"/>
       <c r="D113" s="4" t="s">
         <v>64</v>
       </c>
@@ -4803,7 +4803,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="25"/>
+      <c r="B114" s="15"/>
       <c r="C114" s="4" t="s">
         <v>119</v>
       </c>
@@ -4826,30 +4826,30 @@
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="17"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E116" s="4" t="s">
@@ -4871,9 +4871,9 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="25"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="15"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="4" t="s">
         <v>129</v>
       </c>
@@ -4893,9 +4893,9 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="25"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="15"/>
+      <c r="B118" s="15"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="4" t="s">
         <v>444</v>
       </c>
@@ -4915,9 +4915,9 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="15"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="20"/>
       <c r="E119" s="5" t="s">
         <v>130</v>
       </c>
@@ -4937,9 +4937,9 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="25"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="15"/>
+      <c r="B120" s="15"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="20"/>
       <c r="E120" s="5" t="s">
         <v>445</v>
       </c>
@@ -4959,9 +4959,9 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="25"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="16"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="21"/>
       <c r="E121" s="5" t="s">
         <v>446</v>
       </c>
@@ -4981,8 +4981,8 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="25"/>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="15"/>
+      <c r="C122" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="4" t="s">
@@ -5007,8 +5007,8 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="12"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="17"/>
       <c r="D123" s="4" t="s">
         <v>64</v>
       </c>
@@ -5031,8 +5031,8 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="25"/>
-      <c r="C124" s="13"/>
+      <c r="B124" s="15"/>
+      <c r="C124" s="18"/>
       <c r="D124" s="4" t="s">
         <v>66</v>
       </c>
@@ -5055,7 +5055,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="25"/>
+      <c r="B125" s="15"/>
       <c r="C125" s="4" t="s">
         <v>58</v>
       </c>
@@ -5078,30 +5078,30 @@
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="17"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
     </row>
     <row r="127" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>119</v>
       </c>
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="11" t="s">
+      <c r="C127" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="14" t="s">
+      <c r="D127" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E127" s="9" t="s">
@@ -5123,9 +5123,9 @@
       <c r="A128" s="9">
         <v>120</v>
       </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="15"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="20"/>
       <c r="E128" s="5" t="s">
         <v>146</v>
       </c>
@@ -5145,9 +5145,9 @@
       <c r="A129" s="9">
         <v>121</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="15"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="20"/>
       <c r="E129" s="5" t="s">
         <v>149</v>
       </c>
@@ -5167,9 +5167,9 @@
       <c r="A130" s="9">
         <v>122</v>
       </c>
-      <c r="B130" s="15"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="15"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="9" t="s">
         <v>447</v>
       </c>
@@ -5189,9 +5189,9 @@
       <c r="A131" s="9">
         <v>123</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="15"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="20"/>
       <c r="E131" s="5" t="s">
         <v>155</v>
       </c>
@@ -5211,9 +5211,9 @@
       <c r="A132" s="9">
         <v>124</v>
       </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="16"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="21"/>
       <c r="E132" s="5" t="s">
         <v>448</v>
       </c>
@@ -5233,11 +5233,11 @@
       <c r="A133" s="9">
         <v>125</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="11" t="s">
+      <c r="B133" s="20"/>
+      <c r="C133" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="11" t="s">
+      <c r="D133" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E133" s="4" t="s">
@@ -5259,9 +5259,9 @@
       <c r="A134" s="9">
         <v>126</v>
       </c>
-      <c r="B134" s="15"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
       <c r="E134" s="4" t="s">
         <v>146</v>
       </c>
@@ -5281,9 +5281,9 @@
       <c r="A135" s="9">
         <v>127</v>
       </c>
-      <c r="B135" s="15"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
       <c r="E135" s="4" t="s">
         <v>149</v>
       </c>
@@ -5303,9 +5303,9 @@
       <c r="A136" s="9">
         <v>128</v>
       </c>
-      <c r="B136" s="15"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
       <c r="E136" s="4" t="s">
         <v>155</v>
       </c>
@@ -5325,9 +5325,9 @@
       <c r="A137" s="9">
         <v>129</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="17"/>
+      <c r="D137" s="17"/>
       <c r="E137" s="4" t="s">
         <v>448</v>
       </c>
@@ -5347,9 +5347,9 @@
       <c r="A138" s="9">
         <v>130</v>
       </c>
-      <c r="B138" s="15"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
       <c r="E138" s="4" t="s">
         <v>449</v>
       </c>
@@ -5369,9 +5369,9 @@
       <c r="A139" s="9">
         <v>131</v>
       </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="17"/>
+      <c r="D139" s="17"/>
       <c r="E139" s="4" t="s">
         <v>158</v>
       </c>
@@ -5391,9 +5391,9 @@
       <c r="A140" s="9">
         <v>132</v>
       </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="4" t="s">
         <v>163</v>
       </c>
@@ -5413,9 +5413,9 @@
       <c r="A141" s="9">
         <v>133</v>
       </c>
-      <c r="B141" s="15"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
       <c r="E141" s="4" t="s">
         <v>161</v>
       </c>
@@ -5435,9 +5435,9 @@
       <c r="A142" s="9">
         <v>134</v>
       </c>
-      <c r="B142" s="15"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
       <c r="E142" s="4" t="s">
         <v>166</v>
       </c>
@@ -5457,9 +5457,9 @@
       <c r="A143" s="9">
         <v>135</v>
       </c>
-      <c r="B143" s="15"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
       <c r="E143" s="4" t="s">
         <v>187</v>
       </c>
@@ -5479,9 +5479,9 @@
       <c r="A144" s="9">
         <v>136</v>
       </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
       <c r="E144" s="4" t="s">
         <v>187</v>
       </c>
@@ -5501,9 +5501,9 @@
       <c r="A145" s="9">
         <v>137</v>
       </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="17"/>
+      <c r="D145" s="17"/>
       <c r="E145" s="4" t="s">
         <v>188</v>
       </c>
@@ -5523,9 +5523,9 @@
       <c r="A146" s="9">
         <v>138</v>
       </c>
-      <c r="B146" s="15"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
       <c r="E146" s="4" t="s">
         <v>188</v>
       </c>
@@ -5545,9 +5545,9 @@
       <c r="A147" s="9">
         <v>139</v>
       </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
       <c r="E147" s="4" t="s">
         <v>189</v>
       </c>
@@ -5567,9 +5567,9 @@
       <c r="A148" s="9">
         <v>140</v>
       </c>
-      <c r="B148" s="16"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
+      <c r="B148" s="21"/>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
       <c r="E148" s="4" t="s">
         <v>189</v>
       </c>
@@ -5589,7 +5589,7 @@
       <c r="A149" s="9">
         <v>141</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -5617,7 +5617,7 @@
       <c r="A150" s="9">
         <v>142</v>
       </c>
-      <c r="B150" s="13"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="4" t="s">
         <v>119</v>
       </c>
@@ -5640,30 +5640,30 @@
       <c r="J150" s="4"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="17"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B152" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C152" s="11" t="s">
+      <c r="C152" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E152" s="4" t="s">
@@ -5685,9 +5685,9 @@
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="25"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="17"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="4" t="s">
         <v>192</v>
       </c>
@@ -5707,9 +5707,9 @@
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="25"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="4" t="s">
         <v>193</v>
       </c>
@@ -5729,9 +5729,9 @@
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="25"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="20"/>
       <c r="E155" s="4" t="s">
         <v>194</v>
       </c>
@@ -5751,9 +5751,9 @@
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="25"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="20"/>
       <c r="E156" s="5" t="s">
         <v>195</v>
       </c>
@@ -5773,9 +5773,9 @@
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="25"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="15"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="17"/>
+      <c r="D157" s="20"/>
       <c r="E157" s="5" t="s">
         <v>450</v>
       </c>
@@ -5795,9 +5795,9 @@
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="25"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="20"/>
       <c r="E158" s="5" t="s">
         <v>451</v>
       </c>
@@ -5817,9 +5817,9 @@
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="25"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="16"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="21"/>
       <c r="E159" s="5" t="s">
         <v>452</v>
       </c>
@@ -5839,8 +5839,8 @@
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="25"/>
-      <c r="C160" s="11" t="s">
+      <c r="B160" s="15"/>
+      <c r="C160" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -5865,8 +5865,8 @@
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="25"/>
-      <c r="C161" s="13"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="18"/>
       <c r="D161" s="4" t="s">
         <v>64</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="25"/>
+      <c r="B162" s="15"/>
       <c r="C162" s="4" t="s">
         <v>119</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="25"/>
+      <c r="B163" s="15"/>
       <c r="C163" s="4" t="s">
         <v>12</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="25"/>
+      <c r="B164" s="15"/>
       <c r="C164" s="4" t="s">
         <v>58</v>
       </c>
@@ -5964,30 +5964,30 @@
       <c r="J164" s="4"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="25" t="s">
+      <c r="B166" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="C166" s="11" t="s">
+      <c r="C166" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="D166" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E166" s="5" t="s">
@@ -6009,9 +6009,9 @@
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="25"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="15"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="20"/>
       <c r="E167" s="5" t="s">
         <v>206</v>
       </c>
@@ -6031,9 +6031,9 @@
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="25"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="20"/>
       <c r="E168" s="5" t="s">
         <v>207</v>
       </c>
@@ -6053,9 +6053,9 @@
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="25"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="15"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="17"/>
+      <c r="D169" s="20"/>
       <c r="E169" s="5" t="s">
         <v>208</v>
       </c>
@@ -6075,9 +6075,9 @@
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="25"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="15"/>
+      <c r="B170" s="15"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="5" t="s">
         <v>209</v>
       </c>
@@ -6097,9 +6097,9 @@
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="25"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="15"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="5" t="s">
         <v>210</v>
       </c>
@@ -6119,9 +6119,9 @@
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="25"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="15"/>
+      <c r="B172" s="15"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="20"/>
       <c r="E172" s="5" t="s">
         <v>453</v>
       </c>
@@ -6141,9 +6141,9 @@
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="25"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="17"/>
+      <c r="D173" s="20"/>
       <c r="E173" s="5" t="s">
         <v>454</v>
       </c>
@@ -6163,9 +6163,9 @@
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="25"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="16"/>
+      <c r="B174" s="15"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="21"/>
       <c r="E174" s="5" t="s">
         <v>455</v>
       </c>
@@ -6185,8 +6185,8 @@
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="25"/>
-      <c r="C175" s="25" t="s">
+      <c r="B175" s="15"/>
+      <c r="C175" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -6211,8 +6211,8 @@
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="25"/>
-      <c r="C176" s="25"/>
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
       <c r="D176" s="5" t="s">
         <v>64</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="25"/>
+      <c r="B177" s="15"/>
       <c r="C177" s="5" t="s">
         <v>119</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="25"/>
+      <c r="B178" s="15"/>
       <c r="C178" s="5" t="s">
         <v>12</v>
       </c>
@@ -6287,7 +6287,7 @@
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="25"/>
+      <c r="B179" s="15"/>
       <c r="C179" s="5" t="s">
         <v>58</v>
       </c>
@@ -6310,30 +6310,30 @@
       <c r="J179" s="5"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="17" t="s">
+      <c r="A180" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="17"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C181" s="11" t="s">
+      <c r="C181" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E181" s="5" t="s">
@@ -6355,9 +6355,9 @@
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="25"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="15"/>
+      <c r="B182" s="15"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="5" t="s">
         <v>227</v>
       </c>
@@ -6377,9 +6377,9 @@
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="25"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="15"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="20"/>
       <c r="E183" s="5" t="s">
         <v>228</v>
       </c>
@@ -6399,9 +6399,9 @@
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="25"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="15"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="20"/>
       <c r="E184" s="5" t="s">
         <v>230</v>
       </c>
@@ -6421,9 +6421,9 @@
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="25"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="15"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="17"/>
+      <c r="D185" s="20"/>
       <c r="E185" s="5" t="s">
         <v>229</v>
       </c>
@@ -6443,9 +6443,9 @@
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="25"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="15"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="20"/>
       <c r="E186" s="5" t="s">
         <v>231</v>
       </c>
@@ -6465,9 +6465,9 @@
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="25"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="15"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="17"/>
+      <c r="D187" s="20"/>
       <c r="E187" s="5" t="s">
         <v>456</v>
       </c>
@@ -6487,9 +6487,9 @@
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="25"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="15"/>
+      <c r="B188" s="15"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="20"/>
       <c r="E188" s="5" t="s">
         <v>457</v>
       </c>
@@ -6509,9 +6509,9 @@
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="25"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="16"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="21"/>
       <c r="E189" s="5" t="s">
         <v>458</v>
       </c>
@@ -6531,8 +6531,8 @@
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="25"/>
-      <c r="C190" s="25" t="s">
+      <c r="B190" s="15"/>
+      <c r="C190" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -6557,8 +6557,8 @@
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="25"/>
-      <c r="C191" s="25"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
       <c r="D191" s="5" t="s">
         <v>64</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="25"/>
+      <c r="B192" s="15"/>
       <c r="C192" s="5" t="s">
         <v>119</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="25"/>
+      <c r="B193" s="15"/>
       <c r="C193" s="5" t="s">
         <v>12</v>
       </c>
@@ -6633,7 +6633,7 @@
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="25"/>
+      <c r="B194" s="15"/>
       <c r="C194" s="5" t="s">
         <v>58</v>
       </c>
@@ -6656,30 +6656,30 @@
       <c r="J194" s="5"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="17" t="s">
+      <c r="A195" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="13"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="25" t="s">
+      <c r="B196" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C196" s="11" t="s">
+      <c r="C196" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="14" t="s">
+      <c r="D196" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E196" s="5" t="s">
@@ -6701,9 +6701,9 @@
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="25"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="15"/>
+      <c r="B197" s="15"/>
+      <c r="C197" s="17"/>
+      <c r="D197" s="20"/>
       <c r="E197" s="5" t="s">
         <v>245</v>
       </c>
@@ -6723,9 +6723,9 @@
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="25"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="15"/>
+      <c r="B198" s="15"/>
+      <c r="C198" s="17"/>
+      <c r="D198" s="20"/>
       <c r="E198" s="5" t="s">
         <v>244</v>
       </c>
@@ -6745,9 +6745,9 @@
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="25"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="15"/>
+      <c r="B199" s="15"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="20"/>
       <c r="E199" s="5" t="s">
         <v>246</v>
       </c>
@@ -6767,9 +6767,9 @@
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="25"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="15"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="17"/>
+      <c r="D200" s="20"/>
       <c r="E200" s="5" t="s">
         <v>243</v>
       </c>
@@ -6789,9 +6789,9 @@
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="25"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="15"/>
+      <c r="B201" s="15"/>
+      <c r="C201" s="17"/>
+      <c r="D201" s="20"/>
       <c r="E201" s="5" t="s">
         <v>239</v>
       </c>
@@ -6811,9 +6811,9 @@
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="25"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="15"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="17"/>
+      <c r="D202" s="20"/>
       <c r="E202" s="5" t="s">
         <v>460</v>
       </c>
@@ -6833,9 +6833,9 @@
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="25"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="15"/>
+      <c r="B203" s="15"/>
+      <c r="C203" s="17"/>
+      <c r="D203" s="20"/>
       <c r="E203" s="5" t="s">
         <v>461</v>
       </c>
@@ -6855,9 +6855,9 @@
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="25"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="16"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="21"/>
       <c r="E204" s="5" t="s">
         <v>459</v>
       </c>
@@ -6877,8 +6877,8 @@
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="25"/>
-      <c r="C205" s="25" t="s">
+      <c r="B205" s="15"/>
+      <c r="C205" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="5" t="s">
@@ -6903,8 +6903,8 @@
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="25"/>
-      <c r="C206" s="25"/>
+      <c r="B206" s="15"/>
+      <c r="C206" s="15"/>
       <c r="D206" s="5" t="s">
         <v>64</v>
       </c>
@@ -6927,7 +6927,7 @@
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="25"/>
+      <c r="B207" s="15"/>
       <c r="C207" s="5" t="s">
         <v>119</v>
       </c>
@@ -6953,7 +6953,7 @@
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="25"/>
+      <c r="B208" s="15"/>
       <c r="C208" s="5" t="s">
         <v>12</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="25"/>
+      <c r="B209" s="15"/>
       <c r="C209" s="5" t="s">
         <v>58</v>
       </c>
@@ -7002,30 +7002,30 @@
       <c r="J209" s="5"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="17" t="s">
+      <c r="A210" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="17"/>
+      <c r="B210" s="13"/>
+      <c r="C210" s="13"/>
+      <c r="D210" s="13"/>
+      <c r="E210" s="13"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="25" t="s">
+      <c r="B211" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C211" s="11" t="s">
+      <c r="C211" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="D211" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E211" s="5" t="s">
@@ -7047,9 +7047,9 @@
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="25"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="15"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="17"/>
+      <c r="D212" s="20"/>
       <c r="E212" s="5" t="s">
         <v>259</v>
       </c>
@@ -7069,9 +7069,9 @@
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="25"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="15"/>
+      <c r="B213" s="15"/>
+      <c r="C213" s="17"/>
+      <c r="D213" s="20"/>
       <c r="E213" s="5" t="s">
         <v>257</v>
       </c>
@@ -7091,9 +7091,9 @@
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="25"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="15"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="17"/>
+      <c r="D214" s="20"/>
       <c r="E214" s="5" t="s">
         <v>260</v>
       </c>
@@ -7113,9 +7113,9 @@
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="25"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="15"/>
+      <c r="B215" s="15"/>
+      <c r="C215" s="17"/>
+      <c r="D215" s="20"/>
       <c r="E215" s="5" t="s">
         <v>258</v>
       </c>
@@ -7135,9 +7135,9 @@
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="25"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="15"/>
+      <c r="B216" s="15"/>
+      <c r="C216" s="17"/>
+      <c r="D216" s="20"/>
       <c r="E216" s="5" t="s">
         <v>253</v>
       </c>
@@ -7157,9 +7157,9 @@
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="25"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="15"/>
+      <c r="B217" s="15"/>
+      <c r="C217" s="17"/>
+      <c r="D217" s="20"/>
       <c r="E217" s="5" t="s">
         <v>463</v>
       </c>
@@ -7179,9 +7179,9 @@
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="25"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="15"/>
+      <c r="B218" s="15"/>
+      <c r="C218" s="17"/>
+      <c r="D218" s="20"/>
       <c r="E218" s="5" t="s">
         <v>464</v>
       </c>
@@ -7201,9 +7201,9 @@
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="25"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="16"/>
+      <c r="B219" s="15"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="21"/>
       <c r="E219" s="5" t="s">
         <v>462</v>
       </c>
@@ -7223,8 +7223,8 @@
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="25"/>
-      <c r="C220" s="25" t="s">
+      <c r="B220" s="15"/>
+      <c r="C220" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -7249,8 +7249,8 @@
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="25"/>
-      <c r="C221" s="25"/>
+      <c r="B221" s="15"/>
+      <c r="C221" s="15"/>
       <c r="D221" s="5" t="s">
         <v>64</v>
       </c>
@@ -7273,7 +7273,7 @@
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="25"/>
+      <c r="B222" s="15"/>
       <c r="C222" s="5" t="s">
         <v>119</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="25"/>
+      <c r="B223" s="15"/>
       <c r="C223" s="5" t="s">
         <v>12</v>
       </c>
@@ -7325,7 +7325,7 @@
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="25"/>
+      <c r="B224" s="15"/>
       <c r="C224" s="5" t="s">
         <v>58</v>
       </c>
@@ -7348,30 +7348,30 @@
       <c r="J224" s="5"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="17" t="s">
+      <c r="A225" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
-      <c r="D225" s="17"/>
-      <c r="E225" s="17"/>
-      <c r="F225" s="17"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="17"/>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="25" t="s">
+      <c r="B226" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="C226" s="11" t="s">
+      <c r="C226" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="D226" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E226" s="5" t="s">
@@ -7393,9 +7393,9 @@
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="25"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="15"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="17"/>
+      <c r="D227" s="20"/>
       <c r="E227" s="5" t="s">
         <v>264</v>
       </c>
@@ -7415,9 +7415,9 @@
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="25"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="15"/>
+      <c r="B228" s="15"/>
+      <c r="C228" s="17"/>
+      <c r="D228" s="20"/>
       <c r="E228" s="5" t="s">
         <v>265</v>
       </c>
@@ -7437,9 +7437,9 @@
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="25"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="15"/>
+      <c r="B229" s="15"/>
+      <c r="C229" s="17"/>
+      <c r="D229" s="20"/>
       <c r="E229" s="5" t="s">
         <v>268</v>
       </c>
@@ -7459,9 +7459,9 @@
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="25"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="15"/>
+      <c r="B230" s="15"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="20"/>
       <c r="E230" s="5" t="s">
         <v>465</v>
       </c>
@@ -7481,9 +7481,9 @@
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="25"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="16"/>
+      <c r="B231" s="15"/>
+      <c r="C231" s="18"/>
+      <c r="D231" s="21"/>
       <c r="E231" s="5" t="s">
         <v>466</v>
       </c>
@@ -7503,8 +7503,8 @@
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="25"/>
-      <c r="C232" s="25" t="s">
+      <c r="B232" s="15"/>
+      <c r="C232" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="5" t="s">
@@ -7529,8 +7529,8 @@
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="25"/>
-      <c r="C233" s="25"/>
+      <c r="B233" s="15"/>
+      <c r="C233" s="15"/>
       <c r="D233" s="5" t="s">
         <v>64</v>
       </c>
@@ -7553,7 +7553,7 @@
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="25"/>
+      <c r="B234" s="15"/>
       <c r="C234" s="5" t="s">
         <v>119</v>
       </c>
@@ -7579,7 +7579,7 @@
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="25"/>
+      <c r="B235" s="15"/>
       <c r="C235" s="5" t="s">
         <v>12</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="25"/>
+      <c r="B236" s="15"/>
       <c r="C236" s="5" t="s">
         <v>58</v>
       </c>
@@ -7628,30 +7628,30 @@
       <c r="J236" s="5"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="17" t="s">
+      <c r="A237" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B237" s="17"/>
-      <c r="C237" s="17"/>
-      <c r="D237" s="17"/>
-      <c r="E237" s="17"/>
-      <c r="F237" s="17"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="17"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C238" s="25" t="s">
+      <c r="C238" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="24" t="s">
+      <c r="D238" s="14" t="s">
         <v>62</v>
       </c>
       <c r="E238" s="4" t="s">
@@ -7673,9 +7673,9 @@
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="15"/>
-      <c r="C239" s="25"/>
-      <c r="D239" s="24"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="15"/>
+      <c r="D239" s="14"/>
       <c r="E239" s="4" t="s">
         <v>371</v>
       </c>
@@ -7695,9 +7695,9 @@
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="15"/>
-      <c r="C240" s="25"/>
-      <c r="D240" s="24"/>
+      <c r="B240" s="20"/>
+      <c r="C240" s="15"/>
+      <c r="D240" s="14"/>
       <c r="E240" s="4" t="s">
         <v>394</v>
       </c>
@@ -7717,9 +7717,9 @@
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="15"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="24"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="15"/>
+      <c r="D241" s="14"/>
       <c r="E241" s="4" t="s">
         <v>373</v>
       </c>
@@ -7739,9 +7739,9 @@
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="15"/>
-      <c r="C242" s="25"/>
-      <c r="D242" s="24"/>
+      <c r="B242" s="20"/>
+      <c r="C242" s="15"/>
+      <c r="D242" s="14"/>
       <c r="E242" s="4" t="s">
         <v>374</v>
       </c>
@@ -7761,9 +7761,9 @@
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="15"/>
-      <c r="C243" s="25"/>
-      <c r="D243" s="24"/>
+      <c r="B243" s="20"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="14"/>
       <c r="E243" s="4" t="s">
         <v>375</v>
       </c>
@@ -7783,9 +7783,9 @@
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="15"/>
-      <c r="C244" s="25"/>
-      <c r="D244" s="24"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="14"/>
       <c r="E244" s="4" t="s">
         <v>376</v>
       </c>
@@ -7805,9 +7805,9 @@
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="15"/>
-      <c r="C245" s="25"/>
-      <c r="D245" s="24"/>
+      <c r="B245" s="20"/>
+      <c r="C245" s="15"/>
+      <c r="D245" s="14"/>
       <c r="E245" s="4" t="s">
         <v>377</v>
       </c>
@@ -7827,9 +7827,9 @@
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="15"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="24"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="14"/>
       <c r="E246" s="4" t="s">
         <v>378</v>
       </c>
@@ -7849,9 +7849,9 @@
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="15"/>
-      <c r="C247" s="25"/>
-      <c r="D247" s="24"/>
+      <c r="B247" s="20"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="14"/>
       <c r="E247" s="4" t="s">
         <v>379</v>
       </c>
@@ -7871,9 +7871,9 @@
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="15"/>
-      <c r="C248" s="25"/>
-      <c r="D248" s="24"/>
+      <c r="B248" s="20"/>
+      <c r="C248" s="15"/>
+      <c r="D248" s="14"/>
       <c r="E248" s="4" t="s">
         <v>380</v>
       </c>
@@ -7893,9 +7893,9 @@
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="15"/>
-      <c r="C249" s="25"/>
-      <c r="D249" s="24"/>
+      <c r="B249" s="20"/>
+      <c r="C249" s="15"/>
+      <c r="D249" s="14"/>
       <c r="E249" s="4" t="s">
         <v>381</v>
       </c>
@@ -7915,9 +7915,9 @@
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="15"/>
-      <c r="C250" s="25"/>
-      <c r="D250" s="24"/>
+      <c r="B250" s="20"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="14"/>
       <c r="E250" s="4" t="s">
         <v>382</v>
       </c>
@@ -7937,9 +7937,9 @@
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="15"/>
-      <c r="C251" s="25"/>
-      <c r="D251" s="24"/>
+      <c r="B251" s="20"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="14"/>
       <c r="E251" s="4" t="s">
         <v>383</v>
       </c>
@@ -7959,9 +7959,9 @@
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="15"/>
-      <c r="C252" s="25"/>
-      <c r="D252" s="24"/>
+      <c r="B252" s="20"/>
+      <c r="C252" s="15"/>
+      <c r="D252" s="14"/>
       <c r="E252" s="4" t="s">
         <v>384</v>
       </c>
@@ -7981,9 +7981,9 @@
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="15"/>
-      <c r="C253" s="25"/>
-      <c r="D253" s="24"/>
+      <c r="B253" s="20"/>
+      <c r="C253" s="15"/>
+      <c r="D253" s="14"/>
       <c r="E253" s="4" t="s">
         <v>385</v>
       </c>
@@ -8003,9 +8003,9 @@
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="15"/>
-      <c r="C254" s="25"/>
-      <c r="D254" s="24"/>
+      <c r="B254" s="20"/>
+      <c r="C254" s="15"/>
+      <c r="D254" s="14"/>
       <c r="E254" s="4" t="s">
         <v>386</v>
       </c>
@@ -8025,9 +8025,9 @@
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="15"/>
-      <c r="C255" s="25"/>
-      <c r="D255" s="24"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="15"/>
+      <c r="D255" s="14"/>
       <c r="E255" s="4" t="s">
         <v>387</v>
       </c>
@@ -8047,9 +8047,9 @@
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="15"/>
-      <c r="C256" s="25"/>
-      <c r="D256" s="24"/>
+      <c r="B256" s="20"/>
+      <c r="C256" s="15"/>
+      <c r="D256" s="14"/>
       <c r="E256" s="4" t="s">
         <v>388</v>
       </c>
@@ -8069,9 +8069,9 @@
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="15"/>
-      <c r="C257" s="25"/>
-      <c r="D257" s="24"/>
+      <c r="B257" s="20"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="14"/>
       <c r="E257" s="4" t="s">
         <v>389</v>
       </c>
@@ -8091,9 +8091,9 @@
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="15"/>
-      <c r="C258" s="25"/>
-      <c r="D258" s="24"/>
+      <c r="B258" s="20"/>
+      <c r="C258" s="15"/>
+      <c r="D258" s="14"/>
       <c r="E258" s="4" t="s">
         <v>390</v>
       </c>
@@ -8113,9 +8113,9 @@
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="15"/>
-      <c r="C259" s="25"/>
-      <c r="D259" s="24"/>
+      <c r="B259" s="20"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="14"/>
       <c r="E259" s="4" t="s">
         <v>391</v>
       </c>
@@ -8135,9 +8135,9 @@
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="15"/>
-      <c r="C260" s="25"/>
-      <c r="D260" s="24"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="15"/>
+      <c r="D260" s="14"/>
       <c r="E260" s="4" t="s">
         <v>392</v>
       </c>
@@ -8157,11 +8157,11 @@
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="15"/>
-      <c r="C261" s="11" t="s">
+      <c r="B261" s="20"/>
+      <c r="C261" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="11" t="s">
+      <c r="D261" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -8183,9 +8183,9 @@
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="15"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
+      <c r="B262" s="20"/>
+      <c r="C262" s="17"/>
+      <c r="D262" s="17"/>
       <c r="E262" s="4" t="s">
         <v>398</v>
       </c>
@@ -8205,16 +8205,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="15"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
+      <c r="B263" s="20"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
       <c r="E263" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F263" s="11" t="s">
+      <c r="F263" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="G263" s="14" t="s">
+      <c r="G263" s="19" t="s">
         <v>401</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -8227,14 +8227,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="15"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="12"/>
+      <c r="B264" s="20"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
       <c r="E264" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F264" s="12"/>
-      <c r="G264" s="15"/>
+      <c r="F264" s="17"/>
+      <c r="G264" s="20"/>
       <c r="H264" s="4" t="s">
         <v>400</v>
       </c>
@@ -8245,14 +8245,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="15"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
+      <c r="B265" s="20"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
       <c r="E265" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F265" s="12"/>
-      <c r="G265" s="15"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="20"/>
       <c r="H265" s="4" t="s">
         <v>400</v>
       </c>
@@ -8263,14 +8263,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="15"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
+      <c r="B266" s="20"/>
+      <c r="C266" s="17"/>
+      <c r="D266" s="17"/>
       <c r="E266" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F266" s="13"/>
-      <c r="G266" s="16"/>
+      <c r="F266" s="18"/>
+      <c r="G266" s="21"/>
       <c r="H266" s="4" t="s">
         <v>400</v>
       </c>
@@ -8281,16 +8281,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="15"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
+      <c r="B267" s="20"/>
+      <c r="C267" s="17"/>
+      <c r="D267" s="17"/>
       <c r="E267" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F267" s="11" t="s">
+      <c r="F267" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="G267" s="14" t="s">
+      <c r="G267" s="19" t="s">
         <v>404</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -8303,14 +8303,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="15"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="17"/>
       <c r="E268" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F268" s="12"/>
-      <c r="G268" s="15"/>
+      <c r="F268" s="17"/>
+      <c r="G268" s="20"/>
       <c r="H268" s="4" t="s">
         <v>403</v>
       </c>
@@ -8321,14 +8321,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="15"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
+      <c r="B269" s="20"/>
+      <c r="C269" s="17"/>
+      <c r="D269" s="17"/>
       <c r="E269" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F269" s="12"/>
-      <c r="G269" s="15"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="20"/>
       <c r="H269" s="4" t="s">
         <v>403</v>
       </c>
@@ -8339,14 +8339,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="15"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
+      <c r="B270" s="20"/>
+      <c r="C270" s="17"/>
+      <c r="D270" s="17"/>
       <c r="E270" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F270" s="13"/>
-      <c r="G270" s="16"/>
+      <c r="F270" s="18"/>
+      <c r="G270" s="21"/>
       <c r="H270" s="4" t="s">
         <v>403</v>
       </c>
@@ -8357,16 +8357,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="15"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
+      <c r="B271" s="20"/>
+      <c r="C271" s="17"/>
+      <c r="D271" s="17"/>
       <c r="E271" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="F271" s="11" t="s">
+      <c r="F271" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="G271" s="14" t="s">
+      <c r="G271" s="19" t="s">
         <v>405</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -8379,14 +8379,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="15"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
+      <c r="B272" s="20"/>
+      <c r="C272" s="17"/>
+      <c r="D272" s="17"/>
       <c r="E272" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F272" s="12"/>
-      <c r="G272" s="15"/>
+      <c r="F272" s="17"/>
+      <c r="G272" s="20"/>
       <c r="H272" s="4" t="s">
         <v>403</v>
       </c>
@@ -8397,14 +8397,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="15"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="12"/>
+      <c r="B273" s="20"/>
+      <c r="C273" s="17"/>
+      <c r="D273" s="17"/>
       <c r="E273" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F273" s="12"/>
-      <c r="G273" s="15"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="20"/>
       <c r="H273" s="4" t="s">
         <v>403</v>
       </c>
@@ -8415,14 +8415,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="16"/>
-      <c r="C274" s="13"/>
-      <c r="D274" s="13"/>
+      <c r="B274" s="21"/>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
       <c r="E274" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F274" s="13"/>
-      <c r="G274" s="16"/>
+      <c r="F274" s="18"/>
+      <c r="G274" s="21"/>
       <c r="H274" s="4" t="s">
         <v>403</v>
       </c>
@@ -8430,30 +8430,30 @@
       <c r="J274" s="4"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="17" t="s">
+      <c r="A275" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="17"/>
-      <c r="F275" s="17"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
-      <c r="J275" s="17"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13"/>
+      <c r="D275" s="13"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="13"/>
+      <c r="G275" s="13"/>
+      <c r="H275" s="13"/>
+      <c r="I275" s="13"/>
+      <c r="J275" s="13"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C276" s="11" t="s">
+      <c r="C276" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="14" t="s">
+      <c r="D276" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E276" s="4" t="s">
@@ -8475,9 +8475,9 @@
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="15"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="15"/>
+      <c r="B277" s="20"/>
+      <c r="C277" s="17"/>
+      <c r="D277" s="20"/>
       <c r="E277" s="4" t="s">
         <v>276</v>
       </c>
@@ -8497,9 +8497,9 @@
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="15"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="15"/>
+      <c r="B278" s="20"/>
+      <c r="C278" s="17"/>
+      <c r="D278" s="20"/>
       <c r="E278" s="4" t="s">
         <v>277</v>
       </c>
@@ -8519,9 +8519,9 @@
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="15"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="15"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="17"/>
+      <c r="D279" s="20"/>
       <c r="E279" s="4" t="s">
         <v>278</v>
       </c>
@@ -8541,9 +8541,9 @@
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="15"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="15"/>
+      <c r="B280" s="20"/>
+      <c r="C280" s="17"/>
+      <c r="D280" s="20"/>
       <c r="E280" s="4" t="s">
         <v>316</v>
       </c>
@@ -8563,9 +8563,9 @@
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="15"/>
-      <c r="C281" s="13"/>
-      <c r="D281" s="16"/>
+      <c r="B281" s="20"/>
+      <c r="C281" s="18"/>
+      <c r="D281" s="21"/>
       <c r="E281" s="4" t="s">
         <v>279</v>
       </c>
@@ -8585,11 +8585,11 @@
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="15"/>
-      <c r="C282" s="11" t="s">
+      <c r="B282" s="20"/>
+      <c r="C282" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="11" t="s">
+      <c r="D282" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E282" s="4" t="s">
@@ -8611,9 +8611,9 @@
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="15"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
+      <c r="B283" s="20"/>
+      <c r="C283" s="17"/>
+      <c r="D283" s="17"/>
       <c r="E283" s="4" t="s">
         <v>283</v>
       </c>
@@ -8633,9 +8633,9 @@
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="15"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
+      <c r="B284" s="20"/>
+      <c r="C284" s="17"/>
+      <c r="D284" s="17"/>
       <c r="E284" s="4" t="s">
         <v>318</v>
       </c>
@@ -8655,9 +8655,9 @@
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="15"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="17"/>
+      <c r="D285" s="17"/>
       <c r="E285" s="4" t="s">
         <v>287</v>
       </c>
@@ -8679,9 +8679,9 @@
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="15"/>
-      <c r="C286" s="13"/>
-      <c r="D286" s="13"/>
+      <c r="B286" s="20"/>
+      <c r="C286" s="18"/>
+      <c r="D286" s="18"/>
       <c r="E286" s="4" t="s">
         <v>326</v>
       </c>
@@ -8703,7 +8703,7 @@
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="16"/>
+      <c r="B287" s="21"/>
       <c r="C287" s="4" t="s">
         <v>119</v>
       </c>
@@ -8726,30 +8726,30 @@
       <c r="J287" s="4"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="17" t="s">
+      <c r="A288" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="B288" s="17"/>
-      <c r="C288" s="17"/>
-      <c r="D288" s="17"/>
-      <c r="E288" s="17"/>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="17"/>
-      <c r="I288" s="17"/>
-      <c r="J288" s="17"/>
+      <c r="B288" s="13"/>
+      <c r="C288" s="13"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="13"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
+      <c r="H288" s="13"/>
+      <c r="I288" s="13"/>
+      <c r="J288" s="13"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="14" t="s">
+      <c r="B289" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C289" s="11" t="s">
+      <c r="C289" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="14" t="s">
+      <c r="D289" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E289" s="4" t="s">
@@ -8771,9 +8771,9 @@
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="15"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="15"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="17"/>
+      <c r="D290" s="20"/>
       <c r="E290" s="4" t="s">
         <v>314</v>
       </c>
@@ -8793,9 +8793,9 @@
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="15"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="15"/>
+      <c r="B291" s="20"/>
+      <c r="C291" s="17"/>
+      <c r="D291" s="20"/>
       <c r="E291" s="4" t="s">
         <v>315</v>
       </c>
@@ -8815,9 +8815,9 @@
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="15"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="15"/>
+      <c r="B292" s="20"/>
+      <c r="C292" s="17"/>
+      <c r="D292" s="20"/>
       <c r="E292" s="4" t="s">
         <v>307</v>
       </c>
@@ -8837,9 +8837,9 @@
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="15"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="15"/>
+      <c r="B293" s="20"/>
+      <c r="C293" s="17"/>
+      <c r="D293" s="20"/>
       <c r="E293" s="4" t="s">
         <v>317</v>
       </c>
@@ -8859,9 +8859,9 @@
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="15"/>
-      <c r="C294" s="13"/>
-      <c r="D294" s="16"/>
+      <c r="B294" s="20"/>
+      <c r="C294" s="18"/>
+      <c r="D294" s="21"/>
       <c r="E294" s="4" t="s">
         <v>303</v>
       </c>
@@ -8881,11 +8881,11 @@
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="15"/>
-      <c r="C295" s="11" t="s">
+      <c r="B295" s="20"/>
+      <c r="C295" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="11" t="s">
+      <c r="D295" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E295" s="4" t="s">
@@ -8907,9 +8907,9 @@
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="15"/>
-      <c r="C296" s="12"/>
-      <c r="D296" s="12"/>
+      <c r="B296" s="20"/>
+      <c r="C296" s="17"/>
+      <c r="D296" s="17"/>
       <c r="E296" s="4" t="s">
         <v>304</v>
       </c>
@@ -8929,9 +8929,9 @@
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="15"/>
-      <c r="C297" s="12"/>
-      <c r="D297" s="12"/>
+      <c r="B297" s="20"/>
+      <c r="C297" s="17"/>
+      <c r="D297" s="17"/>
       <c r="E297" s="4" t="s">
         <v>318</v>
       </c>
@@ -8951,9 +8951,9 @@
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="15"/>
-      <c r="C298" s="12"/>
-      <c r="D298" s="12"/>
+      <c r="B298" s="20"/>
+      <c r="C298" s="17"/>
+      <c r="D298" s="17"/>
       <c r="E298" s="4" t="s">
         <v>305</v>
       </c>
@@ -8975,9 +8975,9 @@
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="15"/>
-      <c r="C299" s="13"/>
-      <c r="D299" s="13"/>
+      <c r="B299" s="20"/>
+      <c r="C299" s="18"/>
+      <c r="D299" s="18"/>
       <c r="E299" s="4" t="s">
         <v>325</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="16"/>
+      <c r="B300" s="21"/>
       <c r="C300" s="4" t="s">
         <v>119</v>
       </c>
@@ -9022,30 +9022,30 @@
       <c r="J300" s="4"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="17" t="s">
+      <c r="A301" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B301" s="17"/>
-      <c r="C301" s="17"/>
-      <c r="D301" s="17"/>
-      <c r="E301" s="17"/>
-      <c r="F301" s="17"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="17"/>
-      <c r="I301" s="17"/>
-      <c r="J301" s="17"/>
+      <c r="B301" s="13"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+      <c r="J301" s="13"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="14" t="s">
+      <c r="B302" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="C302" s="11" t="s">
+      <c r="C302" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="14" t="s">
+      <c r="D302" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E302" s="4" t="s">
@@ -9067,9 +9067,9 @@
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="15"/>
-      <c r="C303" s="12"/>
-      <c r="D303" s="15"/>
+      <c r="B303" s="20"/>
+      <c r="C303" s="17"/>
+      <c r="D303" s="20"/>
       <c r="E303" s="4" t="s">
         <v>347</v>
       </c>
@@ -9089,9 +9089,9 @@
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="15"/>
-      <c r="C304" s="12"/>
-      <c r="D304" s="15"/>
+      <c r="B304" s="20"/>
+      <c r="C304" s="17"/>
+      <c r="D304" s="20"/>
       <c r="E304" s="4" t="s">
         <v>348</v>
       </c>
@@ -9111,9 +9111,9 @@
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="15"/>
-      <c r="C305" s="12"/>
-      <c r="D305" s="15"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="17"/>
+      <c r="D305" s="20"/>
       <c r="E305" s="4" t="s">
         <v>345</v>
       </c>
@@ -9133,9 +9133,9 @@
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="15"/>
-      <c r="C306" s="12"/>
-      <c r="D306" s="15"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="17"/>
+      <c r="D306" s="20"/>
       <c r="E306" s="4" t="s">
         <v>340</v>
       </c>
@@ -9155,9 +9155,9 @@
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="15"/>
-      <c r="C307" s="13"/>
-      <c r="D307" s="16"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="18"/>
+      <c r="D307" s="21"/>
       <c r="E307" s="4" t="s">
         <v>341</v>
       </c>
@@ -9177,11 +9177,11 @@
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="15"/>
-      <c r="C308" s="11" t="s">
+      <c r="B308" s="20"/>
+      <c r="C308" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="11" t="s">
+      <c r="D308" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E308" s="4" t="s">
@@ -9203,9 +9203,9 @@
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="15"/>
-      <c r="C309" s="12"/>
-      <c r="D309" s="12"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="17"/>
+      <c r="D309" s="17"/>
       <c r="E309" s="4" t="s">
         <v>342</v>
       </c>
@@ -9225,9 +9225,9 @@
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="15"/>
-      <c r="C310" s="12"/>
-      <c r="D310" s="12"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="17"/>
+      <c r="D310" s="17"/>
       <c r="E310" s="4" t="s">
         <v>350</v>
       </c>
@@ -9247,9 +9247,9 @@
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="15"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
+      <c r="B311" s="20"/>
+      <c r="C311" s="17"/>
+      <c r="D311" s="17"/>
       <c r="E311" s="4" t="s">
         <v>343</v>
       </c>
@@ -9271,9 +9271,9 @@
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="15"/>
-      <c r="C312" s="13"/>
-      <c r="D312" s="13"/>
+      <c r="B312" s="20"/>
+      <c r="C312" s="18"/>
+      <c r="D312" s="18"/>
       <c r="E312" s="4" t="s">
         <v>351</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="16"/>
+      <c r="B313" s="21"/>
       <c r="C313" s="4" t="s">
         <v>119</v>
       </c>
@@ -9318,30 +9318,30 @@
       <c r="J313" s="4"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="17" t="s">
+      <c r="A314" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
-      <c r="D314" s="17"/>
-      <c r="E314" s="17"/>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="17"/>
-      <c r="I314" s="17"/>
-      <c r="J314" s="17"/>
+      <c r="B314" s="13"/>
+      <c r="C314" s="13"/>
+      <c r="D314" s="13"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
+      <c r="H314" s="13"/>
+      <c r="I314" s="13"/>
+      <c r="J314" s="13"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="24" t="s">
+      <c r="B315" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C315" s="11" t="s">
+      <c r="C315" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="14" t="s">
+      <c r="D315" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E315" s="5" t="s">
@@ -9363,9 +9363,9 @@
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="24"/>
-      <c r="C316" s="12"/>
-      <c r="D316" s="15"/>
+      <c r="B316" s="14"/>
+      <c r="C316" s="17"/>
+      <c r="D316" s="20"/>
       <c r="E316" s="5" t="s">
         <v>359</v>
       </c>
@@ -9385,9 +9385,9 @@
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="24"/>
-      <c r="C317" s="12"/>
-      <c r="D317" s="15"/>
+      <c r="B317" s="14"/>
+      <c r="C317" s="17"/>
+      <c r="D317" s="20"/>
       <c r="E317" s="5" t="s">
         <v>368</v>
       </c>
@@ -9407,9 +9407,9 @@
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="24"/>
-      <c r="C318" s="12"/>
-      <c r="D318" s="15"/>
+      <c r="B318" s="14"/>
+      <c r="C318" s="17"/>
+      <c r="D318" s="20"/>
       <c r="E318" s="5" t="s">
         <v>366</v>
       </c>
@@ -9429,9 +9429,9 @@
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="24"/>
-      <c r="C319" s="12"/>
-      <c r="D319" s="15"/>
+      <c r="B319" s="14"/>
+      <c r="C319" s="17"/>
+      <c r="D319" s="20"/>
       <c r="E319" s="5" t="s">
         <v>360</v>
       </c>
@@ -9451,9 +9451,9 @@
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="24"/>
-      <c r="C320" s="13"/>
-      <c r="D320" s="16"/>
+      <c r="B320" s="14"/>
+      <c r="C320" s="18"/>
+      <c r="D320" s="21"/>
       <c r="E320" s="5" t="s">
         <v>361</v>
       </c>
@@ -9473,11 +9473,11 @@
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="24"/>
-      <c r="C321" s="25" t="s">
+      <c r="B321" s="14"/>
+      <c r="C321" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="25" t="s">
+      <c r="D321" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E321" s="5" t="s">
@@ -9499,9 +9499,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="24"/>
-      <c r="C322" s="25"/>
-      <c r="D322" s="25"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="15"/>
+      <c r="D322" s="15"/>
       <c r="E322" s="5" t="s">
         <v>363</v>
       </c>
@@ -9521,9 +9521,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="24"/>
-      <c r="C323" s="25"/>
-      <c r="D323" s="25"/>
+      <c r="B323" s="14"/>
+      <c r="C323" s="15"/>
+      <c r="D323" s="15"/>
       <c r="E323" s="5" t="s">
         <v>350</v>
       </c>
@@ -9543,9 +9543,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="24"/>
-      <c r="C324" s="25"/>
-      <c r="D324" s="25"/>
+      <c r="B324" s="14"/>
+      <c r="C324" s="15"/>
+      <c r="D324" s="15"/>
       <c r="E324" s="5" t="s">
         <v>364</v>
       </c>
@@ -9567,9 +9567,9 @@
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="24"/>
-      <c r="C325" s="25"/>
-      <c r="D325" s="25"/>
+      <c r="B325" s="14"/>
+      <c r="C325" s="15"/>
+      <c r="D325" s="15"/>
       <c r="E325" s="5" t="s">
         <v>358</v>
       </c>
@@ -9591,7 +9591,7 @@
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="24"/>
+      <c r="B326" s="14"/>
       <c r="C326" s="5" t="s">
         <v>119</v>
       </c>
@@ -9614,30 +9614,30 @@
       <c r="J326" s="5"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="17" t="s">
+      <c r="A327" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="B327" s="17"/>
-      <c r="C327" s="17"/>
-      <c r="D327" s="17"/>
-      <c r="E327" s="17"/>
-      <c r="F327" s="17"/>
-      <c r="G327" s="17"/>
-      <c r="H327" s="17"/>
-      <c r="I327" s="17"/>
-      <c r="J327" s="17"/>
+      <c r="B327" s="13"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="13"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="13"/>
+      <c r="H327" s="13"/>
+      <c r="I327" s="13"/>
+      <c r="J327" s="13"/>
     </row>
     <row r="328" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="9">
         <v>308</v>
       </c>
-      <c r="B328" s="18" t="s">
+      <c r="B328" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="C328" s="11" t="s">
+      <c r="C328" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D328" s="18" t="s">
+      <c r="D328" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E328" s="9" t="s">
@@ -9659,9 +9659,9 @@
       <c r="A329" s="9">
         <v>309</v>
       </c>
-      <c r="B329" s="19"/>
-      <c r="C329" s="12"/>
-      <c r="D329" s="19"/>
+      <c r="B329" s="23"/>
+      <c r="C329" s="17"/>
+      <c r="D329" s="23"/>
       <c r="E329" s="9" t="s">
         <v>487</v>
       </c>
@@ -9681,9 +9681,9 @@
       <c r="A330" s="9">
         <v>310</v>
       </c>
-      <c r="B330" s="19"/>
-      <c r="C330" s="12"/>
-      <c r="D330" s="19"/>
+      <c r="B330" s="23"/>
+      <c r="C330" s="17"/>
+      <c r="D330" s="23"/>
       <c r="E330" s="9" t="s">
         <v>489</v>
       </c>
@@ -9703,9 +9703,9 @@
       <c r="A331" s="9">
         <v>311</v>
       </c>
-      <c r="B331" s="19"/>
-      <c r="C331" s="12"/>
-      <c r="D331" s="19"/>
+      <c r="B331" s="23"/>
+      <c r="C331" s="17"/>
+      <c r="D331" s="23"/>
       <c r="E331" s="9" t="s">
         <v>490</v>
       </c>
@@ -9725,9 +9725,9 @@
       <c r="A332" s="9">
         <v>312</v>
       </c>
-      <c r="B332" s="19"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="19"/>
+      <c r="B332" s="23"/>
+      <c r="C332" s="17"/>
+      <c r="D332" s="23"/>
       <c r="E332" s="9" t="s">
         <v>491</v>
       </c>
@@ -9747,9 +9747,9 @@
       <c r="A333" s="9">
         <v>313</v>
       </c>
-      <c r="B333" s="19"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="19"/>
+      <c r="B333" s="23"/>
+      <c r="C333" s="17"/>
+      <c r="D333" s="23"/>
       <c r="E333" s="9" t="s">
         <v>492</v>
       </c>
@@ -9769,9 +9769,9 @@
       <c r="A334" s="9">
         <v>314</v>
       </c>
-      <c r="B334" s="19"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="19"/>
+      <c r="B334" s="23"/>
+      <c r="C334" s="17"/>
+      <c r="D334" s="23"/>
       <c r="E334" s="9" t="s">
         <v>494</v>
       </c>
@@ -9791,9 +9791,9 @@
       <c r="A335" s="9">
         <v>315</v>
       </c>
-      <c r="B335" s="19"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="19"/>
+      <c r="B335" s="23"/>
+      <c r="C335" s="17"/>
+      <c r="D335" s="23"/>
       <c r="E335" s="9" t="s">
         <v>495</v>
       </c>
@@ -9813,9 +9813,9 @@
       <c r="A336" s="9">
         <v>316</v>
       </c>
-      <c r="B336" s="19"/>
-      <c r="C336" s="12"/>
-      <c r="D336" s="19"/>
+      <c r="B336" s="23"/>
+      <c r="C336" s="17"/>
+      <c r="D336" s="23"/>
       <c r="E336" s="9" t="s">
         <v>498</v>
       </c>
@@ -9835,9 +9835,9 @@
       <c r="A337" s="9">
         <v>317</v>
       </c>
-      <c r="B337" s="19"/>
-      <c r="C337" s="12"/>
-      <c r="D337" s="19"/>
+      <c r="B337" s="23"/>
+      <c r="C337" s="17"/>
+      <c r="D337" s="23"/>
       <c r="E337" s="9" t="s">
         <v>496</v>
       </c>
@@ -9857,9 +9857,9 @@
       <c r="A338" s="9">
         <v>318</v>
       </c>
-      <c r="B338" s="19"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="19"/>
+      <c r="B338" s="23"/>
+      <c r="C338" s="17"/>
+      <c r="D338" s="23"/>
       <c r="E338" s="9" t="s">
         <v>497</v>
       </c>
@@ -9879,9 +9879,9 @@
       <c r="A339" s="9">
         <v>319</v>
       </c>
-      <c r="B339" s="19"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="20"/>
+      <c r="B339" s="23"/>
+      <c r="C339" s="18"/>
+      <c r="D339" s="24"/>
       <c r="E339" s="9" t="s">
         <v>499</v>
       </c>
@@ -9901,11 +9901,11 @@
       <c r="A340" s="9">
         <v>320</v>
       </c>
-      <c r="B340" s="19"/>
-      <c r="C340" s="11" t="s">
+      <c r="B340" s="23"/>
+      <c r="C340" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="14" t="s">
+      <c r="D340" s="19" t="s">
         <v>62</v>
       </c>
       <c r="E340" s="9" t="s">
@@ -9927,9 +9927,9 @@
       <c r="A341" s="9">
         <v>321</v>
       </c>
-      <c r="B341" s="19"/>
-      <c r="C341" s="12"/>
-      <c r="D341" s="15"/>
+      <c r="B341" s="23"/>
+      <c r="C341" s="17"/>
+      <c r="D341" s="20"/>
       <c r="E341" s="9" t="s">
         <v>502</v>
       </c>
@@ -9949,9 +9949,9 @@
       <c r="A342" s="9">
         <v>322</v>
       </c>
-      <c r="B342" s="19"/>
-      <c r="C342" s="12"/>
-      <c r="D342" s="15"/>
+      <c r="B342" s="23"/>
+      <c r="C342" s="17"/>
+      <c r="D342" s="20"/>
       <c r="E342" s="9" t="s">
         <v>503</v>
       </c>
@@ -9971,9 +9971,9 @@
       <c r="A343" s="9">
         <v>323</v>
       </c>
-      <c r="B343" s="19"/>
-      <c r="C343" s="12"/>
-      <c r="D343" s="15"/>
+      <c r="B343" s="23"/>
+      <c r="C343" s="17"/>
+      <c r="D343" s="20"/>
       <c r="E343" s="9" t="s">
         <v>504</v>
       </c>
@@ -9993,9 +9993,9 @@
       <c r="A344" s="9">
         <v>324</v>
       </c>
-      <c r="B344" s="19"/>
-      <c r="C344" s="12"/>
-      <c r="D344" s="15"/>
+      <c r="B344" s="23"/>
+      <c r="C344" s="17"/>
+      <c r="D344" s="20"/>
       <c r="E344" s="9" t="s">
         <v>505</v>
       </c>
@@ -10015,9 +10015,9 @@
       <c r="A345" s="9">
         <v>325</v>
       </c>
-      <c r="B345" s="19"/>
-      <c r="C345" s="12"/>
-      <c r="D345" s="15"/>
+      <c r="B345" s="23"/>
+      <c r="C345" s="17"/>
+      <c r="D345" s="20"/>
       <c r="E345" s="9" t="s">
         <v>506</v>
       </c>
@@ -10037,9 +10037,9 @@
       <c r="A346" s="9">
         <v>326</v>
       </c>
-      <c r="B346" s="19"/>
-      <c r="C346" s="12"/>
-      <c r="D346" s="15"/>
+      <c r="B346" s="23"/>
+      <c r="C346" s="17"/>
+      <c r="D346" s="20"/>
       <c r="E346" s="9" t="s">
         <v>507</v>
       </c>
@@ -10059,9 +10059,9 @@
       <c r="A347" s="9">
         <v>327</v>
       </c>
-      <c r="B347" s="19"/>
-      <c r="C347" s="13"/>
-      <c r="D347" s="16"/>
+      <c r="B347" s="23"/>
+      <c r="C347" s="18"/>
+      <c r="D347" s="21"/>
       <c r="E347" s="9" t="s">
         <v>508</v>
       </c>
@@ -10081,20 +10081,20 @@
       <c r="A348" s="9">
         <v>328</v>
       </c>
-      <c r="B348" s="19"/>
-      <c r="C348" s="11" t="s">
+      <c r="B348" s="23"/>
+      <c r="C348" s="16" t="s">
         <v>467</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E348" s="11" t="s">
+      <c r="E348" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="F348" s="11" t="s">
+      <c r="F348" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="G348" s="14" t="s">
+      <c r="G348" s="19" t="s">
         <v>509</v>
       </c>
       <c r="H348" s="5" t="s">
@@ -10107,14 +10107,14 @@
       <c r="A349" s="9">
         <v>329</v>
       </c>
-      <c r="B349" s="19"/>
-      <c r="C349" s="12"/>
+      <c r="B349" s="23"/>
+      <c r="C349" s="17"/>
       <c r="D349" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E349" s="12"/>
-      <c r="F349" s="12"/>
-      <c r="G349" s="15"/>
+      <c r="E349" s="17"/>
+      <c r="F349" s="17"/>
+      <c r="G349" s="20"/>
       <c r="H349" s="5" t="s">
         <v>511</v>
       </c>
@@ -10125,14 +10125,14 @@
       <c r="A350" s="9">
         <v>330</v>
       </c>
-      <c r="B350" s="19"/>
-      <c r="C350" s="12"/>
+      <c r="B350" s="23"/>
+      <c r="C350" s="17"/>
       <c r="D350" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="E350" s="12"/>
-      <c r="F350" s="12"/>
-      <c r="G350" s="15"/>
+      <c r="E350" s="17"/>
+      <c r="F350" s="17"/>
+      <c r="G350" s="20"/>
       <c r="H350" s="5" t="s">
         <v>512</v>
       </c>
@@ -10143,14 +10143,14 @@
       <c r="A351" s="9">
         <v>331</v>
       </c>
-      <c r="B351" s="19"/>
-      <c r="C351" s="12"/>
+      <c r="B351" s="23"/>
+      <c r="C351" s="17"/>
       <c r="D351" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="E351" s="12"/>
-      <c r="F351" s="12"/>
-      <c r="G351" s="15"/>
+      <c r="E351" s="17"/>
+      <c r="F351" s="17"/>
+      <c r="G351" s="20"/>
       <c r="H351" s="5" t="s">
         <v>511</v>
       </c>
@@ -10161,14 +10161,14 @@
       <c r="A352" s="9">
         <v>332</v>
       </c>
-      <c r="B352" s="20"/>
-      <c r="C352" s="13"/>
+      <c r="B352" s="24"/>
+      <c r="C352" s="18"/>
       <c r="D352" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="E352" s="13"/>
-      <c r="F352" s="13"/>
-      <c r="G352" s="16"/>
+      <c r="E352" s="18"/>
+      <c r="F352" s="18"/>
+      <c r="G352" s="21"/>
       <c r="H352" s="5" t="s">
         <v>516</v>
       </c>
@@ -10176,18 +10176,18 @@
       <c r="J352" s="5"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="17" t="s">
+      <c r="A353" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="B353" s="17"/>
-      <c r="C353" s="17"/>
-      <c r="D353" s="17"/>
-      <c r="E353" s="17"/>
-      <c r="F353" s="17"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="17"/>
-      <c r="I353" s="17"/>
-      <c r="J353" s="17"/>
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
+      <c r="H353" s="13"/>
+      <c r="I353" s="13"/>
+      <c r="J353" s="13"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
@@ -10215,11 +10215,11 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
-      <c r="B356" s="21" t="s">
+      <c r="B356" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="C356" s="23"/>
-      <c r="D356" s="22"/>
+      <c r="C356" s="27"/>
+      <c r="D356" s="26"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
@@ -10238,10 +10238,10 @@
       <c r="D357" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="E357" s="21" t="s">
+      <c r="E357" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="F357" s="22"/>
+      <c r="F357" s="26"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
@@ -10419,6 +10419,109 @@
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="F348:F352"/>
+    <mergeCell ref="G348:G352"/>
+    <mergeCell ref="A353:J353"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="B328:B352"/>
+    <mergeCell ref="E357:F357"/>
+    <mergeCell ref="C328:C339"/>
+    <mergeCell ref="D328:D339"/>
+    <mergeCell ref="D340:D347"/>
+    <mergeCell ref="C340:C347"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="E348:E352"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D2:D32"/>
+    <mergeCell ref="D133:D148"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="A151:J151"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B127:B148"/>
+    <mergeCell ref="A180:J180"/>
+    <mergeCell ref="B181:B194"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="A195:J195"/>
+    <mergeCell ref="B152:B164"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A165:J165"/>
+    <mergeCell ref="B166:B179"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D166:D174"/>
+    <mergeCell ref="C166:C174"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="B211:B224"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="C211:C219"/>
+    <mergeCell ref="D308:D312"/>
+    <mergeCell ref="A288:J288"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="C295:C299"/>
+    <mergeCell ref="D295:D299"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B276:B287"/>
+    <mergeCell ref="D282:D286"/>
     <mergeCell ref="A327:J327"/>
     <mergeCell ref="D238:D260"/>
     <mergeCell ref="C238:C260"/>
@@ -10443,109 +10546,6 @@
     <mergeCell ref="C302:C307"/>
     <mergeCell ref="D302:D307"/>
     <mergeCell ref="C308:C312"/>
-    <mergeCell ref="D308:D312"/>
-    <mergeCell ref="A288:J288"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="C295:C299"/>
-    <mergeCell ref="D295:D299"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B276:B287"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A237:J237"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="B196:B209"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="B211:B224"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="C211:C219"/>
-    <mergeCell ref="B181:B194"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="A195:J195"/>
-    <mergeCell ref="B152:B164"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A165:J165"/>
-    <mergeCell ref="B166:B179"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D152:D159"/>
-    <mergeCell ref="C152:C159"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="C166:C174"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="C181:C189"/>
-    <mergeCell ref="D133:D148"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="A151:J151"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B127:B148"/>
-    <mergeCell ref="A180:J180"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="B2:B39"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B91:B101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D2:D32"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C127:C132"/>
-    <mergeCell ref="D127:D132"/>
-    <mergeCell ref="E348:E352"/>
-    <mergeCell ref="F348:F352"/>
-    <mergeCell ref="G348:G352"/>
-    <mergeCell ref="A353:J353"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="B328:B352"/>
-    <mergeCell ref="E357:F357"/>
-    <mergeCell ref="C328:C339"/>
-    <mergeCell ref="D328:D339"/>
-    <mergeCell ref="D340:D347"/>
-    <mergeCell ref="C340:C347"/>
-    <mergeCell ref="B356:D356"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10573,18 +10573,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -10900,18 +10900,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11227,18 +11227,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11554,18 +11554,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="554">
   <si>
     <t>Test Türü</t>
   </si>
@@ -1749,6 +1749,60 @@
   </si>
   <si>
     <t>10mV ripple (no load)</t>
+  </si>
+  <si>
+    <t>1W yükte 1.190 V DC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">50 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C max</t>
+    </r>
+  </si>
+  <si>
+    <t>3.283 V DC</t>
+  </si>
+  <si>
+    <t>2.991 V DC</t>
+  </si>
+  <si>
+    <t>2.992 V DC</t>
+  </si>
+  <si>
+    <t>0 V DC</t>
+  </si>
+  <si>
+    <t>2.827 V DC</t>
+  </si>
+  <si>
+    <t>Buna kod atınca bakalım</t>
+  </si>
+  <si>
+    <t>Reset iptal edildi, 3.209 V</t>
+  </si>
+  <si>
+    <t>6.485 V</t>
   </si>
 </sst>
 </file>
@@ -1941,7 +1995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1961,6 +2015,52 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1990,6 +2090,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,73 +2150,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2366,54 +2435,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="6" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="51" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2421,13 +2490,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2445,15 +2514,15 @@
       <c r="I2" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J2" s="40"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="10" t="s">
         <v>519</v>
       </c>
@@ -2469,15 +2538,15 @@
       <c r="I3" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J3" s="40"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="10" t="s">
         <v>520</v>
       </c>
@@ -2493,15 +2562,15 @@
       <c r="I4" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J4" s="40"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="10" t="s">
         <v>405</v>
       </c>
@@ -2517,15 +2586,15 @@
       <c r="I5" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J5" s="40"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="10" t="s">
         <v>406</v>
       </c>
@@ -2541,15 +2610,15 @@
       <c r="I6" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J6" s="40"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="10" t="s">
         <v>407</v>
       </c>
@@ -2565,15 +2634,15 @@
       <c r="I7" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2589,15 +2658,15 @@
       <c r="I8" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J8" s="40"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="10" t="s">
         <v>408</v>
       </c>
@@ -2613,15 +2682,15 @@
       <c r="I9" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J9" s="40"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="10" t="s">
         <v>409</v>
       </c>
@@ -2637,15 +2706,15 @@
       <c r="I10" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="44"/>
       <c r="E11" s="10" t="s">
         <v>410</v>
       </c>
@@ -2661,15 +2730,15 @@
       <c r="I11" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="44"/>
       <c r="E12" s="10" t="s">
         <v>411</v>
       </c>
@@ -2685,15 +2754,15 @@
       <c r="I12" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J12" s="40"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="10" t="s">
         <v>422</v>
       </c>
@@ -2709,15 +2778,15 @@
       <c r="I13" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J13" s="40"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="10" t="s">
         <v>412</v>
       </c>
@@ -2733,15 +2802,15 @@
       <c r="I14" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J14" s="40"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="10" t="s">
         <v>413</v>
       </c>
@@ -2757,15 +2826,15 @@
       <c r="I15" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="10" t="s">
         <v>423</v>
       </c>
@@ -2781,15 +2850,15 @@
       <c r="I16" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J16" s="40"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="10" t="s">
         <v>414</v>
       </c>
@@ -2805,15 +2874,15 @@
       <c r="I17" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J17" s="40"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="10" t="s">
         <v>415</v>
       </c>
@@ -2829,15 +2898,15 @@
       <c r="I18" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J18" s="40"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="10" t="s">
         <v>416</v>
       </c>
@@ -2853,15 +2922,15 @@
       <c r="I19" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J19" s="40"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="10" t="s">
         <v>417</v>
       </c>
@@ -2877,15 +2946,15 @@
       <c r="I20" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J20" s="40"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="10" t="s">
         <v>418</v>
       </c>
@@ -2901,15 +2970,15 @@
       <c r="I21" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="10" t="s">
         <v>419</v>
       </c>
@@ -2925,15 +2994,15 @@
       <c r="I22" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="10" t="s">
         <v>420</v>
       </c>
@@ -2949,15 +3018,15 @@
       <c r="I23" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J23" s="40"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="10" t="s">
         <v>424</v>
       </c>
@@ -2973,15 +3042,15 @@
       <c r="I24" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="10" t="s">
         <v>425</v>
       </c>
@@ -2997,15 +3066,15 @@
       <c r="I25" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J25" s="40"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="10" t="s">
         <v>426</v>
       </c>
@@ -3021,15 +3090,15 @@
       <c r="I26" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J26" s="40"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="10" t="s">
         <v>427</v>
       </c>
@@ -3045,15 +3114,15 @@
       <c r="I27" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J27" s="40"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="10" t="s">
         <v>428</v>
       </c>
@@ -3069,15 +3138,15 @@
       <c r="I28" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J28" s="40"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="10" t="s">
         <v>429</v>
       </c>
@@ -3093,15 +3162,15 @@
       <c r="I29" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J29" s="40"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="10" t="s">
         <v>430</v>
       </c>
@@ -3117,15 +3186,15 @@
       <c r="I30" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J30" s="40"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="10" t="s">
         <v>431</v>
       </c>
@@ -3141,15 +3210,15 @@
       <c r="I31" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J31" s="40"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="10" t="s">
         <v>432</v>
       </c>
@@ -3165,17 +3234,17 @@
       <c r="I32" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J32" s="40"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -3193,15 +3262,15 @@
       <c r="I33" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J33" s="40"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="31"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="36"/>
       <c r="E34" s="10" t="s">
         <v>22</v>
       </c>
@@ -3217,7 +3286,7 @@
       <c r="I34" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="14" t="s">
         <v>521</v>
       </c>
     </row>
@@ -3225,9 +3294,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="31"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="10" t="s">
         <v>23</v>
       </c>
@@ -3243,7 +3312,7 @@
       <c r="I35" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="14" t="s">
         <v>522</v>
       </c>
     </row>
@@ -3251,27 +3320,27 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="29" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="E36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="29" t="s">
+      <c r="H36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="29" t="s">
+      <c r="I36" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="19" t="s">
         <v>539</v>
       </c>
     </row>
@@ -3279,27 +3348,27 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="30" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="D37" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="H37" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="42" t="s">
+      <c r="I37" s="12"/>
+      <c r="J37" s="16" t="s">
         <v>523</v>
       </c>
     </row>
@@ -3307,29 +3376,29 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="29" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E38" s="29" t="s">
+      <c r="E38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="29" t="s">
+      <c r="F38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="29" t="s">
+      <c r="I38" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="19" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3337,55 +3406,55 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="29" t="s">
+      <c r="I39" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J39" s="45"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="31" t="s">
+      <c r="D41" s="36" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -3403,15 +3472,15 @@
       <c r="I41" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J41" s="40"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="31"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -3427,15 +3496,15 @@
       <c r="I42" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J42" s="40"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="31"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -3451,15 +3520,15 @@
       <c r="I43" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J43" s="40"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -3475,15 +3544,15 @@
       <c r="I44" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J44" s="40"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="31"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -3499,15 +3568,15 @@
       <c r="I45" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J45" s="40"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="31"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -3523,15 +3592,15 @@
       <c r="I46" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J46" s="40"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="31"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -3547,15 +3616,15 @@
       <c r="I47" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J47" s="40"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -3571,17 +3640,17 @@
       <c r="I48" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J48" s="40"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="36" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -3599,15 +3668,15 @@
       <c r="I49" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J49" s="40"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -3623,15 +3692,15 @@
       <c r="I50" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J50" s="40"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="31"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -3647,15 +3716,15 @@
       <c r="I51" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J51" s="40"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -3671,19 +3740,19 @@
       <c r="I52" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J52" s="40"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C53" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="36" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -3701,15 +3770,15 @@
       <c r="I53" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J53" s="40"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -3725,15 +3794,15 @@
       <c r="I54" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J54" s="40"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -3749,15 +3818,15 @@
       <c r="I55" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J55" s="40"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -3773,15 +3842,15 @@
       <c r="I56" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J56" s="40"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="31"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -3797,15 +3866,15 @@
       <c r="I57" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J57" s="40"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="31"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -3821,15 +3890,15 @@
       <c r="I58" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J58" s="40"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -3845,15 +3914,15 @@
       <c r="I59" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J59" s="40"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -3869,17 +3938,17 @@
       <c r="I60" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J60" s="40"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="31"/>
-      <c r="C61" s="32" t="s">
+      <c r="B61" s="36"/>
+      <c r="C61" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="38" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3897,15 +3966,15 @@
       <c r="I61" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J61" s="40"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -3921,15 +3990,15 @@
       <c r="I62" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J62" s="40"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -3945,15 +4014,15 @@
       <c r="I63" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J63" s="40"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -3969,33 +4038,33 @@
       <c r="I64" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J64" s="40"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="35" t="s">
+      <c r="D66" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -4013,15 +4082,15 @@
       <c r="I66" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J66" s="40"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="32"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="37"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="44"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
       </c>
@@ -4037,15 +4106,15 @@
       <c r="I67" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J67" s="40"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
@@ -4061,15 +4130,15 @@
       <c r="I68" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J68" s="40"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="37"/>
+      <c r="B69" s="38"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="44"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
       </c>
@@ -4085,15 +4154,15 @@
       <c r="I69" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J69" s="40"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="44"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
       </c>
@@ -4109,15 +4178,15 @@
       <c r="I70" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J70" s="40"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="32"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="37"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="44"/>
       <c r="E71" s="10" t="s">
         <v>433</v>
       </c>
@@ -4133,15 +4202,15 @@
       <c r="I71" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J71" s="40"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="45"/>
       <c r="E72" s="10" t="s">
         <v>434</v>
       </c>
@@ -4157,14 +4226,14 @@
       <c r="I72" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J72" s="40"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="34" t="s">
+      <c r="B73" s="38"/>
+      <c r="C73" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -4185,7 +4254,7 @@
       <c r="I73" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J73" s="40" t="s">
+      <c r="J73" s="14" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4193,8 +4262,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="42"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
@@ -4213,7 +4282,7 @@
       <c r="I74" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J74" s="40" t="s">
+      <c r="J74" s="14" t="s">
         <v>525</v>
       </c>
     </row>
@@ -4221,27 +4290,27 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="30" t="s">
+      <c r="B75" s="38"/>
+      <c r="C75" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="30" t="s">
+      <c r="D75" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E75" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G75" s="30" t="s">
+      <c r="G75" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H75" s="30" t="s">
+      <c r="H75" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I75" s="30"/>
-      <c r="J75" s="42" t="s">
+      <c r="I75" s="12"/>
+      <c r="J75" s="16" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4249,7 +4318,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="32"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -4271,7 +4340,7 @@
       <c r="I76" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J76" s="40" t="s">
+      <c r="J76" s="14" t="s">
         <v>530</v>
       </c>
     </row>
@@ -4279,7 +4348,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="32"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -4301,35 +4370,35 @@
       <c r="I77" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J77" s="40" t="s">
+      <c r="J77" s="14" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="35" t="s">
+      <c r="D79" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -4347,15 +4416,15 @@
       <c r="I79" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J79" s="40"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="32"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
       </c>
@@ -4371,15 +4440,15 @@
       <c r="I80" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J80" s="40"/>
+      <c r="J80" s="14"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="37"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="44"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
       </c>
@@ -4395,15 +4464,15 @@
       <c r="I81" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J81" s="40"/>
+      <c r="J81" s="14"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="32"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="10" t="s">
         <v>435</v>
       </c>
@@ -4419,15 +4488,15 @@
       <c r="I82" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J82" s="40"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="32"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="37"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="44"/>
       <c r="E83" s="10" t="s">
         <v>436</v>
       </c>
@@ -4443,15 +4512,15 @@
       <c r="I83" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J83" s="40"/>
+      <c r="J83" s="14"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="32"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="39"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="45"/>
       <c r="E84" s="10" t="s">
         <v>437</v>
       </c>
@@ -4467,14 +4536,14 @@
       <c r="I84" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J84" s="40"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="32"/>
-      <c r="C85" s="34" t="s">
+      <c r="B85" s="38"/>
+      <c r="C85" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -4495,7 +4564,7 @@
       <c r="I85" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J85" s="40" t="s">
+      <c r="J85" s="14" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4503,8 +4572,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
@@ -4523,7 +4592,7 @@
       <c r="I86" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J86" s="40" t="s">
+      <c r="J86" s="14" t="s">
         <v>529</v>
       </c>
     </row>
@@ -4531,27 +4600,27 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="32"/>
-      <c r="C87" s="30" t="s">
+      <c r="B87" s="38"/>
+      <c r="C87" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D87" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="30" t="s">
+      <c r="E87" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="F87" s="30" t="s">
+      <c r="F87" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G87" s="30" t="s">
+      <c r="G87" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H87" s="30" t="s">
+      <c r="H87" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I87" s="30"/>
-      <c r="J87" s="42" t="s">
+      <c r="I87" s="12"/>
+      <c r="J87" s="16" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4559,7 +4628,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="32"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -4581,7 +4650,7 @@
       <c r="I88" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J88" s="45" t="s">
+      <c r="J88" s="19" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4589,7 +4658,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="32"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -4611,35 +4680,35 @@
       <c r="I89" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J89" s="45" t="s">
+      <c r="J89" s="19" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="34" t="s">
+      <c r="C91" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="35" t="s">
+      <c r="D91" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -4657,15 +4726,15 @@
       <c r="I91" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J91" s="40"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="32"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="37"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
       </c>
@@ -4681,15 +4750,15 @@
       <c r="I92" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J92" s="40"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="32"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
@@ -4705,15 +4774,15 @@
       <c r="I93" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J93" s="40"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="44"/>
       <c r="E94" s="10" t="s">
         <v>438</v>
       </c>
@@ -4729,15 +4798,15 @@
       <c r="I94" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J94" s="40"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="37"/>
+      <c r="B95" s="38"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="44"/>
       <c r="E95" s="10" t="s">
         <v>439</v>
       </c>
@@ -4753,15 +4822,15 @@
       <c r="I95" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J95" s="40"/>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="32"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="45"/>
       <c r="E96" s="10" t="s">
         <v>440</v>
       </c>
@@ -4777,14 +4846,14 @@
       <c r="I96" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J96" s="40"/>
+      <c r="J96" s="14"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="32"/>
-      <c r="C97" s="34" t="s">
+      <c r="B97" s="38"/>
+      <c r="C97" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -4805,7 +4874,7 @@
       <c r="I97" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J97" s="40" t="s">
+      <c r="J97" s="14" t="s">
         <v>533</v>
       </c>
     </row>
@@ -4813,8 +4882,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="32"/>
-      <c r="C98" s="38"/>
+      <c r="B98" s="38"/>
+      <c r="C98" s="42"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
       </c>
@@ -4833,7 +4902,7 @@
       <c r="I98" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J98" s="40" t="s">
+      <c r="J98" s="14" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4841,27 +4910,27 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="30" t="s">
+      <c r="B99" s="38"/>
+      <c r="C99" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D99" s="30" t="s">
+      <c r="D99" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E99" s="30" t="s">
+      <c r="E99" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F99" s="30" t="s">
+      <c r="F99" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G99" s="30" t="s">
+      <c r="G99" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="H99" s="30" t="s">
+      <c r="H99" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I99" s="30"/>
-      <c r="J99" s="42" t="s">
+      <c r="I99" s="12"/>
+      <c r="J99" s="16" t="s">
         <v>523</v>
       </c>
     </row>
@@ -4869,7 +4938,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="32"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -4891,7 +4960,7 @@
       <c r="I100" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J100" s="40" t="s">
+      <c r="J100" s="14" t="s">
         <v>535</v>
       </c>
     </row>
@@ -4899,7 +4968,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="32"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -4921,35 +4990,35 @@
       <c r="I101" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J101" s="40" t="s">
+      <c r="J101" s="14" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
+      <c r="A102" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="33"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="33"/>
-      <c r="H102" s="33"/>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B103" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="43" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -4967,15 +5036,15 @@
       <c r="I103" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J103" s="40"/>
+      <c r="J103" s="14"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="37"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="44"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
       </c>
@@ -4991,15 +5060,15 @@
       <c r="I104" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J104" s="40"/>
+      <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="32"/>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="44"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
       </c>
@@ -5015,15 +5084,15 @@
       <c r="I105" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J105" s="40"/>
+      <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="32"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="37"/>
+      <c r="B106" s="38"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="44"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
       </c>
@@ -5039,15 +5108,15 @@
       <c r="I106" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J106" s="40"/>
+      <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="32"/>
-      <c r="C107" s="36"/>
-      <c r="D107" s="37"/>
+      <c r="B107" s="38"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="44"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
       </c>
@@ -5063,15 +5132,15 @@
       <c r="I107" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J107" s="40"/>
+      <c r="J107" s="14"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="32"/>
-      <c r="C108" s="36"/>
-      <c r="D108" s="37"/>
+      <c r="B108" s="38"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="44"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
@@ -5087,15 +5156,15 @@
       <c r="I108" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J108" s="40"/>
+      <c r="J108" s="14"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="36"/>
-      <c r="D109" s="37"/>
+      <c r="B109" s="38"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="44"/>
       <c r="E109" s="10" t="s">
         <v>441</v>
       </c>
@@ -5111,15 +5180,15 @@
       <c r="I109" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J109" s="40"/>
+      <c r="J109" s="14"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="32"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
+      <c r="B110" s="38"/>
+      <c r="C110" s="42"/>
+      <c r="D110" s="45"/>
       <c r="E110" s="10" t="s">
         <v>442</v>
       </c>
@@ -5135,14 +5204,14 @@
       <c r="I110" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J110" s="40"/>
+      <c r="J110" s="14"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="32" t="s">
+      <c r="B111" s="38"/>
+      <c r="C111" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -5163,7 +5232,7 @@
       <c r="I111" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J111" s="40" t="s">
+      <c r="J111" s="14" t="s">
         <v>537</v>
       </c>
     </row>
@@ -5171,8 +5240,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="38"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -5191,7 +5260,7 @@
       <c r="I112" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J112" s="40" t="s">
+      <c r="J112" s="14" t="s">
         <v>538</v>
       </c>
     </row>
@@ -5199,8 +5268,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -5219,151 +5288,151 @@
       <c r="I113" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J113" s="40"/>
+      <c r="J113" s="14"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="30" t="s">
+      <c r="B114" s="38"/>
+      <c r="C114" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F114" s="30" t="s">
+      <c r="F114" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="G114" s="30" t="s">
+      <c r="G114" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H114" s="30" t="s">
+      <c r="H114" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I114" s="30"/>
-      <c r="J114" s="42" t="s">
+      <c r="I114" s="12"/>
+      <c r="J114" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33"/>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="34" t="s">
+      <c r="C116" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E116" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F116" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" s="10" t="s">
+      <c r="F116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I116" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J116" s="40"/>
+      <c r="I116" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J116" s="14"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="36"/>
-      <c r="D117" s="37"/>
-      <c r="E117" s="10" t="s">
+      <c r="B117" s="38"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F117" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" s="10" t="s">
+      <c r="F117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I117" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J117" s="40"/>
+      <c r="I117" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J117" s="14"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="36"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="10" t="s">
+      <c r="B118" s="38"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="F118" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H118" s="10" t="s">
+      <c r="F118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I118" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J118" s="40"/>
+      <c r="I118" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="10" t="s">
+      <c r="B119" s="38"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F119" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" s="10" t="s">
+      <c r="F119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="I119" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="J119" s="45" t="s">
+      <c r="I119" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J119" s="14" t="s">
         <v>541</v>
       </c>
     </row>
@@ -5371,77 +5440,77 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="36"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="10" t="s">
+      <c r="B120" s="38"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="F120" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" s="10" t="s">
+      <c r="F120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="I120" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J120" s="40"/>
+      <c r="I120" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J120" s="14"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="10" t="s">
+      <c r="B121" s="38"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="F121" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="10" t="s">
+      <c r="F121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="I121" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J121" s="40"/>
+      <c r="I121" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J121" s="14"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="14" t="s">
+      <c r="B122" s="38"/>
+      <c r="C122" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="10" t="s">
+      <c r="D122" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F122" s="10" t="s">
+      <c r="F122" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G122" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H122" s="10" t="s">
+      <c r="H122" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I122" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J122" s="40" t="s">
+      <c r="I122" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J122" s="14" t="s">
         <v>542</v>
       </c>
     </row>
@@ -5449,27 +5518,27 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="10" t="s">
+      <c r="B123" s="38"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F123" s="10" t="s">
+      <c r="F123" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="G123" s="10" t="s">
+      <c r="G123" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H123" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I123" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="J123" s="40" t="s">
+      <c r="I123" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J123" s="14" t="s">
         <v>543</v>
       </c>
     </row>
@@ -5477,565 +5546,649 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="4" t="s">
+      <c r="B124" s="38"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="H124" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I124" s="4"/>
-      <c r="J124" s="41"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I124" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J124" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="4" t="s">
+      <c r="B125" s="38"/>
+      <c r="C125" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I125" s="4"/>
-      <c r="J125" s="41"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="11" t="s">
+      <c r="I125" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J125" s="14" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11"/>
-      <c r="J126" s="11"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="39"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>119</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C127" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H127" s="5" t="s">
+      <c r="F127" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I127" s="8"/>
-      <c r="J127" s="43"/>
+      <c r="I127" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J127" s="14"/>
     </row>
     <row r="128" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>120</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="5" t="s">
+      <c r="B128" s="34"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="5" t="s">
+      <c r="F128" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I128" s="8"/>
-      <c r="J128" s="43"/>
+      <c r="I128" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J128" s="14"/>
     </row>
     <row r="129" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>121</v>
       </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="5" t="s">
+      <c r="B129" s="34"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="5" t="s">
+      <c r="F129" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I129" s="8"/>
-      <c r="J129" s="43"/>
+      <c r="I129" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J129" s="14"/>
     </row>
     <row r="130" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>122</v>
       </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="8" t="s">
+      <c r="B130" s="34"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="5" t="s">
+      <c r="F130" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I130" s="8"/>
-      <c r="J130" s="43"/>
+      <c r="I130" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J130" s="14"/>
     </row>
     <row r="131" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>123</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="5" t="s">
+      <c r="B131" s="34"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="5" t="s">
+      <c r="F131" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I131" s="8"/>
-      <c r="J131" s="43"/>
+      <c r="I131" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J131" s="14"/>
     </row>
     <row r="132" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>124</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="5" t="s">
+      <c r="B132" s="34"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="5" t="s">
+      <c r="F132" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="I132" s="8"/>
-      <c r="J132" s="43"/>
+      <c r="I132" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J132" s="14"/>
     </row>
     <row r="133" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>125</v>
       </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="14" t="s">
+      <c r="B133" s="34"/>
+      <c r="C133" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="D133" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G133" s="4" t="s">
+      <c r="G133" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H133" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="I133" s="4"/>
-      <c r="J133" s="41"/>
+      <c r="I133" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J133" s="14" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>126</v>
       </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="4" t="s">
+      <c r="B134" s="34"/>
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="4" t="s">
+      <c r="G134" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="I134" s="4"/>
-      <c r="J134" s="41"/>
+      <c r="I134" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J134" s="14" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>127</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="4" t="s">
+      <c r="B135" s="34"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H135" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="I135" s="4"/>
-      <c r="J135" s="41"/>
+      <c r="I135" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J135" s="14" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>128</v>
       </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="4" t="s">
+      <c r="B136" s="34"/>
+      <c r="C136" s="31"/>
+      <c r="D136" s="31"/>
+      <c r="E136" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G136" s="4" t="s">
+      <c r="G136" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="H136" s="4" t="s">
+      <c r="H136" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="41"/>
+      <c r="I136" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J136" s="14" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>129</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="4" t="s">
+      <c r="B137" s="34"/>
+      <c r="C137" s="31"/>
+      <c r="D137" s="31"/>
+      <c r="E137" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="G137" s="4" t="s">
+      <c r="G137" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H137" s="4" t="s">
+      <c r="H137" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="41"/>
+      <c r="I137" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J137" s="14" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>130</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="4" t="s">
+      <c r="B138" s="34"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="G138" s="4" t="s">
+      <c r="G138" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H138" s="4" t="s">
+      <c r="H138" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="41"/>
+      <c r="I138" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J138" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>131</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="4" t="s">
+      <c r="B139" s="34"/>
+      <c r="C139" s="31"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H139" s="4" t="s">
+      <c r="H139" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="41"/>
+      <c r="I139" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J139" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>132</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="4" t="s">
+      <c r="B140" s="34"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="31"/>
+      <c r="E140" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G140" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="H140" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="41"/>
+      <c r="I140" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J140" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>133</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="15"/>
-      <c r="D141" s="15"/>
-      <c r="E141" s="4" t="s">
+      <c r="B141" s="34"/>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G141" s="4" t="s">
+      <c r="G141" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H141" s="4" t="s">
+      <c r="H141" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="41"/>
+      <c r="I141" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J141" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>134</v>
       </c>
-      <c r="B142" s="18"/>
-      <c r="C142" s="15"/>
-      <c r="D142" s="15"/>
-      <c r="E142" s="4" t="s">
+      <c r="B142" s="34"/>
+      <c r="C142" s="31"/>
+      <c r="D142" s="31"/>
+      <c r="E142" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G142" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H142" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="I142" s="4"/>
-      <c r="J142" s="41"/>
+      <c r="I142" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J142" s="14" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>135</v>
       </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="15"/>
-      <c r="D143" s="15"/>
-      <c r="E143" s="4" t="s">
+      <c r="B143" s="34"/>
+      <c r="C143" s="31"/>
+      <c r="D143" s="31"/>
+      <c r="E143" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H143" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="41"/>
+      <c r="I143" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="J143" s="56" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>136</v>
       </c>
-      <c r="B144" s="18"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="4" t="s">
+      <c r="B144" s="34"/>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="E144" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="F144" s="4" t="s">
+      <c r="F144" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G144" s="4" t="s">
+      <c r="G144" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="H144" s="4" t="s">
+      <c r="H144" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="41"/>
+      <c r="I144" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="J144" s="56" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>137</v>
       </c>
-      <c r="B145" s="18"/>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="4" t="s">
+      <c r="B145" s="34"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F145" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="H145" s="4" t="s">
+      <c r="H145" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="41"/>
+      <c r="I145" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>138</v>
       </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="4" t="s">
+      <c r="B146" s="34"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F146" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G146" s="4" t="s">
+      <c r="G146" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H146" s="4" t="s">
+      <c r="H146" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="I146" s="4"/>
-      <c r="J146" s="41"/>
+      <c r="I146" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J146" s="14" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>139</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="4" t="s">
+      <c r="B147" s="34"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F147" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G147" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H147" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I147" s="4"/>
-      <c r="J147" s="41"/>
+      <c r="I147" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J147" s="14" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>140</v>
       </c>
-      <c r="B148" s="19"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="4" t="s">
+      <c r="B148" s="35"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="F148" s="4" t="s">
+      <c r="F148" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G148" s="4" t="s">
+      <c r="G148" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="H148" s="4" t="s">
+      <c r="H148" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="I148" s="4"/>
-      <c r="J148" s="41"/>
+      <c r="I148" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J148" s="14" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>141</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="30" t="s">
         <v>177</v>
       </c>
       <c r="C149" s="4" t="s">
@@ -6044,72 +6197,76 @@
       <c r="D149" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F149" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="G149" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="H149" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="I149" s="4"/>
-      <c r="J149" s="41"/>
+      <c r="I149" s="26"/>
+      <c r="J149" s="19" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>142</v>
       </c>
-      <c r="B150" s="16"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F150" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G150" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="H150" s="4" t="s">
+      <c r="H150" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="I150" s="4"/>
-      <c r="J150" s="41"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="11" t="s">
+      <c r="I150" s="26"/>
+      <c r="J150" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="11"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="39"/>
+      <c r="J151" s="39"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E152" s="4" t="s">
@@ -6124,16 +6281,18 @@
       <c r="H152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I152" s="4"/>
-      <c r="J152" s="41"/>
+      <c r="I152" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J152" s="15"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="15"/>
-      <c r="D153" s="18"/>
+      <c r="B153" s="29"/>
+      <c r="C153" s="31"/>
+      <c r="D153" s="34"/>
       <c r="E153" s="4" t="s">
         <v>191</v>
       </c>
@@ -6146,16 +6305,18 @@
       <c r="H153" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I153" s="4"/>
-      <c r="J153" s="41"/>
+      <c r="I153" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J153" s="15"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="18"/>
+      <c r="B154" s="29"/>
+      <c r="C154" s="31"/>
+      <c r="D154" s="34"/>
       <c r="E154" s="4" t="s">
         <v>192</v>
       </c>
@@ -6168,16 +6329,18 @@
       <c r="H154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I154" s="4"/>
-      <c r="J154" s="41"/>
+      <c r="I154" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J154" s="15"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="18"/>
+      <c r="B155" s="29"/>
+      <c r="C155" s="31"/>
+      <c r="D155" s="34"/>
       <c r="E155" s="4" t="s">
         <v>193</v>
       </c>
@@ -6190,16 +6353,18 @@
       <c r="H155" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I155" s="4"/>
-      <c r="J155" s="41"/>
+      <c r="I155" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J155" s="15"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="15"/>
-      <c r="D156" s="18"/>
+      <c r="B156" s="29"/>
+      <c r="C156" s="31"/>
+      <c r="D156" s="34"/>
       <c r="E156" s="5" t="s">
         <v>194</v>
       </c>
@@ -6212,16 +6377,18 @@
       <c r="H156" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I156" s="5"/>
-      <c r="J156" s="41"/>
+      <c r="I156" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J156" s="15"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="15"/>
-      <c r="D157" s="18"/>
+      <c r="B157" s="29"/>
+      <c r="C157" s="31"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="5" t="s">
         <v>449</v>
       </c>
@@ -6234,16 +6401,18 @@
       <c r="H157" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I157" s="5"/>
-      <c r="J157" s="41"/>
+      <c r="I157" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J157" s="15"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="15"/>
-      <c r="D158" s="18"/>
+      <c r="B158" s="29"/>
+      <c r="C158" s="31"/>
+      <c r="D158" s="34"/>
       <c r="E158" s="5" t="s">
         <v>450</v>
       </c>
@@ -6256,16 +6425,18 @@
       <c r="H158" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I158" s="5"/>
-      <c r="J158" s="41"/>
+      <c r="I158" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J158" s="15"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="19"/>
+      <c r="B159" s="29"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="35"/>
       <c r="E159" s="5" t="s">
         <v>451</v>
       </c>
@@ -6278,162 +6449,168 @@
       <c r="H159" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="I159" s="5"/>
-      <c r="J159" s="41"/>
+      <c r="I159" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J159" s="15"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="14" t="s">
+      <c r="B160" s="29"/>
+      <c r="C160" s="30" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E160" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F160" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G160" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="H160" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I160" s="4"/>
-      <c r="J160" s="41"/>
+      <c r="I160" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="J160" s="19" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="13"/>
-      <c r="C161" s="16"/>
+      <c r="B161" s="29"/>
+      <c r="C161" s="32"/>
       <c r="D161" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F161" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="H161" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I161" s="4"/>
-      <c r="J161" s="41"/>
+      <c r="I161" s="26"/>
+      <c r="J161" s="19"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="13"/>
+      <c r="B162" s="29"/>
       <c r="C162" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E162" s="4" t="s">
+      <c r="E162" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F162" s="4" t="s">
+      <c r="F162" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="G162" s="4" t="s">
+      <c r="G162" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="H162" s="4" t="s">
+      <c r="H162" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="I162" s="4"/>
-      <c r="J162" s="41"/>
+      <c r="I162" s="26"/>
+      <c r="J162" s="19"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="13"/>
+      <c r="B163" s="29"/>
       <c r="C163" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F163" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="G163" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H163" s="4" t="s">
+      <c r="H163" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="I163" s="4"/>
-      <c r="J163" s="41"/>
+      <c r="I163" s="26"/>
+      <c r="J163" s="19"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="13"/>
+      <c r="B164" s="29"/>
       <c r="C164" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F164" s="4" t="s">
+      <c r="F164" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G164" s="4" t="s">
+      <c r="G164" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="H164" s="4" t="s">
+      <c r="H164" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="I164" s="4"/>
-      <c r="J164" s="41"/>
+      <c r="I164" s="26"/>
+      <c r="J164" s="19"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="11" t="s">
+      <c r="A165" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
+      <c r="B165" s="27"/>
+      <c r="C165" s="27"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="14" t="s">
+      <c r="C166" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E166" s="5" t="s">
@@ -6449,15 +6626,15 @@
         <v>11</v>
       </c>
       <c r="I166" s="5"/>
-      <c r="J166" s="41"/>
+      <c r="J166" s="15"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="13"/>
-      <c r="C167" s="15"/>
-      <c r="D167" s="18"/>
+      <c r="B167" s="29"/>
+      <c r="C167" s="31"/>
+      <c r="D167" s="34"/>
       <c r="E167" s="5" t="s">
         <v>205</v>
       </c>
@@ -6471,15 +6648,15 @@
         <v>11</v>
       </c>
       <c r="I167" s="5"/>
-      <c r="J167" s="41"/>
+      <c r="J167" s="15"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="13"/>
-      <c r="C168" s="15"/>
-      <c r="D168" s="18"/>
+      <c r="B168" s="29"/>
+      <c r="C168" s="31"/>
+      <c r="D168" s="34"/>
       <c r="E168" s="5" t="s">
         <v>206</v>
       </c>
@@ -6493,15 +6670,15 @@
         <v>11</v>
       </c>
       <c r="I168" s="5"/>
-      <c r="J168" s="41"/>
+      <c r="J168" s="15"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="15"/>
-      <c r="D169" s="18"/>
+      <c r="B169" s="29"/>
+      <c r="C169" s="31"/>
+      <c r="D169" s="34"/>
       <c r="E169" s="5" t="s">
         <v>207</v>
       </c>
@@ -6515,15 +6692,15 @@
         <v>11</v>
       </c>
       <c r="I169" s="5"/>
-      <c r="J169" s="41"/>
+      <c r="J169" s="15"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="15"/>
-      <c r="D170" s="18"/>
+      <c r="B170" s="29"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="34"/>
       <c r="E170" s="5" t="s">
         <v>208</v>
       </c>
@@ -6537,15 +6714,15 @@
         <v>11</v>
       </c>
       <c r="I170" s="5"/>
-      <c r="J170" s="41"/>
+      <c r="J170" s="15"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="15"/>
-      <c r="D171" s="18"/>
+      <c r="B171" s="29"/>
+      <c r="C171" s="31"/>
+      <c r="D171" s="34"/>
       <c r="E171" s="5" t="s">
         <v>209</v>
       </c>
@@ -6559,15 +6736,15 @@
         <v>371</v>
       </c>
       <c r="I171" s="5"/>
-      <c r="J171" s="41"/>
+      <c r="J171" s="15"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="18"/>
+      <c r="B172" s="29"/>
+      <c r="C172" s="31"/>
+      <c r="D172" s="34"/>
       <c r="E172" s="5" t="s">
         <v>452</v>
       </c>
@@ -6581,15 +6758,15 @@
         <v>371</v>
       </c>
       <c r="I172" s="5"/>
-      <c r="J172" s="41"/>
+      <c r="J172" s="15"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="13"/>
-      <c r="C173" s="15"/>
-      <c r="D173" s="18"/>
+      <c r="B173" s="29"/>
+      <c r="C173" s="31"/>
+      <c r="D173" s="34"/>
       <c r="E173" s="5" t="s">
         <v>453</v>
       </c>
@@ -6603,15 +6780,15 @@
         <v>371</v>
       </c>
       <c r="I173" s="5"/>
-      <c r="J173" s="41"/>
+      <c r="J173" s="15"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="13"/>
-      <c r="C174" s="16"/>
-      <c r="D174" s="19"/>
+      <c r="B174" s="29"/>
+      <c r="C174" s="32"/>
+      <c r="D174" s="35"/>
       <c r="E174" s="5" t="s">
         <v>454</v>
       </c>
@@ -6625,14 +6802,14 @@
         <v>371</v>
       </c>
       <c r="I174" s="5"/>
-      <c r="J174" s="41"/>
+      <c r="J174" s="15"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13" t="s">
+      <c r="B175" s="29"/>
+      <c r="C175" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="5" t="s">
@@ -6651,14 +6828,14 @@
         <v>31</v>
       </c>
       <c r="I175" s="5"/>
-      <c r="J175" s="41"/>
+      <c r="J175" s="15"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="29"/>
       <c r="D176" s="5" t="s">
         <v>63</v>
       </c>
@@ -6675,13 +6852,13 @@
         <v>33</v>
       </c>
       <c r="I176" s="5"/>
-      <c r="J176" s="41"/>
+      <c r="J176" s="15"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="13"/>
+      <c r="B177" s="29"/>
       <c r="C177" s="5" t="s">
         <v>118</v>
       </c>
@@ -6701,13 +6878,13 @@
         <v>121</v>
       </c>
       <c r="I177" s="5"/>
-      <c r="J177" s="41"/>
+      <c r="J177" s="15"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="13"/>
+      <c r="B178" s="29"/>
       <c r="C178" s="5" t="s">
         <v>12</v>
       </c>
@@ -6727,13 +6904,13 @@
         <v>200</v>
       </c>
       <c r="I178" s="5"/>
-      <c r="J178" s="41"/>
+      <c r="J178" s="15"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="13"/>
+      <c r="B179" s="29"/>
       <c r="C179" s="5" t="s">
         <v>57</v>
       </c>
@@ -6753,33 +6930,33 @@
         <v>215</v>
       </c>
       <c r="I179" s="5"/>
-      <c r="J179" s="41"/>
+      <c r="J179" s="15"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="11" t="s">
+      <c r="A180" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="14" t="s">
+      <c r="C181" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="17" t="s">
+      <c r="D181" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E181" s="5" t="s">
@@ -6795,15 +6972,15 @@
         <v>11</v>
       </c>
       <c r="I181" s="5"/>
-      <c r="J181" s="41"/>
+      <c r="J181" s="15"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="13"/>
-      <c r="C182" s="15"/>
-      <c r="D182" s="18"/>
+      <c r="B182" s="29"/>
+      <c r="C182" s="31"/>
+      <c r="D182" s="34"/>
       <c r="E182" s="5" t="s">
         <v>226</v>
       </c>
@@ -6817,15 +6994,15 @@
         <v>11</v>
       </c>
       <c r="I182" s="5"/>
-      <c r="J182" s="41"/>
+      <c r="J182" s="15"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="13"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="18"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="34"/>
       <c r="E183" s="5" t="s">
         <v>227</v>
       </c>
@@ -6839,15 +7016,15 @@
         <v>11</v>
       </c>
       <c r="I183" s="5"/>
-      <c r="J183" s="41"/>
+      <c r="J183" s="15"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="15"/>
-      <c r="D184" s="18"/>
+      <c r="B184" s="29"/>
+      <c r="C184" s="31"/>
+      <c r="D184" s="34"/>
       <c r="E184" s="5" t="s">
         <v>229</v>
       </c>
@@ -6861,15 +7038,15 @@
         <v>11</v>
       </c>
       <c r="I184" s="5"/>
-      <c r="J184" s="41"/>
+      <c r="J184" s="15"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="13"/>
-      <c r="C185" s="15"/>
-      <c r="D185" s="18"/>
+      <c r="B185" s="29"/>
+      <c r="C185" s="31"/>
+      <c r="D185" s="34"/>
       <c r="E185" s="5" t="s">
         <v>228</v>
       </c>
@@ -6883,15 +7060,15 @@
         <v>11</v>
       </c>
       <c r="I185" s="5"/>
-      <c r="J185" s="41"/>
+      <c r="J185" s="15"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="18"/>
+      <c r="B186" s="29"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="34"/>
       <c r="E186" s="5" t="s">
         <v>230</v>
       </c>
@@ -6905,15 +7082,15 @@
         <v>371</v>
       </c>
       <c r="I186" s="5"/>
-      <c r="J186" s="41"/>
+      <c r="J186" s="15"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="13"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="18"/>
+      <c r="B187" s="29"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="34"/>
       <c r="E187" s="5" t="s">
         <v>455</v>
       </c>
@@ -6927,15 +7104,15 @@
         <v>371</v>
       </c>
       <c r="I187" s="5"/>
-      <c r="J187" s="41"/>
+      <c r="J187" s="15"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="13"/>
-      <c r="C188" s="15"/>
-      <c r="D188" s="18"/>
+      <c r="B188" s="29"/>
+      <c r="C188" s="31"/>
+      <c r="D188" s="34"/>
       <c r="E188" s="5" t="s">
         <v>456</v>
       </c>
@@ -6949,15 +7126,15 @@
         <v>371</v>
       </c>
       <c r="I188" s="5"/>
-      <c r="J188" s="41"/>
+      <c r="J188" s="15"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="13"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="19"/>
+      <c r="B189" s="29"/>
+      <c r="C189" s="32"/>
+      <c r="D189" s="35"/>
       <c r="E189" s="5" t="s">
         <v>457</v>
       </c>
@@ -6971,14 +7148,14 @@
         <v>371</v>
       </c>
       <c r="I189" s="5"/>
-      <c r="J189" s="41"/>
+      <c r="J189" s="15"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13" t="s">
+      <c r="B190" s="29"/>
+      <c r="C190" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="5" t="s">
@@ -6997,14 +7174,14 @@
         <v>31</v>
       </c>
       <c r="I190" s="5"/>
-      <c r="J190" s="41"/>
+      <c r="J190" s="15"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="29"/>
       <c r="D191" s="5" t="s">
         <v>63</v>
       </c>
@@ -7021,13 +7198,13 @@
         <v>33</v>
       </c>
       <c r="I191" s="5"/>
-      <c r="J191" s="41"/>
+      <c r="J191" s="15"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="13"/>
+      <c r="B192" s="29"/>
       <c r="C192" s="5" t="s">
         <v>118</v>
       </c>
@@ -7047,13 +7224,13 @@
         <v>121</v>
       </c>
       <c r="I192" s="5"/>
-      <c r="J192" s="41"/>
+      <c r="J192" s="15"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="13"/>
+      <c r="B193" s="29"/>
       <c r="C193" s="5" t="s">
         <v>12</v>
       </c>
@@ -7073,13 +7250,13 @@
         <v>200</v>
       </c>
       <c r="I193" s="5"/>
-      <c r="J193" s="41"/>
+      <c r="J193" s="15"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="13"/>
+      <c r="B194" s="29"/>
       <c r="C194" s="5" t="s">
         <v>57</v>
       </c>
@@ -7099,33 +7276,33 @@
         <v>215</v>
       </c>
       <c r="I194" s="5"/>
-      <c r="J194" s="41"/>
+      <c r="J194" s="15"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="11" t="s">
+      <c r="A195" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="11"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
+      <c r="B195" s="27"/>
+      <c r="C195" s="27"/>
+      <c r="D195" s="27"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="27"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="C196" s="14" t="s">
+      <c r="C196" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="17" t="s">
+      <c r="D196" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E196" s="5" t="s">
@@ -7141,15 +7318,15 @@
         <v>11</v>
       </c>
       <c r="I196" s="5"/>
-      <c r="J196" s="41"/>
+      <c r="J196" s="15"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="13"/>
-      <c r="C197" s="15"/>
-      <c r="D197" s="18"/>
+      <c r="B197" s="29"/>
+      <c r="C197" s="31"/>
+      <c r="D197" s="34"/>
       <c r="E197" s="5" t="s">
         <v>244</v>
       </c>
@@ -7163,15 +7340,15 @@
         <v>11</v>
       </c>
       <c r="I197" s="5"/>
-      <c r="J197" s="41"/>
+      <c r="J197" s="15"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="15"/>
-      <c r="D198" s="18"/>
+      <c r="B198" s="29"/>
+      <c r="C198" s="31"/>
+      <c r="D198" s="34"/>
       <c r="E198" s="5" t="s">
         <v>243</v>
       </c>
@@ -7185,15 +7362,15 @@
         <v>11</v>
       </c>
       <c r="I198" s="5"/>
-      <c r="J198" s="41"/>
+      <c r="J198" s="15"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="13"/>
-      <c r="C199" s="15"/>
-      <c r="D199" s="18"/>
+      <c r="B199" s="29"/>
+      <c r="C199" s="31"/>
+      <c r="D199" s="34"/>
       <c r="E199" s="5" t="s">
         <v>245</v>
       </c>
@@ -7207,15 +7384,15 @@
         <v>11</v>
       </c>
       <c r="I199" s="5"/>
-      <c r="J199" s="41"/>
+      <c r="J199" s="15"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="13"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="18"/>
+      <c r="B200" s="29"/>
+      <c r="C200" s="31"/>
+      <c r="D200" s="34"/>
       <c r="E200" s="5" t="s">
         <v>242</v>
       </c>
@@ -7229,15 +7406,15 @@
         <v>11</v>
       </c>
       <c r="I200" s="5"/>
-      <c r="J200" s="41"/>
+      <c r="J200" s="15"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="13"/>
-      <c r="C201" s="15"/>
-      <c r="D201" s="18"/>
+      <c r="B201" s="29"/>
+      <c r="C201" s="31"/>
+      <c r="D201" s="34"/>
       <c r="E201" s="5" t="s">
         <v>238</v>
       </c>
@@ -7251,15 +7428,15 @@
         <v>371</v>
       </c>
       <c r="I201" s="5"/>
-      <c r="J201" s="41"/>
+      <c r="J201" s="15"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="13"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="18"/>
+      <c r="B202" s="29"/>
+      <c r="C202" s="31"/>
+      <c r="D202" s="34"/>
       <c r="E202" s="5" t="s">
         <v>459</v>
       </c>
@@ -7273,15 +7450,15 @@
         <v>371</v>
       </c>
       <c r="I202" s="5"/>
-      <c r="J202" s="41"/>
+      <c r="J202" s="15"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="13"/>
-      <c r="C203" s="15"/>
-      <c r="D203" s="18"/>
+      <c r="B203" s="29"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="34"/>
       <c r="E203" s="5" t="s">
         <v>460</v>
       </c>
@@ -7295,15 +7472,15 @@
         <v>371</v>
       </c>
       <c r="I203" s="5"/>
-      <c r="J203" s="41"/>
+      <c r="J203" s="15"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="13"/>
-      <c r="C204" s="16"/>
-      <c r="D204" s="19"/>
+      <c r="B204" s="29"/>
+      <c r="C204" s="32"/>
+      <c r="D204" s="35"/>
       <c r="E204" s="5" t="s">
         <v>458</v>
       </c>
@@ -7317,14 +7494,14 @@
         <v>371</v>
       </c>
       <c r="I204" s="5"/>
-      <c r="J204" s="41"/>
+      <c r="J204" s="15"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13" t="s">
+      <c r="B205" s="29"/>
+      <c r="C205" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="5" t="s">
@@ -7343,14 +7520,14 @@
         <v>31</v>
       </c>
       <c r="I205" s="5"/>
-      <c r="J205" s="41"/>
+      <c r="J205" s="15"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
+      <c r="B206" s="29"/>
+      <c r="C206" s="29"/>
       <c r="D206" s="5" t="s">
         <v>63</v>
       </c>
@@ -7367,13 +7544,13 @@
         <v>33</v>
       </c>
       <c r="I206" s="5"/>
-      <c r="J206" s="41"/>
+      <c r="J206" s="15"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="13"/>
+      <c r="B207" s="29"/>
       <c r="C207" s="5" t="s">
         <v>118</v>
       </c>
@@ -7393,13 +7570,13 @@
         <v>121</v>
       </c>
       <c r="I207" s="5"/>
-      <c r="J207" s="41"/>
+      <c r="J207" s="15"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="13"/>
+      <c r="B208" s="29"/>
       <c r="C208" s="5" t="s">
         <v>12</v>
       </c>
@@ -7419,13 +7596,13 @@
         <v>200</v>
       </c>
       <c r="I208" s="5"/>
-      <c r="J208" s="41"/>
+      <c r="J208" s="15"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="13"/>
+      <c r="B209" s="29"/>
       <c r="C209" s="5" t="s">
         <v>57</v>
       </c>
@@ -7445,33 +7622,33 @@
         <v>215</v>
       </c>
       <c r="I209" s="5"/>
-      <c r="J209" s="41"/>
+      <c r="J209" s="15"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="11" t="s">
+      <c r="A210" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
+      <c r="B210" s="27"/>
+      <c r="C210" s="27"/>
+      <c r="D210" s="27"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+      <c r="H210" s="27"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="C211" s="14" t="s">
+      <c r="C211" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="17" t="s">
+      <c r="D211" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E211" s="5" t="s">
@@ -7487,15 +7664,15 @@
         <v>11</v>
       </c>
       <c r="I211" s="5"/>
-      <c r="J211" s="41"/>
+      <c r="J211" s="15"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="13"/>
-      <c r="C212" s="15"/>
-      <c r="D212" s="18"/>
+      <c r="B212" s="29"/>
+      <c r="C212" s="31"/>
+      <c r="D212" s="34"/>
       <c r="E212" s="5" t="s">
         <v>258</v>
       </c>
@@ -7509,15 +7686,15 @@
         <v>11</v>
       </c>
       <c r="I212" s="5"/>
-      <c r="J212" s="41"/>
+      <c r="J212" s="15"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="13"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="18"/>
+      <c r="B213" s="29"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="34"/>
       <c r="E213" s="5" t="s">
         <v>256</v>
       </c>
@@ -7531,15 +7708,15 @@
         <v>11</v>
       </c>
       <c r="I213" s="5"/>
-      <c r="J213" s="41"/>
+      <c r="J213" s="15"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="13"/>
-      <c r="C214" s="15"/>
-      <c r="D214" s="18"/>
+      <c r="B214" s="29"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="34"/>
       <c r="E214" s="5" t="s">
         <v>259</v>
       </c>
@@ -7553,15 +7730,15 @@
         <v>11</v>
       </c>
       <c r="I214" s="5"/>
-      <c r="J214" s="41"/>
+      <c r="J214" s="15"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="13"/>
-      <c r="C215" s="15"/>
-      <c r="D215" s="18"/>
+      <c r="B215" s="29"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="34"/>
       <c r="E215" s="5" t="s">
         <v>257</v>
       </c>
@@ -7575,15 +7752,15 @@
         <v>11</v>
       </c>
       <c r="I215" s="5"/>
-      <c r="J215" s="41"/>
+      <c r="J215" s="15"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="15"/>
-      <c r="D216" s="18"/>
+      <c r="B216" s="29"/>
+      <c r="C216" s="31"/>
+      <c r="D216" s="34"/>
       <c r="E216" s="5" t="s">
         <v>252</v>
       </c>
@@ -7597,15 +7774,15 @@
         <v>371</v>
       </c>
       <c r="I216" s="5"/>
-      <c r="J216" s="41"/>
+      <c r="J216" s="15"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="13"/>
-      <c r="C217" s="15"/>
-      <c r="D217" s="18"/>
+      <c r="B217" s="29"/>
+      <c r="C217" s="31"/>
+      <c r="D217" s="34"/>
       <c r="E217" s="5" t="s">
         <v>462</v>
       </c>
@@ -7619,15 +7796,15 @@
         <v>371</v>
       </c>
       <c r="I217" s="5"/>
-      <c r="J217" s="41"/>
+      <c r="J217" s="15"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="13"/>
-      <c r="C218" s="15"/>
-      <c r="D218" s="18"/>
+      <c r="B218" s="29"/>
+      <c r="C218" s="31"/>
+      <c r="D218" s="34"/>
       <c r="E218" s="5" t="s">
         <v>463</v>
       </c>
@@ -7641,15 +7818,15 @@
         <v>371</v>
       </c>
       <c r="I218" s="5"/>
-      <c r="J218" s="41"/>
+      <c r="J218" s="15"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="16"/>
-      <c r="D219" s="19"/>
+      <c r="B219" s="29"/>
+      <c r="C219" s="32"/>
+      <c r="D219" s="35"/>
       <c r="E219" s="5" t="s">
         <v>461</v>
       </c>
@@ -7663,14 +7840,14 @@
         <v>371</v>
       </c>
       <c r="I219" s="5"/>
-      <c r="J219" s="41"/>
+      <c r="J219" s="15"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13" t="s">
+      <c r="B220" s="29"/>
+      <c r="C220" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="5" t="s">
@@ -7689,14 +7866,14 @@
         <v>31</v>
       </c>
       <c r="I220" s="5"/>
-      <c r="J220" s="41"/>
+      <c r="J220" s="15"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="13"/>
-      <c r="C221" s="13"/>
+      <c r="B221" s="29"/>
+      <c r="C221" s="29"/>
       <c r="D221" s="5" t="s">
         <v>63</v>
       </c>
@@ -7713,13 +7890,13 @@
         <v>33</v>
       </c>
       <c r="I221" s="5"/>
-      <c r="J221" s="41"/>
+      <c r="J221" s="15"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="13"/>
+      <c r="B222" s="29"/>
       <c r="C222" s="5" t="s">
         <v>118</v>
       </c>
@@ -7739,13 +7916,13 @@
         <v>121</v>
       </c>
       <c r="I222" s="5"/>
-      <c r="J222" s="41"/>
+      <c r="J222" s="15"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="13"/>
+      <c r="B223" s="29"/>
       <c r="C223" s="5" t="s">
         <v>12</v>
       </c>
@@ -7765,13 +7942,13 @@
         <v>200</v>
       </c>
       <c r="I223" s="5"/>
-      <c r="J223" s="41"/>
+      <c r="J223" s="15"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="13"/>
+      <c r="B224" s="29"/>
       <c r="C224" s="5" t="s">
         <v>57</v>
       </c>
@@ -7791,33 +7968,33 @@
         <v>215</v>
       </c>
       <c r="I224" s="5"/>
-      <c r="J224" s="41"/>
+      <c r="J224" s="15"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="11" t="s">
+      <c r="A225" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="11"/>
-      <c r="I225" s="11"/>
-      <c r="J225" s="11"/>
+      <c r="B225" s="27"/>
+      <c r="C225" s="27"/>
+      <c r="D225" s="27"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="27"/>
+      <c r="G225" s="27"/>
+      <c r="H225" s="27"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="27"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B226" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="14" t="s">
+      <c r="C226" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="17" t="s">
+      <c r="D226" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E226" s="5" t="s">
@@ -7833,15 +8010,15 @@
         <v>11</v>
       </c>
       <c r="I226" s="5"/>
-      <c r="J226" s="41"/>
+      <c r="J226" s="15"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="13"/>
-      <c r="C227" s="15"/>
-      <c r="D227" s="18"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="31"/>
+      <c r="D227" s="34"/>
       <c r="E227" s="5" t="s">
         <v>263</v>
       </c>
@@ -7855,15 +8032,15 @@
         <v>11</v>
       </c>
       <c r="I227" s="5"/>
-      <c r="J227" s="41"/>
+      <c r="J227" s="15"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="13"/>
-      <c r="C228" s="15"/>
-      <c r="D228" s="18"/>
+      <c r="B228" s="29"/>
+      <c r="C228" s="31"/>
+      <c r="D228" s="34"/>
       <c r="E228" s="5" t="s">
         <v>264</v>
       </c>
@@ -7877,15 +8054,15 @@
         <v>11</v>
       </c>
       <c r="I228" s="5"/>
-      <c r="J228" s="41"/>
+      <c r="J228" s="15"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="13"/>
-      <c r="C229" s="15"/>
-      <c r="D229" s="18"/>
+      <c r="B229" s="29"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="34"/>
       <c r="E229" s="5" t="s">
         <v>267</v>
       </c>
@@ -7899,15 +8076,15 @@
         <v>371</v>
       </c>
       <c r="I229" s="5"/>
-      <c r="J229" s="41"/>
+      <c r="J229" s="15"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="13"/>
-      <c r="C230" s="15"/>
-      <c r="D230" s="18"/>
+      <c r="B230" s="29"/>
+      <c r="C230" s="31"/>
+      <c r="D230" s="34"/>
       <c r="E230" s="5" t="s">
         <v>464</v>
       </c>
@@ -7921,15 +8098,15 @@
         <v>371</v>
       </c>
       <c r="I230" s="5"/>
-      <c r="J230" s="41"/>
+      <c r="J230" s="15"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="13"/>
-      <c r="C231" s="16"/>
-      <c r="D231" s="19"/>
+      <c r="B231" s="29"/>
+      <c r="C231" s="32"/>
+      <c r="D231" s="35"/>
       <c r="E231" s="5" t="s">
         <v>465</v>
       </c>
@@ -7943,14 +8120,14 @@
         <v>371</v>
       </c>
       <c r="I231" s="5"/>
-      <c r="J231" s="41"/>
+      <c r="J231" s="15"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13" t="s">
+      <c r="B232" s="29"/>
+      <c r="C232" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="5" t="s">
@@ -7969,14 +8146,14 @@
         <v>89</v>
       </c>
       <c r="I232" s="5"/>
-      <c r="J232" s="41"/>
+      <c r="J232" s="15"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13"/>
+      <c r="B233" s="29"/>
+      <c r="C233" s="29"/>
       <c r="D233" s="5" t="s">
         <v>63</v>
       </c>
@@ -7993,13 +8170,13 @@
         <v>93</v>
       </c>
       <c r="I233" s="5"/>
-      <c r="J233" s="41"/>
+      <c r="J233" s="15"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="13"/>
+      <c r="B234" s="29"/>
       <c r="C234" s="5" t="s">
         <v>118</v>
       </c>
@@ -8019,13 +8196,13 @@
         <v>121</v>
       </c>
       <c r="I234" s="5"/>
-      <c r="J234" s="41"/>
+      <c r="J234" s="15"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="13"/>
+      <c r="B235" s="29"/>
       <c r="C235" s="5" t="s">
         <v>12</v>
       </c>
@@ -8045,13 +8222,13 @@
         <v>92</v>
       </c>
       <c r="I235" s="5"/>
-      <c r="J235" s="41"/>
+      <c r="J235" s="15"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="13"/>
+      <c r="B236" s="29"/>
       <c r="C236" s="5" t="s">
         <v>57</v>
       </c>
@@ -8071,33 +8248,33 @@
         <v>79</v>
       </c>
       <c r="I236" s="5"/>
-      <c r="J236" s="41"/>
+      <c r="J236" s="15"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
+      <c r="A237" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="11"/>
-      <c r="C237" s="11"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
-      <c r="H237" s="11"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="11"/>
+      <c r="B237" s="27"/>
+      <c r="C237" s="27"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="17" t="s">
+      <c r="B238" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="C238" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="12" t="s">
+      <c r="D238" s="28" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="4" t="s">
@@ -8113,15 +8290,15 @@
         <v>11</v>
       </c>
       <c r="I238" s="4"/>
-      <c r="J238" s="41"/>
+      <c r="J238" s="15"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="18"/>
-      <c r="C239" s="13"/>
-      <c r="D239" s="12"/>
+      <c r="B239" s="34"/>
+      <c r="C239" s="29"/>
+      <c r="D239" s="28"/>
       <c r="E239" s="4" t="s">
         <v>370</v>
       </c>
@@ -8135,15 +8312,15 @@
         <v>11</v>
       </c>
       <c r="I239" s="4"/>
-      <c r="J239" s="41"/>
+      <c r="J239" s="15"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="18"/>
-      <c r="C240" s="13"/>
-      <c r="D240" s="12"/>
+      <c r="B240" s="34"/>
+      <c r="C240" s="29"/>
+      <c r="D240" s="28"/>
       <c r="E240" s="4" t="s">
         <v>393</v>
       </c>
@@ -8157,15 +8334,15 @@
         <v>371</v>
       </c>
       <c r="I240" s="4"/>
-      <c r="J240" s="41"/>
+      <c r="J240" s="15"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="18"/>
-      <c r="C241" s="13"/>
-      <c r="D241" s="12"/>
+      <c r="B241" s="34"/>
+      <c r="C241" s="29"/>
+      <c r="D241" s="28"/>
       <c r="E241" s="4" t="s">
         <v>372</v>
       </c>
@@ -8179,15 +8356,15 @@
         <v>11</v>
       </c>
       <c r="I241" s="4"/>
-      <c r="J241" s="41"/>
+      <c r="J241" s="15"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="18"/>
-      <c r="C242" s="13"/>
-      <c r="D242" s="12"/>
+      <c r="B242" s="34"/>
+      <c r="C242" s="29"/>
+      <c r="D242" s="28"/>
       <c r="E242" s="4" t="s">
         <v>373</v>
       </c>
@@ -8201,15 +8378,15 @@
         <v>11</v>
       </c>
       <c r="I242" s="4"/>
-      <c r="J242" s="41"/>
+      <c r="J242" s="15"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="18"/>
-      <c r="C243" s="13"/>
-      <c r="D243" s="12"/>
+      <c r="B243" s="34"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="28"/>
       <c r="E243" s="4" t="s">
         <v>374</v>
       </c>
@@ -8223,15 +8400,15 @@
         <v>371</v>
       </c>
       <c r="I243" s="4"/>
-      <c r="J243" s="41"/>
+      <c r="J243" s="15"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="18"/>
-      <c r="C244" s="13"/>
-      <c r="D244" s="12"/>
+      <c r="B244" s="34"/>
+      <c r="C244" s="29"/>
+      <c r="D244" s="28"/>
       <c r="E244" s="4" t="s">
         <v>375</v>
       </c>
@@ -8245,15 +8422,15 @@
         <v>11</v>
       </c>
       <c r="I244" s="4"/>
-      <c r="J244" s="41"/>
+      <c r="J244" s="15"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="18"/>
-      <c r="C245" s="13"/>
-      <c r="D245" s="12"/>
+      <c r="B245" s="34"/>
+      <c r="C245" s="29"/>
+      <c r="D245" s="28"/>
       <c r="E245" s="4" t="s">
         <v>376</v>
       </c>
@@ -8267,15 +8444,15 @@
         <v>11</v>
       </c>
       <c r="I245" s="4"/>
-      <c r="J245" s="41"/>
+      <c r="J245" s="15"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="18"/>
-      <c r="C246" s="13"/>
-      <c r="D246" s="12"/>
+      <c r="B246" s="34"/>
+      <c r="C246" s="29"/>
+      <c r="D246" s="28"/>
       <c r="E246" s="4" t="s">
         <v>377</v>
       </c>
@@ -8289,15 +8466,15 @@
         <v>371</v>
       </c>
       <c r="I246" s="4"/>
-      <c r="J246" s="41"/>
+      <c r="J246" s="15"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="18"/>
-      <c r="C247" s="13"/>
-      <c r="D247" s="12"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="29"/>
+      <c r="D247" s="28"/>
       <c r="E247" s="4" t="s">
         <v>378</v>
       </c>
@@ -8311,15 +8488,15 @@
         <v>11</v>
       </c>
       <c r="I247" s="4"/>
-      <c r="J247" s="41"/>
+      <c r="J247" s="15"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="18"/>
-      <c r="C248" s="13"/>
-      <c r="D248" s="12"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="29"/>
+      <c r="D248" s="28"/>
       <c r="E248" s="4" t="s">
         <v>379</v>
       </c>
@@ -8333,15 +8510,15 @@
         <v>11</v>
       </c>
       <c r="I248" s="4"/>
-      <c r="J248" s="41"/>
+      <c r="J248" s="15"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="18"/>
-      <c r="C249" s="13"/>
-      <c r="D249" s="12"/>
+      <c r="B249" s="34"/>
+      <c r="C249" s="29"/>
+      <c r="D249" s="28"/>
       <c r="E249" s="4" t="s">
         <v>380</v>
       </c>
@@ -8355,15 +8532,15 @@
         <v>371</v>
       </c>
       <c r="I249" s="4"/>
-      <c r="J249" s="41"/>
+      <c r="J249" s="15"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="18"/>
-      <c r="C250" s="13"/>
-      <c r="D250" s="12"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="29"/>
+      <c r="D250" s="28"/>
       <c r="E250" s="4" t="s">
         <v>381</v>
       </c>
@@ -8377,15 +8554,15 @@
         <v>11</v>
       </c>
       <c r="I250" s="4"/>
-      <c r="J250" s="41"/>
+      <c r="J250" s="15"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="18"/>
-      <c r="C251" s="13"/>
-      <c r="D251" s="12"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="29"/>
+      <c r="D251" s="28"/>
       <c r="E251" s="4" t="s">
         <v>382</v>
       </c>
@@ -8399,15 +8576,15 @@
         <v>11</v>
       </c>
       <c r="I251" s="4"/>
-      <c r="J251" s="41"/>
+      <c r="J251" s="15"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="18"/>
-      <c r="C252" s="13"/>
-      <c r="D252" s="12"/>
+      <c r="B252" s="34"/>
+      <c r="C252" s="29"/>
+      <c r="D252" s="28"/>
       <c r="E252" s="4" t="s">
         <v>383</v>
       </c>
@@ -8421,15 +8598,15 @@
         <v>371</v>
       </c>
       <c r="I252" s="4"/>
-      <c r="J252" s="41"/>
+      <c r="J252" s="15"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="18"/>
-      <c r="C253" s="13"/>
-      <c r="D253" s="12"/>
+      <c r="B253" s="34"/>
+      <c r="C253" s="29"/>
+      <c r="D253" s="28"/>
       <c r="E253" s="4" t="s">
         <v>384</v>
       </c>
@@ -8443,15 +8620,15 @@
         <v>371</v>
       </c>
       <c r="I253" s="4"/>
-      <c r="J253" s="41"/>
+      <c r="J253" s="15"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="18"/>
-      <c r="C254" s="13"/>
-      <c r="D254" s="12"/>
+      <c r="B254" s="34"/>
+      <c r="C254" s="29"/>
+      <c r="D254" s="28"/>
       <c r="E254" s="4" t="s">
         <v>385</v>
       </c>
@@ -8465,15 +8642,15 @@
         <v>371</v>
       </c>
       <c r="I254" s="4"/>
-      <c r="J254" s="41"/>
+      <c r="J254" s="15"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="18"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="12"/>
+      <c r="B255" s="34"/>
+      <c r="C255" s="29"/>
+      <c r="D255" s="28"/>
       <c r="E255" s="4" t="s">
         <v>386</v>
       </c>
@@ -8487,15 +8664,15 @@
         <v>371</v>
       </c>
       <c r="I255" s="4"/>
-      <c r="J255" s="41"/>
+      <c r="J255" s="15"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="18"/>
-      <c r="C256" s="13"/>
-      <c r="D256" s="12"/>
+      <c r="B256" s="34"/>
+      <c r="C256" s="29"/>
+      <c r="D256" s="28"/>
       <c r="E256" s="4" t="s">
         <v>387</v>
       </c>
@@ -8509,15 +8686,15 @@
         <v>371</v>
       </c>
       <c r="I256" s="4"/>
-      <c r="J256" s="41"/>
+      <c r="J256" s="15"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="18"/>
-      <c r="C257" s="13"/>
-      <c r="D257" s="12"/>
+      <c r="B257" s="34"/>
+      <c r="C257" s="29"/>
+      <c r="D257" s="28"/>
       <c r="E257" s="4" t="s">
         <v>388</v>
       </c>
@@ -8531,15 +8708,15 @@
         <v>371</v>
       </c>
       <c r="I257" s="4"/>
-      <c r="J257" s="41"/>
+      <c r="J257" s="15"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="18"/>
-      <c r="C258" s="13"/>
-      <c r="D258" s="12"/>
+      <c r="B258" s="34"/>
+      <c r="C258" s="29"/>
+      <c r="D258" s="28"/>
       <c r="E258" s="4" t="s">
         <v>389</v>
       </c>
@@ -8553,15 +8730,15 @@
         <v>371</v>
       </c>
       <c r="I258" s="4"/>
-      <c r="J258" s="41"/>
+      <c r="J258" s="15"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="18"/>
-      <c r="C259" s="13"/>
-      <c r="D259" s="12"/>
+      <c r="B259" s="34"/>
+      <c r="C259" s="29"/>
+      <c r="D259" s="28"/>
       <c r="E259" s="4" t="s">
         <v>390</v>
       </c>
@@ -8575,15 +8752,15 @@
         <v>371</v>
       </c>
       <c r="I259" s="4"/>
-      <c r="J259" s="41"/>
+      <c r="J259" s="15"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="18"/>
-      <c r="C260" s="13"/>
-      <c r="D260" s="12"/>
+      <c r="B260" s="34"/>
+      <c r="C260" s="29"/>
+      <c r="D260" s="28"/>
       <c r="E260" s="4" t="s">
         <v>391</v>
       </c>
@@ -8597,17 +8774,17 @@
         <v>371</v>
       </c>
       <c r="I260" s="4"/>
-      <c r="J260" s="41"/>
+      <c r="J260" s="15"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="18"/>
-      <c r="C261" s="14" t="s">
+      <c r="B261" s="34"/>
+      <c r="C261" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="14" t="s">
+      <c r="D261" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -8623,15 +8800,15 @@
         <v>396</v>
       </c>
       <c r="I261" s="4"/>
-      <c r="J261" s="41"/>
+      <c r="J261" s="15"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="18"/>
-      <c r="C262" s="15"/>
-      <c r="D262" s="15"/>
+      <c r="B262" s="34"/>
+      <c r="C262" s="31"/>
+      <c r="D262" s="31"/>
       <c r="E262" s="4" t="s">
         <v>397</v>
       </c>
@@ -8645,261 +8822,261 @@
         <v>396</v>
       </c>
       <c r="I262" s="4"/>
-      <c r="J262" s="41"/>
+      <c r="J262" s="15"/>
     </row>
     <row r="263" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="18"/>
-      <c r="C263" s="15"/>
-      <c r="D263" s="15"/>
+      <c r="B263" s="34"/>
+      <c r="C263" s="31"/>
+      <c r="D263" s="31"/>
       <c r="E263" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F263" s="14" t="s">
+      <c r="F263" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="G263" s="17" t="s">
+      <c r="G263" s="33" t="s">
         <v>400</v>
       </c>
       <c r="H263" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I263" s="4"/>
-      <c r="J263" s="41"/>
+      <c r="J263" s="15"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="18"/>
-      <c r="C264" s="15"/>
-      <c r="D264" s="15"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="31"/>
+      <c r="D264" s="31"/>
       <c r="E264" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F264" s="15"/>
-      <c r="G264" s="18"/>
+      <c r="F264" s="31"/>
+      <c r="G264" s="34"/>
       <c r="H264" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I264" s="4"/>
-      <c r="J264" s="41"/>
+      <c r="J264" s="15"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="18"/>
-      <c r="C265" s="15"/>
-      <c r="D265" s="15"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="31"/>
+      <c r="D265" s="31"/>
       <c r="E265" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F265" s="15"/>
-      <c r="G265" s="18"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="34"/>
       <c r="H265" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I265" s="4"/>
-      <c r="J265" s="41"/>
+      <c r="J265" s="15"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="18"/>
-      <c r="C266" s="15"/>
-      <c r="D266" s="15"/>
+      <c r="B266" s="34"/>
+      <c r="C266" s="31"/>
+      <c r="D266" s="31"/>
       <c r="E266" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F266" s="16"/>
-      <c r="G266" s="19"/>
+      <c r="F266" s="32"/>
+      <c r="G266" s="35"/>
       <c r="H266" s="4" t="s">
         <v>399</v>
       </c>
       <c r="I266" s="4"/>
-      <c r="J266" s="41"/>
+      <c r="J266" s="15"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="18"/>
-      <c r="C267" s="15"/>
-      <c r="D267" s="15"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="31"/>
+      <c r="D267" s="31"/>
       <c r="E267" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F267" s="14" t="s">
+      <c r="F267" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="G267" s="17" t="s">
+      <c r="G267" s="33" t="s">
         <v>403</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I267" s="4"/>
-      <c r="J267" s="41"/>
+      <c r="J267" s="15"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="18"/>
-      <c r="C268" s="15"/>
-      <c r="D268" s="15"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="31"/>
+      <c r="D268" s="31"/>
       <c r="E268" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F268" s="15"/>
-      <c r="G268" s="18"/>
+      <c r="F268" s="31"/>
+      <c r="G268" s="34"/>
       <c r="H268" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I268" s="4"/>
-      <c r="J268" s="41"/>
+      <c r="J268" s="15"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="18"/>
-      <c r="C269" s="15"/>
-      <c r="D269" s="15"/>
+      <c r="B269" s="34"/>
+      <c r="C269" s="31"/>
+      <c r="D269" s="31"/>
       <c r="E269" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F269" s="15"/>
-      <c r="G269" s="18"/>
+      <c r="F269" s="31"/>
+      <c r="G269" s="34"/>
       <c r="H269" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I269" s="4"/>
-      <c r="J269" s="41"/>
+      <c r="J269" s="15"/>
     </row>
     <row r="270" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="18"/>
-      <c r="C270" s="15"/>
-      <c r="D270" s="15"/>
+      <c r="B270" s="34"/>
+      <c r="C270" s="31"/>
+      <c r="D270" s="31"/>
       <c r="E270" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F270" s="16"/>
-      <c r="G270" s="19"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="35"/>
       <c r="H270" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I270" s="4"/>
-      <c r="J270" s="41"/>
+      <c r="J270" s="15"/>
     </row>
     <row r="271" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="18"/>
-      <c r="C271" s="15"/>
-      <c r="D271" s="15"/>
+      <c r="B271" s="34"/>
+      <c r="C271" s="31"/>
+      <c r="D271" s="31"/>
       <c r="E271" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F271" s="14" t="s">
+      <c r="F271" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="G271" s="17" t="s">
+      <c r="G271" s="33" t="s">
         <v>404</v>
       </c>
       <c r="H271" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I271" s="4"/>
-      <c r="J271" s="41"/>
+      <c r="J271" s="15"/>
     </row>
     <row r="272" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="18"/>
-      <c r="C272" s="15"/>
-      <c r="D272" s="15"/>
+      <c r="B272" s="34"/>
+      <c r="C272" s="31"/>
+      <c r="D272" s="31"/>
       <c r="E272" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F272" s="15"/>
-      <c r="G272" s="18"/>
+      <c r="F272" s="31"/>
+      <c r="G272" s="34"/>
       <c r="H272" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I272" s="4"/>
-      <c r="J272" s="41"/>
+      <c r="J272" s="15"/>
     </row>
     <row r="273" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="18"/>
-      <c r="C273" s="15"/>
-      <c r="D273" s="15"/>
+      <c r="B273" s="34"/>
+      <c r="C273" s="31"/>
+      <c r="D273" s="31"/>
       <c r="E273" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F273" s="15"/>
-      <c r="G273" s="18"/>
+      <c r="F273" s="31"/>
+      <c r="G273" s="34"/>
       <c r="H273" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I273" s="4"/>
-      <c r="J273" s="41"/>
+      <c r="J273" s="15"/>
     </row>
     <row r="274" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="19"/>
-      <c r="C274" s="16"/>
-      <c r="D274" s="16"/>
+      <c r="B274" s="35"/>
+      <c r="C274" s="32"/>
+      <c r="D274" s="32"/>
       <c r="E274" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F274" s="16"/>
-      <c r="G274" s="19"/>
+      <c r="F274" s="32"/>
+      <c r="G274" s="35"/>
       <c r="H274" s="4" t="s">
         <v>402</v>
       </c>
       <c r="I274" s="4"/>
-      <c r="J274" s="41"/>
+      <c r="J274" s="15"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="11" t="s">
+      <c r="A275" s="27" t="s">
         <v>398</v>
       </c>
-      <c r="B275" s="11"/>
-      <c r="C275" s="11"/>
-      <c r="D275" s="11"/>
-      <c r="E275" s="11"/>
-      <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="11"/>
-      <c r="J275" s="11"/>
+      <c r="B275" s="27"/>
+      <c r="C275" s="27"/>
+      <c r="D275" s="27"/>
+      <c r="E275" s="27"/>
+      <c r="F275" s="27"/>
+      <c r="G275" s="27"/>
+      <c r="H275" s="27"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="27"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="17" t="s">
+      <c r="B276" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="14" t="s">
+      <c r="C276" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="17" t="s">
+      <c r="D276" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E276" s="4" t="s">
@@ -8915,15 +9092,15 @@
         <v>11</v>
       </c>
       <c r="I276" s="4"/>
-      <c r="J276" s="41"/>
+      <c r="J276" s="15"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="18"/>
-      <c r="C277" s="15"/>
-      <c r="D277" s="18"/>
+      <c r="B277" s="34"/>
+      <c r="C277" s="31"/>
+      <c r="D277" s="34"/>
       <c r="E277" s="4" t="s">
         <v>275</v>
       </c>
@@ -8937,15 +9114,15 @@
         <v>11</v>
       </c>
       <c r="I277" s="4"/>
-      <c r="J277" s="41"/>
+      <c r="J277" s="15"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="18"/>
-      <c r="C278" s="15"/>
-      <c r="D278" s="18"/>
+      <c r="B278" s="34"/>
+      <c r="C278" s="31"/>
+      <c r="D278" s="34"/>
       <c r="E278" s="4" t="s">
         <v>276</v>
       </c>
@@ -8959,15 +9136,15 @@
         <v>11</v>
       </c>
       <c r="I278" s="4"/>
-      <c r="J278" s="41"/>
+      <c r="J278" s="15"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="18"/>
-      <c r="C279" s="15"/>
-      <c r="D279" s="18"/>
+      <c r="B279" s="34"/>
+      <c r="C279" s="31"/>
+      <c r="D279" s="34"/>
       <c r="E279" s="4" t="s">
         <v>277</v>
       </c>
@@ -8981,15 +9158,15 @@
         <v>11</v>
       </c>
       <c r="I279" s="4"/>
-      <c r="J279" s="41"/>
+      <c r="J279" s="15"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="18"/>
-      <c r="C280" s="15"/>
-      <c r="D280" s="18"/>
+      <c r="B280" s="34"/>
+      <c r="C280" s="31"/>
+      <c r="D280" s="34"/>
       <c r="E280" s="4" t="s">
         <v>315</v>
       </c>
@@ -9003,15 +9180,15 @@
         <v>11</v>
       </c>
       <c r="I280" s="4"/>
-      <c r="J280" s="41"/>
+      <c r="J280" s="15"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="18"/>
-      <c r="C281" s="16"/>
-      <c r="D281" s="19"/>
+      <c r="B281" s="34"/>
+      <c r="C281" s="32"/>
+      <c r="D281" s="35"/>
       <c r="E281" s="4" t="s">
         <v>278</v>
       </c>
@@ -9025,17 +9202,17 @@
         <v>11</v>
       </c>
       <c r="I281" s="4"/>
-      <c r="J281" s="41"/>
+      <c r="J281" s="15"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="18"/>
-      <c r="C282" s="14" t="s">
+      <c r="B282" s="34"/>
+      <c r="C282" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="14" t="s">
+      <c r="D282" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E282" s="4" t="s">
@@ -9051,15 +9228,15 @@
         <v>280</v>
       </c>
       <c r="I282" s="4"/>
-      <c r="J282" s="41"/>
+      <c r="J282" s="15"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="18"/>
-      <c r="C283" s="15"/>
-      <c r="D283" s="15"/>
+      <c r="B283" s="34"/>
+      <c r="C283" s="31"/>
+      <c r="D283" s="31"/>
       <c r="E283" s="4" t="s">
         <v>282</v>
       </c>
@@ -9073,15 +9250,15 @@
         <v>169</v>
       </c>
       <c r="I283" s="4"/>
-      <c r="J283" s="41"/>
+      <c r="J283" s="15"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="18"/>
-      <c r="C284" s="15"/>
-      <c r="D284" s="15"/>
+      <c r="B284" s="34"/>
+      <c r="C284" s="31"/>
+      <c r="D284" s="31"/>
       <c r="E284" s="4" t="s">
         <v>317</v>
       </c>
@@ -9095,15 +9272,15 @@
         <v>280</v>
       </c>
       <c r="I284" s="4"/>
-      <c r="J284" s="41"/>
+      <c r="J284" s="15"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="18"/>
-      <c r="C285" s="15"/>
-      <c r="D285" s="15"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="31"/>
+      <c r="D285" s="31"/>
       <c r="E285" s="4" t="s">
         <v>286</v>
       </c>
@@ -9119,15 +9296,15 @@
       <c r="I285" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="J285" s="41"/>
+      <c r="J285" s="15"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="18"/>
-      <c r="C286" s="16"/>
-      <c r="D286" s="16"/>
+      <c r="B286" s="34"/>
+      <c r="C286" s="32"/>
+      <c r="D286" s="32"/>
       <c r="E286" s="4" t="s">
         <v>325</v>
       </c>
@@ -9143,13 +9320,13 @@
       <c r="I286" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="J286" s="41"/>
+      <c r="J286" s="15"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="19"/>
+      <c r="B287" s="35"/>
       <c r="C287" s="4" t="s">
         <v>118</v>
       </c>
@@ -9169,33 +9346,33 @@
         <v>121</v>
       </c>
       <c r="I287" s="4"/>
-      <c r="J287" s="41"/>
+      <c r="J287" s="15"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="11" t="s">
+      <c r="A288" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
-      <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="11"/>
-      <c r="J288" s="11"/>
+      <c r="B288" s="27"/>
+      <c r="C288" s="27"/>
+      <c r="D288" s="27"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="27"/>
+      <c r="G288" s="27"/>
+      <c r="H288" s="27"/>
+      <c r="I288" s="27"/>
+      <c r="J288" s="27"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="17" t="s">
+      <c r="B289" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="C289" s="14" t="s">
+      <c r="C289" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="17" t="s">
+      <c r="D289" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E289" s="4" t="s">
@@ -9211,15 +9388,15 @@
         <v>11</v>
       </c>
       <c r="I289" s="4"/>
-      <c r="J289" s="41"/>
+      <c r="J289" s="15"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="18"/>
-      <c r="C290" s="15"/>
-      <c r="D290" s="18"/>
+      <c r="B290" s="34"/>
+      <c r="C290" s="31"/>
+      <c r="D290" s="34"/>
       <c r="E290" s="4" t="s">
         <v>313</v>
       </c>
@@ -9233,15 +9410,15 @@
         <v>11</v>
       </c>
       <c r="I290" s="4"/>
-      <c r="J290" s="41"/>
+      <c r="J290" s="15"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="18"/>
-      <c r="C291" s="15"/>
-      <c r="D291" s="18"/>
+      <c r="B291" s="34"/>
+      <c r="C291" s="31"/>
+      <c r="D291" s="34"/>
       <c r="E291" s="4" t="s">
         <v>314</v>
       </c>
@@ -9255,15 +9432,15 @@
         <v>11</v>
       </c>
       <c r="I291" s="4"/>
-      <c r="J291" s="41"/>
+      <c r="J291" s="15"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="18"/>
-      <c r="C292" s="15"/>
-      <c r="D292" s="18"/>
+      <c r="B292" s="34"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="34"/>
       <c r="E292" s="4" t="s">
         <v>306</v>
       </c>
@@ -9277,15 +9454,15 @@
         <v>11</v>
       </c>
       <c r="I292" s="4"/>
-      <c r="J292" s="41"/>
+      <c r="J292" s="15"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="18"/>
-      <c r="C293" s="15"/>
-      <c r="D293" s="18"/>
+      <c r="B293" s="34"/>
+      <c r="C293" s="31"/>
+      <c r="D293" s="34"/>
       <c r="E293" s="4" t="s">
         <v>316</v>
       </c>
@@ -9299,15 +9476,15 @@
         <v>11</v>
       </c>
       <c r="I293" s="4"/>
-      <c r="J293" s="41"/>
+      <c r="J293" s="15"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="18"/>
-      <c r="C294" s="16"/>
-      <c r="D294" s="19"/>
+      <c r="B294" s="34"/>
+      <c r="C294" s="32"/>
+      <c r="D294" s="35"/>
       <c r="E294" s="4" t="s">
         <v>302</v>
       </c>
@@ -9321,17 +9498,17 @@
         <v>11</v>
       </c>
       <c r="I294" s="4"/>
-      <c r="J294" s="41"/>
+      <c r="J294" s="15"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="18"/>
-      <c r="C295" s="14" t="s">
+      <c r="B295" s="34"/>
+      <c r="C295" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="14" t="s">
+      <c r="D295" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E295" s="4" t="s">
@@ -9347,15 +9524,15 @@
         <v>280</v>
       </c>
       <c r="I295" s="4"/>
-      <c r="J295" s="41"/>
+      <c r="J295" s="15"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="18"/>
-      <c r="C296" s="15"/>
-      <c r="D296" s="15"/>
+      <c r="B296" s="34"/>
+      <c r="C296" s="31"/>
+      <c r="D296" s="31"/>
       <c r="E296" s="4" t="s">
         <v>303</v>
       </c>
@@ -9369,15 +9546,15 @@
         <v>169</v>
       </c>
       <c r="I296" s="4"/>
-      <c r="J296" s="41"/>
+      <c r="J296" s="15"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="18"/>
-      <c r="C297" s="15"/>
-      <c r="D297" s="15"/>
+      <c r="B297" s="34"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
       <c r="E297" s="4" t="s">
         <v>317</v>
       </c>
@@ -9391,15 +9568,15 @@
         <v>280</v>
       </c>
       <c r="I297" s="4"/>
-      <c r="J297" s="41"/>
+      <c r="J297" s="15"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="18"/>
-      <c r="C298" s="15"/>
-      <c r="D298" s="15"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="31"/>
+      <c r="D298" s="31"/>
       <c r="E298" s="4" t="s">
         <v>304</v>
       </c>
@@ -9415,15 +9592,15 @@
       <c r="I298" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J298" s="41"/>
+      <c r="J298" s="15"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="18"/>
-      <c r="C299" s="16"/>
-      <c r="D299" s="16"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="32"/>
+      <c r="D299" s="32"/>
       <c r="E299" s="4" t="s">
         <v>324</v>
       </c>
@@ -9439,13 +9616,13 @@
       <c r="I299" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J299" s="41"/>
+      <c r="J299" s="15"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="19"/>
+      <c r="B300" s="35"/>
       <c r="C300" s="4" t="s">
         <v>118</v>
       </c>
@@ -9465,33 +9642,33 @@
         <v>121</v>
       </c>
       <c r="I300" s="4"/>
-      <c r="J300" s="41"/>
+      <c r="J300" s="15"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="11" t="s">
+      <c r="A301" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-      <c r="J301" s="11"/>
+      <c r="B301" s="27"/>
+      <c r="C301" s="27"/>
+      <c r="D301" s="27"/>
+      <c r="E301" s="27"/>
+      <c r="F301" s="27"/>
+      <c r="G301" s="27"/>
+      <c r="H301" s="27"/>
+      <c r="I301" s="27"/>
+      <c r="J301" s="27"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="17" t="s">
+      <c r="B302" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="14" t="s">
+      <c r="C302" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="17" t="s">
+      <c r="D302" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E302" s="4" t="s">
@@ -9507,15 +9684,15 @@
         <v>11</v>
       </c>
       <c r="I302" s="4"/>
-      <c r="J302" s="41"/>
+      <c r="J302" s="15"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="18"/>
-      <c r="C303" s="15"/>
-      <c r="D303" s="18"/>
+      <c r="B303" s="34"/>
+      <c r="C303" s="31"/>
+      <c r="D303" s="34"/>
       <c r="E303" s="4" t="s">
         <v>346</v>
       </c>
@@ -9529,15 +9706,15 @@
         <v>11</v>
       </c>
       <c r="I303" s="4"/>
-      <c r="J303" s="41"/>
+      <c r="J303" s="15"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="18"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="18"/>
+      <c r="B304" s="34"/>
+      <c r="C304" s="31"/>
+      <c r="D304" s="34"/>
       <c r="E304" s="4" t="s">
         <v>347</v>
       </c>
@@ -9551,15 +9728,15 @@
         <v>11</v>
       </c>
       <c r="I304" s="4"/>
-      <c r="J304" s="41"/>
+      <c r="J304" s="15"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="18"/>
-      <c r="C305" s="15"/>
-      <c r="D305" s="18"/>
+      <c r="B305" s="34"/>
+      <c r="C305" s="31"/>
+      <c r="D305" s="34"/>
       <c r="E305" s="4" t="s">
         <v>344</v>
       </c>
@@ -9573,15 +9750,15 @@
         <v>11</v>
       </c>
       <c r="I305" s="4"/>
-      <c r="J305" s="41"/>
+      <c r="J305" s="15"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="18"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="18"/>
+      <c r="B306" s="34"/>
+      <c r="C306" s="31"/>
+      <c r="D306" s="34"/>
       <c r="E306" s="4" t="s">
         <v>339</v>
       </c>
@@ -9595,15 +9772,15 @@
         <v>11</v>
       </c>
       <c r="I306" s="4"/>
-      <c r="J306" s="41"/>
+      <c r="J306" s="15"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="18"/>
-      <c r="C307" s="16"/>
-      <c r="D307" s="19"/>
+      <c r="B307" s="34"/>
+      <c r="C307" s="32"/>
+      <c r="D307" s="35"/>
       <c r="E307" s="4" t="s">
         <v>340</v>
       </c>
@@ -9617,17 +9794,17 @@
         <v>11</v>
       </c>
       <c r="I307" s="4"/>
-      <c r="J307" s="41"/>
+      <c r="J307" s="15"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="18"/>
-      <c r="C308" s="14" t="s">
+      <c r="B308" s="34"/>
+      <c r="C308" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="14" t="s">
+      <c r="D308" s="30" t="s">
         <v>65</v>
       </c>
       <c r="E308" s="4" t="s">
@@ -9643,15 +9820,15 @@
         <v>280</v>
       </c>
       <c r="I308" s="4"/>
-      <c r="J308" s="41"/>
+      <c r="J308" s="15"/>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="18"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
+      <c r="B309" s="34"/>
+      <c r="C309" s="31"/>
+      <c r="D309" s="31"/>
       <c r="E309" s="4" t="s">
         <v>341</v>
       </c>
@@ -9665,15 +9842,15 @@
         <v>169</v>
       </c>
       <c r="I309" s="4"/>
-      <c r="J309" s="41"/>
+      <c r="J309" s="15"/>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="18"/>
-      <c r="C310" s="15"/>
-      <c r="D310" s="15"/>
+      <c r="B310" s="34"/>
+      <c r="C310" s="31"/>
+      <c r="D310" s="31"/>
       <c r="E310" s="4" t="s">
         <v>349</v>
       </c>
@@ -9687,15 +9864,15 @@
         <v>280</v>
       </c>
       <c r="I310" s="4"/>
-      <c r="J310" s="41"/>
+      <c r="J310" s="15"/>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="18"/>
-      <c r="C311" s="15"/>
-      <c r="D311" s="15"/>
+      <c r="B311" s="34"/>
+      <c r="C311" s="31"/>
+      <c r="D311" s="31"/>
       <c r="E311" s="4" t="s">
         <v>342</v>
       </c>
@@ -9711,15 +9888,15 @@
       <c r="I311" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="J311" s="41"/>
+      <c r="J311" s="15"/>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="18"/>
-      <c r="C312" s="16"/>
-      <c r="D312" s="16"/>
+      <c r="B312" s="34"/>
+      <c r="C312" s="32"/>
+      <c r="D312" s="32"/>
       <c r="E312" s="4" t="s">
         <v>350</v>
       </c>
@@ -9735,13 +9912,13 @@
       <c r="I312" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="J312" s="41"/>
+      <c r="J312" s="15"/>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="19"/>
+      <c r="B313" s="35"/>
       <c r="C313" s="4" t="s">
         <v>118</v>
       </c>
@@ -9761,33 +9938,33 @@
         <v>121</v>
       </c>
       <c r="I313" s="4"/>
-      <c r="J313" s="41"/>
+      <c r="J313" s="15"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="11" t="s">
+      <c r="A314" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="B314" s="11"/>
-      <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
-      <c r="F314" s="11"/>
-      <c r="G314" s="11"/>
-      <c r="H314" s="11"/>
-      <c r="I314" s="11"/>
-      <c r="J314" s="11"/>
+      <c r="B314" s="27"/>
+      <c r="C314" s="27"/>
+      <c r="D314" s="27"/>
+      <c r="E314" s="27"/>
+      <c r="F314" s="27"/>
+      <c r="G314" s="27"/>
+      <c r="H314" s="27"/>
+      <c r="I314" s="27"/>
+      <c r="J314" s="27"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="12" t="s">
+      <c r="B315" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="C315" s="14" t="s">
+      <c r="C315" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="17" t="s">
+      <c r="D315" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E315" s="5" t="s">
@@ -9803,15 +9980,15 @@
         <v>11</v>
       </c>
       <c r="I315" s="5"/>
-      <c r="J315" s="41"/>
+      <c r="J315" s="15"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="12"/>
-      <c r="C316" s="15"/>
-      <c r="D316" s="18"/>
+      <c r="B316" s="28"/>
+      <c r="C316" s="31"/>
+      <c r="D316" s="34"/>
       <c r="E316" s="5" t="s">
         <v>358</v>
       </c>
@@ -9825,15 +10002,15 @@
         <v>11</v>
       </c>
       <c r="I316" s="5"/>
-      <c r="J316" s="41"/>
+      <c r="J316" s="15"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="12"/>
-      <c r="C317" s="15"/>
-      <c r="D317" s="18"/>
+      <c r="B317" s="28"/>
+      <c r="C317" s="31"/>
+      <c r="D317" s="34"/>
       <c r="E317" s="5" t="s">
         <v>367</v>
       </c>
@@ -9847,15 +10024,15 @@
         <v>11</v>
       </c>
       <c r="I317" s="5"/>
-      <c r="J317" s="41"/>
+      <c r="J317" s="15"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="12"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="18"/>
+      <c r="B318" s="28"/>
+      <c r="C318" s="31"/>
+      <c r="D318" s="34"/>
       <c r="E318" s="5" t="s">
         <v>365</v>
       </c>
@@ -9869,15 +10046,15 @@
         <v>11</v>
       </c>
       <c r="I318" s="5"/>
-      <c r="J318" s="41"/>
+      <c r="J318" s="15"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="12"/>
-      <c r="C319" s="15"/>
-      <c r="D319" s="18"/>
+      <c r="B319" s="28"/>
+      <c r="C319" s="31"/>
+      <c r="D319" s="34"/>
       <c r="E319" s="5" t="s">
         <v>359</v>
       </c>
@@ -9891,15 +10068,15 @@
         <v>11</v>
       </c>
       <c r="I319" s="5"/>
-      <c r="J319" s="41"/>
+      <c r="J319" s="15"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="12"/>
-      <c r="C320" s="16"/>
-      <c r="D320" s="19"/>
+      <c r="B320" s="28"/>
+      <c r="C320" s="32"/>
+      <c r="D320" s="35"/>
       <c r="E320" s="5" t="s">
         <v>360</v>
       </c>
@@ -9913,17 +10090,17 @@
         <v>11</v>
       </c>
       <c r="I320" s="5"/>
-      <c r="J320" s="41"/>
+      <c r="J320" s="15"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="12"/>
-      <c r="C321" s="13" t="s">
+      <c r="B321" s="28"/>
+      <c r="C321" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="13" t="s">
+      <c r="D321" s="29" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="5" t="s">
@@ -9939,15 +10116,15 @@
         <v>280</v>
       </c>
       <c r="I321" s="5"/>
-      <c r="J321" s="41"/>
+      <c r="J321" s="15"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="12"/>
-      <c r="C322" s="13"/>
-      <c r="D322" s="13"/>
+      <c r="B322" s="28"/>
+      <c r="C322" s="29"/>
+      <c r="D322" s="29"/>
       <c r="E322" s="5" t="s">
         <v>362</v>
       </c>
@@ -9961,15 +10138,15 @@
         <v>169</v>
       </c>
       <c r="I322" s="5"/>
-      <c r="J322" s="41"/>
+      <c r="J322" s="15"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="12"/>
-      <c r="C323" s="13"/>
-      <c r="D323" s="13"/>
+      <c r="B323" s="28"/>
+      <c r="C323" s="29"/>
+      <c r="D323" s="29"/>
       <c r="E323" s="5" t="s">
         <v>349</v>
       </c>
@@ -9983,15 +10160,15 @@
         <v>280</v>
       </c>
       <c r="I323" s="5"/>
-      <c r="J323" s="41"/>
+      <c r="J323" s="15"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="12"/>
-      <c r="C324" s="13"/>
-      <c r="D324" s="13"/>
+      <c r="B324" s="28"/>
+      <c r="C324" s="29"/>
+      <c r="D324" s="29"/>
       <c r="E324" s="5" t="s">
         <v>363</v>
       </c>
@@ -10007,15 +10184,15 @@
       <c r="I324" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="J324" s="41"/>
+      <c r="J324" s="15"/>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="12"/>
-      <c r="C325" s="13"/>
-      <c r="D325" s="13"/>
+      <c r="B325" s="28"/>
+      <c r="C325" s="29"/>
+      <c r="D325" s="29"/>
       <c r="E325" s="5" t="s">
         <v>357</v>
       </c>
@@ -10031,13 +10208,13 @@
       <c r="I325" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="J325" s="41"/>
+      <c r="J325" s="15"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="12"/>
+      <c r="B326" s="28"/>
       <c r="C326" s="5" t="s">
         <v>118</v>
       </c>
@@ -10057,33 +10234,33 @@
         <v>121</v>
       </c>
       <c r="I326" s="5"/>
-      <c r="J326" s="41"/>
+      <c r="J326" s="15"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="11" t="s">
+      <c r="A327" s="27" t="s">
         <v>354</v>
       </c>
-      <c r="B327" s="11"/>
-      <c r="C327" s="11"/>
-      <c r="D327" s="11"/>
-      <c r="E327" s="11"/>
-      <c r="F327" s="11"/>
-      <c r="G327" s="11"/>
-      <c r="H327" s="11"/>
-      <c r="I327" s="11"/>
-      <c r="J327" s="11"/>
+      <c r="B327" s="27"/>
+      <c r="C327" s="27"/>
+      <c r="D327" s="27"/>
+      <c r="E327" s="27"/>
+      <c r="F327" s="27"/>
+      <c r="G327" s="27"/>
+      <c r="H327" s="27"/>
+      <c r="I327" s="27"/>
+      <c r="J327" s="27"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>308</v>
       </c>
-      <c r="B328" s="20" t="s">
+      <c r="B328" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="C328" s="14" t="s">
+      <c r="C328" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D328" s="20" t="s">
+      <c r="D328" s="47" t="s">
         <v>65</v>
       </c>
       <c r="E328" s="8" t="s">
@@ -10099,15 +10276,15 @@
         <v>169</v>
       </c>
       <c r="I328" s="8"/>
-      <c r="J328" s="43"/>
+      <c r="J328" s="17"/>
     </row>
     <row r="329" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>309</v>
       </c>
-      <c r="B329" s="21"/>
-      <c r="C329" s="15"/>
-      <c r="D329" s="21"/>
+      <c r="B329" s="48"/>
+      <c r="C329" s="31"/>
+      <c r="D329" s="48"/>
       <c r="E329" s="8" t="s">
         <v>486</v>
       </c>
@@ -10121,15 +10298,15 @@
         <v>169</v>
       </c>
       <c r="I329" s="8"/>
-      <c r="J329" s="43"/>
+      <c r="J329" s="17"/>
     </row>
     <row r="330" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>310</v>
       </c>
-      <c r="B330" s="21"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="21"/>
+      <c r="B330" s="48"/>
+      <c r="C330" s="31"/>
+      <c r="D330" s="48"/>
       <c r="E330" s="8" t="s">
         <v>488</v>
       </c>
@@ -10143,15 +10320,15 @@
         <v>169</v>
       </c>
       <c r="I330" s="8"/>
-      <c r="J330" s="43"/>
+      <c r="J330" s="17"/>
     </row>
     <row r="331" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>311</v>
       </c>
-      <c r="B331" s="21"/>
-      <c r="C331" s="15"/>
-      <c r="D331" s="21"/>
+      <c r="B331" s="48"/>
+      <c r="C331" s="31"/>
+      <c r="D331" s="48"/>
       <c r="E331" s="8" t="s">
         <v>489</v>
       </c>
@@ -10165,15 +10342,15 @@
         <v>169</v>
       </c>
       <c r="I331" s="8"/>
-      <c r="J331" s="43"/>
+      <c r="J331" s="17"/>
     </row>
     <row r="332" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>312</v>
       </c>
-      <c r="B332" s="21"/>
-      <c r="C332" s="15"/>
-      <c r="D332" s="21"/>
+      <c r="B332" s="48"/>
+      <c r="C332" s="31"/>
+      <c r="D332" s="48"/>
       <c r="E332" s="8" t="s">
         <v>490</v>
       </c>
@@ -10187,15 +10364,15 @@
         <v>169</v>
       </c>
       <c r="I332" s="8"/>
-      <c r="J332" s="43"/>
+      <c r="J332" s="17"/>
     </row>
     <row r="333" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>313</v>
       </c>
-      <c r="B333" s="21"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="21"/>
+      <c r="B333" s="48"/>
+      <c r="C333" s="31"/>
+      <c r="D333" s="48"/>
       <c r="E333" s="8" t="s">
         <v>491</v>
       </c>
@@ -10209,15 +10386,15 @@
         <v>169</v>
       </c>
       <c r="I333" s="8"/>
-      <c r="J333" s="43"/>
+      <c r="J333" s="17"/>
     </row>
     <row r="334" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>314</v>
       </c>
-      <c r="B334" s="21"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="21"/>
+      <c r="B334" s="48"/>
+      <c r="C334" s="31"/>
+      <c r="D334" s="48"/>
       <c r="E334" s="8" t="s">
         <v>493</v>
       </c>
@@ -10231,15 +10408,15 @@
         <v>169</v>
       </c>
       <c r="I334" s="8"/>
-      <c r="J334" s="43"/>
+      <c r="J334" s="17"/>
     </row>
     <row r="335" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>315</v>
       </c>
-      <c r="B335" s="21"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="21"/>
+      <c r="B335" s="48"/>
+      <c r="C335" s="31"/>
+      <c r="D335" s="48"/>
       <c r="E335" s="8" t="s">
         <v>494</v>
       </c>
@@ -10253,15 +10430,15 @@
         <v>169</v>
       </c>
       <c r="I335" s="8"/>
-      <c r="J335" s="43"/>
+      <c r="J335" s="17"/>
     </row>
     <row r="336" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>316</v>
       </c>
-      <c r="B336" s="21"/>
-      <c r="C336" s="15"/>
-      <c r="D336" s="21"/>
+      <c r="B336" s="48"/>
+      <c r="C336" s="31"/>
+      <c r="D336" s="48"/>
       <c r="E336" s="8" t="s">
         <v>497</v>
       </c>
@@ -10275,15 +10452,15 @@
         <v>169</v>
       </c>
       <c r="I336" s="8"/>
-      <c r="J336" s="43"/>
+      <c r="J336" s="17"/>
     </row>
     <row r="337" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>317</v>
       </c>
-      <c r="B337" s="21"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="21"/>
+      <c r="B337" s="48"/>
+      <c r="C337" s="31"/>
+      <c r="D337" s="48"/>
       <c r="E337" s="8" t="s">
         <v>495</v>
       </c>
@@ -10297,15 +10474,15 @@
         <v>169</v>
       </c>
       <c r="I337" s="8"/>
-      <c r="J337" s="43"/>
+      <c r="J337" s="17"/>
     </row>
     <row r="338" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>318</v>
       </c>
-      <c r="B338" s="21"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="21"/>
+      <c r="B338" s="48"/>
+      <c r="C338" s="31"/>
+      <c r="D338" s="48"/>
       <c r="E338" s="8" t="s">
         <v>496</v>
       </c>
@@ -10319,15 +10496,15 @@
         <v>169</v>
       </c>
       <c r="I338" s="8"/>
-      <c r="J338" s="43"/>
+      <c r="J338" s="17"/>
     </row>
     <row r="339" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>319</v>
       </c>
-      <c r="B339" s="21"/>
-      <c r="C339" s="16"/>
-      <c r="D339" s="22"/>
+      <c r="B339" s="48"/>
+      <c r="C339" s="32"/>
+      <c r="D339" s="49"/>
       <c r="E339" s="8" t="s">
         <v>498</v>
       </c>
@@ -10341,17 +10518,17 @@
         <v>169</v>
       </c>
       <c r="I339" s="8"/>
-      <c r="J339" s="43"/>
+      <c r="J339" s="17"/>
     </row>
     <row r="340" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>320</v>
       </c>
-      <c r="B340" s="21"/>
-      <c r="C340" s="14" t="s">
+      <c r="B340" s="48"/>
+      <c r="C340" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="17" t="s">
+      <c r="D340" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E340" s="8" t="s">
@@ -10367,15 +10544,15 @@
         <v>11</v>
       </c>
       <c r="I340" s="8"/>
-      <c r="J340" s="43"/>
+      <c r="J340" s="17"/>
     </row>
     <row r="341" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>321</v>
       </c>
-      <c r="B341" s="21"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="18"/>
+      <c r="B341" s="48"/>
+      <c r="C341" s="31"/>
+      <c r="D341" s="34"/>
       <c r="E341" s="8" t="s">
         <v>501</v>
       </c>
@@ -10389,15 +10566,15 @@
         <v>11</v>
       </c>
       <c r="I341" s="8"/>
-      <c r="J341" s="43"/>
+      <c r="J341" s="17"/>
     </row>
     <row r="342" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>322</v>
       </c>
-      <c r="B342" s="21"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="18"/>
+      <c r="B342" s="48"/>
+      <c r="C342" s="31"/>
+      <c r="D342" s="34"/>
       <c r="E342" s="8" t="s">
         <v>502</v>
       </c>
@@ -10411,15 +10588,15 @@
         <v>11</v>
       </c>
       <c r="I342" s="8"/>
-      <c r="J342" s="43"/>
+      <c r="J342" s="17"/>
     </row>
     <row r="343" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>323</v>
       </c>
-      <c r="B343" s="21"/>
-      <c r="C343" s="15"/>
-      <c r="D343" s="18"/>
+      <c r="B343" s="48"/>
+      <c r="C343" s="31"/>
+      <c r="D343" s="34"/>
       <c r="E343" s="8" t="s">
         <v>503</v>
       </c>
@@ -10433,15 +10610,15 @@
         <v>11</v>
       </c>
       <c r="I343" s="8"/>
-      <c r="J343" s="43"/>
+      <c r="J343" s="17"/>
     </row>
     <row r="344" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>324</v>
       </c>
-      <c r="B344" s="21"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="18"/>
+      <c r="B344" s="48"/>
+      <c r="C344" s="31"/>
+      <c r="D344" s="34"/>
       <c r="E344" s="8" t="s">
         <v>504</v>
       </c>
@@ -10455,15 +10632,15 @@
         <v>11</v>
       </c>
       <c r="I344" s="8"/>
-      <c r="J344" s="43"/>
+      <c r="J344" s="17"/>
     </row>
     <row r="345" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>325</v>
       </c>
-      <c r="B345" s="21"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="18"/>
+      <c r="B345" s="48"/>
+      <c r="C345" s="31"/>
+      <c r="D345" s="34"/>
       <c r="E345" s="8" t="s">
         <v>505</v>
       </c>
@@ -10477,15 +10654,15 @@
         <v>11</v>
       </c>
       <c r="I345" s="8"/>
-      <c r="J345" s="43"/>
+      <c r="J345" s="17"/>
     </row>
     <row r="346" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>326</v>
       </c>
-      <c r="B346" s="21"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="18"/>
+      <c r="B346" s="48"/>
+      <c r="C346" s="31"/>
+      <c r="D346" s="34"/>
       <c r="E346" s="8" t="s">
         <v>506</v>
       </c>
@@ -10499,15 +10676,15 @@
         <v>11</v>
       </c>
       <c r="I346" s="8"/>
-      <c r="J346" s="43"/>
+      <c r="J346" s="17"/>
     </row>
     <row r="347" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>327</v>
       </c>
-      <c r="B347" s="21"/>
-      <c r="C347" s="16"/>
-      <c r="D347" s="19"/>
+      <c r="B347" s="48"/>
+      <c r="C347" s="32"/>
+      <c r="D347" s="35"/>
       <c r="E347" s="8" t="s">
         <v>507</v>
       </c>
@@ -10521,119 +10698,119 @@
         <v>11</v>
       </c>
       <c r="I347" s="8"/>
-      <c r="J347" s="43"/>
+      <c r="J347" s="17"/>
     </row>
     <row r="348" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>328</v>
       </c>
-      <c r="B348" s="21"/>
-      <c r="C348" s="14" t="s">
+      <c r="B348" s="48"/>
+      <c r="C348" s="30" t="s">
         <v>466</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E348" s="14" t="s">
+      <c r="E348" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="F348" s="14" t="s">
+      <c r="F348" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="G348" s="17" t="s">
+      <c r="G348" s="33" t="s">
         <v>508</v>
       </c>
       <c r="H348" s="5" t="s">
         <v>509</v>
       </c>
       <c r="I348" s="5"/>
-      <c r="J348" s="41"/>
+      <c r="J348" s="15"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>329</v>
       </c>
-      <c r="B349" s="21"/>
-      <c r="C349" s="15"/>
+      <c r="B349" s="48"/>
+      <c r="C349" s="31"/>
       <c r="D349" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E349" s="15"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="18"/>
+      <c r="E349" s="31"/>
+      <c r="F349" s="31"/>
+      <c r="G349" s="34"/>
       <c r="H349" s="5" t="s">
         <v>510</v>
       </c>
       <c r="I349" s="5"/>
-      <c r="J349" s="41"/>
+      <c r="J349" s="15"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>330</v>
       </c>
-      <c r="B350" s="21"/>
-      <c r="C350" s="15"/>
+      <c r="B350" s="48"/>
+      <c r="C350" s="31"/>
       <c r="D350" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E350" s="15"/>
-      <c r="F350" s="15"/>
-      <c r="G350" s="18"/>
+      <c r="E350" s="31"/>
+      <c r="F350" s="31"/>
+      <c r="G350" s="34"/>
       <c r="H350" s="5" t="s">
         <v>511</v>
       </c>
       <c r="I350" s="5"/>
-      <c r="J350" s="41"/>
+      <c r="J350" s="15"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>331</v>
       </c>
-      <c r="B351" s="21"/>
-      <c r="C351" s="15"/>
+      <c r="B351" s="48"/>
+      <c r="C351" s="31"/>
       <c r="D351" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E351" s="15"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="18"/>
+      <c r="E351" s="31"/>
+      <c r="F351" s="31"/>
+      <c r="G351" s="34"/>
       <c r="H351" s="5" t="s">
         <v>510</v>
       </c>
       <c r="I351" s="5"/>
-      <c r="J351" s="41"/>
+      <c r="J351" s="15"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>332</v>
       </c>
-      <c r="B352" s="22"/>
-      <c r="C352" s="16"/>
+      <c r="B352" s="49"/>
+      <c r="C352" s="32"/>
       <c r="D352" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="E352" s="16"/>
-      <c r="F352" s="16"/>
-      <c r="G352" s="19"/>
+      <c r="E352" s="32"/>
+      <c r="F352" s="32"/>
+      <c r="G352" s="35"/>
       <c r="H352" s="5" t="s">
         <v>515</v>
       </c>
       <c r="I352" s="5"/>
-      <c r="J352" s="41"/>
+      <c r="J352" s="15"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="11" t="s">
+      <c r="A353" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="B353" s="11"/>
-      <c r="C353" s="11"/>
-      <c r="D353" s="11"/>
-      <c r="E353" s="11"/>
-      <c r="F353" s="11"/>
-      <c r="G353" s="11"/>
-      <c r="H353" s="11"/>
-      <c r="I353" s="11"/>
-      <c r="J353" s="11"/>
+      <c r="B353" s="27"/>
+      <c r="C353" s="27"/>
+      <c r="D353" s="27"/>
+      <c r="E353" s="27"/>
+      <c r="F353" s="27"/>
+      <c r="G353" s="27"/>
+      <c r="H353" s="27"/>
+      <c r="I353" s="27"/>
+      <c r="J353" s="27"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
@@ -10645,7 +10822,7 @@
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
       <c r="I354" s="5"/>
-      <c r="J354" s="41"/>
+      <c r="J354" s="15"/>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="5"/>
@@ -10657,21 +10834,21 @@
       <c r="G355" s="5"/>
       <c r="H355" s="5"/>
       <c r="I355" s="5"/>
-      <c r="J355" s="41"/>
+      <c r="J355" s="15"/>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
-      <c r="B356" s="23" t="s">
+      <c r="B356" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="C356" s="25"/>
-      <c r="D356" s="24"/>
+      <c r="C356" s="52"/>
+      <c r="D356" s="51"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
       <c r="I356" s="5"/>
-      <c r="J356" s="41"/>
+      <c r="J356" s="15"/>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="5"/>
@@ -10684,14 +10861,14 @@
       <c r="D357" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="E357" s="23" t="s">
+      <c r="E357" s="50" t="s">
         <v>485</v>
       </c>
-      <c r="F357" s="24"/>
+      <c r="F357" s="51"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
-      <c r="J357" s="41"/>
+      <c r="J357" s="15"/>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" s="5"/>
@@ -10709,7 +10886,7 @@
       <c r="G358" s="5"/>
       <c r="H358" s="5"/>
       <c r="I358" s="5"/>
-      <c r="J358" s="41"/>
+      <c r="J358" s="15"/>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="5"/>
@@ -10727,7 +10904,7 @@
       <c r="G359" s="5"/>
       <c r="H359" s="5"/>
       <c r="I359" s="5"/>
-      <c r="J359" s="41"/>
+      <c r="J359" s="15"/>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="5"/>
@@ -10745,7 +10922,7 @@
       <c r="G360" s="5"/>
       <c r="H360" s="5"/>
       <c r="I360" s="5"/>
-      <c r="J360" s="41"/>
+      <c r="J360" s="15"/>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="5"/>
@@ -10763,7 +10940,7 @@
       <c r="G361" s="5"/>
       <c r="H361" s="5"/>
       <c r="I361" s="5"/>
-      <c r="J361" s="41"/>
+      <c r="J361" s="15"/>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="5"/>
@@ -10781,7 +10958,7 @@
       <c r="G362" s="5"/>
       <c r="H362" s="5"/>
       <c r="I362" s="5"/>
-      <c r="J362" s="41"/>
+      <c r="J362" s="15"/>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="5"/>
@@ -10799,7 +10976,7 @@
       <c r="G363" s="5"/>
       <c r="H363" s="5"/>
       <c r="I363" s="5"/>
-      <c r="J363" s="41"/>
+      <c r="J363" s="15"/>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="5"/>
@@ -10817,7 +10994,7 @@
       <c r="G364" s="5"/>
       <c r="H364" s="5"/>
       <c r="I364" s="5"/>
-      <c r="J364" s="41"/>
+      <c r="J364" s="15"/>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="5"/>
@@ -10833,7 +11010,7 @@
       <c r="G365" s="5"/>
       <c r="H365" s="5"/>
       <c r="I365" s="5"/>
-      <c r="J365" s="41"/>
+      <c r="J365" s="15"/>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="5"/>
@@ -10847,7 +11024,7 @@
       <c r="G366" s="5"/>
       <c r="H366" s="5"/>
       <c r="I366" s="5"/>
-      <c r="J366" s="41"/>
+      <c r="J366" s="15"/>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="5"/>
@@ -10861,7 +11038,7 @@
       <c r="G367" s="5"/>
       <c r="H367" s="5"/>
       <c r="I367" s="5"/>
-      <c r="J367" s="41"/>
+      <c r="J367" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="127">
@@ -11019,18 +11196,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11346,18 +11523,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11673,18 +11850,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -12000,18 +12177,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="53"/>
+      <c r="G1" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="55"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mygitimmd\Prototype\Test\kontrol kartı\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\immdrepo\Prototype\Test\kontrol kartı\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Voltage-M4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="577">
   <si>
     <t>Test Türü</t>
   </si>
@@ -1802,7 +1803,196 @@
     <t>Reset iptal edildi, 3.209 V</t>
   </si>
   <si>
-    <t>6.485 V</t>
+    <t>6.485 V. Zener takıldı =&gt; 5.277V</t>
+  </si>
+  <si>
+    <t>400mV ripple</t>
+  </si>
+  <si>
+    <t>1W yükte 4.897 V DC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">51 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C max</t>
+    </r>
+  </si>
+  <si>
+    <t>Zener takıldı =&gt; 5.278V</t>
+  </si>
+  <si>
+    <t>236mV ripple</t>
+  </si>
+  <si>
+    <t>1W yükte 4.883 V DC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">54 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C max</t>
+    </r>
+  </si>
+  <si>
+    <t>Zener takıldı =&gt; 5.256V</t>
+  </si>
+  <si>
+    <t>355mV ripple</t>
+  </si>
+  <si>
+    <t>1W yükte 4.870 V DC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">53 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C max</t>
+    </r>
+  </si>
+  <si>
+    <t>Zener takıldı =&gt; 5.261V</t>
+  </si>
+  <si>
+    <t>300mV ripple</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">55 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C max</t>
+    </r>
+  </si>
+  <si>
+    <t>3.287 V DC</t>
+  </si>
+  <si>
+    <t>26mV ripple (no load)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C max</t>
+    </r>
+  </si>
+  <si>
+    <t>1W yükte 3.274 V DC</t>
+  </si>
+  <si>
+    <t>3.253 V DC</t>
+  </si>
+  <si>
+    <t>3.249 V DC</t>
+  </si>
+  <si>
+    <t>3.251 V DC</t>
+  </si>
+  <si>
+    <t>3.284 V DC</t>
+  </si>
+  <si>
+    <t>3.282 V DC</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2035,9 +2225,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2061,6 +2248,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,6 +2289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2110,15 +2318,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2149,9 +2348,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2435,54 +2631,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H157" sqref="H157"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H349" sqref="H349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="6" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2490,13 +2686,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -2520,9 +2716,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="10" t="s">
         <v>519</v>
       </c>
@@ -2544,9 +2740,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="10" t="s">
         <v>520</v>
       </c>
@@ -2568,9 +2764,9 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="10" t="s">
         <v>405</v>
       </c>
@@ -2592,9 +2788,9 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="10" t="s">
         <v>406</v>
       </c>
@@ -2616,9 +2812,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="10" t="s">
         <v>407</v>
       </c>
@@ -2640,9 +2836,9 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="44"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2664,9 +2860,9 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="44"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="10" t="s">
         <v>408</v>
       </c>
@@ -2688,9 +2884,9 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="44"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="10" t="s">
         <v>409</v>
       </c>
@@ -2712,9 +2908,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="44"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="10" t="s">
         <v>410</v>
       </c>
@@ -2736,9 +2932,9 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="10" t="s">
         <v>411</v>
       </c>
@@ -2760,9 +2956,9 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="44"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="10" t="s">
         <v>422</v>
       </c>
@@ -2784,9 +2980,9 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="10" t="s">
         <v>412</v>
       </c>
@@ -2808,9 +3004,9 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="10" t="s">
         <v>413</v>
       </c>
@@ -2832,9 +3028,9 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="10" t="s">
         <v>423</v>
       </c>
@@ -2856,9 +3052,9 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="44"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="10" t="s">
         <v>414</v>
       </c>
@@ -2880,9 +3076,9 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="44"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="10" t="s">
         <v>415</v>
       </c>
@@ -2904,9 +3100,9 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="10" t="s">
         <v>416</v>
       </c>
@@ -2928,9 +3124,9 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="10" t="s">
         <v>417</v>
       </c>
@@ -2952,9 +3148,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="10" t="s">
         <v>418</v>
       </c>
@@ -2976,9 +3172,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="10" t="s">
         <v>419</v>
       </c>
@@ -3000,9 +3196,9 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="10" t="s">
         <v>420</v>
       </c>
@@ -3024,9 +3220,9 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="10" t="s">
         <v>424</v>
       </c>
@@ -3048,9 +3244,9 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="10" t="s">
         <v>425</v>
       </c>
@@ -3072,9 +3268,9 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="44"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="10" t="s">
         <v>426</v>
       </c>
@@ -3096,9 +3292,9 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="10" t="s">
         <v>427</v>
       </c>
@@ -3120,9 +3316,9 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="44"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="10" t="s">
         <v>428</v>
       </c>
@@ -3144,9 +3340,9 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="10" t="s">
         <v>429</v>
       </c>
@@ -3168,9 +3364,9 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="10" t="s">
         <v>430</v>
       </c>
@@ -3192,9 +3388,9 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="10" t="s">
         <v>431</v>
       </c>
@@ -3216,9 +3412,9 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10" t="s">
         <v>432</v>
       </c>
@@ -3240,11 +3436,11 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="37" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="42" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="10" t="s">
@@ -3268,9 +3464,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="36"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="10" t="s">
         <v>22</v>
       </c>
@@ -3294,9 +3490,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="40"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="10" t="s">
         <v>23</v>
       </c>
@@ -3320,8 +3516,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="11" t="s">
         <v>63</v>
       </c>
@@ -3340,7 +3536,7 @@
       <c r="I36" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="J36" s="18" t="s">
         <v>539</v>
       </c>
     </row>
@@ -3348,7 +3544,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="12" t="s">
         <v>118</v>
       </c>
@@ -3367,7 +3563,9 @@
       <c r="H37" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="J37" s="16" t="s">
         <v>523</v>
       </c>
@@ -3376,7 +3574,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="11" t="s">
         <v>12</v>
       </c>
@@ -3398,7 +3596,7 @@
       <c r="I38" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J38" s="19" t="s">
+      <c r="J38" s="18" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3406,7 +3604,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="11" t="s">
         <v>57</v>
       </c>
@@ -3428,33 +3626,33 @@
       <c r="I39" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="J39" s="19"/>
+      <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="42" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -3478,9 +3676,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -3502,9 +3700,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -3526,9 +3724,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -3550,9 +3748,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -3574,9 +3772,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -3598,9 +3796,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -3622,9 +3820,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="36"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -3646,11 +3844,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="38" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="42" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -3674,9 +3872,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -3698,9 +3896,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="36"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -3722,9 +3920,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -3746,13 +3944,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="42" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -3776,9 +3974,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="36"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -3800,9 +3998,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -3824,9 +4022,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="36"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -3848,9 +4046,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="36"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -3872,9 +4070,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -3896,9 +4094,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="36"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -3920,9 +4118,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -3944,11 +4142,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="36"/>
-      <c r="C61" s="38" t="s">
+      <c r="B61" s="42"/>
+      <c r="C61" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="38" t="s">
+      <c r="D61" s="44" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -3972,9 +4170,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -3996,9 +4194,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -4020,9 +4218,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="36"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -4041,30 +4239,30 @@
       <c r="J64" s="14"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -4088,9 +4286,9 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="38"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="40"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
       </c>
@@ -4112,9 +4310,9 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="38"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="40"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
@@ -4136,9 +4334,9 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="38"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="40"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
       </c>
@@ -4160,9 +4358,9 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="40"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
       </c>
@@ -4184,9 +4382,9 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="38"/>
-      <c r="C71" s="46"/>
-      <c r="D71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="40"/>
       <c r="E71" s="10" t="s">
         <v>433</v>
       </c>
@@ -4208,9 +4406,9 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="45"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="41"/>
       <c r="E72" s="10" t="s">
         <v>434</v>
       </c>
@@ -4232,8 +4430,8 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="41" t="s">
+      <c r="B73" s="44"/>
+      <c r="C73" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -4262,8 +4460,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="42"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="48"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
@@ -4290,7 +4488,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="38"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="12" t="s">
         <v>118</v>
       </c>
@@ -4309,7 +4507,9 @@
       <c r="H75" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I75" s="12"/>
+      <c r="I75" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="J75" s="16" t="s">
         <v>523</v>
       </c>
@@ -4318,7 +4518,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="38"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -4348,7 +4548,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -4375,30 +4575,30 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="39"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="39"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="38" t="s">
+      <c r="B79" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -4422,9 +4622,9 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="40"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
       </c>
@@ -4446,9 +4646,9 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="40"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
       </c>
@@ -4470,9 +4670,9 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="40"/>
       <c r="E82" s="10" t="s">
         <v>435</v>
       </c>
@@ -4494,9 +4694,9 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="40"/>
       <c r="E83" s="10" t="s">
         <v>436</v>
       </c>
@@ -4518,9 +4718,9 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="45"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="41"/>
       <c r="E84" s="10" t="s">
         <v>437</v>
       </c>
@@ -4542,8 +4742,8 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="41" t="s">
+      <c r="B85" s="44"/>
+      <c r="C85" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -4572,8 +4772,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="42"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="48"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
@@ -4600,7 +4800,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="38"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="12" t="s">
         <v>118</v>
       </c>
@@ -4619,7 +4819,9 @@
       <c r="H87" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I87" s="12"/>
+      <c r="I87" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="J87" s="16" t="s">
         <v>523</v>
       </c>
@@ -4628,7 +4830,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="38"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -4650,7 +4852,7 @@
       <c r="I88" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J88" s="19" t="s">
+      <c r="J88" s="18" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4658,7 +4860,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="38"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -4680,35 +4882,35 @@
       <c r="I89" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="18" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
+      <c r="B90" s="45"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -4732,9 +4934,9 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="46"/>
-      <c r="D92" s="44"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="40"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
       </c>
@@ -4756,9 +4958,9 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="44"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="40"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
@@ -4780,9 +4982,9 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="10" t="s">
         <v>438</v>
       </c>
@@ -4804,9 +5006,9 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="46"/>
-      <c r="D95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="10" t="s">
         <v>439</v>
       </c>
@@ -4828,9 +5030,9 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="45"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="41"/>
       <c r="E96" s="10" t="s">
         <v>440</v>
       </c>
@@ -4852,8 +5054,8 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="41" t="s">
+      <c r="B97" s="44"/>
+      <c r="C97" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -4882,8 +5084,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="42"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="48"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
       </c>
@@ -4910,7 +5112,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="38"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="12" t="s">
         <v>118</v>
       </c>
@@ -4929,7 +5131,9 @@
       <c r="H99" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I99" s="12"/>
+      <c r="I99" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="J99" s="16" t="s">
         <v>523</v>
       </c>
@@ -4938,7 +5142,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="38"/>
+      <c r="B100" s="44"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -4968,7 +5172,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="38"/>
+      <c r="B101" s="44"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -4995,30 +5199,30 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="39" t="s">
+      <c r="A102" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="J102" s="39"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="B103" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="43" t="s">
+      <c r="D103" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -5042,9 +5246,9 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="38"/>
-      <c r="C104" s="46"/>
-      <c r="D104" s="44"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="40"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
       </c>
@@ -5066,9 +5270,9 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="38"/>
-      <c r="C105" s="46"/>
-      <c r="D105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="40"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
       </c>
@@ -5090,9 +5294,9 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="38"/>
-      <c r="C106" s="46"/>
-      <c r="D106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="40"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
       </c>
@@ -5114,9 +5318,9 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="46"/>
-      <c r="D107" s="44"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="40"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
       </c>
@@ -5138,9 +5342,9 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="38"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="40"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
@@ -5162,9 +5366,9 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="38"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="40"/>
       <c r="E109" s="10" t="s">
         <v>441</v>
       </c>
@@ -5186,9 +5390,9 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="38"/>
-      <c r="C110" s="42"/>
-      <c r="D110" s="45"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="41"/>
       <c r="E110" s="10" t="s">
         <v>442</v>
       </c>
@@ -5210,8 +5414,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38" t="s">
+      <c r="B111" s="44"/>
+      <c r="C111" s="44" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -5240,8 +5444,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -5268,8 +5472,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -5294,7 +5498,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="38"/>
+      <c r="B114" s="44"/>
       <c r="C114" s="12" t="s">
         <v>118</v>
       </c>
@@ -5313,36 +5517,38 @@
       <c r="H114" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I114" s="12"/>
+      <c r="I114" s="12" t="s">
+        <v>540</v>
+      </c>
       <c r="J114" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="39"/>
-      <c r="F115" s="39"/>
-      <c r="G115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="J115" s="39"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B116" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E116" s="13" t="s">
@@ -5366,9 +5572,9 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="38"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="44"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="40"/>
       <c r="E117" s="13" t="s">
         <v>128</v>
       </c>
@@ -5390,9 +5596,9 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="38"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="44"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="40"/>
       <c r="E118" s="13" t="s">
         <v>443</v>
       </c>
@@ -5414,9 +5620,9 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="38"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="44"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="40"/>
       <c r="E119" s="13" t="s">
         <v>129</v>
       </c>
@@ -5440,9 +5646,9 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="38"/>
-      <c r="C120" s="46"/>
-      <c r="D120" s="44"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="40"/>
       <c r="E120" s="13" t="s">
         <v>444</v>
       </c>
@@ -5464,9 +5670,9 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="38"/>
-      <c r="C121" s="42"/>
-      <c r="D121" s="45"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="41"/>
       <c r="E121" s="13" t="s">
         <v>445</v>
       </c>
@@ -5488,8 +5694,8 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="38"/>
-      <c r="C122" s="41" t="s">
+      <c r="B122" s="44"/>
+      <c r="C122" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="13" t="s">
@@ -5518,8 +5724,8 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="38"/>
-      <c r="C123" s="46"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="13" t="s">
         <v>63</v>
       </c>
@@ -5546,8 +5752,8 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="38"/>
-      <c r="C124" s="42"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="13" t="s">
         <v>65</v>
       </c>
@@ -5574,7 +5780,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="38"/>
+      <c r="B125" s="44"/>
       <c r="C125" s="13" t="s">
         <v>57</v>
       </c>
@@ -5601,45 +5807,45 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="J126" s="39"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="45"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>119</v>
       </c>
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="30" t="s">
+      <c r="C127" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="33" t="s">
+      <c r="D127" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F127" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H127" s="25" t="s">
+      <c r="F127" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I127" s="25" t="s">
+      <c r="I127" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J127" s="14"/>
@@ -5648,22 +5854,22 @@
       <c r="A128" s="8">
         <v>120</v>
       </c>
-      <c r="B128" s="34"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="25" t="s">
+      <c r="B128" s="40"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F128" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H128" s="25" t="s">
+      <c r="F128" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I128" s="25" t="s">
+      <c r="I128" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J128" s="14"/>
@@ -5672,22 +5878,22 @@
       <c r="A129" s="8">
         <v>121</v>
       </c>
-      <c r="B129" s="34"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="25" t="s">
+      <c r="B129" s="40"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F129" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H129" s="25" t="s">
+      <c r="F129" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I129" s="25" t="s">
+      <c r="I129" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J129" s="14"/>
@@ -5696,22 +5902,22 @@
       <c r="A130" s="8">
         <v>122</v>
       </c>
-      <c r="B130" s="34"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="34"/>
-      <c r="E130" s="25" t="s">
+      <c r="B130" s="40"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="F130" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H130" s="25" t="s">
+      <c r="F130" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I130" s="25" t="s">
+      <c r="I130" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J130" s="14"/>
@@ -5720,22 +5926,22 @@
       <c r="A131" s="8">
         <v>123</v>
       </c>
-      <c r="B131" s="34"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="34"/>
-      <c r="E131" s="25" t="s">
+      <c r="B131" s="40"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F131" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H131" s="25" t="s">
+      <c r="F131" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I131" s="25" t="s">
+      <c r="I131" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J131" s="14"/>
@@ -5744,22 +5950,22 @@
       <c r="A132" s="8">
         <v>124</v>
       </c>
-      <c r="B132" s="34"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="25" t="s">
+      <c r="B132" s="40"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="41"/>
+      <c r="E132" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="F132" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H132" s="25" t="s">
+      <c r="F132" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G132" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="I132" s="25" t="s">
+      <c r="I132" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J132" s="14"/>
@@ -5768,26 +5974,26 @@
       <c r="A133" s="8">
         <v>125</v>
       </c>
-      <c r="B133" s="34"/>
-      <c r="C133" s="30" t="s">
+      <c r="B133" s="40"/>
+      <c r="C133" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="30" t="s">
+      <c r="D133" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E133" s="25" t="s">
+      <c r="E133" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F133" s="25" t="s">
+      <c r="F133" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G133" s="25" t="s">
+      <c r="G133" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="H133" s="25" t="s">
+      <c r="H133" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="I133" s="25" t="s">
+      <c r="I133" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J133" s="14" t="s">
@@ -5798,22 +6004,22 @@
       <c r="A134" s="8">
         <v>126</v>
       </c>
-      <c r="B134" s="34"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="25" t="s">
+      <c r="B134" s="40"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="F134" s="25" t="s">
+      <c r="F134" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G134" s="25" t="s">
+      <c r="G134" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="H134" s="25" t="s">
+      <c r="H134" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="I134" s="25" t="s">
+      <c r="I134" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J134" s="14" t="s">
@@ -5824,22 +6030,22 @@
       <c r="A135" s="8">
         <v>127</v>
       </c>
-      <c r="B135" s="34"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="25" t="s">
+      <c r="B135" s="40"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="49"/>
+      <c r="E135" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F135" s="25" t="s">
+      <c r="F135" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="G135" s="25" t="s">
+      <c r="G135" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="H135" s="25" t="s">
+      <c r="H135" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="I135" s="25" t="s">
+      <c r="I135" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J135" s="14" t="s">
@@ -5850,22 +6056,22 @@
       <c r="A136" s="8">
         <v>128</v>
       </c>
-      <c r="B136" s="34"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="25" t="s">
+      <c r="B136" s="40"/>
+      <c r="C136" s="49"/>
+      <c r="D136" s="49"/>
+      <c r="E136" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="F136" s="25" t="s">
+      <c r="F136" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="G136" s="25" t="s">
+      <c r="G136" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="H136" s="25" t="s">
+      <c r="H136" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="I136" s="25" t="s">
+      <c r="I136" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J136" s="14" t="s">
@@ -5876,22 +6082,22 @@
       <c r="A137" s="8">
         <v>129</v>
       </c>
-      <c r="B137" s="34"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="25" t="s">
+      <c r="B137" s="40"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="49"/>
+      <c r="E137" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="F137" s="25" t="s">
+      <c r="F137" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G137" s="25" t="s">
+      <c r="G137" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H137" s="25" t="s">
+      <c r="H137" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I137" s="25" t="s">
+      <c r="I137" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J137" s="14" t="s">
@@ -5902,22 +6108,22 @@
       <c r="A138" s="8">
         <v>130</v>
       </c>
-      <c r="B138" s="34"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="25" t="s">
+      <c r="B138" s="40"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="49"/>
+      <c r="E138" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="F138" s="25" t="s">
+      <c r="F138" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G138" s="25" t="s">
+      <c r="G138" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H138" s="25" t="s">
+      <c r="H138" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="I138" s="25" t="s">
+      <c r="I138" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J138" s="14" t="s">
@@ -5928,22 +6134,22 @@
       <c r="A139" s="8">
         <v>131</v>
       </c>
-      <c r="B139" s="34"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="25" t="s">
+      <c r="B139" s="40"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F139" s="25" t="s">
+      <c r="F139" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G139" s="25" t="s">
+      <c r="G139" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H139" s="25" t="s">
+      <c r="H139" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="I139" s="25" t="s">
+      <c r="I139" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J139" s="14" t="s">
@@ -5954,22 +6160,22 @@
       <c r="A140" s="8">
         <v>132</v>
       </c>
-      <c r="B140" s="34"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="25" t="s">
+      <c r="B140" s="40"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="F140" s="25" t="s">
+      <c r="F140" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G140" s="25" t="s">
+      <c r="G140" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H140" s="25" t="s">
+      <c r="H140" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="I140" s="25" t="s">
+      <c r="I140" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J140" s="14" t="s">
@@ -5980,22 +6186,22 @@
       <c r="A141" s="8">
         <v>133</v>
       </c>
-      <c r="B141" s="34"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="25" t="s">
+      <c r="B141" s="40"/>
+      <c r="C141" s="49"/>
+      <c r="D141" s="49"/>
+      <c r="E141" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="F141" s="25" t="s">
+      <c r="F141" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G141" s="25" t="s">
+      <c r="G141" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H141" s="25" t="s">
+      <c r="H141" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="I141" s="25" t="s">
+      <c r="I141" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J141" s="14" t="s">
@@ -6006,22 +6212,22 @@
       <c r="A142" s="8">
         <v>134</v>
       </c>
-      <c r="B142" s="34"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="25" t="s">
+      <c r="B142" s="40"/>
+      <c r="C142" s="49"/>
+      <c r="D142" s="49"/>
+      <c r="E142" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="F142" s="25" t="s">
+      <c r="F142" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="G142" s="25" t="s">
+      <c r="G142" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="H142" s="25" t="s">
+      <c r="H142" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I142" s="25" t="s">
+      <c r="I142" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J142" s="14" t="s">
@@ -6032,25 +6238,25 @@
       <c r="A143" s="8">
         <v>135</v>
       </c>
-      <c r="B143" s="34"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="24" t="s">
+      <c r="B143" s="40"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F143" s="24" t="s">
+      <c r="F143" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G143" s="24" t="s">
+      <c r="G143" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="H143" s="24" t="s">
+      <c r="H143" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="I143" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="J143" s="56" t="s">
+      <c r="I143" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="J143" s="28" t="s">
         <v>552</v>
       </c>
     </row>
@@ -6058,25 +6264,25 @@
       <c r="A144" s="8">
         <v>136</v>
       </c>
-      <c r="B144" s="34"/>
-      <c r="C144" s="31"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="24" t="s">
+      <c r="B144" s="40"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F144" s="24" t="s">
+      <c r="F144" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G144" s="24" t="s">
+      <c r="G144" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H144" s="24" t="s">
+      <c r="H144" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I144" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="J144" s="56" t="s">
+      <c r="I144" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="J144" s="28" t="s">
         <v>552</v>
       </c>
     </row>
@@ -6084,22 +6290,22 @@
       <c r="A145" s="8">
         <v>137</v>
       </c>
-      <c r="B145" s="34"/>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="25" t="s">
+      <c r="B145" s="40"/>
+      <c r="C145" s="49"/>
+      <c r="D145" s="49"/>
+      <c r="E145" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="F145" s="25" t="s">
+      <c r="F145" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G145" s="25" t="s">
+      <c r="G145" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="H145" s="25" t="s">
+      <c r="H145" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="I145" s="25" t="s">
+      <c r="I145" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J145" s="14" t="s">
@@ -6110,22 +6316,22 @@
       <c r="A146" s="8">
         <v>138</v>
       </c>
-      <c r="B146" s="34"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="25" t="s">
+      <c r="B146" s="40"/>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="F146" s="25" t="s">
+      <c r="F146" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G146" s="25" t="s">
+      <c r="G146" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="H146" s="25" t="s">
+      <c r="H146" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I146" s="25" t="s">
+      <c r="I146" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J146" s="14" t="s">
@@ -6136,22 +6342,22 @@
       <c r="A147" s="8">
         <v>139</v>
       </c>
-      <c r="B147" s="34"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="25" t="s">
+      <c r="B147" s="40"/>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F147" s="25" t="s">
+      <c r="F147" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G147" s="25" t="s">
+      <c r="G147" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H147" s="25" t="s">
+      <c r="H147" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="I147" s="25" t="s">
+      <c r="I147" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J147" s="14" t="s">
@@ -6162,22 +6368,22 @@
       <c r="A148" s="8">
         <v>140</v>
       </c>
-      <c r="B148" s="35"/>
-      <c r="C148" s="32"/>
-      <c r="D148" s="32"/>
-      <c r="E148" s="25" t="s">
+      <c r="B148" s="41"/>
+      <c r="C148" s="48"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F148" s="25" t="s">
+      <c r="F148" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G148" s="25" t="s">
+      <c r="G148" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="H148" s="25" t="s">
+      <c r="H148" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="I148" s="25" t="s">
+      <c r="I148" s="24" t="s">
         <v>518</v>
       </c>
       <c r="J148" s="14" t="s">
@@ -6188,29 +6394,29 @@
       <c r="A149" s="8">
         <v>141</v>
       </c>
-      <c r="B149" s="30" t="s">
+      <c r="B149" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C149" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D149" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E149" s="26" t="s">
+      <c r="E149" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="F149" s="26" t="s">
+      <c r="F149" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G149" s="26" t="s">
+      <c r="G149" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H149" s="26" t="s">
+      <c r="H149" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="I149" s="26"/>
-      <c r="J149" s="19" t="s">
+      <c r="I149" s="25"/>
+      <c r="J149" s="18" t="s">
         <v>551</v>
       </c>
     </row>
@@ -6218,269 +6424,269 @@
       <c r="A150" s="8">
         <v>142</v>
       </c>
-      <c r="B150" s="32"/>
-      <c r="C150" s="4" t="s">
+      <c r="B150" s="26"/>
+      <c r="C150" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E150" s="26" t="s">
+      <c r="E150" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="F150" s="26" t="s">
+      <c r="F150" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G150" s="26" t="s">
+      <c r="G150" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="I150" s="26"/>
-      <c r="J150" s="19" t="s">
+      <c r="I150" s="25"/>
+      <c r="J150" s="18" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="39" t="s">
+      <c r="A151" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="D151" s="39"/>
-      <c r="E151" s="39"/>
-      <c r="F151" s="39"/>
-      <c r="G151" s="39"/>
-      <c r="H151" s="39"/>
-      <c r="I151" s="39"/>
-      <c r="J151" s="39"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+      <c r="J151" s="45"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="F152" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H152" s="4" t="s">
+      <c r="F152" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I152" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J152" s="15"/>
+      <c r="I152" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J152" s="14"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="29"/>
-      <c r="C153" s="31"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="4" t="s">
+      <c r="B153" s="49"/>
+      <c r="C153" s="49"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H153" s="4" t="s">
+      <c r="F153" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I153" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J153" s="15"/>
+      <c r="I153" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J153" s="14"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="31"/>
-      <c r="D154" s="34"/>
-      <c r="E154" s="4" t="s">
+      <c r="B154" s="49"/>
+      <c r="C154" s="49"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="F154" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H154" s="4" t="s">
+      <c r="F154" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I154" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J154" s="15"/>
+      <c r="I154" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J154" s="14"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="29"/>
-      <c r="C155" s="31"/>
-      <c r="D155" s="34"/>
-      <c r="E155" s="4" t="s">
+      <c r="B155" s="49"/>
+      <c r="C155" s="49"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="F155" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H155" s="4" t="s">
+      <c r="F155" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I155" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J155" s="15"/>
+      <c r="I155" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J155" s="14"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="29"/>
-      <c r="C156" s="31"/>
-      <c r="D156" s="34"/>
-      <c r="E156" s="5" t="s">
+      <c r="B156" s="49"/>
+      <c r="C156" s="49"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H156" s="5" t="s">
+      <c r="F156" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="I156" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J156" s="15"/>
+      <c r="I156" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J156" s="14"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="29"/>
-      <c r="C157" s="31"/>
-      <c r="D157" s="34"/>
-      <c r="E157" s="5" t="s">
+      <c r="B157" s="49"/>
+      <c r="C157" s="49"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="F157" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H157" s="5" t="s">
+      <c r="F157" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="I157" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J157" s="15"/>
+      <c r="I157" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J157" s="14"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="29"/>
-      <c r="C158" s="31"/>
-      <c r="D158" s="34"/>
-      <c r="E158" s="5" t="s">
+      <c r="B158" s="49"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H158" s="5" t="s">
+      <c r="F158" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="I158" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J158" s="15"/>
+      <c r="I158" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J158" s="14"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="32"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="5" t="s">
+      <c r="B159" s="49"/>
+      <c r="C159" s="48"/>
+      <c r="D159" s="41"/>
+      <c r="E159" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H159" s="5" t="s">
+      <c r="F159" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="I159" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="J159" s="15"/>
+      <c r="I159" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J159" s="14"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="30" t="s">
+      <c r="B160" s="49"/>
+      <c r="C160" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D160" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E160" s="26" t="s">
+      <c r="E160" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F160" s="26" t="s">
+      <c r="F160" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="G160" s="26" t="s">
+      <c r="G160" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H160" s="26" t="s">
+      <c r="H160" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="I160" s="26" t="s">
-        <v>540</v>
-      </c>
-      <c r="J160" s="19" t="s">
+      <c r="I160" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J160" s="14" t="s">
         <v>553</v>
       </c>
     </row>
@@ -6488,2303 +6694,2545 @@
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="29"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="4" t="s">
+      <c r="B161" s="49"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E161" s="26" t="s">
+      <c r="E161" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F161" s="26" t="s">
+      <c r="F161" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="G161" s="26" t="s">
+      <c r="G161" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="H161" s="26" t="s">
+      <c r="H161" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I161" s="26"/>
-      <c r="J161" s="19"/>
+      <c r="I161" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J161" s="14" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="29"/>
-      <c r="C162" s="4" t="s">
+      <c r="B162" s="49"/>
+      <c r="C162" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="D162" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E162" s="26" t="s">
+      <c r="E162" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F162" s="26" t="s">
+      <c r="F162" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="G162" s="26" t="s">
+      <c r="G162" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H162" s="26" t="s">
+      <c r="H162" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I162" s="26"/>
-      <c r="J162" s="19"/>
+      <c r="I162" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="J162" s="16" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="29"/>
-      <c r="C163" s="4" t="s">
+      <c r="B163" s="49"/>
+      <c r="C163" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="D163" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E163" s="26" t="s">
+      <c r="E163" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="F163" s="26" t="s">
+      <c r="F163" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="G163" s="26" t="s">
+      <c r="G163" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="H163" s="26" t="s">
+      <c r="H163" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="I163" s="26"/>
-      <c r="J163" s="19"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I163" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J163" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="29"/>
-      <c r="C164" s="4" t="s">
+      <c r="B164" s="48"/>
+      <c r="C164" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="D164" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E164" s="26" t="s">
+      <c r="E164" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="F164" s="26" t="s">
+      <c r="F164" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="G164" s="26" t="s">
+      <c r="G164" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="H164" s="26" t="s">
+      <c r="H164" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="I164" s="26"/>
-      <c r="J164" s="19"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="27" t="s">
+      <c r="I164" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J164" s="14" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="27"/>
-      <c r="C165" s="27"/>
-      <c r="D165" s="27"/>
-      <c r="E165" s="27"/>
-      <c r="F165" s="27"/>
-      <c r="G165" s="27"/>
-      <c r="H165" s="27"/>
-      <c r="I165" s="27"/>
-      <c r="J165" s="27"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="45"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
+      <c r="G165" s="45"/>
+      <c r="H165" s="45"/>
+      <c r="I165" s="45"/>
+      <c r="J165" s="45"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="29" t="s">
+      <c r="B166" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="30" t="s">
+      <c r="C166" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="E166" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H166" s="5" t="s">
+      <c r="F166" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I166" s="5"/>
-      <c r="J166" s="15"/>
+      <c r="I166" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J166" s="14"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="29"/>
-      <c r="C167" s="31"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="5" t="s">
+      <c r="B167" s="44"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H167" s="5" t="s">
+      <c r="F167" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I167" s="5"/>
-      <c r="J167" s="15"/>
+      <c r="I167" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J167" s="14"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="29"/>
-      <c r="C168" s="31"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="5" t="s">
+      <c r="B168" s="44"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="F168" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H168" s="5" t="s">
+      <c r="F168" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I168" s="5"/>
-      <c r="J168" s="15"/>
+      <c r="I168" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J168" s="14"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="29"/>
-      <c r="C169" s="31"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="5" t="s">
+      <c r="B169" s="44"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="F169" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H169" s="5" t="s">
+      <c r="F169" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I169" s="5"/>
-      <c r="J169" s="15"/>
+      <c r="I169" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J169" s="14"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="29"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="5" t="s">
+      <c r="B170" s="44"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F170" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H170" s="5" t="s">
+      <c r="F170" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G170" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I170" s="5"/>
-      <c r="J170" s="15"/>
+      <c r="I170" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J170" s="14"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="29"/>
-      <c r="C171" s="31"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="5" t="s">
+      <c r="B171" s="44"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F171" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H171" s="5" t="s">
+      <c r="F171" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G171" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I171" s="5"/>
-      <c r="J171" s="15"/>
+      <c r="I171" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J171" s="14"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="29"/>
-      <c r="C172" s="31"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="5" t="s">
+      <c r="B172" s="44"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H172" s="5" t="s">
+      <c r="F172" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I172" s="5"/>
-      <c r="J172" s="15"/>
+      <c r="I172" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J172" s="14"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="29"/>
-      <c r="C173" s="31"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="5" t="s">
+      <c r="B173" s="44"/>
+      <c r="C173" s="49"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H173" s="5" t="s">
+      <c r="F173" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I173" s="5"/>
-      <c r="J173" s="15"/>
+      <c r="I173" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J173" s="14"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="29"/>
-      <c r="C174" s="32"/>
-      <c r="D174" s="35"/>
-      <c r="E174" s="5" t="s">
+      <c r="B174" s="44"/>
+      <c r="C174" s="48"/>
+      <c r="D174" s="41"/>
+      <c r="E174" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H174" s="5" t="s">
+      <c r="F174" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I174" s="5"/>
-      <c r="J174" s="15"/>
+      <c r="I174" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J174" s="14"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29" t="s">
+      <c r="B175" s="44"/>
+      <c r="C175" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="E175" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="G175" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="H175" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I175" s="5"/>
-      <c r="J175" s="15"/>
+      <c r="I175" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J175" s="14" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="5" t="s">
+      <c r="B176" s="44"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="E176" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="G176" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="H176" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I176" s="5"/>
-      <c r="J176" s="15"/>
+      <c r="I176" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J176" s="14" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="29"/>
-      <c r="C177" s="5" t="s">
+      <c r="B177" s="44"/>
+      <c r="C177" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="E177" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="G177" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="H177" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I177" s="5"/>
-      <c r="J177" s="15"/>
+      <c r="I177" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J177" s="14"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="29"/>
-      <c r="C178" s="5" t="s">
+      <c r="B178" s="44"/>
+      <c r="C178" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E178" s="5" t="s">
+      <c r="E178" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G178" s="5" t="s">
+      <c r="G178" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H178" s="5" t="s">
+      <c r="H178" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I178" s="5"/>
-      <c r="J178" s="15"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I178" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J178" s="14" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="29"/>
-      <c r="C179" s="5" t="s">
+      <c r="B179" s="44"/>
+      <c r="C179" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E179" s="5" t="s">
+      <c r="E179" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="G179" s="5" t="s">
+      <c r="G179" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="H179" s="5" t="s">
+      <c r="H179" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="I179" s="5"/>
-      <c r="J179" s="15"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A180" s="27" t="s">
+      <c r="I179" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J179" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="27"/>
-      <c r="C180" s="27"/>
-      <c r="D180" s="27"/>
-      <c r="E180" s="27"/>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
+      <c r="B180" s="45"/>
+      <c r="C180" s="45"/>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
+      <c r="G180" s="45"/>
+      <c r="H180" s="45"/>
+      <c r="I180" s="45"/>
+      <c r="J180" s="45"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="29" t="s">
+      <c r="B181" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="30" t="s">
+      <c r="C181" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D181" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E181" s="5" t="s">
+      <c r="E181" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="F181" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H181" s="5" t="s">
+      <c r="F181" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H181" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I181" s="5"/>
-      <c r="J181" s="15"/>
+      <c r="I181" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J181" s="14"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="29"/>
-      <c r="C182" s="31"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="5" t="s">
+      <c r="B182" s="44"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="F182" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H182" s="5" t="s">
+      <c r="F182" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H182" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I182" s="5"/>
-      <c r="J182" s="15"/>
+      <c r="I182" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J182" s="14"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="5" t="s">
+      <c r="B183" s="44"/>
+      <c r="C183" s="49"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="F183" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H183" s="5" t="s">
+      <c r="F183" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I183" s="5"/>
-      <c r="J183" s="15"/>
+      <c r="I183" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J183" s="14"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="29"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="34"/>
-      <c r="E184" s="5" t="s">
+      <c r="B184" s="44"/>
+      <c r="C184" s="49"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="F184" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H184" s="5" t="s">
+      <c r="F184" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H184" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I184" s="5"/>
-      <c r="J184" s="15"/>
+      <c r="I184" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J184" s="14"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="29"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="34"/>
-      <c r="E185" s="5" t="s">
+      <c r="B185" s="44"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="F185" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H185" s="5" t="s">
+      <c r="F185" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H185" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I185" s="5"/>
-      <c r="J185" s="15"/>
+      <c r="I185" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J185" s="14"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="29"/>
-      <c r="C186" s="31"/>
-      <c r="D186" s="34"/>
-      <c r="E186" s="5" t="s">
+      <c r="B186" s="44"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F186" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H186" s="5" t="s">
+      <c r="F186" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G186" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I186" s="5"/>
-      <c r="J186" s="15"/>
+      <c r="I186" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J186" s="14"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="29"/>
-      <c r="C187" s="31"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="5" t="s">
+      <c r="B187" s="44"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="F187" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H187" s="5" t="s">
+      <c r="F187" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I187" s="5"/>
-      <c r="J187" s="15"/>
+      <c r="I187" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J187" s="14"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="29"/>
-      <c r="C188" s="31"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="5" t="s">
+      <c r="B188" s="44"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="F188" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H188" s="5" t="s">
+      <c r="F188" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G188" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I188" s="5"/>
-      <c r="J188" s="15"/>
+      <c r="I188" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J188" s="14"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="29"/>
-      <c r="C189" s="32"/>
-      <c r="D189" s="35"/>
-      <c r="E189" s="5" t="s">
+      <c r="B189" s="44"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="41"/>
+      <c r="E189" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="F189" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H189" s="5" t="s">
+      <c r="F189" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G189" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I189" s="5"/>
-      <c r="J189" s="15"/>
+      <c r="I189" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J189" s="14"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29" t="s">
+      <c r="B190" s="44"/>
+      <c r="C190" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E190" s="5" t="s">
+      <c r="E190" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F190" s="5" t="s">
+      <c r="F190" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G190" s="5" t="s">
+      <c r="G190" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="H190" s="5" t="s">
+      <c r="H190" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I190" s="5"/>
-      <c r="J190" s="15"/>
+      <c r="I190" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J190" s="14" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="5" t="s">
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E191" s="5" t="s">
+      <c r="E191" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F191" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="G191" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="H191" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I191" s="5"/>
-      <c r="J191" s="15"/>
+      <c r="I191" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J191" s="14" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="29"/>
-      <c r="C192" s="5" t="s">
+      <c r="B192" s="44"/>
+      <c r="C192" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E192" s="5" t="s">
+      <c r="E192" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="F192" s="5" t="s">
+      <c r="F192" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="G192" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="H192" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I192" s="5"/>
-      <c r="J192" s="15"/>
+      <c r="I192" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="J192" s="16" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="29"/>
-      <c r="C193" s="5" t="s">
+      <c r="B193" s="44"/>
+      <c r="C193" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="E193" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="F193" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="G193" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="H193" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I193" s="5"/>
-      <c r="J193" s="15"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I193" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J193" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="29"/>
-      <c r="C194" s="5" t="s">
+      <c r="B194" s="44"/>
+      <c r="C194" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="E194" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="F194" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="G194" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="H194" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="I194" s="5"/>
-      <c r="J194" s="15"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="27" t="s">
+      <c r="I194" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J194" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="27"/>
-      <c r="C195" s="27"/>
-      <c r="D195" s="27"/>
-      <c r="E195" s="27"/>
-      <c r="F195" s="27"/>
-      <c r="G195" s="27"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
+      <c r="B195" s="45"/>
+      <c r="C195" s="45"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="45"/>
+      <c r="H195" s="45"/>
+      <c r="I195" s="45"/>
+      <c r="J195" s="45"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="29" t="s">
+      <c r="B196" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="C196" s="30" t="s">
+      <c r="C196" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="33" t="s">
+      <c r="D196" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="E196" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="F196" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H196" s="5" t="s">
+      <c r="F196" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H196" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I196" s="5"/>
-      <c r="J196" s="15"/>
+      <c r="I196" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J196" s="14"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="29"/>
-      <c r="C197" s="31"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="5" t="s">
+      <c r="B197" s="44"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="F197" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H197" s="5" t="s">
+      <c r="F197" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G197" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H197" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I197" s="5"/>
-      <c r="J197" s="15"/>
+      <c r="I197" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J197" s="14"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="29"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="34"/>
-      <c r="E198" s="5" t="s">
+      <c r="B198" s="44"/>
+      <c r="C198" s="49"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="F198" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H198" s="5" t="s">
+      <c r="F198" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G198" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H198" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I198" s="5"/>
-      <c r="J198" s="15"/>
+      <c r="I198" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J198" s="14"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="29"/>
-      <c r="C199" s="31"/>
-      <c r="D199" s="34"/>
-      <c r="E199" s="5" t="s">
+      <c r="B199" s="44"/>
+      <c r="C199" s="49"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="F199" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H199" s="5" t="s">
+      <c r="F199" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H199" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I199" s="5"/>
-      <c r="J199" s="15"/>
+      <c r="I199" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J199" s="14"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="29"/>
-      <c r="C200" s="31"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="5" t="s">
+      <c r="B200" s="44"/>
+      <c r="C200" s="49"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="F200" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H200" s="5" t="s">
+      <c r="F200" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H200" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I200" s="5"/>
-      <c r="J200" s="15"/>
+      <c r="I200" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J200" s="14"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="29"/>
-      <c r="C201" s="31"/>
-      <c r="D201" s="34"/>
-      <c r="E201" s="5" t="s">
+      <c r="B201" s="44"/>
+      <c r="C201" s="49"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F201" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H201" s="5" t="s">
+      <c r="F201" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H201" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I201" s="5"/>
-      <c r="J201" s="15"/>
+      <c r="I201" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J201" s="14"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="29"/>
-      <c r="C202" s="31"/>
-      <c r="D202" s="34"/>
-      <c r="E202" s="5" t="s">
+      <c r="B202" s="44"/>
+      <c r="C202" s="49"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="F202" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H202" s="5" t="s">
+      <c r="F202" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H202" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I202" s="5"/>
-      <c r="J202" s="15"/>
+      <c r="I202" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J202" s="14"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="29"/>
-      <c r="C203" s="31"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="5" t="s">
+      <c r="B203" s="44"/>
+      <c r="C203" s="49"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H203" s="5" t="s">
+      <c r="F203" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H203" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I203" s="5"/>
-      <c r="J203" s="15"/>
+      <c r="I203" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J203" s="14"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="29"/>
-      <c r="C204" s="32"/>
-      <c r="D204" s="35"/>
-      <c r="E204" s="5" t="s">
+      <c r="B204" s="44"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="41"/>
+      <c r="E204" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="F204" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H204" s="5" t="s">
+      <c r="F204" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I204" s="5"/>
-      <c r="J204" s="15"/>
+      <c r="I204" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J204" s="14"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29" t="s">
+      <c r="B205" s="44"/>
+      <c r="C205" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="E205" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="G205" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="H205" s="5" t="s">
+      <c r="H205" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I205" s="5"/>
-      <c r="J205" s="15"/>
+      <c r="I205" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J205" s="14" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="5" t="s">
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E206" s="5" t="s">
+      <c r="E206" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="G206" s="5" t="s">
+      <c r="G206" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="H206" s="5" t="s">
+      <c r="H206" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I206" s="5"/>
-      <c r="J206" s="15"/>
+      <c r="I206" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J206" s="14" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="29"/>
-      <c r="C207" s="5" t="s">
+      <c r="B207" s="44"/>
+      <c r="C207" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="E207" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="G207" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H207" s="5" t="s">
+      <c r="H207" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I207" s="5"/>
-      <c r="J207" s="15"/>
+      <c r="I207" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="J207" s="16" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="29"/>
-      <c r="C208" s="5" t="s">
+      <c r="B208" s="44"/>
+      <c r="C208" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E208" s="5" t="s">
+      <c r="E208" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G208" s="5" t="s">
+      <c r="G208" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="H208" s="5" t="s">
+      <c r="H208" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I208" s="5"/>
-      <c r="J208" s="15"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I208" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J208" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="29"/>
-      <c r="C209" s="5" t="s">
+      <c r="B209" s="44"/>
+      <c r="C209" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="E209" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="G209" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="H209" s="5" t="s">
+      <c r="H209" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="I209" s="5"/>
-      <c r="J209" s="15"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="27" t="s">
+      <c r="I209" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J209" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="45" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="27"/>
-      <c r="C210" s="27"/>
-      <c r="D210" s="27"/>
-      <c r="E210" s="27"/>
-      <c r="F210" s="27"/>
-      <c r="G210" s="27"/>
-      <c r="H210" s="27"/>
-      <c r="I210" s="27"/>
-      <c r="J210" s="27"/>
+      <c r="B210" s="45"/>
+      <c r="C210" s="45"/>
+      <c r="D210" s="45"/>
+      <c r="E210" s="45"/>
+      <c r="F210" s="45"/>
+      <c r="G210" s="45"/>
+      <c r="H210" s="45"/>
+      <c r="I210" s="45"/>
+      <c r="J210" s="45"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="29" t="s">
+      <c r="B211" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="C211" s="30" t="s">
+      <c r="C211" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="33" t="s">
+      <c r="D211" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E211" s="5" t="s">
+      <c r="E211" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="F211" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H211" s="5" t="s">
+      <c r="F211" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I211" s="5"/>
-      <c r="J211" s="15"/>
+      <c r="I211" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J211" s="14"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="29"/>
-      <c r="C212" s="31"/>
-      <c r="D212" s="34"/>
-      <c r="E212" s="5" t="s">
+      <c r="B212" s="44"/>
+      <c r="C212" s="49"/>
+      <c r="D212" s="40"/>
+      <c r="E212" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="F212" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H212" s="5" t="s">
+      <c r="F212" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H212" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I212" s="5"/>
-      <c r="J212" s="15"/>
+      <c r="I212" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J212" s="14"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="29"/>
-      <c r="C213" s="31"/>
-      <c r="D213" s="34"/>
-      <c r="E213" s="5" t="s">
+      <c r="B213" s="44"/>
+      <c r="C213" s="49"/>
+      <c r="D213" s="40"/>
+      <c r="E213" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="F213" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G213" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H213" s="5" t="s">
+      <c r="F213" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H213" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I213" s="5"/>
-      <c r="J213" s="15"/>
+      <c r="I213" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J213" s="14"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="29"/>
-      <c r="C214" s="31"/>
-      <c r="D214" s="34"/>
-      <c r="E214" s="5" t="s">
+      <c r="B214" s="44"/>
+      <c r="C214" s="49"/>
+      <c r="D214" s="40"/>
+      <c r="E214" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="F214" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H214" s="5" t="s">
+      <c r="F214" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H214" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I214" s="5"/>
-      <c r="J214" s="15"/>
+      <c r="I214" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J214" s="14"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="29"/>
-      <c r="C215" s="31"/>
-      <c r="D215" s="34"/>
-      <c r="E215" s="5" t="s">
+      <c r="B215" s="44"/>
+      <c r="C215" s="49"/>
+      <c r="D215" s="40"/>
+      <c r="E215" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="F215" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G215" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H215" s="5" t="s">
+      <c r="F215" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G215" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H215" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I215" s="5"/>
-      <c r="J215" s="15"/>
+      <c r="I215" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J215" s="14"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="29"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="34"/>
-      <c r="E216" s="5" t="s">
+      <c r="B216" s="44"/>
+      <c r="C216" s="49"/>
+      <c r="D216" s="40"/>
+      <c r="E216" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="F216" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H216" s="5" t="s">
+      <c r="F216" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G216" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H216" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I216" s="5"/>
-      <c r="J216" s="15"/>
+      <c r="I216" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J216" s="14"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="29"/>
-      <c r="C217" s="31"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="5" t="s">
+      <c r="B217" s="44"/>
+      <c r="C217" s="49"/>
+      <c r="D217" s="40"/>
+      <c r="E217" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="F217" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H217" s="5" t="s">
+      <c r="F217" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G217" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H217" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I217" s="5"/>
-      <c r="J217" s="15"/>
+      <c r="I217" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J217" s="14"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="29"/>
-      <c r="C218" s="31"/>
-      <c r="D218" s="34"/>
-      <c r="E218" s="5" t="s">
+      <c r="B218" s="44"/>
+      <c r="C218" s="49"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="F218" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H218" s="5" t="s">
+      <c r="F218" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G218" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H218" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I218" s="5"/>
-      <c r="J218" s="15"/>
+      <c r="I218" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J218" s="14"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="29"/>
-      <c r="C219" s="32"/>
-      <c r="D219" s="35"/>
-      <c r="E219" s="5" t="s">
+      <c r="B219" s="44"/>
+      <c r="C219" s="48"/>
+      <c r="D219" s="41"/>
+      <c r="E219" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="F219" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G219" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H219" s="5" t="s">
+      <c r="F219" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H219" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I219" s="5"/>
-      <c r="J219" s="15"/>
+      <c r="I219" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J219" s="14"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="29"/>
-      <c r="C220" s="29" t="s">
+      <c r="B220" s="44"/>
+      <c r="C220" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="E220" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="F220" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G220" s="5" t="s">
+      <c r="G220" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H220" s="5" t="s">
+      <c r="H220" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I220" s="5"/>
-      <c r="J220" s="15"/>
+      <c r="I220" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J220" s="14" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="29"/>
-      <c r="C221" s="29"/>
-      <c r="D221" s="5" t="s">
+      <c r="B221" s="44"/>
+      <c r="C221" s="44"/>
+      <c r="D221" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E221" s="5" t="s">
+      <c r="E221" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="F221" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G221" s="5" t="s">
+      <c r="G221" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="H221" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I221" s="5"/>
-      <c r="J221" s="15"/>
+      <c r="I221" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J221" s="14" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="29"/>
-      <c r="C222" s="5" t="s">
+      <c r="B222" s="44"/>
+      <c r="C222" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E222" s="5" t="s">
+      <c r="E222" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="F222" s="5" t="s">
+      <c r="F222" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G222" s="5" t="s">
+      <c r="G222" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="H222" s="5" t="s">
+      <c r="H222" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I222" s="5"/>
-      <c r="J222" s="15"/>
+      <c r="I222" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J222" s="14"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="29"/>
-      <c r="C223" s="5" t="s">
+      <c r="B223" s="44"/>
+      <c r="C223" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E223" s="5" t="s">
+      <c r="E223" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="F223" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G223" s="5" t="s">
+      <c r="G223" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="H223" s="5" t="s">
+      <c r="H223" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I223" s="5"/>
-      <c r="J223" s="15"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I223" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J223" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="29"/>
-      <c r="C224" s="5" t="s">
+      <c r="B224" s="44"/>
+      <c r="C224" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="D224" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="E224" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="F224" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="G224" s="5" t="s">
+      <c r="G224" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="H224" s="5" t="s">
+      <c r="H224" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="I224" s="5"/>
-      <c r="J224" s="15"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A225" s="27" t="s">
+      <c r="I224" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J224" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="27"/>
-      <c r="C225" s="27"/>
-      <c r="D225" s="27"/>
-      <c r="E225" s="27"/>
-      <c r="F225" s="27"/>
-      <c r="G225" s="27"/>
-      <c r="H225" s="27"/>
-      <c r="I225" s="27"/>
-      <c r="J225" s="27"/>
+      <c r="B225" s="45"/>
+      <c r="C225" s="45"/>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="45"/>
+      <c r="H225" s="45"/>
+      <c r="I225" s="45"/>
+      <c r="J225" s="45"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="29" t="s">
+      <c r="B226" s="44" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="30" t="s">
+      <c r="C226" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="33" t="s">
+      <c r="D226" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E226" s="29" t="s">
         <v>262</v>
       </c>
-      <c r="F226" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H226" s="5" t="s">
+      <c r="F226" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G226" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H226" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I226" s="5"/>
-      <c r="J226" s="15"/>
+      <c r="I226" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J226" s="14"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="29"/>
-      <c r="C227" s="31"/>
-      <c r="D227" s="34"/>
-      <c r="E227" s="5" t="s">
+      <c r="B227" s="44"/>
+      <c r="C227" s="49"/>
+      <c r="D227" s="40"/>
+      <c r="E227" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="F227" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H227" s="5" t="s">
+      <c r="F227" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G227" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H227" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I227" s="5"/>
-      <c r="J227" s="15"/>
+      <c r="I227" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J227" s="14"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="29"/>
-      <c r="C228" s="31"/>
-      <c r="D228" s="34"/>
-      <c r="E228" s="5" t="s">
+      <c r="B228" s="44"/>
+      <c r="C228" s="49"/>
+      <c r="D228" s="40"/>
+      <c r="E228" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="F228" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H228" s="5" t="s">
+      <c r="F228" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G228" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I228" s="5"/>
-      <c r="J228" s="15"/>
+      <c r="I228" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J228" s="14"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="29"/>
-      <c r="C229" s="31"/>
-      <c r="D229" s="34"/>
-      <c r="E229" s="5" t="s">
+      <c r="B229" s="44"/>
+      <c r="C229" s="49"/>
+      <c r="D229" s="40"/>
+      <c r="E229" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F229" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H229" s="5" t="s">
+      <c r="F229" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G229" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H229" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I229" s="5"/>
-      <c r="J229" s="15"/>
+      <c r="I229" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J229" s="14"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="29"/>
-      <c r="C230" s="31"/>
-      <c r="D230" s="34"/>
-      <c r="E230" s="5" t="s">
+      <c r="B230" s="44"/>
+      <c r="C230" s="49"/>
+      <c r="D230" s="40"/>
+      <c r="E230" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F230" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H230" s="5" t="s">
+      <c r="F230" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H230" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I230" s="5"/>
-      <c r="J230" s="15"/>
+      <c r="I230" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J230" s="14"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="29"/>
-      <c r="C231" s="32"/>
-      <c r="D231" s="35"/>
-      <c r="E231" s="5" t="s">
+      <c r="B231" s="44"/>
+      <c r="C231" s="48"/>
+      <c r="D231" s="41"/>
+      <c r="E231" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F231" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H231" s="5" t="s">
+      <c r="F231" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G231" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H231" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I231" s="5"/>
-      <c r="J231" s="15"/>
+      <c r="I231" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J231" s="14"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="29"/>
-      <c r="C232" s="29" t="s">
+      <c r="B232" s="44"/>
+      <c r="C232" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="E232" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="F232" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="G232" s="5" t="s">
+      <c r="G232" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="H232" s="5" t="s">
+      <c r="H232" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I232" s="5"/>
-      <c r="J232" s="15"/>
+      <c r="I232" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J232" s="14" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="29"/>
-      <c r="C233" s="29"/>
-      <c r="D233" s="5" t="s">
+      <c r="B233" s="44"/>
+      <c r="C233" s="44"/>
+      <c r="D233" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E233" s="5" t="s">
+      <c r="E233" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="F233" s="29" t="s">
         <v>270</v>
       </c>
-      <c r="G233" s="5" t="s">
+      <c r="G233" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="H233" s="5" t="s">
+      <c r="H233" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I233" s="5"/>
-      <c r="J233" s="15"/>
+      <c r="I233" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J233" s="14" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="29"/>
-      <c r="C234" s="5" t="s">
+      <c r="B234" s="44"/>
+      <c r="C234" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D234" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="E234" s="5" t="s">
+      <c r="E234" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="F234" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G234" s="5" t="s">
+      <c r="G234" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="H234" s="5" t="s">
+      <c r="H234" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I234" s="5"/>
-      <c r="J234" s="15"/>
+      <c r="I234" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="J234" s="16" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="29"/>
-      <c r="C235" s="5" t="s">
+      <c r="B235" s="44"/>
+      <c r="C235" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D235" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E235" s="5" t="s">
+      <c r="E235" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F235" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G235" s="5" t="s">
+      <c r="G235" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="H235" s="5" t="s">
+      <c r="H235" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="I235" s="5"/>
-      <c r="J235" s="15"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I235" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J235" s="14" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="29"/>
-      <c r="C236" s="5" t="s">
+      <c r="B236" s="44"/>
+      <c r="C236" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D236" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E236" s="5" t="s">
+      <c r="E236" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="F236" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G236" s="5" t="s">
+      <c r="G236" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="H236" s="5" t="s">
+      <c r="H236" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="I236" s="5"/>
-      <c r="J236" s="15"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A237" s="27" t="s">
+      <c r="I236" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J236" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="45" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="27"/>
-      <c r="C237" s="27"/>
-      <c r="D237" s="27"/>
-      <c r="E237" s="27"/>
-      <c r="F237" s="27"/>
-      <c r="G237" s="27"/>
-      <c r="H237" s="27"/>
-      <c r="I237" s="27"/>
-      <c r="J237" s="27"/>
+      <c r="B237" s="45"/>
+      <c r="C237" s="45"/>
+      <c r="D237" s="45"/>
+      <c r="E237" s="45"/>
+      <c r="F237" s="45"/>
+      <c r="G237" s="45"/>
+      <c r="H237" s="45"/>
+      <c r="I237" s="45"/>
+      <c r="J237" s="45"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="C238" s="29" t="s">
+      <c r="C238" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="28" t="s">
+      <c r="D238" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E238" s="4" t="s">
+      <c r="E238" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="F238" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H238" s="4" t="s">
+      <c r="F238" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G238" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H238" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I238" s="4"/>
-      <c r="J238" s="15"/>
+      <c r="I238" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J238" s="14"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="34"/>
-      <c r="C239" s="29"/>
-      <c r="D239" s="28"/>
-      <c r="E239" s="4" t="s">
+      <c r="B239" s="37"/>
+      <c r="C239" s="44"/>
+      <c r="D239" s="42"/>
+      <c r="E239" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="F239" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H239" s="4" t="s">
+      <c r="F239" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H239" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I239" s="4"/>
-      <c r="J239" s="15"/>
+      <c r="I239" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J239" s="14"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="34"/>
-      <c r="C240" s="29"/>
-      <c r="D240" s="28"/>
-      <c r="E240" s="4" t="s">
+      <c r="B240" s="37"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="F240" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H240" s="4" t="s">
+      <c r="F240" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G240" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I240" s="4"/>
-      <c r="J240" s="15"/>
+      <c r="I240" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J240" s="14"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="34"/>
-      <c r="C241" s="29"/>
-      <c r="D241" s="28"/>
-      <c r="E241" s="4" t="s">
+      <c r="B241" s="37"/>
+      <c r="C241" s="44"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="F241" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H241" s="4" t="s">
+      <c r="F241" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I241" s="4"/>
-      <c r="J241" s="15"/>
+      <c r="I241" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J241" s="14"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="34"/>
-      <c r="C242" s="29"/>
-      <c r="D242" s="28"/>
-      <c r="E242" s="4" t="s">
+      <c r="B242" s="37"/>
+      <c r="C242" s="44"/>
+      <c r="D242" s="42"/>
+      <c r="E242" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="F242" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H242" s="4" t="s">
+      <c r="F242" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G242" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I242" s="4"/>
-      <c r="J242" s="15"/>
+      <c r="I242" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J242" s="14"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="34"/>
-      <c r="C243" s="29"/>
-      <c r="D243" s="28"/>
-      <c r="E243" s="4" t="s">
+      <c r="B243" s="37"/>
+      <c r="C243" s="44"/>
+      <c r="D243" s="42"/>
+      <c r="E243" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H243" s="4" t="s">
+      <c r="F243" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G243" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I243" s="4"/>
-      <c r="J243" s="15"/>
+      <c r="I243" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J243" s="14"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="34"/>
-      <c r="C244" s="29"/>
-      <c r="D244" s="28"/>
-      <c r="E244" s="4" t="s">
+      <c r="B244" s="37"/>
+      <c r="C244" s="44"/>
+      <c r="D244" s="42"/>
+      <c r="E244" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="F244" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H244" s="4" t="s">
+      <c r="F244" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H244" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I244" s="4"/>
-      <c r="J244" s="15"/>
+      <c r="I244" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J244" s="14"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="34"/>
-      <c r="C245" s="29"/>
-      <c r="D245" s="28"/>
-      <c r="E245" s="4" t="s">
+      <c r="B245" s="37"/>
+      <c r="C245" s="44"/>
+      <c r="D245" s="42"/>
+      <c r="E245" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="F245" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H245" s="4" t="s">
+      <c r="F245" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H245" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I245" s="4"/>
-      <c r="J245" s="15"/>
+      <c r="I245" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J245" s="14"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="34"/>
-      <c r="C246" s="29"/>
-      <c r="D246" s="28"/>
-      <c r="E246" s="4" t="s">
+      <c r="B246" s="37"/>
+      <c r="C246" s="44"/>
+      <c r="D246" s="42"/>
+      <c r="E246" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="F246" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H246" s="4" t="s">
+      <c r="F246" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G246" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H246" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I246" s="4"/>
-      <c r="J246" s="15"/>
+      <c r="I246" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J246" s="14"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="34"/>
-      <c r="C247" s="29"/>
-      <c r="D247" s="28"/>
-      <c r="E247" s="4" t="s">
+      <c r="B247" s="37"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="42"/>
+      <c r="E247" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="F247" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H247" s="4" t="s">
+      <c r="F247" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G247" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H247" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I247" s="4"/>
-      <c r="J247" s="15"/>
+      <c r="I247" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J247" s="14"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="34"/>
-      <c r="C248" s="29"/>
-      <c r="D248" s="28"/>
-      <c r="E248" s="4" t="s">
+      <c r="B248" s="37"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="42"/>
+      <c r="E248" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="F248" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H248" s="4" t="s">
+      <c r="F248" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H248" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I248" s="4"/>
-      <c r="J248" s="15"/>
+      <c r="I248" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J248" s="14"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="34"/>
-      <c r="C249" s="29"/>
-      <c r="D249" s="28"/>
-      <c r="E249" s="4" t="s">
+      <c r="B249" s="37"/>
+      <c r="C249" s="44"/>
+      <c r="D249" s="42"/>
+      <c r="E249" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="F249" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H249" s="4" t="s">
+      <c r="F249" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G249" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H249" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I249" s="4"/>
-      <c r="J249" s="15"/>
+      <c r="I249" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J249" s="14"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="34"/>
-      <c r="C250" s="29"/>
-      <c r="D250" s="28"/>
-      <c r="E250" s="4" t="s">
+      <c r="B250" s="37"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="42"/>
+      <c r="E250" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="F250" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G250" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H250" s="4" t="s">
+      <c r="F250" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G250" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H250" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I250" s="4"/>
-      <c r="J250" s="15"/>
+      <c r="I250" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J250" s="14"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="34"/>
-      <c r="C251" s="29"/>
-      <c r="D251" s="28"/>
-      <c r="E251" s="4" t="s">
+      <c r="B251" s="37"/>
+      <c r="C251" s="44"/>
+      <c r="D251" s="42"/>
+      <c r="E251" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="F251" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H251" s="4" t="s">
+      <c r="F251" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H251" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I251" s="4"/>
-      <c r="J251" s="15"/>
+      <c r="I251" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J251" s="14"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="34"/>
-      <c r="C252" s="29"/>
-      <c r="D252" s="28"/>
-      <c r="E252" s="4" t="s">
+      <c r="B252" s="37"/>
+      <c r="C252" s="44"/>
+      <c r="D252" s="42"/>
+      <c r="E252" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="F252" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G252" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H252" s="4" t="s">
+      <c r="F252" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G252" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H252" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I252" s="4"/>
-      <c r="J252" s="15"/>
+      <c r="I252" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J252" s="14"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="34"/>
-      <c r="C253" s="29"/>
-      <c r="D253" s="28"/>
-      <c r="E253" s="4" t="s">
+      <c r="B253" s="37"/>
+      <c r="C253" s="44"/>
+      <c r="D253" s="42"/>
+      <c r="E253" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="F253" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H253" s="4" t="s">
+      <c r="F253" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G253" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H253" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I253" s="4"/>
-      <c r="J253" s="15"/>
+      <c r="I253" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J253" s="14"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="34"/>
-      <c r="C254" s="29"/>
-      <c r="D254" s="28"/>
-      <c r="E254" s="4" t="s">
+      <c r="B254" s="37"/>
+      <c r="C254" s="44"/>
+      <c r="D254" s="42"/>
+      <c r="E254" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="F254" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G254" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H254" s="4" t="s">
+      <c r="F254" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G254" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H254" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I254" s="4"/>
-      <c r="J254" s="15"/>
+      <c r="I254" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J254" s="14"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="34"/>
-      <c r="C255" s="29"/>
-      <c r="D255" s="28"/>
-      <c r="E255" s="4" t="s">
+      <c r="B255" s="37"/>
+      <c r="C255" s="44"/>
+      <c r="D255" s="42"/>
+      <c r="E255" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="F255" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H255" s="4" t="s">
+      <c r="F255" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G255" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H255" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I255" s="4"/>
-      <c r="J255" s="15"/>
+      <c r="I255" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J255" s="14"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="34"/>
-      <c r="C256" s="29"/>
-      <c r="D256" s="28"/>
-      <c r="E256" s="4" t="s">
+      <c r="B256" s="37"/>
+      <c r="C256" s="44"/>
+      <c r="D256" s="42"/>
+      <c r="E256" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="F256" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H256" s="4" t="s">
+      <c r="F256" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G256" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H256" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I256" s="4"/>
-      <c r="J256" s="15"/>
+      <c r="I256" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J256" s="14"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="34"/>
-      <c r="C257" s="29"/>
-      <c r="D257" s="28"/>
-      <c r="E257" s="4" t="s">
+      <c r="B257" s="37"/>
+      <c r="C257" s="44"/>
+      <c r="D257" s="42"/>
+      <c r="E257" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="F257" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H257" s="4" t="s">
+      <c r="F257" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G257" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H257" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I257" s="4"/>
-      <c r="J257" s="15"/>
+      <c r="I257" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J257" s="14"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="34"/>
-      <c r="C258" s="29"/>
-      <c r="D258" s="28"/>
-      <c r="E258" s="4" t="s">
+      <c r="B258" s="37"/>
+      <c r="C258" s="44"/>
+      <c r="D258" s="42"/>
+      <c r="E258" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="F258" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H258" s="4" t="s">
+      <c r="F258" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H258" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I258" s="4"/>
-      <c r="J258" s="15"/>
+      <c r="I258" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J258" s="14"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="34"/>
-      <c r="C259" s="29"/>
-      <c r="D259" s="28"/>
-      <c r="E259" s="4" t="s">
+      <c r="B259" s="37"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="42"/>
+      <c r="E259" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="F259" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H259" s="4" t="s">
+      <c r="F259" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G259" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H259" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I259" s="4"/>
-      <c r="J259" s="15"/>
+      <c r="I259" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J259" s="14"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="34"/>
-      <c r="C260" s="29"/>
-      <c r="D260" s="28"/>
-      <c r="E260" s="4" t="s">
+      <c r="B260" s="37"/>
+      <c r="C260" s="44"/>
+      <c r="D260" s="42"/>
+      <c r="E260" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="F260" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G260" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H260" s="4" t="s">
+      <c r="F260" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H260" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I260" s="4"/>
-      <c r="J260" s="15"/>
+      <c r="I260" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J260" s="14"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="34"/>
-      <c r="C261" s="30" t="s">
+      <c r="B261" s="37"/>
+      <c r="C261" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="30" t="s">
+      <c r="D261" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -8806,9 +9254,9 @@
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="34"/>
-      <c r="C262" s="31"/>
-      <c r="D262" s="31"/>
+      <c r="B262" s="37"/>
+      <c r="C262" s="34"/>
+      <c r="D262" s="34"/>
       <c r="E262" s="4" t="s">
         <v>397</v>
       </c>
@@ -8828,16 +9276,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="34"/>
-      <c r="C263" s="31"/>
-      <c r="D263" s="31"/>
+      <c r="B263" s="37"/>
+      <c r="C263" s="34"/>
+      <c r="D263" s="34"/>
       <c r="E263" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F263" s="30" t="s">
+      <c r="F263" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="G263" s="33" t="s">
+      <c r="G263" s="36" t="s">
         <v>400</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -8850,14 +9298,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="34"/>
-      <c r="C264" s="31"/>
-      <c r="D264" s="31"/>
+      <c r="B264" s="37"/>
+      <c r="C264" s="34"/>
+      <c r="D264" s="34"/>
       <c r="E264" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F264" s="31"/>
-      <c r="G264" s="34"/>
+      <c r="F264" s="34"/>
+      <c r="G264" s="37"/>
       <c r="H264" s="4" t="s">
         <v>399</v>
       </c>
@@ -8868,14 +9316,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="34"/>
-      <c r="C265" s="31"/>
-      <c r="D265" s="31"/>
+      <c r="B265" s="37"/>
+      <c r="C265" s="34"/>
+      <c r="D265" s="34"/>
       <c r="E265" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F265" s="31"/>
-      <c r="G265" s="34"/>
+      <c r="F265" s="34"/>
+      <c r="G265" s="37"/>
       <c r="H265" s="4" t="s">
         <v>399</v>
       </c>
@@ -8886,14 +9334,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="34"/>
-      <c r="C266" s="31"/>
-      <c r="D266" s="31"/>
+      <c r="B266" s="37"/>
+      <c r="C266" s="34"/>
+      <c r="D266" s="34"/>
       <c r="E266" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F266" s="32"/>
-      <c r="G266" s="35"/>
+      <c r="F266" s="35"/>
+      <c r="G266" s="38"/>
       <c r="H266" s="4" t="s">
         <v>399</v>
       </c>
@@ -8904,16 +9352,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="34"/>
-      <c r="C267" s="31"/>
-      <c r="D267" s="31"/>
+      <c r="B267" s="37"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="34"/>
       <c r="E267" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F267" s="30" t="s">
+      <c r="F267" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="G267" s="33" t="s">
+      <c r="G267" s="36" t="s">
         <v>403</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -8926,14 +9374,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="34"/>
-      <c r="C268" s="31"/>
-      <c r="D268" s="31"/>
+      <c r="B268" s="37"/>
+      <c r="C268" s="34"/>
+      <c r="D268" s="34"/>
       <c r="E268" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F268" s="31"/>
-      <c r="G268" s="34"/>
+      <c r="F268" s="34"/>
+      <c r="G268" s="37"/>
       <c r="H268" s="4" t="s">
         <v>402</v>
       </c>
@@ -8944,14 +9392,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="34"/>
-      <c r="C269" s="31"/>
-      <c r="D269" s="31"/>
+      <c r="B269" s="37"/>
+      <c r="C269" s="34"/>
+      <c r="D269" s="34"/>
       <c r="E269" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F269" s="31"/>
-      <c r="G269" s="34"/>
+      <c r="F269" s="34"/>
+      <c r="G269" s="37"/>
       <c r="H269" s="4" t="s">
         <v>402</v>
       </c>
@@ -8962,14 +9410,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="34"/>
-      <c r="C270" s="31"/>
-      <c r="D270" s="31"/>
+      <c r="B270" s="37"/>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
       <c r="E270" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F270" s="32"/>
-      <c r="G270" s="35"/>
+      <c r="F270" s="35"/>
+      <c r="G270" s="38"/>
       <c r="H270" s="4" t="s">
         <v>402</v>
       </c>
@@ -8980,16 +9428,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="34"/>
-      <c r="C271" s="31"/>
-      <c r="D271" s="31"/>
+      <c r="B271" s="37"/>
+      <c r="C271" s="34"/>
+      <c r="D271" s="34"/>
       <c r="E271" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F271" s="30" t="s">
+      <c r="F271" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="G271" s="33" t="s">
+      <c r="G271" s="36" t="s">
         <v>404</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -9002,14 +9450,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="34"/>
-      <c r="C272" s="31"/>
-      <c r="D272" s="31"/>
+      <c r="B272" s="37"/>
+      <c r="C272" s="34"/>
+      <c r="D272" s="34"/>
       <c r="E272" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F272" s="31"/>
-      <c r="G272" s="34"/>
+      <c r="F272" s="34"/>
+      <c r="G272" s="37"/>
       <c r="H272" s="4" t="s">
         <v>402</v>
       </c>
@@ -9020,14 +9468,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="34"/>
-      <c r="C273" s="31"/>
-      <c r="D273" s="31"/>
+      <c r="B273" s="37"/>
+      <c r="C273" s="34"/>
+      <c r="D273" s="34"/>
       <c r="E273" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F273" s="31"/>
-      <c r="G273" s="34"/>
+      <c r="F273" s="34"/>
+      <c r="G273" s="37"/>
       <c r="H273" s="4" t="s">
         <v>402</v>
       </c>
@@ -9038,14 +9486,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="35"/>
-      <c r="C274" s="32"/>
-      <c r="D274" s="32"/>
+      <c r="B274" s="38"/>
+      <c r="C274" s="35"/>
+      <c r="D274" s="35"/>
       <c r="E274" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="F274" s="32"/>
-      <c r="G274" s="35"/>
+      <c r="F274" s="35"/>
+      <c r="G274" s="38"/>
       <c r="H274" s="4" t="s">
         <v>402</v>
       </c>
@@ -9053,166 +9501,178 @@
       <c r="J274" s="15"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="27" t="s">
+      <c r="A275" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="B275" s="27"/>
-      <c r="C275" s="27"/>
-      <c r="D275" s="27"/>
-      <c r="E275" s="27"/>
-      <c r="F275" s="27"/>
-      <c r="G275" s="27"/>
-      <c r="H275" s="27"/>
-      <c r="I275" s="27"/>
-      <c r="J275" s="27"/>
+      <c r="B275" s="30"/>
+      <c r="C275" s="30"/>
+      <c r="D275" s="30"/>
+      <c r="E275" s="30"/>
+      <c r="F275" s="30"/>
+      <c r="G275" s="30"/>
+      <c r="H275" s="30"/>
+      <c r="I275" s="30"/>
+      <c r="J275" s="30"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="33" t="s">
+      <c r="B276" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="30" t="s">
+      <c r="C276" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="33" t="s">
+      <c r="D276" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E276" s="4" t="s">
+      <c r="E276" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="F276" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H276" s="4" t="s">
+      <c r="F276" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G276" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H276" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I276" s="4"/>
-      <c r="J276" s="15"/>
+      <c r="I276" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J276" s="14"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="34"/>
-      <c r="C277" s="31"/>
-      <c r="D277" s="34"/>
-      <c r="E277" s="4" t="s">
+      <c r="B277" s="37"/>
+      <c r="C277" s="49"/>
+      <c r="D277" s="40"/>
+      <c r="E277" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="F277" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G277" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H277" s="4" t="s">
+      <c r="F277" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G277" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H277" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I277" s="4"/>
-      <c r="J277" s="15"/>
+      <c r="I277" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J277" s="14"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="34"/>
-      <c r="C278" s="31"/>
-      <c r="D278" s="34"/>
-      <c r="E278" s="4" t="s">
+      <c r="B278" s="37"/>
+      <c r="C278" s="49"/>
+      <c r="D278" s="40"/>
+      <c r="E278" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="F278" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H278" s="4" t="s">
+      <c r="F278" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H278" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I278" s="4"/>
-      <c r="J278" s="15"/>
+      <c r="I278" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J278" s="14"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="34"/>
-      <c r="C279" s="31"/>
-      <c r="D279" s="34"/>
-      <c r="E279" s="4" t="s">
+      <c r="B279" s="37"/>
+      <c r="C279" s="49"/>
+      <c r="D279" s="40"/>
+      <c r="E279" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G279" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H279" s="4" t="s">
+      <c r="F279" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G279" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H279" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I279" s="4"/>
-      <c r="J279" s="15"/>
+      <c r="I279" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J279" s="14"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="34"/>
-      <c r="C280" s="31"/>
-      <c r="D280" s="34"/>
-      <c r="E280" s="4" t="s">
+      <c r="B280" s="37"/>
+      <c r="C280" s="49"/>
+      <c r="D280" s="40"/>
+      <c r="E280" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="F280" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H280" s="4" t="s">
+      <c r="F280" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G280" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H280" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I280" s="4"/>
-      <c r="J280" s="15"/>
+      <c r="I280" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J280" s="14"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="34"/>
-      <c r="C281" s="32"/>
-      <c r="D281" s="35"/>
-      <c r="E281" s="4" t="s">
+      <c r="B281" s="37"/>
+      <c r="C281" s="48"/>
+      <c r="D281" s="41"/>
+      <c r="E281" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="F281" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H281" s="4" t="s">
+      <c r="F281" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G281" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H281" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I281" s="4"/>
-      <c r="J281" s="15"/>
+      <c r="I281" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J281" s="14"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="34"/>
-      <c r="C282" s="30" t="s">
+      <c r="B282" s="37"/>
+      <c r="C282" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="30" t="s">
+      <c r="D282" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E282" s="4" t="s">
@@ -9234,9 +9694,9 @@
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="34"/>
-      <c r="C283" s="31"/>
-      <c r="D283" s="31"/>
+      <c r="B283" s="37"/>
+      <c r="C283" s="34"/>
+      <c r="D283" s="34"/>
       <c r="E283" s="4" t="s">
         <v>282</v>
       </c>
@@ -9256,9 +9716,9 @@
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="34"/>
-      <c r="C284" s="31"/>
-      <c r="D284" s="31"/>
+      <c r="B284" s="37"/>
+      <c r="C284" s="34"/>
+      <c r="D284" s="34"/>
       <c r="E284" s="4" t="s">
         <v>317</v>
       </c>
@@ -9278,9 +9738,9 @@
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="34"/>
-      <c r="C285" s="31"/>
-      <c r="D285" s="31"/>
+      <c r="B285" s="37"/>
+      <c r="C285" s="34"/>
+      <c r="D285" s="34"/>
       <c r="E285" s="4" t="s">
         <v>286</v>
       </c>
@@ -9302,9 +9762,9 @@
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="34"/>
-      <c r="C286" s="32"/>
-      <c r="D286" s="32"/>
+      <c r="B286" s="37"/>
+      <c r="C286" s="35"/>
+      <c r="D286" s="35"/>
       <c r="E286" s="4" t="s">
         <v>325</v>
       </c>
@@ -9326,7 +9786,7 @@
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="35"/>
+      <c r="B287" s="38"/>
       <c r="C287" s="4" t="s">
         <v>118</v>
       </c>
@@ -9349,166 +9809,178 @@
       <c r="J287" s="15"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A288" s="27" t="s">
+      <c r="A288" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="27"/>
-      <c r="C288" s="27"/>
-      <c r="D288" s="27"/>
-      <c r="E288" s="27"/>
-      <c r="F288" s="27"/>
-      <c r="G288" s="27"/>
-      <c r="H288" s="27"/>
-      <c r="I288" s="27"/>
-      <c r="J288" s="27"/>
+      <c r="B288" s="30"/>
+      <c r="C288" s="30"/>
+      <c r="D288" s="30"/>
+      <c r="E288" s="30"/>
+      <c r="F288" s="30"/>
+      <c r="G288" s="30"/>
+      <c r="H288" s="30"/>
+      <c r="I288" s="30"/>
+      <c r="J288" s="30"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="33" t="s">
+      <c r="B289" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="C289" s="30" t="s">
+      <c r="C289" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E289" s="4" t="s">
+      <c r="E289" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="F289" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G289" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H289" s="4" t="s">
+      <c r="F289" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G289" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H289" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I289" s="4"/>
-      <c r="J289" s="15"/>
+      <c r="I289" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J289" s="14"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="34"/>
-      <c r="C290" s="31"/>
-      <c r="D290" s="34"/>
-      <c r="E290" s="4" t="s">
+      <c r="B290" s="37"/>
+      <c r="C290" s="49"/>
+      <c r="D290" s="40"/>
+      <c r="E290" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="F290" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G290" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H290" s="4" t="s">
+      <c r="F290" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G290" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H290" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I290" s="4"/>
-      <c r="J290" s="15"/>
+      <c r="I290" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J290" s="14"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="34"/>
-      <c r="C291" s="31"/>
-      <c r="D291" s="34"/>
-      <c r="E291" s="4" t="s">
+      <c r="B291" s="37"/>
+      <c r="C291" s="49"/>
+      <c r="D291" s="40"/>
+      <c r="E291" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F291" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H291" s="4" t="s">
+      <c r="F291" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G291" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H291" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I291" s="4"/>
-      <c r="J291" s="15"/>
+      <c r="I291" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J291" s="14"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="34"/>
-      <c r="C292" s="31"/>
-      <c r="D292" s="34"/>
-      <c r="E292" s="4" t="s">
+      <c r="B292" s="37"/>
+      <c r="C292" s="49"/>
+      <c r="D292" s="40"/>
+      <c r="E292" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="F292" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G292" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H292" s="4" t="s">
+      <c r="F292" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G292" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H292" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I292" s="4"/>
-      <c r="J292" s="15"/>
+      <c r="I292" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J292" s="14"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="34"/>
-      <c r="C293" s="31"/>
-      <c r="D293" s="34"/>
-      <c r="E293" s="4" t="s">
+      <c r="B293" s="37"/>
+      <c r="C293" s="49"/>
+      <c r="D293" s="40"/>
+      <c r="E293" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="F293" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G293" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H293" s="4" t="s">
+      <c r="F293" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G293" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H293" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I293" s="4"/>
-      <c r="J293" s="15"/>
+      <c r="I293" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J293" s="14"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="34"/>
-      <c r="C294" s="32"/>
-      <c r="D294" s="35"/>
-      <c r="E294" s="4" t="s">
+      <c r="B294" s="37"/>
+      <c r="C294" s="48"/>
+      <c r="D294" s="41"/>
+      <c r="E294" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="F294" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G294" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H294" s="4" t="s">
+      <c r="F294" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G294" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H294" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I294" s="4"/>
-      <c r="J294" s="15"/>
+      <c r="I294" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J294" s="14"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="34"/>
-      <c r="C295" s="30" t="s">
+      <c r="B295" s="37"/>
+      <c r="C295" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="30" t="s">
+      <c r="D295" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E295" s="4" t="s">
@@ -9530,9 +10002,9 @@
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="34"/>
-      <c r="C296" s="31"/>
-      <c r="D296" s="31"/>
+      <c r="B296" s="37"/>
+      <c r="C296" s="34"/>
+      <c r="D296" s="34"/>
       <c r="E296" s="4" t="s">
         <v>303</v>
       </c>
@@ -9552,9 +10024,9 @@
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="34"/>
-      <c r="C297" s="31"/>
-      <c r="D297" s="31"/>
+      <c r="B297" s="37"/>
+      <c r="C297" s="34"/>
+      <c r="D297" s="34"/>
       <c r="E297" s="4" t="s">
         <v>317</v>
       </c>
@@ -9574,9 +10046,9 @@
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="34"/>
-      <c r="C298" s="31"/>
-      <c r="D298" s="31"/>
+      <c r="B298" s="37"/>
+      <c r="C298" s="34"/>
+      <c r="D298" s="34"/>
       <c r="E298" s="4" t="s">
         <v>304</v>
       </c>
@@ -9598,9 +10070,9 @@
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="34"/>
-      <c r="C299" s="32"/>
-      <c r="D299" s="32"/>
+      <c r="B299" s="37"/>
+      <c r="C299" s="35"/>
+      <c r="D299" s="35"/>
       <c r="E299" s="4" t="s">
         <v>324</v>
       </c>
@@ -9622,7 +10094,7 @@
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="35"/>
+      <c r="B300" s="38"/>
       <c r="C300" s="4" t="s">
         <v>118</v>
       </c>
@@ -9645,166 +10117,178 @@
       <c r="J300" s="15"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="27" t="s">
+      <c r="A301" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B301" s="27"/>
-      <c r="C301" s="27"/>
-      <c r="D301" s="27"/>
-      <c r="E301" s="27"/>
-      <c r="F301" s="27"/>
-      <c r="G301" s="27"/>
-      <c r="H301" s="27"/>
-      <c r="I301" s="27"/>
-      <c r="J301" s="27"/>
+      <c r="B301" s="30"/>
+      <c r="C301" s="30"/>
+      <c r="D301" s="30"/>
+      <c r="E301" s="30"/>
+      <c r="F301" s="30"/>
+      <c r="G301" s="30"/>
+      <c r="H301" s="30"/>
+      <c r="I301" s="30"/>
+      <c r="J301" s="30"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="33" t="s">
+      <c r="B302" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C302" s="30" t="s">
+      <c r="C302" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="33" t="s">
+      <c r="D302" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E302" s="4" t="s">
+      <c r="E302" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="F302" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G302" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H302" s="4" t="s">
+      <c r="F302" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G302" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H302" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I302" s="4"/>
-      <c r="J302" s="15"/>
+      <c r="I302" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J302" s="14"/>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="34"/>
-      <c r="C303" s="31"/>
-      <c r="D303" s="34"/>
-      <c r="E303" s="4" t="s">
+      <c r="B303" s="37"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="40"/>
+      <c r="E303" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="F303" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G303" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H303" s="4" t="s">
+      <c r="F303" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G303" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H303" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I303" s="4"/>
-      <c r="J303" s="15"/>
+      <c r="I303" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J303" s="14"/>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="34"/>
-      <c r="C304" s="31"/>
-      <c r="D304" s="34"/>
-      <c r="E304" s="4" t="s">
+      <c r="B304" s="37"/>
+      <c r="C304" s="49"/>
+      <c r="D304" s="40"/>
+      <c r="E304" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="F304" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G304" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H304" s="4" t="s">
+      <c r="F304" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G304" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H304" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I304" s="4"/>
-      <c r="J304" s="15"/>
+      <c r="I304" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J304" s="14"/>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="34"/>
-      <c r="C305" s="31"/>
-      <c r="D305" s="34"/>
-      <c r="E305" s="4" t="s">
+      <c r="B305" s="37"/>
+      <c r="C305" s="49"/>
+      <c r="D305" s="40"/>
+      <c r="E305" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="F305" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G305" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H305" s="4" t="s">
+      <c r="F305" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H305" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I305" s="4"/>
-      <c r="J305" s="15"/>
+      <c r="I305" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J305" s="14"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="34"/>
-      <c r="C306" s="31"/>
-      <c r="D306" s="34"/>
-      <c r="E306" s="4" t="s">
+      <c r="B306" s="37"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="40"/>
+      <c r="E306" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="F306" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G306" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H306" s="4" t="s">
+      <c r="F306" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G306" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H306" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I306" s="4"/>
-      <c r="J306" s="15"/>
+      <c r="I306" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J306" s="14"/>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="34"/>
-      <c r="C307" s="32"/>
-      <c r="D307" s="35"/>
-      <c r="E307" s="4" t="s">
+      <c r="B307" s="37"/>
+      <c r="C307" s="48"/>
+      <c r="D307" s="41"/>
+      <c r="E307" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="F307" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G307" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H307" s="4" t="s">
+      <c r="F307" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G307" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H307" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I307" s="4"/>
-      <c r="J307" s="15"/>
+      <c r="I307" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J307" s="14"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="34"/>
-      <c r="C308" s="30" t="s">
+      <c r="B308" s="37"/>
+      <c r="C308" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="30" t="s">
+      <c r="D308" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E308" s="4" t="s">
@@ -9826,9 +10310,9 @@
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="34"/>
-      <c r="C309" s="31"/>
-      <c r="D309" s="31"/>
+      <c r="B309" s="37"/>
+      <c r="C309" s="34"/>
+      <c r="D309" s="34"/>
       <c r="E309" s="4" t="s">
         <v>341</v>
       </c>
@@ -9848,9 +10332,9 @@
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="34"/>
-      <c r="C310" s="31"/>
-      <c r="D310" s="31"/>
+      <c r="B310" s="37"/>
+      <c r="C310" s="34"/>
+      <c r="D310" s="34"/>
       <c r="E310" s="4" t="s">
         <v>349</v>
       </c>
@@ -9870,9 +10354,9 @@
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="34"/>
-      <c r="C311" s="31"/>
-      <c r="D311" s="31"/>
+      <c r="B311" s="37"/>
+      <c r="C311" s="34"/>
+      <c r="D311" s="34"/>
       <c r="E311" s="4" t="s">
         <v>342</v>
       </c>
@@ -9894,9 +10378,9 @@
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="34"/>
-      <c r="C312" s="32"/>
-      <c r="D312" s="32"/>
+      <c r="B312" s="37"/>
+      <c r="C312" s="35"/>
+      <c r="D312" s="35"/>
       <c r="E312" s="4" t="s">
         <v>350</v>
       </c>
@@ -9918,7 +10402,7 @@
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="35"/>
+      <c r="B313" s="38"/>
       <c r="C313" s="4" t="s">
         <v>118</v>
       </c>
@@ -9941,166 +10425,178 @@
       <c r="J313" s="15"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="27" t="s">
+      <c r="A314" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B314" s="27"/>
-      <c r="C314" s="27"/>
-      <c r="D314" s="27"/>
-      <c r="E314" s="27"/>
-      <c r="F314" s="27"/>
-      <c r="G314" s="27"/>
-      <c r="H314" s="27"/>
-      <c r="I314" s="27"/>
-      <c r="J314" s="27"/>
+      <c r="B314" s="30"/>
+      <c r="C314" s="30"/>
+      <c r="D314" s="30"/>
+      <c r="E314" s="30"/>
+      <c r="F314" s="30"/>
+      <c r="G314" s="30"/>
+      <c r="H314" s="30"/>
+      <c r="I314" s="30"/>
+      <c r="J314" s="30"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="28" t="s">
+      <c r="B315" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="C315" s="30" t="s">
+      <c r="C315" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="33" t="s">
+      <c r="D315" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E315" s="5" t="s">
+      <c r="E315" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="F315" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G315" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H315" s="5" t="s">
+      <c r="F315" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G315" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H315" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I315" s="5"/>
-      <c r="J315" s="15"/>
+      <c r="I315" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J315" s="14"/>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="28"/>
-      <c r="C316" s="31"/>
-      <c r="D316" s="34"/>
-      <c r="E316" s="5" t="s">
+      <c r="B316" s="31"/>
+      <c r="C316" s="49"/>
+      <c r="D316" s="40"/>
+      <c r="E316" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="F316" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G316" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H316" s="5" t="s">
+      <c r="F316" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G316" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H316" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I316" s="5"/>
-      <c r="J316" s="15"/>
+      <c r="I316" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J316" s="14"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="28"/>
-      <c r="C317" s="31"/>
-      <c r="D317" s="34"/>
-      <c r="E317" s="5" t="s">
+      <c r="B317" s="31"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="40"/>
+      <c r="E317" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="F317" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G317" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H317" s="5" t="s">
+      <c r="F317" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G317" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H317" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I317" s="5"/>
-      <c r="J317" s="15"/>
+      <c r="I317" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J317" s="14"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="28"/>
-      <c r="C318" s="31"/>
-      <c r="D318" s="34"/>
-      <c r="E318" s="5" t="s">
+      <c r="B318" s="31"/>
+      <c r="C318" s="49"/>
+      <c r="D318" s="40"/>
+      <c r="E318" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F318" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G318" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H318" s="5" t="s">
+      <c r="F318" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G318" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H318" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I318" s="5"/>
-      <c r="J318" s="15"/>
+      <c r="I318" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J318" s="14"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="28"/>
-      <c r="C319" s="31"/>
-      <c r="D319" s="34"/>
-      <c r="E319" s="5" t="s">
+      <c r="B319" s="31"/>
+      <c r="C319" s="49"/>
+      <c r="D319" s="40"/>
+      <c r="E319" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="F319" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G319" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H319" s="5" t="s">
+      <c r="F319" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G319" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H319" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I319" s="5"/>
-      <c r="J319" s="15"/>
+      <c r="I319" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J319" s="14"/>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="28"/>
-      <c r="C320" s="32"/>
-      <c r="D320" s="35"/>
-      <c r="E320" s="5" t="s">
+      <c r="B320" s="31"/>
+      <c r="C320" s="48"/>
+      <c r="D320" s="41"/>
+      <c r="E320" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="F320" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G320" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H320" s="5" t="s">
+      <c r="F320" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G320" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H320" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I320" s="5"/>
-      <c r="J320" s="15"/>
+      <c r="I320" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J320" s="14"/>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="28"/>
-      <c r="C321" s="29" t="s">
+      <c r="B321" s="31"/>
+      <c r="C321" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="29" t="s">
+      <c r="D321" s="32" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="5" t="s">
@@ -10122,9 +10618,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="28"/>
-      <c r="C322" s="29"/>
-      <c r="D322" s="29"/>
+      <c r="B322" s="31"/>
+      <c r="C322" s="32"/>
+      <c r="D322" s="32"/>
       <c r="E322" s="5" t="s">
         <v>362</v>
       </c>
@@ -10144,9 +10640,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="28"/>
-      <c r="C323" s="29"/>
-      <c r="D323" s="29"/>
+      <c r="B323" s="31"/>
+      <c r="C323" s="32"/>
+      <c r="D323" s="32"/>
       <c r="E323" s="5" t="s">
         <v>349</v>
       </c>
@@ -10166,9 +10662,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="28"/>
-      <c r="C324" s="29"/>
-      <c r="D324" s="29"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="32"/>
+      <c r="D324" s="32"/>
       <c r="E324" s="5" t="s">
         <v>363</v>
       </c>
@@ -10190,9 +10686,9 @@
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="28"/>
-      <c r="C325" s="29"/>
-      <c r="D325" s="29"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="32"/>
+      <c r="D325" s="32"/>
       <c r="E325" s="5" t="s">
         <v>357</v>
       </c>
@@ -10214,7 +10710,7 @@
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="28"/>
+      <c r="B326" s="31"/>
       <c r="C326" s="5" t="s">
         <v>118</v>
       </c>
@@ -10237,487 +10733,551 @@
       <c r="J326" s="15"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="27" t="s">
+      <c r="A327" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="B327" s="27"/>
-      <c r="C327" s="27"/>
-      <c r="D327" s="27"/>
-      <c r="E327" s="27"/>
-      <c r="F327" s="27"/>
-      <c r="G327" s="27"/>
-      <c r="H327" s="27"/>
-      <c r="I327" s="27"/>
-      <c r="J327" s="27"/>
+      <c r="B327" s="30"/>
+      <c r="C327" s="30"/>
+      <c r="D327" s="30"/>
+      <c r="E327" s="30"/>
+      <c r="F327" s="30"/>
+      <c r="G327" s="30"/>
+      <c r="H327" s="30"/>
+      <c r="I327" s="30"/>
+      <c r="J327" s="30"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>308</v>
       </c>
-      <c r="B328" s="47" t="s">
+      <c r="B328" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="C328" s="30" t="s">
+      <c r="C328" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D328" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E328" s="8" t="s">
+      <c r="E328" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="F328" s="5" t="s">
+      <c r="F328" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G328" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H328" s="5" t="s">
+      <c r="G328" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H328" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I328" s="8"/>
-      <c r="J328" s="17"/>
+      <c r="I328" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J328" s="14" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="329" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
         <v>309</v>
       </c>
-      <c r="B329" s="48"/>
-      <c r="C329" s="31"/>
-      <c r="D329" s="48"/>
-      <c r="E329" s="8" t="s">
+      <c r="B329" s="51"/>
+      <c r="C329" s="49"/>
+      <c r="D329" s="49"/>
+      <c r="E329" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="F329" s="5" t="s">
+      <c r="F329" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G329" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H329" s="5" t="s">
+      <c r="G329" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H329" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I329" s="8"/>
-      <c r="J329" s="17"/>
+      <c r="I329" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J329" s="14" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="330" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8">
         <v>310</v>
       </c>
-      <c r="B330" s="48"/>
-      <c r="C330" s="31"/>
-      <c r="D330" s="48"/>
-      <c r="E330" s="8" t="s">
+      <c r="B330" s="51"/>
+      <c r="C330" s="49"/>
+      <c r="D330" s="49"/>
+      <c r="E330" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="F330" s="5" t="s">
+      <c r="F330" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G330" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H330" s="5" t="s">
+      <c r="G330" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H330" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I330" s="8"/>
-      <c r="J330" s="17"/>
+      <c r="I330" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J330" s="14" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="331" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
         <v>311</v>
       </c>
-      <c r="B331" s="48"/>
-      <c r="C331" s="31"/>
-      <c r="D331" s="48"/>
-      <c r="E331" s="8" t="s">
+      <c r="B331" s="51"/>
+      <c r="C331" s="49"/>
+      <c r="D331" s="49"/>
+      <c r="E331" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="F331" s="5" t="s">
+      <c r="F331" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G331" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H331" s="5" t="s">
+      <c r="G331" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H331" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I331" s="8"/>
-      <c r="J331" s="17"/>
+      <c r="I331" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J331" s="14" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="332" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8">
         <v>312</v>
       </c>
-      <c r="B332" s="48"/>
-      <c r="C332" s="31"/>
-      <c r="D332" s="48"/>
-      <c r="E332" s="8" t="s">
+      <c r="B332" s="51"/>
+      <c r="C332" s="49"/>
+      <c r="D332" s="49"/>
+      <c r="E332" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="F332" s="5" t="s">
+      <c r="F332" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G332" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H332" s="5" t="s">
+      <c r="G332" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H332" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I332" s="8"/>
-      <c r="J332" s="17"/>
+      <c r="I332" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J332" s="14" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="333" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
         <v>313</v>
       </c>
-      <c r="B333" s="48"/>
-      <c r="C333" s="31"/>
-      <c r="D333" s="48"/>
-      <c r="E333" s="8" t="s">
+      <c r="B333" s="51"/>
+      <c r="C333" s="49"/>
+      <c r="D333" s="49"/>
+      <c r="E333" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="F333" s="5" t="s">
+      <c r="F333" s="29" t="s">
         <v>283</v>
       </c>
-      <c r="G333" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H333" s="5" t="s">
+      <c r="G333" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I333" s="8"/>
-      <c r="J333" s="17"/>
+      <c r="I333" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J333" s="14" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="334" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8">
         <v>314</v>
       </c>
-      <c r="B334" s="48"/>
-      <c r="C334" s="31"/>
-      <c r="D334" s="48"/>
-      <c r="E334" s="8" t="s">
+      <c r="B334" s="51"/>
+      <c r="C334" s="49"/>
+      <c r="D334" s="49"/>
+      <c r="E334" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="F334" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G334" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H334" s="5" t="s">
+      <c r="G334" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H334" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I334" s="8"/>
-      <c r="J334" s="17"/>
+      <c r="I334" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J334" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="335" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
         <v>315</v>
       </c>
-      <c r="B335" s="48"/>
-      <c r="C335" s="31"/>
-      <c r="D335" s="48"/>
-      <c r="E335" s="8" t="s">
+      <c r="B335" s="51"/>
+      <c r="C335" s="49"/>
+      <c r="D335" s="49"/>
+      <c r="E335" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="F335" s="5" t="s">
+      <c r="F335" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G335" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H335" s="5" t="s">
+      <c r="G335" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I335" s="8"/>
-      <c r="J335" s="17"/>
+      <c r="I335" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J335" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="336" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
         <v>316</v>
       </c>
-      <c r="B336" s="48"/>
-      <c r="C336" s="31"/>
-      <c r="D336" s="48"/>
-      <c r="E336" s="8" t="s">
+      <c r="B336" s="51"/>
+      <c r="C336" s="49"/>
+      <c r="D336" s="49"/>
+      <c r="E336" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="F336" s="5" t="s">
+      <c r="F336" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G336" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H336" s="5" t="s">
+      <c r="G336" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I336" s="8"/>
-      <c r="J336" s="17"/>
+      <c r="I336" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J336" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="337" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
         <v>317</v>
       </c>
-      <c r="B337" s="48"/>
-      <c r="C337" s="31"/>
-      <c r="D337" s="48"/>
-      <c r="E337" s="8" t="s">
+      <c r="B337" s="51"/>
+      <c r="C337" s="49"/>
+      <c r="D337" s="49"/>
+      <c r="E337" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="F337" s="5" t="s">
+      <c r="F337" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G337" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H337" s="5" t="s">
+      <c r="G337" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H337" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I337" s="8"/>
-      <c r="J337" s="17"/>
+      <c r="I337" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J337" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="338" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
         <v>318</v>
       </c>
-      <c r="B338" s="48"/>
-      <c r="C338" s="31"/>
-      <c r="D338" s="48"/>
-      <c r="E338" s="8" t="s">
+      <c r="B338" s="51"/>
+      <c r="C338" s="49"/>
+      <c r="D338" s="49"/>
+      <c r="E338" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="F338" s="5" t="s">
+      <c r="F338" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G338" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H338" s="5" t="s">
+      <c r="G338" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H338" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I338" s="8"/>
-      <c r="J338" s="17"/>
+      <c r="I338" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J338" s="14" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="339" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
         <v>319</v>
       </c>
-      <c r="B339" s="48"/>
-      <c r="C339" s="32"/>
-      <c r="D339" s="49"/>
-      <c r="E339" s="8" t="s">
+      <c r="B339" s="51"/>
+      <c r="C339" s="48"/>
+      <c r="D339" s="48"/>
+      <c r="E339" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="F339" s="5" t="s">
+      <c r="F339" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="G339" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H339" s="5" t="s">
+      <c r="G339" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H339" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="I339" s="8"/>
-      <c r="J339" s="17"/>
+      <c r="I339" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J339" s="14" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="340" spans="1:10" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
         <v>320</v>
       </c>
-      <c r="B340" s="48"/>
-      <c r="C340" s="30" t="s">
+      <c r="B340" s="51"/>
+      <c r="C340" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="33" t="s">
+      <c r="D340" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E340" s="8" t="s">
+      <c r="E340" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="F340" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G340" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H340" s="5" t="s">
+      <c r="F340" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G340" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I340" s="8"/>
-      <c r="J340" s="17"/>
+      <c r="I340" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J340" s="14"/>
     </row>
     <row r="341" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
         <v>321</v>
       </c>
-      <c r="B341" s="48"/>
-      <c r="C341" s="31"/>
-      <c r="D341" s="34"/>
-      <c r="E341" s="8" t="s">
+      <c r="B341" s="51"/>
+      <c r="C341" s="49"/>
+      <c r="D341" s="40"/>
+      <c r="E341" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="F341" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G341" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H341" s="5" t="s">
+      <c r="F341" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G341" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H341" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I341" s="8"/>
-      <c r="J341" s="17"/>
+      <c r="I341" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J341" s="14"/>
     </row>
     <row r="342" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
         <v>322</v>
       </c>
-      <c r="B342" s="48"/>
-      <c r="C342" s="31"/>
-      <c r="D342" s="34"/>
-      <c r="E342" s="8" t="s">
+      <c r="B342" s="51"/>
+      <c r="C342" s="49"/>
+      <c r="D342" s="40"/>
+      <c r="E342" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="F342" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G342" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H342" s="5" t="s">
+      <c r="F342" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G342" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I342" s="8"/>
-      <c r="J342" s="17"/>
+      <c r="I342" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J342" s="14"/>
     </row>
     <row r="343" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
         <v>323</v>
       </c>
-      <c r="B343" s="48"/>
-      <c r="C343" s="31"/>
-      <c r="D343" s="34"/>
-      <c r="E343" s="8" t="s">
+      <c r="B343" s="51"/>
+      <c r="C343" s="49"/>
+      <c r="D343" s="40"/>
+      <c r="E343" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="F343" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G343" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H343" s="5" t="s">
+      <c r="F343" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G343" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I343" s="8"/>
-      <c r="J343" s="17"/>
+      <c r="I343" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J343" s="14"/>
     </row>
     <row r="344" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
         <v>324</v>
       </c>
-      <c r="B344" s="48"/>
-      <c r="C344" s="31"/>
-      <c r="D344" s="34"/>
-      <c r="E344" s="8" t="s">
+      <c r="B344" s="51"/>
+      <c r="C344" s="49"/>
+      <c r="D344" s="40"/>
+      <c r="E344" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="F344" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G344" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H344" s="5" t="s">
+      <c r="F344" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G344" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H344" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I344" s="8"/>
-      <c r="J344" s="17"/>
+      <c r="I344" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J344" s="14"/>
     </row>
     <row r="345" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="8">
         <v>325</v>
       </c>
-      <c r="B345" s="48"/>
-      <c r="C345" s="31"/>
-      <c r="D345" s="34"/>
-      <c r="E345" s="8" t="s">
+      <c r="B345" s="51"/>
+      <c r="C345" s="49"/>
+      <c r="D345" s="40"/>
+      <c r="E345" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="F345" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G345" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H345" s="5" t="s">
+      <c r="F345" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G345" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H345" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I345" s="8"/>
-      <c r="J345" s="17"/>
+      <c r="I345" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J345" s="14"/>
     </row>
     <row r="346" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
         <v>326</v>
       </c>
-      <c r="B346" s="48"/>
-      <c r="C346" s="31"/>
-      <c r="D346" s="34"/>
-      <c r="E346" s="8" t="s">
+      <c r="B346" s="51"/>
+      <c r="C346" s="49"/>
+      <c r="D346" s="40"/>
+      <c r="E346" s="29" t="s">
         <v>506</v>
       </c>
-      <c r="F346" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G346" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H346" s="5" t="s">
+      <c r="F346" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G346" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I346" s="8"/>
-      <c r="J346" s="17"/>
+      <c r="I346" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J346" s="14"/>
     </row>
     <row r="347" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
         <v>327</v>
       </c>
-      <c r="B347" s="48"/>
-      <c r="C347" s="32"/>
-      <c r="D347" s="35"/>
-      <c r="E347" s="8" t="s">
+      <c r="B347" s="51"/>
+      <c r="C347" s="48"/>
+      <c r="D347" s="41"/>
+      <c r="E347" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="F347" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G347" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H347" s="5" t="s">
+      <c r="F347" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G347" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I347" s="8"/>
-      <c r="J347" s="17"/>
+      <c r="I347" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J347" s="14"/>
     </row>
     <row r="348" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
         <v>328</v>
       </c>
-      <c r="B348" s="48"/>
-      <c r="C348" s="30" t="s">
+      <c r="B348" s="51"/>
+      <c r="C348" s="33" t="s">
         <v>466</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="E348" s="30" t="s">
+      <c r="E348" s="33" t="s">
         <v>512</v>
       </c>
-      <c r="F348" s="30" t="s">
+      <c r="F348" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="G348" s="33" t="s">
+      <c r="G348" s="36" t="s">
         <v>508</v>
       </c>
       <c r="H348" s="5" t="s">
@@ -10730,14 +11290,14 @@
       <c r="A349" s="8">
         <v>329</v>
       </c>
-      <c r="B349" s="48"/>
-      <c r="C349" s="31"/>
+      <c r="B349" s="51"/>
+      <c r="C349" s="34"/>
       <c r="D349" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="E349" s="31"/>
-      <c r="F349" s="31"/>
-      <c r="G349" s="34"/>
+      <c r="E349" s="34"/>
+      <c r="F349" s="34"/>
+      <c r="G349" s="37"/>
       <c r="H349" s="5" t="s">
         <v>510</v>
       </c>
@@ -10748,14 +11308,14 @@
       <c r="A350" s="8">
         <v>330</v>
       </c>
-      <c r="B350" s="48"/>
-      <c r="C350" s="31"/>
+      <c r="B350" s="51"/>
+      <c r="C350" s="34"/>
       <c r="D350" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E350" s="31"/>
-      <c r="F350" s="31"/>
-      <c r="G350" s="34"/>
+      <c r="E350" s="34"/>
+      <c r="F350" s="34"/>
+      <c r="G350" s="37"/>
       <c r="H350" s="5" t="s">
         <v>511</v>
       </c>
@@ -10766,14 +11326,14 @@
       <c r="A351" s="8">
         <v>331</v>
       </c>
-      <c r="B351" s="48"/>
-      <c r="C351" s="31"/>
+      <c r="B351" s="51"/>
+      <c r="C351" s="34"/>
       <c r="D351" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="E351" s="31"/>
-      <c r="F351" s="31"/>
-      <c r="G351" s="34"/>
+      <c r="E351" s="34"/>
+      <c r="F351" s="34"/>
+      <c r="G351" s="37"/>
       <c r="H351" s="5" t="s">
         <v>510</v>
       </c>
@@ -10784,14 +11344,14 @@
       <c r="A352" s="8">
         <v>332</v>
       </c>
-      <c r="B352" s="49"/>
-      <c r="C352" s="32"/>
+      <c r="B352" s="52"/>
+      <c r="C352" s="35"/>
       <c r="D352" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="E352" s="32"/>
-      <c r="F352" s="32"/>
-      <c r="G352" s="35"/>
+      <c r="E352" s="35"/>
+      <c r="F352" s="35"/>
+      <c r="G352" s="38"/>
       <c r="H352" s="5" t="s">
         <v>515</v>
       </c>
@@ -10799,18 +11359,18 @@
       <c r="J352" s="15"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A353" s="27" t="s">
+      <c r="A353" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="B353" s="27"/>
-      <c r="C353" s="27"/>
-      <c r="D353" s="27"/>
-      <c r="E353" s="27"/>
-      <c r="F353" s="27"/>
-      <c r="G353" s="27"/>
-      <c r="H353" s="27"/>
-      <c r="I353" s="27"/>
-      <c r="J353" s="27"/>
+      <c r="B353" s="30"/>
+      <c r="C353" s="30"/>
+      <c r="D353" s="30"/>
+      <c r="E353" s="30"/>
+      <c r="F353" s="30"/>
+      <c r="G353" s="30"/>
+      <c r="H353" s="30"/>
+      <c r="I353" s="30"/>
+      <c r="J353" s="30"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="5"/>
@@ -10838,11 +11398,11 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="5"/>
-      <c r="B356" s="50" t="s">
+      <c r="B356" s="53" t="s">
         <v>517</v>
       </c>
-      <c r="C356" s="52"/>
-      <c r="D356" s="51"/>
+      <c r="C356" s="55"/>
+      <c r="D356" s="54"/>
       <c r="E356" s="5"/>
       <c r="F356" s="5"/>
       <c r="G356" s="5"/>
@@ -10861,10 +11421,10 @@
       <c r="D357" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="E357" s="50" t="s">
+      <c r="E357" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="F357" s="51"/>
+      <c r="F357" s="54"/>
       <c r="G357" s="5"/>
       <c r="H357" s="5"/>
       <c r="I357" s="5"/>
@@ -11041,8 +11601,7 @@
       <c r="J367" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
-    <mergeCell ref="F348:F352"/>
+  <mergeCells count="126">
     <mergeCell ref="G348:G352"/>
     <mergeCell ref="A353:J353"/>
     <mergeCell ref="C348:C352"/>
@@ -11065,7 +11624,6 @@
     <mergeCell ref="D133:D148"/>
     <mergeCell ref="C133:C148"/>
     <mergeCell ref="A151:J151"/>
-    <mergeCell ref="B149:B150"/>
     <mergeCell ref="B116:B125"/>
     <mergeCell ref="A126:J126"/>
     <mergeCell ref="C122:C124"/>
@@ -11077,6 +11635,7 @@
     <mergeCell ref="B152:B164"/>
     <mergeCell ref="C160:C161"/>
     <mergeCell ref="A165:J165"/>
+    <mergeCell ref="F348:F352"/>
     <mergeCell ref="C2:C32"/>
     <mergeCell ref="D66:D72"/>
     <mergeCell ref="C66:C72"/>
@@ -11196,18 +11755,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11523,18 +12082,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -11850,18 +12409,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -12177,18 +12736,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="56"/>
+      <c r="E1" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54" t="s">
+      <c r="F1" s="56"/>
+      <c r="G1" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="H1" s="55"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="577">
   <si>
     <t>Test Türü</t>
   </si>
@@ -2631,9 +2631,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H349" sqref="H349"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A332" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H356" sqref="H356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,9 +2642,9 @@
     <col min="2" max="2" width="31" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="6" customWidth="1"/>
     <col min="10" max="10" width="36.7109375" style="17" customWidth="1"/>
@@ -11265,98 +11265,108 @@
         <v>328</v>
       </c>
       <c r="B348" s="51"/>
-      <c r="C348" s="33" t="s">
+      <c r="C348" s="47" t="s">
         <v>466</v>
       </c>
-      <c r="D348" s="5" t="s">
+      <c r="D348" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="E348" s="33" t="s">
+      <c r="E348" s="47" t="s">
         <v>512</v>
       </c>
-      <c r="F348" s="33" t="s">
+      <c r="F348" s="47" t="s">
         <v>469</v>
       </c>
-      <c r="G348" s="36" t="s">
+      <c r="G348" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="H348" s="5" t="s">
+      <c r="H348" s="29" t="s">
         <v>509</v>
       </c>
-      <c r="I348" s="5"/>
-      <c r="J348" s="15"/>
+      <c r="I348" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J348" s="14"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="8">
         <v>329</v>
       </c>
       <c r="B349" s="51"/>
-      <c r="C349" s="34"/>
-      <c r="D349" s="5" t="s">
+      <c r="C349" s="49"/>
+      <c r="D349" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="E349" s="34"/>
-      <c r="F349" s="34"/>
-      <c r="G349" s="37"/>
-      <c r="H349" s="5" t="s">
+      <c r="E349" s="49"/>
+      <c r="F349" s="49"/>
+      <c r="G349" s="40"/>
+      <c r="H349" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="I349" s="5"/>
-      <c r="J349" s="15"/>
+      <c r="I349" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J349" s="14"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
         <v>330</v>
       </c>
       <c r="B350" s="51"/>
-      <c r="C350" s="34"/>
-      <c r="D350" s="5" t="s">
+      <c r="C350" s="49"/>
+      <c r="D350" s="29" t="s">
         <v>484</v>
       </c>
-      <c r="E350" s="34"/>
-      <c r="F350" s="34"/>
-      <c r="G350" s="37"/>
-      <c r="H350" s="5" t="s">
+      <c r="E350" s="49"/>
+      <c r="F350" s="49"/>
+      <c r="G350" s="40"/>
+      <c r="H350" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="I350" s="5"/>
-      <c r="J350" s="15"/>
+      <c r="I350" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J350" s="14"/>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
         <v>331</v>
       </c>
       <c r="B351" s="51"/>
-      <c r="C351" s="34"/>
-      <c r="D351" s="5" t="s">
+      <c r="C351" s="49"/>
+      <c r="D351" s="29" t="s">
         <v>513</v>
       </c>
-      <c r="E351" s="34"/>
-      <c r="F351" s="34"/>
-      <c r="G351" s="37"/>
-      <c r="H351" s="5" t="s">
+      <c r="E351" s="49"/>
+      <c r="F351" s="49"/>
+      <c r="G351" s="40"/>
+      <c r="H351" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="I351" s="5"/>
-      <c r="J351" s="15"/>
+      <c r="I351" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J351" s="14"/>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>332</v>
       </c>
       <c r="B352" s="52"/>
-      <c r="C352" s="35"/>
-      <c r="D352" s="5" t="s">
+      <c r="C352" s="48"/>
+      <c r="D352" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="E352" s="35"/>
-      <c r="F352" s="35"/>
-      <c r="G352" s="38"/>
-      <c r="H352" s="5" t="s">
+      <c r="E352" s="48"/>
+      <c r="F352" s="48"/>
+      <c r="G352" s="41"/>
+      <c r="H352" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="I352" s="5"/>
-      <c r="J352" s="15"/>
+      <c r="I352" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J352" s="14"/>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="30" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Voltage-M1" sheetId="2" r:id="rId2"/>
-    <sheet name="Voltage-M3" sheetId="6" r:id="rId3"/>
-    <sheet name="Voltage-M2" sheetId="7" r:id="rId4"/>
-    <sheet name="Voltage-M4" sheetId="8" r:id="rId5"/>
-    <sheet name="Voltage-M2-old" sheetId="4" r:id="rId6"/>
-    <sheet name="Voltage-M3-old" sheetId="3" r:id="rId7"/>
-    <sheet name="Voltage-M4-old" sheetId="5" r:id="rId8"/>
+    <sheet name="Flyback Yük" sheetId="9" r:id="rId2"/>
+    <sheet name="Voltage-M1" sheetId="2" r:id="rId3"/>
+    <sheet name="Voltage-M3" sheetId="6" r:id="rId4"/>
+    <sheet name="Voltage-M2" sheetId="7" r:id="rId5"/>
+    <sheet name="Voltage-M4" sheetId="8" r:id="rId6"/>
+    <sheet name="Voltage-M2-old" sheetId="4" r:id="rId7"/>
+    <sheet name="Voltage-M3-old" sheetId="3" r:id="rId8"/>
+    <sheet name="Voltage-M4-old" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2219" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="653">
   <si>
     <t>Test Türü</t>
   </si>
@@ -2167,6 +2168,63 @@
   <si>
     <t>VoutDC2 (TP5 GND)-Multimetre</t>
   </si>
+  <si>
+    <t>Giriş: 15V</t>
+  </si>
+  <si>
+    <t>Yük</t>
+  </si>
+  <si>
+    <t>Boş</t>
+  </si>
+  <si>
+    <t>Akım (A)</t>
+  </si>
+  <si>
+    <t>Güç (W)</t>
+  </si>
+  <si>
+    <t>*Fanlar fan konektörüne takılmıştır</t>
+  </si>
+  <si>
+    <t>2Fan+1Yük</t>
+  </si>
+  <si>
+    <t>2Fan</t>
+  </si>
+  <si>
+    <t>1Fan</t>
+  </si>
+  <si>
+    <t>2Fan+2Yük</t>
+  </si>
+  <si>
+    <t>2Fan+3Yük</t>
+  </si>
+  <si>
+    <t>2*yük</t>
+  </si>
+  <si>
+    <t>3*yük</t>
+  </si>
+  <si>
+    <t>2Fan+4Yük</t>
+  </si>
+  <si>
+    <t>2Fan+7Yük</t>
+  </si>
+  <si>
+    <t>1*Fan</t>
+  </si>
+  <si>
+    <t>1*yük</t>
+  </si>
+  <si>
+    <t>Yeni yük</t>
+  </si>
+  <si>
+    <t>Eski yük</t>
+  </si>
 </sst>
 </file>
 
@@ -2176,7 +2234,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2221,6 +2279,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2373,7 +2439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2495,13 +2561,34 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2513,14 +2600,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2540,48 +2636,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2864,9 +2944,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D315" sqref="D315:D320"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E366" sqref="E366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,10 +2999,10 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="51" t="s">
@@ -2949,8 +3029,8 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="52"/>
       <c r="E3" s="10" t="s">
         <v>516</v>
@@ -2973,8 +3053,8 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="52"/>
       <c r="E4" s="10" t="s">
         <v>517</v>
@@ -2997,8 +3077,8 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="49"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="52"/>
       <c r="E5" s="10" t="s">
         <v>404</v>
@@ -3021,8 +3101,8 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="52"/>
       <c r="E6" s="10" t="s">
         <v>405</v>
@@ -3045,8 +3125,8 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="52"/>
       <c r="E7" s="10" t="s">
         <v>406</v>
@@ -3069,8 +3149,8 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="52"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
@@ -3093,8 +3173,8 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="52"/>
       <c r="E9" s="10" t="s">
         <v>407</v>
@@ -3117,8 +3197,8 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="49"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="52"/>
       <c r="E10" s="10" t="s">
         <v>408</v>
@@ -3141,8 +3221,8 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="52"/>
       <c r="E11" s="10" t="s">
         <v>409</v>
@@ -3165,8 +3245,8 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="49"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="52"/>
       <c r="E12" s="10" t="s">
         <v>410</v>
@@ -3189,8 +3269,8 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="52"/>
       <c r="E13" s="10" t="s">
         <v>421</v>
@@ -3213,8 +3293,8 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="52"/>
       <c r="E14" s="10" t="s">
         <v>411</v>
@@ -3237,8 +3317,8 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="49"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="52"/>
       <c r="E15" s="10" t="s">
         <v>412</v>
@@ -3261,8 +3341,8 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="49"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="52"/>
       <c r="E16" s="10" t="s">
         <v>422</v>
@@ -3285,8 +3365,8 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="52"/>
       <c r="E17" s="10" t="s">
         <v>413</v>
@@ -3309,8 +3389,8 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="49"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="52"/>
       <c r="E18" s="10" t="s">
         <v>414</v>
@@ -3333,8 +3413,8 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="52"/>
       <c r="E19" s="10" t="s">
         <v>415</v>
@@ -3357,8 +3437,8 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="52"/>
       <c r="E20" s="10" t="s">
         <v>416</v>
@@ -3381,8 +3461,8 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="52"/>
       <c r="E21" s="10" t="s">
         <v>417</v>
@@ -3405,8 +3485,8 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="56"/>
       <c r="D22" s="52"/>
       <c r="E22" s="10" t="s">
         <v>418</v>
@@ -3429,8 +3509,8 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="52"/>
       <c r="E23" s="10" t="s">
         <v>419</v>
@@ -3453,8 +3533,8 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="52"/>
       <c r="E24" s="10" t="s">
         <v>423</v>
@@ -3477,8 +3557,8 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="52"/>
       <c r="E25" s="10" t="s">
         <v>424</v>
@@ -3501,8 +3581,8 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="52"/>
       <c r="E26" s="10" t="s">
         <v>425</v>
@@ -3525,8 +3605,8 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="52"/>
       <c r="E27" s="10" t="s">
         <v>426</v>
@@ -3549,8 +3629,8 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="49"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="52"/>
       <c r="E28" s="10" t="s">
         <v>427</v>
@@ -3573,8 +3653,8 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="49"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="52"/>
       <c r="E29" s="10" t="s">
         <v>428</v>
@@ -3597,8 +3677,8 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="52"/>
       <c r="E30" s="10" t="s">
         <v>429</v>
@@ -3621,8 +3701,8 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="52"/>
       <c r="E31" s="10" t="s">
         <v>430</v>
@@ -3645,8 +3725,8 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="50"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="53"/>
       <c r="E32" s="10" t="s">
         <v>431</v>
@@ -3669,11 +3749,11 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="62" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -3697,9 +3777,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="29" t="s">
         <v>22</v>
       </c>
@@ -3723,9 +3803,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="29" t="s">
         <v>23</v>
       </c>
@@ -3749,8 +3829,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="29" t="s">
         <v>63</v>
       </c>
@@ -3775,7 +3855,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="46"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="11" t="s">
         <v>118</v>
       </c>
@@ -3805,7 +3885,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="46"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +3915,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="46"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="29" t="s">
         <v>57</v>
       </c>
@@ -3862,30 +3942,30 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D41" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -3909,9 +3989,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -3933,9 +4013,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -3957,9 +4037,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -3981,9 +4061,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -4005,9 +4085,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -4029,9 +4109,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -4053,9 +4133,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -4077,11 +4157,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="47" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="62" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -4105,9 +4185,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -4129,9 +4209,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -4153,9 +4233,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -4177,13 +4257,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B53" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D53" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -4207,9 +4287,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -4231,9 +4311,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -4255,9 +4335,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -4279,9 +4359,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -4303,9 +4383,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -4327,9 +4407,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -4351,9 +4431,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="46"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -4375,11 +4455,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47" t="s">
+      <c r="B61" s="62"/>
+      <c r="C61" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="61" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -4403,9 +4483,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -4427,9 +4507,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -4451,9 +4531,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -4472,27 +4552,27 @@
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C66" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D66" s="51" t="s">
@@ -4519,8 +4599,8 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="52"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
@@ -4543,8 +4623,8 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="49"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="52"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
@@ -4567,8 +4647,8 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="49"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="52"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
@@ -4591,8 +4671,8 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="52"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
@@ -4615,8 +4695,8 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="52"/>
       <c r="E71" s="10" t="s">
         <v>432</v>
@@ -4639,8 +4719,8 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="53"/>
       <c r="E72" s="10" t="s">
         <v>433</v>
@@ -4663,8 +4743,8 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="47"/>
-      <c r="C73" s="48" t="s">
+      <c r="B73" s="61"/>
+      <c r="C73" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -4693,8 +4773,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="50"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="57"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
@@ -4721,7 +4801,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="47"/>
+      <c r="B75" s="61"/>
       <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
@@ -4751,7 +4831,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="47"/>
+      <c r="B76" s="61"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -4781,7 +4861,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="47"/>
+      <c r="B77" s="61"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -4808,27 +4888,27 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="60" t="s">
+      <c r="A78" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="48" t="s">
+      <c r="C79" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D79" s="51" t="s">
@@ -4855,8 +4935,8 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="49"/>
+      <c r="B80" s="61"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="52"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
@@ -4879,8 +4959,8 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="49"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="52"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
@@ -4903,8 +4983,8 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="49"/>
+      <c r="B82" s="61"/>
+      <c r="C82" s="56"/>
       <c r="D82" s="52"/>
       <c r="E82" s="10" t="s">
         <v>434</v>
@@ -4927,8 +5007,8 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="49"/>
+      <c r="B83" s="61"/>
+      <c r="C83" s="56"/>
       <c r="D83" s="52"/>
       <c r="E83" s="10" t="s">
         <v>435</v>
@@ -4951,8 +5031,8 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="50"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="57"/>
       <c r="D84" s="53"/>
       <c r="E84" s="10" t="s">
         <v>436</v>
@@ -4975,8 +5055,8 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="48" t="s">
+      <c r="B85" s="61"/>
+      <c r="C85" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -5005,8 +5085,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="50"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="57"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
@@ -5033,7 +5113,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="47"/>
+      <c r="B87" s="61"/>
       <c r="C87" s="11" t="s">
         <v>118</v>
       </c>
@@ -5063,7 +5143,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="47"/>
+      <c r="B88" s="61"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -5093,7 +5173,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="47"/>
+      <c r="B89" s="61"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -5120,27 +5200,27 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="60"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="60"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="60"/>
-      <c r="J90" s="60"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="54"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="47" t="s">
+      <c r="B91" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C91" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="51" t="s">
@@ -5167,8 +5247,8 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="47"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="56"/>
       <c r="D92" s="52"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
@@ -5191,8 +5271,8 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="49"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="56"/>
       <c r="D93" s="52"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
@@ -5215,8 +5295,8 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="47"/>
-      <c r="C94" s="49"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="52"/>
       <c r="E94" s="10" t="s">
         <v>437</v>
@@ -5239,8 +5319,8 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="49"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="52"/>
       <c r="E95" s="10" t="s">
         <v>438</v>
@@ -5263,8 +5343,8 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="47"/>
-      <c r="C96" s="50"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="57"/>
       <c r="D96" s="53"/>
       <c r="E96" s="10" t="s">
         <v>439</v>
@@ -5287,8 +5367,8 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="47"/>
-      <c r="C97" s="48" t="s">
+      <c r="B97" s="61"/>
+      <c r="C97" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -5317,8 +5397,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="47"/>
-      <c r="C98" s="50"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="57"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
       </c>
@@ -5345,7 +5425,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="47"/>
+      <c r="B99" s="61"/>
       <c r="C99" s="11" t="s">
         <v>118</v>
       </c>
@@ -5375,7 +5455,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="47"/>
+      <c r="B100" s="61"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -5405,7 +5485,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="47"/>
+      <c r="B101" s="61"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -5432,27 +5512,27 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="60" t="s">
+      <c r="A102" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="60"/>
-      <c r="J102" s="60"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="54"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="54"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="48" t="s">
+      <c r="C103" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D103" s="51" t="s">
@@ -5479,8 +5559,8 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="47"/>
-      <c r="C104" s="49"/>
+      <c r="B104" s="61"/>
+      <c r="C104" s="56"/>
       <c r="D104" s="52"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
@@ -5503,8 +5583,8 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="47"/>
-      <c r="C105" s="49"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="56"/>
       <c r="D105" s="52"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
@@ -5527,8 +5607,8 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="47"/>
-      <c r="C106" s="49"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="56"/>
       <c r="D106" s="52"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
@@ -5551,8 +5631,8 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="47"/>
-      <c r="C107" s="49"/>
+      <c r="B107" s="61"/>
+      <c r="C107" s="56"/>
       <c r="D107" s="52"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
@@ -5575,8 +5655,8 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="47"/>
-      <c r="C108" s="49"/>
+      <c r="B108" s="61"/>
+      <c r="C108" s="56"/>
       <c r="D108" s="52"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
@@ -5599,8 +5679,8 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="47"/>
-      <c r="C109" s="49"/>
+      <c r="B109" s="61"/>
+      <c r="C109" s="56"/>
       <c r="D109" s="52"/>
       <c r="E109" s="10" t="s">
         <v>440</v>
@@ -5623,8 +5703,8 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="47"/>
-      <c r="C110" s="50"/>
+      <c r="B110" s="61"/>
+      <c r="C110" s="57"/>
       <c r="D110" s="53"/>
       <c r="E110" s="10" t="s">
         <v>441</v>
@@ -5647,8 +5727,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="47"/>
-      <c r="C111" s="47" t="s">
+      <c r="B111" s="61"/>
+      <c r="C111" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -5677,8 +5757,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="47"/>
-      <c r="C112" s="47"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -5705,8 +5785,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="47"/>
-      <c r="C113" s="47"/>
+      <c r="B113" s="61"/>
+      <c r="C113" s="61"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -5731,7 +5811,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="47"/>
+      <c r="B114" s="61"/>
       <c r="C114" s="11" t="s">
         <v>118</v>
       </c>
@@ -5758,27 +5838,27 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="60"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="60"/>
-      <c r="H115" s="60"/>
-      <c r="I115" s="60"/>
-      <c r="J115" s="60"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54"/>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D116" s="51" t="s">
@@ -5805,8 +5885,8 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="47"/>
-      <c r="C117" s="49"/>
+      <c r="B117" s="61"/>
+      <c r="C117" s="56"/>
       <c r="D117" s="52"/>
       <c r="E117" s="12" t="s">
         <v>128</v>
@@ -5829,8 +5909,8 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="47"/>
-      <c r="C118" s="49"/>
+      <c r="B118" s="61"/>
+      <c r="C118" s="56"/>
       <c r="D118" s="52"/>
       <c r="E118" s="12" t="s">
         <v>442</v>
@@ -5853,8 +5933,8 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="47"/>
-      <c r="C119" s="49"/>
+      <c r="B119" s="61"/>
+      <c r="C119" s="56"/>
       <c r="D119" s="52"/>
       <c r="E119" s="12" t="s">
         <v>129</v>
@@ -5879,8 +5959,8 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="47"/>
-      <c r="C120" s="49"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="56"/>
       <c r="D120" s="52"/>
       <c r="E120" s="12" t="s">
         <v>443</v>
@@ -5903,8 +5983,8 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="47"/>
-      <c r="C121" s="50"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="53"/>
       <c r="E121" s="12" t="s">
         <v>444</v>
@@ -5927,8 +6007,8 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="48" t="s">
+      <c r="B122" s="61"/>
+      <c r="C122" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="12" t="s">
@@ -5957,8 +6037,8 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="47"/>
-      <c r="C123" s="49"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="56"/>
       <c r="D123" s="12" t="s">
         <v>63</v>
       </c>
@@ -5985,8 +6065,8 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="47"/>
-      <c r="C124" s="50"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="57"/>
       <c r="D124" s="12" t="s">
         <v>65</v>
       </c>
@@ -6013,7 +6093,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="47"/>
+      <c r="B125" s="61"/>
       <c r="C125" s="12" t="s">
         <v>57</v>
       </c>
@@ -6040,18 +6120,18 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="60" t="s">
+      <c r="A126" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="60"/>
-      <c r="J126" s="60"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
@@ -6060,7 +6140,7 @@
       <c r="B127" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="48" t="s">
+      <c r="C127" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D127" s="51" t="s">
@@ -6088,7 +6168,7 @@
         <v>120</v>
       </c>
       <c r="B128" s="52"/>
-      <c r="C128" s="49"/>
+      <c r="C128" s="56"/>
       <c r="D128" s="52"/>
       <c r="E128" s="23" t="s">
         <v>145</v>
@@ -6112,7 +6192,7 @@
         <v>121</v>
       </c>
       <c r="B129" s="52"/>
-      <c r="C129" s="49"/>
+      <c r="C129" s="56"/>
       <c r="D129" s="52"/>
       <c r="E129" s="23" t="s">
         <v>148</v>
@@ -6136,7 +6216,7 @@
         <v>122</v>
       </c>
       <c r="B130" s="52"/>
-      <c r="C130" s="49"/>
+      <c r="C130" s="56"/>
       <c r="D130" s="52"/>
       <c r="E130" s="23" t="s">
         <v>445</v>
@@ -6160,7 +6240,7 @@
         <v>123</v>
       </c>
       <c r="B131" s="52"/>
-      <c r="C131" s="49"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="52"/>
       <c r="E131" s="23" t="s">
         <v>154</v>
@@ -6184,7 +6264,7 @@
         <v>124</v>
       </c>
       <c r="B132" s="52"/>
-      <c r="C132" s="50"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="53"/>
       <c r="E132" s="23" t="s">
         <v>446</v>
@@ -6208,10 +6288,10 @@
         <v>125</v>
       </c>
       <c r="B133" s="52"/>
-      <c r="C133" s="48" t="s">
+      <c r="C133" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="48" t="s">
+      <c r="D133" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E133" s="23" t="s">
@@ -6238,8 +6318,8 @@
         <v>126</v>
       </c>
       <c r="B134" s="52"/>
-      <c r="C134" s="49"/>
-      <c r="D134" s="49"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="56"/>
       <c r="E134" s="23" t="s">
         <v>145</v>
       </c>
@@ -6264,8 +6344,8 @@
         <v>127</v>
       </c>
       <c r="B135" s="52"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
+      <c r="C135" s="56"/>
+      <c r="D135" s="56"/>
       <c r="E135" s="23" t="s">
         <v>148</v>
       </c>
@@ -6290,8 +6370,8 @@
         <v>128</v>
       </c>
       <c r="B136" s="52"/>
-      <c r="C136" s="49"/>
-      <c r="D136" s="49"/>
+      <c r="C136" s="56"/>
+      <c r="D136" s="56"/>
       <c r="E136" s="23" t="s">
         <v>154</v>
       </c>
@@ -6316,8 +6396,8 @@
         <v>129</v>
       </c>
       <c r="B137" s="52"/>
-      <c r="C137" s="49"/>
-      <c r="D137" s="49"/>
+      <c r="C137" s="56"/>
+      <c r="D137" s="56"/>
       <c r="E137" s="23" t="s">
         <v>446</v>
       </c>
@@ -6342,8 +6422,8 @@
         <v>130</v>
       </c>
       <c r="B138" s="52"/>
-      <c r="C138" s="49"/>
-      <c r="D138" s="49"/>
+      <c r="C138" s="56"/>
+      <c r="D138" s="56"/>
       <c r="E138" s="23" t="s">
         <v>447</v>
       </c>
@@ -6368,8 +6448,8 @@
         <v>131</v>
       </c>
       <c r="B139" s="52"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
+      <c r="C139" s="56"/>
+      <c r="D139" s="56"/>
       <c r="E139" s="23" t="s">
         <v>157</v>
       </c>
@@ -6394,8 +6474,8 @@
         <v>132</v>
       </c>
       <c r="B140" s="52"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="49"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="56"/>
       <c r="E140" s="23" t="s">
         <v>162</v>
       </c>
@@ -6420,8 +6500,8 @@
         <v>133</v>
       </c>
       <c r="B141" s="52"/>
-      <c r="C141" s="49"/>
-      <c r="D141" s="49"/>
+      <c r="C141" s="56"/>
+      <c r="D141" s="56"/>
       <c r="E141" s="23" t="s">
         <v>160</v>
       </c>
@@ -6446,8 +6526,8 @@
         <v>134</v>
       </c>
       <c r="B142" s="52"/>
-      <c r="C142" s="49"/>
-      <c r="D142" s="49"/>
+      <c r="C142" s="56"/>
+      <c r="D142" s="56"/>
       <c r="E142" s="23" t="s">
         <v>165</v>
       </c>
@@ -6472,8 +6552,8 @@
         <v>135</v>
       </c>
       <c r="B143" s="52"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="49"/>
+      <c r="C143" s="56"/>
+      <c r="D143" s="56"/>
       <c r="E143" s="22" t="s">
         <v>186</v>
       </c>
@@ -6498,8 +6578,8 @@
         <v>136</v>
       </c>
       <c r="B144" s="52"/>
-      <c r="C144" s="49"/>
-      <c r="D144" s="49"/>
+      <c r="C144" s="56"/>
+      <c r="D144" s="56"/>
       <c r="E144" s="22" t="s">
         <v>186</v>
       </c>
@@ -6524,8 +6604,8 @@
         <v>137</v>
       </c>
       <c r="B145" s="52"/>
-      <c r="C145" s="49"/>
-      <c r="D145" s="49"/>
+      <c r="C145" s="56"/>
+      <c r="D145" s="56"/>
       <c r="E145" s="23" t="s">
         <v>187</v>
       </c>
@@ -6550,8 +6630,8 @@
         <v>138</v>
       </c>
       <c r="B146" s="52"/>
-      <c r="C146" s="49"/>
-      <c r="D146" s="49"/>
+      <c r="C146" s="56"/>
+      <c r="D146" s="56"/>
       <c r="E146" s="23" t="s">
         <v>187</v>
       </c>
@@ -6576,8 +6656,8 @@
         <v>139</v>
       </c>
       <c r="B147" s="52"/>
-      <c r="C147" s="49"/>
-      <c r="D147" s="49"/>
+      <c r="C147" s="56"/>
+      <c r="D147" s="56"/>
       <c r="E147" s="23" t="s">
         <v>188</v>
       </c>
@@ -6602,8 +6682,8 @@
         <v>140</v>
       </c>
       <c r="B148" s="53"/>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
+      <c r="C148" s="57"/>
+      <c r="D148" s="57"/>
       <c r="E148" s="23" t="s">
         <v>188</v>
       </c>
@@ -6682,27 +6762,27 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="60" t="s">
+      <c r="A151" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="60"/>
-      <c r="C151" s="60"/>
-      <c r="D151" s="60"/>
-      <c r="E151" s="60"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="60"/>
-      <c r="H151" s="60"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="60"/>
+      <c r="B151" s="54"/>
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="54"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="48" t="s">
+      <c r="B152" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="48" t="s">
+      <c r="C152" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D152" s="51" t="s">
@@ -6729,8 +6809,8 @@
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="49"/>
-      <c r="C153" s="49"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="56"/>
       <c r="D153" s="52"/>
       <c r="E153" s="26" t="s">
         <v>191</v>
@@ -6753,8 +6833,8 @@
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="49"/>
-      <c r="C154" s="49"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="56"/>
       <c r="D154" s="52"/>
       <c r="E154" s="26" t="s">
         <v>192</v>
@@ -6777,8 +6857,8 @@
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="49"/>
-      <c r="C155" s="49"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="56"/>
       <c r="D155" s="52"/>
       <c r="E155" s="26" t="s">
         <v>193</v>
@@ -6801,8 +6881,8 @@
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="49"/>
-      <c r="C156" s="49"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="56"/>
       <c r="D156" s="52"/>
       <c r="E156" s="26" t="s">
         <v>194</v>
@@ -6825,8 +6905,8 @@
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="49"/>
-      <c r="C157" s="49"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="56"/>
       <c r="D157" s="52"/>
       <c r="E157" s="26" t="s">
         <v>448</v>
@@ -6849,8 +6929,8 @@
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="49"/>
-      <c r="C158" s="49"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="56"/>
       <c r="D158" s="52"/>
       <c r="E158" s="26" t="s">
         <v>449</v>
@@ -6873,8 +6953,8 @@
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="49"/>
-      <c r="C159" s="50"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="57"/>
       <c r="D159" s="53"/>
       <c r="E159" s="26" t="s">
         <v>450</v>
@@ -6897,8 +6977,8 @@
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="49"/>
-      <c r="C160" s="48" t="s">
+      <c r="B160" s="56"/>
+      <c r="C160" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="26" t="s">
@@ -6927,8 +7007,8 @@
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="49"/>
-      <c r="C161" s="50"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="26" t="s">
         <v>63</v>
       </c>
@@ -6955,7 +7035,7 @@
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="49"/>
+      <c r="B162" s="56"/>
       <c r="C162" s="29" t="s">
         <v>118</v>
       </c>
@@ -6983,7 +7063,7 @@
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="49"/>
+      <c r="B163" s="56"/>
       <c r="C163" s="28" t="s">
         <v>12</v>
       </c>
@@ -7013,7 +7093,7 @@
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="50"/>
+      <c r="B164" s="57"/>
       <c r="C164" s="28" t="s">
         <v>57</v>
       </c>
@@ -7040,27 +7120,27 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="60" t="s">
+      <c r="A165" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="60"/>
-      <c r="C165" s="60"/>
-      <c r="D165" s="60"/>
-      <c r="E165" s="60"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
-      <c r="I165" s="60"/>
-      <c r="J165" s="60"/>
+      <c r="B165" s="54"/>
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54"/>
+      <c r="I165" s="54"/>
+      <c r="J165" s="54"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="47" t="s">
+      <c r="B166" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="48" t="s">
+      <c r="C166" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D166" s="51" t="s">
@@ -7087,8 +7167,8 @@
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="47"/>
-      <c r="C167" s="49"/>
+      <c r="B167" s="61"/>
+      <c r="C167" s="56"/>
       <c r="D167" s="52"/>
       <c r="E167" s="28" t="s">
         <v>205</v>
@@ -7111,8 +7191,8 @@
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="47"/>
-      <c r="C168" s="49"/>
+      <c r="B168" s="61"/>
+      <c r="C168" s="56"/>
       <c r="D168" s="52"/>
       <c r="E168" s="28" t="s">
         <v>206</v>
@@ -7135,8 +7215,8 @@
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="47"/>
-      <c r="C169" s="49"/>
+      <c r="B169" s="61"/>
+      <c r="C169" s="56"/>
       <c r="D169" s="52"/>
       <c r="E169" s="28" t="s">
         <v>207</v>
@@ -7159,8 +7239,8 @@
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="47"/>
-      <c r="C170" s="49"/>
+      <c r="B170" s="61"/>
+      <c r="C170" s="56"/>
       <c r="D170" s="52"/>
       <c r="E170" s="28" t="s">
         <v>208</v>
@@ -7183,8 +7263,8 @@
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="47"/>
-      <c r="C171" s="49"/>
+      <c r="B171" s="61"/>
+      <c r="C171" s="56"/>
       <c r="D171" s="52"/>
       <c r="E171" s="28" t="s">
         <v>209</v>
@@ -7207,8 +7287,8 @@
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="47"/>
-      <c r="C172" s="49"/>
+      <c r="B172" s="61"/>
+      <c r="C172" s="56"/>
       <c r="D172" s="52"/>
       <c r="E172" s="28" t="s">
         <v>451</v>
@@ -7231,8 +7311,8 @@
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="47"/>
-      <c r="C173" s="49"/>
+      <c r="B173" s="61"/>
+      <c r="C173" s="56"/>
       <c r="D173" s="52"/>
       <c r="E173" s="28" t="s">
         <v>452</v>
@@ -7255,8 +7335,8 @@
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="47"/>
-      <c r="C174" s="50"/>
+      <c r="B174" s="61"/>
+      <c r="C174" s="57"/>
       <c r="D174" s="53"/>
       <c r="E174" s="28" t="s">
         <v>453</v>
@@ -7279,8 +7359,8 @@
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="47"/>
-      <c r="C175" s="47" t="s">
+      <c r="B175" s="61"/>
+      <c r="C175" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="28" t="s">
@@ -7309,8 +7389,8 @@
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="47"/>
-      <c r="C176" s="47"/>
+      <c r="B176" s="61"/>
+      <c r="C176" s="61"/>
       <c r="D176" s="28" t="s">
         <v>63</v>
       </c>
@@ -7337,7 +7417,7 @@
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="47"/>
+      <c r="B177" s="61"/>
       <c r="C177" s="28" t="s">
         <v>118</v>
       </c>
@@ -7365,7 +7445,7 @@
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="47"/>
+      <c r="B178" s="61"/>
       <c r="C178" s="28" t="s">
         <v>12</v>
       </c>
@@ -7395,7 +7475,7 @@
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="47"/>
+      <c r="B179" s="61"/>
       <c r="C179" s="28" t="s">
         <v>57</v>
       </c>
@@ -7422,27 +7502,27 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="60" t="s">
+      <c r="A180" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="60"/>
-      <c r="C180" s="60"/>
-      <c r="D180" s="60"/>
-      <c r="E180" s="60"/>
-      <c r="F180" s="60"/>
-      <c r="G180" s="60"/>
-      <c r="H180" s="60"/>
-      <c r="I180" s="60"/>
-      <c r="J180" s="60"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="54"/>
+      <c r="H180" s="54"/>
+      <c r="I180" s="54"/>
+      <c r="J180" s="54"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="47" t="s">
+      <c r="B181" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="48" t="s">
+      <c r="C181" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D181" s="51" t="s">
@@ -7469,8 +7549,8 @@
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="47"/>
-      <c r="C182" s="49"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="56"/>
       <c r="D182" s="52"/>
       <c r="E182" s="28" t="s">
         <v>226</v>
@@ -7493,8 +7573,8 @@
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="47"/>
-      <c r="C183" s="49"/>
+      <c r="B183" s="61"/>
+      <c r="C183" s="56"/>
       <c r="D183" s="52"/>
       <c r="E183" s="28" t="s">
         <v>227</v>
@@ -7517,8 +7597,8 @@
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="47"/>
-      <c r="C184" s="49"/>
+      <c r="B184" s="61"/>
+      <c r="C184" s="56"/>
       <c r="D184" s="52"/>
       <c r="E184" s="28" t="s">
         <v>229</v>
@@ -7541,8 +7621,8 @@
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="47"/>
-      <c r="C185" s="49"/>
+      <c r="B185" s="61"/>
+      <c r="C185" s="56"/>
       <c r="D185" s="52"/>
       <c r="E185" s="28" t="s">
         <v>228</v>
@@ -7565,8 +7645,8 @@
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="47"/>
-      <c r="C186" s="49"/>
+      <c r="B186" s="61"/>
+      <c r="C186" s="56"/>
       <c r="D186" s="52"/>
       <c r="E186" s="28" t="s">
         <v>230</v>
@@ -7589,8 +7669,8 @@
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="47"/>
-      <c r="C187" s="49"/>
+      <c r="B187" s="61"/>
+      <c r="C187" s="56"/>
       <c r="D187" s="52"/>
       <c r="E187" s="28" t="s">
         <v>454</v>
@@ -7613,8 +7693,8 @@
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="47"/>
-      <c r="C188" s="49"/>
+      <c r="B188" s="61"/>
+      <c r="C188" s="56"/>
       <c r="D188" s="52"/>
       <c r="E188" s="28" t="s">
         <v>455</v>
@@ -7637,8 +7717,8 @@
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="47"/>
-      <c r="C189" s="50"/>
+      <c r="B189" s="61"/>
+      <c r="C189" s="57"/>
       <c r="D189" s="53"/>
       <c r="E189" s="28" t="s">
         <v>456</v>
@@ -7661,8 +7741,8 @@
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="47"/>
-      <c r="C190" s="47" t="s">
+      <c r="B190" s="61"/>
+      <c r="C190" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="28" t="s">
@@ -7691,8 +7771,8 @@
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="47"/>
-      <c r="C191" s="47"/>
+      <c r="B191" s="61"/>
+      <c r="C191" s="61"/>
       <c r="D191" s="28" t="s">
         <v>63</v>
       </c>
@@ -7719,7 +7799,7 @@
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="47"/>
+      <c r="B192" s="61"/>
       <c r="C192" s="29" t="s">
         <v>118</v>
       </c>
@@ -7747,7 +7827,7 @@
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="47"/>
+      <c r="B193" s="61"/>
       <c r="C193" s="28" t="s">
         <v>12</v>
       </c>
@@ -7777,7 +7857,7 @@
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="47"/>
+      <c r="B194" s="61"/>
       <c r="C194" s="28" t="s">
         <v>57</v>
       </c>
@@ -7804,27 +7884,27 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="60" t="s">
+      <c r="A195" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="60"/>
-      <c r="C195" s="60"/>
-      <c r="D195" s="60"/>
-      <c r="E195" s="60"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="60"/>
-      <c r="H195" s="60"/>
-      <c r="I195" s="60"/>
-      <c r="J195" s="60"/>
+      <c r="B195" s="54"/>
+      <c r="C195" s="54"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="54"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="47" t="s">
+      <c r="B196" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="C196" s="48" t="s">
+      <c r="C196" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D196" s="51" t="s">
@@ -7851,8 +7931,8 @@
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="47"/>
-      <c r="C197" s="49"/>
+      <c r="B197" s="61"/>
+      <c r="C197" s="56"/>
       <c r="D197" s="52"/>
       <c r="E197" s="28" t="s">
         <v>244</v>
@@ -7875,8 +7955,8 @@
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="47"/>
-      <c r="C198" s="49"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="56"/>
       <c r="D198" s="52"/>
       <c r="E198" s="28" t="s">
         <v>243</v>
@@ -7899,8 +7979,8 @@
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="47"/>
-      <c r="C199" s="49"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="56"/>
       <c r="D199" s="52"/>
       <c r="E199" s="28" t="s">
         <v>245</v>
@@ -7923,8 +8003,8 @@
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="47"/>
-      <c r="C200" s="49"/>
+      <c r="B200" s="61"/>
+      <c r="C200" s="56"/>
       <c r="D200" s="52"/>
       <c r="E200" s="28" t="s">
         <v>242</v>
@@ -7947,8 +8027,8 @@
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="47"/>
-      <c r="C201" s="49"/>
+      <c r="B201" s="61"/>
+      <c r="C201" s="56"/>
       <c r="D201" s="52"/>
       <c r="E201" s="28" t="s">
         <v>238</v>
@@ -7971,8 +8051,8 @@
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="47"/>
-      <c r="C202" s="49"/>
+      <c r="B202" s="61"/>
+      <c r="C202" s="56"/>
       <c r="D202" s="52"/>
       <c r="E202" s="28" t="s">
         <v>458</v>
@@ -7995,8 +8075,8 @@
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="47"/>
-      <c r="C203" s="49"/>
+      <c r="B203" s="61"/>
+      <c r="C203" s="56"/>
       <c r="D203" s="52"/>
       <c r="E203" s="28" t="s">
         <v>459</v>
@@ -8019,8 +8099,8 @@
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="47"/>
-      <c r="C204" s="50"/>
+      <c r="B204" s="61"/>
+      <c r="C204" s="57"/>
       <c r="D204" s="53"/>
       <c r="E204" s="28" t="s">
         <v>457</v>
@@ -8043,8 +8123,8 @@
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="47"/>
-      <c r="C205" s="47" t="s">
+      <c r="B205" s="61"/>
+      <c r="C205" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -8073,8 +8153,8 @@
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="47"/>
-      <c r="C206" s="47"/>
+      <c r="B206" s="61"/>
+      <c r="C206" s="61"/>
       <c r="D206" s="29" t="s">
         <v>63</v>
       </c>
@@ -8101,7 +8181,7 @@
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="47"/>
+      <c r="B207" s="61"/>
       <c r="C207" s="29" t="s">
         <v>118</v>
       </c>
@@ -8129,7 +8209,7 @@
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="47"/>
+      <c r="B208" s="61"/>
       <c r="C208" s="28" t="s">
         <v>12</v>
       </c>
@@ -8159,7 +8239,7 @@
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="47"/>
+      <c r="B209" s="61"/>
       <c r="C209" s="28" t="s">
         <v>57</v>
       </c>
@@ -8186,27 +8266,27 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="60" t="s">
+      <c r="A210" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="60"/>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="60"/>
-      <c r="H210" s="60"/>
-      <c r="I210" s="60"/>
-      <c r="J210" s="60"/>
+      <c r="B210" s="54"/>
+      <c r="C210" s="54"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="54"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="47" t="s">
+      <c r="B211" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C211" s="48" t="s">
+      <c r="C211" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D211" s="51" t="s">
@@ -8233,8 +8313,8 @@
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="47"/>
-      <c r="C212" s="49"/>
+      <c r="B212" s="61"/>
+      <c r="C212" s="56"/>
       <c r="D212" s="52"/>
       <c r="E212" s="28" t="s">
         <v>258</v>
@@ -8257,8 +8337,8 @@
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="47"/>
-      <c r="C213" s="49"/>
+      <c r="B213" s="61"/>
+      <c r="C213" s="56"/>
       <c r="D213" s="52"/>
       <c r="E213" s="28" t="s">
         <v>256</v>
@@ -8281,8 +8361,8 @@
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="47"/>
-      <c r="C214" s="49"/>
+      <c r="B214" s="61"/>
+      <c r="C214" s="56"/>
       <c r="D214" s="52"/>
       <c r="E214" s="28" t="s">
         <v>259</v>
@@ -8305,8 +8385,8 @@
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="47"/>
-      <c r="C215" s="49"/>
+      <c r="B215" s="61"/>
+      <c r="C215" s="56"/>
       <c r="D215" s="52"/>
       <c r="E215" s="28" t="s">
         <v>257</v>
@@ -8329,8 +8409,8 @@
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="47"/>
-      <c r="C216" s="49"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="56"/>
       <c r="D216" s="52"/>
       <c r="E216" s="28" t="s">
         <v>252</v>
@@ -8353,8 +8433,8 @@
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="47"/>
-      <c r="C217" s="49"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="56"/>
       <c r="D217" s="52"/>
       <c r="E217" s="28" t="s">
         <v>461</v>
@@ -8377,8 +8457,8 @@
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="47"/>
-      <c r="C218" s="49"/>
+      <c r="B218" s="61"/>
+      <c r="C218" s="56"/>
       <c r="D218" s="52"/>
       <c r="E218" s="28" t="s">
         <v>462</v>
@@ -8401,8 +8481,8 @@
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="47"/>
-      <c r="C219" s="50"/>
+      <c r="B219" s="61"/>
+      <c r="C219" s="57"/>
       <c r="D219" s="53"/>
       <c r="E219" s="28" t="s">
         <v>460</v>
@@ -8425,8 +8505,8 @@
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="47"/>
-      <c r="C220" s="47" t="s">
+      <c r="B220" s="61"/>
+      <c r="C220" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="28" t="s">
@@ -8455,8 +8535,8 @@
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
+      <c r="B221" s="61"/>
+      <c r="C221" s="61"/>
       <c r="D221" s="28" t="s">
         <v>63</v>
       </c>
@@ -8483,7 +8563,7 @@
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="47"/>
+      <c r="B222" s="61"/>
       <c r="C222" s="28" t="s">
         <v>118</v>
       </c>
@@ -8511,7 +8591,7 @@
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="47"/>
+      <c r="B223" s="61"/>
       <c r="C223" s="28" t="s">
         <v>12</v>
       </c>
@@ -8541,7 +8621,7 @@
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="47"/>
+      <c r="B224" s="61"/>
       <c r="C224" s="28" t="s">
         <v>57</v>
       </c>
@@ -8568,27 +8648,27 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="60" t="s">
+      <c r="A225" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="60"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="60"/>
-      <c r="E225" s="60"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="60"/>
-      <c r="H225" s="60"/>
-      <c r="I225" s="60"/>
-      <c r="J225" s="60"/>
+      <c r="B225" s="54"/>
+      <c r="C225" s="54"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="54"/>
+      <c r="F225" s="54"/>
+      <c r="G225" s="54"/>
+      <c r="H225" s="54"/>
+      <c r="I225" s="54"/>
+      <c r="J225" s="54"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="47" t="s">
+      <c r="B226" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="48" t="s">
+      <c r="C226" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D226" s="51" t="s">
@@ -8615,8 +8695,8 @@
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="47"/>
-      <c r="C227" s="49"/>
+      <c r="B227" s="61"/>
+      <c r="C227" s="56"/>
       <c r="D227" s="52"/>
       <c r="E227" s="28" t="s">
         <v>263</v>
@@ -8639,8 +8719,8 @@
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="47"/>
-      <c r="C228" s="49"/>
+      <c r="B228" s="61"/>
+      <c r="C228" s="56"/>
       <c r="D228" s="52"/>
       <c r="E228" s="28" t="s">
         <v>264</v>
@@ -8663,8 +8743,8 @@
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="47"/>
-      <c r="C229" s="49"/>
+      <c r="B229" s="61"/>
+      <c r="C229" s="56"/>
       <c r="D229" s="52"/>
       <c r="E229" s="28" t="s">
         <v>267</v>
@@ -8687,8 +8767,8 @@
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="47"/>
-      <c r="C230" s="49"/>
+      <c r="B230" s="61"/>
+      <c r="C230" s="56"/>
       <c r="D230" s="52"/>
       <c r="E230" s="28" t="s">
         <v>463</v>
@@ -8711,8 +8791,8 @@
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="47"/>
-      <c r="C231" s="50"/>
+      <c r="B231" s="61"/>
+      <c r="C231" s="57"/>
       <c r="D231" s="53"/>
       <c r="E231" s="28" t="s">
         <v>464</v>
@@ -8735,8 +8815,8 @@
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="47"/>
-      <c r="C232" s="47" t="s">
+      <c r="B232" s="61"/>
+      <c r="C232" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="28" t="s">
@@ -8765,8 +8845,8 @@
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="47"/>
-      <c r="C233" s="47"/>
+      <c r="B233" s="61"/>
+      <c r="C233" s="61"/>
       <c r="D233" s="28" t="s">
         <v>63</v>
       </c>
@@ -8793,7 +8873,7 @@
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="47"/>
+      <c r="B234" s="61"/>
       <c r="C234" s="11" t="s">
         <v>118</v>
       </c>
@@ -8823,7 +8903,7 @@
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="47"/>
+      <c r="B235" s="61"/>
       <c r="C235" s="28" t="s">
         <v>12</v>
       </c>
@@ -8853,7 +8933,7 @@
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="47"/>
+      <c r="B236" s="61"/>
       <c r="C236" s="28" t="s">
         <v>57</v>
       </c>
@@ -8880,30 +8960,30 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="60" t="s">
+      <c r="A237" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="60"/>
-      <c r="C237" s="60"/>
-      <c r="D237" s="60"/>
-      <c r="E237" s="60"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="60"/>
-      <c r="H237" s="60"/>
-      <c r="I237" s="60"/>
-      <c r="J237" s="60"/>
+      <c r="B237" s="54"/>
+      <c r="C237" s="54"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="54"/>
+      <c r="H237" s="54"/>
+      <c r="I237" s="54"/>
+      <c r="J237" s="54"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="57" t="s">
+      <c r="B238" s="67" t="s">
         <v>367</v>
       </c>
-      <c r="C238" s="47" t="s">
+      <c r="C238" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="46" t="s">
+      <c r="D238" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="28" t="s">
@@ -8927,9 +9007,9 @@
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="58"/>
-      <c r="C239" s="47"/>
-      <c r="D239" s="46"/>
+      <c r="B239" s="68"/>
+      <c r="C239" s="61"/>
+      <c r="D239" s="62"/>
       <c r="E239" s="28" t="s">
         <v>369</v>
       </c>
@@ -8951,9 +9031,9 @@
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="58"/>
-      <c r="C240" s="47"/>
-      <c r="D240" s="46"/>
+      <c r="B240" s="68"/>
+      <c r="C240" s="61"/>
+      <c r="D240" s="62"/>
       <c r="E240" s="28" t="s">
         <v>392</v>
       </c>
@@ -8975,9 +9055,9 @@
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="58"/>
-      <c r="C241" s="47"/>
-      <c r="D241" s="46"/>
+      <c r="B241" s="68"/>
+      <c r="C241" s="61"/>
+      <c r="D241" s="62"/>
       <c r="E241" s="28" t="s">
         <v>371</v>
       </c>
@@ -8999,9 +9079,9 @@
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="58"/>
-      <c r="C242" s="47"/>
-      <c r="D242" s="46"/>
+      <c r="B242" s="68"/>
+      <c r="C242" s="61"/>
+      <c r="D242" s="62"/>
       <c r="E242" s="28" t="s">
         <v>372</v>
       </c>
@@ -9023,9 +9103,9 @@
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="58"/>
-      <c r="C243" s="47"/>
-      <c r="D243" s="46"/>
+      <c r="B243" s="68"/>
+      <c r="C243" s="61"/>
+      <c r="D243" s="62"/>
       <c r="E243" s="28" t="s">
         <v>373</v>
       </c>
@@ -9047,9 +9127,9 @@
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="58"/>
-      <c r="C244" s="47"/>
-      <c r="D244" s="46"/>
+      <c r="B244" s="68"/>
+      <c r="C244" s="61"/>
+      <c r="D244" s="62"/>
       <c r="E244" s="28" t="s">
         <v>374</v>
       </c>
@@ -9071,9 +9151,9 @@
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="58"/>
-      <c r="C245" s="47"/>
-      <c r="D245" s="46"/>
+      <c r="B245" s="68"/>
+      <c r="C245" s="61"/>
+      <c r="D245" s="62"/>
       <c r="E245" s="28" t="s">
         <v>375</v>
       </c>
@@ -9095,9 +9175,9 @@
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="58"/>
-      <c r="C246" s="47"/>
-      <c r="D246" s="46"/>
+      <c r="B246" s="68"/>
+      <c r="C246" s="61"/>
+      <c r="D246" s="62"/>
       <c r="E246" s="28" t="s">
         <v>376</v>
       </c>
@@ -9119,9 +9199,9 @@
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="58"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="46"/>
+      <c r="B247" s="68"/>
+      <c r="C247" s="61"/>
+      <c r="D247" s="62"/>
       <c r="E247" s="28" t="s">
         <v>377</v>
       </c>
@@ -9143,9 +9223,9 @@
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="58"/>
-      <c r="C248" s="47"/>
-      <c r="D248" s="46"/>
+      <c r="B248" s="68"/>
+      <c r="C248" s="61"/>
+      <c r="D248" s="62"/>
       <c r="E248" s="28" t="s">
         <v>378</v>
       </c>
@@ -9167,9 +9247,9 @@
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="58"/>
-      <c r="C249" s="47"/>
-      <c r="D249" s="46"/>
+      <c r="B249" s="68"/>
+      <c r="C249" s="61"/>
+      <c r="D249" s="62"/>
       <c r="E249" s="28" t="s">
         <v>379</v>
       </c>
@@ -9191,9 +9271,9 @@
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="58"/>
-      <c r="C250" s="47"/>
-      <c r="D250" s="46"/>
+      <c r="B250" s="68"/>
+      <c r="C250" s="61"/>
+      <c r="D250" s="62"/>
       <c r="E250" s="28" t="s">
         <v>380</v>
       </c>
@@ -9215,9 +9295,9 @@
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="58"/>
-      <c r="C251" s="47"/>
-      <c r="D251" s="46"/>
+      <c r="B251" s="68"/>
+      <c r="C251" s="61"/>
+      <c r="D251" s="62"/>
       <c r="E251" s="28" t="s">
         <v>381</v>
       </c>
@@ -9239,9 +9319,9 @@
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="58"/>
-      <c r="C252" s="47"/>
-      <c r="D252" s="46"/>
+      <c r="B252" s="68"/>
+      <c r="C252" s="61"/>
+      <c r="D252" s="62"/>
       <c r="E252" s="28" t="s">
         <v>382</v>
       </c>
@@ -9263,9 +9343,9 @@
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="58"/>
-      <c r="C253" s="47"/>
-      <c r="D253" s="46"/>
+      <c r="B253" s="68"/>
+      <c r="C253" s="61"/>
+      <c r="D253" s="62"/>
       <c r="E253" s="28" t="s">
         <v>383</v>
       </c>
@@ -9287,9 +9367,9 @@
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="58"/>
-      <c r="C254" s="47"/>
-      <c r="D254" s="46"/>
+      <c r="B254" s="68"/>
+      <c r="C254" s="61"/>
+      <c r="D254" s="62"/>
       <c r="E254" s="28" t="s">
         <v>384</v>
       </c>
@@ -9311,9 +9391,9 @@
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="58"/>
-      <c r="C255" s="47"/>
-      <c r="D255" s="46"/>
+      <c r="B255" s="68"/>
+      <c r="C255" s="61"/>
+      <c r="D255" s="62"/>
       <c r="E255" s="28" t="s">
         <v>385</v>
       </c>
@@ -9335,9 +9415,9 @@
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="58"/>
-      <c r="C256" s="47"/>
-      <c r="D256" s="46"/>
+      <c r="B256" s="68"/>
+      <c r="C256" s="61"/>
+      <c r="D256" s="62"/>
       <c r="E256" s="28" t="s">
         <v>386</v>
       </c>
@@ -9359,9 +9439,9 @@
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="58"/>
-      <c r="C257" s="47"/>
-      <c r="D257" s="46"/>
+      <c r="B257" s="68"/>
+      <c r="C257" s="61"/>
+      <c r="D257" s="62"/>
       <c r="E257" s="28" t="s">
         <v>387</v>
       </c>
@@ -9383,9 +9463,9 @@
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="58"/>
-      <c r="C258" s="47"/>
-      <c r="D258" s="46"/>
+      <c r="B258" s="68"/>
+      <c r="C258" s="61"/>
+      <c r="D258" s="62"/>
       <c r="E258" s="28" t="s">
         <v>388</v>
       </c>
@@ -9407,9 +9487,9 @@
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="58"/>
-      <c r="C259" s="47"/>
-      <c r="D259" s="46"/>
+      <c r="B259" s="68"/>
+      <c r="C259" s="61"/>
+      <c r="D259" s="62"/>
       <c r="E259" s="28" t="s">
         <v>389</v>
       </c>
@@ -9431,9 +9511,9 @@
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="58"/>
-      <c r="C260" s="47"/>
-      <c r="D260" s="46"/>
+      <c r="B260" s="68"/>
+      <c r="C260" s="61"/>
+      <c r="D260" s="62"/>
       <c r="E260" s="28" t="s">
         <v>390</v>
       </c>
@@ -9455,11 +9535,11 @@
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="58"/>
-      <c r="C261" s="54" t="s">
+      <c r="B261" s="68"/>
+      <c r="C261" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="54" t="s">
+      <c r="D261" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -9483,9 +9563,9 @@
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="58"/>
-      <c r="C262" s="55"/>
-      <c r="D262" s="55"/>
+      <c r="B262" s="68"/>
+      <c r="C262" s="65"/>
+      <c r="D262" s="65"/>
       <c r="E262" s="4" t="s">
         <v>396</v>
       </c>
@@ -9505,16 +9585,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="58"/>
-      <c r="C263" s="55"/>
-      <c r="D263" s="55"/>
+      <c r="B263" s="68"/>
+      <c r="C263" s="65"/>
+      <c r="D263" s="65"/>
       <c r="E263" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F263" s="54" t="s">
+      <c r="F263" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="G263" s="57" t="s">
+      <c r="G263" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -9527,14 +9607,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="58"/>
-      <c r="C264" s="55"/>
-      <c r="D264" s="55"/>
+      <c r="B264" s="68"/>
+      <c r="C264" s="65"/>
+      <c r="D264" s="65"/>
       <c r="E264" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F264" s="55"/>
-      <c r="G264" s="58"/>
+      <c r="F264" s="65"/>
+      <c r="G264" s="68"/>
       <c r="H264" s="4" t="s">
         <v>398</v>
       </c>
@@ -9545,14 +9625,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="58"/>
-      <c r="C265" s="55"/>
-      <c r="D265" s="55"/>
+      <c r="B265" s="68"/>
+      <c r="C265" s="65"/>
+      <c r="D265" s="65"/>
       <c r="E265" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F265" s="55"/>
-      <c r="G265" s="58"/>
+      <c r="F265" s="65"/>
+      <c r="G265" s="68"/>
       <c r="H265" s="4" t="s">
         <v>398</v>
       </c>
@@ -9563,14 +9643,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="58"/>
-      <c r="C266" s="55"/>
-      <c r="D266" s="55"/>
+      <c r="B266" s="68"/>
+      <c r="C266" s="65"/>
+      <c r="D266" s="65"/>
       <c r="E266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F266" s="56"/>
-      <c r="G266" s="59"/>
+      <c r="F266" s="66"/>
+      <c r="G266" s="69"/>
       <c r="H266" s="4" t="s">
         <v>398</v>
       </c>
@@ -9581,16 +9661,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="58"/>
-      <c r="C267" s="55"/>
-      <c r="D267" s="55"/>
+      <c r="B267" s="68"/>
+      <c r="C267" s="65"/>
+      <c r="D267" s="65"/>
       <c r="E267" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F267" s="54" t="s">
+      <c r="F267" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="G267" s="57" t="s">
+      <c r="G267" s="67" t="s">
         <v>402</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -9603,14 +9683,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="58"/>
-      <c r="C268" s="55"/>
-      <c r="D268" s="55"/>
+      <c r="B268" s="68"/>
+      <c r="C268" s="65"/>
+      <c r="D268" s="65"/>
       <c r="E268" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F268" s="55"/>
-      <c r="G268" s="58"/>
+      <c r="F268" s="65"/>
+      <c r="G268" s="68"/>
       <c r="H268" s="4" t="s">
         <v>401</v>
       </c>
@@ -9621,14 +9701,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="58"/>
-      <c r="C269" s="55"/>
-      <c r="D269" s="55"/>
+      <c r="B269" s="68"/>
+      <c r="C269" s="65"/>
+      <c r="D269" s="65"/>
       <c r="E269" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F269" s="55"/>
-      <c r="G269" s="58"/>
+      <c r="F269" s="65"/>
+      <c r="G269" s="68"/>
       <c r="H269" s="4" t="s">
         <v>401</v>
       </c>
@@ -9639,14 +9719,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="58"/>
-      <c r="C270" s="55"/>
-      <c r="D270" s="55"/>
+      <c r="B270" s="68"/>
+      <c r="C270" s="65"/>
+      <c r="D270" s="65"/>
       <c r="E270" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F270" s="56"/>
-      <c r="G270" s="59"/>
+      <c r="F270" s="66"/>
+      <c r="G270" s="69"/>
       <c r="H270" s="4" t="s">
         <v>401</v>
       </c>
@@ -9657,16 +9737,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="58"/>
-      <c r="C271" s="55"/>
-      <c r="D271" s="55"/>
+      <c r="B271" s="68"/>
+      <c r="C271" s="65"/>
+      <c r="D271" s="65"/>
       <c r="E271" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F271" s="54" t="s">
+      <c r="F271" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="G271" s="57" t="s">
+      <c r="G271" s="67" t="s">
         <v>403</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -9679,14 +9759,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="58"/>
-      <c r="C272" s="55"/>
-      <c r="D272" s="55"/>
+      <c r="B272" s="68"/>
+      <c r="C272" s="65"/>
+      <c r="D272" s="65"/>
       <c r="E272" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F272" s="55"/>
-      <c r="G272" s="58"/>
+      <c r="F272" s="65"/>
+      <c r="G272" s="68"/>
       <c r="H272" s="4" t="s">
         <v>401</v>
       </c>
@@ -9697,14 +9777,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="58"/>
-      <c r="C273" s="55"/>
-      <c r="D273" s="55"/>
+      <c r="B273" s="68"/>
+      <c r="C273" s="65"/>
+      <c r="D273" s="65"/>
       <c r="E273" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F273" s="55"/>
-      <c r="G273" s="58"/>
+      <c r="F273" s="65"/>
+      <c r="G273" s="68"/>
       <c r="H273" s="4" t="s">
         <v>401</v>
       </c>
@@ -9715,14 +9795,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="59"/>
-      <c r="C274" s="56"/>
-      <c r="D274" s="56"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="66"/>
+      <c r="D274" s="66"/>
       <c r="E274" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F274" s="56"/>
-      <c r="G274" s="59"/>
+      <c r="F274" s="66"/>
+      <c r="G274" s="69"/>
       <c r="H274" s="4" t="s">
         <v>401</v>
       </c>
@@ -9730,18 +9810,18 @@
       <c r="J274" s="14"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="45" t="s">
+      <c r="A275" s="63" t="s">
         <v>397</v>
       </c>
-      <c r="B275" s="45"/>
-      <c r="C275" s="45"/>
-      <c r="D275" s="45"/>
-      <c r="E275" s="45"/>
-      <c r="F275" s="45"/>
-      <c r="G275" s="45"/>
-      <c r="H275" s="45"/>
-      <c r="I275" s="45"/>
-      <c r="J275" s="45"/>
+      <c r="B275" s="63"/>
+      <c r="C275" s="63"/>
+      <c r="D275" s="63"/>
+      <c r="E275" s="63"/>
+      <c r="F275" s="63"/>
+      <c r="G275" s="63"/>
+      <c r="H275" s="63"/>
+      <c r="I275" s="63"/>
+      <c r="J275" s="63"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
@@ -9750,7 +9830,7 @@
       <c r="B276" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="48" t="s">
+      <c r="C276" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D276" s="51" t="s">
@@ -9778,7 +9858,7 @@
         <v>261</v>
       </c>
       <c r="B277" s="52"/>
-      <c r="C277" s="49"/>
+      <c r="C277" s="56"/>
       <c r="D277" s="52"/>
       <c r="E277" s="28" t="s">
         <v>275</v>
@@ -9802,7 +9882,7 @@
         <v>262</v>
       </c>
       <c r="B278" s="52"/>
-      <c r="C278" s="49"/>
+      <c r="C278" s="56"/>
       <c r="D278" s="52"/>
       <c r="E278" s="28" t="s">
         <v>276</v>
@@ -9826,7 +9906,7 @@
         <v>263</v>
       </c>
       <c r="B279" s="52"/>
-      <c r="C279" s="49"/>
+      <c r="C279" s="56"/>
       <c r="D279" s="52"/>
       <c r="E279" s="28" t="s">
         <v>277</v>
@@ -9850,7 +9930,7 @@
         <v>264</v>
       </c>
       <c r="B280" s="52"/>
-      <c r="C280" s="49"/>
+      <c r="C280" s="56"/>
       <c r="D280" s="52"/>
       <c r="E280" s="28" t="s">
         <v>314</v>
@@ -9874,7 +9954,7 @@
         <v>265</v>
       </c>
       <c r="B281" s="52"/>
-      <c r="C281" s="50"/>
+      <c r="C281" s="57"/>
       <c r="D281" s="53"/>
       <c r="E281" s="28" t="s">
         <v>278</v>
@@ -9898,10 +9978,10 @@
         <v>266</v>
       </c>
       <c r="B282" s="52"/>
-      <c r="C282" s="48" t="s">
+      <c r="C282" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="48" t="s">
+      <c r="D282" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E282" s="30" t="s">
@@ -9926,8 +10006,8 @@
         <v>267</v>
       </c>
       <c r="B283" s="52"/>
-      <c r="C283" s="49"/>
-      <c r="D283" s="49"/>
+      <c r="C283" s="56"/>
+      <c r="D283" s="56"/>
       <c r="E283" s="30" t="s">
         <v>282</v>
       </c>
@@ -9950,8 +10030,8 @@
         <v>268</v>
       </c>
       <c r="B284" s="52"/>
-      <c r="C284" s="49"/>
-      <c r="D284" s="49"/>
+      <c r="C284" s="56"/>
+      <c r="D284" s="56"/>
       <c r="E284" s="30" t="s">
         <v>316</v>
       </c>
@@ -9974,8 +10054,8 @@
         <v>269</v>
       </c>
       <c r="B285" s="52"/>
-      <c r="C285" s="49"/>
-      <c r="D285" s="49"/>
+      <c r="C285" s="56"/>
+      <c r="D285" s="56"/>
       <c r="E285" s="43" t="s">
         <v>286</v>
       </c>
@@ -10000,8 +10080,8 @@
         <v>270</v>
       </c>
       <c r="B286" s="52"/>
-      <c r="C286" s="50"/>
-      <c r="D286" s="50"/>
+      <c r="C286" s="57"/>
+      <c r="D286" s="57"/>
       <c r="E286" s="30" t="s">
         <v>324</v>
       </c>
@@ -10052,18 +10132,18 @@
       </c>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="60" t="s">
+      <c r="A288" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="60"/>
-      <c r="C288" s="60"/>
-      <c r="D288" s="60"/>
-      <c r="E288" s="60"/>
-      <c r="F288" s="60"/>
-      <c r="G288" s="60"/>
-      <c r="H288" s="60"/>
-      <c r="I288" s="60"/>
-      <c r="J288" s="60"/>
+      <c r="B288" s="54"/>
+      <c r="C288" s="54"/>
+      <c r="D288" s="54"/>
+      <c r="E288" s="54"/>
+      <c r="F288" s="54"/>
+      <c r="G288" s="54"/>
+      <c r="H288" s="54"/>
+      <c r="I288" s="54"/>
+      <c r="J288" s="54"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
@@ -10072,7 +10152,7 @@
       <c r="B289" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C289" s="48" t="s">
+      <c r="C289" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D289" s="51" t="s">
@@ -10100,7 +10180,7 @@
         <v>273</v>
       </c>
       <c r="B290" s="52"/>
-      <c r="C290" s="49"/>
+      <c r="C290" s="56"/>
       <c r="D290" s="52"/>
       <c r="E290" s="28" t="s">
         <v>312</v>
@@ -10124,7 +10204,7 @@
         <v>274</v>
       </c>
       <c r="B291" s="52"/>
-      <c r="C291" s="49"/>
+      <c r="C291" s="56"/>
       <c r="D291" s="52"/>
       <c r="E291" s="28" t="s">
         <v>313</v>
@@ -10148,7 +10228,7 @@
         <v>275</v>
       </c>
       <c r="B292" s="52"/>
-      <c r="C292" s="49"/>
+      <c r="C292" s="56"/>
       <c r="D292" s="52"/>
       <c r="E292" s="28" t="s">
         <v>305</v>
@@ -10172,7 +10252,7 @@
         <v>276</v>
       </c>
       <c r="B293" s="52"/>
-      <c r="C293" s="49"/>
+      <c r="C293" s="56"/>
       <c r="D293" s="52"/>
       <c r="E293" s="28" t="s">
         <v>315</v>
@@ -10196,7 +10276,7 @@
         <v>277</v>
       </c>
       <c r="B294" s="52"/>
-      <c r="C294" s="50"/>
+      <c r="C294" s="57"/>
       <c r="D294" s="53"/>
       <c r="E294" s="28" t="s">
         <v>301</v>
@@ -10220,10 +10300,10 @@
         <v>278</v>
       </c>
       <c r="B295" s="52"/>
-      <c r="C295" s="48" t="s">
+      <c r="C295" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="48" t="s">
+      <c r="D295" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E295" s="30" t="s">
@@ -10248,8 +10328,8 @@
         <v>279</v>
       </c>
       <c r="B296" s="52"/>
-      <c r="C296" s="49"/>
-      <c r="D296" s="49"/>
+      <c r="C296" s="56"/>
+      <c r="D296" s="56"/>
       <c r="E296" s="30" t="s">
         <v>302</v>
       </c>
@@ -10272,8 +10352,8 @@
         <v>280</v>
       </c>
       <c r="B297" s="52"/>
-      <c r="C297" s="49"/>
-      <c r="D297" s="49"/>
+      <c r="C297" s="56"/>
+      <c r="D297" s="56"/>
       <c r="E297" s="30" t="s">
         <v>316</v>
       </c>
@@ -10296,8 +10376,8 @@
         <v>281</v>
       </c>
       <c r="B298" s="52"/>
-      <c r="C298" s="49"/>
-      <c r="D298" s="49"/>
+      <c r="C298" s="56"/>
+      <c r="D298" s="56"/>
       <c r="E298" s="43" t="s">
         <v>303</v>
       </c>
@@ -10322,8 +10402,8 @@
         <v>282</v>
       </c>
       <c r="B299" s="52"/>
-      <c r="C299" s="50"/>
-      <c r="D299" s="50"/>
+      <c r="C299" s="57"/>
+      <c r="D299" s="57"/>
       <c r="E299" s="32" t="s">
         <v>323</v>
       </c>
@@ -10374,18 +10454,18 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="45" t="s">
+      <c r="A301" s="63" t="s">
         <v>322</v>
       </c>
-      <c r="B301" s="45"/>
-      <c r="C301" s="45"/>
-      <c r="D301" s="45"/>
-      <c r="E301" s="45"/>
-      <c r="F301" s="45"/>
-      <c r="G301" s="45"/>
-      <c r="H301" s="45"/>
-      <c r="I301" s="45"/>
-      <c r="J301" s="45"/>
+      <c r="B301" s="63"/>
+      <c r="C301" s="63"/>
+      <c r="D301" s="63"/>
+      <c r="E301" s="63"/>
+      <c r="F301" s="63"/>
+      <c r="G301" s="63"/>
+      <c r="H301" s="63"/>
+      <c r="I301" s="63"/>
+      <c r="J301" s="63"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
@@ -10394,7 +10474,7 @@
       <c r="B302" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="48" t="s">
+      <c r="C302" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D302" s="51" t="s">
@@ -10422,7 +10502,7 @@
         <v>285</v>
       </c>
       <c r="B303" s="52"/>
-      <c r="C303" s="49"/>
+      <c r="C303" s="56"/>
       <c r="D303" s="52"/>
       <c r="E303" s="28" t="s">
         <v>345</v>
@@ -10446,7 +10526,7 @@
         <v>286</v>
       </c>
       <c r="B304" s="52"/>
-      <c r="C304" s="49"/>
+      <c r="C304" s="56"/>
       <c r="D304" s="52"/>
       <c r="E304" s="28" t="s">
         <v>346</v>
@@ -10470,7 +10550,7 @@
         <v>287</v>
       </c>
       <c r="B305" s="52"/>
-      <c r="C305" s="49"/>
+      <c r="C305" s="56"/>
       <c r="D305" s="52"/>
       <c r="E305" s="28" t="s">
         <v>343</v>
@@ -10494,7 +10574,7 @@
         <v>288</v>
       </c>
       <c r="B306" s="52"/>
-      <c r="C306" s="49"/>
+      <c r="C306" s="56"/>
       <c r="D306" s="52"/>
       <c r="E306" s="28" t="s">
         <v>338</v>
@@ -10518,7 +10598,7 @@
         <v>289</v>
       </c>
       <c r="B307" s="52"/>
-      <c r="C307" s="50"/>
+      <c r="C307" s="57"/>
       <c r="D307" s="53"/>
       <c r="E307" s="28" t="s">
         <v>339</v>
@@ -10542,10 +10622,10 @@
         <v>290</v>
       </c>
       <c r="B308" s="52"/>
-      <c r="C308" s="48" t="s">
+      <c r="C308" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="48" t="s">
+      <c r="D308" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E308" s="30" t="s">
@@ -10570,8 +10650,8 @@
         <v>291</v>
       </c>
       <c r="B309" s="52"/>
-      <c r="C309" s="49"/>
-      <c r="D309" s="49"/>
+      <c r="C309" s="56"/>
+      <c r="D309" s="56"/>
       <c r="E309" s="30" t="s">
         <v>340</v>
       </c>
@@ -10594,8 +10674,8 @@
         <v>292</v>
       </c>
       <c r="B310" s="52"/>
-      <c r="C310" s="49"/>
-      <c r="D310" s="49"/>
+      <c r="C310" s="56"/>
+      <c r="D310" s="56"/>
       <c r="E310" s="30" t="s">
         <v>348</v>
       </c>
@@ -10618,8 +10698,8 @@
         <v>293</v>
       </c>
       <c r="B311" s="52"/>
-      <c r="C311" s="49"/>
-      <c r="D311" s="49"/>
+      <c r="C311" s="56"/>
+      <c r="D311" s="56"/>
       <c r="E311" s="43" t="s">
         <v>341</v>
       </c>
@@ -10644,8 +10724,8 @@
         <v>294</v>
       </c>
       <c r="B312" s="52"/>
-      <c r="C312" s="50"/>
-      <c r="D312" s="50"/>
+      <c r="C312" s="57"/>
+      <c r="D312" s="57"/>
       <c r="E312" s="32" t="s">
         <v>349</v>
       </c>
@@ -10696,27 +10776,27 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="45" t="s">
+      <c r="A314" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="45"/>
-      <c r="C314" s="45"/>
-      <c r="D314" s="45"/>
-      <c r="E314" s="45"/>
-      <c r="F314" s="45"/>
-      <c r="G314" s="45"/>
-      <c r="H314" s="45"/>
-      <c r="I314" s="45"/>
-      <c r="J314" s="45"/>
+      <c r="B314" s="63"/>
+      <c r="C314" s="63"/>
+      <c r="D314" s="63"/>
+      <c r="E314" s="63"/>
+      <c r="F314" s="63"/>
+      <c r="G314" s="63"/>
+      <c r="H314" s="63"/>
+      <c r="I314" s="63"/>
+      <c r="J314" s="63"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="46" t="s">
+      <c r="B315" s="62" t="s">
         <v>350</v>
       </c>
-      <c r="C315" s="48" t="s">
+      <c r="C315" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D315" s="51" t="s">
@@ -10743,8 +10823,8 @@
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="46"/>
-      <c r="C316" s="49"/>
+      <c r="B316" s="62"/>
+      <c r="C316" s="56"/>
       <c r="D316" s="52"/>
       <c r="E316" s="28" t="s">
         <v>357</v>
@@ -10767,8 +10847,8 @@
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="46"/>
-      <c r="C317" s="49"/>
+      <c r="B317" s="62"/>
+      <c r="C317" s="56"/>
       <c r="D317" s="52"/>
       <c r="E317" s="28" t="s">
         <v>366</v>
@@ -10791,8 +10871,8 @@
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="46"/>
-      <c r="C318" s="49"/>
+      <c r="B318" s="62"/>
+      <c r="C318" s="56"/>
       <c r="D318" s="52"/>
       <c r="E318" s="28" t="s">
         <v>364</v>
@@ -10815,8 +10895,8 @@
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="46"/>
-      <c r="C319" s="49"/>
+      <c r="B319" s="62"/>
+      <c r="C319" s="56"/>
       <c r="D319" s="52"/>
       <c r="E319" s="28" t="s">
         <v>358</v>
@@ -10839,8 +10919,8 @@
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="46"/>
-      <c r="C320" s="50"/>
+      <c r="B320" s="62"/>
+      <c r="C320" s="57"/>
       <c r="D320" s="53"/>
       <c r="E320" s="28" t="s">
         <v>359</v>
@@ -10863,11 +10943,11 @@
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="46"/>
-      <c r="C321" s="47" t="s">
+      <c r="B321" s="62"/>
+      <c r="C321" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="47" t="s">
+      <c r="D321" s="61" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="30" t="s">
@@ -10891,9 +10971,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="46"/>
-      <c r="C322" s="47"/>
-      <c r="D322" s="47"/>
+      <c r="B322" s="62"/>
+      <c r="C322" s="61"/>
+      <c r="D322" s="61"/>
       <c r="E322" s="30" t="s">
         <v>361</v>
       </c>
@@ -10915,9 +10995,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="46"/>
-      <c r="C323" s="47"/>
-      <c r="D323" s="47"/>
+      <c r="B323" s="62"/>
+      <c r="C323" s="61"/>
+      <c r="D323" s="61"/>
       <c r="E323" s="30" t="s">
         <v>348</v>
       </c>
@@ -10939,9 +11019,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="46"/>
-      <c r="C324" s="47"/>
-      <c r="D324" s="47"/>
+      <c r="B324" s="62"/>
+      <c r="C324" s="61"/>
+      <c r="D324" s="61"/>
       <c r="E324" s="43" t="s">
         <v>362</v>
       </c>
@@ -10965,9 +11045,9 @@
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="46"/>
-      <c r="C325" s="47"/>
-      <c r="D325" s="47"/>
+      <c r="B325" s="62"/>
+      <c r="C325" s="61"/>
+      <c r="D325" s="61"/>
       <c r="E325" s="32" t="s">
         <v>356</v>
       </c>
@@ -10991,7 +11071,7 @@
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="46"/>
+      <c r="B326" s="62"/>
       <c r="C326" s="11" t="s">
         <v>118</v>
       </c>
@@ -11018,30 +11098,30 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="45" t="s">
+      <c r="A327" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="B327" s="45"/>
-      <c r="C327" s="45"/>
-      <c r="D327" s="45"/>
-      <c r="E327" s="45"/>
-      <c r="F327" s="45"/>
-      <c r="G327" s="45"/>
-      <c r="H327" s="45"/>
-      <c r="I327" s="45"/>
-      <c r="J327" s="45"/>
+      <c r="B327" s="63"/>
+      <c r="C327" s="63"/>
+      <c r="D327" s="63"/>
+      <c r="E327" s="63"/>
+      <c r="F327" s="63"/>
+      <c r="G327" s="63"/>
+      <c r="H327" s="63"/>
+      <c r="I327" s="63"/>
+      <c r="J327" s="63"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>308</v>
       </c>
-      <c r="B328" s="48" t="s">
+      <c r="B328" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="C328" s="48" t="s">
+      <c r="C328" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D328" s="48" t="s">
+      <c r="D328" s="55" t="s">
         <v>65</v>
       </c>
       <c r="E328" s="28" t="s">
@@ -11067,9 +11147,9 @@
       <c r="A329" s="8">
         <v>309</v>
       </c>
-      <c r="B329" s="49"/>
-      <c r="C329" s="49"/>
-      <c r="D329" s="49"/>
+      <c r="B329" s="56"/>
+      <c r="C329" s="56"/>
+      <c r="D329" s="56"/>
       <c r="E329" s="28" t="s">
         <v>483</v>
       </c>
@@ -11093,9 +11173,9 @@
       <c r="A330" s="8">
         <v>310</v>
       </c>
-      <c r="B330" s="49"/>
-      <c r="C330" s="49"/>
-      <c r="D330" s="49"/>
+      <c r="B330" s="56"/>
+      <c r="C330" s="56"/>
+      <c r="D330" s="56"/>
       <c r="E330" s="28" t="s">
         <v>485</v>
       </c>
@@ -11119,9 +11199,9 @@
       <c r="A331" s="8">
         <v>311</v>
       </c>
-      <c r="B331" s="49"/>
-      <c r="C331" s="49"/>
-      <c r="D331" s="49"/>
+      <c r="B331" s="56"/>
+      <c r="C331" s="56"/>
+      <c r="D331" s="56"/>
       <c r="E331" s="28" t="s">
         <v>486</v>
       </c>
@@ -11145,9 +11225,9 @@
       <c r="A332" s="8">
         <v>312</v>
       </c>
-      <c r="B332" s="49"/>
-      <c r="C332" s="49"/>
-      <c r="D332" s="49"/>
+      <c r="B332" s="56"/>
+      <c r="C332" s="56"/>
+      <c r="D332" s="56"/>
       <c r="E332" s="28" t="s">
         <v>487</v>
       </c>
@@ -11171,9 +11251,9 @@
       <c r="A333" s="8">
         <v>313</v>
       </c>
-      <c r="B333" s="49"/>
-      <c r="C333" s="49"/>
-      <c r="D333" s="49"/>
+      <c r="B333" s="56"/>
+      <c r="C333" s="56"/>
+      <c r="D333" s="56"/>
       <c r="E333" s="28" t="s">
         <v>488</v>
       </c>
@@ -11197,9 +11277,9 @@
       <c r="A334" s="8">
         <v>314</v>
       </c>
-      <c r="B334" s="49"/>
-      <c r="C334" s="49"/>
-      <c r="D334" s="49"/>
+      <c r="B334" s="56"/>
+      <c r="C334" s="56"/>
+      <c r="D334" s="56"/>
       <c r="E334" s="28" t="s">
         <v>490</v>
       </c>
@@ -11223,9 +11303,9 @@
       <c r="A335" s="8">
         <v>315</v>
       </c>
-      <c r="B335" s="49"/>
-      <c r="C335" s="49"/>
-      <c r="D335" s="49"/>
+      <c r="B335" s="56"/>
+      <c r="C335" s="56"/>
+      <c r="D335" s="56"/>
       <c r="E335" s="28" t="s">
         <v>491</v>
       </c>
@@ -11249,9 +11329,9 @@
       <c r="A336" s="8">
         <v>316</v>
       </c>
-      <c r="B336" s="49"/>
-      <c r="C336" s="49"/>
-      <c r="D336" s="49"/>
+      <c r="B336" s="56"/>
+      <c r="C336" s="56"/>
+      <c r="D336" s="56"/>
       <c r="E336" s="28" t="s">
         <v>494</v>
       </c>
@@ -11275,9 +11355,9 @@
       <c r="A337" s="8">
         <v>317</v>
       </c>
-      <c r="B337" s="49"/>
-      <c r="C337" s="49"/>
-      <c r="D337" s="49"/>
+      <c r="B337" s="56"/>
+      <c r="C337" s="56"/>
+      <c r="D337" s="56"/>
       <c r="E337" s="28" t="s">
         <v>492</v>
       </c>
@@ -11301,9 +11381,9 @@
       <c r="A338" s="8">
         <v>318</v>
       </c>
-      <c r="B338" s="49"/>
-      <c r="C338" s="49"/>
-      <c r="D338" s="49"/>
+      <c r="B338" s="56"/>
+      <c r="C338" s="56"/>
+      <c r="D338" s="56"/>
       <c r="E338" s="28" t="s">
         <v>493</v>
       </c>
@@ -11327,9 +11407,9 @@
       <c r="A339" s="8">
         <v>319</v>
       </c>
-      <c r="B339" s="49"/>
-      <c r="C339" s="50"/>
-      <c r="D339" s="50"/>
+      <c r="B339" s="56"/>
+      <c r="C339" s="57"/>
+      <c r="D339" s="57"/>
       <c r="E339" s="28" t="s">
         <v>495</v>
       </c>
@@ -11353,8 +11433,8 @@
       <c r="A340" s="8">
         <v>320</v>
       </c>
-      <c r="B340" s="49"/>
-      <c r="C340" s="48" t="s">
+      <c r="B340" s="56"/>
+      <c r="C340" s="55" t="s">
         <v>1</v>
       </c>
       <c r="D340" s="51" t="s">
@@ -11381,8 +11461,8 @@
       <c r="A341" s="8">
         <v>321</v>
       </c>
-      <c r="B341" s="49"/>
-      <c r="C341" s="49"/>
+      <c r="B341" s="56"/>
+      <c r="C341" s="56"/>
       <c r="D341" s="52"/>
       <c r="E341" s="28" t="s">
         <v>498</v>
@@ -11405,8 +11485,8 @@
       <c r="A342" s="8">
         <v>322</v>
       </c>
-      <c r="B342" s="49"/>
-      <c r="C342" s="49"/>
+      <c r="B342" s="56"/>
+      <c r="C342" s="56"/>
       <c r="D342" s="52"/>
       <c r="E342" s="28" t="s">
         <v>499</v>
@@ -11429,8 +11509,8 @@
       <c r="A343" s="8">
         <v>323</v>
       </c>
-      <c r="B343" s="49"/>
-      <c r="C343" s="49"/>
+      <c r="B343" s="56"/>
+      <c r="C343" s="56"/>
       <c r="D343" s="52"/>
       <c r="E343" s="28" t="s">
         <v>500</v>
@@ -11453,8 +11533,8 @@
       <c r="A344" s="8">
         <v>324</v>
       </c>
-      <c r="B344" s="49"/>
-      <c r="C344" s="49"/>
+      <c r="B344" s="56"/>
+      <c r="C344" s="56"/>
       <c r="D344" s="52"/>
       <c r="E344" s="28" t="s">
         <v>501</v>
@@ -11477,8 +11557,8 @@
       <c r="A345" s="8">
         <v>325</v>
       </c>
-      <c r="B345" s="49"/>
-      <c r="C345" s="49"/>
+      <c r="B345" s="56"/>
+      <c r="C345" s="56"/>
       <c r="D345" s="52"/>
       <c r="E345" s="28" t="s">
         <v>502</v>
@@ -11501,8 +11581,8 @@
       <c r="A346" s="8">
         <v>326</v>
       </c>
-      <c r="B346" s="49"/>
-      <c r="C346" s="49"/>
+      <c r="B346" s="56"/>
+      <c r="C346" s="56"/>
       <c r="D346" s="52"/>
       <c r="E346" s="28" t="s">
         <v>503</v>
@@ -11525,8 +11605,8 @@
       <c r="A347" s="8">
         <v>327</v>
       </c>
-      <c r="B347" s="49"/>
-      <c r="C347" s="50"/>
+      <c r="B347" s="56"/>
+      <c r="C347" s="57"/>
       <c r="D347" s="53"/>
       <c r="E347" s="28" t="s">
         <v>504</v>
@@ -11549,17 +11629,17 @@
       <c r="A348" s="8">
         <v>328</v>
       </c>
-      <c r="B348" s="49"/>
-      <c r="C348" s="48" t="s">
+      <c r="B348" s="56"/>
+      <c r="C348" s="55" t="s">
         <v>465</v>
       </c>
       <c r="D348" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="E348" s="48" t="s">
+      <c r="E348" s="55" t="s">
         <v>509</v>
       </c>
-      <c r="F348" s="48" t="s">
+      <c r="F348" s="55" t="s">
         <v>468</v>
       </c>
       <c r="G348" s="51" t="s">
@@ -11577,13 +11657,13 @@
       <c r="A349" s="8">
         <v>329</v>
       </c>
-      <c r="B349" s="49"/>
-      <c r="C349" s="49"/>
+      <c r="B349" s="56"/>
+      <c r="C349" s="56"/>
       <c r="D349" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="E349" s="49"/>
-      <c r="F349" s="49"/>
+      <c r="E349" s="56"/>
+      <c r="F349" s="56"/>
       <c r="G349" s="52"/>
       <c r="H349" s="28" t="s">
         <v>507</v>
@@ -11597,13 +11677,13 @@
       <c r="A350" s="8">
         <v>330</v>
       </c>
-      <c r="B350" s="49"/>
-      <c r="C350" s="49"/>
+      <c r="B350" s="56"/>
+      <c r="C350" s="56"/>
       <c r="D350" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E350" s="49"/>
-      <c r="F350" s="49"/>
+      <c r="E350" s="56"/>
+      <c r="F350" s="56"/>
       <c r="G350" s="52"/>
       <c r="H350" s="28" t="s">
         <v>508</v>
@@ -11617,13 +11697,13 @@
       <c r="A351" s="8">
         <v>331</v>
       </c>
-      <c r="B351" s="49"/>
-      <c r="C351" s="49"/>
+      <c r="B351" s="56"/>
+      <c r="C351" s="56"/>
       <c r="D351" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="E351" s="49"/>
-      <c r="F351" s="49"/>
+      <c r="E351" s="56"/>
+      <c r="F351" s="56"/>
       <c r="G351" s="52"/>
       <c r="H351" s="8" t="s">
         <v>507</v>
@@ -11631,7 +11711,7 @@
       <c r="I351" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="J351" s="64" t="s">
+      <c r="J351" s="45" t="s">
         <v>586</v>
       </c>
     </row>
@@ -11639,13 +11719,13 @@
       <c r="A352" s="8">
         <v>332</v>
       </c>
-      <c r="B352" s="50"/>
-      <c r="C352" s="50"/>
+      <c r="B352" s="57"/>
+      <c r="C352" s="57"/>
       <c r="D352" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="E352" s="50"/>
-      <c r="F352" s="50"/>
+      <c r="E352" s="57"/>
+      <c r="F352" s="57"/>
       <c r="G352" s="53"/>
       <c r="H352" s="28" t="s">
         <v>512</v>
@@ -11656,30 +11736,30 @@
       <c r="J352" s="13"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="60" t="s">
+      <c r="A353" s="54" t="s">
         <v>513</v>
       </c>
-      <c r="B353" s="60"/>
-      <c r="C353" s="60"/>
-      <c r="D353" s="60"/>
-      <c r="E353" s="60"/>
-      <c r="F353" s="60"/>
-      <c r="G353" s="60"/>
-      <c r="H353" s="60"/>
-      <c r="I353" s="60"/>
-      <c r="J353" s="60"/>
+      <c r="B353" s="54"/>
+      <c r="C353" s="54"/>
+      <c r="D353" s="54"/>
+      <c r="E353" s="54"/>
+      <c r="F353" s="54"/>
+      <c r="G353" s="54"/>
+      <c r="H353" s="54"/>
+      <c r="I353" s="54"/>
+      <c r="J353" s="54"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="33">
         <v>339</v>
       </c>
-      <c r="B354" s="46" t="s">
+      <c r="B354" s="62" t="s">
         <v>581</v>
       </c>
-      <c r="C354" s="47" t="s">
+      <c r="C354" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D354" s="47" t="s">
+      <c r="D354" s="61" t="s">
         <v>65</v>
       </c>
       <c r="E354" s="32" t="s">
@@ -11705,9 +11785,9 @@
       <c r="A355" s="33">
         <v>340</v>
       </c>
-      <c r="B355" s="46"/>
-      <c r="C355" s="47"/>
-      <c r="D355" s="47"/>
+      <c r="B355" s="62"/>
+      <c r="C355" s="61"/>
+      <c r="D355" s="61"/>
       <c r="E355" s="32" t="s">
         <v>589</v>
       </c>
@@ -11729,9 +11809,9 @@
       <c r="A356" s="33">
         <v>341</v>
       </c>
-      <c r="B356" s="46"/>
-      <c r="C356" s="47"/>
-      <c r="D356" s="47"/>
+      <c r="B356" s="62"/>
+      <c r="C356" s="61"/>
+      <c r="D356" s="61"/>
       <c r="E356" s="32" t="s">
         <v>590</v>
       </c>
@@ -11753,9 +11833,9 @@
       <c r="A357" s="33">
         <v>342</v>
       </c>
-      <c r="B357" s="46"/>
-      <c r="C357" s="47"/>
-      <c r="D357" s="47"/>
+      <c r="B357" s="62"/>
+      <c r="C357" s="61"/>
+      <c r="D357" s="61"/>
       <c r="E357" s="32" t="s">
         <v>594</v>
       </c>
@@ -11779,9 +11859,9 @@
       <c r="A358" s="33">
         <v>343</v>
       </c>
-      <c r="B358" s="46"/>
-      <c r="C358" s="47"/>
-      <c r="D358" s="47"/>
+      <c r="B358" s="62"/>
+      <c r="C358" s="61"/>
+      <c r="D358" s="61"/>
       <c r="E358" s="32" t="s">
         <v>591</v>
       </c>
@@ -11803,9 +11883,9 @@
       <c r="A359" s="33">
         <v>344</v>
       </c>
-      <c r="B359" s="46"/>
-      <c r="C359" s="47"/>
-      <c r="D359" s="47"/>
+      <c r="B359" s="62"/>
+      <c r="C359" s="61"/>
+      <c r="D359" s="61"/>
       <c r="E359" s="32" t="s">
         <v>592</v>
       </c>
@@ -11827,9 +11907,9 @@
       <c r="A360" s="33">
         <v>345</v>
       </c>
-      <c r="B360" s="46"/>
-      <c r="C360" s="47"/>
-      <c r="D360" s="47"/>
+      <c r="B360" s="62"/>
+      <c r="C360" s="61"/>
+      <c r="D360" s="61"/>
       <c r="E360" s="32" t="s">
         <v>593</v>
       </c>
@@ -11853,9 +11933,9 @@
       <c r="A361" s="33">
         <v>346</v>
       </c>
-      <c r="B361" s="46"/>
-      <c r="C361" s="47"/>
-      <c r="D361" s="47"/>
+      <c r="B361" s="62"/>
+      <c r="C361" s="61"/>
+      <c r="D361" s="61"/>
       <c r="E361" s="32" t="s">
         <v>595</v>
       </c>
@@ -11877,9 +11957,9 @@
       <c r="A362" s="33">
         <v>347</v>
       </c>
-      <c r="B362" s="46"/>
-      <c r="C362" s="47"/>
-      <c r="D362" s="47"/>
+      <c r="B362" s="62"/>
+      <c r="C362" s="61"/>
+      <c r="D362" s="61"/>
       <c r="E362" s="32" t="s">
         <v>596</v>
       </c>
@@ -11901,9 +11981,9 @@
       <c r="A363" s="33">
         <v>348</v>
       </c>
-      <c r="B363" s="46"/>
-      <c r="C363" s="47"/>
-      <c r="D363" s="47"/>
+      <c r="B363" s="62"/>
+      <c r="C363" s="61"/>
+      <c r="D363" s="61"/>
       <c r="E363" s="32" t="s">
         <v>599</v>
       </c>
@@ -11927,9 +12007,9 @@
       <c r="A364" s="33">
         <v>349</v>
       </c>
-      <c r="B364" s="46"/>
-      <c r="C364" s="47"/>
-      <c r="D364" s="47"/>
+      <c r="B364" s="62"/>
+      <c r="C364" s="61"/>
+      <c r="D364" s="61"/>
       <c r="E364" s="32" t="s">
         <v>600</v>
       </c>
@@ -11951,9 +12031,9 @@
       <c r="A365" s="33">
         <v>350</v>
       </c>
-      <c r="B365" s="46"/>
-      <c r="C365" s="47"/>
-      <c r="D365" s="47"/>
+      <c r="B365" s="62"/>
+      <c r="C365" s="61"/>
+      <c r="D365" s="61"/>
       <c r="E365" s="32" t="s">
         <v>601</v>
       </c>
@@ -11975,9 +12055,9 @@
       <c r="A366" s="33">
         <v>351</v>
       </c>
-      <c r="B366" s="46"/>
-      <c r="C366" s="47"/>
-      <c r="D366" s="47"/>
+      <c r="B366" s="62"/>
+      <c r="C366" s="61"/>
+      <c r="D366" s="61"/>
       <c r="E366" s="32" t="s">
         <v>604</v>
       </c>
@@ -12001,9 +12081,9 @@
       <c r="A367" s="33">
         <v>352</v>
       </c>
-      <c r="B367" s="46"/>
-      <c r="C367" s="47"/>
-      <c r="D367" s="47"/>
+      <c r="B367" s="62"/>
+      <c r="C367" s="61"/>
+      <c r="D367" s="61"/>
       <c r="E367" s="32" t="s">
         <v>605</v>
       </c>
@@ -12025,9 +12105,9 @@
       <c r="A368" s="33">
         <v>353</v>
       </c>
-      <c r="B368" s="46"/>
-      <c r="C368" s="47"/>
-      <c r="D368" s="47"/>
+      <c r="B368" s="62"/>
+      <c r="C368" s="61"/>
+      <c r="D368" s="61"/>
       <c r="E368" s="32" t="s">
         <v>606</v>
       </c>
@@ -12049,9 +12129,9 @@
       <c r="A369" s="33">
         <v>354</v>
       </c>
-      <c r="B369" s="46"/>
-      <c r="C369" s="47"/>
-      <c r="D369" s="47"/>
+      <c r="B369" s="62"/>
+      <c r="C369" s="61"/>
+      <c r="D369" s="61"/>
       <c r="E369" s="32" t="s">
         <v>609</v>
       </c>
@@ -12075,9 +12155,9 @@
       <c r="A370" s="33">
         <v>355</v>
       </c>
-      <c r="B370" s="46"/>
-      <c r="C370" s="47"/>
-      <c r="D370" s="47"/>
+      <c r="B370" s="62"/>
+      <c r="C370" s="61"/>
+      <c r="D370" s="61"/>
       <c r="E370" s="32" t="s">
         <v>610</v>
       </c>
@@ -12099,9 +12179,9 @@
       <c r="A371" s="33">
         <v>356</v>
       </c>
-      <c r="B371" s="46"/>
-      <c r="C371" s="47"/>
-      <c r="D371" s="47"/>
+      <c r="B371" s="62"/>
+      <c r="C371" s="61"/>
+      <c r="D371" s="61"/>
       <c r="E371" s="32" t="s">
         <v>611</v>
       </c>
@@ -12120,30 +12200,30 @@
       <c r="J371" s="13"/>
     </row>
     <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="60" t="s">
+      <c r="A372" s="54" t="s">
         <v>614</v>
       </c>
-      <c r="B372" s="60"/>
-      <c r="C372" s="60"/>
-      <c r="D372" s="60"/>
-      <c r="E372" s="60"/>
-      <c r="F372" s="60"/>
-      <c r="G372" s="60"/>
-      <c r="H372" s="60"/>
-      <c r="I372" s="60"/>
-      <c r="J372" s="60"/>
+      <c r="B372" s="54"/>
+      <c r="C372" s="54"/>
+      <c r="D372" s="54"/>
+      <c r="E372" s="54"/>
+      <c r="F372" s="54"/>
+      <c r="G372" s="54"/>
+      <c r="H372" s="54"/>
+      <c r="I372" s="54"/>
+      <c r="J372" s="54"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="33">
         <v>357</v>
       </c>
-      <c r="B373" s="46" t="s">
+      <c r="B373" s="62" t="s">
         <v>616</v>
       </c>
-      <c r="C373" s="47" t="s">
+      <c r="C373" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D373" s="47" t="s">
+      <c r="D373" s="61" t="s">
         <v>65</v>
       </c>
       <c r="E373" s="32" t="s">
@@ -12169,9 +12249,9 @@
       <c r="A374" s="33">
         <v>358</v>
       </c>
-      <c r="B374" s="46"/>
-      <c r="C374" s="47"/>
-      <c r="D374" s="47"/>
+      <c r="B374" s="62"/>
+      <c r="C374" s="61"/>
+      <c r="D374" s="61"/>
       <c r="E374" s="32" t="s">
         <v>617</v>
       </c>
@@ -12193,9 +12273,9 @@
       <c r="A375" s="33">
         <v>359</v>
       </c>
-      <c r="B375" s="46"/>
-      <c r="C375" s="47"/>
-      <c r="D375" s="47"/>
+      <c r="B375" s="62"/>
+      <c r="C375" s="61"/>
+      <c r="D375" s="61"/>
       <c r="E375" s="32" t="s">
         <v>618</v>
       </c>
@@ -12217,9 +12297,9 @@
       <c r="A376" s="33">
         <v>360</v>
       </c>
-      <c r="B376" s="46"/>
-      <c r="C376" s="47"/>
-      <c r="D376" s="47"/>
+      <c r="B376" s="62"/>
+      <c r="C376" s="61"/>
+      <c r="D376" s="61"/>
       <c r="E376" s="32" t="s">
         <v>621</v>
       </c>
@@ -12243,9 +12323,9 @@
       <c r="A377" s="33">
         <v>361</v>
       </c>
-      <c r="B377" s="46"/>
-      <c r="C377" s="47"/>
-      <c r="D377" s="47"/>
+      <c r="B377" s="62"/>
+      <c r="C377" s="61"/>
+      <c r="D377" s="61"/>
       <c r="E377" s="32" t="s">
         <v>622</v>
       </c>
@@ -12267,9 +12347,9 @@
       <c r="A378" s="33">
         <v>362</v>
       </c>
-      <c r="B378" s="46"/>
-      <c r="C378" s="47"/>
-      <c r="D378" s="47"/>
+      <c r="B378" s="62"/>
+      <c r="C378" s="61"/>
+      <c r="D378" s="61"/>
       <c r="E378" s="32" t="s">
         <v>623</v>
       </c>
@@ -12288,24 +12368,24 @@
       <c r="J378" s="32"/>
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="60" t="s">
+      <c r="A379" s="54" t="s">
         <v>626</v>
       </c>
-      <c r="B379" s="60"/>
-      <c r="C379" s="60"/>
-      <c r="D379" s="60"/>
-      <c r="E379" s="60"/>
-      <c r="F379" s="60"/>
-      <c r="G379" s="60"/>
-      <c r="H379" s="60"/>
-      <c r="I379" s="60"/>
-      <c r="J379" s="60"/>
+      <c r="B379" s="54"/>
+      <c r="C379" s="54"/>
+      <c r="D379" s="54"/>
+      <c r="E379" s="54"/>
+      <c r="F379" s="54"/>
+      <c r="G379" s="54"/>
+      <c r="H379" s="54"/>
+      <c r="I379" s="54"/>
+      <c r="J379" s="54"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="33"/>
-      <c r="B380" s="65"/>
-      <c r="C380" s="66"/>
-      <c r="D380" s="67"/>
+      <c r="B380" s="46"/>
+      <c r="C380" s="47"/>
+      <c r="D380" s="48"/>
       <c r="E380" s="33"/>
       <c r="F380" s="33"/>
       <c r="G380" s="33"/>
@@ -12315,9 +12395,9 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="33"/>
-      <c r="B381" s="65"/>
-      <c r="C381" s="66"/>
-      <c r="D381" s="67"/>
+      <c r="B381" s="46"/>
+      <c r="C381" s="47"/>
+      <c r="D381" s="48"/>
       <c r="E381" s="33"/>
       <c r="F381" s="33"/>
       <c r="G381" s="33"/>
@@ -12327,9 +12407,9 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="33"/>
-      <c r="B382" s="65"/>
-      <c r="C382" s="66"/>
-      <c r="D382" s="67"/>
+      <c r="B382" s="46"/>
+      <c r="C382" s="47"/>
+      <c r="D382" s="48"/>
       <c r="E382" s="33"/>
       <c r="F382" s="33"/>
       <c r="G382" s="33"/>
@@ -12339,9 +12419,9 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="33"/>
-      <c r="B383" s="65"/>
-      <c r="C383" s="66"/>
-      <c r="D383" s="67"/>
+      <c r="B383" s="46"/>
+      <c r="C383" s="47"/>
+      <c r="D383" s="48"/>
       <c r="E383" s="33"/>
       <c r="F383" s="33"/>
       <c r="G383" s="33"/>
@@ -12351,9 +12431,9 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="33"/>
-      <c r="B384" s="65"/>
-      <c r="C384" s="66"/>
-      <c r="D384" s="67"/>
+      <c r="B384" s="46"/>
+      <c r="C384" s="47"/>
+      <c r="D384" s="48"/>
       <c r="E384" s="33"/>
       <c r="F384" s="33"/>
       <c r="G384" s="33"/>
@@ -12363,9 +12443,9 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="33"/>
-      <c r="B385" s="65"/>
-      <c r="C385" s="66"/>
-      <c r="D385" s="67"/>
+      <c r="B385" s="46"/>
+      <c r="C385" s="47"/>
+      <c r="D385" s="48"/>
       <c r="E385" s="33"/>
       <c r="F385" s="33"/>
       <c r="G385" s="33"/>
@@ -12375,9 +12455,9 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="33"/>
-      <c r="B386" s="65"/>
-      <c r="C386" s="66"/>
-      <c r="D386" s="67"/>
+      <c r="B386" s="46"/>
+      <c r="C386" s="47"/>
+      <c r="D386" s="48"/>
       <c r="E386" s="33"/>
       <c r="F386" s="33"/>
       <c r="G386" s="33"/>
@@ -12387,9 +12467,9 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="33"/>
-      <c r="B387" s="65"/>
-      <c r="C387" s="66"/>
-      <c r="D387" s="67"/>
+      <c r="B387" s="46"/>
+      <c r="C387" s="47"/>
+      <c r="D387" s="48"/>
       <c r="E387" s="33"/>
       <c r="F387" s="33"/>
       <c r="G387" s="33"/>
@@ -12399,9 +12479,9 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="33"/>
-      <c r="B388" s="65"/>
-      <c r="C388" s="66"/>
-      <c r="D388" s="67"/>
+      <c r="B388" s="46"/>
+      <c r="C388" s="47"/>
+      <c r="D388" s="48"/>
       <c r="E388" s="33"/>
       <c r="F388" s="33"/>
       <c r="G388" s="33"/>
@@ -12411,9 +12491,9 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="33"/>
-      <c r="B389" s="65"/>
-      <c r="C389" s="66"/>
-      <c r="D389" s="67"/>
+      <c r="B389" s="46"/>
+      <c r="C389" s="47"/>
+      <c r="D389" s="48"/>
       <c r="E389" s="33"/>
       <c r="F389" s="33"/>
       <c r="G389" s="33"/>
@@ -12423,9 +12503,9 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="33"/>
-      <c r="B390" s="65"/>
-      <c r="C390" s="66"/>
-      <c r="D390" s="67"/>
+      <c r="B390" s="46"/>
+      <c r="C390" s="47"/>
+      <c r="D390" s="48"/>
       <c r="E390" s="33"/>
       <c r="F390" s="33"/>
       <c r="G390" s="33"/>
@@ -12435,9 +12515,9 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="33"/>
-      <c r="B391" s="65"/>
-      <c r="C391" s="66"/>
-      <c r="D391" s="67"/>
+      <c r="B391" s="46"/>
+      <c r="C391" s="47"/>
+      <c r="D391" s="48"/>
       <c r="E391" s="33"/>
       <c r="F391" s="33"/>
       <c r="G391" s="33"/>
@@ -12447,9 +12527,9 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="33"/>
-      <c r="B392" s="65"/>
-      <c r="C392" s="66"/>
-      <c r="D392" s="67"/>
+      <c r="B392" s="46"/>
+      <c r="C392" s="47"/>
+      <c r="D392" s="48"/>
       <c r="E392" s="33"/>
       <c r="F392" s="33"/>
       <c r="G392" s="33"/>
@@ -12459,11 +12539,11 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="5"/>
-      <c r="B393" s="71" t="s">
+      <c r="B393" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="C393" s="72"/>
-      <c r="D393" s="73"/>
+      <c r="C393" s="59"/>
+      <c r="D393" s="60"/>
       <c r="E393" s="5"/>
       <c r="F393" s="5"/>
       <c r="G393" s="5"/>
@@ -12476,8 +12556,8 @@
       <c r="B394" s="25"/>
       <c r="C394" s="25"/>
       <c r="D394" s="25"/>
-      <c r="E394" s="68"/>
-      <c r="F394" s="69"/>
+      <c r="E394" s="49"/>
+      <c r="F394" s="50"/>
       <c r="G394" s="5"/>
       <c r="H394" s="5"/>
       <c r="I394" s="5"/>
@@ -12655,23 +12735,98 @@
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="G348:G352"/>
-    <mergeCell ref="A353:J353"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="B328:B352"/>
-    <mergeCell ref="C328:C339"/>
-    <mergeCell ref="D328:D339"/>
-    <mergeCell ref="D340:D347"/>
-    <mergeCell ref="C340:C347"/>
-    <mergeCell ref="B393:D393"/>
-    <mergeCell ref="C354:C371"/>
-    <mergeCell ref="D354:D371"/>
-    <mergeCell ref="B354:B371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A379:J379"/>
-    <mergeCell ref="D373:D378"/>
-    <mergeCell ref="C373:C378"/>
-    <mergeCell ref="B373:B378"/>
+    <mergeCell ref="A327:J327"/>
+    <mergeCell ref="D238:D260"/>
+    <mergeCell ref="C238:C260"/>
+    <mergeCell ref="A314:J314"/>
+    <mergeCell ref="B315:B326"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="C321:C325"/>
+    <mergeCell ref="D321:D325"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="D261:D274"/>
+    <mergeCell ref="C261:C274"/>
+    <mergeCell ref="B238:B274"/>
+    <mergeCell ref="A275:J275"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="A301:J301"/>
+    <mergeCell ref="B302:B313"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="D302:D307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="D308:D312"/>
+    <mergeCell ref="A288:J288"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="C295:C299"/>
+    <mergeCell ref="D295:D299"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B276:B287"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="B211:B224"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="C211:C219"/>
+    <mergeCell ref="B166:B179"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D166:D174"/>
+    <mergeCell ref="C166:C174"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D2:D32"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="C79:C84"/>
     <mergeCell ref="D91:D96"/>
     <mergeCell ref="C91:C96"/>
     <mergeCell ref="D103:D110"/>
@@ -12696,98 +12851,23 @@
     <mergeCell ref="C160:C161"/>
     <mergeCell ref="A165:J165"/>
     <mergeCell ref="F348:F352"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="B2:B39"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B91:B101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D2:D32"/>
-    <mergeCell ref="B166:B179"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D152:D159"/>
-    <mergeCell ref="C152:C159"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="C166:C174"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="C181:C189"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A237:J237"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="B196:B209"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="B211:B224"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="C211:C219"/>
-    <mergeCell ref="D308:D312"/>
-    <mergeCell ref="A288:J288"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="C295:C299"/>
-    <mergeCell ref="D295:D299"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B276:B287"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="A327:J327"/>
-    <mergeCell ref="D238:D260"/>
-    <mergeCell ref="C238:C260"/>
-    <mergeCell ref="A314:J314"/>
-    <mergeCell ref="B315:B326"/>
-    <mergeCell ref="C315:C320"/>
-    <mergeCell ref="D315:D320"/>
-    <mergeCell ref="C321:C325"/>
-    <mergeCell ref="D321:D325"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="D261:D274"/>
-    <mergeCell ref="C261:C274"/>
-    <mergeCell ref="B238:B274"/>
-    <mergeCell ref="A275:J275"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="A301:J301"/>
-    <mergeCell ref="B302:B313"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="D302:D307"/>
-    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="G348:G352"/>
+    <mergeCell ref="A353:J353"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="B328:B352"/>
+    <mergeCell ref="C328:C339"/>
+    <mergeCell ref="D328:D339"/>
+    <mergeCell ref="D340:D347"/>
+    <mergeCell ref="C340:C347"/>
+    <mergeCell ref="B393:D393"/>
+    <mergeCell ref="C354:C371"/>
+    <mergeCell ref="D354:D371"/>
+    <mergeCell ref="B354:B371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A379:J379"/>
+    <mergeCell ref="D373:D378"/>
+    <mergeCell ref="C373:C378"/>
+    <mergeCell ref="B373:B378"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -12795,6 +12875,323 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="77" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>637</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C3" s="79">
+        <v>0.24</v>
+      </c>
+      <c r="D3" s="80">
+        <f>15*C3</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C4" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="80">
+        <f t="shared" ref="D4:D10" si="0">15*C4</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="81">
+        <f>D4-D3</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>649</v>
+      </c>
+      <c r="G4" s="78"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="80">
+        <f t="shared" si="0"/>
+        <v>8.25</v>
+      </c>
+      <c r="E5" s="81">
+        <f t="shared" ref="E5:E8" si="1">D5-D4</f>
+        <v>2.25</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>649</v>
+      </c>
+      <c r="G5" s="78"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0.82</v>
+      </c>
+      <c r="D6" s="80">
+        <f t="shared" si="0"/>
+        <v>12.299999999999999</v>
+      </c>
+      <c r="E6" s="81">
+        <f t="shared" si="1"/>
+        <v>4.0499999999999989</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C7" s="79">
+        <v>1.08</v>
+      </c>
+      <c r="D7" s="80">
+        <f t="shared" si="0"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="E7" s="81">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000039</v>
+      </c>
+      <c r="F7" s="81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" s="79">
+        <v>1.48</v>
+      </c>
+      <c r="D8" s="80">
+        <f t="shared" si="0"/>
+        <v>22.2</v>
+      </c>
+      <c r="E8" s="81">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999964</v>
+      </c>
+      <c r="F8" s="81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="80">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="77" t="s">
+        <v>635</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>637</v>
+      </c>
+      <c r="D13" s="77" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0.24</v>
+      </c>
+      <c r="D14" s="80">
+        <f>15*C14</f>
+        <v>3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="79">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="80">
+        <f t="shared" ref="D15:D21" si="2">15*C15</f>
+        <v>6</v>
+      </c>
+      <c r="E15" s="81">
+        <f>D15-D14</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C16" s="79">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D16" s="80">
+        <f t="shared" si="2"/>
+        <v>8.25</v>
+      </c>
+      <c r="E16" s="81">
+        <f t="shared" ref="E16:E19" si="3">D16-D15</f>
+        <v>2.25</v>
+      </c>
+      <c r="F16" s="81" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" s="79">
+        <v>1.02</v>
+      </c>
+      <c r="D17" s="80">
+        <f t="shared" si="2"/>
+        <v>15.3</v>
+      </c>
+      <c r="E17" s="81">
+        <f t="shared" si="3"/>
+        <v>7.0500000000000007</v>
+      </c>
+      <c r="F17" s="81" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C18" s="79">
+        <v>1.48</v>
+      </c>
+      <c r="D18" s="80">
+        <f t="shared" si="2"/>
+        <v>22.2</v>
+      </c>
+      <c r="E18" s="81">
+        <f t="shared" si="3"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C19" s="79">
+        <v>1.94</v>
+      </c>
+      <c r="D19" s="80">
+        <f t="shared" si="2"/>
+        <v>29.099999999999998</v>
+      </c>
+      <c r="E19" s="81">
+        <f t="shared" si="3"/>
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -12823,30 +13220,30 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="61" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="70" t="s">
         <v>578</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70" t="s">
         <v>577</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -13721,7 +14118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -13750,30 +14147,30 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="71" t="s">
         <v>629</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="70" t="s">
         <v>628</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -14614,7 +15011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -14643,30 +15040,30 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="71" t="s">
         <v>630</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="70" t="s">
         <v>631</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -15507,7 +15904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
@@ -15536,30 +15933,30 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="71" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="62" t="s">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="71" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="62" t="s">
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="71" t="s">
         <v>632</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="61" t="s">
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="70" t="s">
         <v>633</v>
       </c>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -16395,333 +16792,6 @@
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="63"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3*220/(330220)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7">
-        <f>C3*8.2</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="7">
-        <f>E3*1.6</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C15" si="0">B4*220/(330220)</f>
-        <v>1.6655562958027982E-2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E15" si="1">C4*8.2</f>
-        <v>0.13657561625582945</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G15" si="2">E4*1.6</f>
-        <v>0.21852098600932712</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="0"/>
-        <v>3.3311125916055964E-2</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>0.2731512325116589</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.43704197201865425</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>75</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9966688874083946E-2</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.40972684876748833</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.65556295802798137</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6622251832111928E-2</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7">
-        <f t="shared" si="1"/>
-        <v>0.54630246502331781</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.87408394403730849</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>125</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3277814790139904E-2</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.68287808127914718</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0926049300466356</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>150</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9933377748167893E-2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.81945369753497665</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3111259160559627</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>175</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11658894070619587</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.95602931379080602</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5296469020652896</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>200</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13324450366422386</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0926049300466356</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>1.748167888074617</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>225</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14990006662225183</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>1.229180546302465</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9666888740839441</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>250</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16655562958027981</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>1.3657561625582944</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>2.1852098600932712</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>275</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.18321119253830778</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5023317788141237</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4037308461025981</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>300</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19986675549633579</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6389073950699533</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="7">
-        <f t="shared" si="2"/>
-        <v>2.6222518321119255</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16748,22 +16818,22 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="63"/>
+      <c r="C1" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>296</v>
@@ -17055,6 +17125,333 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="73"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f>B3*220/(330220)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7">
+        <f>C3*8.2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7">
+        <f>E3*1.6</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C15" si="0">B4*220/(330220)</f>
+        <v>1.6655562958027982E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E15" si="1">C4*8.2</f>
+        <v>0.13657561625582945</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G15" si="2">E4*1.6</f>
+        <v>0.21852098600932712</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3311125916055964E-2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2731512325116589</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.43704197201865425</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9966688874083946E-2</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40972684876748833</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.65556295802798137</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6622251832111928E-2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54630246502331781</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.87408394403730849</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3277814790139904E-2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.68287808127914718</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0926049300466356</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>9.9933377748167893E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81945369753497665</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3111259160559627</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>175</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11658894070619587</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95602931379080602</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5296469020652896</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>200</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13324450366422386</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0926049300466356</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.748167888074617</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>225</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14990006662225183</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.229180546302465</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9666888740839441</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>250</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16655562958027981</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3657561625582944</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1852098600932712</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>275</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18321119253830778</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5023317788141237</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4037308461025981</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>300</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19986675549633579</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6389073950699533</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6222518321119255</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H15"/>
   <sheetViews>
@@ -17075,18 +17472,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61" t="s">
+      <c r="D1" s="70"/>
+      <c r="E1" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="71" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="63"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesutto\Desktop\github work\IMMD\Prototype\Test\kontrol kartı\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\immdrepo\Prototype\Test\kontrol kartı\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
-    <sheet name="Flyback Yük" sheetId="9" r:id="rId2"/>
-    <sheet name="Voltage-M1" sheetId="2" r:id="rId3"/>
-    <sheet name="Voltage-M3" sheetId="6" r:id="rId4"/>
-    <sheet name="Voltage-M2" sheetId="7" r:id="rId5"/>
-    <sheet name="Voltage-M4" sheetId="8" r:id="rId6"/>
-    <sheet name="Voltage-M2-old" sheetId="4" r:id="rId7"/>
-    <sheet name="Voltage-M3-old" sheetId="3" r:id="rId8"/>
-    <sheet name="Voltage-M4-old" sheetId="5" r:id="rId9"/>
+    <sheet name="Flyback" sheetId="10" r:id="rId2"/>
+    <sheet name="Flyback Yük" sheetId="9" r:id="rId3"/>
+    <sheet name="Voltage-M1" sheetId="2" r:id="rId4"/>
+    <sheet name="Voltage-M3" sheetId="6" r:id="rId5"/>
+    <sheet name="Voltage-M2" sheetId="7" r:id="rId6"/>
+    <sheet name="Voltage-M4" sheetId="8" r:id="rId7"/>
+    <sheet name="Voltage-M2-old" sheetId="4" r:id="rId8"/>
+    <sheet name="Voltage-M3-old" sheetId="3" r:id="rId9"/>
+    <sheet name="Voltage-M4-old" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="774">
   <si>
     <t>Test Türü</t>
   </si>
@@ -1971,9 +1972,6 @@
     <t>230V'ta yğklendi</t>
   </si>
   <si>
-    <t>Isınma çok az</t>
-  </si>
-  <si>
     <t>M4 vida gerekli</t>
   </si>
   <si>
@@ -2529,6 +2527,69 @@
   </si>
   <si>
     <t>Delay farkı</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>VOUT</t>
+  </si>
+  <si>
+    <t>Freq</t>
+  </si>
+  <si>
+    <t>Rcl = 61.9K</t>
+  </si>
+  <si>
+    <t>No load</t>
+  </si>
+  <si>
+    <t>fan: 2.35W</t>
+  </si>
+  <si>
+    <t>2fan</t>
+  </si>
+  <si>
+    <t>yüka: 7W</t>
+  </si>
+  <si>
+    <t>1yüka</t>
+  </si>
+  <si>
+    <t>yükb: 2W</t>
+  </si>
+  <si>
+    <t>2fan + 1yüka</t>
+  </si>
+  <si>
+    <t>2yüka</t>
+  </si>
+  <si>
+    <t>2fan + 2yüka</t>
+  </si>
+  <si>
+    <t>3yüka</t>
+  </si>
+  <si>
+    <t>2fan + 3yüka</t>
+  </si>
+  <si>
+    <t>1fan + 3yüka + 3yükb</t>
+  </si>
+  <si>
+    <t>Rdeğişti</t>
+  </si>
+  <si>
+    <t>50K</t>
+  </si>
+  <si>
+    <t>Yarım saat çalıştı</t>
+  </si>
+  <si>
+    <t>88 C max</t>
   </si>
 </sst>
 </file>
@@ -2752,7 +2813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2897,13 +2958,28 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2915,14 +2991,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2941,18 +3026,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2975,15 +3048,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3042,7 +3109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3487,7 +3553,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3609,7 +3674,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3684,7 +3748,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3792,7 +3855,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4237,7 +4299,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4359,7 +4420,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4434,7 +4494,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4542,7 +4601,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4987,7 +5045,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5109,7 +5166,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5184,7 +5240,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5292,7 +5347,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5737,7 +5791,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5859,7 +5912,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5934,7 +5986,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8636,9 +8687,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J461"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G386" sqref="G386"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,13 +8742,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -8721,9 +8772,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="63"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="10" t="s">
         <v>509</v>
       </c>
@@ -8745,9 +8796,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="10" t="s">
         <v>510</v>
       </c>
@@ -8769,9 +8820,9 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="10" t="s">
         <v>404</v>
       </c>
@@ -8793,9 +8844,9 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="10" t="s">
         <v>405</v>
       </c>
@@ -8817,9 +8868,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="63"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="10" t="s">
         <v>406</v>
       </c>
@@ -8841,9 +8892,9 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="63"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -8865,9 +8916,9 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="63"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="10" t="s">
         <v>407</v>
       </c>
@@ -8889,9 +8940,9 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="10" t="s">
         <v>408</v>
       </c>
@@ -8913,9 +8964,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="63"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="10" t="s">
         <v>409</v>
       </c>
@@ -8937,9 +8988,9 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="10" t="s">
         <v>410</v>
       </c>
@@ -8961,9 +9012,9 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="63"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="10" t="s">
         <v>421</v>
       </c>
@@ -8985,9 +9036,9 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="63"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="10" t="s">
         <v>411</v>
       </c>
@@ -9009,9 +9060,9 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="10" t="s">
         <v>412</v>
       </c>
@@ -9033,9 +9084,9 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="10" t="s">
         <v>422</v>
       </c>
@@ -9057,9 +9108,9 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="63"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="10" t="s">
         <v>413</v>
       </c>
@@ -9081,9 +9132,9 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="63"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="10" t="s">
         <v>414</v>
       </c>
@@ -9105,9 +9156,9 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="63"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="10" t="s">
         <v>415</v>
       </c>
@@ -9129,9 +9180,9 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="63"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="10" t="s">
         <v>416</v>
       </c>
@@ -9153,9 +9204,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="63"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="10" t="s">
         <v>417</v>
       </c>
@@ -9177,9 +9228,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="63"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="10" t="s">
         <v>418</v>
       </c>
@@ -9201,9 +9252,9 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="63"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="10" t="s">
         <v>419</v>
       </c>
@@ -9225,9 +9276,9 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="10" t="s">
         <v>423</v>
       </c>
@@ -9249,9 +9300,9 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="57"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="63"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="10" t="s">
         <v>424</v>
       </c>
@@ -9273,9 +9324,9 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="57"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="63"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="10" t="s">
         <v>425</v>
       </c>
@@ -9297,9 +9348,9 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="63"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="10" t="s">
         <v>426</v>
       </c>
@@ -9321,9 +9372,9 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="63"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="10" t="s">
         <v>427</v>
       </c>
@@ -9345,9 +9396,9 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="63"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="10" t="s">
         <v>428</v>
       </c>
@@ -9369,9 +9420,9 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="63"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="61"/>
       <c r="E30" s="10" t="s">
         <v>429</v>
       </c>
@@ -9393,9 +9444,9 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="63"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="10" t="s">
         <v>430</v>
       </c>
@@ -9417,9 +9468,9 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="64"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="10" t="s">
         <v>431</v>
       </c>
@@ -9441,11 +9492,11 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="58" t="s">
+      <c r="B33" s="71"/>
+      <c r="C33" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="71" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -9469,9 +9520,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="57"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="29" t="s">
         <v>22</v>
       </c>
@@ -9495,9 +9546,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="57"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
       <c r="E35" s="29" t="s">
         <v>23</v>
       </c>
@@ -9521,8 +9572,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="58"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="29" t="s">
         <v>63</v>
       </c>
@@ -9547,7 +9598,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="57"/>
+      <c r="B37" s="71"/>
       <c r="C37" s="11" t="s">
         <v>118</v>
       </c>
@@ -9577,7 +9628,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="57"/>
+      <c r="B38" s="71"/>
       <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
@@ -9596,8 +9647,8 @@
       <c r="H38" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="29" t="s">
-        <v>526</v>
+      <c r="I38" s="56" t="s">
+        <v>508</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>567</v>
@@ -9607,7 +9658,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="29" t="s">
         <v>57</v>
       </c>
@@ -9626,38 +9677,38 @@
       <c r="H39" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I39" s="29" t="s">
-        <v>526</v>
+      <c r="I39" s="56" t="s">
+        <v>508</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>568</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="71" t="s">
+      <c r="A40" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -9681,9 +9732,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -9705,9 +9756,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -9729,9 +9780,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -9753,9 +9804,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -9777,9 +9828,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="57"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="70"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -9801,9 +9852,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -9825,9 +9876,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -9849,11 +9900,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="58" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="71" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -9877,9 +9928,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="57"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -9901,9 +9952,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="58"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -9925,9 +9976,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -9949,13 +10000,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -9979,9 +10030,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -10003,9 +10054,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -10027,9 +10078,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -10051,9 +10102,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -10075,9 +10126,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -10099,9 +10150,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -10123,9 +10174,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="57"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -10147,11 +10198,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="57"/>
-      <c r="C61" s="58" t="s">
+      <c r="B61" s="71"/>
+      <c r="C61" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="58" t="s">
+      <c r="D61" s="70" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -10175,9 +10226,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="70"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -10199,9 +10250,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="57"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
+      <c r="B63" s="71"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="70"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -10223,9 +10274,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="57"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -10244,30 +10295,30 @@
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="71" t="s">
+      <c r="A65" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="71"/>
-      <c r="J65" s="71"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="63"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B66" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="59" t="s">
+      <c r="C66" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="62" t="s">
+      <c r="D66" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -10291,9 +10342,9 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="58"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="63"/>
+      <c r="B67" s="70"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
       </c>
@@ -10315,9 +10366,9 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="58"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="63"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="61"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
@@ -10339,9 +10390,9 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="63"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="61"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
       </c>
@@ -10363,9 +10414,9 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="58"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="63"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="61"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
       </c>
@@ -10387,9 +10438,9 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="58"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="63"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="61"/>
       <c r="E71" s="10" t="s">
         <v>432</v>
       </c>
@@ -10411,9 +10462,9 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="58"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="64"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="62"/>
       <c r="E72" s="10" t="s">
         <v>433</v>
       </c>
@@ -10435,8 +10486,8 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="58"/>
-      <c r="C73" s="59" t="s">
+      <c r="B73" s="70"/>
+      <c r="C73" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -10465,8 +10516,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="58"/>
-      <c r="C74" s="61"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
@@ -10493,7 +10544,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="58"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
@@ -10523,7 +10574,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="58"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -10553,7 +10604,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="58"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -10580,30 +10631,30 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="71" t="s">
+      <c r="A78" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="71"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="71"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="71"/>
-      <c r="I78" s="71"/>
-      <c r="J78" s="71"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="63"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="58" t="s">
+      <c r="B79" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="62" t="s">
+      <c r="D79" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -10627,9 +10678,9 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="58"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="63"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="61"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
       </c>
@@ -10651,9 +10702,9 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="58"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="63"/>
+      <c r="B81" s="70"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="61"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
       </c>
@@ -10675,9 +10726,9 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="58"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="63"/>
+      <c r="B82" s="70"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="61"/>
       <c r="E82" s="10" t="s">
         <v>434</v>
       </c>
@@ -10699,9 +10750,9 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="58"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="63"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="61"/>
       <c r="E83" s="10" t="s">
         <v>435</v>
       </c>
@@ -10723,9 +10774,9 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="64"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="62"/>
       <c r="E84" s="10" t="s">
         <v>436</v>
       </c>
@@ -10747,8 +10798,8 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="59" t="s">
+      <c r="B85" s="70"/>
+      <c r="C85" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -10777,8 +10828,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="61"/>
+      <c r="B86" s="70"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
@@ -10805,7 +10856,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="58"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="11" t="s">
         <v>118</v>
       </c>
@@ -10835,7 +10886,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="58"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -10865,7 +10916,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="58"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -10892,30 +10943,30 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="71" t="s">
+      <c r="A90" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="71"/>
-      <c r="C90" s="71"/>
-      <c r="D90" s="71"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71"/>
-      <c r="H90" s="71"/>
-      <c r="I90" s="71"/>
-      <c r="J90" s="71"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="63"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="59" t="s">
+      <c r="C91" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="62" t="s">
+      <c r="D91" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -10939,9 +10990,9 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="58"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="63"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="61"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
       </c>
@@ -10963,9 +11014,9 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="58"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="63"/>
+      <c r="B93" s="70"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="61"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
@@ -10987,9 +11038,9 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="63"/>
+      <c r="B94" s="70"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="61"/>
       <c r="E94" s="10" t="s">
         <v>437</v>
       </c>
@@ -11011,9 +11062,9 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="58"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="63"/>
+      <c r="B95" s="70"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="61"/>
       <c r="E95" s="10" t="s">
         <v>438</v>
       </c>
@@ -11035,9 +11086,9 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="58"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="64"/>
+      <c r="B96" s="70"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="62"/>
       <c r="E96" s="10" t="s">
         <v>439</v>
       </c>
@@ -11059,8 +11110,8 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="58"/>
-      <c r="C97" s="59" t="s">
+      <c r="B97" s="70"/>
+      <c r="C97" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -11089,8 +11140,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="58"/>
-      <c r="C98" s="61"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
       </c>
@@ -11117,7 +11168,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="58"/>
+      <c r="B99" s="70"/>
       <c r="C99" s="11" t="s">
         <v>118</v>
       </c>
@@ -11147,7 +11198,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="58"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -11177,7 +11228,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="58"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -11204,30 +11255,30 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="71" t="s">
+      <c r="A102" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
-      <c r="H102" s="71"/>
-      <c r="I102" s="71"/>
-      <c r="J102" s="71"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="63"/>
+      <c r="H102" s="63"/>
+      <c r="I102" s="63"/>
+      <c r="J102" s="63"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="62" t="s">
+      <c r="D103" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -11251,9 +11302,9 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="60"/>
-      <c r="D104" s="63"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="61"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
       </c>
@@ -11275,9 +11326,9 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="58"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="63"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="61"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
       </c>
@@ -11299,9 +11350,9 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="58"/>
-      <c r="C106" s="60"/>
-      <c r="D106" s="63"/>
+      <c r="B106" s="70"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="61"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
       </c>
@@ -11323,9 +11374,9 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="58"/>
-      <c r="C107" s="60"/>
-      <c r="D107" s="63"/>
+      <c r="B107" s="70"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="61"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
       </c>
@@ -11347,9 +11398,9 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="58"/>
-      <c r="C108" s="60"/>
-      <c r="D108" s="63"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="61"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
@@ -11371,9 +11422,9 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="58"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="63"/>
+      <c r="B109" s="70"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="61"/>
       <c r="E109" s="10" t="s">
         <v>440</v>
       </c>
@@ -11395,9 +11446,9 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="58"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="64"/>
+      <c r="B110" s="70"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="62"/>
       <c r="E110" s="10" t="s">
         <v>441</v>
       </c>
@@ -11419,8 +11470,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="58"/>
-      <c r="C111" s="58" t="s">
+      <c r="B111" s="70"/>
+      <c r="C111" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -11449,8 +11500,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="58"/>
-      <c r="C112" s="58"/>
+      <c r="B112" s="70"/>
+      <c r="C112" s="70"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -11477,8 +11528,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="58"/>
-      <c r="C113" s="58"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -11503,7 +11554,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="58"/>
+      <c r="B114" s="70"/>
       <c r="C114" s="11" t="s">
         <v>118</v>
       </c>
@@ -11530,30 +11581,30 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="71" t="s">
+      <c r="A115" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="71"/>
-      <c r="C115" s="71"/>
-      <c r="D115" s="71"/>
-      <c r="E115" s="71"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="71"/>
-      <c r="H115" s="71"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="71"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="63"/>
+      <c r="D115" s="63"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
+      <c r="H115" s="63"/>
+      <c r="I115" s="63"/>
+      <c r="J115" s="63"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="58" t="s">
+      <c r="B116" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="59" t="s">
+      <c r="C116" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="62" t="s">
+      <c r="D116" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E116" s="12" t="s">
@@ -11577,9 +11628,9 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="58"/>
-      <c r="C117" s="60"/>
-      <c r="D117" s="63"/>
+      <c r="B117" s="70"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="61"/>
       <c r="E117" s="12" t="s">
         <v>128</v>
       </c>
@@ -11601,9 +11652,9 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="58"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="63"/>
+      <c r="B118" s="70"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="61"/>
       <c r="E118" s="12" t="s">
         <v>442</v>
       </c>
@@ -11625,9 +11676,9 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="58"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="63"/>
+      <c r="B119" s="70"/>
+      <c r="C119" s="65"/>
+      <c r="D119" s="61"/>
       <c r="E119" s="12" t="s">
         <v>129</v>
       </c>
@@ -11651,9 +11702,9 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="58"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="63"/>
+      <c r="B120" s="70"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="61"/>
       <c r="E120" s="12" t="s">
         <v>443</v>
       </c>
@@ -11675,9 +11726,9 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="58"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="64"/>
+      <c r="B121" s="70"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="62"/>
       <c r="E121" s="12" t="s">
         <v>444</v>
       </c>
@@ -11699,8 +11750,8 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="58"/>
-      <c r="C122" s="59" t="s">
+      <c r="B122" s="70"/>
+      <c r="C122" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="12" t="s">
@@ -11729,8 +11780,8 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="58"/>
-      <c r="C123" s="60"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="12" t="s">
         <v>63</v>
       </c>
@@ -11757,8 +11808,8 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="58"/>
-      <c r="C124" s="61"/>
+      <c r="B124" s="70"/>
+      <c r="C124" s="66"/>
       <c r="D124" s="12" t="s">
         <v>65</v>
       </c>
@@ -11785,7 +11836,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="58"/>
+      <c r="B125" s="70"/>
       <c r="C125" s="12" t="s">
         <v>57</v>
       </c>
@@ -11812,30 +11863,30 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="71" t="s">
+      <c r="A126" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="71"/>
-      <c r="C126" s="71"/>
-      <c r="D126" s="71"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="71"/>
-      <c r="G126" s="71"/>
-      <c r="H126" s="71"/>
-      <c r="I126" s="71"/>
-      <c r="J126" s="71"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>119</v>
       </c>
-      <c r="B127" s="62" t="s">
+      <c r="B127" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="59" t="s">
+      <c r="C127" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="62" t="s">
+      <c r="D127" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E127" s="23" t="s">
@@ -11859,9 +11910,9 @@
       <c r="A128" s="8">
         <v>120</v>
       </c>
-      <c r="B128" s="63"/>
-      <c r="C128" s="60"/>
-      <c r="D128" s="63"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="61"/>
       <c r="E128" s="23" t="s">
         <v>145</v>
       </c>
@@ -11883,9 +11934,9 @@
       <c r="A129" s="8">
         <v>121</v>
       </c>
-      <c r="B129" s="63"/>
-      <c r="C129" s="60"/>
-      <c r="D129" s="63"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="61"/>
       <c r="E129" s="23" t="s">
         <v>148</v>
       </c>
@@ -11907,9 +11958,9 @@
       <c r="A130" s="8">
         <v>122</v>
       </c>
-      <c r="B130" s="63"/>
-      <c r="C130" s="60"/>
-      <c r="D130" s="63"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="61"/>
       <c r="E130" s="23" t="s">
         <v>445</v>
       </c>
@@ -11931,9 +11982,9 @@
       <c r="A131" s="8">
         <v>123</v>
       </c>
-      <c r="B131" s="63"/>
-      <c r="C131" s="60"/>
-      <c r="D131" s="63"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="61"/>
       <c r="E131" s="23" t="s">
         <v>154</v>
       </c>
@@ -11955,9 +12006,9 @@
       <c r="A132" s="8">
         <v>124</v>
       </c>
-      <c r="B132" s="63"/>
-      <c r="C132" s="61"/>
-      <c r="D132" s="64"/>
+      <c r="B132" s="61"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="62"/>
       <c r="E132" s="23" t="s">
         <v>446</v>
       </c>
@@ -11979,11 +12030,11 @@
       <c r="A133" s="8">
         <v>125</v>
       </c>
-      <c r="B133" s="63"/>
-      <c r="C133" s="59" t="s">
+      <c r="B133" s="61"/>
+      <c r="C133" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="59" t="s">
+      <c r="D133" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E133" s="23" t="s">
@@ -12009,9 +12060,9 @@
       <c r="A134" s="8">
         <v>126</v>
       </c>
-      <c r="B134" s="63"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="60"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
       <c r="E134" s="23" t="s">
         <v>145</v>
       </c>
@@ -12035,9 +12086,9 @@
       <c r="A135" s="8">
         <v>127</v>
       </c>
-      <c r="B135" s="63"/>
-      <c r="C135" s="60"/>
-      <c r="D135" s="60"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="65"/>
       <c r="E135" s="23" t="s">
         <v>148</v>
       </c>
@@ -12061,9 +12112,9 @@
       <c r="A136" s="8">
         <v>128</v>
       </c>
-      <c r="B136" s="63"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
       <c r="E136" s="23" t="s">
         <v>154</v>
       </c>
@@ -12087,9 +12138,9 @@
       <c r="A137" s="8">
         <v>129</v>
       </c>
-      <c r="B137" s="63"/>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="65"/>
       <c r="E137" s="23" t="s">
         <v>446</v>
       </c>
@@ -12113,9 +12164,9 @@
       <c r="A138" s="8">
         <v>130</v>
       </c>
-      <c r="B138" s="63"/>
-      <c r="C138" s="60"/>
-      <c r="D138" s="60"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
       <c r="E138" s="23" t="s">
         <v>447</v>
       </c>
@@ -12139,9 +12190,9 @@
       <c r="A139" s="8">
         <v>131</v>
       </c>
-      <c r="B139" s="63"/>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
       <c r="E139" s="23" t="s">
         <v>157</v>
       </c>
@@ -12165,9 +12216,9 @@
       <c r="A140" s="8">
         <v>132</v>
       </c>
-      <c r="B140" s="63"/>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
+      <c r="B140" s="61"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
       <c r="E140" s="23" t="s">
         <v>162</v>
       </c>
@@ -12191,9 +12242,9 @@
       <c r="A141" s="8">
         <v>133</v>
       </c>
-      <c r="B141" s="63"/>
-      <c r="C141" s="60"/>
-      <c r="D141" s="60"/>
+      <c r="B141" s="61"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="65"/>
       <c r="E141" s="23" t="s">
         <v>160</v>
       </c>
@@ -12217,9 +12268,9 @@
       <c r="A142" s="8">
         <v>134</v>
       </c>
-      <c r="B142" s="63"/>
-      <c r="C142" s="60"/>
-      <c r="D142" s="60"/>
+      <c r="B142" s="61"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
       <c r="E142" s="23" t="s">
         <v>165</v>
       </c>
@@ -12243,9 +12294,9 @@
       <c r="A143" s="8">
         <v>135</v>
       </c>
-      <c r="B143" s="63"/>
-      <c r="C143" s="60"/>
-      <c r="D143" s="60"/>
+      <c r="B143" s="61"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
       <c r="E143" s="22" t="s">
         <v>186</v>
       </c>
@@ -12269,9 +12320,9 @@
       <c r="A144" s="8">
         <v>136</v>
       </c>
-      <c r="B144" s="63"/>
-      <c r="C144" s="60"/>
-      <c r="D144" s="60"/>
+      <c r="B144" s="61"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="65"/>
       <c r="E144" s="22" t="s">
         <v>186</v>
       </c>
@@ -12295,9 +12346,9 @@
       <c r="A145" s="8">
         <v>137</v>
       </c>
-      <c r="B145" s="63"/>
-      <c r="C145" s="60"/>
-      <c r="D145" s="60"/>
+      <c r="B145" s="61"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="65"/>
       <c r="E145" s="23" t="s">
         <v>187</v>
       </c>
@@ -12321,9 +12372,9 @@
       <c r="A146" s="8">
         <v>138</v>
       </c>
-      <c r="B146" s="63"/>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="65"/>
       <c r="E146" s="23" t="s">
         <v>187</v>
       </c>
@@ -12347,9 +12398,9 @@
       <c r="A147" s="8">
         <v>139</v>
       </c>
-      <c r="B147" s="63"/>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="65"/>
       <c r="E147" s="23" t="s">
         <v>188</v>
       </c>
@@ -12373,9 +12424,9 @@
       <c r="A148" s="8">
         <v>140</v>
       </c>
-      <c r="B148" s="64"/>
-      <c r="C148" s="61"/>
-      <c r="D148" s="61"/>
+      <c r="B148" s="62"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
       <c r="E148" s="23" t="s">
         <v>188</v>
       </c>
@@ -12454,30 +12505,30 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="71" t="s">
+      <c r="A151" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="71"/>
-      <c r="G151" s="71"/>
-      <c r="H151" s="71"/>
-      <c r="I151" s="71"/>
-      <c r="J151" s="71"/>
+      <c r="B151" s="63"/>
+      <c r="C151" s="63"/>
+      <c r="D151" s="63"/>
+      <c r="E151" s="63"/>
+      <c r="F151" s="63"/>
+      <c r="G151" s="63"/>
+      <c r="H151" s="63"/>
+      <c r="I151" s="63"/>
+      <c r="J151" s="63"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="59" t="s">
+      <c r="B152" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="59" t="s">
+      <c r="C152" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="62" t="s">
+      <c r="D152" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E152" s="26" t="s">
@@ -12501,9 +12552,9 @@
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="60"/>
-      <c r="C153" s="60"/>
-      <c r="D153" s="63"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="61"/>
       <c r="E153" s="26" t="s">
         <v>191</v>
       </c>
@@ -12525,9 +12576,9 @@
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="60"/>
-      <c r="C154" s="60"/>
-      <c r="D154" s="63"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="61"/>
       <c r="E154" s="26" t="s">
         <v>192</v>
       </c>
@@ -12549,9 +12600,9 @@
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="60"/>
-      <c r="C155" s="60"/>
-      <c r="D155" s="63"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="61"/>
       <c r="E155" s="26" t="s">
         <v>193</v>
       </c>
@@ -12573,9 +12624,9 @@
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="60"/>
-      <c r="C156" s="60"/>
-      <c r="D156" s="63"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="65"/>
+      <c r="D156" s="61"/>
       <c r="E156" s="26" t="s">
         <v>194</v>
       </c>
@@ -12597,9 +12648,9 @@
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="60"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="63"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="61"/>
       <c r="E157" s="26" t="s">
         <v>448</v>
       </c>
@@ -12621,9 +12672,9 @@
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="60"/>
-      <c r="C158" s="60"/>
-      <c r="D158" s="63"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="65"/>
+      <c r="D158" s="61"/>
       <c r="E158" s="26" t="s">
         <v>449</v>
       </c>
@@ -12645,9 +12696,9 @@
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="60"/>
-      <c r="C159" s="61"/>
-      <c r="D159" s="64"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="62"/>
       <c r="E159" s="26" t="s">
         <v>450</v>
       </c>
@@ -12669,8 +12720,8 @@
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="60"/>
-      <c r="C160" s="59" t="s">
+      <c r="B160" s="65"/>
+      <c r="C160" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="26" t="s">
@@ -12699,8 +12750,8 @@
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="60"/>
-      <c r="C161" s="61"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="66"/>
       <c r="D161" s="26" t="s">
         <v>63</v>
       </c>
@@ -12727,7 +12778,7 @@
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="60"/>
+      <c r="B162" s="65"/>
       <c r="C162" s="29" t="s">
         <v>118</v>
       </c>
@@ -12755,7 +12806,7 @@
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="60"/>
+      <c r="B163" s="65"/>
       <c r="C163" s="28" t="s">
         <v>12</v>
       </c>
@@ -12785,7 +12836,7 @@
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="61"/>
+      <c r="B164" s="66"/>
       <c r="C164" s="28" t="s">
         <v>57</v>
       </c>
@@ -12812,30 +12863,30 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="71" t="s">
+      <c r="A165" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="71"/>
-      <c r="C165" s="71"/>
-      <c r="D165" s="71"/>
-      <c r="E165" s="71"/>
-      <c r="F165" s="71"/>
-      <c r="G165" s="71"/>
-      <c r="H165" s="71"/>
-      <c r="I165" s="71"/>
-      <c r="J165" s="71"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="63"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="63"/>
+      <c r="F165" s="63"/>
+      <c r="G165" s="63"/>
+      <c r="H165" s="63"/>
+      <c r="I165" s="63"/>
+      <c r="J165" s="63"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="58" t="s">
+      <c r="B166" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="59" t="s">
+      <c r="C166" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="62" t="s">
+      <c r="D166" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E166" s="28" t="s">
@@ -12859,9 +12910,9 @@
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="58"/>
-      <c r="C167" s="60"/>
-      <c r="D167" s="63"/>
+      <c r="B167" s="70"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="61"/>
       <c r="E167" s="28" t="s">
         <v>205</v>
       </c>
@@ -12883,9 +12934,9 @@
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="58"/>
-      <c r="C168" s="60"/>
-      <c r="D168" s="63"/>
+      <c r="B168" s="70"/>
+      <c r="C168" s="65"/>
+      <c r="D168" s="61"/>
       <c r="E168" s="28" t="s">
         <v>206</v>
       </c>
@@ -12907,9 +12958,9 @@
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="58"/>
-      <c r="C169" s="60"/>
-      <c r="D169" s="63"/>
+      <c r="B169" s="70"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="61"/>
       <c r="E169" s="28" t="s">
         <v>207</v>
       </c>
@@ -12931,9 +12982,9 @@
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="58"/>
-      <c r="C170" s="60"/>
-      <c r="D170" s="63"/>
+      <c r="B170" s="70"/>
+      <c r="C170" s="65"/>
+      <c r="D170" s="61"/>
       <c r="E170" s="28" t="s">
         <v>208</v>
       </c>
@@ -12955,9 +13006,9 @@
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="58"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="63"/>
+      <c r="B171" s="70"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="61"/>
       <c r="E171" s="28" t="s">
         <v>209</v>
       </c>
@@ -12979,9 +13030,9 @@
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="58"/>
-      <c r="C172" s="60"/>
-      <c r="D172" s="63"/>
+      <c r="B172" s="70"/>
+      <c r="C172" s="65"/>
+      <c r="D172" s="61"/>
       <c r="E172" s="28" t="s">
         <v>451</v>
       </c>
@@ -13003,9 +13054,9 @@
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="58"/>
-      <c r="C173" s="60"/>
-      <c r="D173" s="63"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="65"/>
+      <c r="D173" s="61"/>
       <c r="E173" s="28" t="s">
         <v>452</v>
       </c>
@@ -13027,9 +13078,9 @@
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="58"/>
-      <c r="C174" s="61"/>
-      <c r="D174" s="64"/>
+      <c r="B174" s="70"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="62"/>
       <c r="E174" s="28" t="s">
         <v>453</v>
       </c>
@@ -13051,8 +13102,8 @@
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="58"/>
-      <c r="C175" s="58" t="s">
+      <c r="B175" s="70"/>
+      <c r="C175" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="28" t="s">
@@ -13081,8 +13132,8 @@
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="58"/>
-      <c r="C176" s="58"/>
+      <c r="B176" s="70"/>
+      <c r="C176" s="70"/>
       <c r="D176" s="28" t="s">
         <v>63</v>
       </c>
@@ -13109,7 +13160,7 @@
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="58"/>
+      <c r="B177" s="70"/>
       <c r="C177" s="28" t="s">
         <v>118</v>
       </c>
@@ -13137,7 +13188,7 @@
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="58"/>
+      <c r="B178" s="70"/>
       <c r="C178" s="28" t="s">
         <v>12</v>
       </c>
@@ -13167,7 +13218,7 @@
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="58"/>
+      <c r="B179" s="70"/>
       <c r="C179" s="28" t="s">
         <v>57</v>
       </c>
@@ -13194,30 +13245,30 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="71" t="s">
+      <c r="A180" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="71"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="71"/>
-      <c r="E180" s="71"/>
-      <c r="F180" s="71"/>
-      <c r="G180" s="71"/>
-      <c r="H180" s="71"/>
-      <c r="I180" s="71"/>
-      <c r="J180" s="71"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="58" t="s">
+      <c r="B181" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="59" t="s">
+      <c r="C181" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="62" t="s">
+      <c r="D181" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E181" s="28" t="s">
@@ -13241,9 +13292,9 @@
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="58"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="63"/>
+      <c r="B182" s="70"/>
+      <c r="C182" s="65"/>
+      <c r="D182" s="61"/>
       <c r="E182" s="28" t="s">
         <v>226</v>
       </c>
@@ -13265,9 +13316,9 @@
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="60"/>
-      <c r="D183" s="63"/>
+      <c r="B183" s="70"/>
+      <c r="C183" s="65"/>
+      <c r="D183" s="61"/>
       <c r="E183" s="28" t="s">
         <v>227</v>
       </c>
@@ -13289,9 +13340,9 @@
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="58"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="63"/>
+      <c r="B184" s="70"/>
+      <c r="C184" s="65"/>
+      <c r="D184" s="61"/>
       <c r="E184" s="28" t="s">
         <v>229</v>
       </c>
@@ -13313,9 +13364,9 @@
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="58"/>
-      <c r="C185" s="60"/>
-      <c r="D185" s="63"/>
+      <c r="B185" s="70"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="61"/>
       <c r="E185" s="28" t="s">
         <v>228</v>
       </c>
@@ -13337,9 +13388,9 @@
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="58"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="63"/>
+      <c r="B186" s="70"/>
+      <c r="C186" s="65"/>
+      <c r="D186" s="61"/>
       <c r="E186" s="28" t="s">
         <v>230</v>
       </c>
@@ -13361,9 +13412,9 @@
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="58"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="63"/>
+      <c r="B187" s="70"/>
+      <c r="C187" s="65"/>
+      <c r="D187" s="61"/>
       <c r="E187" s="28" t="s">
         <v>454</v>
       </c>
@@ -13385,9 +13436,9 @@
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="58"/>
-      <c r="C188" s="60"/>
-      <c r="D188" s="63"/>
+      <c r="B188" s="70"/>
+      <c r="C188" s="65"/>
+      <c r="D188" s="61"/>
       <c r="E188" s="28" t="s">
         <v>455</v>
       </c>
@@ -13409,9 +13460,9 @@
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="58"/>
-      <c r="C189" s="61"/>
-      <c r="D189" s="64"/>
+      <c r="B189" s="70"/>
+      <c r="C189" s="66"/>
+      <c r="D189" s="62"/>
       <c r="E189" s="28" t="s">
         <v>456</v>
       </c>
@@ -13433,8 +13484,8 @@
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="58"/>
-      <c r="C190" s="58" t="s">
+      <c r="B190" s="70"/>
+      <c r="C190" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="28" t="s">
@@ -13463,8 +13514,8 @@
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="58"/>
-      <c r="C191" s="58"/>
+      <c r="B191" s="70"/>
+      <c r="C191" s="70"/>
       <c r="D191" s="28" t="s">
         <v>63</v>
       </c>
@@ -13491,7 +13542,7 @@
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="58"/>
+      <c r="B192" s="70"/>
       <c r="C192" s="29" t="s">
         <v>118</v>
       </c>
@@ -13519,7 +13570,7 @@
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="58"/>
+      <c r="B193" s="70"/>
       <c r="C193" s="28" t="s">
         <v>12</v>
       </c>
@@ -13549,7 +13600,7 @@
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="58"/>
+      <c r="B194" s="70"/>
       <c r="C194" s="28" t="s">
         <v>57</v>
       </c>
@@ -13576,30 +13627,30 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="71" t="s">
+      <c r="A195" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="71"/>
-      <c r="C195" s="71"/>
-      <c r="D195" s="71"/>
-      <c r="E195" s="71"/>
-      <c r="F195" s="71"/>
-      <c r="G195" s="71"/>
-      <c r="H195" s="71"/>
-      <c r="I195" s="71"/>
-      <c r="J195" s="71"/>
+      <c r="B195" s="63"/>
+      <c r="C195" s="63"/>
+      <c r="D195" s="63"/>
+      <c r="E195" s="63"/>
+      <c r="F195" s="63"/>
+      <c r="G195" s="63"/>
+      <c r="H195" s="63"/>
+      <c r="I195" s="63"/>
+      <c r="J195" s="63"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="58" t="s">
+      <c r="B196" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="C196" s="59" t="s">
+      <c r="C196" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="62" t="s">
+      <c r="D196" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E196" s="28" t="s">
@@ -13623,9 +13674,9 @@
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="58"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="63"/>
+      <c r="B197" s="70"/>
+      <c r="C197" s="65"/>
+      <c r="D197" s="61"/>
       <c r="E197" s="28" t="s">
         <v>244</v>
       </c>
@@ -13647,9 +13698,9 @@
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="58"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="63"/>
+      <c r="B198" s="70"/>
+      <c r="C198" s="65"/>
+      <c r="D198" s="61"/>
       <c r="E198" s="28" t="s">
         <v>243</v>
       </c>
@@ -13671,9 +13722,9 @@
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="58"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="63"/>
+      <c r="B199" s="70"/>
+      <c r="C199" s="65"/>
+      <c r="D199" s="61"/>
       <c r="E199" s="28" t="s">
         <v>245</v>
       </c>
@@ -13695,9 +13746,9 @@
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="58"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="63"/>
+      <c r="B200" s="70"/>
+      <c r="C200" s="65"/>
+      <c r="D200" s="61"/>
       <c r="E200" s="28" t="s">
         <v>242</v>
       </c>
@@ -13719,9 +13770,9 @@
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="58"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="63"/>
+      <c r="B201" s="70"/>
+      <c r="C201" s="65"/>
+      <c r="D201" s="61"/>
       <c r="E201" s="28" t="s">
         <v>238</v>
       </c>
@@ -13743,9 +13794,9 @@
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="58"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="63"/>
+      <c r="B202" s="70"/>
+      <c r="C202" s="65"/>
+      <c r="D202" s="61"/>
       <c r="E202" s="28" t="s">
         <v>458</v>
       </c>
@@ -13767,9 +13818,9 @@
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="58"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="63"/>
+      <c r="B203" s="70"/>
+      <c r="C203" s="65"/>
+      <c r="D203" s="61"/>
       <c r="E203" s="28" t="s">
         <v>459</v>
       </c>
@@ -13791,9 +13842,9 @@
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="58"/>
-      <c r="C204" s="61"/>
-      <c r="D204" s="64"/>
+      <c r="B204" s="70"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="62"/>
       <c r="E204" s="28" t="s">
         <v>457</v>
       </c>
@@ -13815,8 +13866,8 @@
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="58"/>
-      <c r="C205" s="58" t="s">
+      <c r="B205" s="70"/>
+      <c r="C205" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -13845,8 +13896,8 @@
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="58"/>
-      <c r="C206" s="58"/>
+      <c r="B206" s="70"/>
+      <c r="C206" s="70"/>
       <c r="D206" s="29" t="s">
         <v>63</v>
       </c>
@@ -13873,7 +13924,7 @@
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="58"/>
+      <c r="B207" s="70"/>
       <c r="C207" s="29" t="s">
         <v>118</v>
       </c>
@@ -13901,7 +13952,7 @@
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="58"/>
+      <c r="B208" s="70"/>
       <c r="C208" s="28" t="s">
         <v>12</v>
       </c>
@@ -13931,7 +13982,7 @@
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="58"/>
+      <c r="B209" s="70"/>
       <c r="C209" s="28" t="s">
         <v>57</v>
       </c>
@@ -13958,30 +14009,30 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="71" t="s">
+      <c r="A210" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="71"/>
-      <c r="C210" s="71"/>
-      <c r="D210" s="71"/>
-      <c r="E210" s="71"/>
-      <c r="F210" s="71"/>
-      <c r="G210" s="71"/>
-      <c r="H210" s="71"/>
-      <c r="I210" s="71"/>
-      <c r="J210" s="71"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="63"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="58" t="s">
+      <c r="B211" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="C211" s="59" t="s">
+      <c r="C211" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="62" t="s">
+      <c r="D211" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E211" s="28" t="s">
@@ -14005,9 +14056,9 @@
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="58"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="63"/>
+      <c r="B212" s="70"/>
+      <c r="C212" s="65"/>
+      <c r="D212" s="61"/>
       <c r="E212" s="28" t="s">
         <v>258</v>
       </c>
@@ -14029,9 +14080,9 @@
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="58"/>
-      <c r="C213" s="60"/>
-      <c r="D213" s="63"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="65"/>
+      <c r="D213" s="61"/>
       <c r="E213" s="28" t="s">
         <v>256</v>
       </c>
@@ -14053,9 +14104,9 @@
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="58"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="63"/>
+      <c r="B214" s="70"/>
+      <c r="C214" s="65"/>
+      <c r="D214" s="61"/>
       <c r="E214" s="28" t="s">
         <v>259</v>
       </c>
@@ -14077,9 +14128,9 @@
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="58"/>
-      <c r="C215" s="60"/>
-      <c r="D215" s="63"/>
+      <c r="B215" s="70"/>
+      <c r="C215" s="65"/>
+      <c r="D215" s="61"/>
       <c r="E215" s="28" t="s">
         <v>257</v>
       </c>
@@ -14101,9 +14152,9 @@
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="58"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="63"/>
+      <c r="B216" s="70"/>
+      <c r="C216" s="65"/>
+      <c r="D216" s="61"/>
       <c r="E216" s="28" t="s">
         <v>252</v>
       </c>
@@ -14125,9 +14176,9 @@
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="60"/>
-      <c r="D217" s="63"/>
+      <c r="B217" s="70"/>
+      <c r="C217" s="65"/>
+      <c r="D217" s="61"/>
       <c r="E217" s="28" t="s">
         <v>461</v>
       </c>
@@ -14149,9 +14200,9 @@
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="58"/>
-      <c r="C218" s="60"/>
-      <c r="D218" s="63"/>
+      <c r="B218" s="70"/>
+      <c r="C218" s="65"/>
+      <c r="D218" s="61"/>
       <c r="E218" s="28" t="s">
         <v>462</v>
       </c>
@@ -14173,9 +14224,9 @@
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="58"/>
-      <c r="C219" s="61"/>
-      <c r="D219" s="64"/>
+      <c r="B219" s="70"/>
+      <c r="C219" s="66"/>
+      <c r="D219" s="62"/>
       <c r="E219" s="28" t="s">
         <v>460</v>
       </c>
@@ -14197,8 +14248,8 @@
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="58"/>
-      <c r="C220" s="58" t="s">
+      <c r="B220" s="70"/>
+      <c r="C220" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="28" t="s">
@@ -14227,8 +14278,8 @@
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="58"/>
-      <c r="C221" s="58"/>
+      <c r="B221" s="70"/>
+      <c r="C221" s="70"/>
       <c r="D221" s="28" t="s">
         <v>63</v>
       </c>
@@ -14255,7 +14306,7 @@
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="58"/>
+      <c r="B222" s="70"/>
       <c r="C222" s="28" t="s">
         <v>118</v>
       </c>
@@ -14283,7 +14334,7 @@
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="58"/>
+      <c r="B223" s="70"/>
       <c r="C223" s="28" t="s">
         <v>12</v>
       </c>
@@ -14313,7 +14364,7 @@
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="58"/>
+      <c r="B224" s="70"/>
       <c r="C224" s="28" t="s">
         <v>57</v>
       </c>
@@ -14340,30 +14391,30 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="71" t="s">
+      <c r="A225" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="71"/>
-      <c r="C225" s="71"/>
-      <c r="D225" s="71"/>
-      <c r="E225" s="71"/>
-      <c r="F225" s="71"/>
-      <c r="G225" s="71"/>
-      <c r="H225" s="71"/>
-      <c r="I225" s="71"/>
-      <c r="J225" s="71"/>
+      <c r="B225" s="63"/>
+      <c r="C225" s="63"/>
+      <c r="D225" s="63"/>
+      <c r="E225" s="63"/>
+      <c r="F225" s="63"/>
+      <c r="G225" s="63"/>
+      <c r="H225" s="63"/>
+      <c r="I225" s="63"/>
+      <c r="J225" s="63"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="58" t="s">
+      <c r="B226" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="59" t="s">
+      <c r="C226" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="62" t="s">
+      <c r="D226" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E226" s="28" t="s">
@@ -14387,9 +14438,9 @@
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="58"/>
-      <c r="C227" s="60"/>
-      <c r="D227" s="63"/>
+      <c r="B227" s="70"/>
+      <c r="C227" s="65"/>
+      <c r="D227" s="61"/>
       <c r="E227" s="28" t="s">
         <v>263</v>
       </c>
@@ -14411,9 +14462,9 @@
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="58"/>
-      <c r="C228" s="60"/>
-      <c r="D228" s="63"/>
+      <c r="B228" s="70"/>
+      <c r="C228" s="65"/>
+      <c r="D228" s="61"/>
       <c r="E228" s="28" t="s">
         <v>264</v>
       </c>
@@ -14435,9 +14486,9 @@
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="58"/>
-      <c r="C229" s="60"/>
-      <c r="D229" s="63"/>
+      <c r="B229" s="70"/>
+      <c r="C229" s="65"/>
+      <c r="D229" s="61"/>
       <c r="E229" s="28" t="s">
         <v>267</v>
       </c>
@@ -14459,9 +14510,9 @@
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="58"/>
-      <c r="C230" s="60"/>
-      <c r="D230" s="63"/>
+      <c r="B230" s="70"/>
+      <c r="C230" s="65"/>
+      <c r="D230" s="61"/>
       <c r="E230" s="28" t="s">
         <v>463</v>
       </c>
@@ -14483,9 +14534,9 @@
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="58"/>
-      <c r="C231" s="61"/>
-      <c r="D231" s="64"/>
+      <c r="B231" s="70"/>
+      <c r="C231" s="66"/>
+      <c r="D231" s="62"/>
       <c r="E231" s="28" t="s">
         <v>464</v>
       </c>
@@ -14507,8 +14558,8 @@
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="58"/>
-      <c r="C232" s="58" t="s">
+      <c r="B232" s="70"/>
+      <c r="C232" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="28" t="s">
@@ -14537,8 +14588,8 @@
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="58"/>
-      <c r="C233" s="58"/>
+      <c r="B233" s="70"/>
+      <c r="C233" s="70"/>
       <c r="D233" s="28" t="s">
         <v>63</v>
       </c>
@@ -14565,7 +14616,7 @@
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="58"/>
+      <c r="B234" s="70"/>
       <c r="C234" s="11" t="s">
         <v>118</v>
       </c>
@@ -14595,7 +14646,7 @@
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="58"/>
+      <c r="B235" s="70"/>
       <c r="C235" s="28" t="s">
         <v>12</v>
       </c>
@@ -14625,7 +14676,7 @@
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="58"/>
+      <c r="B236" s="70"/>
       <c r="C236" s="28" t="s">
         <v>57</v>
       </c>
@@ -14652,30 +14703,30 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="71" t="s">
+      <c r="A237" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="71"/>
-      <c r="C237" s="71"/>
-      <c r="D237" s="71"/>
-      <c r="E237" s="71"/>
-      <c r="F237" s="71"/>
-      <c r="G237" s="71"/>
-      <c r="H237" s="71"/>
-      <c r="I237" s="71"/>
-      <c r="J237" s="71"/>
+      <c r="B237" s="63"/>
+      <c r="C237" s="63"/>
+      <c r="D237" s="63"/>
+      <c r="E237" s="63"/>
+      <c r="F237" s="63"/>
+      <c r="G237" s="63"/>
+      <c r="H237" s="63"/>
+      <c r="I237" s="63"/>
+      <c r="J237" s="63"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="68" t="s">
+      <c r="B238" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="C238" s="58" t="s">
+      <c r="C238" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="57" t="s">
+      <c r="D238" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="28" t="s">
@@ -14699,9 +14750,9 @@
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="69"/>
-      <c r="C239" s="58"/>
-      <c r="D239" s="57"/>
+      <c r="B239" s="77"/>
+      <c r="C239" s="70"/>
+      <c r="D239" s="71"/>
       <c r="E239" s="28" t="s">
         <v>369</v>
       </c>
@@ -14723,9 +14774,9 @@
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="69"/>
-      <c r="C240" s="58"/>
-      <c r="D240" s="57"/>
+      <c r="B240" s="77"/>
+      <c r="C240" s="70"/>
+      <c r="D240" s="71"/>
       <c r="E240" s="28" t="s">
         <v>392</v>
       </c>
@@ -14747,9 +14798,9 @@
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="69"/>
-      <c r="C241" s="58"/>
-      <c r="D241" s="57"/>
+      <c r="B241" s="77"/>
+      <c r="C241" s="70"/>
+      <c r="D241" s="71"/>
       <c r="E241" s="28" t="s">
         <v>371</v>
       </c>
@@ -14771,9 +14822,9 @@
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="69"/>
-      <c r="C242" s="58"/>
-      <c r="D242" s="57"/>
+      <c r="B242" s="77"/>
+      <c r="C242" s="70"/>
+      <c r="D242" s="71"/>
       <c r="E242" s="28" t="s">
         <v>372</v>
       </c>
@@ -14795,9 +14846,9 @@
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="69"/>
-      <c r="C243" s="58"/>
-      <c r="D243" s="57"/>
+      <c r="B243" s="77"/>
+      <c r="C243" s="70"/>
+      <c r="D243" s="71"/>
       <c r="E243" s="28" t="s">
         <v>373</v>
       </c>
@@ -14819,9 +14870,9 @@
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="69"/>
-      <c r="C244" s="58"/>
-      <c r="D244" s="57"/>
+      <c r="B244" s="77"/>
+      <c r="C244" s="70"/>
+      <c r="D244" s="71"/>
       <c r="E244" s="28" t="s">
         <v>374</v>
       </c>
@@ -14843,9 +14894,9 @@
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="69"/>
-      <c r="C245" s="58"/>
-      <c r="D245" s="57"/>
+      <c r="B245" s="77"/>
+      <c r="C245" s="70"/>
+      <c r="D245" s="71"/>
       <c r="E245" s="28" t="s">
         <v>375</v>
       </c>
@@ -14867,9 +14918,9 @@
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="69"/>
-      <c r="C246" s="58"/>
-      <c r="D246" s="57"/>
+      <c r="B246" s="77"/>
+      <c r="C246" s="70"/>
+      <c r="D246" s="71"/>
       <c r="E246" s="28" t="s">
         <v>376</v>
       </c>
@@ -14891,9 +14942,9 @@
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="69"/>
-      <c r="C247" s="58"/>
-      <c r="D247" s="57"/>
+      <c r="B247" s="77"/>
+      <c r="C247" s="70"/>
+      <c r="D247" s="71"/>
       <c r="E247" s="28" t="s">
         <v>377</v>
       </c>
@@ -14915,9 +14966,9 @@
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="69"/>
-      <c r="C248" s="58"/>
-      <c r="D248" s="57"/>
+      <c r="B248" s="77"/>
+      <c r="C248" s="70"/>
+      <c r="D248" s="71"/>
       <c r="E248" s="28" t="s">
         <v>378</v>
       </c>
@@ -14939,9 +14990,9 @@
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="69"/>
-      <c r="C249" s="58"/>
-      <c r="D249" s="57"/>
+      <c r="B249" s="77"/>
+      <c r="C249" s="70"/>
+      <c r="D249" s="71"/>
       <c r="E249" s="28" t="s">
         <v>379</v>
       </c>
@@ -14963,9 +15014,9 @@
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="69"/>
-      <c r="C250" s="58"/>
-      <c r="D250" s="57"/>
+      <c r="B250" s="77"/>
+      <c r="C250" s="70"/>
+      <c r="D250" s="71"/>
       <c r="E250" s="28" t="s">
         <v>380</v>
       </c>
@@ -14987,9 +15038,9 @@
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="69"/>
-      <c r="C251" s="58"/>
-      <c r="D251" s="57"/>
+      <c r="B251" s="77"/>
+      <c r="C251" s="70"/>
+      <c r="D251" s="71"/>
       <c r="E251" s="28" t="s">
         <v>381</v>
       </c>
@@ -15011,9 +15062,9 @@
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="69"/>
-      <c r="C252" s="58"/>
-      <c r="D252" s="57"/>
+      <c r="B252" s="77"/>
+      <c r="C252" s="70"/>
+      <c r="D252" s="71"/>
       <c r="E252" s="28" t="s">
         <v>382</v>
       </c>
@@ -15035,9 +15086,9 @@
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="69"/>
-      <c r="C253" s="58"/>
-      <c r="D253" s="57"/>
+      <c r="B253" s="77"/>
+      <c r="C253" s="70"/>
+      <c r="D253" s="71"/>
       <c r="E253" s="28" t="s">
         <v>383</v>
       </c>
@@ -15059,9 +15110,9 @@
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="69"/>
-      <c r="C254" s="58"/>
-      <c r="D254" s="57"/>
+      <c r="B254" s="77"/>
+      <c r="C254" s="70"/>
+      <c r="D254" s="71"/>
       <c r="E254" s="28" t="s">
         <v>384</v>
       </c>
@@ -15083,9 +15134,9 @@
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="69"/>
-      <c r="C255" s="58"/>
-      <c r="D255" s="57"/>
+      <c r="B255" s="77"/>
+      <c r="C255" s="70"/>
+      <c r="D255" s="71"/>
       <c r="E255" s="28" t="s">
         <v>385</v>
       </c>
@@ -15107,9 +15158,9 @@
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="69"/>
-      <c r="C256" s="58"/>
-      <c r="D256" s="57"/>
+      <c r="B256" s="77"/>
+      <c r="C256" s="70"/>
+      <c r="D256" s="71"/>
       <c r="E256" s="28" t="s">
         <v>386</v>
       </c>
@@ -15131,9 +15182,9 @@
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="69"/>
-      <c r="C257" s="58"/>
-      <c r="D257" s="57"/>
+      <c r="B257" s="77"/>
+      <c r="C257" s="70"/>
+      <c r="D257" s="71"/>
       <c r="E257" s="28" t="s">
         <v>387</v>
       </c>
@@ -15155,9 +15206,9 @@
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="69"/>
-      <c r="C258" s="58"/>
-      <c r="D258" s="57"/>
+      <c r="B258" s="77"/>
+      <c r="C258" s="70"/>
+      <c r="D258" s="71"/>
       <c r="E258" s="28" t="s">
         <v>388</v>
       </c>
@@ -15179,9 +15230,9 @@
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="69"/>
-      <c r="C259" s="58"/>
-      <c r="D259" s="57"/>
+      <c r="B259" s="77"/>
+      <c r="C259" s="70"/>
+      <c r="D259" s="71"/>
       <c r="E259" s="28" t="s">
         <v>389</v>
       </c>
@@ -15203,9 +15254,9 @@
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="69"/>
-      <c r="C260" s="58"/>
-      <c r="D260" s="57"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="70"/>
+      <c r="D260" s="71"/>
       <c r="E260" s="28" t="s">
         <v>390</v>
       </c>
@@ -15227,11 +15278,11 @@
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="69"/>
-      <c r="C261" s="65" t="s">
+      <c r="B261" s="77"/>
+      <c r="C261" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="65" t="s">
+      <c r="D261" s="73" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -15248,16 +15299,16 @@
       </c>
       <c r="I261" s="4"/>
       <c r="J261" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="69"/>
-      <c r="C262" s="66"/>
-      <c r="D262" s="66"/>
+      <c r="B262" s="77"/>
+      <c r="C262" s="74"/>
+      <c r="D262" s="74"/>
       <c r="E262" s="4" t="s">
         <v>396</v>
       </c>
@@ -15277,16 +15328,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="69"/>
-      <c r="C263" s="66"/>
-      <c r="D263" s="66"/>
+      <c r="B263" s="77"/>
+      <c r="C263" s="74"/>
+      <c r="D263" s="74"/>
       <c r="E263" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F263" s="65" t="s">
+      <c r="F263" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="G263" s="68" t="s">
+      <c r="G263" s="76" t="s">
         <v>399</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -15299,14 +15350,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="69"/>
-      <c r="C264" s="66"/>
-      <c r="D264" s="66"/>
+      <c r="B264" s="77"/>
+      <c r="C264" s="74"/>
+      <c r="D264" s="74"/>
       <c r="E264" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F264" s="66"/>
-      <c r="G264" s="69"/>
+      <c r="F264" s="74"/>
+      <c r="G264" s="77"/>
       <c r="H264" s="4" t="s">
         <v>398</v>
       </c>
@@ -15317,14 +15368,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="69"/>
-      <c r="C265" s="66"/>
-      <c r="D265" s="66"/>
+      <c r="B265" s="77"/>
+      <c r="C265" s="74"/>
+      <c r="D265" s="74"/>
       <c r="E265" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F265" s="66"/>
-      <c r="G265" s="69"/>
+      <c r="F265" s="74"/>
+      <c r="G265" s="77"/>
       <c r="H265" s="4" t="s">
         <v>398</v>
       </c>
@@ -15335,14 +15386,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="69"/>
-      <c r="C266" s="66"/>
-      <c r="D266" s="66"/>
+      <c r="B266" s="77"/>
+      <c r="C266" s="74"/>
+      <c r="D266" s="74"/>
       <c r="E266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F266" s="67"/>
-      <c r="G266" s="70"/>
+      <c r="F266" s="75"/>
+      <c r="G266" s="78"/>
       <c r="H266" s="4" t="s">
         <v>398</v>
       </c>
@@ -15353,16 +15404,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="69"/>
-      <c r="C267" s="66"/>
-      <c r="D267" s="66"/>
+      <c r="B267" s="77"/>
+      <c r="C267" s="74"/>
+      <c r="D267" s="74"/>
       <c r="E267" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F267" s="65" t="s">
+      <c r="F267" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="G267" s="68" t="s">
+      <c r="G267" s="76" t="s">
         <v>402</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -15375,14 +15426,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="69"/>
-      <c r="C268" s="66"/>
-      <c r="D268" s="66"/>
+      <c r="B268" s="77"/>
+      <c r="C268" s="74"/>
+      <c r="D268" s="74"/>
       <c r="E268" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F268" s="66"/>
-      <c r="G268" s="69"/>
+      <c r="F268" s="74"/>
+      <c r="G268" s="77"/>
       <c r="H268" s="4" t="s">
         <v>401</v>
       </c>
@@ -15393,14 +15444,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="69"/>
-      <c r="C269" s="66"/>
-      <c r="D269" s="66"/>
+      <c r="B269" s="77"/>
+      <c r="C269" s="74"/>
+      <c r="D269" s="74"/>
       <c r="E269" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F269" s="66"/>
-      <c r="G269" s="69"/>
+      <c r="F269" s="74"/>
+      <c r="G269" s="77"/>
       <c r="H269" s="4" t="s">
         <v>401</v>
       </c>
@@ -15411,14 +15462,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="69"/>
-      <c r="C270" s="66"/>
-      <c r="D270" s="66"/>
+      <c r="B270" s="77"/>
+      <c r="C270" s="74"/>
+      <c r="D270" s="74"/>
       <c r="E270" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F270" s="67"/>
-      <c r="G270" s="70"/>
+      <c r="F270" s="75"/>
+      <c r="G270" s="78"/>
       <c r="H270" s="4" t="s">
         <v>401</v>
       </c>
@@ -15429,16 +15480,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="69"/>
-      <c r="C271" s="66"/>
-      <c r="D271" s="66"/>
+      <c r="B271" s="77"/>
+      <c r="C271" s="74"/>
+      <c r="D271" s="74"/>
       <c r="E271" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F271" s="65" t="s">
+      <c r="F271" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="G271" s="68" t="s">
+      <c r="G271" s="76" t="s">
         <v>403</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -15451,14 +15502,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="69"/>
-      <c r="C272" s="66"/>
-      <c r="D272" s="66"/>
+      <c r="B272" s="77"/>
+      <c r="C272" s="74"/>
+      <c r="D272" s="74"/>
       <c r="E272" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F272" s="66"/>
-      <c r="G272" s="69"/>
+      <c r="F272" s="74"/>
+      <c r="G272" s="77"/>
       <c r="H272" s="4" t="s">
         <v>401</v>
       </c>
@@ -15469,14 +15520,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="69"/>
-      <c r="C273" s="66"/>
-      <c r="D273" s="66"/>
+      <c r="B273" s="77"/>
+      <c r="C273" s="74"/>
+      <c r="D273" s="74"/>
       <c r="E273" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F273" s="66"/>
-      <c r="G273" s="69"/>
+      <c r="F273" s="74"/>
+      <c r="G273" s="77"/>
       <c r="H273" s="4" t="s">
         <v>401</v>
       </c>
@@ -15487,14 +15538,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="70"/>
-      <c r="C274" s="67"/>
-      <c r="D274" s="67"/>
+      <c r="B274" s="78"/>
+      <c r="C274" s="75"/>
+      <c r="D274" s="75"/>
       <c r="E274" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F274" s="67"/>
-      <c r="G274" s="70"/>
+      <c r="F274" s="75"/>
+      <c r="G274" s="78"/>
       <c r="H274" s="4" t="s">
         <v>401</v>
       </c>
@@ -15502,30 +15553,30 @@
       <c r="J274" s="14"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="56" t="s">
+      <c r="A275" s="72" t="s">
         <v>397</v>
       </c>
-      <c r="B275" s="56"/>
-      <c r="C275" s="56"/>
-      <c r="D275" s="56"/>
-      <c r="E275" s="56"/>
-      <c r="F275" s="56"/>
-      <c r="G275" s="56"/>
-      <c r="H275" s="56"/>
-      <c r="I275" s="56"/>
-      <c r="J275" s="56"/>
+      <c r="B275" s="72"/>
+      <c r="C275" s="72"/>
+      <c r="D275" s="72"/>
+      <c r="E275" s="72"/>
+      <c r="F275" s="72"/>
+      <c r="G275" s="72"/>
+      <c r="H275" s="72"/>
+      <c r="I275" s="72"/>
+      <c r="J275" s="72"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="62" t="s">
+      <c r="B276" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="59" t="s">
+      <c r="C276" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="62" t="s">
+      <c r="D276" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E276" s="28" t="s">
@@ -15549,9 +15600,9 @@
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="63"/>
-      <c r="C277" s="60"/>
-      <c r="D277" s="63"/>
+      <c r="B277" s="61"/>
+      <c r="C277" s="65"/>
+      <c r="D277" s="61"/>
       <c r="E277" s="28" t="s">
         <v>275</v>
       </c>
@@ -15573,9 +15624,9 @@
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="63"/>
-      <c r="C278" s="60"/>
-      <c r="D278" s="63"/>
+      <c r="B278" s="61"/>
+      <c r="C278" s="65"/>
+      <c r="D278" s="61"/>
       <c r="E278" s="28" t="s">
         <v>276</v>
       </c>
@@ -15597,9 +15648,9 @@
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="63"/>
-      <c r="C279" s="60"/>
-      <c r="D279" s="63"/>
+      <c r="B279" s="61"/>
+      <c r="C279" s="65"/>
+      <c r="D279" s="61"/>
       <c r="E279" s="28" t="s">
         <v>277</v>
       </c>
@@ -15621,9 +15672,9 @@
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="63"/>
-      <c r="C280" s="60"/>
-      <c r="D280" s="63"/>
+      <c r="B280" s="61"/>
+      <c r="C280" s="65"/>
+      <c r="D280" s="61"/>
       <c r="E280" s="28" t="s">
         <v>314</v>
       </c>
@@ -15645,9 +15696,9 @@
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="63"/>
-      <c r="C281" s="61"/>
-      <c r="D281" s="64"/>
+      <c r="B281" s="61"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="62"/>
       <c r="E281" s="28" t="s">
         <v>278</v>
       </c>
@@ -15669,11 +15720,11 @@
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="63"/>
-      <c r="C282" s="59" t="s">
+      <c r="B282" s="61"/>
+      <c r="C282" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="59" t="s">
+      <c r="D282" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E282" s="30" t="s">
@@ -15697,9 +15748,9 @@
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="63"/>
-      <c r="C283" s="60"/>
-      <c r="D283" s="60"/>
+      <c r="B283" s="61"/>
+      <c r="C283" s="65"/>
+      <c r="D283" s="65"/>
       <c r="E283" s="30" t="s">
         <v>282</v>
       </c>
@@ -15721,9 +15772,9 @@
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="63"/>
-      <c r="C284" s="60"/>
-      <c r="D284" s="60"/>
+      <c r="B284" s="61"/>
+      <c r="C284" s="65"/>
+      <c r="D284" s="65"/>
       <c r="E284" s="30" t="s">
         <v>316</v>
       </c>
@@ -15745,9 +15796,9 @@
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="63"/>
-      <c r="C285" s="60"/>
-      <c r="D285" s="60"/>
+      <c r="B285" s="61"/>
+      <c r="C285" s="65"/>
+      <c r="D285" s="65"/>
       <c r="E285" s="43" t="s">
         <v>286</v>
       </c>
@@ -15764,16 +15815,16 @@
         <v>287</v>
       </c>
       <c r="J285" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="63"/>
-      <c r="C286" s="61"/>
-      <c r="D286" s="61"/>
+      <c r="B286" s="61"/>
+      <c r="C286" s="66"/>
+      <c r="D286" s="66"/>
       <c r="E286" s="30" t="s">
         <v>324</v>
       </c>
@@ -15790,14 +15841,14 @@
         <v>287</v>
       </c>
       <c r="J286" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="64"/>
+      <c r="B287" s="62"/>
       <c r="C287" s="11" t="s">
         <v>118</v>
       </c>
@@ -15820,34 +15871,34 @@
         <v>526</v>
       </c>
       <c r="J287" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="71" t="s">
+      <c r="A288" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="71"/>
-      <c r="C288" s="71"/>
-      <c r="D288" s="71"/>
-      <c r="E288" s="71"/>
-      <c r="F288" s="71"/>
-      <c r="G288" s="71"/>
-      <c r="H288" s="71"/>
-      <c r="I288" s="71"/>
-      <c r="J288" s="71"/>
+      <c r="B288" s="63"/>
+      <c r="C288" s="63"/>
+      <c r="D288" s="63"/>
+      <c r="E288" s="63"/>
+      <c r="F288" s="63"/>
+      <c r="G288" s="63"/>
+      <c r="H288" s="63"/>
+      <c r="I288" s="63"/>
+      <c r="J288" s="63"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="62" t="s">
+      <c r="B289" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="C289" s="59" t="s">
+      <c r="C289" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="62" t="s">
+      <c r="D289" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E289" s="28" t="s">
@@ -15871,9 +15922,9 @@
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="63"/>
-      <c r="C290" s="60"/>
-      <c r="D290" s="63"/>
+      <c r="B290" s="61"/>
+      <c r="C290" s="65"/>
+      <c r="D290" s="61"/>
       <c r="E290" s="28" t="s">
         <v>312</v>
       </c>
@@ -15895,9 +15946,9 @@
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="63"/>
-      <c r="C291" s="60"/>
-      <c r="D291" s="63"/>
+      <c r="B291" s="61"/>
+      <c r="C291" s="65"/>
+      <c r="D291" s="61"/>
       <c r="E291" s="28" t="s">
         <v>313</v>
       </c>
@@ -15919,9 +15970,9 @@
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="63"/>
-      <c r="C292" s="60"/>
-      <c r="D292" s="63"/>
+      <c r="B292" s="61"/>
+      <c r="C292" s="65"/>
+      <c r="D292" s="61"/>
       <c r="E292" s="28" t="s">
         <v>305</v>
       </c>
@@ -15943,9 +15994,9 @@
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="63"/>
-      <c r="C293" s="60"/>
-      <c r="D293" s="63"/>
+      <c r="B293" s="61"/>
+      <c r="C293" s="65"/>
+      <c r="D293" s="61"/>
       <c r="E293" s="28" t="s">
         <v>315</v>
       </c>
@@ -15967,9 +16018,9 @@
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="63"/>
-      <c r="C294" s="61"/>
-      <c r="D294" s="64"/>
+      <c r="B294" s="61"/>
+      <c r="C294" s="66"/>
+      <c r="D294" s="62"/>
       <c r="E294" s="28" t="s">
         <v>301</v>
       </c>
@@ -15991,11 +16042,11 @@
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="63"/>
-      <c r="C295" s="59" t="s">
+      <c r="B295" s="61"/>
+      <c r="C295" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="59" t="s">
+      <c r="D295" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E295" s="30" t="s">
@@ -16019,9 +16070,9 @@
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="63"/>
-      <c r="C296" s="60"/>
-      <c r="D296" s="60"/>
+      <c r="B296" s="61"/>
+      <c r="C296" s="65"/>
+      <c r="D296" s="65"/>
       <c r="E296" s="30" t="s">
         <v>302</v>
       </c>
@@ -16043,9 +16094,9 @@
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="63"/>
-      <c r="C297" s="60"/>
-      <c r="D297" s="60"/>
+      <c r="B297" s="61"/>
+      <c r="C297" s="65"/>
+      <c r="D297" s="65"/>
       <c r="E297" s="30" t="s">
         <v>316</v>
       </c>
@@ -16067,9 +16118,9 @@
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="63"/>
-      <c r="C298" s="60"/>
-      <c r="D298" s="60"/>
+      <c r="B298" s="61"/>
+      <c r="C298" s="65"/>
+      <c r="D298" s="65"/>
       <c r="E298" s="43" t="s">
         <v>303</v>
       </c>
@@ -16086,16 +16137,16 @@
         <v>327</v>
       </c>
       <c r="J298" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="63"/>
-      <c r="C299" s="61"/>
-      <c r="D299" s="61"/>
+      <c r="B299" s="61"/>
+      <c r="C299" s="66"/>
+      <c r="D299" s="66"/>
       <c r="E299" s="32" t="s">
         <v>323</v>
       </c>
@@ -16112,14 +16163,14 @@
         <v>327</v>
       </c>
       <c r="J299" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="64"/>
+      <c r="B300" s="62"/>
       <c r="C300" s="11" t="s">
         <v>118</v>
       </c>
@@ -16146,30 +16197,30 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="56" t="s">
+      <c r="A301" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="B301" s="56"/>
-      <c r="C301" s="56"/>
-      <c r="D301" s="56"/>
-      <c r="E301" s="56"/>
-      <c r="F301" s="56"/>
-      <c r="G301" s="56"/>
-      <c r="H301" s="56"/>
-      <c r="I301" s="56"/>
-      <c r="J301" s="56"/>
+      <c r="B301" s="72"/>
+      <c r="C301" s="72"/>
+      <c r="D301" s="72"/>
+      <c r="E301" s="72"/>
+      <c r="F301" s="72"/>
+      <c r="G301" s="72"/>
+      <c r="H301" s="72"/>
+      <c r="I301" s="72"/>
+      <c r="J301" s="72"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="62" t="s">
+      <c r="B302" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="59" t="s">
+      <c r="C302" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="62" t="s">
+      <c r="D302" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E302" s="28" t="s">
@@ -16193,9 +16244,9 @@
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="63"/>
-      <c r="C303" s="60"/>
-      <c r="D303" s="63"/>
+      <c r="B303" s="61"/>
+      <c r="C303" s="65"/>
+      <c r="D303" s="61"/>
       <c r="E303" s="28" t="s">
         <v>345</v>
       </c>
@@ -16217,9 +16268,9 @@
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="63"/>
-      <c r="C304" s="60"/>
-      <c r="D304" s="63"/>
+      <c r="B304" s="61"/>
+      <c r="C304" s="65"/>
+      <c r="D304" s="61"/>
       <c r="E304" s="28" t="s">
         <v>346</v>
       </c>
@@ -16241,9 +16292,9 @@
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="63"/>
-      <c r="C305" s="60"/>
-      <c r="D305" s="63"/>
+      <c r="B305" s="61"/>
+      <c r="C305" s="65"/>
+      <c r="D305" s="61"/>
       <c r="E305" s="28" t="s">
         <v>343</v>
       </c>
@@ -16265,9 +16316,9 @@
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="63"/>
-      <c r="C306" s="60"/>
-      <c r="D306" s="63"/>
+      <c r="B306" s="61"/>
+      <c r="C306" s="65"/>
+      <c r="D306" s="61"/>
       <c r="E306" s="28" t="s">
         <v>338</v>
       </c>
@@ -16289,9 +16340,9 @@
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="63"/>
-      <c r="C307" s="61"/>
-      <c r="D307" s="64"/>
+      <c r="B307" s="61"/>
+      <c r="C307" s="66"/>
+      <c r="D307" s="62"/>
       <c r="E307" s="28" t="s">
         <v>339</v>
       </c>
@@ -16313,11 +16364,11 @@
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="63"/>
-      <c r="C308" s="59" t="s">
+      <c r="B308" s="61"/>
+      <c r="C308" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="59" t="s">
+      <c r="D308" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E308" s="30" t="s">
@@ -16341,9 +16392,9 @@
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="63"/>
-      <c r="C309" s="60"/>
-      <c r="D309" s="60"/>
+      <c r="B309" s="61"/>
+      <c r="C309" s="65"/>
+      <c r="D309" s="65"/>
       <c r="E309" s="30" t="s">
         <v>340</v>
       </c>
@@ -16365,9 +16416,9 @@
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="63"/>
-      <c r="C310" s="60"/>
-      <c r="D310" s="60"/>
+      <c r="B310" s="61"/>
+      <c r="C310" s="65"/>
+      <c r="D310" s="65"/>
       <c r="E310" s="30" t="s">
         <v>348</v>
       </c>
@@ -16389,9 +16440,9 @@
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="63"/>
-      <c r="C311" s="60"/>
-      <c r="D311" s="60"/>
+      <c r="B311" s="61"/>
+      <c r="C311" s="65"/>
+      <c r="D311" s="65"/>
       <c r="E311" s="43" t="s">
         <v>341</v>
       </c>
@@ -16408,16 +16459,16 @@
         <v>307</v>
       </c>
       <c r="J311" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="63"/>
-      <c r="C312" s="61"/>
-      <c r="D312" s="61"/>
+      <c r="B312" s="61"/>
+      <c r="C312" s="66"/>
+      <c r="D312" s="66"/>
       <c r="E312" s="32" t="s">
         <v>349</v>
       </c>
@@ -16434,14 +16485,14 @@
         <v>307</v>
       </c>
       <c r="J312" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="64"/>
+      <c r="B313" s="62"/>
       <c r="C313" s="11" t="s">
         <v>118</v>
       </c>
@@ -16468,30 +16519,30 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="56" t="s">
+      <c r="A314" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="56"/>
-      <c r="C314" s="56"/>
-      <c r="D314" s="56"/>
-      <c r="E314" s="56"/>
-      <c r="F314" s="56"/>
-      <c r="G314" s="56"/>
-      <c r="H314" s="56"/>
-      <c r="I314" s="56"/>
-      <c r="J314" s="56"/>
+      <c r="B314" s="72"/>
+      <c r="C314" s="72"/>
+      <c r="D314" s="72"/>
+      <c r="E314" s="72"/>
+      <c r="F314" s="72"/>
+      <c r="G314" s="72"/>
+      <c r="H314" s="72"/>
+      <c r="I314" s="72"/>
+      <c r="J314" s="72"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="57" t="s">
+      <c r="B315" s="71" t="s">
         <v>350</v>
       </c>
-      <c r="C315" s="59" t="s">
+      <c r="C315" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="62" t="s">
+      <c r="D315" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E315" s="28" t="s">
@@ -16515,9 +16566,9 @@
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="57"/>
-      <c r="C316" s="60"/>
-      <c r="D316" s="63"/>
+      <c r="B316" s="71"/>
+      <c r="C316" s="65"/>
+      <c r="D316" s="61"/>
       <c r="E316" s="28" t="s">
         <v>357</v>
       </c>
@@ -16539,9 +16590,9 @@
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="57"/>
-      <c r="C317" s="60"/>
-      <c r="D317" s="63"/>
+      <c r="B317" s="71"/>
+      <c r="C317" s="65"/>
+      <c r="D317" s="61"/>
       <c r="E317" s="28" t="s">
         <v>366</v>
       </c>
@@ -16563,9 +16614,9 @@
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="57"/>
-      <c r="C318" s="60"/>
-      <c r="D318" s="63"/>
+      <c r="B318" s="71"/>
+      <c r="C318" s="65"/>
+      <c r="D318" s="61"/>
       <c r="E318" s="28" t="s">
         <v>364</v>
       </c>
@@ -16587,9 +16638,9 @@
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="57"/>
-      <c r="C319" s="60"/>
-      <c r="D319" s="63"/>
+      <c r="B319" s="71"/>
+      <c r="C319" s="65"/>
+      <c r="D319" s="61"/>
       <c r="E319" s="28" t="s">
         <v>358</v>
       </c>
@@ -16611,9 +16662,9 @@
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="57"/>
-      <c r="C320" s="61"/>
-      <c r="D320" s="64"/>
+      <c r="B320" s="71"/>
+      <c r="C320" s="66"/>
+      <c r="D320" s="62"/>
       <c r="E320" s="28" t="s">
         <v>359</v>
       </c>
@@ -16635,11 +16686,11 @@
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="57"/>
-      <c r="C321" s="58" t="s">
+      <c r="B321" s="71"/>
+      <c r="C321" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="58" t="s">
+      <c r="D321" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="30" t="s">
@@ -16663,9 +16714,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="57"/>
-      <c r="C322" s="58"/>
-      <c r="D322" s="58"/>
+      <c r="B322" s="71"/>
+      <c r="C322" s="70"/>
+      <c r="D322" s="70"/>
       <c r="E322" s="30" t="s">
         <v>361</v>
       </c>
@@ -16687,9 +16738,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="57"/>
-      <c r="C323" s="58"/>
-      <c r="D323" s="58"/>
+      <c r="B323" s="71"/>
+      <c r="C323" s="70"/>
+      <c r="D323" s="70"/>
       <c r="E323" s="30" t="s">
         <v>348</v>
       </c>
@@ -16711,9 +16762,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="57"/>
-      <c r="C324" s="58"/>
-      <c r="D324" s="58"/>
+      <c r="B324" s="71"/>
+      <c r="C324" s="70"/>
+      <c r="D324" s="70"/>
       <c r="E324" s="43" t="s">
         <v>362</v>
       </c>
@@ -16730,16 +16781,16 @@
         <v>365</v>
       </c>
       <c r="J324" s="44" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="57"/>
-      <c r="C325" s="58"/>
-      <c r="D325" s="58"/>
+      <c r="B325" s="71"/>
+      <c r="C325" s="70"/>
+      <c r="D325" s="70"/>
       <c r="E325" s="32" t="s">
         <v>356</v>
       </c>
@@ -16756,14 +16807,14 @@
         <v>365</v>
       </c>
       <c r="J325" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="57"/>
+      <c r="B326" s="71"/>
       <c r="C326" s="11" t="s">
         <v>118</v>
       </c>
@@ -16790,30 +16841,30 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="56" t="s">
+      <c r="A327" s="72" t="s">
         <v>353</v>
       </c>
-      <c r="B327" s="56"/>
-      <c r="C327" s="56"/>
-      <c r="D327" s="56"/>
-      <c r="E327" s="56"/>
-      <c r="F327" s="56"/>
-      <c r="G327" s="56"/>
-      <c r="H327" s="56"/>
-      <c r="I327" s="56"/>
-      <c r="J327" s="56"/>
+      <c r="B327" s="72"/>
+      <c r="C327" s="72"/>
+      <c r="D327" s="72"/>
+      <c r="E327" s="72"/>
+      <c r="F327" s="72"/>
+      <c r="G327" s="72"/>
+      <c r="H327" s="72"/>
+      <c r="I327" s="72"/>
+      <c r="J327" s="72"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>308</v>
       </c>
-      <c r="B328" s="59" t="s">
+      <c r="B328" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="C328" s="59" t="s">
+      <c r="C328" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D328" s="59" t="s">
+      <c r="D328" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E328" s="28" t="s">
@@ -16839,9 +16890,9 @@
       <c r="A329" s="8">
         <v>309</v>
       </c>
-      <c r="B329" s="60"/>
-      <c r="C329" s="60"/>
-      <c r="D329" s="60"/>
+      <c r="B329" s="65"/>
+      <c r="C329" s="65"/>
+      <c r="D329" s="65"/>
       <c r="E329" s="28" t="s">
         <v>477</v>
       </c>
@@ -16865,9 +16916,9 @@
       <c r="A330" s="8">
         <v>310</v>
       </c>
-      <c r="B330" s="60"/>
-      <c r="C330" s="60"/>
-      <c r="D330" s="60"/>
+      <c r="B330" s="65"/>
+      <c r="C330" s="65"/>
+      <c r="D330" s="65"/>
       <c r="E330" s="28" t="s">
         <v>479</v>
       </c>
@@ -16891,9 +16942,9 @@
       <c r="A331" s="8">
         <v>311</v>
       </c>
-      <c r="B331" s="60"/>
-      <c r="C331" s="60"/>
-      <c r="D331" s="60"/>
+      <c r="B331" s="65"/>
+      <c r="C331" s="65"/>
+      <c r="D331" s="65"/>
       <c r="E331" s="28" t="s">
         <v>480</v>
       </c>
@@ -16917,9 +16968,9 @@
       <c r="A332" s="8">
         <v>312</v>
       </c>
-      <c r="B332" s="60"/>
-      <c r="C332" s="60"/>
-      <c r="D332" s="60"/>
+      <c r="B332" s="65"/>
+      <c r="C332" s="65"/>
+      <c r="D332" s="65"/>
       <c r="E332" s="28" t="s">
         <v>481</v>
       </c>
@@ -16943,9 +16994,9 @@
       <c r="A333" s="8">
         <v>313</v>
       </c>
-      <c r="B333" s="60"/>
-      <c r="C333" s="60"/>
-      <c r="D333" s="60"/>
+      <c r="B333" s="65"/>
+      <c r="C333" s="65"/>
+      <c r="D333" s="65"/>
       <c r="E333" s="28" t="s">
         <v>482</v>
       </c>
@@ -16969,9 +17020,9 @@
       <c r="A334" s="8">
         <v>314</v>
       </c>
-      <c r="B334" s="60"/>
-      <c r="C334" s="60"/>
-      <c r="D334" s="60"/>
+      <c r="B334" s="65"/>
+      <c r="C334" s="65"/>
+      <c r="D334" s="65"/>
       <c r="E334" s="28" t="s">
         <v>484</v>
       </c>
@@ -16995,9 +17046,9 @@
       <c r="A335" s="8">
         <v>315</v>
       </c>
-      <c r="B335" s="60"/>
-      <c r="C335" s="60"/>
-      <c r="D335" s="60"/>
+      <c r="B335" s="65"/>
+      <c r="C335" s="65"/>
+      <c r="D335" s="65"/>
       <c r="E335" s="28" t="s">
         <v>485</v>
       </c>
@@ -17021,9 +17072,9 @@
       <c r="A336" s="8">
         <v>316</v>
       </c>
-      <c r="B336" s="60"/>
-      <c r="C336" s="60"/>
-      <c r="D336" s="60"/>
+      <c r="B336" s="65"/>
+      <c r="C336" s="65"/>
+      <c r="D336" s="65"/>
       <c r="E336" s="28" t="s">
         <v>488</v>
       </c>
@@ -17047,9 +17098,9 @@
       <c r="A337" s="8">
         <v>317</v>
       </c>
-      <c r="B337" s="60"/>
-      <c r="C337" s="60"/>
-      <c r="D337" s="60"/>
+      <c r="B337" s="65"/>
+      <c r="C337" s="65"/>
+      <c r="D337" s="65"/>
       <c r="E337" s="28" t="s">
         <v>486</v>
       </c>
@@ -17073,9 +17124,9 @@
       <c r="A338" s="8">
         <v>318</v>
       </c>
-      <c r="B338" s="60"/>
-      <c r="C338" s="60"/>
-      <c r="D338" s="60"/>
+      <c r="B338" s="65"/>
+      <c r="C338" s="65"/>
+      <c r="D338" s="65"/>
       <c r="E338" s="28" t="s">
         <v>487</v>
       </c>
@@ -17099,9 +17150,9 @@
       <c r="A339" s="8">
         <v>319</v>
       </c>
-      <c r="B339" s="60"/>
-      <c r="C339" s="61"/>
-      <c r="D339" s="61"/>
+      <c r="B339" s="65"/>
+      <c r="C339" s="66"/>
+      <c r="D339" s="66"/>
       <c r="E339" s="28" t="s">
         <v>489</v>
       </c>
@@ -17125,11 +17176,11 @@
       <c r="A340" s="8">
         <v>320</v>
       </c>
-      <c r="B340" s="60"/>
-      <c r="C340" s="59" t="s">
+      <c r="B340" s="65"/>
+      <c r="C340" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="62" t="s">
+      <c r="D340" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E340" s="28" t="s">
@@ -17153,9 +17204,9 @@
       <c r="A341" s="8">
         <v>321</v>
       </c>
-      <c r="B341" s="60"/>
-      <c r="C341" s="60"/>
-      <c r="D341" s="63"/>
+      <c r="B341" s="65"/>
+      <c r="C341" s="65"/>
+      <c r="D341" s="61"/>
       <c r="E341" s="28" t="s">
         <v>492</v>
       </c>
@@ -17177,9 +17228,9 @@
       <c r="A342" s="8">
         <v>322</v>
       </c>
-      <c r="B342" s="60"/>
-      <c r="C342" s="60"/>
-      <c r="D342" s="63"/>
+      <c r="B342" s="65"/>
+      <c r="C342" s="65"/>
+      <c r="D342" s="61"/>
       <c r="E342" s="28" t="s">
         <v>493</v>
       </c>
@@ -17201,9 +17252,9 @@
       <c r="A343" s="8">
         <v>323</v>
       </c>
-      <c r="B343" s="60"/>
-      <c r="C343" s="60"/>
-      <c r="D343" s="63"/>
+      <c r="B343" s="65"/>
+      <c r="C343" s="65"/>
+      <c r="D343" s="61"/>
       <c r="E343" s="28" t="s">
         <v>494</v>
       </c>
@@ -17225,9 +17276,9 @@
       <c r="A344" s="8">
         <v>324</v>
       </c>
-      <c r="B344" s="60"/>
-      <c r="C344" s="60"/>
-      <c r="D344" s="63"/>
+      <c r="B344" s="65"/>
+      <c r="C344" s="65"/>
+      <c r="D344" s="61"/>
       <c r="E344" s="28" t="s">
         <v>495</v>
       </c>
@@ -17249,9 +17300,9 @@
       <c r="A345" s="8">
         <v>325</v>
       </c>
-      <c r="B345" s="60"/>
-      <c r="C345" s="60"/>
-      <c r="D345" s="63"/>
+      <c r="B345" s="65"/>
+      <c r="C345" s="65"/>
+      <c r="D345" s="61"/>
       <c r="E345" s="28" t="s">
         <v>496</v>
       </c>
@@ -17273,9 +17324,9 @@
       <c r="A346" s="8">
         <v>326</v>
       </c>
-      <c r="B346" s="60"/>
-      <c r="C346" s="60"/>
-      <c r="D346" s="63"/>
+      <c r="B346" s="65"/>
+      <c r="C346" s="65"/>
+      <c r="D346" s="61"/>
       <c r="E346" s="28" t="s">
         <v>497</v>
       </c>
@@ -17297,9 +17348,9 @@
       <c r="A347" s="8">
         <v>327</v>
       </c>
-      <c r="B347" s="60"/>
-      <c r="C347" s="61"/>
-      <c r="D347" s="64"/>
+      <c r="B347" s="65"/>
+      <c r="C347" s="66"/>
+      <c r="D347" s="62"/>
       <c r="E347" s="28" t="s">
         <v>498</v>
       </c>
@@ -17321,20 +17372,20 @@
       <c r="A348" s="8">
         <v>328</v>
       </c>
-      <c r="B348" s="60"/>
-      <c r="C348" s="59" t="s">
+      <c r="B348" s="65"/>
+      <c r="C348" s="64" t="s">
         <v>465</v>
       </c>
       <c r="D348" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="E348" s="59" t="s">
+      <c r="E348" s="64" t="s">
         <v>502</v>
       </c>
-      <c r="F348" s="59" t="s">
+      <c r="F348" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="G348" s="62" t="s">
+      <c r="G348" s="60" t="s">
         <v>499</v>
       </c>
       <c r="H348" s="28" t="s">
@@ -17349,16 +17400,16 @@
       <c r="A349" s="8">
         <v>329</v>
       </c>
-      <c r="B349" s="60"/>
-      <c r="C349" s="60"/>
+      <c r="B349" s="65"/>
+      <c r="C349" s="65"/>
       <c r="D349" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="E349" s="60"/>
-      <c r="F349" s="60"/>
-      <c r="G349" s="63"/>
+      <c r="E349" s="65"/>
+      <c r="F349" s="65"/>
+      <c r="G349" s="61"/>
       <c r="H349" s="28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I349" s="28" t="s">
         <v>508</v>
@@ -17369,14 +17420,14 @@
       <c r="A350" s="8">
         <v>330</v>
       </c>
-      <c r="B350" s="60"/>
-      <c r="C350" s="60"/>
+      <c r="B350" s="65"/>
+      <c r="C350" s="65"/>
       <c r="D350" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="E350" s="60"/>
-      <c r="F350" s="60"/>
-      <c r="G350" s="63"/>
+      <c r="E350" s="65"/>
+      <c r="F350" s="65"/>
+      <c r="G350" s="61"/>
       <c r="H350" s="28" t="s">
         <v>501</v>
       </c>
@@ -17389,36 +17440,36 @@
       <c r="A351" s="8">
         <v>331</v>
       </c>
-      <c r="B351" s="60"/>
-      <c r="C351" s="60"/>
+      <c r="B351" s="65"/>
+      <c r="C351" s="65"/>
       <c r="D351" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="E351" s="60"/>
-      <c r="F351" s="60"/>
-      <c r="G351" s="63"/>
+      <c r="E351" s="65"/>
+      <c r="F351" s="65"/>
+      <c r="G351" s="61"/>
       <c r="H351" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="I351" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="J351" s="13" t="s">
         <v>646</v>
-      </c>
-      <c r="I351" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="J351" s="13" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
         <v>332</v>
       </c>
-      <c r="B352" s="61"/>
-      <c r="C352" s="61"/>
+      <c r="B352" s="66"/>
+      <c r="C352" s="66"/>
       <c r="D352" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="E352" s="61"/>
-      <c r="F352" s="61"/>
-      <c r="G352" s="64"/>
+      <c r="E352" s="66"/>
+      <c r="F352" s="66"/>
+      <c r="G352" s="62"/>
       <c r="H352" s="28" t="s">
         <v>505</v>
       </c>
@@ -17428,34 +17479,34 @@
       <c r="J352" s="13"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="71" t="s">
+      <c r="A353" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="B353" s="71"/>
-      <c r="C353" s="71"/>
-      <c r="D353" s="71"/>
-      <c r="E353" s="71"/>
-      <c r="F353" s="71"/>
-      <c r="G353" s="71"/>
-      <c r="H353" s="71"/>
-      <c r="I353" s="71"/>
-      <c r="J353" s="71"/>
+      <c r="B353" s="63"/>
+      <c r="C353" s="63"/>
+      <c r="D353" s="63"/>
+      <c r="E353" s="63"/>
+      <c r="F353" s="63"/>
+      <c r="G353" s="63"/>
+      <c r="H353" s="63"/>
+      <c r="I353" s="63"/>
+      <c r="J353" s="63"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="33">
         <v>339</v>
       </c>
-      <c r="B354" s="57" t="s">
+      <c r="B354" s="71" t="s">
+        <v>573</v>
+      </c>
+      <c r="C354" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D354" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E354" s="32" t="s">
         <v>574</v>
-      </c>
-      <c r="C354" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D354" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E354" s="32" t="s">
-        <v>575</v>
       </c>
       <c r="F354" s="32" t="s">
         <v>283</v>
@@ -17477,20 +17528,20 @@
       <c r="A355" s="33">
         <v>340</v>
       </c>
-      <c r="B355" s="57"/>
-      <c r="C355" s="58"/>
-      <c r="D355" s="58"/>
+      <c r="B355" s="71"/>
+      <c r="C355" s="70"/>
+      <c r="D355" s="70"/>
       <c r="E355" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F355" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G355" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H355" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I355" s="32" t="s">
         <v>508</v>
@@ -17501,20 +17552,20 @@
       <c r="A356" s="33">
         <v>341</v>
       </c>
-      <c r="B356" s="57"/>
-      <c r="C356" s="58"/>
-      <c r="D356" s="58"/>
+      <c r="B356" s="71"/>
+      <c r="C356" s="70"/>
+      <c r="D356" s="70"/>
       <c r="E356" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F356" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G356" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H356" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I356" s="32" t="s">
         <v>508</v>
@@ -17525,11 +17576,11 @@
       <c r="A357" s="33">
         <v>342</v>
       </c>
-      <c r="B357" s="57"/>
-      <c r="C357" s="58"/>
-      <c r="D357" s="58"/>
+      <c r="B357" s="71"/>
+      <c r="C357" s="70"/>
+      <c r="D357" s="70"/>
       <c r="E357" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F357" s="32" t="s">
         <v>283</v>
@@ -17551,20 +17602,20 @@
       <c r="A358" s="33">
         <v>343</v>
       </c>
-      <c r="B358" s="57"/>
-      <c r="C358" s="58"/>
-      <c r="D358" s="58"/>
+      <c r="B358" s="71"/>
+      <c r="C358" s="70"/>
+      <c r="D358" s="70"/>
       <c r="E358" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F358" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G358" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H358" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I358" s="32" t="s">
         <v>508</v>
@@ -17575,20 +17626,20 @@
       <c r="A359" s="33">
         <v>344</v>
       </c>
-      <c r="B359" s="57"/>
-      <c r="C359" s="58"/>
-      <c r="D359" s="58"/>
+      <c r="B359" s="71"/>
+      <c r="C359" s="70"/>
+      <c r="D359" s="70"/>
       <c r="E359" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F359" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G359" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H359" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I359" s="32" t="s">
         <v>508</v>
@@ -17599,11 +17650,11 @@
       <c r="A360" s="33">
         <v>345</v>
       </c>
-      <c r="B360" s="57"/>
-      <c r="C360" s="58"/>
-      <c r="D360" s="58"/>
+      <c r="B360" s="71"/>
+      <c r="C360" s="70"/>
+      <c r="D360" s="70"/>
       <c r="E360" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F360" s="32" t="s">
         <v>283</v>
@@ -17625,20 +17676,20 @@
       <c r="A361" s="33">
         <v>346</v>
       </c>
-      <c r="B361" s="57"/>
-      <c r="C361" s="58"/>
-      <c r="D361" s="58"/>
+      <c r="B361" s="71"/>
+      <c r="C361" s="70"/>
+      <c r="D361" s="70"/>
       <c r="E361" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F361" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G361" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H361" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I361" s="32" t="s">
         <v>508</v>
@@ -17649,20 +17700,20 @@
       <c r="A362" s="33">
         <v>347</v>
       </c>
-      <c r="B362" s="57"/>
-      <c r="C362" s="58"/>
-      <c r="D362" s="58"/>
+      <c r="B362" s="71"/>
+      <c r="C362" s="70"/>
+      <c r="D362" s="70"/>
       <c r="E362" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F362" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G362" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H362" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I362" s="32" t="s">
         <v>508</v>
@@ -17673,11 +17724,11 @@
       <c r="A363" s="33">
         <v>348</v>
       </c>
-      <c r="B363" s="57"/>
-      <c r="C363" s="58"/>
-      <c r="D363" s="58"/>
+      <c r="B363" s="71"/>
+      <c r="C363" s="70"/>
+      <c r="D363" s="70"/>
       <c r="E363" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F363" s="32" t="s">
         <v>283</v>
@@ -17699,20 +17750,20 @@
       <c r="A364" s="33">
         <v>349</v>
       </c>
-      <c r="B364" s="57"/>
-      <c r="C364" s="58"/>
-      <c r="D364" s="58"/>
+      <c r="B364" s="71"/>
+      <c r="C364" s="70"/>
+      <c r="D364" s="70"/>
       <c r="E364" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F364" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G364" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H364" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I364" s="32" t="s">
         <v>508</v>
@@ -17723,20 +17774,20 @@
       <c r="A365" s="33">
         <v>350</v>
       </c>
-      <c r="B365" s="57"/>
-      <c r="C365" s="58"/>
-      <c r="D365" s="58"/>
+      <c r="B365" s="71"/>
+      <c r="C365" s="70"/>
+      <c r="D365" s="70"/>
       <c r="E365" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F365" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G365" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H365" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I365" s="32" t="s">
         <v>508</v>
@@ -17747,11 +17798,11 @@
       <c r="A366" s="33">
         <v>351</v>
       </c>
-      <c r="B366" s="57"/>
-      <c r="C366" s="58"/>
-      <c r="D366" s="58"/>
+      <c r="B366" s="71"/>
+      <c r="C366" s="70"/>
+      <c r="D366" s="70"/>
       <c r="E366" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F366" s="32" t="s">
         <v>283</v>
@@ -17773,20 +17824,20 @@
       <c r="A367" s="33">
         <v>352</v>
       </c>
-      <c r="B367" s="57"/>
-      <c r="C367" s="58"/>
-      <c r="D367" s="58"/>
+      <c r="B367" s="71"/>
+      <c r="C367" s="70"/>
+      <c r="D367" s="70"/>
       <c r="E367" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F367" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G367" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H367" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I367" s="32" t="s">
         <v>508</v>
@@ -17797,20 +17848,20 @@
       <c r="A368" s="33">
         <v>353</v>
       </c>
-      <c r="B368" s="57"/>
-      <c r="C368" s="58"/>
-      <c r="D368" s="58"/>
+      <c r="B368" s="71"/>
+      <c r="C368" s="70"/>
+      <c r="D368" s="70"/>
       <c r="E368" s="32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F368" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G368" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H368" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I368" s="32" t="s">
         <v>508</v>
@@ -17821,11 +17872,11 @@
       <c r="A369" s="33">
         <v>354</v>
       </c>
-      <c r="B369" s="57"/>
-      <c r="C369" s="58"/>
-      <c r="D369" s="58"/>
+      <c r="B369" s="71"/>
+      <c r="C369" s="70"/>
+      <c r="D369" s="70"/>
       <c r="E369" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F369" s="32" t="s">
         <v>283</v>
@@ -17847,20 +17898,20 @@
       <c r="A370" s="33">
         <v>355</v>
       </c>
-      <c r="B370" s="57"/>
-      <c r="C370" s="58"/>
-      <c r="D370" s="58"/>
+      <c r="B370" s="71"/>
+      <c r="C370" s="70"/>
+      <c r="D370" s="70"/>
       <c r="E370" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F370" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G370" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H370" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I370" s="32" t="s">
         <v>508</v>
@@ -17871,55 +17922,55 @@
       <c r="A371" s="33">
         <v>356</v>
       </c>
-      <c r="B371" s="57"/>
-      <c r="C371" s="58"/>
-      <c r="D371" s="58"/>
+      <c r="B371" s="71"/>
+      <c r="C371" s="70"/>
+      <c r="D371" s="70"/>
       <c r="E371" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F371" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G371" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="H371" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="I371" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="J371" s="13"/>
+    </row>
+    <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A372" s="63" t="s">
         <v>605</v>
       </c>
-      <c r="H371" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="I371" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="J371" s="13"/>
-    </row>
-    <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="71" t="s">
-        <v>606</v>
-      </c>
-      <c r="B372" s="71"/>
-      <c r="C372" s="71"/>
-      <c r="D372" s="71"/>
-      <c r="E372" s="71"/>
-      <c r="F372" s="71"/>
-      <c r="G372" s="71"/>
-      <c r="H372" s="71"/>
-      <c r="I372" s="71"/>
-      <c r="J372" s="71"/>
+      <c r="B372" s="63"/>
+      <c r="C372" s="63"/>
+      <c r="D372" s="63"/>
+      <c r="E372" s="63"/>
+      <c r="F372" s="63"/>
+      <c r="G372" s="63"/>
+      <c r="H372" s="63"/>
+      <c r="I372" s="63"/>
+      <c r="J372" s="63"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="33">
         <v>357</v>
       </c>
-      <c r="B373" s="57" t="s">
-        <v>608</v>
-      </c>
-      <c r="C373" s="58" t="s">
+      <c r="B373" s="71" t="s">
+        <v>607</v>
+      </c>
+      <c r="C373" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D373" s="58" t="s">
+      <c r="D373" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E373" s="32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F373" s="32" t="s">
         <v>283</v>
@@ -17941,20 +17992,20 @@
       <c r="A374" s="33">
         <v>358</v>
       </c>
-      <c r="B374" s="57"/>
-      <c r="C374" s="58"/>
-      <c r="D374" s="58"/>
+      <c r="B374" s="71"/>
+      <c r="C374" s="70"/>
+      <c r="D374" s="70"/>
       <c r="E374" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F374" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G374" s="32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H374" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I374" s="32" t="s">
         <v>508</v>
@@ -17965,20 +18016,20 @@
       <c r="A375" s="33">
         <v>359</v>
       </c>
-      <c r="B375" s="57"/>
-      <c r="C375" s="58"/>
-      <c r="D375" s="58"/>
+      <c r="B375" s="71"/>
+      <c r="C375" s="70"/>
+      <c r="D375" s="70"/>
       <c r="E375" s="32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F375" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G375" s="32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H375" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I375" s="32" t="s">
         <v>508</v>
@@ -17989,11 +18040,11 @@
       <c r="A376" s="33">
         <v>360</v>
       </c>
-      <c r="B376" s="57"/>
-      <c r="C376" s="58"/>
-      <c r="D376" s="58"/>
+      <c r="B376" s="71"/>
+      <c r="C376" s="70"/>
+      <c r="D376" s="70"/>
       <c r="E376" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F376" s="32" t="s">
         <v>283</v>
@@ -18015,20 +18066,20 @@
       <c r="A377" s="33">
         <v>361</v>
       </c>
-      <c r="B377" s="57"/>
-      <c r="C377" s="58"/>
-      <c r="D377" s="58"/>
+      <c r="B377" s="71"/>
+      <c r="C377" s="70"/>
+      <c r="D377" s="70"/>
       <c r="E377" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F377" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G377" s="32" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H377" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I377" s="32" t="s">
         <v>508</v>
@@ -18039,64 +18090,64 @@
       <c r="A378" s="33">
         <v>362</v>
       </c>
-      <c r="B378" s="57"/>
-      <c r="C378" s="58"/>
-      <c r="D378" s="58"/>
+      <c r="B378" s="71"/>
+      <c r="C378" s="70"/>
+      <c r="D378" s="70"/>
       <c r="E378" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F378" s="32" t="s">
         <v>283</v>
       </c>
       <c r="G378" s="32" t="s">
+        <v>616</v>
+      </c>
+      <c r="H378" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="I378" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="J378" s="32"/>
+    </row>
+    <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A379" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="H378" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="I378" s="32" t="s">
-        <v>508</v>
-      </c>
-      <c r="J378" s="32"/>
-    </row>
-    <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="71" t="s">
-        <v>618</v>
-      </c>
-      <c r="B379" s="71"/>
-      <c r="C379" s="71"/>
-      <c r="D379" s="71"/>
-      <c r="E379" s="71"/>
-      <c r="F379" s="71"/>
-      <c r="G379" s="71"/>
-      <c r="H379" s="71"/>
-      <c r="I379" s="71"/>
-      <c r="J379" s="71"/>
+      <c r="B379" s="63"/>
+      <c r="C379" s="63"/>
+      <c r="D379" s="63"/>
+      <c r="E379" s="63"/>
+      <c r="F379" s="63"/>
+      <c r="G379" s="63"/>
+      <c r="H379" s="63"/>
+      <c r="I379" s="63"/>
+      <c r="J379" s="63"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="33">
         <v>363</v>
       </c>
-      <c r="B380" s="83" t="s">
-        <v>699</v>
-      </c>
-      <c r="C380" s="84" t="s">
+      <c r="B380" s="57" t="s">
+        <v>698</v>
+      </c>
+      <c r="C380" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D380" s="84" t="s">
-        <v>654</v>
+      <c r="D380" s="58" t="s">
+        <v>653</v>
       </c>
       <c r="E380" s="33" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F380" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G380" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H380" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I380" s="33" t="s">
         <v>526</v>
@@ -18107,20 +18158,20 @@
       <c r="A381" s="33">
         <v>364</v>
       </c>
-      <c r="B381" s="83"/>
-      <c r="C381" s="84"/>
-      <c r="D381" s="84"/>
+      <c r="B381" s="57"/>
+      <c r="C381" s="58"/>
+      <c r="D381" s="58"/>
       <c r="E381" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F381" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G381" s="33" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H381" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I381" s="33" t="s">
         <v>526</v>
@@ -18131,20 +18182,20 @@
       <c r="A382" s="33">
         <v>365</v>
       </c>
-      <c r="B382" s="83"/>
-      <c r="C382" s="84"/>
-      <c r="D382" s="84"/>
+      <c r="B382" s="57"/>
+      <c r="C382" s="58"/>
+      <c r="D382" s="58"/>
       <c r="E382" s="33" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F382" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G382" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H382" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I382" s="33" t="s">
         <v>526</v>
@@ -18155,20 +18206,20 @@
       <c r="A383" s="33">
         <v>366</v>
       </c>
-      <c r="B383" s="83"/>
-      <c r="C383" s="84"/>
-      <c r="D383" s="84"/>
+      <c r="B383" s="57"/>
+      <c r="C383" s="58"/>
+      <c r="D383" s="58"/>
       <c r="E383" s="33" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F383" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G383" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H383" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I383" s="33" t="s">
         <v>526</v>
@@ -18179,20 +18230,20 @@
       <c r="A384" s="33">
         <v>367</v>
       </c>
-      <c r="B384" s="83"/>
-      <c r="C384" s="84"/>
-      <c r="D384" s="84"/>
+      <c r="B384" s="57"/>
+      <c r="C384" s="58"/>
+      <c r="D384" s="58"/>
       <c r="E384" s="33" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F384" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G384" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H384" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I384" s="33" t="s">
         <v>526</v>
@@ -18203,20 +18254,20 @@
       <c r="A385" s="33">
         <v>368</v>
       </c>
-      <c r="B385" s="83"/>
-      <c r="C385" s="84"/>
-      <c r="D385" s="84"/>
+      <c r="B385" s="57"/>
+      <c r="C385" s="58"/>
+      <c r="D385" s="58"/>
       <c r="E385" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F385" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G385" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H385" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I385" s="33" t="s">
         <v>526</v>
@@ -18227,20 +18278,20 @@
       <c r="A386" s="33">
         <v>369</v>
       </c>
-      <c r="B386" s="83"/>
-      <c r="C386" s="84"/>
-      <c r="D386" s="84"/>
+      <c r="B386" s="57"/>
+      <c r="C386" s="58"/>
+      <c r="D386" s="58"/>
       <c r="E386" s="33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F386" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G386" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H386" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I386" s="33" t="s">
         <v>526</v>
@@ -18251,20 +18302,20 @@
       <c r="A387" s="33">
         <v>370</v>
       </c>
-      <c r="B387" s="83"/>
-      <c r="C387" s="84"/>
-      <c r="D387" s="84"/>
+      <c r="B387" s="57"/>
+      <c r="C387" s="58"/>
+      <c r="D387" s="58"/>
       <c r="E387" s="33" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F387" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G387" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H387" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I387" s="33" t="s">
         <v>526</v>
@@ -18275,20 +18326,20 @@
       <c r="A388" s="33">
         <v>371</v>
       </c>
-      <c r="B388" s="83"/>
-      <c r="C388" s="84"/>
-      <c r="D388" s="84"/>
+      <c r="B388" s="57"/>
+      <c r="C388" s="58"/>
+      <c r="D388" s="58"/>
       <c r="E388" s="33" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F388" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G388" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H388" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I388" s="33" t="s">
         <v>526</v>
@@ -18299,20 +18350,20 @@
       <c r="A389" s="33">
         <v>372</v>
       </c>
-      <c r="B389" s="83"/>
-      <c r="C389" s="84"/>
-      <c r="D389" s="84"/>
+      <c r="B389" s="57"/>
+      <c r="C389" s="58"/>
+      <c r="D389" s="58"/>
       <c r="E389" s="33" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F389" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G389" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H389" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I389" s="33" t="s">
         <v>526</v>
@@ -18323,20 +18374,20 @@
       <c r="A390" s="33">
         <v>373</v>
       </c>
-      <c r="B390" s="83"/>
-      <c r="C390" s="84"/>
-      <c r="D390" s="84"/>
+      <c r="B390" s="57"/>
+      <c r="C390" s="58"/>
+      <c r="D390" s="58"/>
       <c r="E390" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F390" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G390" s="33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H390" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I390" s="33" t="s">
         <v>526</v>
@@ -18347,20 +18398,20 @@
       <c r="A391" s="33">
         <v>374</v>
       </c>
-      <c r="B391" s="83"/>
-      <c r="C391" s="84"/>
-      <c r="D391" s="84"/>
+      <c r="B391" s="57"/>
+      <c r="C391" s="58"/>
+      <c r="D391" s="58"/>
       <c r="E391" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F391" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G391" s="33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H391" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I391" s="33" t="s">
         <v>526</v>
@@ -18371,20 +18422,20 @@
       <c r="A392" s="33">
         <v>375</v>
       </c>
-      <c r="B392" s="83"/>
-      <c r="C392" s="84"/>
-      <c r="D392" s="84"/>
+      <c r="B392" s="57"/>
+      <c r="C392" s="58"/>
+      <c r="D392" s="58"/>
       <c r="E392" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F392" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G392" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H392" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I392" s="33" t="s">
         <v>526</v>
@@ -18395,20 +18446,20 @@
       <c r="A393" s="33">
         <v>376</v>
       </c>
-      <c r="B393" s="83"/>
-      <c r="C393" s="84"/>
-      <c r="D393" s="84"/>
+      <c r="B393" s="57"/>
+      <c r="C393" s="58"/>
+      <c r="D393" s="58"/>
       <c r="E393" s="33" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F393" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G393" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H393" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I393" s="33" t="s">
         <v>526</v>
@@ -18419,20 +18470,20 @@
       <c r="A394" s="33">
         <v>377</v>
       </c>
-      <c r="B394" s="83"/>
-      <c r="C394" s="84"/>
-      <c r="D394" s="84"/>
+      <c r="B394" s="57"/>
+      <c r="C394" s="58"/>
+      <c r="D394" s="58"/>
       <c r="E394" s="33" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F394" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G394" s="33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H394" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I394" s="33" t="s">
         <v>526</v>
@@ -18443,20 +18494,20 @@
       <c r="A395" s="33">
         <v>378</v>
       </c>
-      <c r="B395" s="83"/>
-      <c r="C395" s="84"/>
-      <c r="D395" s="84"/>
+      <c r="B395" s="57"/>
+      <c r="C395" s="58"/>
+      <c r="D395" s="58"/>
       <c r="E395" s="33" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F395" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G395" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H395" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I395" s="33" t="s">
         <v>526</v>
@@ -18467,20 +18518,20 @@
       <c r="A396" s="33">
         <v>379</v>
       </c>
-      <c r="B396" s="83"/>
-      <c r="C396" s="84"/>
-      <c r="D396" s="84"/>
+      <c r="B396" s="57"/>
+      <c r="C396" s="58"/>
+      <c r="D396" s="58"/>
       <c r="E396" s="33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F396" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G396" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H396" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I396" s="33" t="s">
         <v>526</v>
@@ -18491,20 +18542,20 @@
       <c r="A397" s="33">
         <v>380</v>
       </c>
-      <c r="B397" s="83"/>
-      <c r="C397" s="84"/>
-      <c r="D397" s="84"/>
+      <c r="B397" s="57"/>
+      <c r="C397" s="58"/>
+      <c r="D397" s="58"/>
       <c r="E397" s="33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F397" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G397" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H397" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I397" s="33" t="s">
         <v>526</v>
@@ -18515,20 +18566,20 @@
       <c r="A398" s="33">
         <v>381</v>
       </c>
-      <c r="B398" s="83"/>
-      <c r="C398" s="84"/>
-      <c r="D398" s="84"/>
+      <c r="B398" s="57"/>
+      <c r="C398" s="58"/>
+      <c r="D398" s="58"/>
       <c r="E398" s="33" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F398" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G398" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="H398" s="33" t="s">
         <v>648</v>
-      </c>
-      <c r="H398" s="33" t="s">
-        <v>649</v>
       </c>
       <c r="I398" s="33" t="s">
         <v>526</v>
@@ -18539,20 +18590,20 @@
       <c r="A399" s="33">
         <v>382</v>
       </c>
-      <c r="B399" s="83"/>
-      <c r="C399" s="84"/>
-      <c r="D399" s="84"/>
+      <c r="B399" s="57"/>
+      <c r="C399" s="58"/>
+      <c r="D399" s="58"/>
       <c r="E399" s="33" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F399" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G399" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H399" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I399" s="33" t="s">
         <v>526</v>
@@ -18563,20 +18614,20 @@
       <c r="A400" s="33">
         <v>383</v>
       </c>
-      <c r="B400" s="83"/>
-      <c r="C400" s="84"/>
-      <c r="D400" s="84"/>
+      <c r="B400" s="57"/>
+      <c r="C400" s="58"/>
+      <c r="D400" s="58"/>
       <c r="E400" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F400" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G400" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H400" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I400" s="33" t="s">
         <v>526</v>
@@ -18587,20 +18638,20 @@
       <c r="A401" s="33">
         <v>384</v>
       </c>
-      <c r="B401" s="83"/>
-      <c r="C401" s="84"/>
-      <c r="D401" s="84"/>
+      <c r="B401" s="57"/>
+      <c r="C401" s="58"/>
+      <c r="D401" s="58"/>
       <c r="E401" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F401" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G401" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H401" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I401" s="33" t="s">
         <v>526</v>
@@ -18611,20 +18662,20 @@
       <c r="A402" s="33">
         <v>385</v>
       </c>
-      <c r="B402" s="83"/>
-      <c r="C402" s="84"/>
-      <c r="D402" s="84"/>
+      <c r="B402" s="57"/>
+      <c r="C402" s="58"/>
+      <c r="D402" s="58"/>
       <c r="E402" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F402" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G402" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H402" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I402" s="33" t="s">
         <v>526</v>
@@ -18635,20 +18686,20 @@
       <c r="A403" s="33">
         <v>386</v>
       </c>
-      <c r="B403" s="83"/>
-      <c r="C403" s="84"/>
-      <c r="D403" s="84"/>
+      <c r="B403" s="57"/>
+      <c r="C403" s="58"/>
+      <c r="D403" s="58"/>
       <c r="E403" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F403" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G403" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H403" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I403" s="33" t="s">
         <v>526</v>
@@ -18656,43 +18707,43 @@
       <c r="J403" s="14"/>
     </row>
     <row r="404" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="82" t="s">
-        <v>698</v>
-      </c>
-      <c r="B404" s="82"/>
-      <c r="C404" s="82"/>
-      <c r="D404" s="82"/>
-      <c r="E404" s="82"/>
-      <c r="F404" s="82"/>
-      <c r="G404" s="82"/>
-      <c r="H404" s="82"/>
-      <c r="I404" s="82"/>
-      <c r="J404" s="82"/>
+      <c r="A404" s="59" t="s">
+        <v>697</v>
+      </c>
+      <c r="B404" s="59"/>
+      <c r="C404" s="59"/>
+      <c r="D404" s="59"/>
+      <c r="E404" s="59"/>
+      <c r="F404" s="59"/>
+      <c r="G404" s="59"/>
+      <c r="H404" s="59"/>
+      <c r="I404" s="59"/>
+      <c r="J404" s="59"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="33">
         <v>387</v>
       </c>
-      <c r="B405" s="83" t="s">
-        <v>700</v>
-      </c>
-      <c r="C405" s="84" t="s">
+      <c r="B405" s="57" t="s">
+        <v>699</v>
+      </c>
+      <c r="C405" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D405" s="84" t="s">
-        <v>654</v>
+      <c r="D405" s="58" t="s">
+        <v>653</v>
       </c>
       <c r="E405" s="33" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F405" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G405" s="33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H405" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I405" s="33" t="s">
         <v>526</v>
@@ -18703,20 +18754,20 @@
       <c r="A406" s="33">
         <v>388</v>
       </c>
-      <c r="B406" s="83"/>
-      <c r="C406" s="84"/>
-      <c r="D406" s="84"/>
+      <c r="B406" s="57"/>
+      <c r="C406" s="58"/>
+      <c r="D406" s="58"/>
       <c r="E406" s="33" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F406" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G406" s="33" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H406" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I406" s="33" t="s">
         <v>526</v>
@@ -18727,20 +18778,20 @@
       <c r="A407" s="33">
         <v>389</v>
       </c>
-      <c r="B407" s="83"/>
-      <c r="C407" s="84"/>
-      <c r="D407" s="84"/>
+      <c r="B407" s="57"/>
+      <c r="C407" s="58"/>
+      <c r="D407" s="58"/>
       <c r="E407" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F407" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G407" s="33" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H407" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I407" s="33" t="s">
         <v>526</v>
@@ -18751,20 +18802,20 @@
       <c r="A408" s="33">
         <v>390</v>
       </c>
-      <c r="B408" s="83"/>
-      <c r="C408" s="84"/>
-      <c r="D408" s="84"/>
+      <c r="B408" s="57"/>
+      <c r="C408" s="58"/>
+      <c r="D408" s="58"/>
       <c r="E408" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F408" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G408" s="33" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H408" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I408" s="33" t="s">
         <v>526</v>
@@ -18775,20 +18826,20 @@
       <c r="A409" s="33">
         <v>391</v>
       </c>
-      <c r="B409" s="83"/>
-      <c r="C409" s="84"/>
-      <c r="D409" s="84"/>
+      <c r="B409" s="57"/>
+      <c r="C409" s="58"/>
+      <c r="D409" s="58"/>
       <c r="E409" s="33" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F409" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G409" s="33" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H409" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I409" s="33" t="s">
         <v>526</v>
@@ -18799,20 +18850,20 @@
       <c r="A410" s="33">
         <v>392</v>
       </c>
-      <c r="B410" s="83"/>
-      <c r="C410" s="84"/>
-      <c r="D410" s="84"/>
+      <c r="B410" s="57"/>
+      <c r="C410" s="58"/>
+      <c r="D410" s="58"/>
       <c r="E410" s="33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F410" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G410" s="33" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H410" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I410" s="33" t="s">
         <v>526</v>
@@ -18823,20 +18874,20 @@
       <c r="A411" s="33">
         <v>393</v>
       </c>
-      <c r="B411" s="83"/>
-      <c r="C411" s="84"/>
-      <c r="D411" s="84"/>
+      <c r="B411" s="57"/>
+      <c r="C411" s="58"/>
+      <c r="D411" s="58"/>
       <c r="E411" s="33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F411" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G411" s="33" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H411" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I411" s="33" t="s">
         <v>526</v>
@@ -18847,20 +18898,20 @@
       <c r="A412" s="33">
         <v>394</v>
       </c>
-      <c r="B412" s="83"/>
-      <c r="C412" s="84"/>
-      <c r="D412" s="84"/>
+      <c r="B412" s="57"/>
+      <c r="C412" s="58"/>
+      <c r="D412" s="58"/>
       <c r="E412" s="33" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F412" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G412" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H412" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I412" s="33" t="s">
         <v>526</v>
@@ -18871,20 +18922,20 @@
       <c r="A413" s="33">
         <v>395</v>
       </c>
-      <c r="B413" s="83"/>
-      <c r="C413" s="84"/>
-      <c r="D413" s="84"/>
+      <c r="B413" s="57"/>
+      <c r="C413" s="58"/>
+      <c r="D413" s="58"/>
       <c r="E413" s="33" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F413" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G413" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H413" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I413" s="33" t="s">
         <v>526</v>
@@ -18895,20 +18946,20 @@
       <c r="A414" s="33">
         <v>396</v>
       </c>
-      <c r="B414" s="83"/>
-      <c r="C414" s="84"/>
-      <c r="D414" s="84"/>
+      <c r="B414" s="57"/>
+      <c r="C414" s="58"/>
+      <c r="D414" s="58"/>
       <c r="E414" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F414" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G414" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H414" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I414" s="33" t="s">
         <v>526</v>
@@ -18919,20 +18970,20 @@
       <c r="A415" s="33">
         <v>397</v>
       </c>
-      <c r="B415" s="83"/>
-      <c r="C415" s="84"/>
-      <c r="D415" s="84"/>
+      <c r="B415" s="57"/>
+      <c r="C415" s="58"/>
+      <c r="D415" s="58"/>
       <c r="E415" s="33" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F415" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G415" s="33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H415" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I415" s="33" t="s">
         <v>526</v>
@@ -18943,20 +18994,20 @@
       <c r="A416" s="33">
         <v>398</v>
       </c>
-      <c r="B416" s="83"/>
-      <c r="C416" s="84"/>
-      <c r="D416" s="84"/>
+      <c r="B416" s="57"/>
+      <c r="C416" s="58"/>
+      <c r="D416" s="58"/>
       <c r="E416" s="33" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F416" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G416" s="33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H416" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I416" s="33" t="s">
         <v>526</v>
@@ -18967,20 +19018,20 @@
       <c r="A417" s="33">
         <v>399</v>
       </c>
-      <c r="B417" s="83"/>
-      <c r="C417" s="84"/>
-      <c r="D417" s="84"/>
+      <c r="B417" s="57"/>
+      <c r="C417" s="58"/>
+      <c r="D417" s="58"/>
       <c r="E417" s="33" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F417" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G417" s="33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H417" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I417" s="33" t="s">
         <v>526</v>
@@ -18991,20 +19042,20 @@
       <c r="A418" s="33">
         <v>400</v>
       </c>
-      <c r="B418" s="83"/>
-      <c r="C418" s="84"/>
-      <c r="D418" s="84"/>
+      <c r="B418" s="57"/>
+      <c r="C418" s="58"/>
+      <c r="D418" s="58"/>
       <c r="E418" s="33" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F418" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G418" s="33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H418" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I418" s="33" t="s">
         <v>526</v>
@@ -19015,20 +19066,20 @@
       <c r="A419" s="33">
         <v>401</v>
       </c>
-      <c r="B419" s="83"/>
-      <c r="C419" s="84"/>
-      <c r="D419" s="84"/>
+      <c r="B419" s="57"/>
+      <c r="C419" s="58"/>
+      <c r="D419" s="58"/>
       <c r="E419" s="33" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F419" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G419" s="33" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H419" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I419" s="33" t="s">
         <v>526</v>
@@ -19039,20 +19090,20 @@
       <c r="A420" s="33">
         <v>402</v>
       </c>
-      <c r="B420" s="83"/>
-      <c r="C420" s="84"/>
-      <c r="D420" s="84"/>
+      <c r="B420" s="57"/>
+      <c r="C420" s="58"/>
+      <c r="D420" s="58"/>
       <c r="E420" s="33" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F420" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G420" s="33" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H420" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I420" s="33" t="s">
         <v>526</v>
@@ -19063,20 +19114,20 @@
       <c r="A421" s="33">
         <v>403</v>
       </c>
-      <c r="B421" s="83"/>
-      <c r="C421" s="84"/>
-      <c r="D421" s="84"/>
+      <c r="B421" s="57"/>
+      <c r="C421" s="58"/>
+      <c r="D421" s="58"/>
       <c r="E421" s="33" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F421" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G421" s="33" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H421" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I421" s="33" t="s">
         <v>526</v>
@@ -19087,20 +19138,20 @@
       <c r="A422" s="33">
         <v>404</v>
       </c>
-      <c r="B422" s="83"/>
-      <c r="C422" s="84"/>
-      <c r="D422" s="84"/>
+      <c r="B422" s="57"/>
+      <c r="C422" s="58"/>
+      <c r="D422" s="58"/>
       <c r="E422" s="33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F422" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G422" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H422" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I422" s="33" t="s">
         <v>526</v>
@@ -19111,20 +19162,20 @@
       <c r="A423" s="33">
         <v>405</v>
       </c>
-      <c r="B423" s="83"/>
-      <c r="C423" s="84"/>
-      <c r="D423" s="84"/>
+      <c r="B423" s="57"/>
+      <c r="C423" s="58"/>
+      <c r="D423" s="58"/>
       <c r="E423" s="33" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F423" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G423" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="H423" s="33" t="s">
         <v>648</v>
-      </c>
-      <c r="H423" s="33" t="s">
-        <v>649</v>
       </c>
       <c r="I423" s="33" t="s">
         <v>526</v>
@@ -19135,20 +19186,20 @@
       <c r="A424" s="33">
         <v>406</v>
       </c>
-      <c r="B424" s="83"/>
-      <c r="C424" s="84"/>
-      <c r="D424" s="84"/>
+      <c r="B424" s="57"/>
+      <c r="C424" s="58"/>
+      <c r="D424" s="58"/>
       <c r="E424" s="33" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F424" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G424" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H424" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I424" s="33" t="s">
         <v>526</v>
@@ -19159,20 +19210,20 @@
       <c r="A425" s="33">
         <v>407</v>
       </c>
-      <c r="B425" s="83"/>
-      <c r="C425" s="84"/>
-      <c r="D425" s="84"/>
+      <c r="B425" s="57"/>
+      <c r="C425" s="58"/>
+      <c r="D425" s="58"/>
       <c r="E425" s="33" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F425" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G425" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H425" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I425" s="33" t="s">
         <v>526</v>
@@ -19183,20 +19234,20 @@
       <c r="A426" s="33">
         <v>408</v>
       </c>
-      <c r="B426" s="83"/>
-      <c r="C426" s="84"/>
-      <c r="D426" s="84"/>
+      <c r="B426" s="57"/>
+      <c r="C426" s="58"/>
+      <c r="D426" s="58"/>
       <c r="E426" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F426" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G426" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H426" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I426" s="33" t="s">
         <v>526</v>
@@ -19207,20 +19258,20 @@
       <c r="A427" s="33">
         <v>409</v>
       </c>
-      <c r="B427" s="83"/>
-      <c r="C427" s="84"/>
-      <c r="D427" s="84"/>
+      <c r="B427" s="57"/>
+      <c r="C427" s="58"/>
+      <c r="D427" s="58"/>
       <c r="E427" s="33" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F427" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G427" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H427" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I427" s="33" t="s">
         <v>526</v>
@@ -19231,20 +19282,20 @@
       <c r="A428" s="33">
         <v>410</v>
       </c>
-      <c r="B428" s="83"/>
-      <c r="C428" s="84"/>
-      <c r="D428" s="84"/>
+      <c r="B428" s="57"/>
+      <c r="C428" s="58"/>
+      <c r="D428" s="58"/>
       <c r="E428" s="33" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F428" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G428" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H428" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I428" s="33" t="s">
         <v>526</v>
@@ -19252,43 +19303,43 @@
       <c r="J428" s="14"/>
     </row>
     <row r="429" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="82" t="s">
-        <v>701</v>
-      </c>
-      <c r="B429" s="82"/>
-      <c r="C429" s="82"/>
-      <c r="D429" s="82"/>
-      <c r="E429" s="82"/>
-      <c r="F429" s="82"/>
-      <c r="G429" s="82"/>
-      <c r="H429" s="82"/>
-      <c r="I429" s="82"/>
-      <c r="J429" s="82"/>
+      <c r="A429" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="B429" s="59"/>
+      <c r="C429" s="59"/>
+      <c r="D429" s="59"/>
+      <c r="E429" s="59"/>
+      <c r="F429" s="59"/>
+      <c r="G429" s="59"/>
+      <c r="H429" s="59"/>
+      <c r="I429" s="59"/>
+      <c r="J429" s="59"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="33">
         <v>411</v>
       </c>
-      <c r="B430" s="83" t="s">
+      <c r="B430" s="57" t="s">
+        <v>725</v>
+      </c>
+      <c r="C430" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D430" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="E430" s="33" t="s">
         <v>726</v>
-      </c>
-      <c r="C430" s="84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D430" s="84" t="s">
-        <v>654</v>
-      </c>
-      <c r="E430" s="33" t="s">
-        <v>727</v>
       </c>
       <c r="F430" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G430" s="33" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H430" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I430" s="33" t="s">
         <v>526</v>
@@ -19299,20 +19350,20 @@
       <c r="A431" s="33">
         <v>412</v>
       </c>
-      <c r="B431" s="83"/>
-      <c r="C431" s="84"/>
-      <c r="D431" s="84"/>
+      <c r="B431" s="57"/>
+      <c r="C431" s="58"/>
+      <c r="D431" s="58"/>
       <c r="E431" s="33" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F431" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G431" s="33" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H431" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I431" s="33" t="s">
         <v>526</v>
@@ -19323,20 +19374,20 @@
       <c r="A432" s="33">
         <v>413</v>
       </c>
-      <c r="B432" s="83"/>
-      <c r="C432" s="84"/>
-      <c r="D432" s="84"/>
+      <c r="B432" s="57"/>
+      <c r="C432" s="58"/>
+      <c r="D432" s="58"/>
       <c r="E432" s="33" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F432" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G432" s="33" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H432" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I432" s="33" t="s">
         <v>526</v>
@@ -19347,20 +19398,20 @@
       <c r="A433" s="33">
         <v>414</v>
       </c>
-      <c r="B433" s="83"/>
-      <c r="C433" s="84"/>
-      <c r="D433" s="84"/>
+      <c r="B433" s="57"/>
+      <c r="C433" s="58"/>
+      <c r="D433" s="58"/>
       <c r="E433" s="33" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F433" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G433" s="33" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H433" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I433" s="33" t="s">
         <v>526</v>
@@ -19371,20 +19422,20 @@
       <c r="A434" s="33">
         <v>415</v>
       </c>
-      <c r="B434" s="83"/>
-      <c r="C434" s="84"/>
-      <c r="D434" s="84"/>
+      <c r="B434" s="57"/>
+      <c r="C434" s="58"/>
+      <c r="D434" s="58"/>
       <c r="E434" s="33" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F434" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G434" s="33" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H434" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I434" s="33" t="s">
         <v>526</v>
@@ -19395,20 +19446,20 @@
       <c r="A435" s="33">
         <v>416</v>
       </c>
-      <c r="B435" s="83"/>
-      <c r="C435" s="84"/>
-      <c r="D435" s="84"/>
+      <c r="B435" s="57"/>
+      <c r="C435" s="58"/>
+      <c r="D435" s="58"/>
       <c r="E435" s="33" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F435" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G435" s="33" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H435" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I435" s="33" t="s">
         <v>526</v>
@@ -19419,20 +19470,20 @@
       <c r="A436" s="33">
         <v>417</v>
       </c>
-      <c r="B436" s="83"/>
-      <c r="C436" s="84"/>
-      <c r="D436" s="84"/>
+      <c r="B436" s="57"/>
+      <c r="C436" s="58"/>
+      <c r="D436" s="58"/>
       <c r="E436" s="33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F436" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G436" s="33" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H436" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I436" s="33" t="s">
         <v>526</v>
@@ -19443,20 +19494,20 @@
       <c r="A437" s="33">
         <v>418</v>
       </c>
-      <c r="B437" s="83"/>
-      <c r="C437" s="84"/>
-      <c r="D437" s="84"/>
+      <c r="B437" s="57"/>
+      <c r="C437" s="58"/>
+      <c r="D437" s="58"/>
       <c r="E437" s="33" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F437" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G437" s="33" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H437" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I437" s="33" t="s">
         <v>526</v>
@@ -19467,20 +19518,20 @@
       <c r="A438" s="33">
         <v>419</v>
       </c>
-      <c r="B438" s="83"/>
-      <c r="C438" s="84"/>
-      <c r="D438" s="84"/>
+      <c r="B438" s="57"/>
+      <c r="C438" s="58"/>
+      <c r="D438" s="58"/>
       <c r="E438" s="33" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F438" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G438" s="33" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H438" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I438" s="33" t="s">
         <v>526</v>
@@ -19491,20 +19542,20 @@
       <c r="A439" s="33">
         <v>420</v>
       </c>
-      <c r="B439" s="83"/>
-      <c r="C439" s="84"/>
-      <c r="D439" s="84"/>
+      <c r="B439" s="57"/>
+      <c r="C439" s="58"/>
+      <c r="D439" s="58"/>
       <c r="E439" s="33" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F439" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G439" s="33" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H439" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I439" s="33" t="s">
         <v>526</v>
@@ -19515,20 +19566,20 @@
       <c r="A440" s="33">
         <v>421</v>
       </c>
-      <c r="B440" s="83"/>
-      <c r="C440" s="84"/>
-      <c r="D440" s="84"/>
+      <c r="B440" s="57"/>
+      <c r="C440" s="58"/>
+      <c r="D440" s="58"/>
       <c r="E440" s="33" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F440" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G440" s="33" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H440" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I440" s="33" t="s">
         <v>526</v>
@@ -19539,20 +19590,20 @@
       <c r="A441" s="33">
         <v>422</v>
       </c>
-      <c r="B441" s="83"/>
-      <c r="C441" s="84"/>
-      <c r="D441" s="84"/>
+      <c r="B441" s="57"/>
+      <c r="C441" s="58"/>
+      <c r="D441" s="58"/>
       <c r="E441" s="33" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F441" s="33" t="s">
         <v>468</v>
       </c>
       <c r="G441" s="33" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H441" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I441" s="33" t="s">
         <v>526</v>
@@ -19560,18 +19611,18 @@
       <c r="J441" s="14"/>
     </row>
     <row r="442" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="82" t="s">
-        <v>751</v>
-      </c>
-      <c r="B442" s="82"/>
-      <c r="C442" s="82"/>
-      <c r="D442" s="82"/>
-      <c r="E442" s="82"/>
-      <c r="F442" s="82"/>
-      <c r="G442" s="82"/>
-      <c r="H442" s="82"/>
-      <c r="I442" s="82"/>
-      <c r="J442" s="82"/>
+      <c r="A442" s="59" t="s">
+        <v>750</v>
+      </c>
+      <c r="B442" s="59"/>
+      <c r="C442" s="59"/>
+      <c r="D442" s="59"/>
+      <c r="E442" s="59"/>
+      <c r="F442" s="59"/>
+      <c r="G442" s="59"/>
+      <c r="H442" s="59"/>
+      <c r="I442" s="59"/>
+      <c r="J442" s="59"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="33"/>
@@ -19731,11 +19782,11 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="5"/>
-      <c r="B456" s="72" t="s">
+      <c r="B456" s="67" t="s">
         <v>507</v>
       </c>
-      <c r="C456" s="73"/>
-      <c r="D456" s="74"/>
+      <c r="C456" s="68"/>
+      <c r="D456" s="69"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
@@ -19746,11 +19797,11 @@
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="5"/>
       <c r="B457" s="25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E457" s="48"/>
       <c r="F457" s="49"/>
@@ -19823,35 +19874,98 @@
     </row>
   </sheetData>
   <mergeCells count="145">
-    <mergeCell ref="B405:B428"/>
-    <mergeCell ref="C405:C428"/>
-    <mergeCell ref="D405:D428"/>
-    <mergeCell ref="A429:J429"/>
-    <mergeCell ref="D430:D441"/>
-    <mergeCell ref="C430:C441"/>
-    <mergeCell ref="B430:B441"/>
-    <mergeCell ref="A442:J442"/>
-    <mergeCell ref="G348:G352"/>
-    <mergeCell ref="A353:J353"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="B328:B352"/>
-    <mergeCell ref="C328:C339"/>
-    <mergeCell ref="D328:D339"/>
-    <mergeCell ref="D340:D347"/>
-    <mergeCell ref="C340:C347"/>
-    <mergeCell ref="B456:D456"/>
-    <mergeCell ref="C354:C371"/>
-    <mergeCell ref="D354:D371"/>
-    <mergeCell ref="B354:B371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A379:J379"/>
-    <mergeCell ref="D373:D378"/>
-    <mergeCell ref="C373:C378"/>
-    <mergeCell ref="B373:B378"/>
-    <mergeCell ref="D380:D403"/>
-    <mergeCell ref="C380:C403"/>
-    <mergeCell ref="B380:B403"/>
-    <mergeCell ref="A404:J404"/>
+    <mergeCell ref="A327:J327"/>
+    <mergeCell ref="D238:D260"/>
+    <mergeCell ref="C238:C260"/>
+    <mergeCell ref="A314:J314"/>
+    <mergeCell ref="B315:B326"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="C321:C325"/>
+    <mergeCell ref="D321:D325"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="D261:D274"/>
+    <mergeCell ref="C261:C274"/>
+    <mergeCell ref="B238:B274"/>
+    <mergeCell ref="A275:J275"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="A301:J301"/>
+    <mergeCell ref="B302:B313"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="D302:D307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="D308:D312"/>
+    <mergeCell ref="A288:J288"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="C295:C299"/>
+    <mergeCell ref="D295:D299"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B276:B287"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="B211:B224"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="C211:C219"/>
+    <mergeCell ref="B166:B179"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D166:D174"/>
+    <mergeCell ref="C166:C174"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D2:D32"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="C79:C84"/>
     <mergeCell ref="D91:D96"/>
     <mergeCell ref="C91:C96"/>
     <mergeCell ref="D103:D110"/>
@@ -19876,105 +19990,619 @@
     <mergeCell ref="C160:C161"/>
     <mergeCell ref="A165:J165"/>
     <mergeCell ref="F348:F352"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="B2:B39"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B91:B101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D2:D32"/>
-    <mergeCell ref="B166:B179"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D152:D159"/>
-    <mergeCell ref="C152:C159"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="C166:C174"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="C181:C189"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A237:J237"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="B196:B209"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="B211:B224"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="C211:C219"/>
-    <mergeCell ref="D308:D312"/>
-    <mergeCell ref="A288:J288"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="C295:C299"/>
-    <mergeCell ref="D295:D299"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B276:B287"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="A327:J327"/>
-    <mergeCell ref="D238:D260"/>
-    <mergeCell ref="C238:C260"/>
-    <mergeCell ref="A314:J314"/>
-    <mergeCell ref="B315:B326"/>
-    <mergeCell ref="C315:C320"/>
-    <mergeCell ref="D315:D320"/>
-    <mergeCell ref="C321:C325"/>
-    <mergeCell ref="D321:D325"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="D261:D274"/>
-    <mergeCell ref="C261:C274"/>
-    <mergeCell ref="B238:B274"/>
-    <mergeCell ref="A275:J275"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="A301:J301"/>
-    <mergeCell ref="B302:B313"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="D302:D307"/>
-    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="B456:D456"/>
+    <mergeCell ref="C354:C371"/>
+    <mergeCell ref="D354:D371"/>
+    <mergeCell ref="B354:B371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A379:J379"/>
+    <mergeCell ref="D373:D378"/>
+    <mergeCell ref="C373:C378"/>
+    <mergeCell ref="B373:B378"/>
+    <mergeCell ref="D380:D403"/>
+    <mergeCell ref="C380:C403"/>
+    <mergeCell ref="B380:B403"/>
+    <mergeCell ref="A404:J404"/>
+    <mergeCell ref="B405:B428"/>
+    <mergeCell ref="C405:C428"/>
+    <mergeCell ref="D405:D428"/>
+    <mergeCell ref="A429:J429"/>
+    <mergeCell ref="D430:D441"/>
+    <mergeCell ref="C430:C441"/>
+    <mergeCell ref="B430:B441"/>
+    <mergeCell ref="A442:J442"/>
+    <mergeCell ref="G348:G352"/>
+    <mergeCell ref="A353:J353"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="B328:B352"/>
+    <mergeCell ref="C328:C339"/>
+    <mergeCell ref="D328:D339"/>
+    <mergeCell ref="D340:D347"/>
+    <mergeCell ref="C340:C347"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="82" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
+        <v>332</v>
+      </c>
+      <c r="H1" s="85"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <f>B3*220/(330220)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="7">
+        <f>C3*8.2</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="7">
+        <f>E3*1.6</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C15" si="0">B4*220/(330220)</f>
+        <v>1.6655562958027982E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E15" si="1">C4*8.2</f>
+        <v>0.13657561625582945</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7">
+        <f t="shared" ref="G4:G15" si="2">E4*1.6</f>
+        <v>0.21852098600932712</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3311125916055964E-2</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2731512325116589</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.43704197201865425</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>75</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9966688874083946E-2</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40972684876748833</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>0.65556295802798137</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>6.6622251832111928E-2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54630246502331781</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>0.87408394403730849</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>125</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>8.3277814790139904E-2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.68287808127914718</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0926049300466356</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>9.9933377748167893E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.81945369753497665</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3111259160559627</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>175</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11658894070619587</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95602931379080602</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5296469020652896</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>200</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13324450366422386</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0926049300466356</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>1.748167888074617</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>225</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14990006662225183</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>1.229180546302465</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>1.9666888740839441</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>250</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16655562958027981</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3657561625582944</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1852098600932712</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>275</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18321119253830778</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>1.5023317788141237</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>2.4037308461025981</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>300</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19986675549633579</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6389073950699533</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>2.6222518321119255</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>754</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>755</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>756</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>757</v>
+      </c>
+      <c r="H1" s="86"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="F6" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C7" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20.7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C9" s="88">
+        <v>25.7</v>
+      </c>
+      <c r="D9" s="88">
+        <v>20.8</v>
+      </c>
+      <c r="E9" s="88">
+        <v>14.6</v>
+      </c>
+      <c r="F9" s="88">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C10" s="87">
+        <v>29.4</v>
+      </c>
+      <c r="D10" s="88">
+        <v>20.8</v>
+      </c>
+      <c r="E10" s="87">
+        <v>14.7</v>
+      </c>
+      <c r="F10" s="87">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>770</v>
+      </c>
+      <c r="H10" t="s">
+        <v>771</v>
+      </c>
+      <c r="I10" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -19990,28 +20618,28 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>644</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>626</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="77"/>
+        <v>643</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>625</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C2" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" s="51" t="s">
         <v>629</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C3" s="53">
         <v>0.24</v>
@@ -20021,12 +20649,12 @@
         <v>3.5999999999999996</v>
       </c>
       <c r="G3" s="52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C4" s="53">
         <v>0.4</v>
@@ -20040,13 +20668,13 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="F4" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C5" s="53">
         <v>0.55000000000000004</v>
@@ -20060,13 +20688,13 @@
         <v>2.25</v>
       </c>
       <c r="F5" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C6" s="53">
         <v>0.82</v>
@@ -20080,12 +20708,12 @@
         <v>4.0499999999999989</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C7" s="53">
         <v>1.08</v>
@@ -20099,12 +20727,12 @@
         <v>3.9000000000000039</v>
       </c>
       <c r="F7" s="55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C8" s="53">
         <v>1.48</v>
@@ -20118,7 +20746,7 @@
         <v>5.9999999999999964</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -20139,28 +20767,28 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>626</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
+        <v>642</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C13" s="51" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13" s="51" t="s">
         <v>629</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C14" s="53">
         <v>0.24</v>
@@ -20172,7 +20800,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C15" s="53">
         <v>0.4</v>
@@ -20186,12 +20814,12 @@
         <v>2.4000000000000004</v>
       </c>
       <c r="F15" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C16" s="53">
         <v>0.55000000000000004</v>
@@ -20205,12 +20833,12 @@
         <v>2.25</v>
       </c>
       <c r="F16" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C17" s="53">
         <v>1.02</v>
@@ -20224,12 +20852,12 @@
         <v>7.0500000000000007</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C18" s="53">
         <v>1.48</v>
@@ -20243,12 +20871,12 @@
         <v>6.8999999999999986</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C19" s="53">
         <v>1.94</v>
@@ -20262,7 +20890,7 @@
         <v>6.8999999999999986</v>
       </c>
       <c r="F19" s="55" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -20291,7 +20919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -20320,30 +20948,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="78" t="s">
-        <v>571</v>
-      </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -21271,7 +21899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -21300,30 +21928,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="83" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="79" t="s">
-        <v>621</v>
-      </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="78" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="83" t="s">
         <v>620</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="82" t="s">
+        <v>619</v>
+      </c>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -22217,7 +22845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -22246,30 +22874,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="79" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="83" t="s">
+        <v>621</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="82" t="s">
         <v>622</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="78" t="s">
-        <v>623</v>
-      </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -23163,7 +23791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
@@ -23192,30 +23820,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="79" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="79" t="s">
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="83" t="s">
+        <v>623</v>
+      </c>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="82" t="s">
         <v>624</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="78" t="s">
-        <v>625</v>
-      </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -24106,333 +24734,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-      <c r="C1" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="H1" s="81"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7">
-        <f>B3*220/(330220)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="7">
-        <f>C3*8.2</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="7">
-        <f>E3*1.6</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" ref="C4:C15" si="0">B4*220/(330220)</f>
-        <v>1.6655562958027982E-2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7">
-        <f t="shared" ref="E4:E15" si="1">C4*8.2</f>
-        <v>0.13657561625582945</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G15" si="2">E4*1.6</f>
-        <v>0.21852098600932712</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="0"/>
-        <v>3.3311125916055964E-2</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="7">
-        <f t="shared" si="1"/>
-        <v>0.2731512325116589</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.43704197201865425</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>75</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="0"/>
-        <v>4.9966688874083946E-2</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="7">
-        <f t="shared" si="1"/>
-        <v>0.40972684876748833</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="7">
-        <f t="shared" si="2"/>
-        <v>0.65556295802798137</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="0"/>
-        <v>6.6622251832111928E-2</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="7">
-        <f t="shared" si="1"/>
-        <v>0.54630246502331781</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.87408394403730849</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>125</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="0"/>
-        <v>8.3277814790139904E-2</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.68287808127914718</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>1.0926049300466356</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>150</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="0"/>
-        <v>9.9933377748167893E-2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.81945369753497665</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="7">
-        <f t="shared" si="2"/>
-        <v>1.3111259160559627</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>175</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11658894070619587</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.95602931379080602</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5296469020652896</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>200</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" si="0"/>
-        <v>0.13324450366422386</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0926049300466356</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="7">
-        <f t="shared" si="2"/>
-        <v>1.748167888074617</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>225</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14990006662225183</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>1.229180546302465</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="7">
-        <f t="shared" si="2"/>
-        <v>1.9666888740839441</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>250</v>
-      </c>
-      <c r="C13" s="7">
-        <f t="shared" si="0"/>
-        <v>0.16655562958027981</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>1.3657561625582944</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="7">
-        <f t="shared" si="2"/>
-        <v>2.1852098600932712</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>275</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="0"/>
-        <v>0.18321119253830778</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
-        <v>1.5023317788141237</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7">
-        <f t="shared" si="2"/>
-        <v>2.4037308461025981</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>300</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>0.19986675549633579</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6389073950699533</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="7">
-        <f t="shared" si="2"/>
-        <v>2.6222518321119255</v>
-      </c>
-      <c r="H15" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24457,22 +24758,22 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="81"/>
+      <c r="C1" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>296</v>
@@ -24768,7 +25069,7 @@
   <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24784,22 +25085,22 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79" t="s">
-        <v>332</v>
-      </c>
-      <c r="H1" s="81"/>
+      <c r="C1" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>296</v>

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2571" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="777">
   <si>
     <t>Test Türü</t>
   </si>
@@ -2520,9 +2520,6 @@
     <t>GPIO76 1 kHz %50 duty</t>
   </si>
   <si>
-    <t>We have properENABLE outputs for all modules and phases</t>
-  </si>
-  <si>
     <t>PWM DSP çıkışı vs entegre çıkışı</t>
   </si>
   <si>
@@ -2590,6 +2587,18 @@
   </si>
   <si>
     <t>88 C max</t>
+  </si>
+  <si>
+    <t>We have proper ENABLE outputs for all modules and phases</t>
+  </si>
+  <si>
+    <t>3.6 V peak (all below)</t>
+  </si>
+  <si>
+    <t>bozuk</t>
+  </si>
+  <si>
+    <t>3.5V peak (all)</t>
   </si>
 </sst>
 </file>
@@ -2813,7 +2822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2961,25 +2970,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2991,23 +2994,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3026,6 +3020,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3048,9 +3063,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8687,21 +8702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J461"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J408" sqref="J408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="6" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="6" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" style="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -8742,13 +8757,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -8772,9 +8787,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="71"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="65"/>
-      <c r="D3" s="61"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="10" t="s">
         <v>509</v>
       </c>
@@ -8796,9 +8811,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="65"/>
-      <c r="D4" s="61"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="10" t="s">
         <v>510</v>
       </c>
@@ -8820,9 +8835,9 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="71"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="65"/>
-      <c r="D5" s="61"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="10" t="s">
         <v>404</v>
       </c>
@@ -8844,9 +8859,9 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="71"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="65"/>
-      <c r="D6" s="61"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="10" t="s">
         <v>405</v>
       </c>
@@ -8868,9 +8883,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="71"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="65"/>
-      <c r="D7" s="61"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="10" t="s">
         <v>406</v>
       </c>
@@ -8892,9 +8907,9 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="71"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="65"/>
-      <c r="D8" s="61"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -8916,9 +8931,9 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="65"/>
-      <c r="D9" s="61"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="10" t="s">
         <v>407</v>
       </c>
@@ -8940,9 +8955,9 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="65"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="10" t="s">
         <v>408</v>
       </c>
@@ -8964,9 +8979,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="61"/>
+      <c r="D11" s="68"/>
       <c r="E11" s="10" t="s">
         <v>409</v>
       </c>
@@ -8988,9 +9003,9 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="71"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="65"/>
-      <c r="D12" s="61"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="10" t="s">
         <v>410</v>
       </c>
@@ -9012,9 +9027,9 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="71"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="65"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="10" t="s">
         <v>421</v>
       </c>
@@ -9036,9 +9051,9 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="71"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="61"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="10" t="s">
         <v>411</v>
       </c>
@@ -9060,9 +9075,9 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="71"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="10" t="s">
         <v>412</v>
       </c>
@@ -9084,9 +9099,9 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="71"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="65"/>
-      <c r="D16" s="61"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="10" t="s">
         <v>422</v>
       </c>
@@ -9108,9 +9123,9 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="71"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="61"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="10" t="s">
         <v>413</v>
       </c>
@@ -9132,9 +9147,9 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="71"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="65"/>
-      <c r="D18" s="61"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="10" t="s">
         <v>414</v>
       </c>
@@ -9156,9 +9171,9 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="71"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="65"/>
-      <c r="D19" s="61"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="10" t="s">
         <v>415</v>
       </c>
@@ -9180,9 +9195,9 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="71"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="65"/>
-      <c r="D20" s="61"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="10" t="s">
         <v>416</v>
       </c>
@@ -9204,9 +9219,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="71"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="61"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="10" t="s">
         <v>417</v>
       </c>
@@ -9228,9 +9243,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="71"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="65"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="10" t="s">
         <v>418</v>
       </c>
@@ -9252,9 +9267,9 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="71"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="65"/>
-      <c r="D23" s="61"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="10" t="s">
         <v>419</v>
       </c>
@@ -9276,9 +9291,9 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="71"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="65"/>
-      <c r="D24" s="61"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="10" t="s">
         <v>423</v>
       </c>
@@ -9300,9 +9315,9 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="71"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="65"/>
-      <c r="D25" s="61"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="10" t="s">
         <v>424</v>
       </c>
@@ -9324,9 +9339,9 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="71"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="65"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="10" t="s">
         <v>425</v>
       </c>
@@ -9348,9 +9363,9 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="71"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="65"/>
-      <c r="D27" s="61"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="10" t="s">
         <v>426</v>
       </c>
@@ -9372,9 +9387,9 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="71"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="65"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="10" t="s">
         <v>427</v>
       </c>
@@ -9396,9 +9411,9 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="71"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="65"/>
-      <c r="D29" s="61"/>
+      <c r="D29" s="68"/>
       <c r="E29" s="10" t="s">
         <v>428</v>
       </c>
@@ -9420,9 +9435,9 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="71"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="61"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="10" t="s">
         <v>429</v>
       </c>
@@ -9444,9 +9459,9 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="71"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="65"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="10" t="s">
         <v>430</v>
       </c>
@@ -9468,9 +9483,9 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="71"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="66"/>
-      <c r="D32" s="62"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="10" t="s">
         <v>431</v>
       </c>
@@ -9492,11 +9507,11 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="70" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="62" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -9520,9 +9535,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="29" t="s">
         <v>22</v>
       </c>
@@ -9546,9 +9561,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="71"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="29" t="s">
         <v>23</v>
       </c>
@@ -9572,8 +9587,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="71"/>
-      <c r="C36" s="70"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="29" t="s">
         <v>63</v>
       </c>
@@ -9598,7 +9613,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="71"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="11" t="s">
         <v>118</v>
       </c>
@@ -9628,7 +9643,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="71"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
@@ -9658,7 +9673,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="71"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="29" t="s">
         <v>57</v>
       </c>
@@ -9681,34 +9696,34 @@
         <v>508</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -9732,9 +9747,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -9756,9 +9771,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="71"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -9780,9 +9795,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="71"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -9804,9 +9819,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -9828,9 +9843,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="71"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -9852,9 +9867,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -9876,9 +9891,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="71"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -9900,11 +9915,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="70" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="62" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -9928,9 +9943,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="71"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -9952,9 +9967,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -9976,9 +9991,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -10000,13 +10015,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -10030,9 +10045,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -10054,9 +10069,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="71"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -10078,9 +10093,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="71"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -10102,9 +10117,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="70"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -10126,9 +10141,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="71"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -10150,9 +10165,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="71"/>
-      <c r="C59" s="70"/>
-      <c r="D59" s="70"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -10174,9 +10189,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="71"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -10198,11 +10213,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="70" t="s">
+      <c r="B61" s="62"/>
+      <c r="C61" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="70" t="s">
+      <c r="D61" s="63" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -10226,9 +10241,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="70"/>
-      <c r="D62" s="70"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -10250,9 +10265,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="71"/>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -10274,9 +10289,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="71"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -10295,30 +10310,30 @@
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="63" t="s">
+      <c r="A65" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="63"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="70" t="s">
+      <c r="B66" s="63" t="s">
         <v>21</v>
       </c>
       <c r="C66" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -10342,9 +10357,9 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="70"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="65"/>
-      <c r="D67" s="61"/>
+      <c r="D67" s="68"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
       </c>
@@ -10366,9 +10381,9 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="70"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="65"/>
-      <c r="D68" s="61"/>
+      <c r="D68" s="68"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
@@ -10390,9 +10405,9 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="70"/>
+      <c r="B69" s="63"/>
       <c r="C69" s="65"/>
-      <c r="D69" s="61"/>
+      <c r="D69" s="68"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
       </c>
@@ -10414,9 +10429,9 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="70"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="65"/>
-      <c r="D70" s="61"/>
+      <c r="D70" s="68"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
       </c>
@@ -10438,9 +10453,9 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="70"/>
+      <c r="B71" s="63"/>
       <c r="C71" s="65"/>
-      <c r="D71" s="61"/>
+      <c r="D71" s="68"/>
       <c r="E71" s="10" t="s">
         <v>432</v>
       </c>
@@ -10462,9 +10477,9 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="70"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="66"/>
-      <c r="D72" s="62"/>
+      <c r="D72" s="69"/>
       <c r="E72" s="10" t="s">
         <v>433</v>
       </c>
@@ -10486,7 +10501,7 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="70"/>
+      <c r="B73" s="63"/>
       <c r="C73" s="64" t="s">
         <v>12</v>
       </c>
@@ -10516,7 +10531,7 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="70"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="66"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
@@ -10544,7 +10559,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="70"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
@@ -10574,7 +10589,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="70"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -10604,7 +10619,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="70"/>
+      <c r="B77" s="63"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -10631,30 +10646,30 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="63"/>
-      <c r="I78" s="63"/>
-      <c r="J78" s="63"/>
+      <c r="B78" s="76"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="76"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C79" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="60" t="s">
+      <c r="D79" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -10678,9 +10693,9 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="70"/>
+      <c r="B80" s="63"/>
       <c r="C80" s="65"/>
-      <c r="D80" s="61"/>
+      <c r="D80" s="68"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
       </c>
@@ -10702,9 +10717,9 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="70"/>
+      <c r="B81" s="63"/>
       <c r="C81" s="65"/>
-      <c r="D81" s="61"/>
+      <c r="D81" s="68"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
       </c>
@@ -10726,9 +10741,9 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="70"/>
+      <c r="B82" s="63"/>
       <c r="C82" s="65"/>
-      <c r="D82" s="61"/>
+      <c r="D82" s="68"/>
       <c r="E82" s="10" t="s">
         <v>434</v>
       </c>
@@ -10750,9 +10765,9 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="70"/>
+      <c r="B83" s="63"/>
       <c r="C83" s="65"/>
-      <c r="D83" s="61"/>
+      <c r="D83" s="68"/>
       <c r="E83" s="10" t="s">
         <v>435</v>
       </c>
@@ -10774,9 +10789,9 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="70"/>
+      <c r="B84" s="63"/>
       <c r="C84" s="66"/>
-      <c r="D84" s="62"/>
+      <c r="D84" s="69"/>
       <c r="E84" s="10" t="s">
         <v>436</v>
       </c>
@@ -10798,7 +10813,7 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="70"/>
+      <c r="B85" s="63"/>
       <c r="C85" s="64" t="s">
         <v>12</v>
       </c>
@@ -10828,7 +10843,7 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="70"/>
+      <c r="B86" s="63"/>
       <c r="C86" s="66"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
@@ -10856,7 +10871,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="70"/>
+      <c r="B87" s="63"/>
       <c r="C87" s="11" t="s">
         <v>118</v>
       </c>
@@ -10886,7 +10901,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="70"/>
+      <c r="B88" s="63"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -10916,7 +10931,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="70"/>
+      <c r="B89" s="63"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -10943,30 +10958,30 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="63" t="s">
+      <c r="A90" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="63"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
-      <c r="H90" s="63"/>
-      <c r="I90" s="63"/>
-      <c r="J90" s="63"/>
+      <c r="B90" s="76"/>
+      <c r="C90" s="76"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="76"/>
+      <c r="G90" s="76"/>
+      <c r="H90" s="76"/>
+      <c r="I90" s="76"/>
+      <c r="J90" s="76"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="70" t="s">
+      <c r="B91" s="63" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="60" t="s">
+      <c r="D91" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -10990,9 +11005,9 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="70"/>
+      <c r="B92" s="63"/>
       <c r="C92" s="65"/>
-      <c r="D92" s="61"/>
+      <c r="D92" s="68"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
       </c>
@@ -11014,9 +11029,9 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="70"/>
+      <c r="B93" s="63"/>
       <c r="C93" s="65"/>
-      <c r="D93" s="61"/>
+      <c r="D93" s="68"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
@@ -11038,9 +11053,9 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="70"/>
+      <c r="B94" s="63"/>
       <c r="C94" s="65"/>
-      <c r="D94" s="61"/>
+      <c r="D94" s="68"/>
       <c r="E94" s="10" t="s">
         <v>437</v>
       </c>
@@ -11062,9 +11077,9 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="70"/>
+      <c r="B95" s="63"/>
       <c r="C95" s="65"/>
-      <c r="D95" s="61"/>
+      <c r="D95" s="68"/>
       <c r="E95" s="10" t="s">
         <v>438</v>
       </c>
@@ -11086,9 +11101,9 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="70"/>
+      <c r="B96" s="63"/>
       <c r="C96" s="66"/>
-      <c r="D96" s="62"/>
+      <c r="D96" s="69"/>
       <c r="E96" s="10" t="s">
         <v>439</v>
       </c>
@@ -11110,7 +11125,7 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="70"/>
+      <c r="B97" s="63"/>
       <c r="C97" s="64" t="s">
         <v>12</v>
       </c>
@@ -11140,7 +11155,7 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="70"/>
+      <c r="B98" s="63"/>
       <c r="C98" s="66"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
@@ -11168,7 +11183,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="70"/>
+      <c r="B99" s="63"/>
       <c r="C99" s="11" t="s">
         <v>118</v>
       </c>
@@ -11198,7 +11213,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="70"/>
+      <c r="B100" s="63"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -11228,7 +11243,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="70"/>
+      <c r="B101" s="63"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -11255,30 +11270,30 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="63" t="s">
+      <c r="A102" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="63"/>
-      <c r="H102" s="63"/>
-      <c r="I102" s="63"/>
-      <c r="J102" s="63"/>
+      <c r="B102" s="76"/>
+      <c r="C102" s="76"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="76"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="63" t="s">
         <v>104</v>
       </c>
       <c r="C103" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="60" t="s">
+      <c r="D103" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -11302,9 +11317,9 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="70"/>
+      <c r="B104" s="63"/>
       <c r="C104" s="65"/>
-      <c r="D104" s="61"/>
+      <c r="D104" s="68"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
       </c>
@@ -11326,9 +11341,9 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="70"/>
+      <c r="B105" s="63"/>
       <c r="C105" s="65"/>
-      <c r="D105" s="61"/>
+      <c r="D105" s="68"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
       </c>
@@ -11350,9 +11365,9 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="70"/>
+      <c r="B106" s="63"/>
       <c r="C106" s="65"/>
-      <c r="D106" s="61"/>
+      <c r="D106" s="68"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
       </c>
@@ -11374,9 +11389,9 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="70"/>
+      <c r="B107" s="63"/>
       <c r="C107" s="65"/>
-      <c r="D107" s="61"/>
+      <c r="D107" s="68"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
       </c>
@@ -11398,9 +11413,9 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="70"/>
+      <c r="B108" s="63"/>
       <c r="C108" s="65"/>
-      <c r="D108" s="61"/>
+      <c r="D108" s="68"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
@@ -11422,9 +11437,9 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="70"/>
+      <c r="B109" s="63"/>
       <c r="C109" s="65"/>
-      <c r="D109" s="61"/>
+      <c r="D109" s="68"/>
       <c r="E109" s="10" t="s">
         <v>440</v>
       </c>
@@ -11446,9 +11461,9 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="70"/>
+      <c r="B110" s="63"/>
       <c r="C110" s="66"/>
-      <c r="D110" s="62"/>
+      <c r="D110" s="69"/>
       <c r="E110" s="10" t="s">
         <v>441</v>
       </c>
@@ -11470,8 +11485,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="70"/>
-      <c r="C111" s="70" t="s">
+      <c r="B111" s="63"/>
+      <c r="C111" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -11500,8 +11515,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="70"/>
-      <c r="C112" s="70"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -11528,8 +11543,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="70"/>
-      <c r="C113" s="70"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -11554,7 +11569,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="70"/>
+      <c r="B114" s="63"/>
       <c r="C114" s="11" t="s">
         <v>118</v>
       </c>
@@ -11581,30 +11596,30 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="63" t="s">
+      <c r="A115" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="63"/>
-      <c r="C115" s="63"/>
-      <c r="D115" s="63"/>
-      <c r="E115" s="63"/>
-      <c r="F115" s="63"/>
-      <c r="G115" s="63"/>
-      <c r="H115" s="63"/>
-      <c r="I115" s="63"/>
-      <c r="J115" s="63"/>
+      <c r="B115" s="76"/>
+      <c r="C115" s="76"/>
+      <c r="D115" s="76"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="76"/>
+      <c r="H115" s="76"/>
+      <c r="I115" s="76"/>
+      <c r="J115" s="76"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="70" t="s">
+      <c r="B116" s="63" t="s">
         <v>126</v>
       </c>
       <c r="C116" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="60" t="s">
+      <c r="D116" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E116" s="12" t="s">
@@ -11628,9 +11643,9 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="70"/>
+      <c r="B117" s="63"/>
       <c r="C117" s="65"/>
-      <c r="D117" s="61"/>
+      <c r="D117" s="68"/>
       <c r="E117" s="12" t="s">
         <v>128</v>
       </c>
@@ -11652,9 +11667,9 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="70"/>
+      <c r="B118" s="63"/>
       <c r="C118" s="65"/>
-      <c r="D118" s="61"/>
+      <c r="D118" s="68"/>
       <c r="E118" s="12" t="s">
         <v>442</v>
       </c>
@@ -11676,9 +11691,9 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="70"/>
+      <c r="B119" s="63"/>
       <c r="C119" s="65"/>
-      <c r="D119" s="61"/>
+      <c r="D119" s="68"/>
       <c r="E119" s="12" t="s">
         <v>129</v>
       </c>
@@ -11702,9 +11717,9 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="70"/>
+      <c r="B120" s="63"/>
       <c r="C120" s="65"/>
-      <c r="D120" s="61"/>
+      <c r="D120" s="68"/>
       <c r="E120" s="12" t="s">
         <v>443</v>
       </c>
@@ -11726,9 +11741,9 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="70"/>
+      <c r="B121" s="63"/>
       <c r="C121" s="66"/>
-      <c r="D121" s="62"/>
+      <c r="D121" s="69"/>
       <c r="E121" s="12" t="s">
         <v>444</v>
       </c>
@@ -11750,7 +11765,7 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="70"/>
+      <c r="B122" s="63"/>
       <c r="C122" s="64" t="s">
         <v>12</v>
       </c>
@@ -11780,7 +11795,7 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="70"/>
+      <c r="B123" s="63"/>
       <c r="C123" s="65"/>
       <c r="D123" s="12" t="s">
         <v>63</v>
@@ -11808,7 +11823,7 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="70"/>
+      <c r="B124" s="63"/>
       <c r="C124" s="66"/>
       <c r="D124" s="12" t="s">
         <v>65</v>
@@ -11836,7 +11851,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="70"/>
+      <c r="B125" s="63"/>
       <c r="C125" s="12" t="s">
         <v>57</v>
       </c>
@@ -11863,30 +11878,30 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="63" t="s">
+      <c r="A126" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="63"/>
-      <c r="C126" s="63"/>
-      <c r="D126" s="63"/>
-      <c r="E126" s="63"/>
-      <c r="F126" s="63"/>
-      <c r="G126" s="63"/>
-      <c r="H126" s="63"/>
-      <c r="I126" s="63"/>
-      <c r="J126" s="63"/>
+      <c r="B126" s="76"/>
+      <c r="C126" s="76"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="76"/>
+      <c r="H126" s="76"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>119</v>
       </c>
-      <c r="B127" s="60" t="s">
+      <c r="B127" s="67" t="s">
         <v>139</v>
       </c>
       <c r="C127" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="60" t="s">
+      <c r="D127" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E127" s="23" t="s">
@@ -11910,9 +11925,9 @@
       <c r="A128" s="8">
         <v>120</v>
       </c>
-      <c r="B128" s="61"/>
+      <c r="B128" s="68"/>
       <c r="C128" s="65"/>
-      <c r="D128" s="61"/>
+      <c r="D128" s="68"/>
       <c r="E128" s="23" t="s">
         <v>145</v>
       </c>
@@ -11934,9 +11949,9 @@
       <c r="A129" s="8">
         <v>121</v>
       </c>
-      <c r="B129" s="61"/>
+      <c r="B129" s="68"/>
       <c r="C129" s="65"/>
-      <c r="D129" s="61"/>
+      <c r="D129" s="68"/>
       <c r="E129" s="23" t="s">
         <v>148</v>
       </c>
@@ -11958,9 +11973,9 @@
       <c r="A130" s="8">
         <v>122</v>
       </c>
-      <c r="B130" s="61"/>
+      <c r="B130" s="68"/>
       <c r="C130" s="65"/>
-      <c r="D130" s="61"/>
+      <c r="D130" s="68"/>
       <c r="E130" s="23" t="s">
         <v>445</v>
       </c>
@@ -11982,9 +11997,9 @@
       <c r="A131" s="8">
         <v>123</v>
       </c>
-      <c r="B131" s="61"/>
+      <c r="B131" s="68"/>
       <c r="C131" s="65"/>
-      <c r="D131" s="61"/>
+      <c r="D131" s="68"/>
       <c r="E131" s="23" t="s">
         <v>154</v>
       </c>
@@ -12006,9 +12021,9 @@
       <c r="A132" s="8">
         <v>124</v>
       </c>
-      <c r="B132" s="61"/>
+      <c r="B132" s="68"/>
       <c r="C132" s="66"/>
-      <c r="D132" s="62"/>
+      <c r="D132" s="69"/>
       <c r="E132" s="23" t="s">
         <v>446</v>
       </c>
@@ -12030,7 +12045,7 @@
       <c r="A133" s="8">
         <v>125</v>
       </c>
-      <c r="B133" s="61"/>
+      <c r="B133" s="68"/>
       <c r="C133" s="64" t="s">
         <v>12</v>
       </c>
@@ -12060,7 +12075,7 @@
       <c r="A134" s="8">
         <v>126</v>
       </c>
-      <c r="B134" s="61"/>
+      <c r="B134" s="68"/>
       <c r="C134" s="65"/>
       <c r="D134" s="65"/>
       <c r="E134" s="23" t="s">
@@ -12086,7 +12101,7 @@
       <c r="A135" s="8">
         <v>127</v>
       </c>
-      <c r="B135" s="61"/>
+      <c r="B135" s="68"/>
       <c r="C135" s="65"/>
       <c r="D135" s="65"/>
       <c r="E135" s="23" t="s">
@@ -12112,7 +12127,7 @@
       <c r="A136" s="8">
         <v>128</v>
       </c>
-      <c r="B136" s="61"/>
+      <c r="B136" s="68"/>
       <c r="C136" s="65"/>
       <c r="D136" s="65"/>
       <c r="E136" s="23" t="s">
@@ -12138,7 +12153,7 @@
       <c r="A137" s="8">
         <v>129</v>
       </c>
-      <c r="B137" s="61"/>
+      <c r="B137" s="68"/>
       <c r="C137" s="65"/>
       <c r="D137" s="65"/>
       <c r="E137" s="23" t="s">
@@ -12164,7 +12179,7 @@
       <c r="A138" s="8">
         <v>130</v>
       </c>
-      <c r="B138" s="61"/>
+      <c r="B138" s="68"/>
       <c r="C138" s="65"/>
       <c r="D138" s="65"/>
       <c r="E138" s="23" t="s">
@@ -12190,7 +12205,7 @@
       <c r="A139" s="8">
         <v>131</v>
       </c>
-      <c r="B139" s="61"/>
+      <c r="B139" s="68"/>
       <c r="C139" s="65"/>
       <c r="D139" s="65"/>
       <c r="E139" s="23" t="s">
@@ -12216,7 +12231,7 @@
       <c r="A140" s="8">
         <v>132</v>
       </c>
-      <c r="B140" s="61"/>
+      <c r="B140" s="68"/>
       <c r="C140" s="65"/>
       <c r="D140" s="65"/>
       <c r="E140" s="23" t="s">
@@ -12242,7 +12257,7 @@
       <c r="A141" s="8">
         <v>133</v>
       </c>
-      <c r="B141" s="61"/>
+      <c r="B141" s="68"/>
       <c r="C141" s="65"/>
       <c r="D141" s="65"/>
       <c r="E141" s="23" t="s">
@@ -12268,7 +12283,7 @@
       <c r="A142" s="8">
         <v>134</v>
       </c>
-      <c r="B142" s="61"/>
+      <c r="B142" s="68"/>
       <c r="C142" s="65"/>
       <c r="D142" s="65"/>
       <c r="E142" s="23" t="s">
@@ -12294,7 +12309,7 @@
       <c r="A143" s="8">
         <v>135</v>
       </c>
-      <c r="B143" s="61"/>
+      <c r="B143" s="68"/>
       <c r="C143" s="65"/>
       <c r="D143" s="65"/>
       <c r="E143" s="22" t="s">
@@ -12320,7 +12335,7 @@
       <c r="A144" s="8">
         <v>136</v>
       </c>
-      <c r="B144" s="61"/>
+      <c r="B144" s="68"/>
       <c r="C144" s="65"/>
       <c r="D144" s="65"/>
       <c r="E144" s="22" t="s">
@@ -12346,7 +12361,7 @@
       <c r="A145" s="8">
         <v>137</v>
       </c>
-      <c r="B145" s="61"/>
+      <c r="B145" s="68"/>
       <c r="C145" s="65"/>
       <c r="D145" s="65"/>
       <c r="E145" s="23" t="s">
@@ -12372,7 +12387,7 @@
       <c r="A146" s="8">
         <v>138</v>
       </c>
-      <c r="B146" s="61"/>
+      <c r="B146" s="68"/>
       <c r="C146" s="65"/>
       <c r="D146" s="65"/>
       <c r="E146" s="23" t="s">
@@ -12398,7 +12413,7 @@
       <c r="A147" s="8">
         <v>139</v>
       </c>
-      <c r="B147" s="61"/>
+      <c r="B147" s="68"/>
       <c r="C147" s="65"/>
       <c r="D147" s="65"/>
       <c r="E147" s="23" t="s">
@@ -12424,7 +12439,7 @@
       <c r="A148" s="8">
         <v>140</v>
       </c>
-      <c r="B148" s="62"/>
+      <c r="B148" s="69"/>
       <c r="C148" s="66"/>
       <c r="D148" s="66"/>
       <c r="E148" s="23" t="s">
@@ -12505,18 +12520,18 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="63" t="s">
+      <c r="A151" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="63"/>
-      <c r="C151" s="63"/>
-      <c r="D151" s="63"/>
-      <c r="E151" s="63"/>
-      <c r="F151" s="63"/>
-      <c r="G151" s="63"/>
-      <c r="H151" s="63"/>
-      <c r="I151" s="63"/>
-      <c r="J151" s="63"/>
+      <c r="B151" s="76"/>
+      <c r="C151" s="76"/>
+      <c r="D151" s="76"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="76"/>
+      <c r="G151" s="76"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="76"/>
+      <c r="J151" s="76"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
@@ -12528,7 +12543,7 @@
       <c r="C152" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="60" t="s">
+      <c r="D152" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E152" s="26" t="s">
@@ -12554,7 +12569,7 @@
       </c>
       <c r="B153" s="65"/>
       <c r="C153" s="65"/>
-      <c r="D153" s="61"/>
+      <c r="D153" s="68"/>
       <c r="E153" s="26" t="s">
         <v>191</v>
       </c>
@@ -12578,7 +12593,7 @@
       </c>
       <c r="B154" s="65"/>
       <c r="C154" s="65"/>
-      <c r="D154" s="61"/>
+      <c r="D154" s="68"/>
       <c r="E154" s="26" t="s">
         <v>192</v>
       </c>
@@ -12602,7 +12617,7 @@
       </c>
       <c r="B155" s="65"/>
       <c r="C155" s="65"/>
-      <c r="D155" s="61"/>
+      <c r="D155" s="68"/>
       <c r="E155" s="26" t="s">
         <v>193</v>
       </c>
@@ -12626,7 +12641,7 @@
       </c>
       <c r="B156" s="65"/>
       <c r="C156" s="65"/>
-      <c r="D156" s="61"/>
+      <c r="D156" s="68"/>
       <c r="E156" s="26" t="s">
         <v>194</v>
       </c>
@@ -12650,7 +12665,7 @@
       </c>
       <c r="B157" s="65"/>
       <c r="C157" s="65"/>
-      <c r="D157" s="61"/>
+      <c r="D157" s="68"/>
       <c r="E157" s="26" t="s">
         <v>448</v>
       </c>
@@ -12674,7 +12689,7 @@
       </c>
       <c r="B158" s="65"/>
       <c r="C158" s="65"/>
-      <c r="D158" s="61"/>
+      <c r="D158" s="68"/>
       <c r="E158" s="26" t="s">
         <v>449</v>
       </c>
@@ -12698,7 +12713,7 @@
       </c>
       <c r="B159" s="65"/>
       <c r="C159" s="66"/>
-      <c r="D159" s="62"/>
+      <c r="D159" s="69"/>
       <c r="E159" s="26" t="s">
         <v>450</v>
       </c>
@@ -12863,30 +12878,30 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="63" t="s">
+      <c r="A165" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="63"/>
-      <c r="C165" s="63"/>
-      <c r="D165" s="63"/>
-      <c r="E165" s="63"/>
-      <c r="F165" s="63"/>
-      <c r="G165" s="63"/>
-      <c r="H165" s="63"/>
-      <c r="I165" s="63"/>
-      <c r="J165" s="63"/>
+      <c r="B165" s="76"/>
+      <c r="C165" s="76"/>
+      <c r="D165" s="76"/>
+      <c r="E165" s="76"/>
+      <c r="F165" s="76"/>
+      <c r="G165" s="76"/>
+      <c r="H165" s="76"/>
+      <c r="I165" s="76"/>
+      <c r="J165" s="76"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="70" t="s">
+      <c r="B166" s="63" t="s">
         <v>203</v>
       </c>
       <c r="C166" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="60" t="s">
+      <c r="D166" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E166" s="28" t="s">
@@ -12910,9 +12925,9 @@
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="70"/>
+      <c r="B167" s="63"/>
       <c r="C167" s="65"/>
-      <c r="D167" s="61"/>
+      <c r="D167" s="68"/>
       <c r="E167" s="28" t="s">
         <v>205</v>
       </c>
@@ -12934,9 +12949,9 @@
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="70"/>
+      <c r="B168" s="63"/>
       <c r="C168" s="65"/>
-      <c r="D168" s="61"/>
+      <c r="D168" s="68"/>
       <c r="E168" s="28" t="s">
         <v>206</v>
       </c>
@@ -12958,9 +12973,9 @@
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="70"/>
+      <c r="B169" s="63"/>
       <c r="C169" s="65"/>
-      <c r="D169" s="61"/>
+      <c r="D169" s="68"/>
       <c r="E169" s="28" t="s">
         <v>207</v>
       </c>
@@ -12982,9 +12997,9 @@
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="70"/>
+      <c r="B170" s="63"/>
       <c r="C170" s="65"/>
-      <c r="D170" s="61"/>
+      <c r="D170" s="68"/>
       <c r="E170" s="28" t="s">
         <v>208</v>
       </c>
@@ -13006,9 +13021,9 @@
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="70"/>
+      <c r="B171" s="63"/>
       <c r="C171" s="65"/>
-      <c r="D171" s="61"/>
+      <c r="D171" s="68"/>
       <c r="E171" s="28" t="s">
         <v>209</v>
       </c>
@@ -13030,9 +13045,9 @@
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="70"/>
+      <c r="B172" s="63"/>
       <c r="C172" s="65"/>
-      <c r="D172" s="61"/>
+      <c r="D172" s="68"/>
       <c r="E172" s="28" t="s">
         <v>451</v>
       </c>
@@ -13054,9 +13069,9 @@
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="70"/>
+      <c r="B173" s="63"/>
       <c r="C173" s="65"/>
-      <c r="D173" s="61"/>
+      <c r="D173" s="68"/>
       <c r="E173" s="28" t="s">
         <v>452</v>
       </c>
@@ -13078,9 +13093,9 @@
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="70"/>
+      <c r="B174" s="63"/>
       <c r="C174" s="66"/>
-      <c r="D174" s="62"/>
+      <c r="D174" s="69"/>
       <c r="E174" s="28" t="s">
         <v>453</v>
       </c>
@@ -13102,8 +13117,8 @@
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="70"/>
-      <c r="C175" s="70" t="s">
+      <c r="B175" s="63"/>
+      <c r="C175" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="28" t="s">
@@ -13132,8 +13147,8 @@
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="70"/>
-      <c r="C176" s="70"/>
+      <c r="B176" s="63"/>
+      <c r="C176" s="63"/>
       <c r="D176" s="28" t="s">
         <v>63</v>
       </c>
@@ -13160,7 +13175,7 @@
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="70"/>
+      <c r="B177" s="63"/>
       <c r="C177" s="28" t="s">
         <v>118</v>
       </c>
@@ -13188,7 +13203,7 @@
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="70"/>
+      <c r="B178" s="63"/>
       <c r="C178" s="28" t="s">
         <v>12</v>
       </c>
@@ -13218,7 +13233,7 @@
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="70"/>
+      <c r="B179" s="63"/>
       <c r="C179" s="28" t="s">
         <v>57</v>
       </c>
@@ -13245,30 +13260,30 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="63" t="s">
+      <c r="A180" s="76" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
+      <c r="B180" s="76"/>
+      <c r="C180" s="76"/>
+      <c r="D180" s="76"/>
+      <c r="E180" s="76"/>
+      <c r="F180" s="76"/>
+      <c r="G180" s="76"/>
+      <c r="H180" s="76"/>
+      <c r="I180" s="76"/>
+      <c r="J180" s="76"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="70" t="s">
+      <c r="B181" s="63" t="s">
         <v>218</v>
       </c>
       <c r="C181" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="60" t="s">
+      <c r="D181" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E181" s="28" t="s">
@@ -13292,9 +13307,9 @@
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="70"/>
+      <c r="B182" s="63"/>
       <c r="C182" s="65"/>
-      <c r="D182" s="61"/>
+      <c r="D182" s="68"/>
       <c r="E182" s="28" t="s">
         <v>226</v>
       </c>
@@ -13316,9 +13331,9 @@
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="70"/>
+      <c r="B183" s="63"/>
       <c r="C183" s="65"/>
-      <c r="D183" s="61"/>
+      <c r="D183" s="68"/>
       <c r="E183" s="28" t="s">
         <v>227</v>
       </c>
@@ -13340,9 +13355,9 @@
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="70"/>
+      <c r="B184" s="63"/>
       <c r="C184" s="65"/>
-      <c r="D184" s="61"/>
+      <c r="D184" s="68"/>
       <c r="E184" s="28" t="s">
         <v>229</v>
       </c>
@@ -13364,9 +13379,9 @@
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="70"/>
+      <c r="B185" s="63"/>
       <c r="C185" s="65"/>
-      <c r="D185" s="61"/>
+      <c r="D185" s="68"/>
       <c r="E185" s="28" t="s">
         <v>228</v>
       </c>
@@ -13388,9 +13403,9 @@
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="70"/>
+      <c r="B186" s="63"/>
       <c r="C186" s="65"/>
-      <c r="D186" s="61"/>
+      <c r="D186" s="68"/>
       <c r="E186" s="28" t="s">
         <v>230</v>
       </c>
@@ -13412,9 +13427,9 @@
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="70"/>
+      <c r="B187" s="63"/>
       <c r="C187" s="65"/>
-      <c r="D187" s="61"/>
+      <c r="D187" s="68"/>
       <c r="E187" s="28" t="s">
         <v>454</v>
       </c>
@@ -13436,9 +13451,9 @@
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="70"/>
+      <c r="B188" s="63"/>
       <c r="C188" s="65"/>
-      <c r="D188" s="61"/>
+      <c r="D188" s="68"/>
       <c r="E188" s="28" t="s">
         <v>455</v>
       </c>
@@ -13460,9 +13475,9 @@
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="70"/>
+      <c r="B189" s="63"/>
       <c r="C189" s="66"/>
-      <c r="D189" s="62"/>
+      <c r="D189" s="69"/>
       <c r="E189" s="28" t="s">
         <v>456</v>
       </c>
@@ -13484,8 +13499,8 @@
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="70"/>
-      <c r="C190" s="70" t="s">
+      <c r="B190" s="63"/>
+      <c r="C190" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="28" t="s">
@@ -13514,8 +13529,8 @@
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="70"/>
-      <c r="C191" s="70"/>
+      <c r="B191" s="63"/>
+      <c r="C191" s="63"/>
       <c r="D191" s="28" t="s">
         <v>63</v>
       </c>
@@ -13542,7 +13557,7 @@
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="70"/>
+      <c r="B192" s="63"/>
       <c r="C192" s="29" t="s">
         <v>118</v>
       </c>
@@ -13570,7 +13585,7 @@
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="70"/>
+      <c r="B193" s="63"/>
       <c r="C193" s="28" t="s">
         <v>12</v>
       </c>
@@ -13600,7 +13615,7 @@
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="70"/>
+      <c r="B194" s="63"/>
       <c r="C194" s="28" t="s">
         <v>57</v>
       </c>
@@ -13627,30 +13642,30 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="63" t="s">
+      <c r="A195" s="76" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="63"/>
-      <c r="C195" s="63"/>
-      <c r="D195" s="63"/>
-      <c r="E195" s="63"/>
-      <c r="F195" s="63"/>
-      <c r="G195" s="63"/>
-      <c r="H195" s="63"/>
-      <c r="I195" s="63"/>
-      <c r="J195" s="63"/>
+      <c r="B195" s="76"/>
+      <c r="C195" s="76"/>
+      <c r="D195" s="76"/>
+      <c r="E195" s="76"/>
+      <c r="F195" s="76"/>
+      <c r="G195" s="76"/>
+      <c r="H195" s="76"/>
+      <c r="I195" s="76"/>
+      <c r="J195" s="76"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="70" t="s">
+      <c r="B196" s="63" t="s">
         <v>232</v>
       </c>
       <c r="C196" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="60" t="s">
+      <c r="D196" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E196" s="28" t="s">
@@ -13674,9 +13689,9 @@
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="70"/>
+      <c r="B197" s="63"/>
       <c r="C197" s="65"/>
-      <c r="D197" s="61"/>
+      <c r="D197" s="68"/>
       <c r="E197" s="28" t="s">
         <v>244</v>
       </c>
@@ -13698,9 +13713,9 @@
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="70"/>
+      <c r="B198" s="63"/>
       <c r="C198" s="65"/>
-      <c r="D198" s="61"/>
+      <c r="D198" s="68"/>
       <c r="E198" s="28" t="s">
         <v>243</v>
       </c>
@@ -13722,9 +13737,9 @@
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="70"/>
+      <c r="B199" s="63"/>
       <c r="C199" s="65"/>
-      <c r="D199" s="61"/>
+      <c r="D199" s="68"/>
       <c r="E199" s="28" t="s">
         <v>245</v>
       </c>
@@ -13746,9 +13761,9 @@
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="70"/>
+      <c r="B200" s="63"/>
       <c r="C200" s="65"/>
-      <c r="D200" s="61"/>
+      <c r="D200" s="68"/>
       <c r="E200" s="28" t="s">
         <v>242</v>
       </c>
@@ -13770,9 +13785,9 @@
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="70"/>
+      <c r="B201" s="63"/>
       <c r="C201" s="65"/>
-      <c r="D201" s="61"/>
+      <c r="D201" s="68"/>
       <c r="E201" s="28" t="s">
         <v>238</v>
       </c>
@@ -13794,9 +13809,9 @@
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="70"/>
+      <c r="B202" s="63"/>
       <c r="C202" s="65"/>
-      <c r="D202" s="61"/>
+      <c r="D202" s="68"/>
       <c r="E202" s="28" t="s">
         <v>458</v>
       </c>
@@ -13818,9 +13833,9 @@
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="70"/>
+      <c r="B203" s="63"/>
       <c r="C203" s="65"/>
-      <c r="D203" s="61"/>
+      <c r="D203" s="68"/>
       <c r="E203" s="28" t="s">
         <v>459</v>
       </c>
@@ -13842,9 +13857,9 @@
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="70"/>
+      <c r="B204" s="63"/>
       <c r="C204" s="66"/>
-      <c r="D204" s="62"/>
+      <c r="D204" s="69"/>
       <c r="E204" s="28" t="s">
         <v>457</v>
       </c>
@@ -13866,8 +13881,8 @@
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="70"/>
-      <c r="C205" s="70" t="s">
+      <c r="B205" s="63"/>
+      <c r="C205" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -13896,8 +13911,8 @@
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="70"/>
-      <c r="C206" s="70"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="63"/>
       <c r="D206" s="29" t="s">
         <v>63</v>
       </c>
@@ -13924,7 +13939,7 @@
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="70"/>
+      <c r="B207" s="63"/>
       <c r="C207" s="29" t="s">
         <v>118</v>
       </c>
@@ -13952,7 +13967,7 @@
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="70"/>
+      <c r="B208" s="63"/>
       <c r="C208" s="28" t="s">
         <v>12</v>
       </c>
@@ -13982,7 +13997,7 @@
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="70"/>
+      <c r="B209" s="63"/>
       <c r="C209" s="28" t="s">
         <v>57</v>
       </c>
@@ -14009,30 +14024,30 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="63" t="s">
+      <c r="A210" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="63"/>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="63"/>
-      <c r="I210" s="63"/>
-      <c r="J210" s="63"/>
+      <c r="B210" s="76"/>
+      <c r="C210" s="76"/>
+      <c r="D210" s="76"/>
+      <c r="E210" s="76"/>
+      <c r="F210" s="76"/>
+      <c r="G210" s="76"/>
+      <c r="H210" s="76"/>
+      <c r="I210" s="76"/>
+      <c r="J210" s="76"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="70" t="s">
+      <c r="B211" s="63" t="s">
         <v>251</v>
       </c>
       <c r="C211" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="60" t="s">
+      <c r="D211" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E211" s="28" t="s">
@@ -14056,9 +14071,9 @@
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="70"/>
+      <c r="B212" s="63"/>
       <c r="C212" s="65"/>
-      <c r="D212" s="61"/>
+      <c r="D212" s="68"/>
       <c r="E212" s="28" t="s">
         <v>258</v>
       </c>
@@ -14080,9 +14095,9 @@
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="70"/>
+      <c r="B213" s="63"/>
       <c r="C213" s="65"/>
-      <c r="D213" s="61"/>
+      <c r="D213" s="68"/>
       <c r="E213" s="28" t="s">
         <v>256</v>
       </c>
@@ -14104,9 +14119,9 @@
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="70"/>
+      <c r="B214" s="63"/>
       <c r="C214" s="65"/>
-      <c r="D214" s="61"/>
+      <c r="D214" s="68"/>
       <c r="E214" s="28" t="s">
         <v>259</v>
       </c>
@@ -14128,9 +14143,9 @@
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="70"/>
+      <c r="B215" s="63"/>
       <c r="C215" s="65"/>
-      <c r="D215" s="61"/>
+      <c r="D215" s="68"/>
       <c r="E215" s="28" t="s">
         <v>257</v>
       </c>
@@ -14152,9 +14167,9 @@
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="70"/>
+      <c r="B216" s="63"/>
       <c r="C216" s="65"/>
-      <c r="D216" s="61"/>
+      <c r="D216" s="68"/>
       <c r="E216" s="28" t="s">
         <v>252</v>
       </c>
@@ -14176,9 +14191,9 @@
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="70"/>
+      <c r="B217" s="63"/>
       <c r="C217" s="65"/>
-      <c r="D217" s="61"/>
+      <c r="D217" s="68"/>
       <c r="E217" s="28" t="s">
         <v>461</v>
       </c>
@@ -14200,9 +14215,9 @@
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="70"/>
+      <c r="B218" s="63"/>
       <c r="C218" s="65"/>
-      <c r="D218" s="61"/>
+      <c r="D218" s="68"/>
       <c r="E218" s="28" t="s">
         <v>462</v>
       </c>
@@ -14224,9 +14239,9 @@
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="70"/>
+      <c r="B219" s="63"/>
       <c r="C219" s="66"/>
-      <c r="D219" s="62"/>
+      <c r="D219" s="69"/>
       <c r="E219" s="28" t="s">
         <v>460</v>
       </c>
@@ -14248,8 +14263,8 @@
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="70"/>
-      <c r="C220" s="70" t="s">
+      <c r="B220" s="63"/>
+      <c r="C220" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="28" t="s">
@@ -14278,8 +14293,8 @@
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="70"/>
-      <c r="C221" s="70"/>
+      <c r="B221" s="63"/>
+      <c r="C221" s="63"/>
       <c r="D221" s="28" t="s">
         <v>63</v>
       </c>
@@ -14306,7 +14321,7 @@
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="70"/>
+      <c r="B222" s="63"/>
       <c r="C222" s="28" t="s">
         <v>118</v>
       </c>
@@ -14334,7 +14349,7 @@
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="70"/>
+      <c r="B223" s="63"/>
       <c r="C223" s="28" t="s">
         <v>12</v>
       </c>
@@ -14364,7 +14379,7 @@
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="70"/>
+      <c r="B224" s="63"/>
       <c r="C224" s="28" t="s">
         <v>57</v>
       </c>
@@ -14391,30 +14406,30 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="63" t="s">
+      <c r="A225" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="63"/>
-      <c r="C225" s="63"/>
-      <c r="D225" s="63"/>
-      <c r="E225" s="63"/>
-      <c r="F225" s="63"/>
-      <c r="G225" s="63"/>
-      <c r="H225" s="63"/>
-      <c r="I225" s="63"/>
-      <c r="J225" s="63"/>
+      <c r="B225" s="76"/>
+      <c r="C225" s="76"/>
+      <c r="D225" s="76"/>
+      <c r="E225" s="76"/>
+      <c r="F225" s="76"/>
+      <c r="G225" s="76"/>
+      <c r="H225" s="76"/>
+      <c r="I225" s="76"/>
+      <c r="J225" s="76"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="70" t="s">
+      <c r="B226" s="63" t="s">
         <v>261</v>
       </c>
       <c r="C226" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="60" t="s">
+      <c r="D226" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E226" s="28" t="s">
@@ -14438,9 +14453,9 @@
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="70"/>
+      <c r="B227" s="63"/>
       <c r="C227" s="65"/>
-      <c r="D227" s="61"/>
+      <c r="D227" s="68"/>
       <c r="E227" s="28" t="s">
         <v>263</v>
       </c>
@@ -14462,9 +14477,9 @@
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="70"/>
+      <c r="B228" s="63"/>
       <c r="C228" s="65"/>
-      <c r="D228" s="61"/>
+      <c r="D228" s="68"/>
       <c r="E228" s="28" t="s">
         <v>264</v>
       </c>
@@ -14486,9 +14501,9 @@
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="70"/>
+      <c r="B229" s="63"/>
       <c r="C229" s="65"/>
-      <c r="D229" s="61"/>
+      <c r="D229" s="68"/>
       <c r="E229" s="28" t="s">
         <v>267</v>
       </c>
@@ -14510,9 +14525,9 @@
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="70"/>
+      <c r="B230" s="63"/>
       <c r="C230" s="65"/>
-      <c r="D230" s="61"/>
+      <c r="D230" s="68"/>
       <c r="E230" s="28" t="s">
         <v>463</v>
       </c>
@@ -14534,9 +14549,9 @@
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="70"/>
+      <c r="B231" s="63"/>
       <c r="C231" s="66"/>
-      <c r="D231" s="62"/>
+      <c r="D231" s="69"/>
       <c r="E231" s="28" t="s">
         <v>464</v>
       </c>
@@ -14558,8 +14573,8 @@
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="70"/>
-      <c r="C232" s="70" t="s">
+      <c r="B232" s="63"/>
+      <c r="C232" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="28" t="s">
@@ -14588,8 +14603,8 @@
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="70"/>
-      <c r="C233" s="70"/>
+      <c r="B233" s="63"/>
+      <c r="C233" s="63"/>
       <c r="D233" s="28" t="s">
         <v>63</v>
       </c>
@@ -14616,7 +14631,7 @@
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="70"/>
+      <c r="B234" s="63"/>
       <c r="C234" s="11" t="s">
         <v>118</v>
       </c>
@@ -14646,7 +14661,7 @@
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="70"/>
+      <c r="B235" s="63"/>
       <c r="C235" s="28" t="s">
         <v>12</v>
       </c>
@@ -14676,7 +14691,7 @@
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="70"/>
+      <c r="B236" s="63"/>
       <c r="C236" s="28" t="s">
         <v>57</v>
       </c>
@@ -14703,30 +14718,30 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="63" t="s">
+      <c r="A237" s="76" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="63"/>
-      <c r="C237" s="63"/>
-      <c r="D237" s="63"/>
-      <c r="E237" s="63"/>
-      <c r="F237" s="63"/>
-      <c r="G237" s="63"/>
-      <c r="H237" s="63"/>
-      <c r="I237" s="63"/>
-      <c r="J237" s="63"/>
+      <c r="B237" s="76"/>
+      <c r="C237" s="76"/>
+      <c r="D237" s="76"/>
+      <c r="E237" s="76"/>
+      <c r="F237" s="76"/>
+      <c r="G237" s="76"/>
+      <c r="H237" s="76"/>
+      <c r="I237" s="76"/>
+      <c r="J237" s="76"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="76" t="s">
+      <c r="B238" s="73" t="s">
         <v>367</v>
       </c>
-      <c r="C238" s="70" t="s">
+      <c r="C238" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="71" t="s">
+      <c r="D238" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="28" t="s">
@@ -14750,9 +14765,9 @@
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="77"/>
-      <c r="C239" s="70"/>
-      <c r="D239" s="71"/>
+      <c r="B239" s="74"/>
+      <c r="C239" s="63"/>
+      <c r="D239" s="62"/>
       <c r="E239" s="28" t="s">
         <v>369</v>
       </c>
@@ -14774,9 +14789,9 @@
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="77"/>
-      <c r="C240" s="70"/>
-      <c r="D240" s="71"/>
+      <c r="B240" s="74"/>
+      <c r="C240" s="63"/>
+      <c r="D240" s="62"/>
       <c r="E240" s="28" t="s">
         <v>392</v>
       </c>
@@ -14798,9 +14813,9 @@
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="77"/>
-      <c r="C241" s="70"/>
-      <c r="D241" s="71"/>
+      <c r="B241" s="74"/>
+      <c r="C241" s="63"/>
+      <c r="D241" s="62"/>
       <c r="E241" s="28" t="s">
         <v>371</v>
       </c>
@@ -14822,9 +14837,9 @@
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="77"/>
-      <c r="C242" s="70"/>
-      <c r="D242" s="71"/>
+      <c r="B242" s="74"/>
+      <c r="C242" s="63"/>
+      <c r="D242" s="62"/>
       <c r="E242" s="28" t="s">
         <v>372</v>
       </c>
@@ -14846,9 +14861,9 @@
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="77"/>
-      <c r="C243" s="70"/>
-      <c r="D243" s="71"/>
+      <c r="B243" s="74"/>
+      <c r="C243" s="63"/>
+      <c r="D243" s="62"/>
       <c r="E243" s="28" t="s">
         <v>373</v>
       </c>
@@ -14870,9 +14885,9 @@
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="77"/>
-      <c r="C244" s="70"/>
-      <c r="D244" s="71"/>
+      <c r="B244" s="74"/>
+      <c r="C244" s="63"/>
+      <c r="D244" s="62"/>
       <c r="E244" s="28" t="s">
         <v>374</v>
       </c>
@@ -14894,9 +14909,9 @@
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="77"/>
-      <c r="C245" s="70"/>
-      <c r="D245" s="71"/>
+      <c r="B245" s="74"/>
+      <c r="C245" s="63"/>
+      <c r="D245" s="62"/>
       <c r="E245" s="28" t="s">
         <v>375</v>
       </c>
@@ -14918,9 +14933,9 @@
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="77"/>
-      <c r="C246" s="70"/>
-      <c r="D246" s="71"/>
+      <c r="B246" s="74"/>
+      <c r="C246" s="63"/>
+      <c r="D246" s="62"/>
       <c r="E246" s="28" t="s">
         <v>376</v>
       </c>
@@ -14942,9 +14957,9 @@
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="77"/>
-      <c r="C247" s="70"/>
-      <c r="D247" s="71"/>
+      <c r="B247" s="74"/>
+      <c r="C247" s="63"/>
+      <c r="D247" s="62"/>
       <c r="E247" s="28" t="s">
         <v>377</v>
       </c>
@@ -14966,9 +14981,9 @@
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="77"/>
-      <c r="C248" s="70"/>
-      <c r="D248" s="71"/>
+      <c r="B248" s="74"/>
+      <c r="C248" s="63"/>
+      <c r="D248" s="62"/>
       <c r="E248" s="28" t="s">
         <v>378</v>
       </c>
@@ -14990,9 +15005,9 @@
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="77"/>
-      <c r="C249" s="70"/>
-      <c r="D249" s="71"/>
+      <c r="B249" s="74"/>
+      <c r="C249" s="63"/>
+      <c r="D249" s="62"/>
       <c r="E249" s="28" t="s">
         <v>379</v>
       </c>
@@ -15014,9 +15029,9 @@
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="77"/>
-      <c r="C250" s="70"/>
-      <c r="D250" s="71"/>
+      <c r="B250" s="74"/>
+      <c r="C250" s="63"/>
+      <c r="D250" s="62"/>
       <c r="E250" s="28" t="s">
         <v>380</v>
       </c>
@@ -15038,9 +15053,9 @@
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="77"/>
-      <c r="C251" s="70"/>
-      <c r="D251" s="71"/>
+      <c r="B251" s="74"/>
+      <c r="C251" s="63"/>
+      <c r="D251" s="62"/>
       <c r="E251" s="28" t="s">
         <v>381</v>
       </c>
@@ -15062,9 +15077,9 @@
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="77"/>
-      <c r="C252" s="70"/>
-      <c r="D252" s="71"/>
+      <c r="B252" s="74"/>
+      <c r="C252" s="63"/>
+      <c r="D252" s="62"/>
       <c r="E252" s="28" t="s">
         <v>382</v>
       </c>
@@ -15086,9 +15101,9 @@
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="77"/>
-      <c r="C253" s="70"/>
-      <c r="D253" s="71"/>
+      <c r="B253" s="74"/>
+      <c r="C253" s="63"/>
+      <c r="D253" s="62"/>
       <c r="E253" s="28" t="s">
         <v>383</v>
       </c>
@@ -15110,9 +15125,9 @@
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="77"/>
-      <c r="C254" s="70"/>
-      <c r="D254" s="71"/>
+      <c r="B254" s="74"/>
+      <c r="C254" s="63"/>
+      <c r="D254" s="62"/>
       <c r="E254" s="28" t="s">
         <v>384</v>
       </c>
@@ -15134,9 +15149,9 @@
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="77"/>
-      <c r="C255" s="70"/>
-      <c r="D255" s="71"/>
+      <c r="B255" s="74"/>
+      <c r="C255" s="63"/>
+      <c r="D255" s="62"/>
       <c r="E255" s="28" t="s">
         <v>385</v>
       </c>
@@ -15158,9 +15173,9 @@
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="77"/>
-      <c r="C256" s="70"/>
-      <c r="D256" s="71"/>
+      <c r="B256" s="74"/>
+      <c r="C256" s="63"/>
+      <c r="D256" s="62"/>
       <c r="E256" s="28" t="s">
         <v>386</v>
       </c>
@@ -15182,9 +15197,9 @@
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="77"/>
-      <c r="C257" s="70"/>
-      <c r="D257" s="71"/>
+      <c r="B257" s="74"/>
+      <c r="C257" s="63"/>
+      <c r="D257" s="62"/>
       <c r="E257" s="28" t="s">
         <v>387</v>
       </c>
@@ -15206,9 +15221,9 @@
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="77"/>
-      <c r="C258" s="70"/>
-      <c r="D258" s="71"/>
+      <c r="B258" s="74"/>
+      <c r="C258" s="63"/>
+      <c r="D258" s="62"/>
       <c r="E258" s="28" t="s">
         <v>388</v>
       </c>
@@ -15230,9 +15245,9 @@
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="77"/>
-      <c r="C259" s="70"/>
-      <c r="D259" s="71"/>
+      <c r="B259" s="74"/>
+      <c r="C259" s="63"/>
+      <c r="D259" s="62"/>
       <c r="E259" s="28" t="s">
         <v>389</v>
       </c>
@@ -15254,9 +15269,9 @@
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="77"/>
-      <c r="C260" s="70"/>
-      <c r="D260" s="71"/>
+      <c r="B260" s="74"/>
+      <c r="C260" s="63"/>
+      <c r="D260" s="62"/>
       <c r="E260" s="28" t="s">
         <v>390</v>
       </c>
@@ -15278,11 +15293,11 @@
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="77"/>
-      <c r="C261" s="73" t="s">
+      <c r="B261" s="74"/>
+      <c r="C261" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="73" t="s">
+      <c r="D261" s="70" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -15306,9 +15321,9 @@
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="77"/>
-      <c r="C262" s="74"/>
-      <c r="D262" s="74"/>
+      <c r="B262" s="74"/>
+      <c r="C262" s="71"/>
+      <c r="D262" s="71"/>
       <c r="E262" s="4" t="s">
         <v>396</v>
       </c>
@@ -15328,16 +15343,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="77"/>
-      <c r="C263" s="74"/>
-      <c r="D263" s="74"/>
+      <c r="B263" s="74"/>
+      <c r="C263" s="71"/>
+      <c r="D263" s="71"/>
       <c r="E263" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F263" s="73" t="s">
+      <c r="F263" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="G263" s="76" t="s">
+      <c r="G263" s="73" t="s">
         <v>399</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -15350,14 +15365,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="77"/>
-      <c r="C264" s="74"/>
-      <c r="D264" s="74"/>
+      <c r="B264" s="74"/>
+      <c r="C264" s="71"/>
+      <c r="D264" s="71"/>
       <c r="E264" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F264" s="74"/>
-      <c r="G264" s="77"/>
+      <c r="F264" s="71"/>
+      <c r="G264" s="74"/>
       <c r="H264" s="4" t="s">
         <v>398</v>
       </c>
@@ -15368,14 +15383,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="77"/>
-      <c r="C265" s="74"/>
-      <c r="D265" s="74"/>
+      <c r="B265" s="74"/>
+      <c r="C265" s="71"/>
+      <c r="D265" s="71"/>
       <c r="E265" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F265" s="74"/>
-      <c r="G265" s="77"/>
+      <c r="F265" s="71"/>
+      <c r="G265" s="74"/>
       <c r="H265" s="4" t="s">
         <v>398</v>
       </c>
@@ -15386,14 +15401,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="77"/>
-      <c r="C266" s="74"/>
-      <c r="D266" s="74"/>
+      <c r="B266" s="74"/>
+      <c r="C266" s="71"/>
+      <c r="D266" s="71"/>
       <c r="E266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F266" s="75"/>
-      <c r="G266" s="78"/>
+      <c r="F266" s="72"/>
+      <c r="G266" s="75"/>
       <c r="H266" s="4" t="s">
         <v>398</v>
       </c>
@@ -15404,16 +15419,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="77"/>
-      <c r="C267" s="74"/>
-      <c r="D267" s="74"/>
+      <c r="B267" s="74"/>
+      <c r="C267" s="71"/>
+      <c r="D267" s="71"/>
       <c r="E267" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F267" s="73" t="s">
+      <c r="F267" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="G267" s="76" t="s">
+      <c r="G267" s="73" t="s">
         <v>402</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -15426,14 +15441,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="77"/>
-      <c r="C268" s="74"/>
-      <c r="D268" s="74"/>
+      <c r="B268" s="74"/>
+      <c r="C268" s="71"/>
+      <c r="D268" s="71"/>
       <c r="E268" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F268" s="74"/>
-      <c r="G268" s="77"/>
+      <c r="F268" s="71"/>
+      <c r="G268" s="74"/>
       <c r="H268" s="4" t="s">
         <v>401</v>
       </c>
@@ -15444,14 +15459,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="77"/>
-      <c r="C269" s="74"/>
-      <c r="D269" s="74"/>
+      <c r="B269" s="74"/>
+      <c r="C269" s="71"/>
+      <c r="D269" s="71"/>
       <c r="E269" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F269" s="74"/>
-      <c r="G269" s="77"/>
+      <c r="F269" s="71"/>
+      <c r="G269" s="74"/>
       <c r="H269" s="4" t="s">
         <v>401</v>
       </c>
@@ -15462,14 +15477,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="77"/>
-      <c r="C270" s="74"/>
-      <c r="D270" s="74"/>
+      <c r="B270" s="74"/>
+      <c r="C270" s="71"/>
+      <c r="D270" s="71"/>
       <c r="E270" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F270" s="75"/>
-      <c r="G270" s="78"/>
+      <c r="F270" s="72"/>
+      <c r="G270" s="75"/>
       <c r="H270" s="4" t="s">
         <v>401</v>
       </c>
@@ -15480,16 +15495,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="77"/>
-      <c r="C271" s="74"/>
-      <c r="D271" s="74"/>
+      <c r="B271" s="74"/>
+      <c r="C271" s="71"/>
+      <c r="D271" s="71"/>
       <c r="E271" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F271" s="73" t="s">
+      <c r="F271" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="G271" s="76" t="s">
+      <c r="G271" s="73" t="s">
         <v>403</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -15502,14 +15517,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="77"/>
-      <c r="C272" s="74"/>
-      <c r="D272" s="74"/>
+      <c r="B272" s="74"/>
+      <c r="C272" s="71"/>
+      <c r="D272" s="71"/>
       <c r="E272" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F272" s="74"/>
-      <c r="G272" s="77"/>
+      <c r="F272" s="71"/>
+      <c r="G272" s="74"/>
       <c r="H272" s="4" t="s">
         <v>401</v>
       </c>
@@ -15520,14 +15535,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="77"/>
-      <c r="C273" s="74"/>
-      <c r="D273" s="74"/>
+      <c r="B273" s="74"/>
+      <c r="C273" s="71"/>
+      <c r="D273" s="71"/>
       <c r="E273" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F273" s="74"/>
-      <c r="G273" s="77"/>
+      <c r="F273" s="71"/>
+      <c r="G273" s="74"/>
       <c r="H273" s="4" t="s">
         <v>401</v>
       </c>
@@ -15538,14 +15553,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="78"/>
-      <c r="C274" s="75"/>
-      <c r="D274" s="75"/>
+      <c r="B274" s="75"/>
+      <c r="C274" s="72"/>
+      <c r="D274" s="72"/>
       <c r="E274" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F274" s="75"/>
-      <c r="G274" s="78"/>
+      <c r="F274" s="72"/>
+      <c r="G274" s="75"/>
       <c r="H274" s="4" t="s">
         <v>401</v>
       </c>
@@ -15553,30 +15568,30 @@
       <c r="J274" s="14"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="72" t="s">
+      <c r="A275" s="61" t="s">
         <v>397</v>
       </c>
-      <c r="B275" s="72"/>
-      <c r="C275" s="72"/>
-      <c r="D275" s="72"/>
-      <c r="E275" s="72"/>
-      <c r="F275" s="72"/>
-      <c r="G275" s="72"/>
-      <c r="H275" s="72"/>
-      <c r="I275" s="72"/>
-      <c r="J275" s="72"/>
+      <c r="B275" s="61"/>
+      <c r="C275" s="61"/>
+      <c r="D275" s="61"/>
+      <c r="E275" s="61"/>
+      <c r="F275" s="61"/>
+      <c r="G275" s="61"/>
+      <c r="H275" s="61"/>
+      <c r="I275" s="61"/>
+      <c r="J275" s="61"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="60" t="s">
+      <c r="B276" s="67" t="s">
         <v>273</v>
       </c>
       <c r="C276" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="60" t="s">
+      <c r="D276" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E276" s="28" t="s">
@@ -15600,9 +15615,9 @@
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="61"/>
+      <c r="B277" s="68"/>
       <c r="C277" s="65"/>
-      <c r="D277" s="61"/>
+      <c r="D277" s="68"/>
       <c r="E277" s="28" t="s">
         <v>275</v>
       </c>
@@ -15624,9 +15639,9 @@
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="61"/>
+      <c r="B278" s="68"/>
       <c r="C278" s="65"/>
-      <c r="D278" s="61"/>
+      <c r="D278" s="68"/>
       <c r="E278" s="28" t="s">
         <v>276</v>
       </c>
@@ -15648,9 +15663,9 @@
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="61"/>
+      <c r="B279" s="68"/>
       <c r="C279" s="65"/>
-      <c r="D279" s="61"/>
+      <c r="D279" s="68"/>
       <c r="E279" s="28" t="s">
         <v>277</v>
       </c>
@@ -15672,9 +15687,9 @@
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="61"/>
+      <c r="B280" s="68"/>
       <c r="C280" s="65"/>
-      <c r="D280" s="61"/>
+      <c r="D280" s="68"/>
       <c r="E280" s="28" t="s">
         <v>314</v>
       </c>
@@ -15696,9 +15711,9 @@
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="61"/>
+      <c r="B281" s="68"/>
       <c r="C281" s="66"/>
-      <c r="D281" s="62"/>
+      <c r="D281" s="69"/>
       <c r="E281" s="28" t="s">
         <v>278</v>
       </c>
@@ -15720,7 +15735,7 @@
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="61"/>
+      <c r="B282" s="68"/>
       <c r="C282" s="64" t="s">
         <v>12</v>
       </c>
@@ -15748,7 +15763,7 @@
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="61"/>
+      <c r="B283" s="68"/>
       <c r="C283" s="65"/>
       <c r="D283" s="65"/>
       <c r="E283" s="30" t="s">
@@ -15772,7 +15787,7 @@
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="61"/>
+      <c r="B284" s="68"/>
       <c r="C284" s="65"/>
       <c r="D284" s="65"/>
       <c r="E284" s="30" t="s">
@@ -15796,7 +15811,7 @@
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="61"/>
+      <c r="B285" s="68"/>
       <c r="C285" s="65"/>
       <c r="D285" s="65"/>
       <c r="E285" s="43" t="s">
@@ -15822,7 +15837,7 @@
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="61"/>
+      <c r="B286" s="68"/>
       <c r="C286" s="66"/>
       <c r="D286" s="66"/>
       <c r="E286" s="30" t="s">
@@ -15848,7 +15863,7 @@
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="62"/>
+      <c r="B287" s="69"/>
       <c r="C287" s="11" t="s">
         <v>118</v>
       </c>
@@ -15875,30 +15890,30 @@
       </c>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="63" t="s">
+      <c r="A288" s="76" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="63"/>
-      <c r="C288" s="63"/>
-      <c r="D288" s="63"/>
-      <c r="E288" s="63"/>
-      <c r="F288" s="63"/>
-      <c r="G288" s="63"/>
-      <c r="H288" s="63"/>
-      <c r="I288" s="63"/>
-      <c r="J288" s="63"/>
+      <c r="B288" s="76"/>
+      <c r="C288" s="76"/>
+      <c r="D288" s="76"/>
+      <c r="E288" s="76"/>
+      <c r="F288" s="76"/>
+      <c r="G288" s="76"/>
+      <c r="H288" s="76"/>
+      <c r="I288" s="76"/>
+      <c r="J288" s="76"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="60" t="s">
+      <c r="B289" s="67" t="s">
         <v>321</v>
       </c>
       <c r="C289" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="60" t="s">
+      <c r="D289" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E289" s="28" t="s">
@@ -15922,9 +15937,9 @@
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="61"/>
+      <c r="B290" s="68"/>
       <c r="C290" s="65"/>
-      <c r="D290" s="61"/>
+      <c r="D290" s="68"/>
       <c r="E290" s="28" t="s">
         <v>312</v>
       </c>
@@ -15946,9 +15961,9 @@
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="61"/>
+      <c r="B291" s="68"/>
       <c r="C291" s="65"/>
-      <c r="D291" s="61"/>
+      <c r="D291" s="68"/>
       <c r="E291" s="28" t="s">
         <v>313</v>
       </c>
@@ -15970,9 +15985,9 @@
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="61"/>
+      <c r="B292" s="68"/>
       <c r="C292" s="65"/>
-      <c r="D292" s="61"/>
+      <c r="D292" s="68"/>
       <c r="E292" s="28" t="s">
         <v>305</v>
       </c>
@@ -15994,9 +16009,9 @@
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="61"/>
+      <c r="B293" s="68"/>
       <c r="C293" s="65"/>
-      <c r="D293" s="61"/>
+      <c r="D293" s="68"/>
       <c r="E293" s="28" t="s">
         <v>315</v>
       </c>
@@ -16018,9 +16033,9 @@
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="61"/>
+      <c r="B294" s="68"/>
       <c r="C294" s="66"/>
-      <c r="D294" s="62"/>
+      <c r="D294" s="69"/>
       <c r="E294" s="28" t="s">
         <v>301</v>
       </c>
@@ -16042,7 +16057,7 @@
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="61"/>
+      <c r="B295" s="68"/>
       <c r="C295" s="64" t="s">
         <v>12</v>
       </c>
@@ -16070,7 +16085,7 @@
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="61"/>
+      <c r="B296" s="68"/>
       <c r="C296" s="65"/>
       <c r="D296" s="65"/>
       <c r="E296" s="30" t="s">
@@ -16094,7 +16109,7 @@
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="61"/>
+      <c r="B297" s="68"/>
       <c r="C297" s="65"/>
       <c r="D297" s="65"/>
       <c r="E297" s="30" t="s">
@@ -16118,7 +16133,7 @@
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="61"/>
+      <c r="B298" s="68"/>
       <c r="C298" s="65"/>
       <c r="D298" s="65"/>
       <c r="E298" s="43" t="s">
@@ -16144,7 +16159,7 @@
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="61"/>
+      <c r="B299" s="68"/>
       <c r="C299" s="66"/>
       <c r="D299" s="66"/>
       <c r="E299" s="32" t="s">
@@ -16170,7 +16185,7 @@
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="62"/>
+      <c r="B300" s="69"/>
       <c r="C300" s="11" t="s">
         <v>118</v>
       </c>
@@ -16197,30 +16212,30 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="72" t="s">
+      <c r="A301" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="B301" s="72"/>
-      <c r="C301" s="72"/>
-      <c r="D301" s="72"/>
-      <c r="E301" s="72"/>
-      <c r="F301" s="72"/>
-      <c r="G301" s="72"/>
-      <c r="H301" s="72"/>
-      <c r="I301" s="72"/>
-      <c r="J301" s="72"/>
+      <c r="B301" s="61"/>
+      <c r="C301" s="61"/>
+      <c r="D301" s="61"/>
+      <c r="E301" s="61"/>
+      <c r="F301" s="61"/>
+      <c r="G301" s="61"/>
+      <c r="H301" s="61"/>
+      <c r="I301" s="61"/>
+      <c r="J301" s="61"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="60" t="s">
+      <c r="B302" s="67" t="s">
         <v>300</v>
       </c>
       <c r="C302" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="60" t="s">
+      <c r="D302" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E302" s="28" t="s">
@@ -16244,9 +16259,9 @@
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="61"/>
+      <c r="B303" s="68"/>
       <c r="C303" s="65"/>
-      <c r="D303" s="61"/>
+      <c r="D303" s="68"/>
       <c r="E303" s="28" t="s">
         <v>345</v>
       </c>
@@ -16268,9 +16283,9 @@
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="61"/>
+      <c r="B304" s="68"/>
       <c r="C304" s="65"/>
-      <c r="D304" s="61"/>
+      <c r="D304" s="68"/>
       <c r="E304" s="28" t="s">
         <v>346</v>
       </c>
@@ -16292,9 +16307,9 @@
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="61"/>
+      <c r="B305" s="68"/>
       <c r="C305" s="65"/>
-      <c r="D305" s="61"/>
+      <c r="D305" s="68"/>
       <c r="E305" s="28" t="s">
         <v>343</v>
       </c>
@@ -16316,9 +16331,9 @@
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="61"/>
+      <c r="B306" s="68"/>
       <c r="C306" s="65"/>
-      <c r="D306" s="61"/>
+      <c r="D306" s="68"/>
       <c r="E306" s="28" t="s">
         <v>338</v>
       </c>
@@ -16340,9 +16355,9 @@
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="61"/>
+      <c r="B307" s="68"/>
       <c r="C307" s="66"/>
-      <c r="D307" s="62"/>
+      <c r="D307" s="69"/>
       <c r="E307" s="28" t="s">
         <v>339</v>
       </c>
@@ -16364,7 +16379,7 @@
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="61"/>
+      <c r="B308" s="68"/>
       <c r="C308" s="64" t="s">
         <v>12</v>
       </c>
@@ -16392,7 +16407,7 @@
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="61"/>
+      <c r="B309" s="68"/>
       <c r="C309" s="65"/>
       <c r="D309" s="65"/>
       <c r="E309" s="30" t="s">
@@ -16416,7 +16431,7 @@
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="61"/>
+      <c r="B310" s="68"/>
       <c r="C310" s="65"/>
       <c r="D310" s="65"/>
       <c r="E310" s="30" t="s">
@@ -16440,7 +16455,7 @@
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="61"/>
+      <c r="B311" s="68"/>
       <c r="C311" s="65"/>
       <c r="D311" s="65"/>
       <c r="E311" s="43" t="s">
@@ -16466,7 +16481,7 @@
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="61"/>
+      <c r="B312" s="68"/>
       <c r="C312" s="66"/>
       <c r="D312" s="66"/>
       <c r="E312" s="32" t="s">
@@ -16492,7 +16507,7 @@
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="62"/>
+      <c r="B313" s="69"/>
       <c r="C313" s="11" t="s">
         <v>118</v>
       </c>
@@ -16519,30 +16534,30 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="72" t="s">
+      <c r="A314" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="72"/>
-      <c r="C314" s="72"/>
-      <c r="D314" s="72"/>
-      <c r="E314" s="72"/>
-      <c r="F314" s="72"/>
-      <c r="G314" s="72"/>
-      <c r="H314" s="72"/>
-      <c r="I314" s="72"/>
-      <c r="J314" s="72"/>
+      <c r="B314" s="61"/>
+      <c r="C314" s="61"/>
+      <c r="D314" s="61"/>
+      <c r="E314" s="61"/>
+      <c r="F314" s="61"/>
+      <c r="G314" s="61"/>
+      <c r="H314" s="61"/>
+      <c r="I314" s="61"/>
+      <c r="J314" s="61"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="71" t="s">
+      <c r="B315" s="62" t="s">
         <v>350</v>
       </c>
       <c r="C315" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="60" t="s">
+      <c r="D315" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E315" s="28" t="s">
@@ -16566,9 +16581,9 @@
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="71"/>
+      <c r="B316" s="62"/>
       <c r="C316" s="65"/>
-      <c r="D316" s="61"/>
+      <c r="D316" s="68"/>
       <c r="E316" s="28" t="s">
         <v>357</v>
       </c>
@@ -16590,9 +16605,9 @@
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="71"/>
+      <c r="B317" s="62"/>
       <c r="C317" s="65"/>
-      <c r="D317" s="61"/>
+      <c r="D317" s="68"/>
       <c r="E317" s="28" t="s">
         <v>366</v>
       </c>
@@ -16614,9 +16629,9 @@
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="71"/>
+      <c r="B318" s="62"/>
       <c r="C318" s="65"/>
-      <c r="D318" s="61"/>
+      <c r="D318" s="68"/>
       <c r="E318" s="28" t="s">
         <v>364</v>
       </c>
@@ -16638,9 +16653,9 @@
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="71"/>
+      <c r="B319" s="62"/>
       <c r="C319" s="65"/>
-      <c r="D319" s="61"/>
+      <c r="D319" s="68"/>
       <c r="E319" s="28" t="s">
         <v>358</v>
       </c>
@@ -16662,9 +16677,9 @@
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="71"/>
+      <c r="B320" s="62"/>
       <c r="C320" s="66"/>
-      <c r="D320" s="62"/>
+      <c r="D320" s="69"/>
       <c r="E320" s="28" t="s">
         <v>359</v>
       </c>
@@ -16686,11 +16701,11 @@
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="71"/>
-      <c r="C321" s="70" t="s">
+      <c r="B321" s="62"/>
+      <c r="C321" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="70" t="s">
+      <c r="D321" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="30" t="s">
@@ -16714,9 +16729,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="71"/>
-      <c r="C322" s="70"/>
-      <c r="D322" s="70"/>
+      <c r="B322" s="62"/>
+      <c r="C322" s="63"/>
+      <c r="D322" s="63"/>
       <c r="E322" s="30" t="s">
         <v>361</v>
       </c>
@@ -16738,9 +16753,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="71"/>
-      <c r="C323" s="70"/>
-      <c r="D323" s="70"/>
+      <c r="B323" s="62"/>
+      <c r="C323" s="63"/>
+      <c r="D323" s="63"/>
       <c r="E323" s="30" t="s">
         <v>348</v>
       </c>
@@ -16762,9 +16777,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="71"/>
-      <c r="C324" s="70"/>
-      <c r="D324" s="70"/>
+      <c r="B324" s="62"/>
+      <c r="C324" s="63"/>
+      <c r="D324" s="63"/>
       <c r="E324" s="43" t="s">
         <v>362</v>
       </c>
@@ -16788,9 +16803,9 @@
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="71"/>
-      <c r="C325" s="70"/>
-      <c r="D325" s="70"/>
+      <c r="B325" s="62"/>
+      <c r="C325" s="63"/>
+      <c r="D325" s="63"/>
       <c r="E325" s="32" t="s">
         <v>356</v>
       </c>
@@ -16814,7 +16829,7 @@
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="71"/>
+      <c r="B326" s="62"/>
       <c r="C326" s="11" t="s">
         <v>118</v>
       </c>
@@ -16841,18 +16856,18 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="72" t="s">
+      <c r="A327" s="61" t="s">
         <v>353</v>
       </c>
-      <c r="B327" s="72"/>
-      <c r="C327" s="72"/>
-      <c r="D327" s="72"/>
-      <c r="E327" s="72"/>
-      <c r="F327" s="72"/>
-      <c r="G327" s="72"/>
-      <c r="H327" s="72"/>
-      <c r="I327" s="72"/>
-      <c r="J327" s="72"/>
+      <c r="B327" s="61"/>
+      <c r="C327" s="61"/>
+      <c r="D327" s="61"/>
+      <c r="E327" s="61"/>
+      <c r="F327" s="61"/>
+      <c r="G327" s="61"/>
+      <c r="H327" s="61"/>
+      <c r="I327" s="61"/>
+      <c r="J327" s="61"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
@@ -17180,7 +17195,7 @@
       <c r="C340" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="60" t="s">
+      <c r="D340" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E340" s="28" t="s">
@@ -17206,7 +17221,7 @@
       </c>
       <c r="B341" s="65"/>
       <c r="C341" s="65"/>
-      <c r="D341" s="61"/>
+      <c r="D341" s="68"/>
       <c r="E341" s="28" t="s">
         <v>492</v>
       </c>
@@ -17230,7 +17245,7 @@
       </c>
       <c r="B342" s="65"/>
       <c r="C342" s="65"/>
-      <c r="D342" s="61"/>
+      <c r="D342" s="68"/>
       <c r="E342" s="28" t="s">
         <v>493</v>
       </c>
@@ -17254,7 +17269,7 @@
       </c>
       <c r="B343" s="65"/>
       <c r="C343" s="65"/>
-      <c r="D343" s="61"/>
+      <c r="D343" s="68"/>
       <c r="E343" s="28" t="s">
         <v>494</v>
       </c>
@@ -17278,7 +17293,7 @@
       </c>
       <c r="B344" s="65"/>
       <c r="C344" s="65"/>
-      <c r="D344" s="61"/>
+      <c r="D344" s="68"/>
       <c r="E344" s="28" t="s">
         <v>495</v>
       </c>
@@ -17302,7 +17317,7 @@
       </c>
       <c r="B345" s="65"/>
       <c r="C345" s="65"/>
-      <c r="D345" s="61"/>
+      <c r="D345" s="68"/>
       <c r="E345" s="28" t="s">
         <v>496</v>
       </c>
@@ -17326,7 +17341,7 @@
       </c>
       <c r="B346" s="65"/>
       <c r="C346" s="65"/>
-      <c r="D346" s="61"/>
+      <c r="D346" s="68"/>
       <c r="E346" s="28" t="s">
         <v>497</v>
       </c>
@@ -17350,7 +17365,7 @@
       </c>
       <c r="B347" s="65"/>
       <c r="C347" s="66"/>
-      <c r="D347" s="62"/>
+      <c r="D347" s="69"/>
       <c r="E347" s="28" t="s">
         <v>498</v>
       </c>
@@ -17385,7 +17400,7 @@
       <c r="F348" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="G348" s="60" t="s">
+      <c r="G348" s="67" t="s">
         <v>499</v>
       </c>
       <c r="H348" s="28" t="s">
@@ -17407,7 +17422,7 @@
       </c>
       <c r="E349" s="65"/>
       <c r="F349" s="65"/>
-      <c r="G349" s="61"/>
+      <c r="G349" s="68"/>
       <c r="H349" s="28" t="s">
         <v>644</v>
       </c>
@@ -17427,7 +17442,7 @@
       </c>
       <c r="E350" s="65"/>
       <c r="F350" s="65"/>
-      <c r="G350" s="61"/>
+      <c r="G350" s="68"/>
       <c r="H350" s="28" t="s">
         <v>501</v>
       </c>
@@ -17447,7 +17462,7 @@
       </c>
       <c r="E351" s="65"/>
       <c r="F351" s="65"/>
-      <c r="G351" s="61"/>
+      <c r="G351" s="68"/>
       <c r="H351" s="50" t="s">
         <v>645</v>
       </c>
@@ -17469,7 +17484,7 @@
       </c>
       <c r="E352" s="66"/>
       <c r="F352" s="66"/>
-      <c r="G352" s="62"/>
+      <c r="G352" s="69"/>
       <c r="H352" s="28" t="s">
         <v>505</v>
       </c>
@@ -17479,30 +17494,30 @@
       <c r="J352" s="13"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="63" t="s">
+      <c r="A353" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="B353" s="63"/>
-      <c r="C353" s="63"/>
-      <c r="D353" s="63"/>
-      <c r="E353" s="63"/>
-      <c r="F353" s="63"/>
-      <c r="G353" s="63"/>
-      <c r="H353" s="63"/>
-      <c r="I353" s="63"/>
-      <c r="J353" s="63"/>
+      <c r="B353" s="76"/>
+      <c r="C353" s="76"/>
+      <c r="D353" s="76"/>
+      <c r="E353" s="76"/>
+      <c r="F353" s="76"/>
+      <c r="G353" s="76"/>
+      <c r="H353" s="76"/>
+      <c r="I353" s="76"/>
+      <c r="J353" s="76"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="33">
         <v>339</v>
       </c>
-      <c r="B354" s="71" t="s">
+      <c r="B354" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="C354" s="70" t="s">
+      <c r="C354" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D354" s="70" t="s">
+      <c r="D354" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E354" s="32" t="s">
@@ -17528,9 +17543,9 @@
       <c r="A355" s="33">
         <v>340</v>
       </c>
-      <c r="B355" s="71"/>
-      <c r="C355" s="70"/>
-      <c r="D355" s="70"/>
+      <c r="B355" s="62"/>
+      <c r="C355" s="63"/>
+      <c r="D355" s="63"/>
       <c r="E355" s="32" t="s">
         <v>580</v>
       </c>
@@ -17552,9 +17567,9 @@
       <c r="A356" s="33">
         <v>341</v>
       </c>
-      <c r="B356" s="71"/>
-      <c r="C356" s="70"/>
-      <c r="D356" s="70"/>
+      <c r="B356" s="62"/>
+      <c r="C356" s="63"/>
+      <c r="D356" s="63"/>
       <c r="E356" s="32" t="s">
         <v>581</v>
       </c>
@@ -17576,9 +17591,9 @@
       <c r="A357" s="33">
         <v>342</v>
       </c>
-      <c r="B357" s="71"/>
-      <c r="C357" s="70"/>
-      <c r="D357" s="70"/>
+      <c r="B357" s="62"/>
+      <c r="C357" s="63"/>
+      <c r="D357" s="63"/>
       <c r="E357" s="32" t="s">
         <v>585</v>
       </c>
@@ -17602,9 +17617,9 @@
       <c r="A358" s="33">
         <v>343</v>
       </c>
-      <c r="B358" s="71"/>
-      <c r="C358" s="70"/>
-      <c r="D358" s="70"/>
+      <c r="B358" s="62"/>
+      <c r="C358" s="63"/>
+      <c r="D358" s="63"/>
       <c r="E358" s="32" t="s">
         <v>582</v>
       </c>
@@ -17626,9 +17641,9 @@
       <c r="A359" s="33">
         <v>344</v>
       </c>
-      <c r="B359" s="71"/>
-      <c r="C359" s="70"/>
-      <c r="D359" s="70"/>
+      <c r="B359" s="62"/>
+      <c r="C359" s="63"/>
+      <c r="D359" s="63"/>
       <c r="E359" s="32" t="s">
         <v>583</v>
       </c>
@@ -17650,9 +17665,9 @@
       <c r="A360" s="33">
         <v>345</v>
       </c>
-      <c r="B360" s="71"/>
-      <c r="C360" s="70"/>
-      <c r="D360" s="70"/>
+      <c r="B360" s="62"/>
+      <c r="C360" s="63"/>
+      <c r="D360" s="63"/>
       <c r="E360" s="32" t="s">
         <v>584</v>
       </c>
@@ -17676,9 +17691,9 @@
       <c r="A361" s="33">
         <v>346</v>
       </c>
-      <c r="B361" s="71"/>
-      <c r="C361" s="70"/>
-      <c r="D361" s="70"/>
+      <c r="B361" s="62"/>
+      <c r="C361" s="63"/>
+      <c r="D361" s="63"/>
       <c r="E361" s="32" t="s">
         <v>586</v>
       </c>
@@ -17700,9 +17715,9 @@
       <c r="A362" s="33">
         <v>347</v>
       </c>
-      <c r="B362" s="71"/>
-      <c r="C362" s="70"/>
-      <c r="D362" s="70"/>
+      <c r="B362" s="62"/>
+      <c r="C362" s="63"/>
+      <c r="D362" s="63"/>
       <c r="E362" s="32" t="s">
         <v>587</v>
       </c>
@@ -17724,9 +17739,9 @@
       <c r="A363" s="33">
         <v>348</v>
       </c>
-      <c r="B363" s="71"/>
-      <c r="C363" s="70"/>
-      <c r="D363" s="70"/>
+      <c r="B363" s="62"/>
+      <c r="C363" s="63"/>
+      <c r="D363" s="63"/>
       <c r="E363" s="32" t="s">
         <v>590</v>
       </c>
@@ -17750,9 +17765,9 @@
       <c r="A364" s="33">
         <v>349</v>
       </c>
-      <c r="B364" s="71"/>
-      <c r="C364" s="70"/>
-      <c r="D364" s="70"/>
+      <c r="B364" s="62"/>
+      <c r="C364" s="63"/>
+      <c r="D364" s="63"/>
       <c r="E364" s="32" t="s">
         <v>591</v>
       </c>
@@ -17774,9 +17789,9 @@
       <c r="A365" s="33">
         <v>350</v>
       </c>
-      <c r="B365" s="71"/>
-      <c r="C365" s="70"/>
-      <c r="D365" s="70"/>
+      <c r="B365" s="62"/>
+      <c r="C365" s="63"/>
+      <c r="D365" s="63"/>
       <c r="E365" s="32" t="s">
         <v>592</v>
       </c>
@@ -17798,9 +17813,9 @@
       <c r="A366" s="33">
         <v>351</v>
       </c>
-      <c r="B366" s="71"/>
-      <c r="C366" s="70"/>
-      <c r="D366" s="70"/>
+      <c r="B366" s="62"/>
+      <c r="C366" s="63"/>
+      <c r="D366" s="63"/>
       <c r="E366" s="32" t="s">
         <v>595</v>
       </c>
@@ -17824,9 +17839,9 @@
       <c r="A367" s="33">
         <v>352</v>
       </c>
-      <c r="B367" s="71"/>
-      <c r="C367" s="70"/>
-      <c r="D367" s="70"/>
+      <c r="B367" s="62"/>
+      <c r="C367" s="63"/>
+      <c r="D367" s="63"/>
       <c r="E367" s="32" t="s">
         <v>596</v>
       </c>
@@ -17848,9 +17863,9 @@
       <c r="A368" s="33">
         <v>353</v>
       </c>
-      <c r="B368" s="71"/>
-      <c r="C368" s="70"/>
-      <c r="D368" s="70"/>
+      <c r="B368" s="62"/>
+      <c r="C368" s="63"/>
+      <c r="D368" s="63"/>
       <c r="E368" s="32" t="s">
         <v>597</v>
       </c>
@@ -17872,9 +17887,9 @@
       <c r="A369" s="33">
         <v>354</v>
       </c>
-      <c r="B369" s="71"/>
-      <c r="C369" s="70"/>
-      <c r="D369" s="70"/>
+      <c r="B369" s="62"/>
+      <c r="C369" s="63"/>
+      <c r="D369" s="63"/>
       <c r="E369" s="32" t="s">
         <v>600</v>
       </c>
@@ -17898,9 +17913,9 @@
       <c r="A370" s="33">
         <v>355</v>
       </c>
-      <c r="B370" s="71"/>
-      <c r="C370" s="70"/>
-      <c r="D370" s="70"/>
+      <c r="B370" s="62"/>
+      <c r="C370" s="63"/>
+      <c r="D370" s="63"/>
       <c r="E370" s="32" t="s">
         <v>601</v>
       </c>
@@ -17922,9 +17937,9 @@
       <c r="A371" s="33">
         <v>356</v>
       </c>
-      <c r="B371" s="71"/>
-      <c r="C371" s="70"/>
-      <c r="D371" s="70"/>
+      <c r="B371" s="62"/>
+      <c r="C371" s="63"/>
+      <c r="D371" s="63"/>
       <c r="E371" s="32" t="s">
         <v>602</v>
       </c>
@@ -17943,30 +17958,30 @@
       <c r="J371" s="13"/>
     </row>
     <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="63" t="s">
+      <c r="A372" s="76" t="s">
         <v>605</v>
       </c>
-      <c r="B372" s="63"/>
-      <c r="C372" s="63"/>
-      <c r="D372" s="63"/>
-      <c r="E372" s="63"/>
-      <c r="F372" s="63"/>
-      <c r="G372" s="63"/>
-      <c r="H372" s="63"/>
-      <c r="I372" s="63"/>
-      <c r="J372" s="63"/>
+      <c r="B372" s="76"/>
+      <c r="C372" s="76"/>
+      <c r="D372" s="76"/>
+      <c r="E372" s="76"/>
+      <c r="F372" s="76"/>
+      <c r="G372" s="76"/>
+      <c r="H372" s="76"/>
+      <c r="I372" s="76"/>
+      <c r="J372" s="76"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="33">
         <v>357</v>
       </c>
-      <c r="B373" s="71" t="s">
+      <c r="B373" s="62" t="s">
         <v>607</v>
       </c>
-      <c r="C373" s="70" t="s">
+      <c r="C373" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D373" s="70" t="s">
+      <c r="D373" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E373" s="32" t="s">
@@ -17992,9 +18007,9 @@
       <c r="A374" s="33">
         <v>358</v>
       </c>
-      <c r="B374" s="71"/>
-      <c r="C374" s="70"/>
-      <c r="D374" s="70"/>
+      <c r="B374" s="62"/>
+      <c r="C374" s="63"/>
+      <c r="D374" s="63"/>
       <c r="E374" s="32" t="s">
         <v>608</v>
       </c>
@@ -18016,9 +18031,9 @@
       <c r="A375" s="33">
         <v>359</v>
       </c>
-      <c r="B375" s="71"/>
-      <c r="C375" s="70"/>
-      <c r="D375" s="70"/>
+      <c r="B375" s="62"/>
+      <c r="C375" s="63"/>
+      <c r="D375" s="63"/>
       <c r="E375" s="32" t="s">
         <v>609</v>
       </c>
@@ -18040,9 +18055,9 @@
       <c r="A376" s="33">
         <v>360</v>
       </c>
-      <c r="B376" s="71"/>
-      <c r="C376" s="70"/>
-      <c r="D376" s="70"/>
+      <c r="B376" s="62"/>
+      <c r="C376" s="63"/>
+      <c r="D376" s="63"/>
       <c r="E376" s="32" t="s">
         <v>612</v>
       </c>
@@ -18066,9 +18081,9 @@
       <c r="A377" s="33">
         <v>361</v>
       </c>
-      <c r="B377" s="71"/>
-      <c r="C377" s="70"/>
-      <c r="D377" s="70"/>
+      <c r="B377" s="62"/>
+      <c r="C377" s="63"/>
+      <c r="D377" s="63"/>
       <c r="E377" s="32" t="s">
         <v>613</v>
       </c>
@@ -18090,9 +18105,9 @@
       <c r="A378" s="33">
         <v>362</v>
       </c>
-      <c r="B378" s="71"/>
-      <c r="C378" s="70"/>
-      <c r="D378" s="70"/>
+      <c r="B378" s="62"/>
+      <c r="C378" s="63"/>
+      <c r="D378" s="63"/>
       <c r="E378" s="32" t="s">
         <v>614</v>
       </c>
@@ -18111,1518 +18126,1574 @@
       <c r="J378" s="32"/>
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="63" t="s">
+      <c r="A379" s="76" t="s">
         <v>617</v>
       </c>
-      <c r="B379" s="63"/>
-      <c r="C379" s="63"/>
-      <c r="D379" s="63"/>
-      <c r="E379" s="63"/>
-      <c r="F379" s="63"/>
-      <c r="G379" s="63"/>
-      <c r="H379" s="63"/>
-      <c r="I379" s="63"/>
-      <c r="J379" s="63"/>
+      <c r="B379" s="76"/>
+      <c r="C379" s="76"/>
+      <c r="D379" s="76"/>
+      <c r="E379" s="76"/>
+      <c r="F379" s="76"/>
+      <c r="G379" s="76"/>
+      <c r="H379" s="76"/>
+      <c r="I379" s="76"/>
+      <c r="J379" s="76"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="33">
         <v>363</v>
       </c>
-      <c r="B380" s="57" t="s">
+      <c r="B380" s="81" t="s">
         <v>698</v>
       </c>
-      <c r="C380" s="58" t="s">
+      <c r="C380" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D380" s="58" t="s">
+      <c r="D380" s="80" t="s">
         <v>653</v>
       </c>
-      <c r="E380" s="33" t="s">
+      <c r="E380" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="F380" s="33" t="s">
+      <c r="F380" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G380" s="33" t="s">
+      <c r="G380" s="57" t="s">
         <v>649</v>
       </c>
-      <c r="H380" s="33" t="s">
+      <c r="H380" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I380" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J380" s="14"/>
+      <c r="I380" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J380" s="13" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="33">
         <v>364</v>
       </c>
-      <c r="B381" s="57"/>
-      <c r="C381" s="58"/>
-      <c r="D381" s="58"/>
-      <c r="E381" s="33" t="s">
+      <c r="B381" s="81"/>
+      <c r="C381" s="80"/>
+      <c r="D381" s="80"/>
+      <c r="E381" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="F381" s="33" t="s">
+      <c r="F381" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G381" s="33" t="s">
+      <c r="G381" s="57" t="s">
         <v>652</v>
       </c>
-      <c r="H381" s="33" t="s">
+      <c r="H381" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I381" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J381" s="14"/>
+      <c r="I381" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J381" s="13"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="33">
         <v>365</v>
       </c>
-      <c r="B382" s="57"/>
-      <c r="C382" s="58"/>
-      <c r="D382" s="58"/>
-      <c r="E382" s="33" t="s">
+      <c r="B382" s="81"/>
+      <c r="C382" s="80"/>
+      <c r="D382" s="80"/>
+      <c r="E382" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="F382" s="33" t="s">
+      <c r="F382" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G382" s="33" t="s">
+      <c r="G382" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="H382" s="33" t="s">
+      <c r="H382" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I382" s="33" t="s">
+      <c r="I382" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J382" s="14"/>
+      <c r="J382" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="33">
         <v>366</v>
       </c>
-      <c r="B383" s="57"/>
-      <c r="C383" s="58"/>
-      <c r="D383" s="58"/>
-      <c r="E383" s="33" t="s">
+      <c r="B383" s="81"/>
+      <c r="C383" s="80"/>
+      <c r="D383" s="80"/>
+      <c r="E383" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="F383" s="33" t="s">
+      <c r="F383" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G383" s="33" t="s">
+      <c r="G383" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="H383" s="33" t="s">
+      <c r="H383" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I383" s="33" t="s">
+      <c r="I383" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J383" s="14"/>
+      <c r="J383" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="33">
         <v>367</v>
       </c>
-      <c r="B384" s="57"/>
-      <c r="C384" s="58"/>
-      <c r="D384" s="58"/>
-      <c r="E384" s="33" t="s">
+      <c r="B384" s="81"/>
+      <c r="C384" s="80"/>
+      <c r="D384" s="80"/>
+      <c r="E384" s="57" t="s">
         <v>656</v>
       </c>
-      <c r="F384" s="33" t="s">
+      <c r="F384" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G384" s="33" t="s">
+      <c r="G384" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="H384" s="33" t="s">
+      <c r="H384" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I384" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J384" s="14"/>
+      <c r="I384" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J384" s="13"/>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="33">
         <v>368</v>
       </c>
-      <c r="B385" s="57"/>
-      <c r="C385" s="58"/>
-      <c r="D385" s="58"/>
-      <c r="E385" s="33" t="s">
+      <c r="B385" s="81"/>
+      <c r="C385" s="80"/>
+      <c r="D385" s="80"/>
+      <c r="E385" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="F385" s="33" t="s">
+      <c r="F385" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G385" s="33" t="s">
+      <c r="G385" s="57" t="s">
         <v>661</v>
       </c>
-      <c r="H385" s="33" t="s">
+      <c r="H385" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I385" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J385" s="14"/>
+      <c r="I385" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J385" s="13"/>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="33">
         <v>369</v>
       </c>
-      <c r="B386" s="57"/>
-      <c r="C386" s="58"/>
-      <c r="D386" s="58"/>
-      <c r="E386" s="33" t="s">
+      <c r="B386" s="81"/>
+      <c r="C386" s="80"/>
+      <c r="D386" s="80"/>
+      <c r="E386" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="F386" s="33" t="s">
+      <c r="F386" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G386" s="33" t="s">
+      <c r="G386" s="57" t="s">
         <v>668</v>
       </c>
-      <c r="H386" s="33" t="s">
+      <c r="H386" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I386" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J386" s="14"/>
+      <c r="I386" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J386" s="13"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="33">
         <v>370</v>
       </c>
-      <c r="B387" s="57"/>
-      <c r="C387" s="58"/>
-      <c r="D387" s="58"/>
-      <c r="E387" s="33" t="s">
+      <c r="B387" s="81"/>
+      <c r="C387" s="80"/>
+      <c r="D387" s="80"/>
+      <c r="E387" s="57" t="s">
         <v>663</v>
       </c>
-      <c r="F387" s="33" t="s">
+      <c r="F387" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G387" s="33" t="s">
+      <c r="G387" s="57" t="s">
         <v>669</v>
       </c>
-      <c r="H387" s="33" t="s">
+      <c r="H387" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I387" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J387" s="14"/>
+      <c r="I387" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J387" s="13"/>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" s="33">
         <v>371</v>
       </c>
-      <c r="B388" s="57"/>
-      <c r="C388" s="58"/>
-      <c r="D388" s="58"/>
-      <c r="E388" s="33" t="s">
+      <c r="B388" s="81"/>
+      <c r="C388" s="80"/>
+      <c r="D388" s="80"/>
+      <c r="E388" s="57" t="s">
         <v>664</v>
       </c>
-      <c r="F388" s="33" t="s">
+      <c r="F388" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G388" s="33" t="s">
+      <c r="G388" s="57" t="s">
         <v>670</v>
       </c>
-      <c r="H388" s="33" t="s">
+      <c r="H388" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I388" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J388" s="14"/>
+      <c r="I388" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J388" s="13"/>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="33">
         <v>372</v>
       </c>
-      <c r="B389" s="57"/>
-      <c r="C389" s="58"/>
-      <c r="D389" s="58"/>
-      <c r="E389" s="33" t="s">
+      <c r="B389" s="81"/>
+      <c r="C389" s="80"/>
+      <c r="D389" s="80"/>
+      <c r="E389" s="57" t="s">
         <v>665</v>
       </c>
-      <c r="F389" s="33" t="s">
+      <c r="F389" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G389" s="33" t="s">
+      <c r="G389" s="57" t="s">
         <v>671</v>
       </c>
-      <c r="H389" s="33" t="s">
+      <c r="H389" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I389" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J389" s="14"/>
+      <c r="I389" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J389" s="13"/>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="33">
         <v>373</v>
       </c>
-      <c r="B390" s="57"/>
-      <c r="C390" s="58"/>
-      <c r="D390" s="58"/>
-      <c r="E390" s="33" t="s">
+      <c r="B390" s="81"/>
+      <c r="C390" s="80"/>
+      <c r="D390" s="80"/>
+      <c r="E390" s="57" t="s">
         <v>666</v>
       </c>
-      <c r="F390" s="33" t="s">
+      <c r="F390" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G390" s="33" t="s">
+      <c r="G390" s="57" t="s">
         <v>672</v>
       </c>
-      <c r="H390" s="33" t="s">
+      <c r="H390" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I390" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J390" s="14"/>
+      <c r="I390" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J390" s="13"/>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="33">
         <v>374</v>
       </c>
-      <c r="B391" s="57"/>
-      <c r="C391" s="58"/>
-      <c r="D391" s="58"/>
-      <c r="E391" s="33" t="s">
+      <c r="B391" s="81"/>
+      <c r="C391" s="80"/>
+      <c r="D391" s="80"/>
+      <c r="E391" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="F391" s="33" t="s">
+      <c r="F391" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G391" s="33" t="s">
+      <c r="G391" s="57" t="s">
         <v>673</v>
       </c>
-      <c r="H391" s="33" t="s">
+      <c r="H391" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I391" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J391" s="14"/>
+      <c r="I391" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J391" s="13"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="33">
         <v>375</v>
       </c>
-      <c r="B392" s="57"/>
-      <c r="C392" s="58"/>
-      <c r="D392" s="58"/>
-      <c r="E392" s="33" t="s">
+      <c r="B392" s="81"/>
+      <c r="C392" s="80"/>
+      <c r="D392" s="80"/>
+      <c r="E392" s="57" t="s">
         <v>674</v>
       </c>
-      <c r="F392" s="33" t="s">
+      <c r="F392" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G392" s="33" t="s">
+      <c r="G392" s="57" t="s">
         <v>686</v>
       </c>
-      <c r="H392" s="33" t="s">
+      <c r="H392" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I392" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J392" s="14"/>
+      <c r="I392" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J392" s="13"/>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="33">
         <v>376</v>
       </c>
-      <c r="B393" s="57"/>
-      <c r="C393" s="58"/>
-      <c r="D393" s="58"/>
-      <c r="E393" s="33" t="s">
+      <c r="B393" s="81"/>
+      <c r="C393" s="80"/>
+      <c r="D393" s="80"/>
+      <c r="E393" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="F393" s="33" t="s">
+      <c r="F393" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G393" s="33" t="s">
+      <c r="G393" s="57" t="s">
         <v>687</v>
       </c>
-      <c r="H393" s="33" t="s">
+      <c r="H393" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I393" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J393" s="14"/>
+      <c r="I393" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J393" s="13"/>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="33">
         <v>377</v>
       </c>
-      <c r="B394" s="57"/>
-      <c r="C394" s="58"/>
-      <c r="D394" s="58"/>
-      <c r="E394" s="33" t="s">
+      <c r="B394" s="81"/>
+      <c r="C394" s="80"/>
+      <c r="D394" s="80"/>
+      <c r="E394" s="57" t="s">
         <v>677</v>
       </c>
-      <c r="F394" s="33" t="s">
+      <c r="F394" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G394" s="33" t="s">
+      <c r="G394" s="57" t="s">
         <v>688</v>
       </c>
-      <c r="H394" s="33" t="s">
+      <c r="H394" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I394" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J394" s="14"/>
+      <c r="I394" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J394" s="13"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="33">
         <v>378</v>
       </c>
-      <c r="B395" s="57"/>
-      <c r="C395" s="58"/>
-      <c r="D395" s="58"/>
-      <c r="E395" s="33" t="s">
+      <c r="B395" s="81"/>
+      <c r="C395" s="80"/>
+      <c r="D395" s="80"/>
+      <c r="E395" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="F395" s="33" t="s">
+      <c r="F395" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G395" s="33" t="s">
+      <c r="G395" s="57" t="s">
         <v>689</v>
       </c>
-      <c r="H395" s="33" t="s">
+      <c r="H395" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I395" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J395" s="14"/>
+      <c r="I395" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J395" s="13"/>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="33">
         <v>379</v>
       </c>
-      <c r="B396" s="57"/>
-      <c r="C396" s="58"/>
-      <c r="D396" s="58"/>
-      <c r="E396" s="33" t="s">
+      <c r="B396" s="81"/>
+      <c r="C396" s="80"/>
+      <c r="D396" s="80"/>
+      <c r="E396" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="F396" s="33" t="s">
+      <c r="F396" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G396" s="33" t="s">
+      <c r="G396" s="57" t="s">
         <v>690</v>
       </c>
-      <c r="H396" s="33" t="s">
+      <c r="H396" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I396" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J396" s="14"/>
+      <c r="I396" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J396" s="13"/>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="33">
         <v>380</v>
       </c>
-      <c r="B397" s="57"/>
-      <c r="C397" s="58"/>
-      <c r="D397" s="58"/>
-      <c r="E397" s="33" t="s">
+      <c r="B397" s="81"/>
+      <c r="C397" s="80"/>
+      <c r="D397" s="80"/>
+      <c r="E397" s="57" t="s">
         <v>679</v>
       </c>
-      <c r="F397" s="33" t="s">
+      <c r="F397" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G397" s="33" t="s">
+      <c r="G397" s="57" t="s">
         <v>691</v>
       </c>
-      <c r="H397" s="33" t="s">
+      <c r="H397" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I397" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J397" s="14"/>
+      <c r="I397" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J397" s="13"/>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="33">
         <v>381</v>
       </c>
-      <c r="B398" s="57"/>
-      <c r="C398" s="58"/>
-      <c r="D398" s="58"/>
-      <c r="E398" s="33" t="s">
+      <c r="B398" s="81"/>
+      <c r="C398" s="80"/>
+      <c r="D398" s="80"/>
+      <c r="E398" s="57" t="s">
         <v>680</v>
       </c>
-      <c r="F398" s="33" t="s">
+      <c r="F398" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G398" s="33" t="s">
+      <c r="G398" s="57" t="s">
         <v>647</v>
       </c>
-      <c r="H398" s="33" t="s">
+      <c r="H398" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I398" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J398" s="14"/>
+      <c r="I398" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J398" s="13"/>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" s="33">
         <v>382</v>
       </c>
-      <c r="B399" s="57"/>
-      <c r="C399" s="58"/>
-      <c r="D399" s="58"/>
-      <c r="E399" s="33" t="s">
+      <c r="B399" s="81"/>
+      <c r="C399" s="80"/>
+      <c r="D399" s="80"/>
+      <c r="E399" s="57" t="s">
         <v>681</v>
       </c>
-      <c r="F399" s="33" t="s">
+      <c r="F399" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G399" s="33" t="s">
+      <c r="G399" s="57" t="s">
         <v>692</v>
       </c>
-      <c r="H399" s="33" t="s">
+      <c r="H399" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I399" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J399" s="14"/>
+      <c r="I399" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J399" s="13"/>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="33">
         <v>383</v>
       </c>
-      <c r="B400" s="57"/>
-      <c r="C400" s="58"/>
-      <c r="D400" s="58"/>
-      <c r="E400" s="33" t="s">
+      <c r="B400" s="81"/>
+      <c r="C400" s="80"/>
+      <c r="D400" s="80"/>
+      <c r="E400" s="57" t="s">
         <v>682</v>
       </c>
-      <c r="F400" s="33" t="s">
+      <c r="F400" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G400" s="33" t="s">
+      <c r="G400" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="H400" s="33" t="s">
+      <c r="H400" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I400" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J400" s="14"/>
+      <c r="I400" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J400" s="13"/>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="33">
         <v>384</v>
       </c>
-      <c r="B401" s="57"/>
-      <c r="C401" s="58"/>
-      <c r="D401" s="58"/>
-      <c r="E401" s="33" t="s">
+      <c r="B401" s="81"/>
+      <c r="C401" s="80"/>
+      <c r="D401" s="80"/>
+      <c r="E401" s="57" t="s">
         <v>683</v>
       </c>
-      <c r="F401" s="33" t="s">
+      <c r="F401" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G401" s="33" t="s">
+      <c r="G401" s="57" t="s">
         <v>694</v>
       </c>
-      <c r="H401" s="33" t="s">
+      <c r="H401" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I401" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J401" s="14"/>
+      <c r="I401" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J401" s="13"/>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="33">
         <v>385</v>
       </c>
-      <c r="B402" s="57"/>
-      <c r="C402" s="58"/>
-      <c r="D402" s="58"/>
-      <c r="E402" s="33" t="s">
+      <c r="B402" s="81"/>
+      <c r="C402" s="80"/>
+      <c r="D402" s="80"/>
+      <c r="E402" s="57" t="s">
         <v>684</v>
       </c>
-      <c r="F402" s="33" t="s">
+      <c r="F402" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G402" s="33" t="s">
+      <c r="G402" s="57" t="s">
         <v>695</v>
       </c>
-      <c r="H402" s="33" t="s">
+      <c r="H402" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I402" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J402" s="14"/>
+      <c r="I402" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J402" s="13"/>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" s="33">
         <v>386</v>
       </c>
-      <c r="B403" s="57"/>
-      <c r="C403" s="58"/>
-      <c r="D403" s="58"/>
-      <c r="E403" s="33" t="s">
+      <c r="B403" s="81"/>
+      <c r="C403" s="80"/>
+      <c r="D403" s="80"/>
+      <c r="E403" s="57" t="s">
         <v>685</v>
       </c>
-      <c r="F403" s="33" t="s">
+      <c r="F403" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G403" s="33" t="s">
+      <c r="G403" s="57" t="s">
         <v>696</v>
       </c>
-      <c r="H403" s="33" t="s">
+      <c r="H403" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I403" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J403" s="14"/>
+      <c r="I403" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J403" s="13"/>
     </row>
     <row r="404" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="59" t="s">
+      <c r="A404" s="82" t="s">
         <v>697</v>
       </c>
-      <c r="B404" s="59"/>
-      <c r="C404" s="59"/>
-      <c r="D404" s="59"/>
-      <c r="E404" s="59"/>
-      <c r="F404" s="59"/>
-      <c r="G404" s="59"/>
-      <c r="H404" s="59"/>
-      <c r="I404" s="59"/>
-      <c r="J404" s="59"/>
+      <c r="B404" s="82"/>
+      <c r="C404" s="82"/>
+      <c r="D404" s="82"/>
+      <c r="E404" s="82"/>
+      <c r="F404" s="82"/>
+      <c r="G404" s="82"/>
+      <c r="H404" s="82"/>
+      <c r="I404" s="82"/>
+      <c r="J404" s="82"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="33">
         <v>387</v>
       </c>
-      <c r="B405" s="57" t="s">
+      <c r="B405" s="81" t="s">
         <v>699</v>
       </c>
-      <c r="C405" s="58" t="s">
+      <c r="C405" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D405" s="58" t="s">
+      <c r="D405" s="90" t="s">
         <v>653</v>
       </c>
-      <c r="E405" s="33" t="s">
+      <c r="E405" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="F405" s="33" t="s">
+      <c r="F405" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G405" s="33" t="s">
+      <c r="G405" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="H405" s="33" t="s">
+      <c r="H405" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I405" s="33" t="s">
+      <c r="I405" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J405" s="14"/>
+      <c r="J405" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="33">
         <v>388</v>
       </c>
-      <c r="B406" s="57"/>
-      <c r="C406" s="58"/>
-      <c r="D406" s="58"/>
-      <c r="E406" s="33" t="s">
+      <c r="B406" s="81"/>
+      <c r="C406" s="90"/>
+      <c r="D406" s="90"/>
+      <c r="E406" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="F406" s="33" t="s">
+      <c r="F406" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G406" s="33" t="s">
+      <c r="G406" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="H406" s="33" t="s">
+      <c r="H406" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I406" s="33" t="s">
+      <c r="I406" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J406" s="14"/>
+      <c r="J406" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="33">
         <v>389</v>
       </c>
-      <c r="B407" s="57"/>
-      <c r="C407" s="58"/>
-      <c r="D407" s="58"/>
-      <c r="E407" s="33" t="s">
+      <c r="B407" s="81"/>
+      <c r="C407" s="90"/>
+      <c r="D407" s="90"/>
+      <c r="E407" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="F407" s="33" t="s">
+      <c r="F407" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G407" s="33" t="s">
+      <c r="G407" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="H407" s="33" t="s">
+      <c r="H407" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I407" s="33" t="s">
+      <c r="I407" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J407" s="14"/>
+      <c r="J407" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="33">
         <v>390</v>
       </c>
-      <c r="B408" s="57"/>
-      <c r="C408" s="58"/>
-      <c r="D408" s="58"/>
-      <c r="E408" s="33" t="s">
+      <c r="B408" s="81"/>
+      <c r="C408" s="90"/>
+      <c r="D408" s="90"/>
+      <c r="E408" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="F408" s="33" t="s">
+      <c r="F408" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G408" s="33" t="s">
+      <c r="G408" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="H408" s="33" t="s">
+      <c r="H408" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I408" s="33" t="s">
+      <c r="I408" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J408" s="14"/>
+      <c r="J408" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="33">
         <v>391</v>
       </c>
-      <c r="B409" s="57"/>
-      <c r="C409" s="58"/>
-      <c r="D409" s="58"/>
-      <c r="E409" s="33" t="s">
+      <c r="B409" s="81"/>
+      <c r="C409" s="90"/>
+      <c r="D409" s="90"/>
+      <c r="E409" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="F409" s="33" t="s">
+      <c r="F409" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G409" s="33" t="s">
+      <c r="G409" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="H409" s="33" t="s">
+      <c r="H409" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I409" s="33" t="s">
+      <c r="I409" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J409" s="14"/>
+      <c r="J409" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="33">
         <v>392</v>
       </c>
-      <c r="B410" s="57"/>
-      <c r="C410" s="58"/>
-      <c r="D410" s="58"/>
-      <c r="E410" s="33" t="s">
+      <c r="B410" s="81"/>
+      <c r="C410" s="90"/>
+      <c r="D410" s="90"/>
+      <c r="E410" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="F410" s="33" t="s">
+      <c r="F410" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G410" s="33" t="s">
+      <c r="G410" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="H410" s="33" t="s">
+      <c r="H410" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I410" s="33" t="s">
+      <c r="I410" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J410" s="14"/>
+      <c r="J410" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="33">
         <v>393</v>
       </c>
-      <c r="B411" s="57"/>
-      <c r="C411" s="58"/>
-      <c r="D411" s="58"/>
-      <c r="E411" s="33" t="s">
+      <c r="B411" s="81"/>
+      <c r="C411" s="90"/>
+      <c r="D411" s="90"/>
+      <c r="E411" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="F411" s="33" t="s">
+      <c r="F411" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G411" s="33" t="s">
+      <c r="G411" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="H411" s="33" t="s">
+      <c r="H411" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I411" s="33" t="s">
+      <c r="I411" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J411" s="14"/>
+      <c r="J411" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="33">
         <v>394</v>
       </c>
-      <c r="B412" s="57"/>
-      <c r="C412" s="58"/>
-      <c r="D412" s="58"/>
-      <c r="E412" s="33" t="s">
+      <c r="B412" s="81"/>
+      <c r="C412" s="90"/>
+      <c r="D412" s="90"/>
+      <c r="E412" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="F412" s="33" t="s">
+      <c r="F412" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G412" s="33" t="s">
+      <c r="G412" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="H412" s="33" t="s">
+      <c r="H412" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I412" s="33" t="s">
+      <c r="I412" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J412" s="14"/>
+      <c r="J412" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="33">
         <v>395</v>
       </c>
-      <c r="B413" s="57"/>
-      <c r="C413" s="58"/>
-      <c r="D413" s="58"/>
-      <c r="E413" s="33" t="s">
+      <c r="B413" s="81"/>
+      <c r="C413" s="90"/>
+      <c r="D413" s="90"/>
+      <c r="E413" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="F413" s="33" t="s">
+      <c r="F413" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G413" s="33" t="s">
+      <c r="G413" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="H413" s="33" t="s">
+      <c r="H413" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I413" s="33" t="s">
+      <c r="I413" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J413" s="14"/>
+      <c r="J413" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="33">
         <v>396</v>
       </c>
-      <c r="B414" s="57"/>
-      <c r="C414" s="58"/>
-      <c r="D414" s="58"/>
-      <c r="E414" s="33" t="s">
+      <c r="B414" s="81"/>
+      <c r="C414" s="90"/>
+      <c r="D414" s="90"/>
+      <c r="E414" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="F414" s="33" t="s">
+      <c r="F414" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G414" s="33" t="s">
+      <c r="G414" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="H414" s="33" t="s">
+      <c r="H414" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I414" s="33" t="s">
+      <c r="I414" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J414" s="14"/>
+      <c r="J414" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="33">
         <v>397</v>
       </c>
-      <c r="B415" s="57"/>
-      <c r="C415" s="58"/>
-      <c r="D415" s="58"/>
-      <c r="E415" s="33" t="s">
+      <c r="B415" s="81"/>
+      <c r="C415" s="90"/>
+      <c r="D415" s="90"/>
+      <c r="E415" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="F415" s="33" t="s">
+      <c r="F415" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G415" s="33" t="s">
+      <c r="G415" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="H415" s="33" t="s">
+      <c r="H415" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I415" s="33" t="s">
+      <c r="I415" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J415" s="14"/>
+      <c r="J415" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="33">
         <v>398</v>
       </c>
-      <c r="B416" s="57"/>
-      <c r="C416" s="58"/>
-      <c r="D416" s="58"/>
-      <c r="E416" s="33" t="s">
+      <c r="B416" s="81"/>
+      <c r="C416" s="90"/>
+      <c r="D416" s="90"/>
+      <c r="E416" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="F416" s="33" t="s">
+      <c r="F416" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G416" s="33" t="s">
+      <c r="G416" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="H416" s="33" t="s">
+      <c r="H416" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I416" s="33" t="s">
+      <c r="I416" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J416" s="14"/>
+      <c r="J416" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="33">
         <v>399</v>
       </c>
-      <c r="B417" s="57"/>
-      <c r="C417" s="58"/>
-      <c r="D417" s="58"/>
-      <c r="E417" s="33" t="s">
+      <c r="B417" s="81"/>
+      <c r="C417" s="90"/>
+      <c r="D417" s="90"/>
+      <c r="E417" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="F417" s="33" t="s">
+      <c r="F417" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G417" s="33" t="s">
+      <c r="G417" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="H417" s="33" t="s">
+      <c r="H417" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I417" s="33" t="s">
+      <c r="I417" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J417" s="14"/>
+      <c r="J417" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="33">
         <v>400</v>
       </c>
-      <c r="B418" s="57"/>
-      <c r="C418" s="58"/>
-      <c r="D418" s="58"/>
-      <c r="E418" s="33" t="s">
+      <c r="B418" s="81"/>
+      <c r="C418" s="90"/>
+      <c r="D418" s="90"/>
+      <c r="E418" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="F418" s="33" t="s">
+      <c r="F418" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G418" s="33" t="s">
+      <c r="G418" s="11" t="s">
         <v>687</v>
       </c>
-      <c r="H418" s="33" t="s">
+      <c r="H418" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I418" s="33" t="s">
+      <c r="I418" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J418" s="14"/>
+      <c r="J418" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="33">
         <v>401</v>
       </c>
-      <c r="B419" s="57"/>
-      <c r="C419" s="58"/>
-      <c r="D419" s="58"/>
-      <c r="E419" s="33" t="s">
+      <c r="B419" s="81"/>
+      <c r="C419" s="90"/>
+      <c r="D419" s="90"/>
+      <c r="E419" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="F419" s="33" t="s">
+      <c r="F419" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G419" s="33" t="s">
+      <c r="G419" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="H419" s="33" t="s">
+      <c r="H419" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I419" s="33" t="s">
+      <c r="I419" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J419" s="14"/>
+      <c r="J419" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="33">
         <v>402</v>
       </c>
-      <c r="B420" s="57"/>
-      <c r="C420" s="58"/>
-      <c r="D420" s="58"/>
-      <c r="E420" s="33" t="s">
+      <c r="B420" s="81"/>
+      <c r="C420" s="90"/>
+      <c r="D420" s="90"/>
+      <c r="E420" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="F420" s="33" t="s">
+      <c r="F420" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G420" s="33" t="s">
+      <c r="G420" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="H420" s="33" t="s">
+      <c r="H420" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I420" s="33" t="s">
+      <c r="I420" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J420" s="14"/>
+      <c r="J420" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="33">
         <v>403</v>
       </c>
-      <c r="B421" s="57"/>
-      <c r="C421" s="58"/>
-      <c r="D421" s="58"/>
-      <c r="E421" s="33" t="s">
+      <c r="B421" s="81"/>
+      <c r="C421" s="90"/>
+      <c r="D421" s="90"/>
+      <c r="E421" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="F421" s="33" t="s">
+      <c r="F421" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G421" s="33" t="s">
+      <c r="G421" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="H421" s="33" t="s">
+      <c r="H421" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I421" s="33" t="s">
+      <c r="I421" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J421" s="14"/>
+      <c r="J421" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="33">
         <v>404</v>
       </c>
-      <c r="B422" s="57"/>
-      <c r="C422" s="58"/>
-      <c r="D422" s="58"/>
-      <c r="E422" s="33" t="s">
+      <c r="B422" s="81"/>
+      <c r="C422" s="90"/>
+      <c r="D422" s="90"/>
+      <c r="E422" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="F422" s="33" t="s">
+      <c r="F422" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G422" s="33" t="s">
+      <c r="G422" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="H422" s="33" t="s">
+      <c r="H422" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I422" s="33" t="s">
+      <c r="I422" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J422" s="14"/>
+      <c r="J422" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="33">
         <v>405</v>
       </c>
-      <c r="B423" s="57"/>
-      <c r="C423" s="58"/>
-      <c r="D423" s="58"/>
-      <c r="E423" s="33" t="s">
+      <c r="B423" s="81"/>
+      <c r="C423" s="90"/>
+      <c r="D423" s="90"/>
+      <c r="E423" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="F423" s="33" t="s">
+      <c r="F423" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G423" s="33" t="s">
+      <c r="G423" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="H423" s="33" t="s">
+      <c r="H423" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I423" s="33" t="s">
+      <c r="I423" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J423" s="14"/>
+      <c r="J423" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="33">
         <v>406</v>
       </c>
-      <c r="B424" s="57"/>
-      <c r="C424" s="58"/>
-      <c r="D424" s="58"/>
-      <c r="E424" s="33" t="s">
+      <c r="B424" s="81"/>
+      <c r="C424" s="90"/>
+      <c r="D424" s="90"/>
+      <c r="E424" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="F424" s="33" t="s">
+      <c r="F424" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G424" s="33" t="s">
+      <c r="G424" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="H424" s="33" t="s">
+      <c r="H424" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I424" s="33" t="s">
+      <c r="I424" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J424" s="14"/>
+      <c r="J424" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="33">
         <v>407</v>
       </c>
-      <c r="B425" s="57"/>
-      <c r="C425" s="58"/>
-      <c r="D425" s="58"/>
-      <c r="E425" s="33" t="s">
+      <c r="B425" s="81"/>
+      <c r="C425" s="90"/>
+      <c r="D425" s="90"/>
+      <c r="E425" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="F425" s="33" t="s">
+      <c r="F425" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G425" s="33" t="s">
+      <c r="G425" s="11" t="s">
         <v>693</v>
       </c>
-      <c r="H425" s="33" t="s">
+      <c r="H425" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I425" s="33" t="s">
+      <c r="I425" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J425" s="14"/>
+      <c r="J425" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="33">
         <v>408</v>
       </c>
-      <c r="B426" s="57"/>
-      <c r="C426" s="58"/>
-      <c r="D426" s="58"/>
-      <c r="E426" s="33" t="s">
+      <c r="B426" s="81"/>
+      <c r="C426" s="90"/>
+      <c r="D426" s="90"/>
+      <c r="E426" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="F426" s="33" t="s">
+      <c r="F426" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G426" s="33" t="s">
+      <c r="G426" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="H426" s="33" t="s">
+      <c r="H426" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I426" s="33" t="s">
+      <c r="I426" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J426" s="14"/>
+      <c r="J426" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="33">
         <v>409</v>
       </c>
-      <c r="B427" s="57"/>
-      <c r="C427" s="58"/>
-      <c r="D427" s="58"/>
-      <c r="E427" s="33" t="s">
+      <c r="B427" s="81"/>
+      <c r="C427" s="90"/>
+      <c r="D427" s="90"/>
+      <c r="E427" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="F427" s="33" t="s">
+      <c r="F427" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G427" s="33" t="s">
+      <c r="G427" s="11" t="s">
         <v>695</v>
       </c>
-      <c r="H427" s="33" t="s">
+      <c r="H427" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I427" s="33" t="s">
+      <c r="I427" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J427" s="14"/>
+      <c r="J427" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="33">
         <v>410</v>
       </c>
-      <c r="B428" s="57"/>
-      <c r="C428" s="58"/>
-      <c r="D428" s="58"/>
-      <c r="E428" s="33" t="s">
+      <c r="B428" s="81"/>
+      <c r="C428" s="90"/>
+      <c r="D428" s="90"/>
+      <c r="E428" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="F428" s="33" t="s">
+      <c r="F428" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="G428" s="33" t="s">
+      <c r="G428" s="11" t="s">
         <v>696</v>
       </c>
-      <c r="H428" s="33" t="s">
+      <c r="H428" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="I428" s="33" t="s">
+      <c r="I428" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="J428" s="14"/>
+      <c r="J428" s="15" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="429" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="59" t="s">
+      <c r="A429" s="82" t="s">
         <v>700</v>
       </c>
-      <c r="B429" s="59"/>
-      <c r="C429" s="59"/>
-      <c r="D429" s="59"/>
-      <c r="E429" s="59"/>
-      <c r="F429" s="59"/>
-      <c r="G429" s="59"/>
-      <c r="H429" s="59"/>
-      <c r="I429" s="59"/>
-      <c r="J429" s="59"/>
+      <c r="B429" s="82"/>
+      <c r="C429" s="82"/>
+      <c r="D429" s="82"/>
+      <c r="E429" s="82"/>
+      <c r="F429" s="82"/>
+      <c r="G429" s="82"/>
+      <c r="H429" s="82"/>
+      <c r="I429" s="82"/>
+      <c r="J429" s="82"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="33">
         <v>411</v>
       </c>
-      <c r="B430" s="57" t="s">
+      <c r="B430" s="62" t="s">
         <v>725</v>
       </c>
-      <c r="C430" s="58" t="s">
+      <c r="C430" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D430" s="58" t="s">
+      <c r="D430" s="63" t="s">
         <v>653</v>
       </c>
-      <c r="E430" s="33" t="s">
+      <c r="E430" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="F430" s="33" t="s">
+      <c r="F430" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G430" s="33" t="s">
+      <c r="G430" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="H430" s="33" t="s">
+      <c r="H430" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I430" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J430" s="14"/>
+      <c r="I430" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J430" s="13" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="33">
         <v>412</v>
       </c>
-      <c r="B431" s="57"/>
-      <c r="C431" s="58"/>
-      <c r="D431" s="58"/>
-      <c r="E431" s="33" t="s">
+      <c r="B431" s="62"/>
+      <c r="C431" s="63"/>
+      <c r="D431" s="63"/>
+      <c r="E431" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="F431" s="33" t="s">
+      <c r="F431" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G431" s="33" t="s">
+      <c r="G431" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="H431" s="33" t="s">
+      <c r="H431" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I431" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J431" s="14"/>
+      <c r="I431" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J431" s="13"/>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="33">
         <v>413</v>
       </c>
-      <c r="B432" s="57"/>
-      <c r="C432" s="58"/>
-      <c r="D432" s="58"/>
-      <c r="E432" s="33" t="s">
+      <c r="B432" s="62"/>
+      <c r="C432" s="63"/>
+      <c r="D432" s="63"/>
+      <c r="E432" s="57" t="s">
         <v>729</v>
       </c>
-      <c r="F432" s="33" t="s">
+      <c r="F432" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G432" s="33" t="s">
+      <c r="G432" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="H432" s="33" t="s">
+      <c r="H432" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I432" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J432" s="14"/>
+      <c r="I432" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J432" s="13"/>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="33">
         <v>414</v>
       </c>
-      <c r="B433" s="57"/>
-      <c r="C433" s="58"/>
-      <c r="D433" s="58"/>
-      <c r="E433" s="33" t="s">
+      <c r="B433" s="62"/>
+      <c r="C433" s="63"/>
+      <c r="D433" s="63"/>
+      <c r="E433" s="57" t="s">
         <v>730</v>
       </c>
-      <c r="F433" s="33" t="s">
+      <c r="F433" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G433" s="33" t="s">
+      <c r="G433" s="57" t="s">
         <v>741</v>
       </c>
-      <c r="H433" s="33" t="s">
+      <c r="H433" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I433" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J433" s="14"/>
+      <c r="I433" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J433" s="13"/>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="33">
         <v>415</v>
       </c>
-      <c r="B434" s="57"/>
-      <c r="C434" s="58"/>
-      <c r="D434" s="58"/>
-      <c r="E434" s="33" t="s">
+      <c r="B434" s="62"/>
+      <c r="C434" s="63"/>
+      <c r="D434" s="63"/>
+      <c r="E434" s="57" t="s">
         <v>731</v>
       </c>
-      <c r="F434" s="33" t="s">
+      <c r="F434" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G434" s="33" t="s">
+      <c r="G434" s="57" t="s">
         <v>742</v>
       </c>
-      <c r="H434" s="33" t="s">
+      <c r="H434" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I434" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J434" s="14"/>
+      <c r="I434" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J434" s="13"/>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="33">
         <v>416</v>
       </c>
-      <c r="B435" s="57"/>
-      <c r="C435" s="58"/>
-      <c r="D435" s="58"/>
-      <c r="E435" s="33" t="s">
+      <c r="B435" s="62"/>
+      <c r="C435" s="63"/>
+      <c r="D435" s="63"/>
+      <c r="E435" s="57" t="s">
         <v>732</v>
       </c>
-      <c r="F435" s="33" t="s">
+      <c r="F435" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G435" s="33" t="s">
+      <c r="G435" s="57" t="s">
         <v>743</v>
       </c>
-      <c r="H435" s="33" t="s">
+      <c r="H435" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I435" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J435" s="14"/>
+      <c r="I435" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J435" s="13"/>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="33">
         <v>417</v>
       </c>
-      <c r="B436" s="57"/>
-      <c r="C436" s="58"/>
-      <c r="D436" s="58"/>
-      <c r="E436" s="33" t="s">
+      <c r="B436" s="62"/>
+      <c r="C436" s="63"/>
+      <c r="D436" s="63"/>
+      <c r="E436" s="57" t="s">
         <v>733</v>
       </c>
-      <c r="F436" s="33" t="s">
+      <c r="F436" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G436" s="33" t="s">
+      <c r="G436" s="57" t="s">
         <v>744</v>
       </c>
-      <c r="H436" s="33" t="s">
+      <c r="H436" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I436" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J436" s="14"/>
+      <c r="I436" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J436" s="13"/>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="33">
         <v>418</v>
       </c>
-      <c r="B437" s="57"/>
-      <c r="C437" s="58"/>
-      <c r="D437" s="58"/>
-      <c r="E437" s="33" t="s">
+      <c r="B437" s="62"/>
+      <c r="C437" s="63"/>
+      <c r="D437" s="63"/>
+      <c r="E437" s="57" t="s">
         <v>734</v>
       </c>
-      <c r="F437" s="33" t="s">
+      <c r="F437" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G437" s="33" t="s">
+      <c r="G437" s="57" t="s">
         <v>745</v>
       </c>
-      <c r="H437" s="33" t="s">
+      <c r="H437" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I437" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J437" s="14"/>
+      <c r="I437" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J437" s="13"/>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="33">
         <v>419</v>
       </c>
-      <c r="B438" s="57"/>
-      <c r="C438" s="58"/>
-      <c r="D438" s="58"/>
-      <c r="E438" s="33" t="s">
+      <c r="B438" s="62"/>
+      <c r="C438" s="63"/>
+      <c r="D438" s="63"/>
+      <c r="E438" s="57" t="s">
         <v>735</v>
       </c>
-      <c r="F438" s="33" t="s">
+      <c r="F438" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G438" s="33" t="s">
+      <c r="G438" s="57" t="s">
         <v>746</v>
       </c>
-      <c r="H438" s="33" t="s">
+      <c r="H438" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I438" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J438" s="14"/>
+      <c r="I438" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J438" s="13"/>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="33">
         <v>420</v>
       </c>
-      <c r="B439" s="57"/>
-      <c r="C439" s="58"/>
-      <c r="D439" s="58"/>
-      <c r="E439" s="33" t="s">
+      <c r="B439" s="62"/>
+      <c r="C439" s="63"/>
+      <c r="D439" s="63"/>
+      <c r="E439" s="57" t="s">
         <v>736</v>
       </c>
-      <c r="F439" s="33" t="s">
+      <c r="F439" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G439" s="33" t="s">
+      <c r="G439" s="57" t="s">
         <v>747</v>
       </c>
-      <c r="H439" s="33" t="s">
+      <c r="H439" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I439" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J439" s="14"/>
+      <c r="I439" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J439" s="13"/>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="33">
         <v>421</v>
       </c>
-      <c r="B440" s="57"/>
-      <c r="C440" s="58"/>
-      <c r="D440" s="58"/>
-      <c r="E440" s="33" t="s">
+      <c r="B440" s="62"/>
+      <c r="C440" s="63"/>
+      <c r="D440" s="63"/>
+      <c r="E440" s="57" t="s">
         <v>737</v>
       </c>
-      <c r="F440" s="33" t="s">
+      <c r="F440" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G440" s="33" t="s">
+      <c r="G440" s="57" t="s">
         <v>748</v>
       </c>
-      <c r="H440" s="33" t="s">
+      <c r="H440" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I440" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J440" s="14"/>
+      <c r="I440" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J440" s="13"/>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="33">
         <v>422</v>
       </c>
-      <c r="B441" s="57"/>
-      <c r="C441" s="58"/>
-      <c r="D441" s="58"/>
-      <c r="E441" s="33" t="s">
+      <c r="B441" s="62"/>
+      <c r="C441" s="63"/>
+      <c r="D441" s="63"/>
+      <c r="E441" s="57" t="s">
         <v>738</v>
       </c>
-      <c r="F441" s="33" t="s">
+      <c r="F441" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="G441" s="33" t="s">
+      <c r="G441" s="57" t="s">
         <v>749</v>
       </c>
-      <c r="H441" s="33" t="s">
+      <c r="H441" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="I441" s="33" t="s">
-        <v>526</v>
-      </c>
-      <c r="J441" s="14"/>
+      <c r="I441" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="J441" s="13"/>
     </row>
     <row r="442" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="59" t="s">
-        <v>750</v>
-      </c>
-      <c r="B442" s="59"/>
-      <c r="C442" s="59"/>
-      <c r="D442" s="59"/>
-      <c r="E442" s="59"/>
-      <c r="F442" s="59"/>
-      <c r="G442" s="59"/>
-      <c r="H442" s="59"/>
-      <c r="I442" s="59"/>
-      <c r="J442" s="59"/>
+      <c r="A442" s="82" t="s">
+        <v>773</v>
+      </c>
+      <c r="B442" s="82"/>
+      <c r="C442" s="82"/>
+      <c r="D442" s="82"/>
+      <c r="E442" s="82"/>
+      <c r="F442" s="82"/>
+      <c r="G442" s="82"/>
+      <c r="H442" s="82"/>
+      <c r="I442" s="82"/>
+      <c r="J442" s="82"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="33"/>
@@ -19782,11 +19853,11 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="5"/>
-      <c r="B456" s="67" t="s">
+      <c r="B456" s="77" t="s">
         <v>507</v>
       </c>
-      <c r="C456" s="68"/>
-      <c r="D456" s="69"/>
+      <c r="C456" s="78"/>
+      <c r="D456" s="79"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
@@ -19797,11 +19868,11 @@
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" s="5"/>
       <c r="B457" s="25" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C457" s="25"/>
       <c r="D457" s="25" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E457" s="48"/>
       <c r="F457" s="49"/>
@@ -19874,6 +19945,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="G348:G352"/>
+    <mergeCell ref="A353:J353"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="B328:B352"/>
+    <mergeCell ref="C328:C339"/>
+    <mergeCell ref="D328:D339"/>
+    <mergeCell ref="D340:D347"/>
+    <mergeCell ref="C340:C347"/>
+    <mergeCell ref="B456:D456"/>
+    <mergeCell ref="C354:C371"/>
+    <mergeCell ref="D354:D371"/>
+    <mergeCell ref="B354:B371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A379:J379"/>
+    <mergeCell ref="D373:D378"/>
+    <mergeCell ref="C373:C378"/>
+    <mergeCell ref="B373:B378"/>
+    <mergeCell ref="D380:D403"/>
+    <mergeCell ref="C380:C403"/>
+    <mergeCell ref="B380:B403"/>
+    <mergeCell ref="A404:J404"/>
+    <mergeCell ref="B405:B428"/>
+    <mergeCell ref="C405:C428"/>
+    <mergeCell ref="D405:D428"/>
+    <mergeCell ref="A429:J429"/>
+    <mergeCell ref="D430:D441"/>
+    <mergeCell ref="C430:C441"/>
+    <mergeCell ref="B430:B441"/>
+    <mergeCell ref="A442:J442"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="E348:E352"/>
+    <mergeCell ref="D133:D148"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="A151:J151"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B127:B148"/>
+    <mergeCell ref="A180:J180"/>
+    <mergeCell ref="B181:B194"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="A195:J195"/>
+    <mergeCell ref="B152:B164"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A165:J165"/>
+    <mergeCell ref="F348:F352"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D2:D32"/>
+    <mergeCell ref="B166:B179"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D166:D174"/>
+    <mergeCell ref="C166:C174"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="B211:B224"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="C211:C219"/>
+    <mergeCell ref="D308:D312"/>
+    <mergeCell ref="A288:J288"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="C295:C299"/>
+    <mergeCell ref="D295:D299"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B276:B287"/>
+    <mergeCell ref="D282:D286"/>
     <mergeCell ref="A327:J327"/>
     <mergeCell ref="D238:D260"/>
     <mergeCell ref="C238:C260"/>
@@ -19898,127 +20090,6 @@
     <mergeCell ref="C302:C307"/>
     <mergeCell ref="D302:D307"/>
     <mergeCell ref="C308:C312"/>
-    <mergeCell ref="D308:D312"/>
-    <mergeCell ref="A288:J288"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="C295:C299"/>
-    <mergeCell ref="D295:D299"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B276:B287"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A237:J237"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="B196:B209"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="B211:B224"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="C211:C219"/>
-    <mergeCell ref="B166:B179"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D152:D159"/>
-    <mergeCell ref="C152:C159"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="C166:C174"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="C181:C189"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="B2:B39"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B91:B101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D2:D32"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C127:C132"/>
-    <mergeCell ref="D127:D132"/>
-    <mergeCell ref="E348:E352"/>
-    <mergeCell ref="D133:D148"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="A151:J151"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B127:B148"/>
-    <mergeCell ref="A180:J180"/>
-    <mergeCell ref="B181:B194"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="A195:J195"/>
-    <mergeCell ref="B152:B164"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A165:J165"/>
-    <mergeCell ref="F348:F352"/>
-    <mergeCell ref="B456:D456"/>
-    <mergeCell ref="C354:C371"/>
-    <mergeCell ref="D354:D371"/>
-    <mergeCell ref="B354:B371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A379:J379"/>
-    <mergeCell ref="D373:D378"/>
-    <mergeCell ref="C373:C378"/>
-    <mergeCell ref="B373:B378"/>
-    <mergeCell ref="D380:D403"/>
-    <mergeCell ref="C380:C403"/>
-    <mergeCell ref="B380:B403"/>
-    <mergeCell ref="A404:J404"/>
-    <mergeCell ref="B405:B428"/>
-    <mergeCell ref="C405:C428"/>
-    <mergeCell ref="D405:D428"/>
-    <mergeCell ref="A429:J429"/>
-    <mergeCell ref="D430:D441"/>
-    <mergeCell ref="C430:C441"/>
-    <mergeCell ref="B430:B441"/>
-    <mergeCell ref="A442:J442"/>
-    <mergeCell ref="G348:G352"/>
-    <mergeCell ref="A353:J353"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="B328:B352"/>
-    <mergeCell ref="C328:C339"/>
-    <mergeCell ref="D328:D339"/>
-    <mergeCell ref="D340:D347"/>
-    <mergeCell ref="C340:C347"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -20046,18 +20117,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="85"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -20373,28 +20444,28 @@
         <v>626</v>
       </c>
       <c r="C1" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1" s="51" t="s">
         <v>753</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>754</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>755</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="58" t="s">
         <v>756</v>
       </c>
-      <c r="G1" s="86" t="s">
-        <v>757</v>
-      </c>
-      <c r="H1" s="86"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -20408,8 +20479,8 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="87" t="s">
-        <v>759</v>
+      <c r="G2" s="59" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -20417,7 +20488,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C3" s="1">
         <v>4.7</v>
@@ -20432,7 +20503,7 @@
         <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -20440,7 +20511,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C4" s="1">
         <v>7</v>
@@ -20455,7 +20526,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -20463,7 +20534,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C5" s="1">
         <v>11.7</v>
@@ -20483,7 +20554,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C6" s="1">
         <v>14</v>
@@ -20503,7 +20574,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C7" s="1">
         <v>18.7</v>
@@ -20523,7 +20594,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C8" s="1">
         <v>21</v>
@@ -20543,18 +20614,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C9" s="88">
+        <v>767</v>
+      </c>
+      <c r="C9" s="60">
         <v>25.7</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="60">
         <v>20.8</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="60">
         <v>14.6</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="60">
         <v>124</v>
       </c>
     </row>
@@ -20563,28 +20634,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C10" s="59">
+        <v>29.4</v>
+      </c>
+      <c r="D10" s="60">
+        <v>20.8</v>
+      </c>
+      <c r="E10" s="59">
+        <v>14.7</v>
+      </c>
+      <c r="F10" s="59">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
         <v>769</v>
       </c>
-      <c r="C10" s="87">
-        <v>29.4</v>
-      </c>
-      <c r="D10" s="88">
-        <v>20.8</v>
-      </c>
-      <c r="E10" s="87">
-        <v>14.7</v>
-      </c>
-      <c r="F10" s="87">
-        <v>90</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>770</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>771</v>
-      </c>
-      <c r="I10" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -20620,11 +20691,11 @@
       <c r="A1" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="83" t="s">
         <v>625</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
@@ -20769,11 +20840,11 @@
       <c r="A12" t="s">
         <v>642</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="83" t="s">
         <v>625</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
@@ -20948,30 +21019,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="82" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="86" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82" t="s">
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86" t="s">
         <v>569</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -21928,30 +21999,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="87" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="83" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="87" t="s">
         <v>620</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="82" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="86" t="s">
         <v>619</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -22874,30 +22945,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="87" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="83" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="87" t="s">
         <v>621</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="82" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="86" t="s">
         <v>622</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -23820,30 +23891,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="83" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="83" t="s">
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="87" t="s">
         <v>623</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="82" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="86" t="s">
         <v>624</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -24758,18 +24829,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="85"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -25085,18 +25156,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="86"/>
+      <c r="E1" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="87" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="85"/>
+      <c r="H1" s="89"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="780">
   <si>
     <t>Test Türü</t>
   </si>
@@ -2599,6 +2599,15 @@
   </si>
   <si>
     <t>3.5V peak (all)</t>
+  </si>
+  <si>
+    <t>PWM sinyali düzgün değil</t>
+  </si>
+  <si>
+    <t>Entegre söküldü</t>
+  </si>
+  <si>
+    <t>Bozuk-problem anlaşılmadı</t>
   </si>
 </sst>
 </file>
@@ -2976,13 +2985,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2994,14 +3009,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3020,27 +3047,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3063,7 +3069,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8702,21 +8711,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J461"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J408" sqref="J408"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E333" sqref="E333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="31" style="6" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="6" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="6" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="6" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.42578125" style="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -8757,13 +8766,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -8787,9 +8796,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="10" t="s">
         <v>509</v>
       </c>
@@ -8811,9 +8820,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="10" t="s">
         <v>510</v>
       </c>
@@ -8835,9 +8844,9 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="10" t="s">
         <v>404</v>
       </c>
@@ -8859,9 +8868,9 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="10" t="s">
         <v>405</v>
       </c>
@@ -8883,9 +8892,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="68"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="10" t="s">
         <v>406</v>
       </c>
@@ -8907,9 +8916,9 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -8931,9 +8940,9 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="68"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="10" t="s">
         <v>407</v>
       </c>
@@ -8955,9 +8964,9 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="68"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="10" t="s">
         <v>408</v>
       </c>
@@ -8979,9 +8988,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="10" t="s">
         <v>409</v>
       </c>
@@ -9003,9 +9012,9 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="68"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="10" t="s">
         <v>410</v>
       </c>
@@ -9027,9 +9036,9 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="68"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="10" t="s">
         <v>421</v>
       </c>
@@ -9051,9 +9060,9 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="68"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="10" t="s">
         <v>411</v>
       </c>
@@ -9075,9 +9084,9 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="68"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="10" t="s">
         <v>412</v>
       </c>
@@ -9099,9 +9108,9 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="68"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="10" t="s">
         <v>422</v>
       </c>
@@ -9123,9 +9132,9 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="10" t="s">
         <v>413</v>
       </c>
@@ -9147,9 +9156,9 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="68"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="10" t="s">
         <v>414</v>
       </c>
@@ -9171,9 +9180,9 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="68"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="10" t="s">
         <v>415</v>
       </c>
@@ -9195,9 +9204,9 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="68"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="10" t="s">
         <v>416</v>
       </c>
@@ -9219,9 +9228,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="10" t="s">
         <v>417</v>
       </c>
@@ -9243,9 +9252,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="68"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="10" t="s">
         <v>418</v>
       </c>
@@ -9267,9 +9276,9 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="68"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="10" t="s">
         <v>419</v>
       </c>
@@ -9291,9 +9300,9 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="68"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="10" t="s">
         <v>423</v>
       </c>
@@ -9315,9 +9324,9 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="68"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="10" t="s">
         <v>424</v>
       </c>
@@ -9339,9 +9348,9 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="68"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="10" t="s">
         <v>425</v>
       </c>
@@ -9363,9 +9372,9 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="68"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="10" t="s">
         <v>426</v>
       </c>
@@ -9387,9 +9396,9 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="68"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="10" t="s">
         <v>427</v>
       </c>
@@ -9411,9 +9420,9 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="68"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="10" t="s">
         <v>428</v>
       </c>
@@ -9435,9 +9444,9 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="68"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="10" t="s">
         <v>429</v>
       </c>
@@ -9459,9 +9468,9 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="68"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="10" t="s">
         <v>430</v>
       </c>
@@ -9483,9 +9492,9 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="10" t="s">
         <v>431</v>
       </c>
@@ -9507,11 +9516,11 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63" t="s">
+      <c r="B33" s="73"/>
+      <c r="C33" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="62" t="s">
+      <c r="D33" s="73" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -9535,9 +9544,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="62"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
       <c r="E34" s="29" t="s">
         <v>22</v>
       </c>
@@ -9561,9 +9570,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="62"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="29" t="s">
         <v>23</v>
       </c>
@@ -9587,8 +9596,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="29" t="s">
         <v>63</v>
       </c>
@@ -9613,7 +9622,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="62"/>
+      <c r="B37" s="73"/>
       <c r="C37" s="11" t="s">
         <v>118</v>
       </c>
@@ -9643,7 +9652,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="73"/>
       <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
@@ -9673,7 +9682,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="73"/>
       <c r="C39" s="29" t="s">
         <v>57</v>
       </c>
@@ -9700,30 +9709,30 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="76"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="73" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -9747,9 +9756,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -9771,9 +9780,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="63"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -9795,9 +9804,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -9819,9 +9828,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="62"/>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -9843,9 +9852,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -9867,9 +9876,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -9891,9 +9900,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -9915,11 +9924,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="63" t="s">
+      <c r="B49" s="73"/>
+      <c r="C49" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="62" t="s">
+      <c r="D49" s="73" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -9943,9 +9952,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -9967,9 +9976,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="63"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -9991,9 +10000,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
+      <c r="B52" s="73"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -10015,13 +10024,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="62" t="s">
+      <c r="B53" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="73" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -10045,9 +10054,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="63"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -10069,9 +10078,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -10093,9 +10102,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -10117,9 +10126,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -10141,9 +10150,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="63"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -10165,9 +10174,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -10189,9 +10198,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="63"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -10213,11 +10222,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="63" t="s">
+      <c r="B61" s="73"/>
+      <c r="C61" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="63" t="s">
+      <c r="D61" s="72" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -10241,9 +10250,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
+      <c r="B62" s="73"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -10265,9 +10274,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="62"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -10289,9 +10298,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
+      <c r="B64" s="73"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -10310,30 +10319,30 @@
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="76" t="s">
+      <c r="A65" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="76"/>
-      <c r="C65" s="76"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="63" t="s">
+      <c r="B66" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="67" t="s">
+      <c r="D66" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -10357,9 +10366,9 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="68"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="63"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
       </c>
@@ -10381,9 +10390,9 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="68"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="63"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
@@ -10405,9 +10414,9 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="68"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
       </c>
@@ -10429,9 +10438,9 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="63"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="68"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="63"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
       </c>
@@ -10453,9 +10462,9 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="68"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="63"/>
       <c r="E71" s="10" t="s">
         <v>432</v>
       </c>
@@ -10477,9 +10486,9 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="69"/>
+      <c r="B72" s="72"/>
+      <c r="C72" s="68"/>
+      <c r="D72" s="64"/>
       <c r="E72" s="10" t="s">
         <v>433</v>
       </c>
@@ -10501,8 +10510,8 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64" t="s">
+      <c r="B73" s="72"/>
+      <c r="C73" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -10531,8 +10540,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="66"/>
+      <c r="B74" s="72"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
@@ -10559,7 +10568,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="63"/>
+      <c r="B75" s="72"/>
       <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
@@ -10589,7 +10598,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="63"/>
+      <c r="B76" s="72"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -10619,7 +10628,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="63"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -10646,30 +10655,30 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="76" t="s">
+      <c r="A78" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="76"/>
-      <c r="C78" s="76"/>
-      <c r="D78" s="76"/>
-      <c r="E78" s="76"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="76"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="63" t="s">
+      <c r="B79" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -10693,9 +10702,9 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="63"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="68"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="63"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
       </c>
@@ -10717,9 +10726,9 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="68"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="63"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
       </c>
@@ -10741,9 +10750,9 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="63"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="68"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="10" t="s">
         <v>434</v>
       </c>
@@ -10765,9 +10774,9 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="68"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="63"/>
       <c r="E83" s="10" t="s">
         <v>435</v>
       </c>
@@ -10789,9 +10798,9 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="69"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="64"/>
       <c r="E84" s="10" t="s">
         <v>436</v>
       </c>
@@ -10813,8 +10822,8 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="64" t="s">
+      <c r="B85" s="72"/>
+      <c r="C85" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -10843,8 +10852,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="66"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="68"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
@@ -10871,7 +10880,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="63"/>
+      <c r="B87" s="72"/>
       <c r="C87" s="11" t="s">
         <v>118</v>
       </c>
@@ -10901,7 +10910,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="63"/>
+      <c r="B88" s="72"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -10931,7 +10940,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="63"/>
+      <c r="B89" s="72"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -10958,30 +10967,30 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="76" t="s">
+      <c r="A90" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="76"/>
-      <c r="C90" s="76"/>
-      <c r="D90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="F90" s="76"/>
-      <c r="G90" s="76"/>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="76"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="63" t="s">
+      <c r="B91" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="67" t="s">
+      <c r="D91" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -11005,9 +11014,9 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="68"/>
+      <c r="B92" s="72"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="63"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
       </c>
@@ -11029,9 +11038,9 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="63"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="68"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="63"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
@@ -11053,9 +11062,9 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="63"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="68"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="63"/>
       <c r="E94" s="10" t="s">
         <v>437</v>
       </c>
@@ -11077,9 +11086,9 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="68"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="63"/>
       <c r="E95" s="10" t="s">
         <v>438</v>
       </c>
@@ -11101,9 +11110,9 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="63"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="69"/>
+      <c r="B96" s="72"/>
+      <c r="C96" s="68"/>
+      <c r="D96" s="64"/>
       <c r="E96" s="10" t="s">
         <v>439</v>
       </c>
@@ -11125,8 +11134,8 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="63"/>
-      <c r="C97" s="64" t="s">
+      <c r="B97" s="72"/>
+      <c r="C97" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -11155,8 +11164,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="63"/>
-      <c r="C98" s="66"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="68"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
       </c>
@@ -11183,7 +11192,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="63"/>
+      <c r="B99" s="72"/>
       <c r="C99" s="11" t="s">
         <v>118</v>
       </c>
@@ -11213,7 +11222,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="63"/>
+      <c r="B100" s="72"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -11243,7 +11252,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="63"/>
+      <c r="B101" s="72"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -11270,30 +11279,30 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="76" t="s">
+      <c r="A102" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="76"/>
-      <c r="C102" s="76"/>
-      <c r="D102" s="76"/>
-      <c r="E102" s="76"/>
-      <c r="F102" s="76"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="76"/>
-      <c r="I102" s="76"/>
-      <c r="J102" s="76"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="63" t="s">
+      <c r="B103" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="67" t="s">
+      <c r="D103" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -11317,9 +11326,9 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="63"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="68"/>
+      <c r="B104" s="72"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="63"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
       </c>
@@ -11341,9 +11350,9 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="63"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="68"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="63"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
       </c>
@@ -11365,9 +11374,9 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="63"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="68"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="63"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
       </c>
@@ -11389,9 +11398,9 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="68"/>
+      <c r="B107" s="72"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="63"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
       </c>
@@ -11413,9 +11422,9 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="68"/>
+      <c r="B108" s="72"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="63"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
@@ -11437,9 +11446,9 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="63"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="68"/>
+      <c r="B109" s="72"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="63"/>
       <c r="E109" s="10" t="s">
         <v>440</v>
       </c>
@@ -11461,9 +11470,9 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="63"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="69"/>
+      <c r="B110" s="72"/>
+      <c r="C110" s="68"/>
+      <c r="D110" s="64"/>
       <c r="E110" s="10" t="s">
         <v>441</v>
       </c>
@@ -11485,8 +11494,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="63"/>
-      <c r="C111" s="63" t="s">
+      <c r="B111" s="72"/>
+      <c r="C111" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -11515,8 +11524,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="63"/>
-      <c r="C112" s="63"/>
+      <c r="B112" s="72"/>
+      <c r="C112" s="72"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -11543,8 +11552,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -11569,7 +11578,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="63"/>
+      <c r="B114" s="72"/>
       <c r="C114" s="11" t="s">
         <v>118</v>
       </c>
@@ -11596,30 +11605,30 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="76" t="s">
+      <c r="A115" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="76"/>
-      <c r="C115" s="76"/>
-      <c r="D115" s="76"/>
-      <c r="E115" s="76"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
-      <c r="J115" s="76"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="63" t="s">
+      <c r="B116" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="64" t="s">
+      <c r="C116" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="67" t="s">
+      <c r="D116" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E116" s="12" t="s">
@@ -11643,9 +11652,9 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="63"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="68"/>
+      <c r="B117" s="72"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="63"/>
       <c r="E117" s="12" t="s">
         <v>128</v>
       </c>
@@ -11667,9 +11676,9 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="63"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="68"/>
+      <c r="B118" s="72"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="63"/>
       <c r="E118" s="12" t="s">
         <v>442</v>
       </c>
@@ -11691,9 +11700,9 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="63"/>
-      <c r="C119" s="65"/>
-      <c r="D119" s="68"/>
+      <c r="B119" s="72"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="63"/>
       <c r="E119" s="12" t="s">
         <v>129</v>
       </c>
@@ -11717,9 +11726,9 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="63"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="68"/>
+      <c r="B120" s="72"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="63"/>
       <c r="E120" s="12" t="s">
         <v>443</v>
       </c>
@@ -11741,9 +11750,9 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="63"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="69"/>
+      <c r="B121" s="72"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="64"/>
       <c r="E121" s="12" t="s">
         <v>444</v>
       </c>
@@ -11765,8 +11774,8 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="63"/>
-      <c r="C122" s="64" t="s">
+      <c r="B122" s="72"/>
+      <c r="C122" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="12" t="s">
@@ -11795,8 +11804,8 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="63"/>
-      <c r="C123" s="65"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="67"/>
       <c r="D123" s="12" t="s">
         <v>63</v>
       </c>
@@ -11823,8 +11832,8 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="63"/>
-      <c r="C124" s="66"/>
+      <c r="B124" s="72"/>
+      <c r="C124" s="68"/>
       <c r="D124" s="12" t="s">
         <v>65</v>
       </c>
@@ -11851,7 +11860,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="63"/>
+      <c r="B125" s="72"/>
       <c r="C125" s="12" t="s">
         <v>57</v>
       </c>
@@ -11878,30 +11887,30 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="76" t="s">
+      <c r="A126" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="76"/>
-      <c r="C126" s="76"/>
-      <c r="D126" s="76"/>
-      <c r="E126" s="76"/>
-      <c r="F126" s="76"/>
-      <c r="G126" s="76"/>
-      <c r="H126" s="76"/>
-      <c r="I126" s="76"/>
-      <c r="J126" s="76"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>119</v>
       </c>
-      <c r="B127" s="67" t="s">
+      <c r="B127" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="64" t="s">
+      <c r="C127" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="67" t="s">
+      <c r="D127" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E127" s="23" t="s">
@@ -11925,9 +11934,9 @@
       <c r="A128" s="8">
         <v>120</v>
       </c>
-      <c r="B128" s="68"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="68"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="63"/>
       <c r="E128" s="23" t="s">
         <v>145</v>
       </c>
@@ -11949,9 +11958,9 @@
       <c r="A129" s="8">
         <v>121</v>
       </c>
-      <c r="B129" s="68"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="68"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="63"/>
       <c r="E129" s="23" t="s">
         <v>148</v>
       </c>
@@ -11973,9 +11982,9 @@
       <c r="A130" s="8">
         <v>122</v>
       </c>
-      <c r="B130" s="68"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="68"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="63"/>
       <c r="E130" s="23" t="s">
         <v>445</v>
       </c>
@@ -11997,9 +12006,9 @@
       <c r="A131" s="8">
         <v>123</v>
       </c>
-      <c r="B131" s="68"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="68"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="63"/>
       <c r="E131" s="23" t="s">
         <v>154</v>
       </c>
@@ -12021,9 +12030,9 @@
       <c r="A132" s="8">
         <v>124</v>
       </c>
-      <c r="B132" s="68"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="69"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="68"/>
+      <c r="D132" s="64"/>
       <c r="E132" s="23" t="s">
         <v>446</v>
       </c>
@@ -12045,11 +12054,11 @@
       <c r="A133" s="8">
         <v>125</v>
       </c>
-      <c r="B133" s="68"/>
-      <c r="C133" s="64" t="s">
+      <c r="B133" s="63"/>
+      <c r="C133" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="64" t="s">
+      <c r="D133" s="66" t="s">
         <v>65</v>
       </c>
       <c r="E133" s="23" t="s">
@@ -12075,9 +12084,9 @@
       <c r="A134" s="8">
         <v>126</v>
       </c>
-      <c r="B134" s="68"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="67"/>
       <c r="E134" s="23" t="s">
         <v>145</v>
       </c>
@@ -12101,9 +12110,9 @@
       <c r="A135" s="8">
         <v>127</v>
       </c>
-      <c r="B135" s="68"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
       <c r="E135" s="23" t="s">
         <v>148</v>
       </c>
@@ -12127,9 +12136,9 @@
       <c r="A136" s="8">
         <v>128</v>
       </c>
-      <c r="B136" s="68"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="67"/>
       <c r="E136" s="23" t="s">
         <v>154</v>
       </c>
@@ -12153,9 +12162,9 @@
       <c r="A137" s="8">
         <v>129</v>
       </c>
-      <c r="B137" s="68"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="65"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="67"/>
       <c r="E137" s="23" t="s">
         <v>446</v>
       </c>
@@ -12179,9 +12188,9 @@
       <c r="A138" s="8">
         <v>130</v>
       </c>
-      <c r="B138" s="68"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
+      <c r="B138" s="63"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="67"/>
       <c r="E138" s="23" t="s">
         <v>447</v>
       </c>
@@ -12205,9 +12214,9 @@
       <c r="A139" s="8">
         <v>131</v>
       </c>
-      <c r="B139" s="68"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67"/>
       <c r="E139" s="23" t="s">
         <v>157</v>
       </c>
@@ -12231,9 +12240,9 @@
       <c r="A140" s="8">
         <v>132</v>
       </c>
-      <c r="B140" s="68"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="65"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="67"/>
       <c r="E140" s="23" t="s">
         <v>162</v>
       </c>
@@ -12257,9 +12266,9 @@
       <c r="A141" s="8">
         <v>133</v>
       </c>
-      <c r="B141" s="68"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="67"/>
       <c r="E141" s="23" t="s">
         <v>160</v>
       </c>
@@ -12283,9 +12292,9 @@
       <c r="A142" s="8">
         <v>134</v>
       </c>
-      <c r="B142" s="68"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
+      <c r="B142" s="63"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="67"/>
       <c r="E142" s="23" t="s">
         <v>165</v>
       </c>
@@ -12309,9 +12318,9 @@
       <c r="A143" s="8">
         <v>135</v>
       </c>
-      <c r="B143" s="68"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="65"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="67"/>
       <c r="E143" s="22" t="s">
         <v>186</v>
       </c>
@@ -12335,9 +12344,9 @@
       <c r="A144" s="8">
         <v>136</v>
       </c>
-      <c r="B144" s="68"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
+      <c r="B144" s="63"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="67"/>
       <c r="E144" s="22" t="s">
         <v>186</v>
       </c>
@@ -12361,9 +12370,9 @@
       <c r="A145" s="8">
         <v>137</v>
       </c>
-      <c r="B145" s="68"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="65"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="67"/>
       <c r="E145" s="23" t="s">
         <v>187</v>
       </c>
@@ -12387,9 +12396,9 @@
       <c r="A146" s="8">
         <v>138</v>
       </c>
-      <c r="B146" s="68"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="65"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="67"/>
       <c r="E146" s="23" t="s">
         <v>187</v>
       </c>
@@ -12413,9 +12422,9 @@
       <c r="A147" s="8">
         <v>139</v>
       </c>
-      <c r="B147" s="68"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="65"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="67"/>
       <c r="E147" s="23" t="s">
         <v>188</v>
       </c>
@@ -12439,9 +12448,9 @@
       <c r="A148" s="8">
         <v>140</v>
       </c>
-      <c r="B148" s="69"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="66"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="68"/>
+      <c r="D148" s="68"/>
       <c r="E148" s="23" t="s">
         <v>188</v>
       </c>
@@ -12520,30 +12529,30 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="76" t="s">
+      <c r="A151" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="76"/>
-      <c r="C151" s="76"/>
-      <c r="D151" s="76"/>
-      <c r="E151" s="76"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="76"/>
-      <c r="H151" s="76"/>
-      <c r="I151" s="76"/>
-      <c r="J151" s="76"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="65"/>
+      <c r="J151" s="65"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="64" t="s">
+      <c r="B152" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="64" t="s">
+      <c r="C152" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="67" t="s">
+      <c r="D152" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E152" s="26" t="s">
@@ -12567,9 +12576,9 @@
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="65"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="68"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="63"/>
       <c r="E153" s="26" t="s">
         <v>191</v>
       </c>
@@ -12591,9 +12600,9 @@
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="65"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="68"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="26" t="s">
         <v>192</v>
       </c>
@@ -12615,9 +12624,9 @@
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="68"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="63"/>
       <c r="E155" s="26" t="s">
         <v>193</v>
       </c>
@@ -12639,9 +12648,9 @@
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="65"/>
-      <c r="C156" s="65"/>
-      <c r="D156" s="68"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="63"/>
       <c r="E156" s="26" t="s">
         <v>194</v>
       </c>
@@ -12663,9 +12672,9 @@
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="68"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="63"/>
       <c r="E157" s="26" t="s">
         <v>448</v>
       </c>
@@ -12687,9 +12696,9 @@
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="65"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="68"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="63"/>
       <c r="E158" s="26" t="s">
         <v>449</v>
       </c>
@@ -12711,9 +12720,9 @@
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="65"/>
-      <c r="C159" s="66"/>
-      <c r="D159" s="69"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="64"/>
       <c r="E159" s="26" t="s">
         <v>450</v>
       </c>
@@ -12735,8 +12744,8 @@
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="65"/>
-      <c r="C160" s="64" t="s">
+      <c r="B160" s="67"/>
+      <c r="C160" s="66" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="26" t="s">
@@ -12765,8 +12774,8 @@
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="65"/>
-      <c r="C161" s="66"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="68"/>
       <c r="D161" s="26" t="s">
         <v>63</v>
       </c>
@@ -12793,7 +12802,7 @@
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="65"/>
+      <c r="B162" s="67"/>
       <c r="C162" s="29" t="s">
         <v>118</v>
       </c>
@@ -12821,7 +12830,7 @@
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="65"/>
+      <c r="B163" s="67"/>
       <c r="C163" s="28" t="s">
         <v>12</v>
       </c>
@@ -12851,7 +12860,7 @@
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="66"/>
+      <c r="B164" s="68"/>
       <c r="C164" s="28" t="s">
         <v>57</v>
       </c>
@@ -12878,30 +12887,30 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="76" t="s">
+      <c r="A165" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="76"/>
-      <c r="C165" s="76"/>
-      <c r="D165" s="76"/>
-      <c r="E165" s="76"/>
-      <c r="F165" s="76"/>
-      <c r="G165" s="76"/>
-      <c r="H165" s="76"/>
-      <c r="I165" s="76"/>
-      <c r="J165" s="76"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="65"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="65"/>
+      <c r="G165" s="65"/>
+      <c r="H165" s="65"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="65"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="63" t="s">
+      <c r="B166" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="64" t="s">
+      <c r="C166" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="67" t="s">
+      <c r="D166" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E166" s="28" t="s">
@@ -12925,9 +12934,9 @@
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="63"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="68"/>
+      <c r="B167" s="72"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="63"/>
       <c r="E167" s="28" t="s">
         <v>205</v>
       </c>
@@ -12949,9 +12958,9 @@
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="63"/>
-      <c r="C168" s="65"/>
-      <c r="D168" s="68"/>
+      <c r="B168" s="72"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="63"/>
       <c r="E168" s="28" t="s">
         <v>206</v>
       </c>
@@ -12973,9 +12982,9 @@
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="63"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="68"/>
+      <c r="B169" s="72"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="63"/>
       <c r="E169" s="28" t="s">
         <v>207</v>
       </c>
@@ -12997,9 +13006,9 @@
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="63"/>
-      <c r="C170" s="65"/>
-      <c r="D170" s="68"/>
+      <c r="B170" s="72"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="63"/>
       <c r="E170" s="28" t="s">
         <v>208</v>
       </c>
@@ -13021,9 +13030,9 @@
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="63"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="68"/>
+      <c r="B171" s="72"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="63"/>
       <c r="E171" s="28" t="s">
         <v>209</v>
       </c>
@@ -13045,9 +13054,9 @@
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="63"/>
-      <c r="C172" s="65"/>
-      <c r="D172" s="68"/>
+      <c r="B172" s="72"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="63"/>
       <c r="E172" s="28" t="s">
         <v>451</v>
       </c>
@@ -13069,9 +13078,9 @@
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="63"/>
-      <c r="C173" s="65"/>
-      <c r="D173" s="68"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="63"/>
       <c r="E173" s="28" t="s">
         <v>452</v>
       </c>
@@ -13093,9 +13102,9 @@
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="63"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="69"/>
+      <c r="B174" s="72"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="64"/>
       <c r="E174" s="28" t="s">
         <v>453</v>
       </c>
@@ -13117,8 +13126,8 @@
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="63"/>
-      <c r="C175" s="63" t="s">
+      <c r="B175" s="72"/>
+      <c r="C175" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="28" t="s">
@@ -13147,8 +13156,8 @@
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="63"/>
-      <c r="C176" s="63"/>
+      <c r="B176" s="72"/>
+      <c r="C176" s="72"/>
       <c r="D176" s="28" t="s">
         <v>63</v>
       </c>
@@ -13175,7 +13184,7 @@
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="63"/>
+      <c r="B177" s="72"/>
       <c r="C177" s="28" t="s">
         <v>118</v>
       </c>
@@ -13203,7 +13212,7 @@
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="63"/>
+      <c r="B178" s="72"/>
       <c r="C178" s="28" t="s">
         <v>12</v>
       </c>
@@ -13233,7 +13242,7 @@
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="63"/>
+      <c r="B179" s="72"/>
       <c r="C179" s="28" t="s">
         <v>57</v>
       </c>
@@ -13260,30 +13269,30 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="76" t="s">
+      <c r="A180" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="76"/>
-      <c r="C180" s="76"/>
-      <c r="D180" s="76"/>
-      <c r="E180" s="76"/>
-      <c r="F180" s="76"/>
-      <c r="G180" s="76"/>
-      <c r="H180" s="76"/>
-      <c r="I180" s="76"/>
-      <c r="J180" s="76"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="65"/>
+      <c r="D180" s="65"/>
+      <c r="E180" s="65"/>
+      <c r="F180" s="65"/>
+      <c r="G180" s="65"/>
+      <c r="H180" s="65"/>
+      <c r="I180" s="65"/>
+      <c r="J180" s="65"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="63" t="s">
+      <c r="B181" s="72" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="64" t="s">
+      <c r="C181" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="67" t="s">
+      <c r="D181" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E181" s="28" t="s">
@@ -13307,9 +13316,9 @@
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="63"/>
-      <c r="C182" s="65"/>
-      <c r="D182" s="68"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="63"/>
       <c r="E182" s="28" t="s">
         <v>226</v>
       </c>
@@ -13331,9 +13340,9 @@
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="63"/>
-      <c r="C183" s="65"/>
-      <c r="D183" s="68"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="67"/>
+      <c r="D183" s="63"/>
       <c r="E183" s="28" t="s">
         <v>227</v>
       </c>
@@ -13355,9 +13364,9 @@
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="63"/>
-      <c r="C184" s="65"/>
-      <c r="D184" s="68"/>
+      <c r="B184" s="72"/>
+      <c r="C184" s="67"/>
+      <c r="D184" s="63"/>
       <c r="E184" s="28" t="s">
         <v>229</v>
       </c>
@@ -13379,9 +13388,9 @@
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="63"/>
-      <c r="C185" s="65"/>
-      <c r="D185" s="68"/>
+      <c r="B185" s="72"/>
+      <c r="C185" s="67"/>
+      <c r="D185" s="63"/>
       <c r="E185" s="28" t="s">
         <v>228</v>
       </c>
@@ -13403,9 +13412,9 @@
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="63"/>
-      <c r="C186" s="65"/>
-      <c r="D186" s="68"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="67"/>
+      <c r="D186" s="63"/>
       <c r="E186" s="28" t="s">
         <v>230</v>
       </c>
@@ -13427,9 +13436,9 @@
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="63"/>
-      <c r="C187" s="65"/>
-      <c r="D187" s="68"/>
+      <c r="B187" s="72"/>
+      <c r="C187" s="67"/>
+      <c r="D187" s="63"/>
       <c r="E187" s="28" t="s">
         <v>454</v>
       </c>
@@ -13451,9 +13460,9 @@
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="63"/>
-      <c r="C188" s="65"/>
-      <c r="D188" s="68"/>
+      <c r="B188" s="72"/>
+      <c r="C188" s="67"/>
+      <c r="D188" s="63"/>
       <c r="E188" s="28" t="s">
         <v>455</v>
       </c>
@@ -13475,9 +13484,9 @@
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="63"/>
-      <c r="C189" s="66"/>
-      <c r="D189" s="69"/>
+      <c r="B189" s="72"/>
+      <c r="C189" s="68"/>
+      <c r="D189" s="64"/>
       <c r="E189" s="28" t="s">
         <v>456</v>
       </c>
@@ -13499,8 +13508,8 @@
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="63"/>
-      <c r="C190" s="63" t="s">
+      <c r="B190" s="72"/>
+      <c r="C190" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="28" t="s">
@@ -13529,8 +13538,8 @@
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="63"/>
-      <c r="C191" s="63"/>
+      <c r="B191" s="72"/>
+      <c r="C191" s="72"/>
       <c r="D191" s="28" t="s">
         <v>63</v>
       </c>
@@ -13557,7 +13566,7 @@
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="63"/>
+      <c r="B192" s="72"/>
       <c r="C192" s="29" t="s">
         <v>118</v>
       </c>
@@ -13585,7 +13594,7 @@
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="63"/>
+      <c r="B193" s="72"/>
       <c r="C193" s="28" t="s">
         <v>12</v>
       </c>
@@ -13615,7 +13624,7 @@
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="63"/>
+      <c r="B194" s="72"/>
       <c r="C194" s="28" t="s">
         <v>57</v>
       </c>
@@ -13642,30 +13651,30 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="76" t="s">
+      <c r="A195" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="76"/>
-      <c r="C195" s="76"/>
-      <c r="D195" s="76"/>
-      <c r="E195" s="76"/>
-      <c r="F195" s="76"/>
-      <c r="G195" s="76"/>
-      <c r="H195" s="76"/>
-      <c r="I195" s="76"/>
-      <c r="J195" s="76"/>
+      <c r="B195" s="65"/>
+      <c r="C195" s="65"/>
+      <c r="D195" s="65"/>
+      <c r="E195" s="65"/>
+      <c r="F195" s="65"/>
+      <c r="G195" s="65"/>
+      <c r="H195" s="65"/>
+      <c r="I195" s="65"/>
+      <c r="J195" s="65"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="63" t="s">
+      <c r="B196" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="C196" s="64" t="s">
+      <c r="C196" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="67" t="s">
+      <c r="D196" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E196" s="28" t="s">
@@ -13689,9 +13698,9 @@
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="63"/>
-      <c r="C197" s="65"/>
-      <c r="D197" s="68"/>
+      <c r="B197" s="72"/>
+      <c r="C197" s="67"/>
+      <c r="D197" s="63"/>
       <c r="E197" s="28" t="s">
         <v>244</v>
       </c>
@@ -13713,9 +13722,9 @@
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="63"/>
-      <c r="C198" s="65"/>
-      <c r="D198" s="68"/>
+      <c r="B198" s="72"/>
+      <c r="C198" s="67"/>
+      <c r="D198" s="63"/>
       <c r="E198" s="28" t="s">
         <v>243</v>
       </c>
@@ -13737,9 +13746,9 @@
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="63"/>
-      <c r="C199" s="65"/>
-      <c r="D199" s="68"/>
+      <c r="B199" s="72"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="63"/>
       <c r="E199" s="28" t="s">
         <v>245</v>
       </c>
@@ -13761,9 +13770,9 @@
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="63"/>
-      <c r="C200" s="65"/>
-      <c r="D200" s="68"/>
+      <c r="B200" s="72"/>
+      <c r="C200" s="67"/>
+      <c r="D200" s="63"/>
       <c r="E200" s="28" t="s">
         <v>242</v>
       </c>
@@ -13785,9 +13794,9 @@
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="63"/>
-      <c r="C201" s="65"/>
-      <c r="D201" s="68"/>
+      <c r="B201" s="72"/>
+      <c r="C201" s="67"/>
+      <c r="D201" s="63"/>
       <c r="E201" s="28" t="s">
         <v>238</v>
       </c>
@@ -13809,9 +13818,9 @@
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="63"/>
-      <c r="C202" s="65"/>
-      <c r="D202" s="68"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="67"/>
+      <c r="D202" s="63"/>
       <c r="E202" s="28" t="s">
         <v>458</v>
       </c>
@@ -13833,9 +13842,9 @@
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="63"/>
-      <c r="C203" s="65"/>
-      <c r="D203" s="68"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="67"/>
+      <c r="D203" s="63"/>
       <c r="E203" s="28" t="s">
         <v>459</v>
       </c>
@@ -13857,9 +13866,9 @@
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="63"/>
-      <c r="C204" s="66"/>
-      <c r="D204" s="69"/>
+      <c r="B204" s="72"/>
+      <c r="C204" s="68"/>
+      <c r="D204" s="64"/>
       <c r="E204" s="28" t="s">
         <v>457</v>
       </c>
@@ -13881,8 +13890,8 @@
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="63"/>
-      <c r="C205" s="63" t="s">
+      <c r="B205" s="72"/>
+      <c r="C205" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -13911,8 +13920,8 @@
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="63"/>
-      <c r="C206" s="63"/>
+      <c r="B206" s="72"/>
+      <c r="C206" s="72"/>
       <c r="D206" s="29" t="s">
         <v>63</v>
       </c>
@@ -13939,7 +13948,7 @@
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="63"/>
+      <c r="B207" s="72"/>
       <c r="C207" s="29" t="s">
         <v>118</v>
       </c>
@@ -13967,7 +13976,7 @@
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="63"/>
+      <c r="B208" s="72"/>
       <c r="C208" s="28" t="s">
         <v>12</v>
       </c>
@@ -13997,7 +14006,7 @@
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="63"/>
+      <c r="B209" s="72"/>
       <c r="C209" s="28" t="s">
         <v>57</v>
       </c>
@@ -14024,30 +14033,30 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="76" t="s">
+      <c r="A210" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="76"/>
-      <c r="C210" s="76"/>
-      <c r="D210" s="76"/>
-      <c r="E210" s="76"/>
-      <c r="F210" s="76"/>
-      <c r="G210" s="76"/>
-      <c r="H210" s="76"/>
-      <c r="I210" s="76"/>
-      <c r="J210" s="76"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="65"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="65"/>
+      <c r="F210" s="65"/>
+      <c r="G210" s="65"/>
+      <c r="H210" s="65"/>
+      <c r="I210" s="65"/>
+      <c r="J210" s="65"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="63" t="s">
+      <c r="B211" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="C211" s="64" t="s">
+      <c r="C211" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="67" t="s">
+      <c r="D211" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E211" s="28" t="s">
@@ -14071,9 +14080,9 @@
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="63"/>
-      <c r="C212" s="65"/>
-      <c r="D212" s="68"/>
+      <c r="B212" s="72"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="63"/>
       <c r="E212" s="28" t="s">
         <v>258</v>
       </c>
@@ -14095,9 +14104,9 @@
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="63"/>
-      <c r="C213" s="65"/>
-      <c r="D213" s="68"/>
+      <c r="B213" s="72"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="63"/>
       <c r="E213" s="28" t="s">
         <v>256</v>
       </c>
@@ -14119,9 +14128,9 @@
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="63"/>
-      <c r="C214" s="65"/>
-      <c r="D214" s="68"/>
+      <c r="B214" s="72"/>
+      <c r="C214" s="67"/>
+      <c r="D214" s="63"/>
       <c r="E214" s="28" t="s">
         <v>259</v>
       </c>
@@ -14143,9 +14152,9 @@
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="63"/>
-      <c r="C215" s="65"/>
-      <c r="D215" s="68"/>
+      <c r="B215" s="72"/>
+      <c r="C215" s="67"/>
+      <c r="D215" s="63"/>
       <c r="E215" s="28" t="s">
         <v>257</v>
       </c>
@@ -14167,9 +14176,9 @@
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="63"/>
-      <c r="C216" s="65"/>
-      <c r="D216" s="68"/>
+      <c r="B216" s="72"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="63"/>
       <c r="E216" s="28" t="s">
         <v>252</v>
       </c>
@@ -14191,9 +14200,9 @@
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="63"/>
-      <c r="C217" s="65"/>
-      <c r="D217" s="68"/>
+      <c r="B217" s="72"/>
+      <c r="C217" s="67"/>
+      <c r="D217" s="63"/>
       <c r="E217" s="28" t="s">
         <v>461</v>
       </c>
@@ -14215,9 +14224,9 @@
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="63"/>
-      <c r="C218" s="65"/>
-      <c r="D218" s="68"/>
+      <c r="B218" s="72"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="63"/>
       <c r="E218" s="28" t="s">
         <v>462</v>
       </c>
@@ -14239,9 +14248,9 @@
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="63"/>
-      <c r="C219" s="66"/>
-      <c r="D219" s="69"/>
+      <c r="B219" s="72"/>
+      <c r="C219" s="68"/>
+      <c r="D219" s="64"/>
       <c r="E219" s="28" t="s">
         <v>460</v>
       </c>
@@ -14263,8 +14272,8 @@
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="63"/>
-      <c r="C220" s="63" t="s">
+      <c r="B220" s="72"/>
+      <c r="C220" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="28" t="s">
@@ -14293,8 +14302,8 @@
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="63"/>
-      <c r="C221" s="63"/>
+      <c r="B221" s="72"/>
+      <c r="C221" s="72"/>
       <c r="D221" s="28" t="s">
         <v>63</v>
       </c>
@@ -14321,7 +14330,7 @@
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="63"/>
+      <c r="B222" s="72"/>
       <c r="C222" s="28" t="s">
         <v>118</v>
       </c>
@@ -14349,7 +14358,7 @@
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="63"/>
+      <c r="B223" s="72"/>
       <c r="C223" s="28" t="s">
         <v>12</v>
       </c>
@@ -14379,7 +14388,7 @@
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="63"/>
+      <c r="B224" s="72"/>
       <c r="C224" s="28" t="s">
         <v>57</v>
       </c>
@@ -14406,30 +14415,30 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="76" t="s">
+      <c r="A225" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="76"/>
-      <c r="C225" s="76"/>
-      <c r="D225" s="76"/>
-      <c r="E225" s="76"/>
-      <c r="F225" s="76"/>
-      <c r="G225" s="76"/>
-      <c r="H225" s="76"/>
-      <c r="I225" s="76"/>
-      <c r="J225" s="76"/>
+      <c r="B225" s="65"/>
+      <c r="C225" s="65"/>
+      <c r="D225" s="65"/>
+      <c r="E225" s="65"/>
+      <c r="F225" s="65"/>
+      <c r="G225" s="65"/>
+      <c r="H225" s="65"/>
+      <c r="I225" s="65"/>
+      <c r="J225" s="65"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="63" t="s">
+      <c r="B226" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="64" t="s">
+      <c r="C226" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="67" t="s">
+      <c r="D226" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E226" s="28" t="s">
@@ -14453,9 +14462,9 @@
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="63"/>
-      <c r="C227" s="65"/>
-      <c r="D227" s="68"/>
+      <c r="B227" s="72"/>
+      <c r="C227" s="67"/>
+      <c r="D227" s="63"/>
       <c r="E227" s="28" t="s">
         <v>263</v>
       </c>
@@ -14477,9 +14486,9 @@
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="63"/>
-      <c r="C228" s="65"/>
-      <c r="D228" s="68"/>
+      <c r="B228" s="72"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="63"/>
       <c r="E228" s="28" t="s">
         <v>264</v>
       </c>
@@ -14501,9 +14510,9 @@
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="63"/>
-      <c r="C229" s="65"/>
-      <c r="D229" s="68"/>
+      <c r="B229" s="72"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="63"/>
       <c r="E229" s="28" t="s">
         <v>267</v>
       </c>
@@ -14525,9 +14534,9 @@
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="63"/>
-      <c r="C230" s="65"/>
-      <c r="D230" s="68"/>
+      <c r="B230" s="72"/>
+      <c r="C230" s="67"/>
+      <c r="D230" s="63"/>
       <c r="E230" s="28" t="s">
         <v>463</v>
       </c>
@@ -14549,9 +14558,9 @@
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="63"/>
-      <c r="C231" s="66"/>
-      <c r="D231" s="69"/>
+      <c r="B231" s="72"/>
+      <c r="C231" s="68"/>
+      <c r="D231" s="64"/>
       <c r="E231" s="28" t="s">
         <v>464</v>
       </c>
@@ -14573,8 +14582,8 @@
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="63"/>
-      <c r="C232" s="63" t="s">
+      <c r="B232" s="72"/>
+      <c r="C232" s="72" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="28" t="s">
@@ -14603,8 +14612,8 @@
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="63"/>
-      <c r="C233" s="63"/>
+      <c r="B233" s="72"/>
+      <c r="C233" s="72"/>
       <c r="D233" s="28" t="s">
         <v>63</v>
       </c>
@@ -14631,7 +14640,7 @@
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="63"/>
+      <c r="B234" s="72"/>
       <c r="C234" s="11" t="s">
         <v>118</v>
       </c>
@@ -14661,7 +14670,7 @@
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="63"/>
+      <c r="B235" s="72"/>
       <c r="C235" s="28" t="s">
         <v>12</v>
       </c>
@@ -14691,7 +14700,7 @@
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="63"/>
+      <c r="B236" s="72"/>
       <c r="C236" s="28" t="s">
         <v>57</v>
       </c>
@@ -14718,30 +14727,30 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="76" t="s">
+      <c r="A237" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="76"/>
-      <c r="C237" s="76"/>
-      <c r="D237" s="76"/>
-      <c r="E237" s="76"/>
-      <c r="F237" s="76"/>
-      <c r="G237" s="76"/>
-      <c r="H237" s="76"/>
-      <c r="I237" s="76"/>
-      <c r="J237" s="76"/>
+      <c r="B237" s="65"/>
+      <c r="C237" s="65"/>
+      <c r="D237" s="65"/>
+      <c r="E237" s="65"/>
+      <c r="F237" s="65"/>
+      <c r="G237" s="65"/>
+      <c r="H237" s="65"/>
+      <c r="I237" s="65"/>
+      <c r="J237" s="65"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="73" t="s">
+      <c r="B238" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="C238" s="63" t="s">
+      <c r="C238" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="62" t="s">
+      <c r="D238" s="73" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="28" t="s">
@@ -14765,9 +14774,9 @@
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="74"/>
-      <c r="C239" s="63"/>
-      <c r="D239" s="62"/>
+      <c r="B239" s="80"/>
+      <c r="C239" s="72"/>
+      <c r="D239" s="73"/>
       <c r="E239" s="28" t="s">
         <v>369</v>
       </c>
@@ -14789,9 +14798,9 @@
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="74"/>
-      <c r="C240" s="63"/>
-      <c r="D240" s="62"/>
+      <c r="B240" s="80"/>
+      <c r="C240" s="72"/>
+      <c r="D240" s="73"/>
       <c r="E240" s="28" t="s">
         <v>392</v>
       </c>
@@ -14813,9 +14822,9 @@
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="74"/>
-      <c r="C241" s="63"/>
-      <c r="D241" s="62"/>
+      <c r="B241" s="80"/>
+      <c r="C241" s="72"/>
+      <c r="D241" s="73"/>
       <c r="E241" s="28" t="s">
         <v>371</v>
       </c>
@@ -14837,9 +14846,9 @@
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="74"/>
-      <c r="C242" s="63"/>
-      <c r="D242" s="62"/>
+      <c r="B242" s="80"/>
+      <c r="C242" s="72"/>
+      <c r="D242" s="73"/>
       <c r="E242" s="28" t="s">
         <v>372</v>
       </c>
@@ -14861,9 +14870,9 @@
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="74"/>
-      <c r="C243" s="63"/>
-      <c r="D243" s="62"/>
+      <c r="B243" s="80"/>
+      <c r="C243" s="72"/>
+      <c r="D243" s="73"/>
       <c r="E243" s="28" t="s">
         <v>373</v>
       </c>
@@ -14885,9 +14894,9 @@
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="74"/>
-      <c r="C244" s="63"/>
-      <c r="D244" s="62"/>
+      <c r="B244" s="80"/>
+      <c r="C244" s="72"/>
+      <c r="D244" s="73"/>
       <c r="E244" s="28" t="s">
         <v>374</v>
       </c>
@@ -14909,9 +14918,9 @@
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="74"/>
-      <c r="C245" s="63"/>
-      <c r="D245" s="62"/>
+      <c r="B245" s="80"/>
+      <c r="C245" s="72"/>
+      <c r="D245" s="73"/>
       <c r="E245" s="28" t="s">
         <v>375</v>
       </c>
@@ -14933,9 +14942,9 @@
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="74"/>
-      <c r="C246" s="63"/>
-      <c r="D246" s="62"/>
+      <c r="B246" s="80"/>
+      <c r="C246" s="72"/>
+      <c r="D246" s="73"/>
       <c r="E246" s="28" t="s">
         <v>376</v>
       </c>
@@ -14957,9 +14966,9 @@
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="74"/>
-      <c r="C247" s="63"/>
-      <c r="D247" s="62"/>
+      <c r="B247" s="80"/>
+      <c r="C247" s="72"/>
+      <c r="D247" s="73"/>
       <c r="E247" s="28" t="s">
         <v>377</v>
       </c>
@@ -14981,9 +14990,9 @@
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="74"/>
-      <c r="C248" s="63"/>
-      <c r="D248" s="62"/>
+      <c r="B248" s="80"/>
+      <c r="C248" s="72"/>
+      <c r="D248" s="73"/>
       <c r="E248" s="28" t="s">
         <v>378</v>
       </c>
@@ -15005,9 +15014,9 @@
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="74"/>
-      <c r="C249" s="63"/>
-      <c r="D249" s="62"/>
+      <c r="B249" s="80"/>
+      <c r="C249" s="72"/>
+      <c r="D249" s="73"/>
       <c r="E249" s="28" t="s">
         <v>379</v>
       </c>
@@ -15029,9 +15038,9 @@
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="74"/>
-      <c r="C250" s="63"/>
-      <c r="D250" s="62"/>
+      <c r="B250" s="80"/>
+      <c r="C250" s="72"/>
+      <c r="D250" s="73"/>
       <c r="E250" s="28" t="s">
         <v>380</v>
       </c>
@@ -15053,9 +15062,9 @@
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="74"/>
-      <c r="C251" s="63"/>
-      <c r="D251" s="62"/>
+      <c r="B251" s="80"/>
+      <c r="C251" s="72"/>
+      <c r="D251" s="73"/>
       <c r="E251" s="28" t="s">
         <v>381</v>
       </c>
@@ -15077,9 +15086,9 @@
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="74"/>
-      <c r="C252" s="63"/>
-      <c r="D252" s="62"/>
+      <c r="B252" s="80"/>
+      <c r="C252" s="72"/>
+      <c r="D252" s="73"/>
       <c r="E252" s="28" t="s">
         <v>382</v>
       </c>
@@ -15101,9 +15110,9 @@
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="74"/>
-      <c r="C253" s="63"/>
-      <c r="D253" s="62"/>
+      <c r="B253" s="80"/>
+      <c r="C253" s="72"/>
+      <c r="D253" s="73"/>
       <c r="E253" s="28" t="s">
         <v>383</v>
       </c>
@@ -15125,9 +15134,9 @@
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="74"/>
-      <c r="C254" s="63"/>
-      <c r="D254" s="62"/>
+      <c r="B254" s="80"/>
+      <c r="C254" s="72"/>
+      <c r="D254" s="73"/>
       <c r="E254" s="28" t="s">
         <v>384</v>
       </c>
@@ -15149,9 +15158,9 @@
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="74"/>
-      <c r="C255" s="63"/>
-      <c r="D255" s="62"/>
+      <c r="B255" s="80"/>
+      <c r="C255" s="72"/>
+      <c r="D255" s="73"/>
       <c r="E255" s="28" t="s">
         <v>385</v>
       </c>
@@ -15173,9 +15182,9 @@
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="74"/>
-      <c r="C256" s="63"/>
-      <c r="D256" s="62"/>
+      <c r="B256" s="80"/>
+      <c r="C256" s="72"/>
+      <c r="D256" s="73"/>
       <c r="E256" s="28" t="s">
         <v>386</v>
       </c>
@@ -15197,9 +15206,9 @@
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="74"/>
-      <c r="C257" s="63"/>
-      <c r="D257" s="62"/>
+      <c r="B257" s="80"/>
+      <c r="C257" s="72"/>
+      <c r="D257" s="73"/>
       <c r="E257" s="28" t="s">
         <v>387</v>
       </c>
@@ -15221,9 +15230,9 @@
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="74"/>
-      <c r="C258" s="63"/>
-      <c r="D258" s="62"/>
+      <c r="B258" s="80"/>
+      <c r="C258" s="72"/>
+      <c r="D258" s="73"/>
       <c r="E258" s="28" t="s">
         <v>388</v>
       </c>
@@ -15245,9 +15254,9 @@
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="74"/>
-      <c r="C259" s="63"/>
-      <c r="D259" s="62"/>
+      <c r="B259" s="80"/>
+      <c r="C259" s="72"/>
+      <c r="D259" s="73"/>
       <c r="E259" s="28" t="s">
         <v>389</v>
       </c>
@@ -15269,9 +15278,9 @@
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="74"/>
-      <c r="C260" s="63"/>
-      <c r="D260" s="62"/>
+      <c r="B260" s="80"/>
+      <c r="C260" s="72"/>
+      <c r="D260" s="73"/>
       <c r="E260" s="28" t="s">
         <v>390</v>
       </c>
@@ -15293,11 +15302,11 @@
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="74"/>
-      <c r="C261" s="70" t="s">
+      <c r="B261" s="80"/>
+      <c r="C261" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="70" t="s">
+      <c r="D261" s="76" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -15321,9 +15330,9 @@
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="74"/>
-      <c r="C262" s="71"/>
-      <c r="D262" s="71"/>
+      <c r="B262" s="80"/>
+      <c r="C262" s="77"/>
+      <c r="D262" s="77"/>
       <c r="E262" s="4" t="s">
         <v>396</v>
       </c>
@@ -15343,16 +15352,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="74"/>
-      <c r="C263" s="71"/>
-      <c r="D263" s="71"/>
+      <c r="B263" s="80"/>
+      <c r="C263" s="77"/>
+      <c r="D263" s="77"/>
       <c r="E263" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F263" s="70" t="s">
+      <c r="F263" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="G263" s="73" t="s">
+      <c r="G263" s="79" t="s">
         <v>399</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -15365,14 +15374,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="74"/>
-      <c r="C264" s="71"/>
-      <c r="D264" s="71"/>
+      <c r="B264" s="80"/>
+      <c r="C264" s="77"/>
+      <c r="D264" s="77"/>
       <c r="E264" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F264" s="71"/>
-      <c r="G264" s="74"/>
+      <c r="F264" s="77"/>
+      <c r="G264" s="80"/>
       <c r="H264" s="4" t="s">
         <v>398</v>
       </c>
@@ -15383,14 +15392,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="74"/>
-      <c r="C265" s="71"/>
-      <c r="D265" s="71"/>
+      <c r="B265" s="80"/>
+      <c r="C265" s="77"/>
+      <c r="D265" s="77"/>
       <c r="E265" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F265" s="71"/>
-      <c r="G265" s="74"/>
+      <c r="F265" s="77"/>
+      <c r="G265" s="80"/>
       <c r="H265" s="4" t="s">
         <v>398</v>
       </c>
@@ -15401,14 +15410,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="74"/>
-      <c r="C266" s="71"/>
-      <c r="D266" s="71"/>
+      <c r="B266" s="80"/>
+      <c r="C266" s="77"/>
+      <c r="D266" s="77"/>
       <c r="E266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F266" s="72"/>
-      <c r="G266" s="75"/>
+      <c r="F266" s="78"/>
+      <c r="G266" s="81"/>
       <c r="H266" s="4" t="s">
         <v>398</v>
       </c>
@@ -15419,16 +15428,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="74"/>
-      <c r="C267" s="71"/>
-      <c r="D267" s="71"/>
+      <c r="B267" s="80"/>
+      <c r="C267" s="77"/>
+      <c r="D267" s="77"/>
       <c r="E267" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F267" s="70" t="s">
+      <c r="F267" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="G267" s="73" t="s">
+      <c r="G267" s="79" t="s">
         <v>402</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -15441,14 +15450,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="74"/>
-      <c r="C268" s="71"/>
-      <c r="D268" s="71"/>
+      <c r="B268" s="80"/>
+      <c r="C268" s="77"/>
+      <c r="D268" s="77"/>
       <c r="E268" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F268" s="71"/>
-      <c r="G268" s="74"/>
+      <c r="F268" s="77"/>
+      <c r="G268" s="80"/>
       <c r="H268" s="4" t="s">
         <v>401</v>
       </c>
@@ -15459,14 +15468,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="74"/>
-      <c r="C269" s="71"/>
-      <c r="D269" s="71"/>
+      <c r="B269" s="80"/>
+      <c r="C269" s="77"/>
+      <c r="D269" s="77"/>
       <c r="E269" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F269" s="71"/>
-      <c r="G269" s="74"/>
+      <c r="F269" s="77"/>
+      <c r="G269" s="80"/>
       <c r="H269" s="4" t="s">
         <v>401</v>
       </c>
@@ -15477,14 +15486,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="74"/>
-      <c r="C270" s="71"/>
-      <c r="D270" s="71"/>
+      <c r="B270" s="80"/>
+      <c r="C270" s="77"/>
+      <c r="D270" s="77"/>
       <c r="E270" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F270" s="72"/>
-      <c r="G270" s="75"/>
+      <c r="F270" s="78"/>
+      <c r="G270" s="81"/>
       <c r="H270" s="4" t="s">
         <v>401</v>
       </c>
@@ -15495,16 +15504,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="74"/>
-      <c r="C271" s="71"/>
-      <c r="D271" s="71"/>
+      <c r="B271" s="80"/>
+      <c r="C271" s="77"/>
+      <c r="D271" s="77"/>
       <c r="E271" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F271" s="70" t="s">
+      <c r="F271" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="G271" s="73" t="s">
+      <c r="G271" s="79" t="s">
         <v>403</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -15517,14 +15526,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="74"/>
-      <c r="C272" s="71"/>
-      <c r="D272" s="71"/>
+      <c r="B272" s="80"/>
+      <c r="C272" s="77"/>
+      <c r="D272" s="77"/>
       <c r="E272" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F272" s="71"/>
-      <c r="G272" s="74"/>
+      <c r="F272" s="77"/>
+      <c r="G272" s="80"/>
       <c r="H272" s="4" t="s">
         <v>401</v>
       </c>
@@ -15535,14 +15544,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="74"/>
-      <c r="C273" s="71"/>
-      <c r="D273" s="71"/>
+      <c r="B273" s="80"/>
+      <c r="C273" s="77"/>
+      <c r="D273" s="77"/>
       <c r="E273" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F273" s="71"/>
-      <c r="G273" s="74"/>
+      <c r="F273" s="77"/>
+      <c r="G273" s="80"/>
       <c r="H273" s="4" t="s">
         <v>401</v>
       </c>
@@ -15553,14 +15562,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="75"/>
-      <c r="C274" s="72"/>
-      <c r="D274" s="72"/>
+      <c r="B274" s="81"/>
+      <c r="C274" s="78"/>
+      <c r="D274" s="78"/>
       <c r="E274" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F274" s="72"/>
-      <c r="G274" s="75"/>
+      <c r="F274" s="78"/>
+      <c r="G274" s="81"/>
       <c r="H274" s="4" t="s">
         <v>401</v>
       </c>
@@ -15568,30 +15577,30 @@
       <c r="J274" s="14"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="61" t="s">
+      <c r="A275" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="B275" s="61"/>
-      <c r="C275" s="61"/>
-      <c r="D275" s="61"/>
-      <c r="E275" s="61"/>
-      <c r="F275" s="61"/>
-      <c r="G275" s="61"/>
-      <c r="H275" s="61"/>
-      <c r="I275" s="61"/>
-      <c r="J275" s="61"/>
+      <c r="B275" s="75"/>
+      <c r="C275" s="75"/>
+      <c r="D275" s="75"/>
+      <c r="E275" s="75"/>
+      <c r="F275" s="75"/>
+      <c r="G275" s="75"/>
+      <c r="H275" s="75"/>
+      <c r="I275" s="75"/>
+      <c r="J275" s="75"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="67" t="s">
+      <c r="B276" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="64" t="s">
+      <c r="C276" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="67" t="s">
+      <c r="D276" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E276" s="28" t="s">
@@ -15615,9 +15624,9 @@
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="68"/>
-      <c r="C277" s="65"/>
-      <c r="D277" s="68"/>
+      <c r="B277" s="63"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="63"/>
       <c r="E277" s="28" t="s">
         <v>275</v>
       </c>
@@ -15639,9 +15648,9 @@
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="68"/>
-      <c r="C278" s="65"/>
-      <c r="D278" s="68"/>
+      <c r="B278" s="63"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="63"/>
       <c r="E278" s="28" t="s">
         <v>276</v>
       </c>
@@ -15663,9 +15672,9 @@
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="68"/>
-      <c r="C279" s="65"/>
-      <c r="D279" s="68"/>
+      <c r="B279" s="63"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="63"/>
       <c r="E279" s="28" t="s">
         <v>277</v>
       </c>
@@ -15687,9 +15696,9 @@
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="68"/>
-      <c r="C280" s="65"/>
-      <c r="D280" s="68"/>
+      <c r="B280" s="63"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="63"/>
       <c r="E280" s="28" t="s">
         <v>314</v>
       </c>
@@ -15711,9 +15720,9 @@
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="68"/>
-      <c r="C281" s="66"/>
-      <c r="D281" s="69"/>
+      <c r="B281" s="63"/>
+      <c r="C281" s="68"/>
+      <c r="D281" s="64"/>
       <c r="E281" s="28" t="s">
         <v>278</v>
       </c>
@@ -15735,11 +15744,11 @@
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="68"/>
-      <c r="C282" s="64" t="s">
+      <c r="B282" s="63"/>
+      <c r="C282" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="64" t="s">
+      <c r="D282" s="66" t="s">
         <v>65</v>
       </c>
       <c r="E282" s="30" t="s">
@@ -15763,9 +15772,9 @@
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="68"/>
-      <c r="C283" s="65"/>
-      <c r="D283" s="65"/>
+      <c r="B283" s="63"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="67"/>
       <c r="E283" s="30" t="s">
         <v>282</v>
       </c>
@@ -15787,9 +15796,9 @@
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="68"/>
-      <c r="C284" s="65"/>
-      <c r="D284" s="65"/>
+      <c r="B284" s="63"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="67"/>
       <c r="E284" s="30" t="s">
         <v>316</v>
       </c>
@@ -15811,9 +15820,9 @@
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="68"/>
-      <c r="C285" s="65"/>
-      <c r="D285" s="65"/>
+      <c r="B285" s="63"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="67"/>
       <c r="E285" s="43" t="s">
         <v>286</v>
       </c>
@@ -15837,9 +15846,9 @@
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="68"/>
-      <c r="C286" s="66"/>
-      <c r="D286" s="66"/>
+      <c r="B286" s="63"/>
+      <c r="C286" s="68"/>
+      <c r="D286" s="68"/>
       <c r="E286" s="30" t="s">
         <v>324</v>
       </c>
@@ -15863,7 +15872,7 @@
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="69"/>
+      <c r="B287" s="64"/>
       <c r="C287" s="11" t="s">
         <v>118</v>
       </c>
@@ -15890,30 +15899,30 @@
       </c>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="76" t="s">
+      <c r="A288" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="76"/>
-      <c r="C288" s="76"/>
-      <c r="D288" s="76"/>
-      <c r="E288" s="76"/>
-      <c r="F288" s="76"/>
-      <c r="G288" s="76"/>
-      <c r="H288" s="76"/>
-      <c r="I288" s="76"/>
-      <c r="J288" s="76"/>
+      <c r="B288" s="65"/>
+      <c r="C288" s="65"/>
+      <c r="D288" s="65"/>
+      <c r="E288" s="65"/>
+      <c r="F288" s="65"/>
+      <c r="G288" s="65"/>
+      <c r="H288" s="65"/>
+      <c r="I288" s="65"/>
+      <c r="J288" s="65"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="67" t="s">
+      <c r="B289" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="C289" s="64" t="s">
+      <c r="C289" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="67" t="s">
+      <c r="D289" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E289" s="28" t="s">
@@ -15937,9 +15946,9 @@
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="68"/>
-      <c r="C290" s="65"/>
-      <c r="D290" s="68"/>
+      <c r="B290" s="63"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="63"/>
       <c r="E290" s="28" t="s">
         <v>312</v>
       </c>
@@ -15961,9 +15970,9 @@
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="68"/>
-      <c r="C291" s="65"/>
-      <c r="D291" s="68"/>
+      <c r="B291" s="63"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="63"/>
       <c r="E291" s="28" t="s">
         <v>313</v>
       </c>
@@ -15985,9 +15994,9 @@
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="68"/>
-      <c r="C292" s="65"/>
-      <c r="D292" s="68"/>
+      <c r="B292" s="63"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="63"/>
       <c r="E292" s="28" t="s">
         <v>305</v>
       </c>
@@ -16009,9 +16018,9 @@
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="68"/>
-      <c r="C293" s="65"/>
-      <c r="D293" s="68"/>
+      <c r="B293" s="63"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="63"/>
       <c r="E293" s="28" t="s">
         <v>315</v>
       </c>
@@ -16033,9 +16042,9 @@
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="68"/>
-      <c r="C294" s="66"/>
-      <c r="D294" s="69"/>
+      <c r="B294" s="63"/>
+      <c r="C294" s="68"/>
+      <c r="D294" s="64"/>
       <c r="E294" s="28" t="s">
         <v>301</v>
       </c>
@@ -16057,11 +16066,11 @@
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="68"/>
-      <c r="C295" s="64" t="s">
+      <c r="B295" s="63"/>
+      <c r="C295" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="64" t="s">
+      <c r="D295" s="66" t="s">
         <v>65</v>
       </c>
       <c r="E295" s="30" t="s">
@@ -16085,9 +16094,9 @@
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="68"/>
-      <c r="C296" s="65"/>
-      <c r="D296" s="65"/>
+      <c r="B296" s="63"/>
+      <c r="C296" s="67"/>
+      <c r="D296" s="67"/>
       <c r="E296" s="30" t="s">
         <v>302</v>
       </c>
@@ -16109,9 +16118,9 @@
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="68"/>
-      <c r="C297" s="65"/>
-      <c r="D297" s="65"/>
+      <c r="B297" s="63"/>
+      <c r="C297" s="67"/>
+      <c r="D297" s="67"/>
       <c r="E297" s="30" t="s">
         <v>316</v>
       </c>
@@ -16133,9 +16142,9 @@
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="68"/>
-      <c r="C298" s="65"/>
-      <c r="D298" s="65"/>
+      <c r="B298" s="63"/>
+      <c r="C298" s="67"/>
+      <c r="D298" s="67"/>
       <c r="E298" s="43" t="s">
         <v>303</v>
       </c>
@@ -16159,9 +16168,9 @@
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="68"/>
-      <c r="C299" s="66"/>
-      <c r="D299" s="66"/>
+      <c r="B299" s="63"/>
+      <c r="C299" s="68"/>
+      <c r="D299" s="68"/>
       <c r="E299" s="32" t="s">
         <v>323</v>
       </c>
@@ -16185,7 +16194,7 @@
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="69"/>
+      <c r="B300" s="64"/>
       <c r="C300" s="11" t="s">
         <v>118</v>
       </c>
@@ -16212,30 +16221,30 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="61" t="s">
+      <c r="A301" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="B301" s="61"/>
-      <c r="C301" s="61"/>
-      <c r="D301" s="61"/>
-      <c r="E301" s="61"/>
-      <c r="F301" s="61"/>
-      <c r="G301" s="61"/>
-      <c r="H301" s="61"/>
-      <c r="I301" s="61"/>
-      <c r="J301" s="61"/>
+      <c r="B301" s="75"/>
+      <c r="C301" s="75"/>
+      <c r="D301" s="75"/>
+      <c r="E301" s="75"/>
+      <c r="F301" s="75"/>
+      <c r="G301" s="75"/>
+      <c r="H301" s="75"/>
+      <c r="I301" s="75"/>
+      <c r="J301" s="75"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="67" t="s">
+      <c r="B302" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="64" t="s">
+      <c r="C302" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="67" t="s">
+      <c r="D302" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E302" s="28" t="s">
@@ -16259,9 +16268,9 @@
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="68"/>
-      <c r="C303" s="65"/>
-      <c r="D303" s="68"/>
+      <c r="B303" s="63"/>
+      <c r="C303" s="67"/>
+      <c r="D303" s="63"/>
       <c r="E303" s="28" t="s">
         <v>345</v>
       </c>
@@ -16283,9 +16292,9 @@
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="68"/>
-      <c r="C304" s="65"/>
-      <c r="D304" s="68"/>
+      <c r="B304" s="63"/>
+      <c r="C304" s="67"/>
+      <c r="D304" s="63"/>
       <c r="E304" s="28" t="s">
         <v>346</v>
       </c>
@@ -16307,9 +16316,9 @@
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="68"/>
-      <c r="C305" s="65"/>
-      <c r="D305" s="68"/>
+      <c r="B305" s="63"/>
+      <c r="C305" s="67"/>
+      <c r="D305" s="63"/>
       <c r="E305" s="28" t="s">
         <v>343</v>
       </c>
@@ -16331,9 +16340,9 @@
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="68"/>
-      <c r="C306" s="65"/>
-      <c r="D306" s="68"/>
+      <c r="B306" s="63"/>
+      <c r="C306" s="67"/>
+      <c r="D306" s="63"/>
       <c r="E306" s="28" t="s">
         <v>338</v>
       </c>
@@ -16355,9 +16364,9 @@
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="68"/>
-      <c r="C307" s="66"/>
-      <c r="D307" s="69"/>
+      <c r="B307" s="63"/>
+      <c r="C307" s="68"/>
+      <c r="D307" s="64"/>
       <c r="E307" s="28" t="s">
         <v>339</v>
       </c>
@@ -16379,11 +16388,11 @@
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="68"/>
-      <c r="C308" s="64" t="s">
+      <c r="B308" s="63"/>
+      <c r="C308" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="64" t="s">
+      <c r="D308" s="66" t="s">
         <v>65</v>
       </c>
       <c r="E308" s="30" t="s">
@@ -16407,9 +16416,9 @@
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="68"/>
-      <c r="C309" s="65"/>
-      <c r="D309" s="65"/>
+      <c r="B309" s="63"/>
+      <c r="C309" s="67"/>
+      <c r="D309" s="67"/>
       <c r="E309" s="30" t="s">
         <v>340</v>
       </c>
@@ -16431,9 +16440,9 @@
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="68"/>
-      <c r="C310" s="65"/>
-      <c r="D310" s="65"/>
+      <c r="B310" s="63"/>
+      <c r="C310" s="67"/>
+      <c r="D310" s="67"/>
       <c r="E310" s="30" t="s">
         <v>348</v>
       </c>
@@ -16455,9 +16464,9 @@
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="68"/>
-      <c r="C311" s="65"/>
-      <c r="D311" s="65"/>
+      <c r="B311" s="63"/>
+      <c r="C311" s="67"/>
+      <c r="D311" s="67"/>
       <c r="E311" s="43" t="s">
         <v>341</v>
       </c>
@@ -16481,9 +16490,9 @@
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="68"/>
-      <c r="C312" s="66"/>
-      <c r="D312" s="66"/>
+      <c r="B312" s="63"/>
+      <c r="C312" s="68"/>
+      <c r="D312" s="68"/>
       <c r="E312" s="32" t="s">
         <v>349</v>
       </c>
@@ -16507,7 +16516,7 @@
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="69"/>
+      <c r="B313" s="64"/>
       <c r="C313" s="11" t="s">
         <v>118</v>
       </c>
@@ -16534,30 +16543,30 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="61" t="s">
+      <c r="A314" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="61"/>
-      <c r="C314" s="61"/>
-      <c r="D314" s="61"/>
-      <c r="E314" s="61"/>
-      <c r="F314" s="61"/>
-      <c r="G314" s="61"/>
-      <c r="H314" s="61"/>
-      <c r="I314" s="61"/>
-      <c r="J314" s="61"/>
+      <c r="B314" s="75"/>
+      <c r="C314" s="75"/>
+      <c r="D314" s="75"/>
+      <c r="E314" s="75"/>
+      <c r="F314" s="75"/>
+      <c r="G314" s="75"/>
+      <c r="H314" s="75"/>
+      <c r="I314" s="75"/>
+      <c r="J314" s="75"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="62" t="s">
+      <c r="B315" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C315" s="64" t="s">
+      <c r="C315" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="67" t="s">
+      <c r="D315" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E315" s="28" t="s">
@@ -16581,9 +16590,9 @@
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="62"/>
-      <c r="C316" s="65"/>
-      <c r="D316" s="68"/>
+      <c r="B316" s="73"/>
+      <c r="C316" s="67"/>
+      <c r="D316" s="63"/>
       <c r="E316" s="28" t="s">
         <v>357</v>
       </c>
@@ -16605,9 +16614,9 @@
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="62"/>
-      <c r="C317" s="65"/>
-      <c r="D317" s="68"/>
+      <c r="B317" s="73"/>
+      <c r="C317" s="67"/>
+      <c r="D317" s="63"/>
       <c r="E317" s="28" t="s">
         <v>366</v>
       </c>
@@ -16629,9 +16638,9 @@
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="62"/>
-      <c r="C318" s="65"/>
-      <c r="D318" s="68"/>
+      <c r="B318" s="73"/>
+      <c r="C318" s="67"/>
+      <c r="D318" s="63"/>
       <c r="E318" s="28" t="s">
         <v>364</v>
       </c>
@@ -16653,9 +16662,9 @@
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="62"/>
-      <c r="C319" s="65"/>
-      <c r="D319" s="68"/>
+      <c r="B319" s="73"/>
+      <c r="C319" s="67"/>
+      <c r="D319" s="63"/>
       <c r="E319" s="28" t="s">
         <v>358</v>
       </c>
@@ -16677,9 +16686,9 @@
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="62"/>
-      <c r="C320" s="66"/>
-      <c r="D320" s="69"/>
+      <c r="B320" s="73"/>
+      <c r="C320" s="68"/>
+      <c r="D320" s="64"/>
       <c r="E320" s="28" t="s">
         <v>359</v>
       </c>
@@ -16701,11 +16710,11 @@
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="62"/>
-      <c r="C321" s="63" t="s">
+      <c r="B321" s="73"/>
+      <c r="C321" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="63" t="s">
+      <c r="D321" s="72" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="30" t="s">
@@ -16729,9 +16738,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="62"/>
-      <c r="C322" s="63"/>
-      <c r="D322" s="63"/>
+      <c r="B322" s="73"/>
+      <c r="C322" s="72"/>
+      <c r="D322" s="72"/>
       <c r="E322" s="30" t="s">
         <v>361</v>
       </c>
@@ -16753,9 +16762,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="62"/>
-      <c r="C323" s="63"/>
-      <c r="D323" s="63"/>
+      <c r="B323" s="73"/>
+      <c r="C323" s="72"/>
+      <c r="D323" s="72"/>
       <c r="E323" s="30" t="s">
         <v>348</v>
       </c>
@@ -16777,9 +16786,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="62"/>
-      <c r="C324" s="63"/>
-      <c r="D324" s="63"/>
+      <c r="B324" s="73"/>
+      <c r="C324" s="72"/>
+      <c r="D324" s="72"/>
       <c r="E324" s="43" t="s">
         <v>362</v>
       </c>
@@ -16803,9 +16812,9 @@
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="62"/>
-      <c r="C325" s="63"/>
-      <c r="D325" s="63"/>
+      <c r="B325" s="73"/>
+      <c r="C325" s="72"/>
+      <c r="D325" s="72"/>
       <c r="E325" s="32" t="s">
         <v>356</v>
       </c>
@@ -16829,7 +16838,7 @@
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="62"/>
+      <c r="B326" s="73"/>
       <c r="C326" s="11" t="s">
         <v>118</v>
       </c>
@@ -16856,30 +16865,30 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="61" t="s">
+      <c r="A327" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="B327" s="61"/>
-      <c r="C327" s="61"/>
-      <c r="D327" s="61"/>
-      <c r="E327" s="61"/>
-      <c r="F327" s="61"/>
-      <c r="G327" s="61"/>
-      <c r="H327" s="61"/>
-      <c r="I327" s="61"/>
-      <c r="J327" s="61"/>
+      <c r="B327" s="75"/>
+      <c r="C327" s="75"/>
+      <c r="D327" s="75"/>
+      <c r="E327" s="75"/>
+      <c r="F327" s="75"/>
+      <c r="G327" s="75"/>
+      <c r="H327" s="75"/>
+      <c r="I327" s="75"/>
+      <c r="J327" s="75"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>308</v>
       </c>
-      <c r="B328" s="64" t="s">
+      <c r="B328" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="C328" s="64" t="s">
+      <c r="C328" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D328" s="64" t="s">
+      <c r="D328" s="66" t="s">
         <v>65</v>
       </c>
       <c r="E328" s="28" t="s">
@@ -16905,9 +16914,9 @@
       <c r="A329" s="8">
         <v>309</v>
       </c>
-      <c r="B329" s="65"/>
-      <c r="C329" s="65"/>
-      <c r="D329" s="65"/>
+      <c r="B329" s="67"/>
+      <c r="C329" s="67"/>
+      <c r="D329" s="67"/>
       <c r="E329" s="28" t="s">
         <v>477</v>
       </c>
@@ -16931,9 +16940,9 @@
       <c r="A330" s="8">
         <v>310</v>
       </c>
-      <c r="B330" s="65"/>
-      <c r="C330" s="65"/>
-      <c r="D330" s="65"/>
+      <c r="B330" s="67"/>
+      <c r="C330" s="67"/>
+      <c r="D330" s="67"/>
       <c r="E330" s="28" t="s">
         <v>479</v>
       </c>
@@ -16957,9 +16966,9 @@
       <c r="A331" s="8">
         <v>311</v>
       </c>
-      <c r="B331" s="65"/>
-      <c r="C331" s="65"/>
-      <c r="D331" s="65"/>
+      <c r="B331" s="67"/>
+      <c r="C331" s="67"/>
+      <c r="D331" s="67"/>
       <c r="E331" s="28" t="s">
         <v>480</v>
       </c>
@@ -16983,9 +16992,9 @@
       <c r="A332" s="8">
         <v>312</v>
       </c>
-      <c r="B332" s="65"/>
-      <c r="C332" s="65"/>
-      <c r="D332" s="65"/>
+      <c r="B332" s="67"/>
+      <c r="C332" s="67"/>
+      <c r="D332" s="67"/>
       <c r="E332" s="28" t="s">
         <v>481</v>
       </c>
@@ -17009,9 +17018,9 @@
       <c r="A333" s="8">
         <v>313</v>
       </c>
-      <c r="B333" s="65"/>
-      <c r="C333" s="65"/>
-      <c r="D333" s="65"/>
+      <c r="B333" s="67"/>
+      <c r="C333" s="67"/>
+      <c r="D333" s="67"/>
       <c r="E333" s="28" t="s">
         <v>482</v>
       </c>
@@ -17035,9 +17044,9 @@
       <c r="A334" s="8">
         <v>314</v>
       </c>
-      <c r="B334" s="65"/>
-      <c r="C334" s="65"/>
-      <c r="D334" s="65"/>
+      <c r="B334" s="67"/>
+      <c r="C334" s="67"/>
+      <c r="D334" s="67"/>
       <c r="E334" s="28" t="s">
         <v>484</v>
       </c>
@@ -17061,9 +17070,9 @@
       <c r="A335" s="8">
         <v>315</v>
       </c>
-      <c r="B335" s="65"/>
-      <c r="C335" s="65"/>
-      <c r="D335" s="65"/>
+      <c r="B335" s="67"/>
+      <c r="C335" s="67"/>
+      <c r="D335" s="67"/>
       <c r="E335" s="28" t="s">
         <v>485</v>
       </c>
@@ -17087,9 +17096,9 @@
       <c r="A336" s="8">
         <v>316</v>
       </c>
-      <c r="B336" s="65"/>
-      <c r="C336" s="65"/>
-      <c r="D336" s="65"/>
+      <c r="B336" s="67"/>
+      <c r="C336" s="67"/>
+      <c r="D336" s="67"/>
       <c r="E336" s="28" t="s">
         <v>488</v>
       </c>
@@ -17113,9 +17122,9 @@
       <c r="A337" s="8">
         <v>317</v>
       </c>
-      <c r="B337" s="65"/>
-      <c r="C337" s="65"/>
-      <c r="D337" s="65"/>
+      <c r="B337" s="67"/>
+      <c r="C337" s="67"/>
+      <c r="D337" s="67"/>
       <c r="E337" s="28" t="s">
         <v>486</v>
       </c>
@@ -17139,9 +17148,9 @@
       <c r="A338" s="8">
         <v>318</v>
       </c>
-      <c r="B338" s="65"/>
-      <c r="C338" s="65"/>
-      <c r="D338" s="65"/>
+      <c r="B338" s="67"/>
+      <c r="C338" s="67"/>
+      <c r="D338" s="67"/>
       <c r="E338" s="28" t="s">
         <v>487</v>
       </c>
@@ -17165,9 +17174,9 @@
       <c r="A339" s="8">
         <v>319</v>
       </c>
-      <c r="B339" s="65"/>
-      <c r="C339" s="66"/>
-      <c r="D339" s="66"/>
+      <c r="B339" s="67"/>
+      <c r="C339" s="68"/>
+      <c r="D339" s="68"/>
       <c r="E339" s="28" t="s">
         <v>489</v>
       </c>
@@ -17191,11 +17200,11 @@
       <c r="A340" s="8">
         <v>320</v>
       </c>
-      <c r="B340" s="65"/>
-      <c r="C340" s="64" t="s">
+      <c r="B340" s="67"/>
+      <c r="C340" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="67" t="s">
+      <c r="D340" s="62" t="s">
         <v>61</v>
       </c>
       <c r="E340" s="28" t="s">
@@ -17219,9 +17228,9 @@
       <c r="A341" s="8">
         <v>321</v>
       </c>
-      <c r="B341" s="65"/>
-      <c r="C341" s="65"/>
-      <c r="D341" s="68"/>
+      <c r="B341" s="67"/>
+      <c r="C341" s="67"/>
+      <c r="D341" s="63"/>
       <c r="E341" s="28" t="s">
         <v>492</v>
       </c>
@@ -17243,9 +17252,9 @@
       <c r="A342" s="8">
         <v>322</v>
       </c>
-      <c r="B342" s="65"/>
-      <c r="C342" s="65"/>
-      <c r="D342" s="68"/>
+      <c r="B342" s="67"/>
+      <c r="C342" s="67"/>
+      <c r="D342" s="63"/>
       <c r="E342" s="28" t="s">
         <v>493</v>
       </c>
@@ -17267,9 +17276,9 @@
       <c r="A343" s="8">
         <v>323</v>
       </c>
-      <c r="B343" s="65"/>
-      <c r="C343" s="65"/>
-      <c r="D343" s="68"/>
+      <c r="B343" s="67"/>
+      <c r="C343" s="67"/>
+      <c r="D343" s="63"/>
       <c r="E343" s="28" t="s">
         <v>494</v>
       </c>
@@ -17291,9 +17300,9 @@
       <c r="A344" s="8">
         <v>324</v>
       </c>
-      <c r="B344" s="65"/>
-      <c r="C344" s="65"/>
-      <c r="D344" s="68"/>
+      <c r="B344" s="67"/>
+      <c r="C344" s="67"/>
+      <c r="D344" s="63"/>
       <c r="E344" s="28" t="s">
         <v>495</v>
       </c>
@@ -17315,9 +17324,9 @@
       <c r="A345" s="8">
         <v>325</v>
       </c>
-      <c r="B345" s="65"/>
-      <c r="C345" s="65"/>
-      <c r="D345" s="68"/>
+      <c r="B345" s="67"/>
+      <c r="C345" s="67"/>
+      <c r="D345" s="63"/>
       <c r="E345" s="28" t="s">
         <v>496</v>
       </c>
@@ -17339,9 +17348,9 @@
       <c r="A346" s="8">
         <v>326</v>
       </c>
-      <c r="B346" s="65"/>
-      <c r="C346" s="65"/>
-      <c r="D346" s="68"/>
+      <c r="B346" s="67"/>
+      <c r="C346" s="67"/>
+      <c r="D346" s="63"/>
       <c r="E346" s="28" t="s">
         <v>497</v>
       </c>
@@ -17363,9 +17372,9 @@
       <c r="A347" s="8">
         <v>327</v>
       </c>
-      <c r="B347" s="65"/>
-      <c r="C347" s="66"/>
-      <c r="D347" s="69"/>
+      <c r="B347" s="67"/>
+      <c r="C347" s="68"/>
+      <c r="D347" s="64"/>
       <c r="E347" s="28" t="s">
         <v>498</v>
       </c>
@@ -17387,20 +17396,20 @@
       <c r="A348" s="8">
         <v>328</v>
       </c>
-      <c r="B348" s="65"/>
-      <c r="C348" s="64" t="s">
+      <c r="B348" s="67"/>
+      <c r="C348" s="66" t="s">
         <v>465</v>
       </c>
       <c r="D348" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="E348" s="64" t="s">
+      <c r="E348" s="66" t="s">
         <v>502</v>
       </c>
-      <c r="F348" s="64" t="s">
+      <c r="F348" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="G348" s="67" t="s">
+      <c r="G348" s="62" t="s">
         <v>499</v>
       </c>
       <c r="H348" s="28" t="s">
@@ -17415,14 +17424,14 @@
       <c r="A349" s="8">
         <v>329</v>
       </c>
-      <c r="B349" s="65"/>
-      <c r="C349" s="65"/>
+      <c r="B349" s="67"/>
+      <c r="C349" s="67"/>
       <c r="D349" s="28" t="s">
         <v>475</v>
       </c>
-      <c r="E349" s="65"/>
-      <c r="F349" s="65"/>
-      <c r="G349" s="68"/>
+      <c r="E349" s="67"/>
+      <c r="F349" s="67"/>
+      <c r="G349" s="63"/>
       <c r="H349" s="28" t="s">
         <v>644</v>
       </c>
@@ -17435,14 +17444,14 @@
       <c r="A350" s="8">
         <v>330</v>
       </c>
-      <c r="B350" s="65"/>
-      <c r="C350" s="65"/>
+      <c r="B350" s="67"/>
+      <c r="C350" s="67"/>
       <c r="D350" s="28" t="s">
         <v>476</v>
       </c>
-      <c r="E350" s="65"/>
-      <c r="F350" s="65"/>
-      <c r="G350" s="68"/>
+      <c r="E350" s="67"/>
+      <c r="F350" s="67"/>
+      <c r="G350" s="63"/>
       <c r="H350" s="28" t="s">
         <v>501</v>
       </c>
@@ -17455,14 +17464,14 @@
       <c r="A351" s="8">
         <v>331</v>
       </c>
-      <c r="B351" s="65"/>
-      <c r="C351" s="65"/>
+      <c r="B351" s="67"/>
+      <c r="C351" s="67"/>
       <c r="D351" s="28" t="s">
         <v>503</v>
       </c>
-      <c r="E351" s="65"/>
-      <c r="F351" s="65"/>
-      <c r="G351" s="68"/>
+      <c r="E351" s="67"/>
+      <c r="F351" s="67"/>
+      <c r="G351" s="63"/>
       <c r="H351" s="50" t="s">
         <v>645</v>
       </c>
@@ -17477,14 +17486,14 @@
       <c r="A352" s="8">
         <v>332</v>
       </c>
-      <c r="B352" s="66"/>
-      <c r="C352" s="66"/>
+      <c r="B352" s="68"/>
+      <c r="C352" s="68"/>
       <c r="D352" s="28" t="s">
         <v>504</v>
       </c>
-      <c r="E352" s="66"/>
-      <c r="F352" s="66"/>
-      <c r="G352" s="69"/>
+      <c r="E352" s="68"/>
+      <c r="F352" s="68"/>
+      <c r="G352" s="64"/>
       <c r="H352" s="28" t="s">
         <v>505</v>
       </c>
@@ -17494,30 +17503,30 @@
       <c r="J352" s="13"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="76" t="s">
+      <c r="A353" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="B353" s="76"/>
-      <c r="C353" s="76"/>
-      <c r="D353" s="76"/>
-      <c r="E353" s="76"/>
-      <c r="F353" s="76"/>
-      <c r="G353" s="76"/>
-      <c r="H353" s="76"/>
-      <c r="I353" s="76"/>
-      <c r="J353" s="76"/>
+      <c r="B353" s="65"/>
+      <c r="C353" s="65"/>
+      <c r="D353" s="65"/>
+      <c r="E353" s="65"/>
+      <c r="F353" s="65"/>
+      <c r="G353" s="65"/>
+      <c r="H353" s="65"/>
+      <c r="I353" s="65"/>
+      <c r="J353" s="65"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="33">
         <v>339</v>
       </c>
-      <c r="B354" s="62" t="s">
+      <c r="B354" s="73" t="s">
         <v>573</v>
       </c>
-      <c r="C354" s="63" t="s">
+      <c r="C354" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D354" s="63" t="s">
+      <c r="D354" s="72" t="s">
         <v>65</v>
       </c>
       <c r="E354" s="32" t="s">
@@ -17543,9 +17552,9 @@
       <c r="A355" s="33">
         <v>340</v>
       </c>
-      <c r="B355" s="62"/>
-      <c r="C355" s="63"/>
-      <c r="D355" s="63"/>
+      <c r="B355" s="73"/>
+      <c r="C355" s="72"/>
+      <c r="D355" s="72"/>
       <c r="E355" s="32" t="s">
         <v>580</v>
       </c>
@@ -17567,9 +17576,9 @@
       <c r="A356" s="33">
         <v>341</v>
       </c>
-      <c r="B356" s="62"/>
-      <c r="C356" s="63"/>
-      <c r="D356" s="63"/>
+      <c r="B356" s="73"/>
+      <c r="C356" s="72"/>
+      <c r="D356" s="72"/>
       <c r="E356" s="32" t="s">
         <v>581</v>
       </c>
@@ -17591,9 +17600,9 @@
       <c r="A357" s="33">
         <v>342</v>
       </c>
-      <c r="B357" s="62"/>
-      <c r="C357" s="63"/>
-      <c r="D357" s="63"/>
+      <c r="B357" s="73"/>
+      <c r="C357" s="72"/>
+      <c r="D357" s="72"/>
       <c r="E357" s="32" t="s">
         <v>585</v>
       </c>
@@ -17617,9 +17626,9 @@
       <c r="A358" s="33">
         <v>343</v>
       </c>
-      <c r="B358" s="62"/>
-      <c r="C358" s="63"/>
-      <c r="D358" s="63"/>
+      <c r="B358" s="73"/>
+      <c r="C358" s="72"/>
+      <c r="D358" s="72"/>
       <c r="E358" s="32" t="s">
         <v>582</v>
       </c>
@@ -17641,9 +17650,9 @@
       <c r="A359" s="33">
         <v>344</v>
       </c>
-      <c r="B359" s="62"/>
-      <c r="C359" s="63"/>
-      <c r="D359" s="63"/>
+      <c r="B359" s="73"/>
+      <c r="C359" s="72"/>
+      <c r="D359" s="72"/>
       <c r="E359" s="32" t="s">
         <v>583</v>
       </c>
@@ -17665,9 +17674,9 @@
       <c r="A360" s="33">
         <v>345</v>
       </c>
-      <c r="B360" s="62"/>
-      <c r="C360" s="63"/>
-      <c r="D360" s="63"/>
+      <c r="B360" s="73"/>
+      <c r="C360" s="72"/>
+      <c r="D360" s="72"/>
       <c r="E360" s="32" t="s">
         <v>584</v>
       </c>
@@ -17691,9 +17700,9 @@
       <c r="A361" s="33">
         <v>346</v>
       </c>
-      <c r="B361" s="62"/>
-      <c r="C361" s="63"/>
-      <c r="D361" s="63"/>
+      <c r="B361" s="73"/>
+      <c r="C361" s="72"/>
+      <c r="D361" s="72"/>
       <c r="E361" s="32" t="s">
         <v>586</v>
       </c>
@@ -17715,9 +17724,9 @@
       <c r="A362" s="33">
         <v>347</v>
       </c>
-      <c r="B362" s="62"/>
-      <c r="C362" s="63"/>
-      <c r="D362" s="63"/>
+      <c r="B362" s="73"/>
+      <c r="C362" s="72"/>
+      <c r="D362" s="72"/>
       <c r="E362" s="32" t="s">
         <v>587</v>
       </c>
@@ -17739,9 +17748,9 @@
       <c r="A363" s="33">
         <v>348</v>
       </c>
-      <c r="B363" s="62"/>
-      <c r="C363" s="63"/>
-      <c r="D363" s="63"/>
+      <c r="B363" s="73"/>
+      <c r="C363" s="72"/>
+      <c r="D363" s="72"/>
       <c r="E363" s="32" t="s">
         <v>590</v>
       </c>
@@ -17765,9 +17774,9 @@
       <c r="A364" s="33">
         <v>349</v>
       </c>
-      <c r="B364" s="62"/>
-      <c r="C364" s="63"/>
-      <c r="D364" s="63"/>
+      <c r="B364" s="73"/>
+      <c r="C364" s="72"/>
+      <c r="D364" s="72"/>
       <c r="E364" s="32" t="s">
         <v>591</v>
       </c>
@@ -17789,9 +17798,9 @@
       <c r="A365" s="33">
         <v>350</v>
       </c>
-      <c r="B365" s="62"/>
-      <c r="C365" s="63"/>
-      <c r="D365" s="63"/>
+      <c r="B365" s="73"/>
+      <c r="C365" s="72"/>
+      <c r="D365" s="72"/>
       <c r="E365" s="32" t="s">
         <v>592</v>
       </c>
@@ -17813,9 +17822,9 @@
       <c r="A366" s="33">
         <v>351</v>
       </c>
-      <c r="B366" s="62"/>
-      <c r="C366" s="63"/>
-      <c r="D366" s="63"/>
+      <c r="B366" s="73"/>
+      <c r="C366" s="72"/>
+      <c r="D366" s="72"/>
       <c r="E366" s="32" t="s">
         <v>595</v>
       </c>
@@ -17839,9 +17848,9 @@
       <c r="A367" s="33">
         <v>352</v>
       </c>
-      <c r="B367" s="62"/>
-      <c r="C367" s="63"/>
-      <c r="D367" s="63"/>
+      <c r="B367" s="73"/>
+      <c r="C367" s="72"/>
+      <c r="D367" s="72"/>
       <c r="E367" s="32" t="s">
         <v>596</v>
       </c>
@@ -17863,9 +17872,9 @@
       <c r="A368" s="33">
         <v>353</v>
       </c>
-      <c r="B368" s="62"/>
-      <c r="C368" s="63"/>
-      <c r="D368" s="63"/>
+      <c r="B368" s="73"/>
+      <c r="C368" s="72"/>
+      <c r="D368" s="72"/>
       <c r="E368" s="32" t="s">
         <v>597</v>
       </c>
@@ -17887,9 +17896,9 @@
       <c r="A369" s="33">
         <v>354</v>
       </c>
-      <c r="B369" s="62"/>
-      <c r="C369" s="63"/>
-      <c r="D369" s="63"/>
+      <c r="B369" s="73"/>
+      <c r="C369" s="72"/>
+      <c r="D369" s="72"/>
       <c r="E369" s="32" t="s">
         <v>600</v>
       </c>
@@ -17913,9 +17922,9 @@
       <c r="A370" s="33">
         <v>355</v>
       </c>
-      <c r="B370" s="62"/>
-      <c r="C370" s="63"/>
-      <c r="D370" s="63"/>
+      <c r="B370" s="73"/>
+      <c r="C370" s="72"/>
+      <c r="D370" s="72"/>
       <c r="E370" s="32" t="s">
         <v>601</v>
       </c>
@@ -17937,9 +17946,9 @@
       <c r="A371" s="33">
         <v>356</v>
       </c>
-      <c r="B371" s="62"/>
-      <c r="C371" s="63"/>
-      <c r="D371" s="63"/>
+      <c r="B371" s="73"/>
+      <c r="C371" s="72"/>
+      <c r="D371" s="72"/>
       <c r="E371" s="32" t="s">
         <v>602</v>
       </c>
@@ -17958,30 +17967,30 @@
       <c r="J371" s="13"/>
     </row>
     <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="76" t="s">
+      <c r="A372" s="65" t="s">
         <v>605</v>
       </c>
-      <c r="B372" s="76"/>
-      <c r="C372" s="76"/>
-      <c r="D372" s="76"/>
-      <c r="E372" s="76"/>
-      <c r="F372" s="76"/>
-      <c r="G372" s="76"/>
-      <c r="H372" s="76"/>
-      <c r="I372" s="76"/>
-      <c r="J372" s="76"/>
+      <c r="B372" s="65"/>
+      <c r="C372" s="65"/>
+      <c r="D372" s="65"/>
+      <c r="E372" s="65"/>
+      <c r="F372" s="65"/>
+      <c r="G372" s="65"/>
+      <c r="H372" s="65"/>
+      <c r="I372" s="65"/>
+      <c r="J372" s="65"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="33">
         <v>357</v>
       </c>
-      <c r="B373" s="62" t="s">
+      <c r="B373" s="73" t="s">
         <v>607</v>
       </c>
-      <c r="C373" s="63" t="s">
+      <c r="C373" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D373" s="63" t="s">
+      <c r="D373" s="72" t="s">
         <v>65</v>
       </c>
       <c r="E373" s="32" t="s">
@@ -18007,9 +18016,9 @@
       <c r="A374" s="33">
         <v>358</v>
       </c>
-      <c r="B374" s="62"/>
-      <c r="C374" s="63"/>
-      <c r="D374" s="63"/>
+      <c r="B374" s="73"/>
+      <c r="C374" s="72"/>
+      <c r="D374" s="72"/>
       <c r="E374" s="32" t="s">
         <v>608</v>
       </c>
@@ -18031,9 +18040,9 @@
       <c r="A375" s="33">
         <v>359</v>
       </c>
-      <c r="B375" s="62"/>
-      <c r="C375" s="63"/>
-      <c r="D375" s="63"/>
+      <c r="B375" s="73"/>
+      <c r="C375" s="72"/>
+      <c r="D375" s="72"/>
       <c r="E375" s="32" t="s">
         <v>609</v>
       </c>
@@ -18055,9 +18064,9 @@
       <c r="A376" s="33">
         <v>360</v>
       </c>
-      <c r="B376" s="62"/>
-      <c r="C376" s="63"/>
-      <c r="D376" s="63"/>
+      <c r="B376" s="73"/>
+      <c r="C376" s="72"/>
+      <c r="D376" s="72"/>
       <c r="E376" s="32" t="s">
         <v>612</v>
       </c>
@@ -18081,9 +18090,9 @@
       <c r="A377" s="33">
         <v>361</v>
       </c>
-      <c r="B377" s="62"/>
-      <c r="C377" s="63"/>
-      <c r="D377" s="63"/>
+      <c r="B377" s="73"/>
+      <c r="C377" s="72"/>
+      <c r="D377" s="72"/>
       <c r="E377" s="32" t="s">
         <v>613</v>
       </c>
@@ -18105,9 +18114,9 @@
       <c r="A378" s="33">
         <v>362</v>
       </c>
-      <c r="B378" s="62"/>
-      <c r="C378" s="63"/>
-      <c r="D378" s="63"/>
+      <c r="B378" s="73"/>
+      <c r="C378" s="72"/>
+      <c r="D378" s="72"/>
       <c r="E378" s="32" t="s">
         <v>614</v>
       </c>
@@ -18126,30 +18135,30 @@
       <c r="J378" s="32"/>
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="76" t="s">
+      <c r="A379" s="65" t="s">
         <v>617</v>
       </c>
-      <c r="B379" s="76"/>
-      <c r="C379" s="76"/>
-      <c r="D379" s="76"/>
-      <c r="E379" s="76"/>
-      <c r="F379" s="76"/>
-      <c r="G379" s="76"/>
-      <c r="H379" s="76"/>
-      <c r="I379" s="76"/>
-      <c r="J379" s="76"/>
+      <c r="B379" s="65"/>
+      <c r="C379" s="65"/>
+      <c r="D379" s="65"/>
+      <c r="E379" s="65"/>
+      <c r="F379" s="65"/>
+      <c r="G379" s="65"/>
+      <c r="H379" s="65"/>
+      <c r="I379" s="65"/>
+      <c r="J379" s="65"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="33">
         <v>363</v>
       </c>
-      <c r="B380" s="81" t="s">
+      <c r="B380" s="89" t="s">
         <v>698</v>
       </c>
-      <c r="C380" s="80" t="s">
+      <c r="C380" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="D380" s="80" t="s">
+      <c r="D380" s="90" t="s">
         <v>653</v>
       </c>
       <c r="E380" s="57" t="s">
@@ -18175,9 +18184,9 @@
       <c r="A381" s="33">
         <v>364</v>
       </c>
-      <c r="B381" s="81"/>
-      <c r="C381" s="80"/>
-      <c r="D381" s="80"/>
+      <c r="B381" s="89"/>
+      <c r="C381" s="90"/>
+      <c r="D381" s="90"/>
       <c r="E381" s="57" t="s">
         <v>651</v>
       </c>
@@ -18199,25 +18208,25 @@
       <c r="A382" s="33">
         <v>365</v>
       </c>
-      <c r="B382" s="81"/>
-      <c r="C382" s="80"/>
-      <c r="D382" s="80"/>
-      <c r="E382" s="11" t="s">
+      <c r="B382" s="89"/>
+      <c r="C382" s="90"/>
+      <c r="D382" s="90"/>
+      <c r="E382" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="F382" s="11" t="s">
+      <c r="F382" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G382" s="11" t="s">
+      <c r="G382" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="H382" s="11" t="s">
+      <c r="H382" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I382" s="11" t="s">
+      <c r="I382" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J382" s="15" t="s">
+      <c r="J382" s="17" t="s">
         <v>775</v>
       </c>
     </row>
@@ -18225,25 +18234,25 @@
       <c r="A383" s="33">
         <v>366</v>
       </c>
-      <c r="B383" s="81"/>
-      <c r="C383" s="80"/>
-      <c r="D383" s="80"/>
-      <c r="E383" s="11" t="s">
+      <c r="B383" s="89"/>
+      <c r="C383" s="90"/>
+      <c r="D383" s="90"/>
+      <c r="E383" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="F383" s="11" t="s">
+      <c r="F383" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G383" s="11" t="s">
+      <c r="G383" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="H383" s="11" t="s">
+      <c r="H383" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I383" s="11" t="s">
+      <c r="I383" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J383" s="15" t="s">
+      <c r="J383" s="17" t="s">
         <v>775</v>
       </c>
     </row>
@@ -18251,9 +18260,9 @@
       <c r="A384" s="33">
         <v>367</v>
       </c>
-      <c r="B384" s="81"/>
-      <c r="C384" s="80"/>
-      <c r="D384" s="80"/>
+      <c r="B384" s="89"/>
+      <c r="C384" s="90"/>
+      <c r="D384" s="90"/>
       <c r="E384" s="57" t="s">
         <v>656</v>
       </c>
@@ -18275,9 +18284,9 @@
       <c r="A385" s="33">
         <v>368</v>
       </c>
-      <c r="B385" s="81"/>
-      <c r="C385" s="80"/>
-      <c r="D385" s="80"/>
+      <c r="B385" s="89"/>
+      <c r="C385" s="90"/>
+      <c r="D385" s="90"/>
       <c r="E385" s="57" t="s">
         <v>657</v>
       </c>
@@ -18299,9 +18308,9 @@
       <c r="A386" s="33">
         <v>369</v>
       </c>
-      <c r="B386" s="81"/>
-      <c r="C386" s="80"/>
-      <c r="D386" s="80"/>
+      <c r="B386" s="89"/>
+      <c r="C386" s="90"/>
+      <c r="D386" s="90"/>
       <c r="E386" s="57" t="s">
         <v>662</v>
       </c>
@@ -18323,9 +18332,9 @@
       <c r="A387" s="33">
         <v>370</v>
       </c>
-      <c r="B387" s="81"/>
-      <c r="C387" s="80"/>
-      <c r="D387" s="80"/>
+      <c r="B387" s="89"/>
+      <c r="C387" s="90"/>
+      <c r="D387" s="90"/>
       <c r="E387" s="57" t="s">
         <v>663</v>
       </c>
@@ -18347,9 +18356,9 @@
       <c r="A388" s="33">
         <v>371</v>
       </c>
-      <c r="B388" s="81"/>
-      <c r="C388" s="80"/>
-      <c r="D388" s="80"/>
+      <c r="B388" s="89"/>
+      <c r="C388" s="90"/>
+      <c r="D388" s="90"/>
       <c r="E388" s="57" t="s">
         <v>664</v>
       </c>
@@ -18371,9 +18380,9 @@
       <c r="A389" s="33">
         <v>372</v>
       </c>
-      <c r="B389" s="81"/>
-      <c r="C389" s="80"/>
-      <c r="D389" s="80"/>
+      <c r="B389" s="89"/>
+      <c r="C389" s="90"/>
+      <c r="D389" s="90"/>
       <c r="E389" s="57" t="s">
         <v>665</v>
       </c>
@@ -18395,9 +18404,9 @@
       <c r="A390" s="33">
         <v>373</v>
       </c>
-      <c r="B390" s="81"/>
-      <c r="C390" s="80"/>
-      <c r="D390" s="80"/>
+      <c r="B390" s="89"/>
+      <c r="C390" s="90"/>
+      <c r="D390" s="90"/>
       <c r="E390" s="57" t="s">
         <v>666</v>
       </c>
@@ -18419,9 +18428,9 @@
       <c r="A391" s="33">
         <v>374</v>
       </c>
-      <c r="B391" s="81"/>
-      <c r="C391" s="80"/>
-      <c r="D391" s="80"/>
+      <c r="B391" s="89"/>
+      <c r="C391" s="90"/>
+      <c r="D391" s="90"/>
       <c r="E391" s="57" t="s">
         <v>667</v>
       </c>
@@ -18443,9 +18452,9 @@
       <c r="A392" s="33">
         <v>375</v>
       </c>
-      <c r="B392" s="81"/>
-      <c r="C392" s="80"/>
-      <c r="D392" s="80"/>
+      <c r="B392" s="89"/>
+      <c r="C392" s="90"/>
+      <c r="D392" s="90"/>
       <c r="E392" s="57" t="s">
         <v>674</v>
       </c>
@@ -18467,9 +18476,9 @@
       <c r="A393" s="33">
         <v>376</v>
       </c>
-      <c r="B393" s="81"/>
-      <c r="C393" s="80"/>
-      <c r="D393" s="80"/>
+      <c r="B393" s="89"/>
+      <c r="C393" s="90"/>
+      <c r="D393" s="90"/>
       <c r="E393" s="57" t="s">
         <v>675</v>
       </c>
@@ -18491,9 +18500,9 @@
       <c r="A394" s="33">
         <v>377</v>
       </c>
-      <c r="B394" s="81"/>
-      <c r="C394" s="80"/>
-      <c r="D394" s="80"/>
+      <c r="B394" s="89"/>
+      <c r="C394" s="90"/>
+      <c r="D394" s="90"/>
       <c r="E394" s="57" t="s">
         <v>677</v>
       </c>
@@ -18515,9 +18524,9 @@
       <c r="A395" s="33">
         <v>378</v>
       </c>
-      <c r="B395" s="81"/>
-      <c r="C395" s="80"/>
-      <c r="D395" s="80"/>
+      <c r="B395" s="89"/>
+      <c r="C395" s="90"/>
+      <c r="D395" s="90"/>
       <c r="E395" s="57" t="s">
         <v>676</v>
       </c>
@@ -18539,9 +18548,9 @@
       <c r="A396" s="33">
         <v>379</v>
       </c>
-      <c r="B396" s="81"/>
-      <c r="C396" s="80"/>
-      <c r="D396" s="80"/>
+      <c r="B396" s="89"/>
+      <c r="C396" s="90"/>
+      <c r="D396" s="90"/>
       <c r="E396" s="57" t="s">
         <v>678</v>
       </c>
@@ -18563,9 +18572,9 @@
       <c r="A397" s="33">
         <v>380</v>
       </c>
-      <c r="B397" s="81"/>
-      <c r="C397" s="80"/>
-      <c r="D397" s="80"/>
+      <c r="B397" s="89"/>
+      <c r="C397" s="90"/>
+      <c r="D397" s="90"/>
       <c r="E397" s="57" t="s">
         <v>679</v>
       </c>
@@ -18587,9 +18596,9 @@
       <c r="A398" s="33">
         <v>381</v>
       </c>
-      <c r="B398" s="81"/>
-      <c r="C398" s="80"/>
-      <c r="D398" s="80"/>
+      <c r="B398" s="89"/>
+      <c r="C398" s="90"/>
+      <c r="D398" s="90"/>
       <c r="E398" s="57" t="s">
         <v>680</v>
       </c>
@@ -18611,9 +18620,9 @@
       <c r="A399" s="33">
         <v>382</v>
       </c>
-      <c r="B399" s="81"/>
-      <c r="C399" s="80"/>
-      <c r="D399" s="80"/>
+      <c r="B399" s="89"/>
+      <c r="C399" s="90"/>
+      <c r="D399" s="90"/>
       <c r="E399" s="57" t="s">
         <v>681</v>
       </c>
@@ -18635,9 +18644,9 @@
       <c r="A400" s="33">
         <v>383</v>
       </c>
-      <c r="B400" s="81"/>
-      <c r="C400" s="80"/>
-      <c r="D400" s="80"/>
+      <c r="B400" s="89"/>
+      <c r="C400" s="90"/>
+      <c r="D400" s="90"/>
       <c r="E400" s="57" t="s">
         <v>682</v>
       </c>
@@ -18659,9 +18668,9 @@
       <c r="A401" s="33">
         <v>384</v>
       </c>
-      <c r="B401" s="81"/>
-      <c r="C401" s="80"/>
-      <c r="D401" s="80"/>
+      <c r="B401" s="89"/>
+      <c r="C401" s="90"/>
+      <c r="D401" s="90"/>
       <c r="E401" s="57" t="s">
         <v>683</v>
       </c>
@@ -18683,9 +18692,9 @@
       <c r="A402" s="33">
         <v>385</v>
       </c>
-      <c r="B402" s="81"/>
-      <c r="C402" s="80"/>
-      <c r="D402" s="80"/>
+      <c r="B402" s="89"/>
+      <c r="C402" s="90"/>
+      <c r="D402" s="90"/>
       <c r="E402" s="57" t="s">
         <v>684</v>
       </c>
@@ -18707,9 +18716,9 @@
       <c r="A403" s="33">
         <v>386</v>
       </c>
-      <c r="B403" s="81"/>
-      <c r="C403" s="80"/>
-      <c r="D403" s="80"/>
+      <c r="B403" s="89"/>
+      <c r="C403" s="90"/>
+      <c r="D403" s="90"/>
       <c r="E403" s="57" t="s">
         <v>685</v>
       </c>
@@ -18728,24 +18737,24 @@
       <c r="J403" s="13"/>
     </row>
     <row r="404" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="82" t="s">
+      <c r="A404" s="74" t="s">
         <v>697</v>
       </c>
-      <c r="B404" s="82"/>
-      <c r="C404" s="82"/>
-      <c r="D404" s="82"/>
-      <c r="E404" s="82"/>
-      <c r="F404" s="82"/>
-      <c r="G404" s="82"/>
-      <c r="H404" s="82"/>
-      <c r="I404" s="82"/>
-      <c r="J404" s="82"/>
+      <c r="B404" s="74"/>
+      <c r="C404" s="74"/>
+      <c r="D404" s="74"/>
+      <c r="E404" s="74"/>
+      <c r="F404" s="74"/>
+      <c r="G404" s="74"/>
+      <c r="H404" s="74"/>
+      <c r="I404" s="74"/>
+      <c r="J404" s="74"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="33">
         <v>387</v>
       </c>
-      <c r="B405" s="81" t="s">
+      <c r="B405" s="89" t="s">
         <v>699</v>
       </c>
       <c r="C405" s="90" t="s">
@@ -18754,648 +18763,612 @@
       <c r="D405" s="90" t="s">
         <v>653</v>
       </c>
-      <c r="E405" s="11" t="s">
+      <c r="E405" s="61" t="s">
         <v>701</v>
       </c>
-      <c r="F405" s="11" t="s">
+      <c r="F405" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G405" s="11" t="s">
+      <c r="G405" s="61" t="s">
         <v>649</v>
       </c>
-      <c r="H405" s="11" t="s">
+      <c r="H405" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I405" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J405" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I405" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J405" s="13"/>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="33">
         <v>388</v>
       </c>
-      <c r="B406" s="81"/>
+      <c r="B406" s="89"/>
       <c r="C406" s="90"/>
       <c r="D406" s="90"/>
-      <c r="E406" s="11" t="s">
+      <c r="E406" s="61" t="s">
         <v>702</v>
       </c>
-      <c r="F406" s="11" t="s">
+      <c r="F406" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G406" s="11" t="s">
+      <c r="G406" s="61" t="s">
         <v>652</v>
       </c>
-      <c r="H406" s="11" t="s">
+      <c r="H406" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I406" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J406" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I406" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J406" s="13"/>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" s="33">
         <v>389</v>
       </c>
-      <c r="B407" s="81"/>
+      <c r="B407" s="89"/>
       <c r="C407" s="90"/>
       <c r="D407" s="90"/>
-      <c r="E407" s="11" t="s">
+      <c r="E407" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="F407" s="11" t="s">
+      <c r="F407" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G407" s="11" t="s">
+      <c r="G407" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="H407" s="11" t="s">
+      <c r="H407" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I407" s="11" t="s">
+      <c r="I407" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J407" s="15" t="s">
-        <v>775</v>
+      <c r="J407" s="17" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="33">
         <v>390</v>
       </c>
-      <c r="B408" s="81"/>
+      <c r="B408" s="89"/>
       <c r="C408" s="90"/>
       <c r="D408" s="90"/>
-      <c r="E408" s="11" t="s">
+      <c r="E408" s="25" t="s">
         <v>704</v>
       </c>
-      <c r="F408" s="11" t="s">
+      <c r="F408" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G408" s="11" t="s">
+      <c r="G408" s="25" t="s">
         <v>659</v>
       </c>
-      <c r="H408" s="11" t="s">
+      <c r="H408" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I408" s="11" t="s">
+      <c r="I408" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J408" s="15" t="s">
-        <v>775</v>
+      <c r="J408" s="17" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" s="33">
         <v>391</v>
       </c>
-      <c r="B409" s="81"/>
+      <c r="B409" s="89"/>
       <c r="C409" s="90"/>
       <c r="D409" s="90"/>
-      <c r="E409" s="11" t="s">
+      <c r="E409" s="61" t="s">
         <v>705</v>
       </c>
-      <c r="F409" s="11" t="s">
+      <c r="F409" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G409" s="11" t="s">
+      <c r="G409" s="61" t="s">
         <v>660</v>
       </c>
-      <c r="H409" s="11" t="s">
+      <c r="H409" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I409" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J409" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I409" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J409" s="13"/>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="33">
         <v>392</v>
       </c>
-      <c r="B410" s="81"/>
+      <c r="B410" s="89"/>
       <c r="C410" s="90"/>
       <c r="D410" s="90"/>
-      <c r="E410" s="11" t="s">
+      <c r="E410" s="61" t="s">
         <v>706</v>
       </c>
-      <c r="F410" s="11" t="s">
+      <c r="F410" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G410" s="11" t="s">
+      <c r="G410" s="61" t="s">
         <v>661</v>
       </c>
-      <c r="H410" s="11" t="s">
+      <c r="H410" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I410" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J410" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I410" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J410" s="13"/>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="33">
         <v>393</v>
       </c>
-      <c r="B411" s="81"/>
+      <c r="B411" s="89"/>
       <c r="C411" s="90"/>
       <c r="D411" s="90"/>
-      <c r="E411" s="11" t="s">
+      <c r="E411" s="25" t="s">
         <v>707</v>
       </c>
-      <c r="F411" s="11" t="s">
+      <c r="F411" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G411" s="11" t="s">
+      <c r="G411" s="25" t="s">
         <v>668</v>
       </c>
-      <c r="H411" s="11" t="s">
+      <c r="H411" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I411" s="11" t="s">
+      <c r="I411" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J411" s="15" t="s">
-        <v>775</v>
+      <c r="J411" s="17" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="33">
         <v>394</v>
       </c>
-      <c r="B412" s="81"/>
+      <c r="B412" s="89"/>
       <c r="C412" s="90"/>
       <c r="D412" s="90"/>
-      <c r="E412" s="11" t="s">
+      <c r="E412" s="25" t="s">
         <v>708</v>
       </c>
-      <c r="F412" s="11" t="s">
+      <c r="F412" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G412" s="11" t="s">
+      <c r="G412" s="25" t="s">
         <v>669</v>
       </c>
-      <c r="H412" s="11" t="s">
+      <c r="H412" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I412" s="11" t="s">
+      <c r="I412" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J412" s="15" t="s">
-        <v>775</v>
+      <c r="J412" s="17" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="33">
         <v>395</v>
       </c>
-      <c r="B413" s="81"/>
+      <c r="B413" s="89"/>
       <c r="C413" s="90"/>
       <c r="D413" s="90"/>
-      <c r="E413" s="11" t="s">
+      <c r="E413" s="25" t="s">
         <v>709</v>
       </c>
-      <c r="F413" s="11" t="s">
+      <c r="F413" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G413" s="11" t="s">
+      <c r="G413" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="H413" s="11" t="s">
+      <c r="H413" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I413" s="11" t="s">
+      <c r="I413" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J413" s="15" t="s">
-        <v>775</v>
+      <c r="J413" s="17" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="33">
         <v>396</v>
       </c>
-      <c r="B414" s="81"/>
+      <c r="B414" s="89"/>
       <c r="C414" s="90"/>
       <c r="D414" s="90"/>
-      <c r="E414" s="11" t="s">
+      <c r="E414" s="25" t="s">
         <v>710</v>
       </c>
-      <c r="F414" s="11" t="s">
+      <c r="F414" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="G414" s="11" t="s">
+      <c r="G414" s="25" t="s">
         <v>671</v>
       </c>
-      <c r="H414" s="11" t="s">
+      <c r="H414" s="25" t="s">
         <v>648</v>
       </c>
-      <c r="I414" s="11" t="s">
+      <c r="I414" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="J414" s="15" t="s">
-        <v>775</v>
+      <c r="J414" s="17" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="33">
         <v>397</v>
       </c>
-      <c r="B415" s="81"/>
+      <c r="B415" s="89"/>
       <c r="C415" s="90"/>
       <c r="D415" s="90"/>
-      <c r="E415" s="11" t="s">
+      <c r="E415" s="61" t="s">
         <v>711</v>
       </c>
-      <c r="F415" s="11" t="s">
+      <c r="F415" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G415" s="11" t="s">
+      <c r="G415" s="61" t="s">
         <v>672</v>
       </c>
-      <c r="H415" s="11" t="s">
+      <c r="H415" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I415" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J415" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I415" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J415" s="13"/>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="33">
         <v>398</v>
       </c>
-      <c r="B416" s="81"/>
+      <c r="B416" s="89"/>
       <c r="C416" s="90"/>
       <c r="D416" s="90"/>
-      <c r="E416" s="11" t="s">
+      <c r="E416" s="61" t="s">
         <v>712</v>
       </c>
-      <c r="F416" s="11" t="s">
+      <c r="F416" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G416" s="11" t="s">
+      <c r="G416" s="61" t="s">
         <v>673</v>
       </c>
-      <c r="H416" s="11" t="s">
+      <c r="H416" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I416" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J416" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I416" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J416" s="13"/>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="33">
         <v>399</v>
       </c>
-      <c r="B417" s="81"/>
+      <c r="B417" s="89"/>
       <c r="C417" s="90"/>
       <c r="D417" s="90"/>
-      <c r="E417" s="11" t="s">
+      <c r="E417" s="61" t="s">
         <v>713</v>
       </c>
-      <c r="F417" s="11" t="s">
+      <c r="F417" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G417" s="11" t="s">
+      <c r="G417" s="61" t="s">
         <v>686</v>
       </c>
-      <c r="H417" s="11" t="s">
+      <c r="H417" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I417" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J417" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I417" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J417" s="13"/>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="33">
         <v>400</v>
       </c>
-      <c r="B418" s="81"/>
+      <c r="B418" s="89"/>
       <c r="C418" s="90"/>
       <c r="D418" s="90"/>
-      <c r="E418" s="11" t="s">
+      <c r="E418" s="61" t="s">
         <v>714</v>
       </c>
-      <c r="F418" s="11" t="s">
+      <c r="F418" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G418" s="11" t="s">
+      <c r="G418" s="61" t="s">
         <v>687</v>
       </c>
-      <c r="H418" s="11" t="s">
+      <c r="H418" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I418" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J418" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I418" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J418" s="13"/>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="33">
         <v>401</v>
       </c>
-      <c r="B419" s="81"/>
+      <c r="B419" s="89"/>
       <c r="C419" s="90"/>
       <c r="D419" s="90"/>
-      <c r="E419" s="11" t="s">
+      <c r="E419" s="61" t="s">
         <v>715</v>
       </c>
-      <c r="F419" s="11" t="s">
+      <c r="F419" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G419" s="11" t="s">
+      <c r="G419" s="61" t="s">
         <v>688</v>
       </c>
-      <c r="H419" s="11" t="s">
+      <c r="H419" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I419" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J419" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I419" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J419" s="13"/>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="33">
         <v>402</v>
       </c>
-      <c r="B420" s="81"/>
+      <c r="B420" s="89"/>
       <c r="C420" s="90"/>
       <c r="D420" s="90"/>
-      <c r="E420" s="11" t="s">
+      <c r="E420" s="61" t="s">
         <v>716</v>
       </c>
-      <c r="F420" s="11" t="s">
+      <c r="F420" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G420" s="11" t="s">
+      <c r="G420" s="61" t="s">
         <v>689</v>
       </c>
-      <c r="H420" s="11" t="s">
+      <c r="H420" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I420" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J420" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I420" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J420" s="13"/>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="33">
         <v>403</v>
       </c>
-      <c r="B421" s="81"/>
+      <c r="B421" s="89"/>
       <c r="C421" s="90"/>
       <c r="D421" s="90"/>
-      <c r="E421" s="11" t="s">
+      <c r="E421" s="61" t="s">
         <v>717</v>
       </c>
-      <c r="F421" s="11" t="s">
+      <c r="F421" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G421" s="11" t="s">
+      <c r="G421" s="61" t="s">
         <v>690</v>
       </c>
-      <c r="H421" s="11" t="s">
+      <c r="H421" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I421" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J421" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I421" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J421" s="13"/>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="33">
         <v>404</v>
       </c>
-      <c r="B422" s="81"/>
+      <c r="B422" s="89"/>
       <c r="C422" s="90"/>
       <c r="D422" s="90"/>
-      <c r="E422" s="11" t="s">
+      <c r="E422" s="61" t="s">
         <v>718</v>
       </c>
-      <c r="F422" s="11" t="s">
+      <c r="F422" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G422" s="11" t="s">
+      <c r="G422" s="61" t="s">
         <v>691</v>
       </c>
-      <c r="H422" s="11" t="s">
+      <c r="H422" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I422" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J422" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I422" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J422" s="13"/>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="33">
         <v>405</v>
       </c>
-      <c r="B423" s="81"/>
+      <c r="B423" s="89"/>
       <c r="C423" s="90"/>
       <c r="D423" s="90"/>
-      <c r="E423" s="11" t="s">
+      <c r="E423" s="61" t="s">
         <v>719</v>
       </c>
-      <c r="F423" s="11" t="s">
+      <c r="F423" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G423" s="11" t="s">
+      <c r="G423" s="61" t="s">
         <v>647</v>
       </c>
-      <c r="H423" s="11" t="s">
+      <c r="H423" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I423" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J423" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I423" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J423" s="13"/>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="33">
         <v>406</v>
       </c>
-      <c r="B424" s="81"/>
+      <c r="B424" s="89"/>
       <c r="C424" s="90"/>
       <c r="D424" s="90"/>
-      <c r="E424" s="11" t="s">
+      <c r="E424" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="F424" s="11" t="s">
+      <c r="F424" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G424" s="11" t="s">
+      <c r="G424" s="61" t="s">
         <v>692</v>
       </c>
-      <c r="H424" s="11" t="s">
+      <c r="H424" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I424" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J424" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I424" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J424" s="13"/>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="33">
         <v>407</v>
       </c>
-      <c r="B425" s="81"/>
+      <c r="B425" s="89"/>
       <c r="C425" s="90"/>
       <c r="D425" s="90"/>
-      <c r="E425" s="11" t="s">
+      <c r="E425" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="F425" s="11" t="s">
+      <c r="F425" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G425" s="11" t="s">
+      <c r="G425" s="61" t="s">
         <v>693</v>
       </c>
-      <c r="H425" s="11" t="s">
+      <c r="H425" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I425" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J425" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I425" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J425" s="13"/>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="33">
         <v>408</v>
       </c>
-      <c r="B426" s="81"/>
+      <c r="B426" s="89"/>
       <c r="C426" s="90"/>
       <c r="D426" s="90"/>
-      <c r="E426" s="11" t="s">
+      <c r="E426" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="F426" s="11" t="s">
+      <c r="F426" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G426" s="11" t="s">
+      <c r="G426" s="61" t="s">
         <v>694</v>
       </c>
-      <c r="H426" s="11" t="s">
+      <c r="H426" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I426" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J426" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I426" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J426" s="13"/>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="33">
         <v>409</v>
       </c>
-      <c r="B427" s="81"/>
+      <c r="B427" s="89"/>
       <c r="C427" s="90"/>
       <c r="D427" s="90"/>
-      <c r="E427" s="11" t="s">
+      <c r="E427" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="F427" s="11" t="s">
+      <c r="F427" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G427" s="11" t="s">
+      <c r="G427" s="61" t="s">
         <v>695</v>
       </c>
-      <c r="H427" s="11" t="s">
+      <c r="H427" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I427" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J427" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I427" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J427" s="13"/>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="33">
         <v>410</v>
       </c>
-      <c r="B428" s="81"/>
+      <c r="B428" s="89"/>
       <c r="C428" s="90"/>
       <c r="D428" s="90"/>
-      <c r="E428" s="11" t="s">
+      <c r="E428" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="F428" s="11" t="s">
+      <c r="F428" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="G428" s="11" t="s">
+      <c r="G428" s="61" t="s">
         <v>696</v>
       </c>
-      <c r="H428" s="11" t="s">
+      <c r="H428" s="61" t="s">
         <v>648</v>
       </c>
-      <c r="I428" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="J428" s="15" t="s">
-        <v>775</v>
-      </c>
+      <c r="I428" s="61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J428" s="13"/>
     </row>
     <row r="429" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="82" t="s">
+      <c r="A429" s="74" t="s">
         <v>700</v>
       </c>
-      <c r="B429" s="82"/>
-      <c r="C429" s="82"/>
-      <c r="D429" s="82"/>
-      <c r="E429" s="82"/>
-      <c r="F429" s="82"/>
-      <c r="G429" s="82"/>
-      <c r="H429" s="82"/>
-      <c r="I429" s="82"/>
-      <c r="J429" s="82"/>
+      <c r="B429" s="74"/>
+      <c r="C429" s="74"/>
+      <c r="D429" s="74"/>
+      <c r="E429" s="74"/>
+      <c r="F429" s="74"/>
+      <c r="G429" s="74"/>
+      <c r="H429" s="74"/>
+      <c r="I429" s="74"/>
+      <c r="J429" s="74"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="33">
         <v>411</v>
       </c>
-      <c r="B430" s="62" t="s">
+      <c r="B430" s="73" t="s">
         <v>725</v>
       </c>
-      <c r="C430" s="63" t="s">
+      <c r="C430" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="D430" s="63" t="s">
+      <c r="D430" s="72" t="s">
         <v>653</v>
       </c>
       <c r="E430" s="57" t="s">
@@ -19421,9 +19394,9 @@
       <c r="A431" s="33">
         <v>412</v>
       </c>
-      <c r="B431" s="62"/>
-      <c r="C431" s="63"/>
-      <c r="D431" s="63"/>
+      <c r="B431" s="73"/>
+      <c r="C431" s="72"/>
+      <c r="D431" s="72"/>
       <c r="E431" s="57" t="s">
         <v>728</v>
       </c>
@@ -19445,9 +19418,9 @@
       <c r="A432" s="33">
         <v>413</v>
       </c>
-      <c r="B432" s="62"/>
-      <c r="C432" s="63"/>
-      <c r="D432" s="63"/>
+      <c r="B432" s="73"/>
+      <c r="C432" s="72"/>
+      <c r="D432" s="72"/>
       <c r="E432" s="57" t="s">
         <v>729</v>
       </c>
@@ -19469,9 +19442,9 @@
       <c r="A433" s="33">
         <v>414</v>
       </c>
-      <c r="B433" s="62"/>
-      <c r="C433" s="63"/>
-      <c r="D433" s="63"/>
+      <c r="B433" s="73"/>
+      <c r="C433" s="72"/>
+      <c r="D433" s="72"/>
       <c r="E433" s="57" t="s">
         <v>730</v>
       </c>
@@ -19493,9 +19466,9 @@
       <c r="A434" s="33">
         <v>415</v>
       </c>
-      <c r="B434" s="62"/>
-      <c r="C434" s="63"/>
-      <c r="D434" s="63"/>
+      <c r="B434" s="73"/>
+      <c r="C434" s="72"/>
+      <c r="D434" s="72"/>
       <c r="E434" s="57" t="s">
         <v>731</v>
       </c>
@@ -19517,9 +19490,9 @@
       <c r="A435" s="33">
         <v>416</v>
       </c>
-      <c r="B435" s="62"/>
-      <c r="C435" s="63"/>
-      <c r="D435" s="63"/>
+      <c r="B435" s="73"/>
+      <c r="C435" s="72"/>
+      <c r="D435" s="72"/>
       <c r="E435" s="57" t="s">
         <v>732</v>
       </c>
@@ -19541,9 +19514,9 @@
       <c r="A436" s="33">
         <v>417</v>
       </c>
-      <c r="B436" s="62"/>
-      <c r="C436" s="63"/>
-      <c r="D436" s="63"/>
+      <c r="B436" s="73"/>
+      <c r="C436" s="72"/>
+      <c r="D436" s="72"/>
       <c r="E436" s="57" t="s">
         <v>733</v>
       </c>
@@ -19565,9 +19538,9 @@
       <c r="A437" s="33">
         <v>418</v>
       </c>
-      <c r="B437" s="62"/>
-      <c r="C437" s="63"/>
-      <c r="D437" s="63"/>
+      <c r="B437" s="73"/>
+      <c r="C437" s="72"/>
+      <c r="D437" s="72"/>
       <c r="E437" s="57" t="s">
         <v>734</v>
       </c>
@@ -19589,9 +19562,9 @@
       <c r="A438" s="33">
         <v>419</v>
       </c>
-      <c r="B438" s="62"/>
-      <c r="C438" s="63"/>
-      <c r="D438" s="63"/>
+      <c r="B438" s="73"/>
+      <c r="C438" s="72"/>
+      <c r="D438" s="72"/>
       <c r="E438" s="57" t="s">
         <v>735</v>
       </c>
@@ -19613,9 +19586,9 @@
       <c r="A439" s="33">
         <v>420</v>
       </c>
-      <c r="B439" s="62"/>
-      <c r="C439" s="63"/>
-      <c r="D439" s="63"/>
+      <c r="B439" s="73"/>
+      <c r="C439" s="72"/>
+      <c r="D439" s="72"/>
       <c r="E439" s="57" t="s">
         <v>736</v>
       </c>
@@ -19637,9 +19610,9 @@
       <c r="A440" s="33">
         <v>421</v>
       </c>
-      <c r="B440" s="62"/>
-      <c r="C440" s="63"/>
-      <c r="D440" s="63"/>
+      <c r="B440" s="73"/>
+      <c r="C440" s="72"/>
+      <c r="D440" s="72"/>
       <c r="E440" s="57" t="s">
         <v>737</v>
       </c>
@@ -19661,9 +19634,9 @@
       <c r="A441" s="33">
         <v>422</v>
       </c>
-      <c r="B441" s="62"/>
-      <c r="C441" s="63"/>
-      <c r="D441" s="63"/>
+      <c r="B441" s="73"/>
+      <c r="C441" s="72"/>
+      <c r="D441" s="72"/>
       <c r="E441" s="57" t="s">
         <v>738</v>
       </c>
@@ -19682,18 +19655,18 @@
       <c r="J441" s="13"/>
     </row>
     <row r="442" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="82" t="s">
+      <c r="A442" s="74" t="s">
         <v>773</v>
       </c>
-      <c r="B442" s="82"/>
-      <c r="C442" s="82"/>
-      <c r="D442" s="82"/>
-      <c r="E442" s="82"/>
-      <c r="F442" s="82"/>
-      <c r="G442" s="82"/>
-      <c r="H442" s="82"/>
-      <c r="I442" s="82"/>
-      <c r="J442" s="82"/>
+      <c r="B442" s="74"/>
+      <c r="C442" s="74"/>
+      <c r="D442" s="74"/>
+      <c r="E442" s="74"/>
+      <c r="F442" s="74"/>
+      <c r="G442" s="74"/>
+      <c r="H442" s="74"/>
+      <c r="I442" s="74"/>
+      <c r="J442" s="74"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="33"/>
@@ -19853,11 +19826,11 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" s="5"/>
-      <c r="B456" s="77" t="s">
+      <c r="B456" s="69" t="s">
         <v>507</v>
       </c>
-      <c r="C456" s="78"/>
-      <c r="D456" s="79"/>
+      <c r="C456" s="70"/>
+      <c r="D456" s="71"/>
       <c r="E456" s="5"/>
       <c r="F456" s="5"/>
       <c r="G456" s="5"/>
@@ -19945,6 +19918,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="A327:J327"/>
+    <mergeCell ref="D238:D260"/>
+    <mergeCell ref="C238:C260"/>
+    <mergeCell ref="A314:J314"/>
+    <mergeCell ref="B315:B326"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="C321:C325"/>
+    <mergeCell ref="D321:D325"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="D261:D274"/>
+    <mergeCell ref="C261:C274"/>
+    <mergeCell ref="B238:B274"/>
+    <mergeCell ref="A275:J275"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="A301:J301"/>
+    <mergeCell ref="B302:B313"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="D302:D307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="D308:D312"/>
+    <mergeCell ref="A288:J288"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="C295:C299"/>
+    <mergeCell ref="D295:D299"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B276:B287"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="B211:B224"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="C211:C219"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D2:D32"/>
+    <mergeCell ref="B166:B179"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="D152:D159"/>
+    <mergeCell ref="C152:C159"/>
+    <mergeCell ref="D166:D174"/>
+    <mergeCell ref="C166:C174"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="B91:B101"/>
+    <mergeCell ref="A102:J102"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="B79:B89"/>
+    <mergeCell ref="A90:J90"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B53:B64"/>
+    <mergeCell ref="B66:B77"/>
+    <mergeCell ref="A195:J195"/>
+    <mergeCell ref="B152:B164"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A165:J165"/>
+    <mergeCell ref="F348:F352"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="B2:B39"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="A429:J429"/>
+    <mergeCell ref="D430:D441"/>
+    <mergeCell ref="C430:C441"/>
+    <mergeCell ref="B430:B441"/>
+    <mergeCell ref="A442:J442"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="E348:E352"/>
+    <mergeCell ref="D133:D148"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="A151:J151"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B127:B148"/>
+    <mergeCell ref="A180:J180"/>
+    <mergeCell ref="B181:B194"/>
+    <mergeCell ref="C190:C191"/>
     <mergeCell ref="G348:G352"/>
     <mergeCell ref="A353:J353"/>
     <mergeCell ref="C348:C352"/>
@@ -19969,127 +20063,6 @@
     <mergeCell ref="B405:B428"/>
     <mergeCell ref="C405:C428"/>
     <mergeCell ref="D405:D428"/>
-    <mergeCell ref="A429:J429"/>
-    <mergeCell ref="D430:D441"/>
-    <mergeCell ref="C430:C441"/>
-    <mergeCell ref="B430:B441"/>
-    <mergeCell ref="A442:J442"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C127:C132"/>
-    <mergeCell ref="D127:D132"/>
-    <mergeCell ref="E348:E352"/>
-    <mergeCell ref="D133:D148"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="A151:J151"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B127:B148"/>
-    <mergeCell ref="A180:J180"/>
-    <mergeCell ref="B181:B194"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="A195:J195"/>
-    <mergeCell ref="B152:B164"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A165:J165"/>
-    <mergeCell ref="F348:F352"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="B103:B114"/>
-    <mergeCell ref="B2:B39"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="B91:B101"/>
-    <mergeCell ref="A102:J102"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="B79:B89"/>
-    <mergeCell ref="A90:J90"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B53:B64"/>
-    <mergeCell ref="B66:B77"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D2:D32"/>
-    <mergeCell ref="B166:B179"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="D152:D159"/>
-    <mergeCell ref="C152:C159"/>
-    <mergeCell ref="D166:D174"/>
-    <mergeCell ref="C166:C174"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="C181:C189"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A237:J237"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="B196:B209"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="B211:B224"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="C211:C219"/>
-    <mergeCell ref="D308:D312"/>
-    <mergeCell ref="A288:J288"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="C295:C299"/>
-    <mergeCell ref="D295:D299"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B276:B287"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="A327:J327"/>
-    <mergeCell ref="D238:D260"/>
-    <mergeCell ref="C238:C260"/>
-    <mergeCell ref="A314:J314"/>
-    <mergeCell ref="B315:B326"/>
-    <mergeCell ref="C315:C320"/>
-    <mergeCell ref="D315:D320"/>
-    <mergeCell ref="C321:C325"/>
-    <mergeCell ref="D321:D325"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="D261:D274"/>
-    <mergeCell ref="C261:C274"/>
-    <mergeCell ref="B238:B274"/>
-    <mergeCell ref="A275:J275"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="A301:J301"/>
-    <mergeCell ref="B302:B313"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="D302:D307"/>
-    <mergeCell ref="C308:C312"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -20117,18 +20090,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="89"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -20691,11 +20664,11 @@
       <c r="A1" t="s">
         <v>643</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>625</v>
       </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="85"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
@@ -20840,11 +20813,11 @@
       <c r="A12" t="s">
         <v>642</v>
       </c>
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="82" t="s">
         <v>625</v>
       </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
@@ -21019,30 +20992,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="86" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="85" t="s">
         <v>570</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86" t="s">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85" t="s">
         <v>569</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -21999,30 +21972,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="87" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="86" t="s">
         <v>620</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="86" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="85" t="s">
         <v>619</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -22945,30 +22918,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="87" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="86" t="s">
         <v>621</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="86" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="85" t="s">
         <v>622</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -23891,30 +23864,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="87" t="s">
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="87" t="s">
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="86" t="s">
         <v>623</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="86" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="85" t="s">
         <v>624</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -24829,18 +24802,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="89"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -25156,18 +25129,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86" t="s">
+      <c r="D1" s="85"/>
+      <c r="E1" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="86" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="89"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">

--- a/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
+++ b/Prototype/Test/kontrol kartı/Kontrol Kartı Test Planı.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
@@ -3040,13 +3040,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,6 +3070,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3083,24 +3104,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3123,9 +3126,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3185,6 +3185,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3629,6 +3630,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3750,6 +3752,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3824,6 +3827,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8763,7 +8767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A452" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D463" sqref="D463"/>
     </sheetView>
@@ -8818,13 +8822,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -8848,9 +8852,9 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="70"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="10" t="s">
         <v>506</v>
       </c>
@@ -8872,9 +8876,9 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="10" t="s">
         <v>507</v>
       </c>
@@ -8896,9 +8900,9 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="10" t="s">
         <v>404</v>
       </c>
@@ -8920,9 +8924,9 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="70"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="10" t="s">
         <v>405</v>
       </c>
@@ -8944,9 +8948,9 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="10" t="s">
         <v>406</v>
       </c>
@@ -8968,9 +8972,9 @@
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="70"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="10" t="s">
         <v>13</v>
       </c>
@@ -8992,9 +8996,9 @@
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="70"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="10" t="s">
         <v>407</v>
       </c>
@@ -9016,9 +9020,9 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="70"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="10" t="s">
         <v>408</v>
       </c>
@@ -9040,9 +9044,9 @@
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="70"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="10" t="s">
         <v>409</v>
       </c>
@@ -9064,9 +9068,9 @@
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="70"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="10" t="s">
         <v>410</v>
       </c>
@@ -9088,9 +9092,9 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="10" t="s">
         <v>421</v>
       </c>
@@ -9112,9 +9116,9 @@
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="71"/>
       <c r="E14" s="10" t="s">
         <v>411</v>
       </c>
@@ -9136,9 +9140,9 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="70"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="71"/>
       <c r="E15" s="10" t="s">
         <v>412</v>
       </c>
@@ -9160,9 +9164,9 @@
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="71"/>
       <c r="E16" s="10" t="s">
         <v>422</v>
       </c>
@@ -9184,9 +9188,9 @@
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="70"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="71"/>
       <c r="E17" s="10" t="s">
         <v>413</v>
       </c>
@@ -9208,9 +9212,9 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="70"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="10" t="s">
         <v>414</v>
       </c>
@@ -9232,9 +9236,9 @@
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="70"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="71"/>
       <c r="E19" s="10" t="s">
         <v>415</v>
       </c>
@@ -9256,9 +9260,9 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="70"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="10" t="s">
         <v>416</v>
       </c>
@@ -9280,9 +9284,9 @@
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="70"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="10" t="s">
         <v>417</v>
       </c>
@@ -9304,9 +9308,9 @@
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="70"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="71"/>
       <c r="E22" s="10" t="s">
         <v>418</v>
       </c>
@@ -9328,9 +9332,9 @@
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="70"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="71"/>
       <c r="E23" s="10" t="s">
         <v>419</v>
       </c>
@@ -9352,9 +9356,9 @@
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="70"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="71"/>
       <c r="E24" s="10" t="s">
         <v>423</v>
       </c>
@@ -9376,9 +9380,9 @@
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="70"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="10" t="s">
         <v>424</v>
       </c>
@@ -9400,9 +9404,9 @@
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="70"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="10" t="s">
         <v>425</v>
       </c>
@@ -9424,9 +9428,9 @@
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="70"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="10" t="s">
         <v>426</v>
       </c>
@@ -9448,9 +9452,9 @@
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="70"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="71"/>
       <c r="E28" s="10" t="s">
         <v>427</v>
       </c>
@@ -9472,9 +9476,9 @@
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="70"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="71"/>
       <c r="E29" s="10" t="s">
         <v>428</v>
       </c>
@@ -9496,9 +9500,9 @@
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="70"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="10" t="s">
         <v>429</v>
       </c>
@@ -9520,9 +9524,9 @@
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="70"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="10" t="s">
         <v>430</v>
       </c>
@@ -9544,9 +9548,9 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="71"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="72"/>
       <c r="E32" s="10" t="s">
         <v>431</v>
       </c>
@@ -9568,11 +9572,11 @@
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65" t="s">
+      <c r="B33" s="65"/>
+      <c r="C33" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="65" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="29" t="s">
@@ -9596,9 +9600,9 @@
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="29" t="s">
         <v>22</v>
       </c>
@@ -9622,9 +9626,9 @@
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="29" t="s">
         <v>23</v>
       </c>
@@ -9648,8 +9652,8 @@
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="29" t="s">
         <v>63</v>
       </c>
@@ -9674,7 +9678,7 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="11" t="s">
         <v>118</v>
       </c>
@@ -9704,7 +9708,7 @@
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="29" t="s">
         <v>12</v>
       </c>
@@ -9734,7 +9738,7 @@
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="29" t="s">
         <v>57</v>
       </c>
@@ -9761,30 +9765,30 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E41" s="10" t="s">
@@ -9808,9 +9812,9 @@
       <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="10" t="s">
         <v>35</v>
       </c>
@@ -9832,9 +9836,9 @@
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
       <c r="E43" s="10" t="s">
         <v>36</v>
       </c>
@@ -9856,9 +9860,9 @@
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="10" t="s">
         <v>37</v>
       </c>
@@ -9880,9 +9884,9 @@
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="64"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
       <c r="E45" s="10" t="s">
         <v>38</v>
       </c>
@@ -9904,9 +9908,9 @@
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
       <c r="E46" s="10" t="s">
         <v>39</v>
       </c>
@@ -9928,9 +9932,9 @@
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
       <c r="E47" s="10" t="s">
         <v>40</v>
       </c>
@@ -9952,9 +9956,9 @@
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
       <c r="E48" s="10" t="s">
         <v>41</v>
       </c>
@@ -9976,11 +9980,11 @@
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65" t="s">
+      <c r="B49" s="65"/>
+      <c r="C49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="65" t="s">
         <v>62</v>
       </c>
       <c r="E49" s="10" t="s">
@@ -10004,9 +10008,9 @@
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="10" t="s">
         <v>53</v>
       </c>
@@ -10028,9 +10032,9 @@
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="10" t="s">
         <v>54</v>
       </c>
@@ -10052,9 +10056,9 @@
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="64"/>
       <c r="E52" s="10" t="s">
         <v>55</v>
       </c>
@@ -10076,13 +10080,13 @@
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="65" t="s">
+      <c r="C53" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E53" s="10" t="s">
@@ -10106,9 +10110,9 @@
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
       <c r="E54" s="10" t="s">
         <v>45</v>
       </c>
@@ -10130,9 +10134,9 @@
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
       <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
@@ -10154,9 +10158,9 @@
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
       <c r="E56" s="10" t="s">
         <v>47</v>
       </c>
@@ -10178,9 +10182,9 @@
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="10" t="s">
         <v>50</v>
       </c>
@@ -10202,9 +10206,9 @@
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
       <c r="E58" s="10" t="s">
         <v>48</v>
       </c>
@@ -10226,9 +10230,9 @@
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
       <c r="E59" s="10" t="s">
         <v>49</v>
       </c>
@@ -10250,9 +10254,9 @@
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
       <c r="E60" s="10" t="s">
         <v>46</v>
       </c>
@@ -10274,11 +10278,11 @@
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="64"/>
-      <c r="C61" s="65" t="s">
+      <c r="B61" s="65"/>
+      <c r="C61" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="64" t="s">
         <v>64</v>
       </c>
       <c r="E61" s="10" t="s">
@@ -10302,9 +10306,9 @@
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
       <c r="E62" s="10" t="s">
         <v>68</v>
       </c>
@@ -10326,9 +10330,9 @@
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
       <c r="E63" s="10" t="s">
         <v>69</v>
       </c>
@@ -10350,9 +10354,9 @@
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
       <c r="E64" s="10" t="s">
         <v>70</v>
       </c>
@@ -10371,30 +10375,30 @@
       <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="78" t="s">
+      <c r="A65" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>63</v>
       </c>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="69" t="s">
+      <c r="D66" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="10" t="s">
@@ -10418,9 +10422,9 @@
       <c r="A67" s="4">
         <v>64</v>
       </c>
-      <c r="B67" s="65"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="70"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="71"/>
       <c r="E67" s="10" t="s">
         <v>25</v>
       </c>
@@ -10442,9 +10446,9 @@
       <c r="A68" s="5">
         <v>65</v>
       </c>
-      <c r="B68" s="65"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="70"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="71"/>
       <c r="E68" s="10" t="s">
         <v>26</v>
       </c>
@@ -10466,9 +10470,9 @@
       <c r="A69" s="5">
         <v>66</v>
       </c>
-      <c r="B69" s="65"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="70"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="71"/>
       <c r="E69" s="10" t="s">
         <v>27</v>
       </c>
@@ -10490,9 +10494,9 @@
       <c r="A70" s="5">
         <v>67</v>
       </c>
-      <c r="B70" s="65"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="70"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="68"/>
+      <c r="D70" s="71"/>
       <c r="E70" s="10" t="s">
         <v>32</v>
       </c>
@@ -10514,9 +10518,9 @@
       <c r="A71" s="5">
         <v>68</v>
       </c>
-      <c r="B71" s="65"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="70"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="71"/>
       <c r="E71" s="10" t="s">
         <v>432</v>
       </c>
@@ -10538,9 +10542,9 @@
       <c r="A72" s="5">
         <v>69</v>
       </c>
-      <c r="B72" s="65"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="71"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="72"/>
       <c r="E72" s="10" t="s">
         <v>433</v>
       </c>
@@ -10562,8 +10566,8 @@
       <c r="A73" s="5">
         <v>70</v>
       </c>
-      <c r="B73" s="65"/>
-      <c r="C73" s="66" t="s">
+      <c r="B73" s="64"/>
+      <c r="C73" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="10" t="s">
@@ -10592,8 +10596,8 @@
       <c r="A74" s="5">
         <v>71</v>
       </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="68"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="10" t="s">
         <v>63</v>
       </c>
@@ -10620,7 +10624,7 @@
       <c r="A75" s="5">
         <v>72</v>
       </c>
-      <c r="B75" s="65"/>
+      <c r="B75" s="64"/>
       <c r="C75" s="11" t="s">
         <v>118</v>
       </c>
@@ -10650,7 +10654,7 @@
       <c r="A76" s="5">
         <v>73</v>
       </c>
-      <c r="B76" s="65"/>
+      <c r="B76" s="64"/>
       <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
@@ -10680,7 +10684,7 @@
       <c r="A77" s="5">
         <v>74</v>
       </c>
-      <c r="B77" s="65"/>
+      <c r="B77" s="64"/>
       <c r="C77" s="10" t="s">
         <v>57</v>
       </c>
@@ -10707,30 +10711,30 @@
       </c>
     </row>
     <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="78" t="s">
+      <c r="A78" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>75</v>
       </c>
-      <c r="B79" s="65" t="s">
+      <c r="B79" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D79" s="69" t="s">
+      <c r="D79" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E79" s="10" t="s">
@@ -10754,9 +10758,9 @@
       <c r="A80" s="4">
         <v>76</v>
       </c>
-      <c r="B80" s="65"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="70"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="71"/>
       <c r="E80" s="10" t="s">
         <v>85</v>
       </c>
@@ -10778,9 +10782,9 @@
       <c r="A81" s="5">
         <v>77</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="70"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="71"/>
       <c r="E81" s="10" t="s">
         <v>265</v>
       </c>
@@ -10802,9 +10806,9 @@
       <c r="A82" s="5">
         <v>78</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="70"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="71"/>
       <c r="E82" s="10" t="s">
         <v>434</v>
       </c>
@@ -10826,9 +10830,9 @@
       <c r="A83" s="5">
         <v>79</v>
       </c>
-      <c r="B83" s="65"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="70"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="71"/>
       <c r="E83" s="10" t="s">
         <v>435</v>
       </c>
@@ -10850,9 +10854,9 @@
       <c r="A84" s="5">
         <v>80</v>
       </c>
-      <c r="B84" s="65"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="71"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="69"/>
+      <c r="D84" s="72"/>
       <c r="E84" s="10" t="s">
         <v>436</v>
       </c>
@@ -10874,8 +10878,8 @@
       <c r="A85" s="5">
         <v>81</v>
       </c>
-      <c r="B85" s="65"/>
-      <c r="C85" s="66" t="s">
+      <c r="B85" s="64"/>
+      <c r="C85" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="10" t="s">
@@ -10904,8 +10908,8 @@
       <c r="A86" s="5">
         <v>82</v>
       </c>
-      <c r="B86" s="65"/>
-      <c r="C86" s="68"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="69"/>
       <c r="D86" s="10" t="s">
         <v>63</v>
       </c>
@@ -10932,7 +10936,7 @@
       <c r="A87" s="5">
         <v>83</v>
       </c>
-      <c r="B87" s="65"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="11" t="s">
         <v>118</v>
       </c>
@@ -10962,7 +10966,7 @@
       <c r="A88" s="5">
         <v>84</v>
       </c>
-      <c r="B88" s="65"/>
+      <c r="B88" s="64"/>
       <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
@@ -10992,7 +10996,7 @@
       <c r="A89" s="5">
         <v>85</v>
       </c>
-      <c r="B89" s="65"/>
+      <c r="B89" s="64"/>
       <c r="C89" s="10" t="s">
         <v>57</v>
       </c>
@@ -11019,30 +11023,30 @@
       </c>
     </row>
     <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="78" t="s">
+      <c r="A90" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B90" s="78"/>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
     </row>
     <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>86</v>
       </c>
-      <c r="B91" s="65" t="s">
+      <c r="B91" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="D91" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E91" s="10" t="s">
@@ -11066,9 +11070,9 @@
       <c r="A92" s="4">
         <v>87</v>
       </c>
-      <c r="B92" s="65"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="70"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="68"/>
+      <c r="D92" s="71"/>
       <c r="E92" s="10" t="s">
         <v>97</v>
       </c>
@@ -11090,9 +11094,9 @@
       <c r="A93" s="5">
         <v>88</v>
       </c>
-      <c r="B93" s="65"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="70"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="71"/>
       <c r="E93" s="10" t="s">
         <v>266</v>
       </c>
@@ -11114,9 +11118,9 @@
       <c r="A94" s="5">
         <v>89</v>
       </c>
-      <c r="B94" s="65"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="70"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="68"/>
+      <c r="D94" s="71"/>
       <c r="E94" s="10" t="s">
         <v>437</v>
       </c>
@@ -11138,9 +11142,9 @@
       <c r="A95" s="5">
         <v>90</v>
       </c>
-      <c r="B95" s="65"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="70"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="71"/>
       <c r="E95" s="10" t="s">
         <v>438</v>
       </c>
@@ -11162,9 +11166,9 @@
       <c r="A96" s="5">
         <v>91</v>
       </c>
-      <c r="B96" s="65"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="71"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="69"/>
+      <c r="D96" s="72"/>
       <c r="E96" s="10" t="s">
         <v>439</v>
       </c>
@@ -11186,8 +11190,8 @@
       <c r="A97" s="5">
         <v>92</v>
       </c>
-      <c r="B97" s="65"/>
-      <c r="C97" s="66" t="s">
+      <c r="B97" s="64"/>
+      <c r="C97" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="10" t="s">
@@ -11216,8 +11220,8 @@
       <c r="A98" s="5">
         <v>93</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="68"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="69"/>
       <c r="D98" s="10" t="s">
         <v>63</v>
       </c>
@@ -11244,7 +11248,7 @@
       <c r="A99" s="5">
         <v>94</v>
       </c>
-      <c r="B99" s="65"/>
+      <c r="B99" s="64"/>
       <c r="C99" s="11" t="s">
         <v>118</v>
       </c>
@@ -11274,7 +11278,7 @@
       <c r="A100" s="5">
         <v>95</v>
       </c>
-      <c r="B100" s="65"/>
+      <c r="B100" s="64"/>
       <c r="C100" s="10" t="s">
         <v>12</v>
       </c>
@@ -11304,7 +11308,7 @@
       <c r="A101" s="5">
         <v>96</v>
       </c>
-      <c r="B101" s="65"/>
+      <c r="B101" s="64"/>
       <c r="C101" s="10" t="s">
         <v>57</v>
       </c>
@@ -11331,30 +11335,30 @@
       </c>
     </row>
     <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="78" t="s">
+      <c r="A102" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="78"/>
-      <c r="C102" s="78"/>
-      <c r="D102" s="78"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="78"/>
-      <c r="H102" s="78"/>
-      <c r="I102" s="78"/>
-      <c r="J102" s="78"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
     </row>
     <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>97</v>
       </c>
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="66" t="s">
+      <c r="C103" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="69" t="s">
+      <c r="D103" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E103" s="10" t="s">
@@ -11378,9 +11382,9 @@
       <c r="A104" s="4">
         <v>98</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="70"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="68"/>
+      <c r="D104" s="71"/>
       <c r="E104" s="10" t="s">
         <v>106</v>
       </c>
@@ -11402,9 +11406,9 @@
       <c r="A105" s="5">
         <v>99</v>
       </c>
-      <c r="B105" s="65"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="70"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="71"/>
       <c r="E105" s="10" t="s">
         <v>107</v>
       </c>
@@ -11426,9 +11430,9 @@
       <c r="A106" s="5">
         <v>100</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="70"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="71"/>
       <c r="E106" s="10" t="s">
         <v>108</v>
       </c>
@@ -11450,9 +11454,9 @@
       <c r="A107" s="5">
         <v>101</v>
       </c>
-      <c r="B107" s="65"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="70"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="68"/>
+      <c r="D107" s="71"/>
       <c r="E107" s="10" t="s">
         <v>113</v>
       </c>
@@ -11474,9 +11478,9 @@
       <c r="A108" s="5">
         <v>102</v>
       </c>
-      <c r="B108" s="65"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="70"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="71"/>
       <c r="E108" s="10" t="s">
         <v>114</v>
       </c>
@@ -11498,9 +11502,9 @@
       <c r="A109" s="5">
         <v>103</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="70"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="68"/>
+      <c r="D109" s="71"/>
       <c r="E109" s="10" t="s">
         <v>440</v>
       </c>
@@ -11522,9 +11526,9 @@
       <c r="A110" s="5">
         <v>104</v>
       </c>
-      <c r="B110" s="65"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="71"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="10" t="s">
         <v>441</v>
       </c>
@@ -11546,8 +11550,8 @@
       <c r="A111" s="5">
         <v>105</v>
       </c>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65" t="s">
+      <c r="B111" s="64"/>
+      <c r="C111" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D111" s="10" t="s">
@@ -11576,8 +11580,8 @@
       <c r="A112" s="5">
         <v>106</v>
       </c>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="64"/>
       <c r="D112" s="10" t="s">
         <v>65</v>
       </c>
@@ -11604,8 +11608,8 @@
       <c r="A113" s="5">
         <v>107</v>
       </c>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
       <c r="D113" s="10" t="s">
         <v>63</v>
       </c>
@@ -11630,7 +11634,7 @@
       <c r="A114" s="5">
         <v>108</v>
       </c>
-      <c r="B114" s="65"/>
+      <c r="B114" s="64"/>
       <c r="C114" s="11" t="s">
         <v>118</v>
       </c>
@@ -11657,30 +11661,30 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="78" t="s">
+      <c r="A115" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="78"/>
-      <c r="H115" s="78"/>
-      <c r="I115" s="78"/>
-      <c r="J115" s="78"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C116" s="66" t="s">
+      <c r="C116" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D116" s="69" t="s">
+      <c r="D116" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E116" s="12" t="s">
@@ -11704,9 +11708,9 @@
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="65"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="70"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="68"/>
+      <c r="D117" s="71"/>
       <c r="E117" s="12" t="s">
         <v>128</v>
       </c>
@@ -11728,9 +11732,9 @@
       <c r="A118" s="5">
         <v>111</v>
       </c>
-      <c r="B118" s="65"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="70"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="68"/>
+      <c r="D118" s="71"/>
       <c r="E118" s="12" t="s">
         <v>442</v>
       </c>
@@ -11752,9 +11756,9 @@
       <c r="A119" s="5">
         <v>112</v>
       </c>
-      <c r="B119" s="65"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="70"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="71"/>
       <c r="E119" s="12" t="s">
         <v>129</v>
       </c>
@@ -11778,9 +11782,9 @@
       <c r="A120" s="5">
         <v>113</v>
       </c>
-      <c r="B120" s="65"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="70"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="71"/>
       <c r="E120" s="12" t="s">
         <v>443</v>
       </c>
@@ -11802,9 +11806,9 @@
       <c r="A121" s="5">
         <v>114</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="71"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="72"/>
       <c r="E121" s="12" t="s">
         <v>444</v>
       </c>
@@ -11826,8 +11830,8 @@
       <c r="A122" s="5">
         <v>115</v>
       </c>
-      <c r="B122" s="65"/>
-      <c r="C122" s="66" t="s">
+      <c r="B122" s="64"/>
+      <c r="C122" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="12" t="s">
@@ -11856,8 +11860,8 @@
       <c r="A123" s="5">
         <v>116</v>
       </c>
-      <c r="B123" s="65"/>
-      <c r="C123" s="67"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="68"/>
       <c r="D123" s="12" t="s">
         <v>63</v>
       </c>
@@ -11884,8 +11888,8 @@
       <c r="A124" s="5">
         <v>117</v>
       </c>
-      <c r="B124" s="65"/>
-      <c r="C124" s="68"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="69"/>
       <c r="D124" s="12" t="s">
         <v>65</v>
       </c>
@@ -11912,7 +11916,7 @@
       <c r="A125" s="5">
         <v>118</v>
       </c>
-      <c r="B125" s="65"/>
+      <c r="B125" s="64"/>
       <c r="C125" s="12" t="s">
         <v>57</v>
       </c>
@@ -11939,30 +11943,30 @@
       </c>
     </row>
     <row r="126" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="78" t="s">
+      <c r="A126" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="B126" s="78"/>
-      <c r="C126" s="78"/>
-      <c r="D126" s="78"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="78"/>
-      <c r="H126" s="78"/>
-      <c r="I126" s="78"/>
-      <c r="J126" s="78"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="66"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>119</v>
       </c>
-      <c r="B127" s="69" t="s">
+      <c r="B127" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C127" s="66" t="s">
+      <c r="C127" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D127" s="69" t="s">
+      <c r="D127" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E127" s="23" t="s">
@@ -11986,9 +11990,9 @@
       <c r="A128" s="8">
         <v>120</v>
       </c>
-      <c r="B128" s="70"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="70"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="71"/>
       <c r="E128" s="23" t="s">
         <v>145</v>
       </c>
@@ -12010,9 +12014,9 @@
       <c r="A129" s="8">
         <v>121</v>
       </c>
-      <c r="B129" s="70"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="70"/>
+      <c r="B129" s="71"/>
+      <c r="C129" s="68"/>
+      <c r="D129" s="71"/>
       <c r="E129" s="23" t="s">
         <v>148</v>
       </c>
@@ -12034,9 +12038,9 @@
       <c r="A130" s="8">
         <v>122</v>
       </c>
-      <c r="B130" s="70"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="70"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="71"/>
       <c r="E130" s="23" t="s">
         <v>445</v>
       </c>
@@ -12058,9 +12062,9 @@
       <c r="A131" s="8">
         <v>123</v>
       </c>
-      <c r="B131" s="70"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="70"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="71"/>
       <c r="E131" s="23" t="s">
         <v>154</v>
       </c>
@@ -12082,9 +12086,9 @@
       <c r="A132" s="8">
         <v>124</v>
       </c>
-      <c r="B132" s="70"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="71"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="69"/>
+      <c r="D132" s="72"/>
       <c r="E132" s="23" t="s">
         <v>446</v>
       </c>
@@ -12106,11 +12110,11 @@
       <c r="A133" s="8">
         <v>125</v>
       </c>
-      <c r="B133" s="70"/>
-      <c r="C133" s="66" t="s">
+      <c r="B133" s="71"/>
+      <c r="C133" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="66" t="s">
+      <c r="D133" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E133" s="23" t="s">
@@ -12136,9 +12140,9 @@
       <c r="A134" s="8">
         <v>126</v>
       </c>
-      <c r="B134" s="70"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="67"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="68"/>
+      <c r="D134" s="68"/>
       <c r="E134" s="23" t="s">
         <v>145</v>
       </c>
@@ -12162,9 +12166,9 @@
       <c r="A135" s="8">
         <v>127</v>
       </c>
-      <c r="B135" s="70"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
       <c r="E135" s="23" t="s">
         <v>148</v>
       </c>
@@ -12188,9 +12192,9 @@
       <c r="A136" s="8">
         <v>128</v>
       </c>
-      <c r="B136" s="70"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="67"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="68"/>
       <c r="E136" s="23" t="s">
         <v>154</v>
       </c>
@@ -12214,9 +12218,9 @@
       <c r="A137" s="8">
         <v>129</v>
       </c>
-      <c r="B137" s="70"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="67"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
       <c r="E137" s="23" t="s">
         <v>446</v>
       </c>
@@ -12240,9 +12244,9 @@
       <c r="A138" s="8">
         <v>130</v>
       </c>
-      <c r="B138" s="70"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="67"/>
+      <c r="B138" s="71"/>
+      <c r="C138" s="68"/>
+      <c r="D138" s="68"/>
       <c r="E138" s="23" t="s">
         <v>447</v>
       </c>
@@ -12266,9 +12270,9 @@
       <c r="A139" s="8">
         <v>131</v>
       </c>
-      <c r="B139" s="70"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="67"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="68"/>
+      <c r="D139" s="68"/>
       <c r="E139" s="23" t="s">
         <v>157</v>
       </c>
@@ -12292,9 +12296,9 @@
       <c r="A140" s="8">
         <v>132</v>
       </c>
-      <c r="B140" s="70"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="67"/>
+      <c r="B140" s="71"/>
+      <c r="C140" s="68"/>
+      <c r="D140" s="68"/>
       <c r="E140" s="23" t="s">
         <v>162</v>
       </c>
@@ -12318,9 +12322,9 @@
       <c r="A141" s="8">
         <v>133</v>
       </c>
-      <c r="B141" s="70"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="67"/>
+      <c r="B141" s="71"/>
+      <c r="C141" s="68"/>
+      <c r="D141" s="68"/>
       <c r="E141" s="23" t="s">
         <v>160</v>
       </c>
@@ -12344,9 +12348,9 @@
       <c r="A142" s="8">
         <v>134</v>
       </c>
-      <c r="B142" s="70"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="67"/>
+      <c r="B142" s="71"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
       <c r="E142" s="23" t="s">
         <v>165</v>
       </c>
@@ -12370,9 +12374,9 @@
       <c r="A143" s="8">
         <v>135</v>
       </c>
-      <c r="B143" s="70"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="67"/>
+      <c r="B143" s="71"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
       <c r="E143" s="22" t="s">
         <v>186</v>
       </c>
@@ -12396,9 +12400,9 @@
       <c r="A144" s="8">
         <v>136</v>
       </c>
-      <c r="B144" s="70"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
       <c r="E144" s="22" t="s">
         <v>186</v>
       </c>
@@ -12422,9 +12426,9 @@
       <c r="A145" s="8">
         <v>137</v>
       </c>
-      <c r="B145" s="70"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="67"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="68"/>
+      <c r="D145" s="68"/>
       <c r="E145" s="23" t="s">
         <v>187</v>
       </c>
@@ -12448,9 +12452,9 @@
       <c r="A146" s="8">
         <v>138</v>
       </c>
-      <c r="B146" s="70"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="67"/>
+      <c r="B146" s="71"/>
+      <c r="C146" s="68"/>
+      <c r="D146" s="68"/>
       <c r="E146" s="23" t="s">
         <v>187</v>
       </c>
@@ -12474,9 +12478,9 @@
       <c r="A147" s="8">
         <v>139</v>
       </c>
-      <c r="B147" s="70"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="67"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
       <c r="E147" s="23" t="s">
         <v>188</v>
       </c>
@@ -12500,9 +12504,9 @@
       <c r="A148" s="8">
         <v>140</v>
       </c>
-      <c r="B148" s="71"/>
-      <c r="C148" s="68"/>
-      <c r="D148" s="68"/>
+      <c r="B148" s="72"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
       <c r="E148" s="23" t="s">
         <v>188</v>
       </c>
@@ -12581,30 +12585,30 @@
       </c>
     </row>
     <row r="151" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="78" t="s">
+      <c r="A151" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B151" s="78"/>
-      <c r="C151" s="78"/>
-      <c r="D151" s="78"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="78"/>
-      <c r="H151" s="78"/>
-      <c r="I151" s="78"/>
-      <c r="J151" s="78"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="66"/>
+      <c r="J151" s="66"/>
     </row>
     <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
         <v>143</v>
       </c>
-      <c r="B152" s="66" t="s">
+      <c r="B152" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="C152" s="66" t="s">
+      <c r="C152" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D152" s="69" t="s">
+      <c r="D152" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E152" s="26" t="s">
@@ -12628,9 +12632,9 @@
       <c r="A153" s="4">
         <v>144</v>
       </c>
-      <c r="B153" s="67"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="70"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="71"/>
       <c r="E153" s="26" t="s">
         <v>191</v>
       </c>
@@ -12652,9 +12656,9 @@
       <c r="A154" s="5">
         <v>145</v>
       </c>
-      <c r="B154" s="67"/>
-      <c r="C154" s="67"/>
-      <c r="D154" s="70"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="68"/>
+      <c r="D154" s="71"/>
       <c r="E154" s="26" t="s">
         <v>192</v>
       </c>
@@ -12676,9 +12680,9 @@
       <c r="A155" s="5">
         <v>146</v>
       </c>
-      <c r="B155" s="67"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="70"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="71"/>
       <c r="E155" s="26" t="s">
         <v>193</v>
       </c>
@@ -12700,9 +12704,9 @@
       <c r="A156" s="5">
         <v>147</v>
       </c>
-      <c r="B156" s="67"/>
-      <c r="C156" s="67"/>
-      <c r="D156" s="70"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="71"/>
       <c r="E156" s="26" t="s">
         <v>194</v>
       </c>
@@ -12724,9 +12728,9 @@
       <c r="A157" s="5">
         <v>148</v>
       </c>
-      <c r="B157" s="67"/>
-      <c r="C157" s="67"/>
-      <c r="D157" s="70"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="68"/>
+      <c r="D157" s="71"/>
       <c r="E157" s="26" t="s">
         <v>448</v>
       </c>
@@ -12748,9 +12752,9 @@
       <c r="A158" s="5">
         <v>149</v>
       </c>
-      <c r="B158" s="67"/>
-      <c r="C158" s="67"/>
-      <c r="D158" s="70"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="71"/>
       <c r="E158" s="26" t="s">
         <v>449</v>
       </c>
@@ -12772,9 +12776,9 @@
       <c r="A159" s="5">
         <v>150</v>
       </c>
-      <c r="B159" s="67"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="71"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="72"/>
       <c r="E159" s="26" t="s">
         <v>450</v>
       </c>
@@ -12796,8 +12800,8 @@
       <c r="A160" s="5">
         <v>151</v>
       </c>
-      <c r="B160" s="67"/>
-      <c r="C160" s="66" t="s">
+      <c r="B160" s="68"/>
+      <c r="C160" s="67" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="26" t="s">
@@ -12826,8 +12830,8 @@
       <c r="A161" s="5">
         <v>152</v>
       </c>
-      <c r="B161" s="67"/>
-      <c r="C161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="69"/>
       <c r="D161" s="26" t="s">
         <v>63</v>
       </c>
@@ -12854,7 +12858,7 @@
       <c r="A162" s="5">
         <v>153</v>
       </c>
-      <c r="B162" s="67"/>
+      <c r="B162" s="68"/>
       <c r="C162" s="29" t="s">
         <v>118</v>
       </c>
@@ -12882,7 +12886,7 @@
       <c r="A163" s="5">
         <v>154</v>
       </c>
-      <c r="B163" s="67"/>
+      <c r="B163" s="68"/>
       <c r="C163" s="28" t="s">
         <v>12</v>
       </c>
@@ -12912,7 +12916,7 @@
       <c r="A164" s="5">
         <v>155</v>
       </c>
-      <c r="B164" s="68"/>
+      <c r="B164" s="69"/>
       <c r="C164" s="28" t="s">
         <v>57</v>
       </c>
@@ -12939,30 +12943,30 @@
       </c>
     </row>
     <row r="165" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="78" t="s">
+      <c r="A165" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="B165" s="78"/>
-      <c r="C165" s="78"/>
-      <c r="D165" s="78"/>
-      <c r="E165" s="78"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="78"/>
-      <c r="H165" s="78"/>
-      <c r="I165" s="78"/>
-      <c r="J165" s="78"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="66"/>
+      <c r="H165" s="66"/>
+      <c r="I165" s="66"/>
+      <c r="J165" s="66"/>
     </row>
     <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>156</v>
       </c>
-      <c r="B166" s="65" t="s">
+      <c r="B166" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="C166" s="66" t="s">
+      <c r="C166" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D166" s="69" t="s">
+      <c r="D166" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E166" s="28" t="s">
@@ -12986,9 +12990,9 @@
       <c r="A167" s="5">
         <v>157</v>
       </c>
-      <c r="B167" s="65"/>
-      <c r="C167" s="67"/>
-      <c r="D167" s="70"/>
+      <c r="B167" s="64"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="71"/>
       <c r="E167" s="28" t="s">
         <v>205</v>
       </c>
@@ -13010,9 +13014,9 @@
       <c r="A168" s="5">
         <v>158</v>
       </c>
-      <c r="B168" s="65"/>
-      <c r="C168" s="67"/>
-      <c r="D168" s="70"/>
+      <c r="B168" s="64"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="71"/>
       <c r="E168" s="28" t="s">
         <v>206</v>
       </c>
@@ -13034,9 +13038,9 @@
       <c r="A169" s="5">
         <v>159</v>
       </c>
-      <c r="B169" s="65"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="70"/>
+      <c r="B169" s="64"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="71"/>
       <c r="E169" s="28" t="s">
         <v>207</v>
       </c>
@@ -13058,9 +13062,9 @@
       <c r="A170" s="5">
         <v>160</v>
       </c>
-      <c r="B170" s="65"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="70"/>
+      <c r="B170" s="64"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="71"/>
       <c r="E170" s="28" t="s">
         <v>208</v>
       </c>
@@ -13082,9 +13086,9 @@
       <c r="A171" s="5">
         <v>161</v>
       </c>
-      <c r="B171" s="65"/>
-      <c r="C171" s="67"/>
-      <c r="D171" s="70"/>
+      <c r="B171" s="64"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="71"/>
       <c r="E171" s="28" t="s">
         <v>209</v>
       </c>
@@ -13106,9 +13110,9 @@
       <c r="A172" s="5">
         <v>162</v>
       </c>
-      <c r="B172" s="65"/>
-      <c r="C172" s="67"/>
-      <c r="D172" s="70"/>
+      <c r="B172" s="64"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="71"/>
       <c r="E172" s="28" t="s">
         <v>451</v>
       </c>
@@ -13130,9 +13134,9 @@
       <c r="A173" s="5">
         <v>163</v>
       </c>
-      <c r="B173" s="65"/>
-      <c r="C173" s="67"/>
-      <c r="D173" s="70"/>
+      <c r="B173" s="64"/>
+      <c r="C173" s="68"/>
+      <c r="D173" s="71"/>
       <c r="E173" s="28" t="s">
         <v>452</v>
       </c>
@@ -13154,9 +13158,9 @@
       <c r="A174" s="5">
         <v>164</v>
       </c>
-      <c r="B174" s="65"/>
-      <c r="C174" s="68"/>
-      <c r="D174" s="71"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="72"/>
       <c r="E174" s="28" t="s">
         <v>453</v>
       </c>
@@ -13178,8 +13182,8 @@
       <c r="A175" s="5">
         <v>165</v>
       </c>
-      <c r="B175" s="65"/>
-      <c r="C175" s="65" t="s">
+      <c r="B175" s="64"/>
+      <c r="C175" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="28" t="s">
@@ -13208,8 +13212,8 @@
       <c r="A176" s="5">
         <v>166</v>
       </c>
-      <c r="B176" s="65"/>
-      <c r="C176" s="65"/>
+      <c r="B176" s="64"/>
+      <c r="C176" s="64"/>
       <c r="D176" s="28" t="s">
         <v>63</v>
       </c>
@@ -13236,7 +13240,7 @@
       <c r="A177" s="5">
         <v>167</v>
       </c>
-      <c r="B177" s="65"/>
+      <c r="B177" s="64"/>
       <c r="C177" s="28" t="s">
         <v>118</v>
       </c>
@@ -13264,7 +13268,7 @@
       <c r="A178" s="5">
         <v>168</v>
       </c>
-      <c r="B178" s="65"/>
+      <c r="B178" s="64"/>
       <c r="C178" s="28" t="s">
         <v>12</v>
       </c>
@@ -13294,7 +13298,7 @@
       <c r="A179" s="5">
         <v>169</v>
       </c>
-      <c r="B179" s="65"/>
+      <c r="B179" s="64"/>
       <c r="C179" s="28" t="s">
         <v>57</v>
       </c>
@@ -13321,30 +13325,30 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="78" t="s">
+      <c r="A180" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="B180" s="78"/>
-      <c r="C180" s="78"/>
-      <c r="D180" s="78"/>
-      <c r="E180" s="78"/>
-      <c r="F180" s="78"/>
-      <c r="G180" s="78"/>
-      <c r="H180" s="78"/>
-      <c r="I180" s="78"/>
-      <c r="J180" s="78"/>
+      <c r="B180" s="66"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="66"/>
+      <c r="E180" s="66"/>
+      <c r="F180" s="66"/>
+      <c r="G180" s="66"/>
+      <c r="H180" s="66"/>
+      <c r="I180" s="66"/>
+      <c r="J180" s="66"/>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>170</v>
       </c>
-      <c r="B181" s="65" t="s">
+      <c r="B181" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="C181" s="66" t="s">
+      <c r="C181" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="69" t="s">
+      <c r="D181" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E181" s="28" t="s">
@@ -13368,9 +13372,9 @@
       <c r="A182" s="5">
         <v>171</v>
       </c>
-      <c r="B182" s="65"/>
-      <c r="C182" s="67"/>
-      <c r="D182" s="70"/>
+      <c r="B182" s="64"/>
+      <c r="C182" s="68"/>
+      <c r="D182" s="71"/>
       <c r="E182" s="28" t="s">
         <v>226</v>
       </c>
@@ -13392,9 +13396,9 @@
       <c r="A183" s="5">
         <v>172</v>
       </c>
-      <c r="B183" s="65"/>
-      <c r="C183" s="67"/>
-      <c r="D183" s="70"/>
+      <c r="B183" s="64"/>
+      <c r="C183" s="68"/>
+      <c r="D183" s="71"/>
       <c r="E183" s="28" t="s">
         <v>227</v>
       </c>
@@ -13416,9 +13420,9 @@
       <c r="A184" s="5">
         <v>173</v>
       </c>
-      <c r="B184" s="65"/>
-      <c r="C184" s="67"/>
-      <c r="D184" s="70"/>
+      <c r="B184" s="64"/>
+      <c r="C184" s="68"/>
+      <c r="D184" s="71"/>
       <c r="E184" s="28" t="s">
         <v>229</v>
       </c>
@@ -13440,9 +13444,9 @@
       <c r="A185" s="5">
         <v>174</v>
       </c>
-      <c r="B185" s="65"/>
-      <c r="C185" s="67"/>
-      <c r="D185" s="70"/>
+      <c r="B185" s="64"/>
+      <c r="C185" s="68"/>
+      <c r="D185" s="71"/>
       <c r="E185" s="28" t="s">
         <v>228</v>
       </c>
@@ -13464,9 +13468,9 @@
       <c r="A186" s="5">
         <v>175</v>
       </c>
-      <c r="B186" s="65"/>
-      <c r="C186" s="67"/>
-      <c r="D186" s="70"/>
+      <c r="B186" s="64"/>
+      <c r="C186" s="68"/>
+      <c r="D186" s="71"/>
       <c r="E186" s="28" t="s">
         <v>230</v>
       </c>
@@ -13488,9 +13492,9 @@
       <c r="A187" s="5">
         <v>176</v>
       </c>
-      <c r="B187" s="65"/>
-      <c r="C187" s="67"/>
-      <c r="D187" s="70"/>
+      <c r="B187" s="64"/>
+      <c r="C187" s="68"/>
+      <c r="D187" s="71"/>
       <c r="E187" s="28" t="s">
         <v>454</v>
       </c>
@@ -13512,9 +13516,9 @@
       <c r="A188" s="5">
         <v>177</v>
       </c>
-      <c r="B188" s="65"/>
-      <c r="C188" s="67"/>
-      <c r="D188" s="70"/>
+      <c r="B188" s="64"/>
+      <c r="C188" s="68"/>
+      <c r="D188" s="71"/>
       <c r="E188" s="28" t="s">
         <v>455</v>
       </c>
@@ -13536,9 +13540,9 @@
       <c r="A189" s="5">
         <v>178</v>
       </c>
-      <c r="B189" s="65"/>
-      <c r="C189" s="68"/>
-      <c r="D189" s="71"/>
+      <c r="B189" s="64"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="72"/>
       <c r="E189" s="28" t="s">
         <v>456</v>
       </c>
@@ -13560,8 +13564,8 @@
       <c r="A190" s="5">
         <v>179</v>
       </c>
-      <c r="B190" s="65"/>
-      <c r="C190" s="65" t="s">
+      <c r="B190" s="64"/>
+      <c r="C190" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="28" t="s">
@@ -13590,8 +13594,8 @@
       <c r="A191" s="5">
         <v>180</v>
       </c>
-      <c r="B191" s="65"/>
-      <c r="C191" s="65"/>
+      <c r="B191" s="64"/>
+      <c r="C191" s="64"/>
       <c r="D191" s="28" t="s">
         <v>63</v>
       </c>
@@ -13618,7 +13622,7 @@
       <c r="A192" s="5">
         <v>181</v>
       </c>
-      <c r="B192" s="65"/>
+      <c r="B192" s="64"/>
       <c r="C192" s="29" t="s">
         <v>118</v>
       </c>
@@ -13646,7 +13650,7 @@
       <c r="A193" s="5">
         <v>182</v>
       </c>
-      <c r="B193" s="65"/>
+      <c r="B193" s="64"/>
       <c r="C193" s="28" t="s">
         <v>12</v>
       </c>
@@ -13676,7 +13680,7 @@
       <c r="A194" s="5">
         <v>183</v>
       </c>
-      <c r="B194" s="65"/>
+      <c r="B194" s="64"/>
       <c r="C194" s="28" t="s">
         <v>57</v>
       </c>
@@ -13703,30 +13707,30 @@
       </c>
     </row>
     <row r="195" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="78" t="s">
+      <c r="A195" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="B195" s="78"/>
-      <c r="C195" s="78"/>
-      <c r="D195" s="78"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="78"/>
-      <c r="G195" s="78"/>
-      <c r="H195" s="78"/>
-      <c r="I195" s="78"/>
-      <c r="J195" s="78"/>
+      <c r="B195" s="66"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="66"/>
+      <c r="E195" s="66"/>
+      <c r="F195" s="66"/>
+      <c r="G195" s="66"/>
+      <c r="H195" s="66"/>
+      <c r="I195" s="66"/>
+      <c r="J195" s="66"/>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>184</v>
       </c>
-      <c r="B196" s="65" t="s">
+      <c r="B196" s="64" t="s">
         <v>232</v>
       </c>
-      <c r="C196" s="66" t="s">
+      <c r="C196" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D196" s="69" t="s">
+      <c r="D196" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E196" s="28" t="s">
@@ -13750,9 +13754,9 @@
       <c r="A197" s="5">
         <v>185</v>
       </c>
-      <c r="B197" s="65"/>
-      <c r="C197" s="67"/>
-      <c r="D197" s="70"/>
+      <c r="B197" s="64"/>
+      <c r="C197" s="68"/>
+      <c r="D197" s="71"/>
       <c r="E197" s="28" t="s">
         <v>244</v>
       </c>
@@ -13774,9 +13778,9 @@
       <c r="A198" s="5">
         <v>186</v>
       </c>
-      <c r="B198" s="65"/>
-      <c r="C198" s="67"/>
-      <c r="D198" s="70"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="68"/>
+      <c r="D198" s="71"/>
       <c r="E198" s="28" t="s">
         <v>243</v>
       </c>
@@ -13798,9 +13802,9 @@
       <c r="A199" s="5">
         <v>187</v>
       </c>
-      <c r="B199" s="65"/>
-      <c r="C199" s="67"/>
-      <c r="D199" s="70"/>
+      <c r="B199" s="64"/>
+      <c r="C199" s="68"/>
+      <c r="D199" s="71"/>
       <c r="E199" s="28" t="s">
         <v>245</v>
       </c>
@@ -13822,9 +13826,9 @@
       <c r="A200" s="5">
         <v>188</v>
       </c>
-      <c r="B200" s="65"/>
-      <c r="C200" s="67"/>
-      <c r="D200" s="70"/>
+      <c r="B200" s="64"/>
+      <c r="C200" s="68"/>
+      <c r="D200" s="71"/>
       <c r="E200" s="28" t="s">
         <v>242</v>
       </c>
@@ -13846,9 +13850,9 @@
       <c r="A201" s="5">
         <v>189</v>
       </c>
-      <c r="B201" s="65"/>
-      <c r="C201" s="67"/>
-      <c r="D201" s="70"/>
+      <c r="B201" s="64"/>
+      <c r="C201" s="68"/>
+      <c r="D201" s="71"/>
       <c r="E201" s="28" t="s">
         <v>238</v>
       </c>
@@ -13870,9 +13874,9 @@
       <c r="A202" s="5">
         <v>190</v>
       </c>
-      <c r="B202" s="65"/>
-      <c r="C202" s="67"/>
-      <c r="D202" s="70"/>
+      <c r="B202" s="64"/>
+      <c r="C202" s="68"/>
+      <c r="D202" s="71"/>
       <c r="E202" s="28" t="s">
         <v>458</v>
       </c>
@@ -13894,9 +13898,9 @@
       <c r="A203" s="5">
         <v>191</v>
       </c>
-      <c r="B203" s="65"/>
-      <c r="C203" s="67"/>
-      <c r="D203" s="70"/>
+      <c r="B203" s="64"/>
+      <c r="C203" s="68"/>
+      <c r="D203" s="71"/>
       <c r="E203" s="28" t="s">
         <v>459</v>
       </c>
@@ -13918,9 +13922,9 @@
       <c r="A204" s="5">
         <v>192</v>
       </c>
-      <c r="B204" s="65"/>
-      <c r="C204" s="68"/>
-      <c r="D204" s="71"/>
+      <c r="B204" s="64"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="72"/>
       <c r="E204" s="28" t="s">
         <v>457</v>
       </c>
@@ -13942,8 +13946,8 @@
       <c r="A205" s="5">
         <v>193</v>
       </c>
-      <c r="B205" s="65"/>
-      <c r="C205" s="65" t="s">
+      <c r="B205" s="64"/>
+      <c r="C205" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D205" s="29" t="s">
@@ -13972,8 +13976,8 @@
       <c r="A206" s="5">
         <v>194</v>
       </c>
-      <c r="B206" s="65"/>
-      <c r="C206" s="65"/>
+      <c r="B206" s="64"/>
+      <c r="C206" s="64"/>
       <c r="D206" s="29" t="s">
         <v>63</v>
       </c>
@@ -14000,7 +14004,7 @@
       <c r="A207" s="5">
         <v>195</v>
       </c>
-      <c r="B207" s="65"/>
+      <c r="B207" s="64"/>
       <c r="C207" s="29" t="s">
         <v>118</v>
       </c>
@@ -14028,7 +14032,7 @@
       <c r="A208" s="5">
         <v>196</v>
       </c>
-      <c r="B208" s="65"/>
+      <c r="B208" s="64"/>
       <c r="C208" s="28" t="s">
         <v>12</v>
       </c>
@@ -14058,7 +14062,7 @@
       <c r="A209" s="5">
         <v>197</v>
       </c>
-      <c r="B209" s="65"/>
+      <c r="B209" s="64"/>
       <c r="C209" s="28" t="s">
         <v>57</v>
       </c>
@@ -14085,30 +14089,30 @@
       </c>
     </row>
     <row r="210" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="78" t="s">
+      <c r="A210" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="B210" s="78"/>
-      <c r="C210" s="78"/>
-      <c r="D210" s="78"/>
-      <c r="E210" s="78"/>
-      <c r="F210" s="78"/>
-      <c r="G210" s="78"/>
-      <c r="H210" s="78"/>
-      <c r="I210" s="78"/>
-      <c r="J210" s="78"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="66"/>
+      <c r="E210" s="66"/>
+      <c r="F210" s="66"/>
+      <c r="G210" s="66"/>
+      <c r="H210" s="66"/>
+      <c r="I210" s="66"/>
+      <c r="J210" s="66"/>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>198</v>
       </c>
-      <c r="B211" s="65" t="s">
+      <c r="B211" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="C211" s="66" t="s">
+      <c r="C211" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D211" s="69" t="s">
+      <c r="D211" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E211" s="28" t="s">
@@ -14132,9 +14136,9 @@
       <c r="A212" s="5">
         <v>199</v>
       </c>
-      <c r="B212" s="65"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="70"/>
+      <c r="B212" s="64"/>
+      <c r="C212" s="68"/>
+      <c r="D212" s="71"/>
       <c r="E212" s="28" t="s">
         <v>258</v>
       </c>
@@ -14156,9 +14160,9 @@
       <c r="A213" s="5">
         <v>200</v>
       </c>
-      <c r="B213" s="65"/>
-      <c r="C213" s="67"/>
-      <c r="D213" s="70"/>
+      <c r="B213" s="64"/>
+      <c r="C213" s="68"/>
+      <c r="D213" s="71"/>
       <c r="E213" s="28" t="s">
         <v>256</v>
       </c>
@@ -14180,9 +14184,9 @@
       <c r="A214" s="5">
         <v>201</v>
       </c>
-      <c r="B214" s="65"/>
-      <c r="C214" s="67"/>
-      <c r="D214" s="70"/>
+      <c r="B214" s="64"/>
+      <c r="C214" s="68"/>
+      <c r="D214" s="71"/>
       <c r="E214" s="28" t="s">
         <v>259</v>
       </c>
@@ -14204,9 +14208,9 @@
       <c r="A215" s="5">
         <v>202</v>
       </c>
-      <c r="B215" s="65"/>
-      <c r="C215" s="67"/>
-      <c r="D215" s="70"/>
+      <c r="B215" s="64"/>
+      <c r="C215" s="68"/>
+      <c r="D215" s="71"/>
       <c r="E215" s="28" t="s">
         <v>257</v>
       </c>
@@ -14228,9 +14232,9 @@
       <c r="A216" s="5">
         <v>203</v>
       </c>
-      <c r="B216" s="65"/>
-      <c r="C216" s="67"/>
-      <c r="D216" s="70"/>
+      <c r="B216" s="64"/>
+      <c r="C216" s="68"/>
+      <c r="D216" s="71"/>
       <c r="E216" s="28" t="s">
         <v>252</v>
       </c>
@@ -14252,9 +14256,9 @@
       <c r="A217" s="5">
         <v>204</v>
       </c>
-      <c r="B217" s="65"/>
-      <c r="C217" s="67"/>
-      <c r="D217" s="70"/>
+      <c r="B217" s="64"/>
+      <c r="C217" s="68"/>
+      <c r="D217" s="71"/>
       <c r="E217" s="28" t="s">
         <v>461</v>
       </c>
@@ -14276,9 +14280,9 @@
       <c r="A218" s="5">
         <v>205</v>
       </c>
-      <c r="B218" s="65"/>
-      <c r="C218" s="67"/>
-      <c r="D218" s="70"/>
+      <c r="B218" s="64"/>
+      <c r="C218" s="68"/>
+      <c r="D218" s="71"/>
       <c r="E218" s="28" t="s">
         <v>462</v>
       </c>
@@ -14300,9 +14304,9 @@
       <c r="A219" s="5">
         <v>206</v>
       </c>
-      <c r="B219" s="65"/>
-      <c r="C219" s="68"/>
-      <c r="D219" s="71"/>
+      <c r="B219" s="64"/>
+      <c r="C219" s="69"/>
+      <c r="D219" s="72"/>
       <c r="E219" s="28" t="s">
         <v>460</v>
       </c>
@@ -14324,8 +14328,8 @@
       <c r="A220" s="5">
         <v>207</v>
       </c>
-      <c r="B220" s="65"/>
-      <c r="C220" s="65" t="s">
+      <c r="B220" s="64"/>
+      <c r="C220" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D220" s="28" t="s">
@@ -14354,8 +14358,8 @@
       <c r="A221" s="5">
         <v>208</v>
       </c>
-      <c r="B221" s="65"/>
-      <c r="C221" s="65"/>
+      <c r="B221" s="64"/>
+      <c r="C221" s="64"/>
       <c r="D221" s="28" t="s">
         <v>63</v>
       </c>
@@ -14382,7 +14386,7 @@
       <c r="A222" s="5">
         <v>209</v>
       </c>
-      <c r="B222" s="65"/>
+      <c r="B222" s="64"/>
       <c r="C222" s="28" t="s">
         <v>118</v>
       </c>
@@ -14410,7 +14414,7 @@
       <c r="A223" s="5">
         <v>210</v>
       </c>
-      <c r="B223" s="65"/>
+      <c r="B223" s="64"/>
       <c r="C223" s="28" t="s">
         <v>12</v>
       </c>
@@ -14440,7 +14444,7 @@
       <c r="A224" s="5">
         <v>211</v>
       </c>
-      <c r="B224" s="65"/>
+      <c r="B224" s="64"/>
       <c r="C224" s="28" t="s">
         <v>57</v>
       </c>
@@ -14467,30 +14471,30 @@
       </c>
     </row>
     <row r="225" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="78" t="s">
+      <c r="A225" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="B225" s="78"/>
-      <c r="C225" s="78"/>
-      <c r="D225" s="78"/>
-      <c r="E225" s="78"/>
-      <c r="F225" s="78"/>
-      <c r="G225" s="78"/>
-      <c r="H225" s="78"/>
-      <c r="I225" s="78"/>
-      <c r="J225" s="78"/>
+      <c r="B225" s="66"/>
+      <c r="C225" s="66"/>
+      <c r="D225" s="66"/>
+      <c r="E225" s="66"/>
+      <c r="F225" s="66"/>
+      <c r="G225" s="66"/>
+      <c r="H225" s="66"/>
+      <c r="I225" s="66"/>
+      <c r="J225" s="66"/>
     </row>
     <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>212</v>
       </c>
-      <c r="B226" s="65" t="s">
+      <c r="B226" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="C226" s="66" t="s">
+      <c r="C226" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D226" s="69" t="s">
+      <c r="D226" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E226" s="28" t="s">
@@ -14514,9 +14518,9 @@
       <c r="A227" s="5">
         <v>213</v>
       </c>
-      <c r="B227" s="65"/>
-      <c r="C227" s="67"/>
-      <c r="D227" s="70"/>
+      <c r="B227" s="64"/>
+      <c r="C227" s="68"/>
+      <c r="D227" s="71"/>
       <c r="E227" s="28" t="s">
         <v>263</v>
       </c>
@@ -14538,9 +14542,9 @@
       <c r="A228" s="5">
         <v>214</v>
       </c>
-      <c r="B228" s="65"/>
-      <c r="C228" s="67"/>
-      <c r="D228" s="70"/>
+      <c r="B228" s="64"/>
+      <c r="C228" s="68"/>
+      <c r="D228" s="71"/>
       <c r="E228" s="28" t="s">
         <v>264</v>
       </c>
@@ -14562,9 +14566,9 @@
       <c r="A229" s="5">
         <v>215</v>
       </c>
-      <c r="B229" s="65"/>
-      <c r="C229" s="67"/>
-      <c r="D229" s="70"/>
+      <c r="B229" s="64"/>
+      <c r="C229" s="68"/>
+      <c r="D229" s="71"/>
       <c r="E229" s="28" t="s">
         <v>267</v>
       </c>
@@ -14586,9 +14590,9 @@
       <c r="A230" s="5">
         <v>216</v>
       </c>
-      <c r="B230" s="65"/>
-      <c r="C230" s="67"/>
-      <c r="D230" s="70"/>
+      <c r="B230" s="64"/>
+      <c r="C230" s="68"/>
+      <c r="D230" s="71"/>
       <c r="E230" s="28" t="s">
         <v>463</v>
       </c>
@@ -14610,9 +14614,9 @@
       <c r="A231" s="5">
         <v>217</v>
       </c>
-      <c r="B231" s="65"/>
-      <c r="C231" s="68"/>
-      <c r="D231" s="71"/>
+      <c r="B231" s="64"/>
+      <c r="C231" s="69"/>
+      <c r="D231" s="72"/>
       <c r="E231" s="28" t="s">
         <v>464</v>
       </c>
@@ -14634,8 +14638,8 @@
       <c r="A232" s="5">
         <v>218</v>
       </c>
-      <c r="B232" s="65"/>
-      <c r="C232" s="65" t="s">
+      <c r="B232" s="64"/>
+      <c r="C232" s="64" t="s">
         <v>12</v>
       </c>
       <c r="D232" s="28" t="s">
@@ -14664,8 +14668,8 @@
       <c r="A233" s="5">
         <v>219</v>
       </c>
-      <c r="B233" s="65"/>
-      <c r="C233" s="65"/>
+      <c r="B233" s="64"/>
+      <c r="C233" s="64"/>
       <c r="D233" s="28" t="s">
         <v>63</v>
       </c>
@@ -14692,7 +14696,7 @@
       <c r="A234" s="5">
         <v>220</v>
       </c>
-      <c r="B234" s="65"/>
+      <c r="B234" s="64"/>
       <c r="C234" s="11" t="s">
         <v>118</v>
       </c>
@@ -14722,7 +14726,7 @@
       <c r="A235" s="5">
         <v>221</v>
       </c>
-      <c r="B235" s="65"/>
+      <c r="B235" s="64"/>
       <c r="C235" s="28" t="s">
         <v>12</v>
       </c>
@@ -14752,7 +14756,7 @@
       <c r="A236" s="5">
         <v>222</v>
       </c>
-      <c r="B236" s="65"/>
+      <c r="B236" s="64"/>
       <c r="C236" s="28" t="s">
         <v>57</v>
       </c>
@@ -14779,30 +14783,30 @@
       </c>
     </row>
     <row r="237" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="78" t="s">
+      <c r="A237" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="78"/>
-      <c r="C237" s="78"/>
-      <c r="D237" s="78"/>
-      <c r="E237" s="78"/>
-      <c r="F237" s="78"/>
-      <c r="G237" s="78"/>
-      <c r="H237" s="78"/>
-      <c r="I237" s="78"/>
-      <c r="J237" s="78"/>
+      <c r="B237" s="66"/>
+      <c r="C237" s="66"/>
+      <c r="D237" s="66"/>
+      <c r="E237" s="66"/>
+      <c r="F237" s="66"/>
+      <c r="G237" s="66"/>
+      <c r="H237" s="66"/>
+      <c r="I237" s="66"/>
+      <c r="J237" s="66"/>
     </row>
     <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>223</v>
       </c>
-      <c r="B238" s="75" t="s">
+      <c r="B238" s="82" t="s">
         <v>367</v>
       </c>
-      <c r="C238" s="65" t="s">
+      <c r="C238" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D238" s="64" t="s">
+      <c r="D238" s="65" t="s">
         <v>61</v>
       </c>
       <c r="E238" s="28" t="s">
@@ -14826,9 +14830,9 @@
       <c r="A239" s="4">
         <v>224</v>
       </c>
-      <c r="B239" s="76"/>
-      <c r="C239" s="65"/>
-      <c r="D239" s="64"/>
+      <c r="B239" s="83"/>
+      <c r="C239" s="64"/>
+      <c r="D239" s="65"/>
       <c r="E239" s="28" t="s">
         <v>369</v>
       </c>
@@ -14850,9 +14854,9 @@
       <c r="A240" s="5">
         <v>225</v>
       </c>
-      <c r="B240" s="76"/>
-      <c r="C240" s="65"/>
-      <c r="D240" s="64"/>
+      <c r="B240" s="83"/>
+      <c r="C240" s="64"/>
+      <c r="D240" s="65"/>
       <c r="E240" s="28" t="s">
         <v>392</v>
       </c>
@@ -14874,9 +14878,9 @@
       <c r="A241" s="5">
         <v>226</v>
       </c>
-      <c r="B241" s="76"/>
-      <c r="C241" s="65"/>
-      <c r="D241" s="64"/>
+      <c r="B241" s="83"/>
+      <c r="C241" s="64"/>
+      <c r="D241" s="65"/>
       <c r="E241" s="28" t="s">
         <v>371</v>
       </c>
@@ -14898,9 +14902,9 @@
       <c r="A242" s="5">
         <v>227</v>
       </c>
-      <c r="B242" s="76"/>
-      <c r="C242" s="65"/>
-      <c r="D242" s="64"/>
+      <c r="B242" s="83"/>
+      <c r="C242" s="64"/>
+      <c r="D242" s="65"/>
       <c r="E242" s="28" t="s">
         <v>372</v>
       </c>
@@ -14922,9 +14926,9 @@
       <c r="A243" s="5">
         <v>228</v>
       </c>
-      <c r="B243" s="76"/>
-      <c r="C243" s="65"/>
-      <c r="D243" s="64"/>
+      <c r="B243" s="83"/>
+      <c r="C243" s="64"/>
+      <c r="D243" s="65"/>
       <c r="E243" s="28" t="s">
         <v>373</v>
       </c>
@@ -14946,9 +14950,9 @@
       <c r="A244" s="5">
         <v>229</v>
       </c>
-      <c r="B244" s="76"/>
-      <c r="C244" s="65"/>
-      <c r="D244" s="64"/>
+      <c r="B244" s="83"/>
+      <c r="C244" s="64"/>
+      <c r="D244" s="65"/>
       <c r="E244" s="28" t="s">
         <v>374</v>
       </c>
@@ -14970,9 +14974,9 @@
       <c r="A245" s="5">
         <v>230</v>
       </c>
-      <c r="B245" s="76"/>
-      <c r="C245" s="65"/>
-      <c r="D245" s="64"/>
+      <c r="B245" s="83"/>
+      <c r="C245" s="64"/>
+      <c r="D245" s="65"/>
       <c r="E245" s="28" t="s">
         <v>375</v>
       </c>
@@ -14994,9 +14998,9 @@
       <c r="A246" s="5">
         <v>231</v>
       </c>
-      <c r="B246" s="76"/>
-      <c r="C246" s="65"/>
-      <c r="D246" s="64"/>
+      <c r="B246" s="83"/>
+      <c r="C246" s="64"/>
+      <c r="D246" s="65"/>
       <c r="E246" s="28" t="s">
         <v>376</v>
       </c>
@@ -15018,9 +15022,9 @@
       <c r="A247" s="5">
         <v>232</v>
       </c>
-      <c r="B247" s="76"/>
-      <c r="C247" s="65"/>
-      <c r="D247" s="64"/>
+      <c r="B247" s="83"/>
+      <c r="C247" s="64"/>
+      <c r="D247" s="65"/>
       <c r="E247" s="28" t="s">
         <v>377</v>
       </c>
@@ -15042,9 +15046,9 @@
       <c r="A248" s="5">
         <v>233</v>
       </c>
-      <c r="B248" s="76"/>
-      <c r="C248" s="65"/>
-      <c r="D248" s="64"/>
+      <c r="B248" s="83"/>
+      <c r="C248" s="64"/>
+      <c r="D248" s="65"/>
       <c r="E248" s="28" t="s">
         <v>378</v>
       </c>
@@ -15066,9 +15070,9 @@
       <c r="A249" s="5">
         <v>234</v>
       </c>
-      <c r="B249" s="76"/>
-      <c r="C249" s="65"/>
-      <c r="D249" s="64"/>
+      <c r="B249" s="83"/>
+      <c r="C249" s="64"/>
+      <c r="D249" s="65"/>
       <c r="E249" s="28" t="s">
         <v>379</v>
       </c>
@@ -15090,9 +15094,9 @@
       <c r="A250" s="5">
         <v>235</v>
       </c>
-      <c r="B250" s="76"/>
-      <c r="C250" s="65"/>
-      <c r="D250" s="64"/>
+      <c r="B250" s="83"/>
+      <c r="C250" s="64"/>
+      <c r="D250" s="65"/>
       <c r="E250" s="28" t="s">
         <v>380</v>
       </c>
@@ -15114,9 +15118,9 @@
       <c r="A251" s="5">
         <v>236</v>
       </c>
-      <c r="B251" s="76"/>
-      <c r="C251" s="65"/>
-      <c r="D251" s="64"/>
+      <c r="B251" s="83"/>
+      <c r="C251" s="64"/>
+      <c r="D251" s="65"/>
       <c r="E251" s="28" t="s">
         <v>381</v>
       </c>
@@ -15138,9 +15142,9 @@
       <c r="A252" s="5">
         <v>237</v>
       </c>
-      <c r="B252" s="76"/>
-      <c r="C252" s="65"/>
-      <c r="D252" s="64"/>
+      <c r="B252" s="83"/>
+      <c r="C252" s="64"/>
+      <c r="D252" s="65"/>
       <c r="E252" s="28" t="s">
         <v>382</v>
       </c>
@@ -15162,9 +15166,9 @@
       <c r="A253" s="5">
         <v>238</v>
       </c>
-      <c r="B253" s="76"/>
-      <c r="C253" s="65"/>
-      <c r="D253" s="64"/>
+      <c r="B253" s="83"/>
+      <c r="C253" s="64"/>
+      <c r="D253" s="65"/>
       <c r="E253" s="28" t="s">
         <v>383</v>
       </c>
@@ -15186,9 +15190,9 @@
       <c r="A254" s="5">
         <v>239</v>
       </c>
-      <c r="B254" s="76"/>
-      <c r="C254" s="65"/>
-      <c r="D254" s="64"/>
+      <c r="B254" s="83"/>
+      <c r="C254" s="64"/>
+      <c r="D254" s="65"/>
       <c r="E254" s="28" t="s">
         <v>384</v>
       </c>
@@ -15210,9 +15214,9 @@
       <c r="A255" s="5">
         <v>240</v>
       </c>
-      <c r="B255" s="76"/>
-      <c r="C255" s="65"/>
-      <c r="D255" s="64"/>
+      <c r="B255" s="83"/>
+      <c r="C255" s="64"/>
+      <c r="D255" s="65"/>
       <c r="E255" s="28" t="s">
         <v>385</v>
       </c>
@@ -15234,9 +15238,9 @@
       <c r="A256" s="5">
         <v>241</v>
       </c>
-      <c r="B256" s="76"/>
-      <c r="C256" s="65"/>
-      <c r="D256" s="64"/>
+      <c r="B256" s="83"/>
+      <c r="C256" s="64"/>
+      <c r="D256" s="65"/>
       <c r="E256" s="28" t="s">
         <v>386</v>
       </c>
@@ -15258,9 +15262,9 @@
       <c r="A257" s="5">
         <v>242</v>
       </c>
-      <c r="B257" s="76"/>
-      <c r="C257" s="65"/>
-      <c r="D257" s="64"/>
+      <c r="B257" s="83"/>
+      <c r="C257" s="64"/>
+      <c r="D257" s="65"/>
       <c r="E257" s="28" t="s">
         <v>387</v>
       </c>
@@ -15282,9 +15286,9 @@
       <c r="A258" s="5">
         <v>243</v>
       </c>
-      <c r="B258" s="76"/>
-      <c r="C258" s="65"/>
-      <c r="D258" s="64"/>
+      <c r="B258" s="83"/>
+      <c r="C258" s="64"/>
+      <c r="D258" s="65"/>
       <c r="E258" s="28" t="s">
         <v>388</v>
       </c>
@@ -15306,9 +15310,9 @@
       <c r="A259" s="5">
         <v>244</v>
       </c>
-      <c r="B259" s="76"/>
-      <c r="C259" s="65"/>
-      <c r="D259" s="64"/>
+      <c r="B259" s="83"/>
+      <c r="C259" s="64"/>
+      <c r="D259" s="65"/>
       <c r="E259" s="28" t="s">
         <v>389</v>
       </c>
@@ -15330,9 +15334,9 @@
       <c r="A260" s="5">
         <v>245</v>
       </c>
-      <c r="B260" s="76"/>
-      <c r="C260" s="65"/>
-      <c r="D260" s="64"/>
+      <c r="B260" s="83"/>
+      <c r="C260" s="64"/>
+      <c r="D260" s="65"/>
       <c r="E260" s="28" t="s">
         <v>390</v>
       </c>
@@ -15354,11 +15358,11 @@
       <c r="A261" s="5">
         <v>246</v>
       </c>
-      <c r="B261" s="76"/>
-      <c r="C261" s="72" t="s">
+      <c r="B261" s="83"/>
+      <c r="C261" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D261" s="72" t="s">
+      <c r="D261" s="79" t="s">
         <v>65</v>
       </c>
       <c r="E261" s="4" t="s">
@@ -15382,9 +15386,9 @@
       <c r="A262" s="5">
         <v>247</v>
       </c>
-      <c r="B262" s="76"/>
-      <c r="C262" s="73"/>
-      <c r="D262" s="73"/>
+      <c r="B262" s="83"/>
+      <c r="C262" s="80"/>
+      <c r="D262" s="80"/>
       <c r="E262" s="4" t="s">
         <v>396</v>
       </c>
@@ -15404,16 +15408,16 @@
       <c r="A263" s="5">
         <v>248</v>
       </c>
-      <c r="B263" s="76"/>
-      <c r="C263" s="73"/>
-      <c r="D263" s="73"/>
+      <c r="B263" s="83"/>
+      <c r="C263" s="80"/>
+      <c r="D263" s="80"/>
       <c r="E263" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F263" s="72" t="s">
+      <c r="F263" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="G263" s="75" t="s">
+      <c r="G263" s="82" t="s">
         <v>399</v>
       </c>
       <c r="H263" s="4" t="s">
@@ -15426,14 +15430,14 @@
       <c r="A264" s="5">
         <v>249</v>
       </c>
-      <c r="B264" s="76"/>
-      <c r="C264" s="73"/>
-      <c r="D264" s="73"/>
+      <c r="B264" s="83"/>
+      <c r="C264" s="80"/>
+      <c r="D264" s="80"/>
       <c r="E264" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F264" s="73"/>
-      <c r="G264" s="76"/>
+      <c r="F264" s="80"/>
+      <c r="G264" s="83"/>
       <c r="H264" s="4" t="s">
         <v>398</v>
       </c>
@@ -15444,14 +15448,14 @@
       <c r="A265" s="5">
         <v>250</v>
       </c>
-      <c r="B265" s="76"/>
-      <c r="C265" s="73"/>
-      <c r="D265" s="73"/>
+      <c r="B265" s="83"/>
+      <c r="C265" s="80"/>
+      <c r="D265" s="80"/>
       <c r="E265" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F265" s="73"/>
-      <c r="G265" s="76"/>
+      <c r="F265" s="80"/>
+      <c r="G265" s="83"/>
       <c r="H265" s="4" t="s">
         <v>398</v>
       </c>
@@ -15462,14 +15466,14 @@
       <c r="A266" s="5">
         <v>251</v>
       </c>
-      <c r="B266" s="76"/>
-      <c r="C266" s="73"/>
-      <c r="D266" s="73"/>
+      <c r="B266" s="83"/>
+      <c r="C266" s="80"/>
+      <c r="D266" s="80"/>
       <c r="E266" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F266" s="74"/>
-      <c r="G266" s="77"/>
+      <c r="F266" s="81"/>
+      <c r="G266" s="84"/>
       <c r="H266" s="4" t="s">
         <v>398</v>
       </c>
@@ -15480,16 +15484,16 @@
       <c r="A267" s="5">
         <v>252</v>
       </c>
-      <c r="B267" s="76"/>
-      <c r="C267" s="73"/>
-      <c r="D267" s="73"/>
+      <c r="B267" s="83"/>
+      <c r="C267" s="80"/>
+      <c r="D267" s="80"/>
       <c r="E267" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F267" s="72" t="s">
+      <c r="F267" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="G267" s="75" t="s">
+      <c r="G267" s="82" t="s">
         <v>402</v>
       </c>
       <c r="H267" s="4" t="s">
@@ -15502,14 +15506,14 @@
       <c r="A268" s="5">
         <v>253</v>
       </c>
-      <c r="B268" s="76"/>
-      <c r="C268" s="73"/>
-      <c r="D268" s="73"/>
+      <c r="B268" s="83"/>
+      <c r="C268" s="80"/>
+      <c r="D268" s="80"/>
       <c r="E268" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F268" s="73"/>
-      <c r="G268" s="76"/>
+      <c r="F268" s="80"/>
+      <c r="G268" s="83"/>
       <c r="H268" s="4" t="s">
         <v>401</v>
       </c>
@@ -15520,14 +15524,14 @@
       <c r="A269" s="5">
         <v>254</v>
       </c>
-      <c r="B269" s="76"/>
-      <c r="C269" s="73"/>
-      <c r="D269" s="73"/>
+      <c r="B269" s="83"/>
+      <c r="C269" s="80"/>
+      <c r="D269" s="80"/>
       <c r="E269" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F269" s="73"/>
-      <c r="G269" s="76"/>
+      <c r="F269" s="80"/>
+      <c r="G269" s="83"/>
       <c r="H269" s="4" t="s">
         <v>401</v>
       </c>
@@ -15538,14 +15542,14 @@
       <c r="A270" s="5">
         <v>255</v>
       </c>
-      <c r="B270" s="76"/>
-      <c r="C270" s="73"/>
-      <c r="D270" s="73"/>
+      <c r="B270" s="83"/>
+      <c r="C270" s="80"/>
+      <c r="D270" s="80"/>
       <c r="E270" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F270" s="74"/>
-      <c r="G270" s="77"/>
+      <c r="F270" s="81"/>
+      <c r="G270" s="84"/>
       <c r="H270" s="4" t="s">
         <v>401</v>
       </c>
@@ -15556,16 +15560,16 @@
       <c r="A271" s="5">
         <v>256</v>
       </c>
-      <c r="B271" s="76"/>
-      <c r="C271" s="73"/>
-      <c r="D271" s="73"/>
+      <c r="B271" s="83"/>
+      <c r="C271" s="80"/>
+      <c r="D271" s="80"/>
       <c r="E271" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F271" s="72" t="s">
+      <c r="F271" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="G271" s="75" t="s">
+      <c r="G271" s="82" t="s">
         <v>403</v>
       </c>
       <c r="H271" s="4" t="s">
@@ -15578,14 +15582,14 @@
       <c r="A272" s="5">
         <v>257</v>
       </c>
-      <c r="B272" s="76"/>
-      <c r="C272" s="73"/>
-      <c r="D272" s="73"/>
+      <c r="B272" s="83"/>
+      <c r="C272" s="80"/>
+      <c r="D272" s="80"/>
       <c r="E272" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F272" s="73"/>
-      <c r="G272" s="76"/>
+      <c r="F272" s="80"/>
+      <c r="G272" s="83"/>
       <c r="H272" s="4" t="s">
         <v>401</v>
       </c>
@@ -15596,14 +15600,14 @@
       <c r="A273" s="5">
         <v>258</v>
       </c>
-      <c r="B273" s="76"/>
-      <c r="C273" s="73"/>
-      <c r="D273" s="73"/>
+      <c r="B273" s="83"/>
+      <c r="C273" s="80"/>
+      <c r="D273" s="80"/>
       <c r="E273" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F273" s="73"/>
-      <c r="G273" s="76"/>
+      <c r="F273" s="80"/>
+      <c r="G273" s="83"/>
       <c r="H273" s="4" t="s">
         <v>401</v>
       </c>
@@ -15614,14 +15618,14 @@
       <c r="A274" s="5">
         <v>259</v>
       </c>
-      <c r="B274" s="77"/>
-      <c r="C274" s="74"/>
-      <c r="D274" s="74"/>
+      <c r="B274" s="84"/>
+      <c r="C274" s="81"/>
+      <c r="D274" s="81"/>
       <c r="E274" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="F274" s="74"/>
-      <c r="G274" s="77"/>
+      <c r="F274" s="81"/>
+      <c r="G274" s="84"/>
       <c r="H274" s="4" t="s">
         <v>401</v>
       </c>
@@ -15629,30 +15633,30 @@
       <c r="J274" s="14"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A275" s="63" t="s">
+      <c r="A275" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="B275" s="63"/>
-      <c r="C275" s="63"/>
-      <c r="D275" s="63"/>
-      <c r="E275" s="63"/>
-      <c r="F275" s="63"/>
-      <c r="G275" s="63"/>
-      <c r="H275" s="63"/>
-      <c r="I275" s="63"/>
-      <c r="J275" s="63"/>
+      <c r="B275" s="78"/>
+      <c r="C275" s="78"/>
+      <c r="D275" s="78"/>
+      <c r="E275" s="78"/>
+      <c r="F275" s="78"/>
+      <c r="G275" s="78"/>
+      <c r="H275" s="78"/>
+      <c r="I275" s="78"/>
+      <c r="J275" s="78"/>
     </row>
     <row r="276" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
         <v>260</v>
       </c>
-      <c r="B276" s="69" t="s">
+      <c r="B276" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="C276" s="66" t="s">
+      <c r="C276" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D276" s="69" t="s">
+      <c r="D276" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E276" s="28" t="s">
@@ -15676,9 +15680,9 @@
       <c r="A277" s="4">
         <v>261</v>
       </c>
-      <c r="B277" s="70"/>
-      <c r="C277" s="67"/>
-      <c r="D277" s="70"/>
+      <c r="B277" s="71"/>
+      <c r="C277" s="68"/>
+      <c r="D277" s="71"/>
       <c r="E277" s="28" t="s">
         <v>275</v>
       </c>
@@ -15700,9 +15704,9 @@
       <c r="A278" s="5">
         <v>262</v>
       </c>
-      <c r="B278" s="70"/>
-      <c r="C278" s="67"/>
-      <c r="D278" s="70"/>
+      <c r="B278" s="71"/>
+      <c r="C278" s="68"/>
+      <c r="D278" s="71"/>
       <c r="E278" s="28" t="s">
         <v>276</v>
       </c>
@@ -15724,9 +15728,9 @@
       <c r="A279" s="5">
         <v>263</v>
       </c>
-      <c r="B279" s="70"/>
-      <c r="C279" s="67"/>
-      <c r="D279" s="70"/>
+      <c r="B279" s="71"/>
+      <c r="C279" s="68"/>
+      <c r="D279" s="71"/>
       <c r="E279" s="28" t="s">
         <v>277</v>
       </c>
@@ -15748,9 +15752,9 @@
       <c r="A280" s="5">
         <v>264</v>
       </c>
-      <c r="B280" s="70"/>
-      <c r="C280" s="67"/>
-      <c r="D280" s="70"/>
+      <c r="B280" s="71"/>
+      <c r="C280" s="68"/>
+      <c r="D280" s="71"/>
       <c r="E280" s="28" t="s">
         <v>314</v>
       </c>
@@ -15772,9 +15776,9 @@
       <c r="A281" s="5">
         <v>265</v>
       </c>
-      <c r="B281" s="70"/>
-      <c r="C281" s="68"/>
-      <c r="D281" s="71"/>
+      <c r="B281" s="71"/>
+      <c r="C281" s="69"/>
+      <c r="D281" s="72"/>
       <c r="E281" s="28" t="s">
         <v>278</v>
       </c>
@@ -15796,11 +15800,11 @@
       <c r="A282" s="5">
         <v>266</v>
       </c>
-      <c r="B282" s="70"/>
-      <c r="C282" s="66" t="s">
+      <c r="B282" s="71"/>
+      <c r="C282" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D282" s="66" t="s">
+      <c r="D282" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E282" s="30" t="s">
@@ -15824,9 +15828,9 @@
       <c r="A283" s="5">
         <v>267</v>
       </c>
-      <c r="B283" s="70"/>
-      <c r="C283" s="67"/>
-      <c r="D283" s="67"/>
+      <c r="B283" s="71"/>
+      <c r="C283" s="68"/>
+      <c r="D283" s="68"/>
       <c r="E283" s="30" t="s">
         <v>282</v>
       </c>
@@ -15848,9 +15852,9 @@
       <c r="A284" s="5">
         <v>268</v>
       </c>
-      <c r="B284" s="70"/>
-      <c r="C284" s="67"/>
-      <c r="D284" s="67"/>
+      <c r="B284" s="71"/>
+      <c r="C284" s="68"/>
+      <c r="D284" s="68"/>
       <c r="E284" s="30" t="s">
         <v>316</v>
       </c>
@@ -15872,9 +15876,9 @@
       <c r="A285" s="5">
         <v>269</v>
       </c>
-      <c r="B285" s="70"/>
-      <c r="C285" s="67"/>
-      <c r="D285" s="67"/>
+      <c r="B285" s="71"/>
+      <c r="C285" s="68"/>
+      <c r="D285" s="68"/>
       <c r="E285" s="43" t="s">
         <v>286</v>
       </c>
@@ -15898,9 +15902,9 @@
       <c r="A286" s="5">
         <v>270</v>
       </c>
-      <c r="B286" s="70"/>
-      <c r="C286" s="68"/>
-      <c r="D286" s="68"/>
+      <c r="B286" s="71"/>
+      <c r="C286" s="69"/>
+      <c r="D286" s="69"/>
       <c r="E286" s="30" t="s">
         <v>324</v>
       </c>
@@ -15924,7 +15928,7 @@
       <c r="A287" s="5">
         <v>271</v>
       </c>
-      <c r="B287" s="71"/>
+      <c r="B287" s="72"/>
       <c r="C287" s="11" t="s">
         <v>118</v>
       </c>
@@ -15951,30 +15955,30 @@
       </c>
     </row>
     <row r="288" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="78" t="s">
+      <c r="A288" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="B288" s="78"/>
-      <c r="C288" s="78"/>
-      <c r="D288" s="78"/>
-      <c r="E288" s="78"/>
-      <c r="F288" s="78"/>
-      <c r="G288" s="78"/>
-      <c r="H288" s="78"/>
-      <c r="I288" s="78"/>
-      <c r="J288" s="78"/>
+      <c r="B288" s="66"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="66"/>
+      <c r="E288" s="66"/>
+      <c r="F288" s="66"/>
+      <c r="G288" s="66"/>
+      <c r="H288" s="66"/>
+      <c r="I288" s="66"/>
+      <c r="J288" s="66"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
         <v>272</v>
       </c>
-      <c r="B289" s="69" t="s">
+      <c r="B289" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="C289" s="66" t="s">
+      <c r="C289" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D289" s="69" t="s">
+      <c r="D289" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E289" s="28" t="s">
@@ -15998,9 +16002,9 @@
       <c r="A290" s="4">
         <v>273</v>
       </c>
-      <c r="B290" s="70"/>
-      <c r="C290" s="67"/>
-      <c r="D290" s="70"/>
+      <c r="B290" s="71"/>
+      <c r="C290" s="68"/>
+      <c r="D290" s="71"/>
       <c r="E290" s="28" t="s">
         <v>312</v>
       </c>
@@ -16022,9 +16026,9 @@
       <c r="A291" s="5">
         <v>274</v>
       </c>
-      <c r="B291" s="70"/>
-      <c r="C291" s="67"/>
-      <c r="D291" s="70"/>
+      <c r="B291" s="71"/>
+      <c r="C291" s="68"/>
+      <c r="D291" s="71"/>
       <c r="E291" s="28" t="s">
         <v>313</v>
       </c>
@@ -16046,9 +16050,9 @@
       <c r="A292" s="5">
         <v>275</v>
       </c>
-      <c r="B292" s="70"/>
-      <c r="C292" s="67"/>
-      <c r="D292" s="70"/>
+      <c r="B292" s="71"/>
+      <c r="C292" s="68"/>
+      <c r="D292" s="71"/>
       <c r="E292" s="28" t="s">
         <v>305</v>
       </c>
@@ -16070,9 +16074,9 @@
       <c r="A293" s="5">
         <v>276</v>
       </c>
-      <c r="B293" s="70"/>
-      <c r="C293" s="67"/>
-      <c r="D293" s="70"/>
+      <c r="B293" s="71"/>
+      <c r="C293" s="68"/>
+      <c r="D293" s="71"/>
       <c r="E293" s="28" t="s">
         <v>315</v>
       </c>
@@ -16094,9 +16098,9 @@
       <c r="A294" s="5">
         <v>277</v>
       </c>
-      <c r="B294" s="70"/>
-      <c r="C294" s="68"/>
-      <c r="D294" s="71"/>
+      <c r="B294" s="71"/>
+      <c r="C294" s="69"/>
+      <c r="D294" s="72"/>
       <c r="E294" s="28" t="s">
         <v>301</v>
       </c>
@@ -16118,11 +16122,11 @@
       <c r="A295" s="5">
         <v>278</v>
       </c>
-      <c r="B295" s="70"/>
-      <c r="C295" s="66" t="s">
+      <c r="B295" s="71"/>
+      <c r="C295" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D295" s="66" t="s">
+      <c r="D295" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E295" s="30" t="s">
@@ -16146,9 +16150,9 @@
       <c r="A296" s="5">
         <v>279</v>
       </c>
-      <c r="B296" s="70"/>
-      <c r="C296" s="67"/>
-      <c r="D296" s="67"/>
+      <c r="B296" s="71"/>
+      <c r="C296" s="68"/>
+      <c r="D296" s="68"/>
       <c r="E296" s="30" t="s">
         <v>302</v>
       </c>
@@ -16170,9 +16174,9 @@
       <c r="A297" s="5">
         <v>280</v>
       </c>
-      <c r="B297" s="70"/>
-      <c r="C297" s="67"/>
-      <c r="D297" s="67"/>
+      <c r="B297" s="71"/>
+      <c r="C297" s="68"/>
+      <c r="D297" s="68"/>
       <c r="E297" s="30" t="s">
         <v>316</v>
       </c>
@@ -16194,9 +16198,9 @@
       <c r="A298" s="5">
         <v>281</v>
       </c>
-      <c r="B298" s="70"/>
-      <c r="C298" s="67"/>
-      <c r="D298" s="67"/>
+      <c r="B298" s="71"/>
+      <c r="C298" s="68"/>
+      <c r="D298" s="68"/>
       <c r="E298" s="43" t="s">
         <v>303</v>
       </c>
@@ -16220,9 +16224,9 @@
       <c r="A299" s="5">
         <v>282</v>
       </c>
-      <c r="B299" s="70"/>
-      <c r="C299" s="68"/>
-      <c r="D299" s="68"/>
+      <c r="B299" s="71"/>
+      <c r="C299" s="69"/>
+      <c r="D299" s="69"/>
       <c r="E299" s="32" t="s">
         <v>323</v>
       </c>
@@ -16246,7 +16250,7 @@
       <c r="A300" s="5">
         <v>283</v>
       </c>
-      <c r="B300" s="71"/>
+      <c r="B300" s="72"/>
       <c r="C300" s="11" t="s">
         <v>118</v>
       </c>
@@ -16273,30 +16277,30 @@
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A301" s="63" t="s">
+      <c r="A301" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="B301" s="63"/>
-      <c r="C301" s="63"/>
-      <c r="D301" s="63"/>
-      <c r="E301" s="63"/>
-      <c r="F301" s="63"/>
-      <c r="G301" s="63"/>
-      <c r="H301" s="63"/>
-      <c r="I301" s="63"/>
-      <c r="J301" s="63"/>
+      <c r="B301" s="78"/>
+      <c r="C301" s="78"/>
+      <c r="D301" s="78"/>
+      <c r="E301" s="78"/>
+      <c r="F301" s="78"/>
+      <c r="G301" s="78"/>
+      <c r="H301" s="78"/>
+      <c r="I301" s="78"/>
+      <c r="J301" s="78"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
         <v>284</v>
       </c>
-      <c r="B302" s="69" t="s">
+      <c r="B302" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="C302" s="66" t="s">
+      <c r="C302" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D302" s="69" t="s">
+      <c r="D302" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E302" s="28" t="s">
@@ -16320,9 +16324,9 @@
       <c r="A303" s="4">
         <v>285</v>
       </c>
-      <c r="B303" s="70"/>
-      <c r="C303" s="67"/>
-      <c r="D303" s="70"/>
+      <c r="B303" s="71"/>
+      <c r="C303" s="68"/>
+      <c r="D303" s="71"/>
       <c r="E303" s="28" t="s">
         <v>345</v>
       </c>
@@ -16344,9 +16348,9 @@
       <c r="A304" s="5">
         <v>286</v>
       </c>
-      <c r="B304" s="70"/>
-      <c r="C304" s="67"/>
-      <c r="D304" s="70"/>
+      <c r="B304" s="71"/>
+      <c r="C304" s="68"/>
+      <c r="D304" s="71"/>
       <c r="E304" s="28" t="s">
         <v>346</v>
       </c>
@@ -16368,9 +16372,9 @@
       <c r="A305" s="5">
         <v>287</v>
       </c>
-      <c r="B305" s="70"/>
-      <c r="C305" s="67"/>
-      <c r="D305" s="70"/>
+      <c r="B305" s="71"/>
+      <c r="C305" s="68"/>
+      <c r="D305" s="71"/>
       <c r="E305" s="28" t="s">
         <v>343</v>
       </c>
@@ -16392,9 +16396,9 @@
       <c r="A306" s="5">
         <v>288</v>
       </c>
-      <c r="B306" s="70"/>
-      <c r="C306" s="67"/>
-      <c r="D306" s="70"/>
+      <c r="B306" s="71"/>
+      <c r="C306" s="68"/>
+      <c r="D306" s="71"/>
       <c r="E306" s="28" t="s">
         <v>338</v>
       </c>
@@ -16416,9 +16420,9 @@
       <c r="A307" s="5">
         <v>289</v>
       </c>
-      <c r="B307" s="70"/>
-      <c r="C307" s="68"/>
-      <c r="D307" s="71"/>
+      <c r="B307" s="71"/>
+      <c r="C307" s="69"/>
+      <c r="D307" s="72"/>
       <c r="E307" s="28" t="s">
         <v>339</v>
       </c>
@@ -16440,11 +16444,11 @@
       <c r="A308" s="5">
         <v>290</v>
       </c>
-      <c r="B308" s="70"/>
-      <c r="C308" s="66" t="s">
+      <c r="B308" s="71"/>
+      <c r="C308" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D308" s="66" t="s">
+      <c r="D308" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E308" s="30" t="s">
@@ -16468,9 +16472,9 @@
       <c r="A309" s="5">
         <v>291</v>
       </c>
-      <c r="B309" s="70"/>
-      <c r="C309" s="67"/>
-      <c r="D309" s="67"/>
+      <c r="B309" s="71"/>
+      <c r="C309" s="68"/>
+      <c r="D309" s="68"/>
       <c r="E309" s="30" t="s">
         <v>340</v>
       </c>
@@ -16492,9 +16496,9 @@
       <c r="A310" s="5">
         <v>292</v>
       </c>
-      <c r="B310" s="70"/>
-      <c r="C310" s="67"/>
-      <c r="D310" s="67"/>
+      <c r="B310" s="71"/>
+      <c r="C310" s="68"/>
+      <c r="D310" s="68"/>
       <c r="E310" s="30" t="s">
         <v>348</v>
       </c>
@@ -16516,9 +16520,9 @@
       <c r="A311" s="5">
         <v>293</v>
       </c>
-      <c r="B311" s="70"/>
-      <c r="C311" s="67"/>
-      <c r="D311" s="67"/>
+      <c r="B311" s="71"/>
+      <c r="C311" s="68"/>
+      <c r="D311" s="68"/>
       <c r="E311" s="43" t="s">
         <v>341</v>
       </c>
@@ -16542,9 +16546,9 @@
       <c r="A312" s="5">
         <v>294</v>
       </c>
-      <c r="B312" s="70"/>
-      <c r="C312" s="68"/>
-      <c r="D312" s="68"/>
+      <c r="B312" s="71"/>
+      <c r="C312" s="69"/>
+      <c r="D312" s="69"/>
       <c r="E312" s="32" t="s">
         <v>349</v>
       </c>
@@ -16568,7 +16572,7 @@
       <c r="A313" s="5">
         <v>295</v>
       </c>
-      <c r="B313" s="71"/>
+      <c r="B313" s="72"/>
       <c r="C313" s="11" t="s">
         <v>118</v>
       </c>
@@ -16595,30 +16599,30 @@
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A314" s="63" t="s">
+      <c r="A314" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="B314" s="63"/>
-      <c r="C314" s="63"/>
-      <c r="D314" s="63"/>
-      <c r="E314" s="63"/>
-      <c r="F314" s="63"/>
-      <c r="G314" s="63"/>
-      <c r="H314" s="63"/>
-      <c r="I314" s="63"/>
-      <c r="J314" s="63"/>
+      <c r="B314" s="78"/>
+      <c r="C314" s="78"/>
+      <c r="D314" s="78"/>
+      <c r="E314" s="78"/>
+      <c r="F314" s="78"/>
+      <c r="G314" s="78"/>
+      <c r="H314" s="78"/>
+      <c r="I314" s="78"/>
+      <c r="J314" s="78"/>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>296</v>
       </c>
-      <c r="B315" s="64" t="s">
+      <c r="B315" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="C315" s="66" t="s">
+      <c r="C315" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D315" s="69" t="s">
+      <c r="D315" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E315" s="28" t="s">
@@ -16642,9 +16646,9 @@
       <c r="A316" s="5">
         <v>297</v>
       </c>
-      <c r="B316" s="64"/>
-      <c r="C316" s="67"/>
-      <c r="D316" s="70"/>
+      <c r="B316" s="65"/>
+      <c r="C316" s="68"/>
+      <c r="D316" s="71"/>
       <c r="E316" s="28" t="s">
         <v>357</v>
       </c>
@@ -16666,9 +16670,9 @@
       <c r="A317" s="5">
         <v>298</v>
       </c>
-      <c r="B317" s="64"/>
-      <c r="C317" s="67"/>
-      <c r="D317" s="70"/>
+      <c r="B317" s="65"/>
+      <c r="C317" s="68"/>
+      <c r="D317" s="71"/>
       <c r="E317" s="28" t="s">
         <v>366</v>
       </c>
@@ -16690,9 +16694,9 @@
       <c r="A318" s="5">
         <v>299</v>
       </c>
-      <c r="B318" s="64"/>
-      <c r="C318" s="67"/>
-      <c r="D318" s="70"/>
+      <c r="B318" s="65"/>
+      <c r="C318" s="68"/>
+      <c r="D318" s="71"/>
       <c r="E318" s="28" t="s">
         <v>364</v>
       </c>
@@ -16714,9 +16718,9 @@
       <c r="A319" s="5">
         <v>300</v>
       </c>
-      <c r="B319" s="64"/>
-      <c r="C319" s="67"/>
-      <c r="D319" s="70"/>
+      <c r="B319" s="65"/>
+      <c r="C319" s="68"/>
+      <c r="D319" s="71"/>
       <c r="E319" s="28" t="s">
         <v>358</v>
       </c>
@@ -16738,9 +16742,9 @@
       <c r="A320" s="5">
         <v>301</v>
       </c>
-      <c r="B320" s="64"/>
-      <c r="C320" s="68"/>
-      <c r="D320" s="71"/>
+      <c r="B320" s="65"/>
+      <c r="C320" s="69"/>
+      <c r="D320" s="72"/>
       <c r="E320" s="28" t="s">
         <v>359</v>
       </c>
@@ -16762,11 +16766,11 @@
       <c r="A321" s="5">
         <v>302</v>
       </c>
-      <c r="B321" s="64"/>
-      <c r="C321" s="65" t="s">
+      <c r="B321" s="65"/>
+      <c r="C321" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D321" s="65" t="s">
+      <c r="D321" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E321" s="30" t="s">
@@ -16790,9 +16794,9 @@
       <c r="A322" s="5">
         <v>303</v>
       </c>
-      <c r="B322" s="64"/>
-      <c r="C322" s="65"/>
-      <c r="D322" s="65"/>
+      <c r="B322" s="65"/>
+      <c r="C322" s="64"/>
+      <c r="D322" s="64"/>
       <c r="E322" s="30" t="s">
         <v>361</v>
       </c>
@@ -16814,9 +16818,9 @@
       <c r="A323" s="5">
         <v>304</v>
       </c>
-      <c r="B323" s="64"/>
-      <c r="C323" s="65"/>
-      <c r="D323" s="65"/>
+      <c r="B323" s="65"/>
+      <c r="C323" s="64"/>
+      <c r="D323" s="64"/>
       <c r="E323" s="30" t="s">
         <v>348</v>
       </c>
@@ -16838,9 +16842,9 @@
       <c r="A324" s="5">
         <v>305</v>
       </c>
-      <c r="B324" s="64"/>
-      <c r="C324" s="65"/>
-      <c r="D324" s="65"/>
+      <c r="B324" s="65"/>
+      <c r="C324" s="64"/>
+      <c r="D324" s="64"/>
       <c r="E324" s="43" t="s">
         <v>362</v>
       </c>
@@ -16864,9 +16868,9 @@
       <c r="A325" s="5">
         <v>306</v>
       </c>
-      <c r="B325" s="64"/>
-      <c r="C325" s="65"/>
-      <c r="D325" s="65"/>
+      <c r="B325" s="65"/>
+      <c r="C325" s="64"/>
+      <c r="D325" s="64"/>
       <c r="E325" s="32" t="s">
         <v>356</v>
       </c>
@@ -16890,7 +16894,7 @@
       <c r="A326" s="5">
         <v>307</v>
       </c>
-      <c r="B326" s="64"/>
+      <c r="B326" s="65"/>
       <c r="C326" s="11" t="s">
         <v>118</v>
       </c>
@@ -16917,30 +16921,30 @@
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A327" s="63" t="s">
+      <c r="A327" s="78" t="s">
         <v>353</v>
       </c>
-      <c r="B327" s="63"/>
-      <c r="C327" s="63"/>
-      <c r="D327" s="63"/>
-      <c r="E327" s="63"/>
-      <c r="F327" s="63"/>
-      <c r="G327" s="63"/>
-      <c r="H327" s="63"/>
-      <c r="I327" s="63"/>
-      <c r="J327" s="63"/>
+      <c r="B327" s="78"/>
+      <c r="C327" s="78"/>
+      <c r="D327" s="78"/>
+      <c r="E327" s="78"/>
+      <c r="F327" s="78"/>
+      <c r="G327" s="78"/>
+      <c r="H327" s="78"/>
+      <c r="I327" s="78"/>
+      <c r="J327" s="78"/>
     </row>
     <row r="328" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
         <v>308</v>
       </c>
-      <c r="B328" s="66" t="s">
+      <c r="B328" s="67" t="s">
         <v>480</v>
       </c>
-      <c r="C328" s="66" t="s">
+      <c r="C328" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D328" s="66" t="s">
+      <c r="D328" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E328" s="28" t="s">
@@ -16966,9 +16970,9 @@
       <c r="A329" s="8">
         <v>309</v>
       </c>
-      <c r="B329" s="67"/>
-      <c r="C329" s="67"/>
-      <c r="D329" s="67"/>
+      <c r="B329" s="68"/>
+      <c r="C329" s="68"/>
+      <c r="D329" s="68"/>
       <c r="E329" s="28" t="s">
         <v>474</v>
       </c>
@@ -16992,9 +16996,9 @@
       <c r="A330" s="8">
         <v>310</v>
       </c>
-      <c r="B330" s="67"/>
-      <c r="C330" s="67"/>
-      <c r="D330" s="67"/>
+      <c r="B330" s="68"/>
+      <c r="C330" s="68"/>
+      <c r="D330" s="68"/>
       <c r="E330" s="28" t="s">
         <v>476</v>
       </c>
@@ -17018,9 +17022,9 @@
       <c r="A331" s="8">
         <v>311</v>
       </c>
-      <c r="B331" s="67"/>
-      <c r="C331" s="67"/>
-      <c r="D331" s="67"/>
+      <c r="B331" s="68"/>
+      <c r="C331" s="68"/>
+      <c r="D331" s="68"/>
       <c r="E331" s="28" t="s">
         <v>477</v>
       </c>
@@ -17044,9 +17048,9 @@
       <c r="A332" s="8">
         <v>312</v>
       </c>
-      <c r="B332" s="67"/>
-      <c r="C332" s="67"/>
-      <c r="D332" s="67"/>
+      <c r="B332" s="68"/>
+      <c r="C332" s="68"/>
+      <c r="D332" s="68"/>
       <c r="E332" s="28" t="s">
         <v>478</v>
       </c>
@@ -17070,9 +17074,9 @@
       <c r="A333" s="8">
         <v>313</v>
       </c>
-      <c r="B333" s="67"/>
-      <c r="C333" s="67"/>
-      <c r="D333" s="67"/>
+      <c r="B333" s="68"/>
+      <c r="C333" s="68"/>
+      <c r="D333" s="68"/>
       <c r="E333" s="28" t="s">
         <v>479</v>
       </c>
@@ -17096,9 +17100,9 @@
       <c r="A334" s="8">
         <v>314</v>
       </c>
-      <c r="B334" s="67"/>
-      <c r="C334" s="67"/>
-      <c r="D334" s="67"/>
+      <c r="B334" s="68"/>
+      <c r="C334" s="68"/>
+      <c r="D334" s="68"/>
       <c r="E334" s="28" t="s">
         <v>481</v>
       </c>
@@ -17122,9 +17126,9 @@
       <c r="A335" s="8">
         <v>315</v>
       </c>
-      <c r="B335" s="67"/>
-      <c r="C335" s="67"/>
-      <c r="D335" s="67"/>
+      <c r="B335" s="68"/>
+      <c r="C335" s="68"/>
+      <c r="D335" s="68"/>
       <c r="E335" s="28" t="s">
         <v>482</v>
       </c>
@@ -17148,9 +17152,9 @@
       <c r="A336" s="8">
         <v>316</v>
       </c>
-      <c r="B336" s="67"/>
-      <c r="C336" s="67"/>
-      <c r="D336" s="67"/>
+      <c r="B336" s="68"/>
+      <c r="C336" s="68"/>
+      <c r="D336" s="68"/>
       <c r="E336" s="28" t="s">
         <v>485</v>
       </c>
@@ -17174,9 +17178,9 @@
       <c r="A337" s="8">
         <v>317</v>
       </c>
-      <c r="B337" s="67"/>
-      <c r="C337" s="67"/>
-      <c r="D337" s="67"/>
+      <c r="B337" s="68"/>
+      <c r="C337" s="68"/>
+      <c r="D337" s="68"/>
       <c r="E337" s="28" t="s">
         <v>483</v>
       </c>
@@ -17200,9 +17204,9 @@
       <c r="A338" s="8">
         <v>318</v>
       </c>
-      <c r="B338" s="67"/>
-      <c r="C338" s="67"/>
-      <c r="D338" s="67"/>
+      <c r="B338" s="68"/>
+      <c r="C338" s="68"/>
+      <c r="D338" s="68"/>
       <c r="E338" s="28" t="s">
         <v>484</v>
       </c>
@@ -17226,9 +17230,9 @@
       <c r="A339" s="8">
         <v>319</v>
       </c>
-      <c r="B339" s="67"/>
-      <c r="C339" s="68"/>
-      <c r="D339" s="68"/>
+      <c r="B339" s="68"/>
+      <c r="C339" s="69"/>
+      <c r="D339" s="69"/>
       <c r="E339" s="28" t="s">
         <v>486</v>
       </c>
@@ -17252,11 +17256,11 @@
       <c r="A340" s="8">
         <v>320</v>
       </c>
-      <c r="B340" s="67"/>
-      <c r="C340" s="66" t="s">
+      <c r="B340" s="68"/>
+      <c r="C340" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D340" s="69" t="s">
+      <c r="D340" s="70" t="s">
         <v>61</v>
       </c>
       <c r="E340" s="28" t="s">
@@ -17280,9 +17284,9 @@
       <c r="A341" s="8">
         <v>321</v>
       </c>
-      <c r="B341" s="67"/>
-      <c r="C341" s="67"/>
-      <c r="D341" s="70"/>
+      <c r="B341" s="68"/>
+      <c r="C341" s="68"/>
+      <c r="D341" s="71"/>
       <c r="E341" s="28" t="s">
         <v>489</v>
       </c>
@@ -17304,9 +17308,9 @@
       <c r="A342" s="8">
         <v>322</v>
       </c>
-      <c r="B342" s="67"/>
-      <c r="C342" s="67"/>
-      <c r="D342" s="70"/>
+      <c r="B342" s="68"/>
+      <c r="C342" s="68"/>
+      <c r="D342" s="71"/>
       <c r="E342" s="28" t="s">
         <v>490</v>
       </c>
@@ -17328,9 +17332,9 @@
       <c r="A343" s="8">
         <v>323</v>
       </c>
-      <c r="B343" s="67"/>
-      <c r="C343" s="67"/>
-      <c r="D343" s="70"/>
+      <c r="B343" s="68"/>
+      <c r="C343" s="68"/>
+      <c r="D343" s="71"/>
       <c r="E343" s="28" t="s">
         <v>491</v>
       </c>
@@ -17352,9 +17356,9 @@
       <c r="A344" s="8">
         <v>324</v>
       </c>
-      <c r="B344" s="67"/>
-      <c r="C344" s="67"/>
-      <c r="D344" s="70"/>
+      <c r="B344" s="68"/>
+      <c r="C344" s="68"/>
+      <c r="D344" s="71"/>
       <c r="E344" s="28" t="s">
         <v>492</v>
       </c>
@@ -17376,9 +17380,9 @@
       <c r="A345" s="8">
         <v>325</v>
       </c>
-      <c r="B345" s="67"/>
-      <c r="C345" s="67"/>
-      <c r="D345" s="70"/>
+      <c r="B345" s="68"/>
+      <c r="C345" s="68"/>
+      <c r="D345" s="71"/>
       <c r="E345" s="28" t="s">
         <v>493</v>
       </c>
@@ -17400,9 +17404,9 @@
       <c r="A346" s="8">
         <v>326</v>
       </c>
-      <c r="B346" s="67"/>
-      <c r="C346" s="67"/>
-      <c r="D346" s="70"/>
+      <c r="B346" s="68"/>
+      <c r="C346" s="68"/>
+      <c r="D346" s="71"/>
       <c r="E346" s="28" t="s">
         <v>494</v>
       </c>
@@ -17424,9 +17428,9 @@
       <c r="A347" s="8">
         <v>327</v>
       </c>
-      <c r="B347" s="67"/>
-      <c r="C347" s="68"/>
-      <c r="D347" s="71"/>
+      <c r="B347" s="68"/>
+      <c r="C347" s="69"/>
+      <c r="D347" s="72"/>
       <c r="E347" s="28" t="s">
         <v>495</v>
       </c>
@@ -17448,20 +17452,20 @@
       <c r="A348" s="8">
         <v>328</v>
       </c>
-      <c r="B348" s="67"/>
-      <c r="C348" s="66" t="s">
+      <c r="B348" s="68"/>
+      <c r="C348" s="67" t="s">
         <v>465</v>
       </c>
       <c r="D348" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="E348" s="66" t="s">
+      <c r="E348" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="F348" s="66" t="s">
+      <c r="F348" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="G348" s="69" t="s">
+      <c r="G348" s="70" t="s">
         <v>496</v>
       </c>
       <c r="H348" s="28" t="s">
@@ -17476,14 +17480,14 @@
       <c r="A349" s="8">
         <v>329</v>
       </c>
-      <c r="B349" s="67"/>
-      <c r="C349" s="67"/>
+      <c r="B349" s="68"/>
+      <c r="C349" s="68"/>
       <c r="D349" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="E349" s="67"/>
-      <c r="F349" s="67"/>
-      <c r="G349" s="70"/>
+      <c r="E349" s="68"/>
+      <c r="F349" s="68"/>
+      <c r="G349" s="71"/>
       <c r="H349" s="28" t="s">
         <v>641</v>
       </c>
@@ -17496,14 +17500,14 @@
       <c r="A350" s="8">
         <v>330</v>
       </c>
-      <c r="B350" s="67"/>
-      <c r="C350" s="67"/>
+      <c r="B350" s="68"/>
+      <c r="C350" s="68"/>
       <c r="D350" s="28" t="s">
         <v>473</v>
       </c>
-      <c r="E350" s="67"/>
-      <c r="F350" s="67"/>
-      <c r="G350" s="70"/>
+      <c r="E350" s="68"/>
+      <c r="F350" s="68"/>
+      <c r="G350" s="71"/>
       <c r="H350" s="28" t="s">
         <v>498</v>
       </c>
@@ -17516,14 +17520,14 @@
       <c r="A351" s="8">
         <v>331</v>
       </c>
-      <c r="B351" s="67"/>
-      <c r="C351" s="67"/>
+      <c r="B351" s="68"/>
+      <c r="C351" s="68"/>
       <c r="D351" s="28" t="s">
         <v>500</v>
       </c>
-      <c r="E351" s="67"/>
-      <c r="F351" s="67"/>
-      <c r="G351" s="70"/>
+      <c r="E351" s="68"/>
+      <c r="F351" s="68"/>
+      <c r="G351" s="71"/>
       <c r="H351" s="50" t="s">
         <v>642</v>
       </c>
@@ -17538,14 +17542,14 @@
       <c r="A352" s="8">
         <v>332</v>
       </c>
-      <c r="B352" s="68"/>
-      <c r="C352" s="68"/>
+      <c r="B352" s="69"/>
+      <c r="C352" s="69"/>
       <c r="D352" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="E352" s="68"/>
-      <c r="F352" s="68"/>
-      <c r="G352" s="71"/>
+      <c r="E352" s="69"/>
+      <c r="F352" s="69"/>
+      <c r="G352" s="72"/>
       <c r="H352" s="28" t="s">
         <v>502</v>
       </c>
@@ -17555,30 +17559,30 @@
       <c r="J352" s="13"/>
     </row>
     <row r="353" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A353" s="78" t="s">
+      <c r="A353" s="66" t="s">
         <v>503</v>
       </c>
-      <c r="B353" s="78"/>
-      <c r="C353" s="78"/>
-      <c r="D353" s="78"/>
-      <c r="E353" s="78"/>
-      <c r="F353" s="78"/>
-      <c r="G353" s="78"/>
-      <c r="H353" s="78"/>
-      <c r="I353" s="78"/>
-      <c r="J353" s="78"/>
+      <c r="B353" s="66"/>
+      <c r="C353" s="66"/>
+      <c r="D353" s="66"/>
+      <c r="E353" s="66"/>
+      <c r="F353" s="66"/>
+      <c r="G353" s="66"/>
+      <c r="H353" s="66"/>
+      <c r="I353" s="66"/>
+      <c r="J353" s="66"/>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="33">
         <v>339</v>
       </c>
-      <c r="B354" s="64" t="s">
+      <c r="B354" s="65" t="s">
         <v>570</v>
       </c>
-      <c r="C354" s="65" t="s">
+      <c r="C354" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D354" s="65" t="s">
+      <c r="D354" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E354" s="32" t="s">
@@ -17604,9 +17608,9 @@
       <c r="A355" s="33">
         <v>340</v>
       </c>
-      <c r="B355" s="64"/>
-      <c r="C355" s="65"/>
-      <c r="D355" s="65"/>
+      <c r="B355" s="65"/>
+      <c r="C355" s="64"/>
+      <c r="D355" s="64"/>
       <c r="E355" s="32" t="s">
         <v>577</v>
       </c>
@@ -17628,9 +17632,9 @@
       <c r="A356" s="33">
         <v>341</v>
       </c>
-      <c r="B356" s="64"/>
-      <c r="C356" s="65"/>
-      <c r="D356" s="65"/>
+      <c r="B356" s="65"/>
+      <c r="C356" s="64"/>
+      <c r="D356" s="64"/>
       <c r="E356" s="32" t="s">
         <v>578</v>
       </c>
@@ -17652,9 +17656,9 @@
       <c r="A357" s="33">
         <v>342</v>
       </c>
-      <c r="B357" s="64"/>
-      <c r="C357" s="65"/>
-      <c r="D357" s="65"/>
+      <c r="B357" s="65"/>
+      <c r="C357" s="64"/>
+      <c r="D357" s="64"/>
       <c r="E357" s="32" t="s">
         <v>582</v>
       </c>
@@ -17678,9 +17682,9 @@
       <c r="A358" s="33">
         <v>343</v>
       </c>
-      <c r="B358" s="64"/>
-      <c r="C358" s="65"/>
-      <c r="D358" s="65"/>
+      <c r="B358" s="65"/>
+      <c r="C358" s="64"/>
+      <c r="D358" s="64"/>
       <c r="E358" s="32" t="s">
         <v>579</v>
       </c>
@@ -17702,9 +17706,9 @@
       <c r="A359" s="33">
         <v>344</v>
       </c>
-      <c r="B359" s="64"/>
-      <c r="C359" s="65"/>
-      <c r="D359" s="65"/>
+      <c r="B359" s="65"/>
+      <c r="C359" s="64"/>
+      <c r="D359" s="64"/>
       <c r="E359" s="32" t="s">
         <v>580</v>
       </c>
@@ -17726,9 +17730,9 @@
       <c r="A360" s="33">
         <v>345</v>
       </c>
-      <c r="B360" s="64"/>
-      <c r="C360" s="65"/>
-      <c r="D360" s="65"/>
+      <c r="B360" s="65"/>
+      <c r="C360" s="64"/>
+      <c r="D360" s="64"/>
       <c r="E360" s="32" t="s">
         <v>581</v>
       </c>
@@ -17752,9 +17756,9 @@
       <c r="A361" s="33">
         <v>346</v>
       </c>
-      <c r="B361" s="64"/>
-      <c r="C361" s="65"/>
-      <c r="D361" s="65"/>
+      <c r="B361" s="65"/>
+      <c r="C361" s="64"/>
+      <c r="D361" s="64"/>
       <c r="E361" s="32" t="s">
         <v>583</v>
       </c>
@@ -17776,9 +17780,9 @@
       <c r="A362" s="33">
         <v>347</v>
       </c>
-      <c r="B362" s="64"/>
-      <c r="C362" s="65"/>
-      <c r="D362" s="65"/>
+      <c r="B362" s="65"/>
+      <c r="C362" s="64"/>
+      <c r="D362" s="64"/>
       <c r="E362" s="32" t="s">
         <v>584</v>
       </c>
@@ -17800,9 +17804,9 @@
       <c r="A363" s="33">
         <v>348</v>
       </c>
-      <c r="B363" s="64"/>
-      <c r="C363" s="65"/>
-      <c r="D363" s="65"/>
+      <c r="B363" s="65"/>
+      <c r="C363" s="64"/>
+      <c r="D363" s="64"/>
       <c r="E363" s="32" t="s">
         <v>587</v>
       </c>
@@ -17826,9 +17830,9 @@
       <c r="A364" s="33">
         <v>349</v>
       </c>
-      <c r="B364" s="64"/>
-      <c r="C364" s="65"/>
-      <c r="D364" s="65"/>
+      <c r="B364" s="65"/>
+      <c r="C364" s="64"/>
+      <c r="D364" s="64"/>
       <c r="E364" s="32" t="s">
         <v>588</v>
       </c>
@@ -17850,9 +17854,9 @@
       <c r="A365" s="33">
         <v>350</v>
       </c>
-      <c r="B365" s="64"/>
-      <c r="C365" s="65"/>
-      <c r="D365" s="65"/>
+      <c r="B365" s="65"/>
+      <c r="C365" s="64"/>
+      <c r="D365" s="64"/>
       <c r="E365" s="32" t="s">
         <v>589</v>
       </c>
@@ -17874,9 +17878,9 @@
       <c r="A366" s="33">
         <v>351</v>
       </c>
-      <c r="B366" s="64"/>
-      <c r="C366" s="65"/>
-      <c r="D366" s="65"/>
+      <c r="B366" s="65"/>
+      <c r="C366" s="64"/>
+      <c r="D366" s="64"/>
       <c r="E366" s="32" t="s">
         <v>592</v>
       </c>
@@ -17900,9 +17904,9 @@
       <c r="A367" s="33">
         <v>352</v>
       </c>
-      <c r="B367" s="64"/>
-      <c r="C367" s="65"/>
-      <c r="D367" s="65"/>
+      <c r="B367" s="65"/>
+      <c r="C367" s="64"/>
+      <c r="D367" s="64"/>
       <c r="E367" s="32" t="s">
         <v>593</v>
       </c>
@@ -17924,9 +17928,9 @@
       <c r="A368" s="33">
         <v>353</v>
       </c>
-      <c r="B368" s="64"/>
-      <c r="C368" s="65"/>
-      <c r="D368" s="65"/>
+      <c r="B368" s="65"/>
+      <c r="C368" s="64"/>
+      <c r="D368" s="64"/>
       <c r="E368" s="32" t="s">
         <v>594</v>
       </c>
@@ -17948,9 +17952,9 @@
       <c r="A369" s="33">
         <v>354</v>
       </c>
-      <c r="B369" s="64"/>
-      <c r="C369" s="65"/>
-      <c r="D369" s="65"/>
+      <c r="B369" s="65"/>
+      <c r="C369" s="64"/>
+      <c r="D369" s="64"/>
       <c r="E369" s="32" t="s">
         <v>597</v>
       </c>
@@ -17974,9 +17978,9 @@
       <c r="A370" s="33">
         <v>355</v>
       </c>
-      <c r="B370" s="64"/>
-      <c r="C370" s="65"/>
-      <c r="D370" s="65"/>
+      <c r="B370" s="65"/>
+      <c r="C370" s="64"/>
+      <c r="D370" s="64"/>
       <c r="E370" s="32" t="s">
         <v>598</v>
       </c>
@@ -17998,9 +18002,9 @@
       <c r="A371" s="33">
         <v>356</v>
       </c>
-      <c r="B371" s="64"/>
-      <c r="C371" s="65"/>
-      <c r="D371" s="65"/>
+      <c r="B371" s="65"/>
+      <c r="C371" s="64"/>
+      <c r="D371" s="64"/>
       <c r="E371" s="32" t="s">
         <v>599</v>
       </c>
@@ -18019,30 +18023,30 @@
       <c r="J371" s="13"/>
     </row>
     <row r="372" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="78" t="s">
+      <c r="A372" s="66" t="s">
         <v>602</v>
       </c>
-      <c r="B372" s="78"/>
-      <c r="C372" s="78"/>
-      <c r="D372" s="78"/>
-      <c r="E372" s="78"/>
-      <c r="F372" s="78"/>
-      <c r="G372" s="78"/>
-      <c r="H372" s="78"/>
-      <c r="I372" s="78"/>
-      <c r="J372" s="78"/>
+      <c r="B372" s="66"/>
+      <c r="C372" s="66"/>
+      <c r="D372" s="66"/>
+      <c r="E372" s="66"/>
+      <c r="F372" s="66"/>
+      <c r="G372" s="66"/>
+      <c r="H372" s="66"/>
+      <c r="I372" s="66"/>
+      <c r="J372" s="66"/>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="33">
         <v>357</v>
       </c>
-      <c r="B373" s="64" t="s">
+      <c r="B373" s="65" t="s">
         <v>604</v>
       </c>
-      <c r="C373" s="65" t="s">
+      <c r="C373" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D373" s="65" t="s">
+      <c r="D373" s="64" t="s">
         <v>65</v>
       </c>
       <c r="E373" s="32" t="s">
@@ -18068,9 +18072,9 @@
       <c r="A374" s="33">
         <v>358</v>
       </c>
-      <c r="B374" s="64"/>
-      <c r="C374" s="65"/>
-      <c r="D374" s="65"/>
+      <c r="B374" s="65"/>
+      <c r="C374" s="64"/>
+      <c r="D374" s="64"/>
       <c r="E374" s="32" t="s">
         <v>605</v>
       </c>
@@ -18092,9 +18096,9 @@
       <c r="A375" s="33">
         <v>359</v>
       </c>
-      <c r="B375" s="64"/>
-      <c r="C375" s="65"/>
-      <c r="D375" s="65"/>
+      <c r="B375" s="65"/>
+      <c r="C375" s="64"/>
+      <c r="D375" s="64"/>
       <c r="E375" s="32" t="s">
         <v>606</v>
       </c>
@@ -18116,9 +18120,9 @@
       <c r="A376" s="33">
         <v>360</v>
       </c>
-      <c r="B376" s="64"/>
-      <c r="C376" s="65"/>
-      <c r="D376" s="65"/>
+      <c r="B376" s="65"/>
+      <c r="C376" s="64"/>
+      <c r="D376" s="64"/>
       <c r="E376" s="32" t="s">
         <v>609</v>
       </c>
@@ -18142,9 +18146,9 @@
       <c r="A377" s="33">
         <v>361</v>
       </c>
-      <c r="B377" s="64"/>
-      <c r="C377" s="65"/>
-      <c r="D377" s="65"/>
+      <c r="B377" s="65"/>
+      <c r="C377" s="64"/>
+      <c r="D377" s="64"/>
       <c r="E377" s="32" t="s">
         <v>610</v>
       </c>
@@ -18166,9 +18170,9 @@
       <c r="A378" s="33">
         <v>362</v>
       </c>
-      <c r="B378" s="64"/>
-      <c r="C378" s="65"/>
-      <c r="D378" s="65"/>
+      <c r="B378" s="65"/>
+      <c r="C378" s="64"/>
+      <c r="D378" s="64"/>
       <c r="E378" s="32" t="s">
         <v>611</v>
       </c>
@@ -18187,30 +18191,30 @@
       <c r="J378" s="32"/>
     </row>
     <row r="379" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A379" s="78" t="s">
+      <c r="A379" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="B379" s="78"/>
-      <c r="C379" s="78"/>
-      <c r="D379" s="78"/>
-      <c r="E379" s="78"/>
-      <c r="F379" s="78"/>
-      <c r="G379" s="78"/>
-      <c r="H379" s="78"/>
-      <c r="I379" s="78"/>
-      <c r="J379" s="78"/>
+      <c r="B379" s="66"/>
+      <c r="C379" s="66"/>
+      <c r="D379" s="66"/>
+      <c r="E379" s="66"/>
+      <c r="F379" s="66"/>
+      <c r="G379" s="66"/>
+      <c r="H379" s="66"/>
+      <c r="I379" s="66"/>
+      <c r="J379" s="66"/>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="33">
         <v>363</v>
       </c>
-      <c r="B380" s="83" t="s">
+      <c r="B380" s="77" t="s">
         <v>695</v>
       </c>
-      <c r="C380" s="82" t="s">
+      <c r="C380" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D380" s="82" t="s">
+      <c r="D380" s="76" t="s">
         <v>650</v>
       </c>
       <c r="E380" s="57" t="s">
@@ -18236,9 +18240,9 @@
       <c r="A381" s="33">
         <v>364</v>
       </c>
-      <c r="B381" s="83"/>
-      <c r="C381" s="82"/>
-      <c r="D381" s="82"/>
+      <c r="B381" s="77"/>
+      <c r="C381" s="76"/>
+      <c r="D381" s="76"/>
       <c r="E381" s="57" t="s">
         <v>648</v>
       </c>
@@ -18260,9 +18264,9 @@
       <c r="A382" s="33">
         <v>365</v>
       </c>
-      <c r="B382" s="83"/>
-      <c r="C382" s="82"/>
-      <c r="D382" s="82"/>
+      <c r="B382" s="77"/>
+      <c r="C382" s="76"/>
+      <c r="D382" s="76"/>
       <c r="E382" s="25" t="s">
         <v>651</v>
       </c>
@@ -18286,9 +18290,9 @@
       <c r="A383" s="33">
         <v>366</v>
       </c>
-      <c r="B383" s="83"/>
-      <c r="C383" s="82"/>
-      <c r="D383" s="82"/>
+      <c r="B383" s="77"/>
+      <c r="C383" s="76"/>
+      <c r="D383" s="76"/>
       <c r="E383" s="25" t="s">
         <v>652</v>
       </c>
@@ -18312,9 +18316,9 @@
       <c r="A384" s="33">
         <v>367</v>
       </c>
-      <c r="B384" s="83"/>
-      <c r="C384" s="82"/>
-      <c r="D384" s="82"/>
+      <c r="B384" s="77"/>
+      <c r="C384" s="76"/>
+      <c r="D384" s="76"/>
       <c r="E384" s="57" t="s">
         <v>653</v>
       </c>
@@ -18336,9 +18340,9 @@
       <c r="A385" s="33">
         <v>368</v>
       </c>
-      <c r="B385" s="83"/>
-      <c r="C385" s="82"/>
-      <c r="D385" s="82"/>
+      <c r="B385" s="77"/>
+      <c r="C385" s="76"/>
+      <c r="D385" s="76"/>
       <c r="E385" s="57" t="s">
         <v>654</v>
       </c>
@@ -18360,9 +18364,9 @@
       <c r="A386" s="33">
         <v>369</v>
       </c>
-      <c r="B386" s="83"/>
-      <c r="C386" s="82"/>
-      <c r="D386" s="82"/>
+      <c r="B386" s="77"/>
+      <c r="C386" s="76"/>
+      <c r="D386" s="76"/>
       <c r="E386" s="57" t="s">
         <v>659</v>
       </c>
@@ -18384,9 +18388,9 @@
       <c r="A387" s="33">
         <v>370</v>
       </c>
-      <c r="B387" s="83"/>
-      <c r="C387" s="82"/>
-      <c r="D387" s="82"/>
+      <c r="B387" s="77"/>
+      <c r="C387" s="76"/>
+      <c r="D387" s="76"/>
       <c r="E387" s="57" t="s">
         <v>660</v>
       </c>
@@ -18408,9 +18412,9 @@
       <c r="A388" s="33">
         <v>371</v>
       </c>
-      <c r="B388" s="83"/>
-      <c r="C388" s="82"/>
-      <c r="D388" s="82"/>
+      <c r="B388" s="77"/>
+      <c r="C388" s="76"/>
+      <c r="D388" s="76"/>
       <c r="E388" s="57" t="s">
         <v>661</v>
       </c>
@@ -18432,9 +18436,9 @@
       <c r="A389" s="33">
         <v>372</v>
       </c>
-      <c r="B389" s="83"/>
-      <c r="C389" s="82"/>
-      <c r="D389" s="82"/>
+      <c r="B389" s="77"/>
+      <c r="C389" s="76"/>
+      <c r="D389" s="76"/>
       <c r="E389" s="57" t="s">
         <v>662</v>
       </c>
@@ -18456,9 +18460,9 @@
       <c r="A390" s="33">
         <v>373</v>
       </c>
-      <c r="B390" s="83"/>
-      <c r="C390" s="82"/>
-      <c r="D390" s="82"/>
+      <c r="B390" s="77"/>
+      <c r="C390" s="76"/>
+      <c r="D390" s="76"/>
       <c r="E390" s="57" t="s">
         <v>663</v>
       </c>
@@ -18480,9 +18484,9 @@
       <c r="A391" s="33">
         <v>374</v>
       </c>
-      <c r="B391" s="83"/>
-      <c r="C391" s="82"/>
-      <c r="D391" s="82"/>
+      <c r="B391" s="77"/>
+      <c r="C391" s="76"/>
+      <c r="D391" s="76"/>
       <c r="E391" s="57" t="s">
         <v>664</v>
       </c>
@@ -18504,9 +18508,9 @@
       <c r="A392" s="33">
         <v>375</v>
       </c>
-      <c r="B392" s="83"/>
-      <c r="C392" s="82"/>
-      <c r="D392" s="82"/>
+      <c r="B392" s="77"/>
+      <c r="C392" s="76"/>
+      <c r="D392" s="76"/>
       <c r="E392" s="57" t="s">
         <v>671</v>
       </c>
@@ -18528,9 +18532,9 @@
       <c r="A393" s="33">
         <v>376</v>
       </c>
-      <c r="B393" s="83"/>
-      <c r="C393" s="82"/>
-      <c r="D393" s="82"/>
+      <c r="B393" s="77"/>
+      <c r="C393" s="76"/>
+      <c r="D393" s="76"/>
       <c r="E393" s="57" t="s">
         <v>672</v>
       </c>
@@ -18552,9 +18556,9 @@
       <c r="A394" s="33">
         <v>377</v>
       </c>
-      <c r="B394" s="83"/>
-      <c r="C394" s="82"/>
-      <c r="D394" s="82"/>
+      <c r="B394" s="77"/>
+      <c r="C394" s="76"/>
+      <c r="D394" s="76"/>
       <c r="E394" s="57" t="s">
         <v>674</v>
       </c>
@@ -18576,9 +18580,9 @@
       <c r="A395" s="33">
         <v>378</v>
       </c>
-      <c r="B395" s="83"/>
-      <c r="C395" s="82"/>
-      <c r="D395" s="82"/>
+      <c r="B395" s="77"/>
+      <c r="C395" s="76"/>
+      <c r="D395" s="76"/>
       <c r="E395" s="57" t="s">
         <v>673</v>
       </c>
@@ -18600,9 +18604,9 @@
       <c r="A396" s="33">
         <v>379</v>
       </c>
-      <c r="B396" s="83"/>
-      <c r="C396" s="82"/>
-      <c r="D396" s="82"/>
+      <c r="B396" s="77"/>
+      <c r="C396" s="76"/>
+      <c r="D396" s="76"/>
       <c r="E396" s="57" t="s">
         <v>675</v>
       </c>
@@ -18624,9 +18628,9 @@
       <c r="A397" s="33">
         <v>380</v>
       </c>
-      <c r="B397" s="83"/>
-      <c r="C397" s="82"/>
-      <c r="D397" s="82"/>
+      <c r="B397" s="77"/>
+      <c r="C397" s="76"/>
+      <c r="D397" s="76"/>
       <c r="E397" s="57" t="s">
         <v>676</v>
       </c>
@@ -18648,9 +18652,9 @@
       <c r="A398" s="33">
         <v>381</v>
       </c>
-      <c r="B398" s="83"/>
-      <c r="C398" s="82"/>
-      <c r="D398" s="82"/>
+      <c r="B398" s="77"/>
+      <c r="C398" s="76"/>
+      <c r="D398" s="76"/>
       <c r="E398" s="57" t="s">
         <v>677</v>
       </c>
@@ -18672,9 +18676,9 @@
       <c r="A399" s="33">
         <v>382</v>
       </c>
-      <c r="B399" s="83"/>
-      <c r="C399" s="82"/>
-      <c r="D399" s="82"/>
+      <c r="B399" s="77"/>
+      <c r="C399" s="76"/>
+      <c r="D399" s="76"/>
       <c r="E399" s="57" t="s">
         <v>678</v>
       </c>
@@ -18696,9 +18700,9 @@
       <c r="A400" s="33">
         <v>383</v>
       </c>
-      <c r="B400" s="83"/>
-      <c r="C400" s="82"/>
-      <c r="D400" s="82"/>
+      <c r="B400" s="77"/>
+      <c r="C400" s="76"/>
+      <c r="D400" s="76"/>
       <c r="E400" s="57" t="s">
         <v>679</v>
       </c>
@@ -18720,9 +18724,9 @@
       <c r="A401" s="33">
         <v>384</v>
       </c>
-      <c r="B401" s="83"/>
-      <c r="C401" s="82"/>
-      <c r="D401" s="82"/>
+      <c r="B401" s="77"/>
+      <c r="C401" s="76"/>
+      <c r="D401" s="76"/>
       <c r="E401" s="57" t="s">
         <v>680</v>
       </c>
@@ -18744,9 +18748,9 @@
       <c r="A402" s="33">
         <v>385</v>
       </c>
-      <c r="B402" s="83"/>
-      <c r="C402" s="82"/>
-      <c r="D402" s="82"/>
+      <c r="B402" s="77"/>
+      <c r="C402" s="76"/>
+      <c r="D402" s="76"/>
       <c r="E402" s="57" t="s">
         <v>681</v>
       </c>
@@ -18768,9 +18772,9 @@
       <c r="A403" s="33">
         <v>386</v>
       </c>
-      <c r="B403" s="83"/>
-      <c r="C403" s="82"/>
-      <c r="D403" s="82"/>
+      <c r="B403" s="77"/>
+      <c r="C403" s="76"/>
+      <c r="D403" s="76"/>
       <c r="E403" s="57" t="s">
         <v>682</v>
       </c>
@@ -18789,30 +18793,30 @@
       <c r="J403" s="13"/>
     </row>
     <row r="404" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="78" t="s">
+      <c r="A404" s="66" t="s">
         <v>694</v>
       </c>
-      <c r="B404" s="78"/>
-      <c r="C404" s="78"/>
-      <c r="D404" s="78"/>
-      <c r="E404" s="78"/>
-      <c r="F404" s="78"/>
-      <c r="G404" s="78"/>
-      <c r="H404" s="78"/>
-      <c r="I404" s="78"/>
-      <c r="J404" s="78"/>
+      <c r="B404" s="66"/>
+      <c r="C404" s="66"/>
+      <c r="D404" s="66"/>
+      <c r="E404" s="66"/>
+      <c r="F404" s="66"/>
+      <c r="G404" s="66"/>
+      <c r="H404" s="66"/>
+      <c r="I404" s="66"/>
+      <c r="J404" s="66"/>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" s="33">
         <v>387</v>
       </c>
-      <c r="B405" s="83" t="s">
+      <c r="B405" s="77" t="s">
         <v>696</v>
       </c>
-      <c r="C405" s="82" t="s">
+      <c r="C405" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D405" s="82" t="s">
+      <c r="D405" s="76" t="s">
         <v>650</v>
       </c>
       <c r="E405" s="61" t="s">
@@ -18836,9 +18840,9 @@
       <c r="A406" s="33">
         <v>388</v>
       </c>
-      <c r="B406" s="83"/>
-      <c r="C406" s="82"/>
-      <c r="D406" s="82"/>
+      <c r="B406" s="77"/>
+      <c r="C406" s="76"/>
+      <c r="D406" s="76"/>
       <c r="E406" s="61" t="s">
         <v>699</v>
       </c>
@@ -18860,9 +18864,9 @@
       <c r="A407" s="33">
         <v>389</v>
       </c>
-      <c r="B407" s="83"/>
-      <c r="C407" s="82"/>
-      <c r="D407" s="82"/>
+      <c r="B407" s="77"/>
+      <c r="C407" s="76"/>
+      <c r="D407" s="76"/>
       <c r="E407" s="25" t="s">
         <v>700</v>
       </c>
@@ -18886,9 +18890,9 @@
       <c r="A408" s="33">
         <v>390</v>
       </c>
-      <c r="B408" s="83"/>
-      <c r="C408" s="82"/>
-      <c r="D408" s="82"/>
+      <c r="B408" s="77"/>
+      <c r="C408" s="76"/>
+      <c r="D408" s="76"/>
       <c r="E408" s="25" t="s">
         <v>701</v>
       </c>
@@ -18912,9 +18916,9 @@
       <c r="A409" s="33">
         <v>391</v>
       </c>
-      <c r="B409" s="83"/>
-      <c r="C409" s="82"/>
-      <c r="D409" s="82"/>
+      <c r="B409" s="77"/>
+      <c r="C409" s="76"/>
+      <c r="D409" s="76"/>
       <c r="E409" s="61" t="s">
         <v>702</v>
       </c>
@@ -18936,9 +18940,9 @@
       <c r="A410" s="33">
         <v>392</v>
       </c>
-      <c r="B410" s="83"/>
-      <c r="C410" s="82"/>
-      <c r="D410" s="82"/>
+      <c r="B410" s="77"/>
+      <c r="C410" s="76"/>
+      <c r="D410" s="76"/>
       <c r="E410" s="61" t="s">
         <v>703</v>
       </c>
@@ -18960,9 +18964,9 @@
       <c r="A411" s="33">
         <v>393</v>
       </c>
-      <c r="B411" s="83"/>
-      <c r="C411" s="82"/>
-      <c r="D411" s="82"/>
+      <c r="B411" s="77"/>
+      <c r="C411" s="76"/>
+      <c r="D411" s="76"/>
       <c r="E411" s="25" t="s">
         <v>704</v>
       </c>
@@ -18986,9 +18990,9 @@
       <c r="A412" s="33">
         <v>394</v>
       </c>
-      <c r="B412" s="83"/>
-      <c r="C412" s="82"/>
-      <c r="D412" s="82"/>
+      <c r="B412" s="77"/>
+      <c r="C412" s="76"/>
+      <c r="D412" s="76"/>
       <c r="E412" s="25" t="s">
         <v>705</v>
       </c>
@@ -19012,9 +19016,9 @@
       <c r="A413" s="33">
         <v>395</v>
       </c>
-      <c r="B413" s="83"/>
-      <c r="C413" s="82"/>
-      <c r="D413" s="82"/>
+      <c r="B413" s="77"/>
+      <c r="C413" s="76"/>
+      <c r="D413" s="76"/>
       <c r="E413" s="25" t="s">
         <v>706</v>
       </c>
@@ -19038,9 +19042,9 @@
       <c r="A414" s="33">
         <v>396</v>
       </c>
-      <c r="B414" s="83"/>
-      <c r="C414" s="82"/>
-      <c r="D414" s="82"/>
+      <c r="B414" s="77"/>
+      <c r="C414" s="76"/>
+      <c r="D414" s="76"/>
       <c r="E414" s="25" t="s">
         <v>707</v>
       </c>
@@ -19064,9 +19068,9 @@
       <c r="A415" s="33">
         <v>397</v>
       </c>
-      <c r="B415" s="83"/>
-      <c r="C415" s="82"/>
-      <c r="D415" s="82"/>
+      <c r="B415" s="77"/>
+      <c r="C415" s="76"/>
+      <c r="D415" s="76"/>
       <c r="E415" s="61" t="s">
         <v>708</v>
       </c>
@@ -19088,9 +19092,9 @@
       <c r="A416" s="33">
         <v>398</v>
       </c>
-      <c r="B416" s="83"/>
-      <c r="C416" s="82"/>
-      <c r="D416" s="82"/>
+      <c r="B416" s="77"/>
+      <c r="C416" s="76"/>
+      <c r="D416" s="76"/>
       <c r="E416" s="61" t="s">
         <v>709</v>
       </c>
@@ -19112,9 +19116,9 @@
       <c r="A417" s="33">
         <v>399</v>
       </c>
-      <c r="B417" s="83"/>
-      <c r="C417" s="82"/>
-      <c r="D417" s="82"/>
+      <c r="B417" s="77"/>
+      <c r="C417" s="76"/>
+      <c r="D417" s="76"/>
       <c r="E417" s="61" t="s">
         <v>710</v>
       </c>
@@ -19136,9 +19140,9 @@
       <c r="A418" s="33">
         <v>400</v>
       </c>
-      <c r="B418" s="83"/>
-      <c r="C418" s="82"/>
-      <c r="D418" s="82"/>
+      <c r="B418" s="77"/>
+      <c r="C418" s="76"/>
+      <c r="D418" s="76"/>
       <c r="E418" s="61" t="s">
         <v>711</v>
       </c>
@@ -19160,9 +19164,9 @@
       <c r="A419" s="33">
         <v>401</v>
       </c>
-      <c r="B419" s="83"/>
-      <c r="C419" s="82"/>
-      <c r="D419" s="82"/>
+      <c r="B419" s="77"/>
+      <c r="C419" s="76"/>
+      <c r="D419" s="76"/>
       <c r="E419" s="61" t="s">
         <v>712</v>
       </c>
@@ -19184,9 +19188,9 @@
       <c r="A420" s="33">
         <v>402</v>
       </c>
-      <c r="B420" s="83"/>
-      <c r="C420" s="82"/>
-      <c r="D420" s="82"/>
+      <c r="B420" s="77"/>
+      <c r="C420" s="76"/>
+      <c r="D420" s="76"/>
       <c r="E420" s="61" t="s">
         <v>713</v>
       </c>
@@ -19208,9 +19212,9 @@
       <c r="A421" s="33">
         <v>403</v>
       </c>
-      <c r="B421" s="83"/>
-      <c r="C421" s="82"/>
-      <c r="D421" s="82"/>
+      <c r="B421" s="77"/>
+      <c r="C421" s="76"/>
+      <c r="D421" s="76"/>
       <c r="E421" s="61" t="s">
         <v>714</v>
       </c>
@@ -19232,9 +19236,9 @@
       <c r="A422" s="33">
         <v>404</v>
       </c>
-      <c r="B422" s="83"/>
-      <c r="C422" s="82"/>
-      <c r="D422" s="82"/>
+      <c r="B422" s="77"/>
+      <c r="C422" s="76"/>
+      <c r="D422" s="76"/>
       <c r="E422" s="61" t="s">
         <v>715</v>
       </c>
@@ -19256,9 +19260,9 @@
       <c r="A423" s="33">
         <v>405</v>
       </c>
-      <c r="B423" s="83"/>
-      <c r="C423" s="82"/>
-      <c r="D423" s="82"/>
+      <c r="B423" s="77"/>
+      <c r="C423" s="76"/>
+      <c r="D423" s="76"/>
       <c r="E423" s="61" t="s">
         <v>716</v>
       </c>
@@ -19280,9 +19284,9 @@
       <c r="A424" s="33">
         <v>406</v>
       </c>
-      <c r="B424" s="83"/>
-      <c r="C424" s="82"/>
-      <c r="D424" s="82"/>
+      <c r="B424" s="77"/>
+      <c r="C424" s="76"/>
+      <c r="D424" s="76"/>
       <c r="E424" s="61" t="s">
         <v>717</v>
       </c>
@@ -19304,9 +19308,9 @@
       <c r="A425" s="33">
         <v>407</v>
       </c>
-      <c r="B425" s="83"/>
-      <c r="C425" s="82"/>
-      <c r="D425" s="82"/>
+      <c r="B425" s="77"/>
+      <c r="C425" s="76"/>
+      <c r="D425" s="76"/>
       <c r="E425" s="61" t="s">
         <v>718</v>
       </c>
@@ -19328,9 +19332,9 @@
       <c r="A426" s="33">
         <v>408</v>
       </c>
-      <c r="B426" s="83"/>
-      <c r="C426" s="82"/>
-      <c r="D426" s="82"/>
+      <c r="B426" s="77"/>
+      <c r="C426" s="76"/>
+      <c r="D426" s="76"/>
       <c r="E426" s="61" t="s">
         <v>719</v>
       </c>
@@ -19352,9 +19356,9 @@
       <c r="A427" s="33">
         <v>409</v>
       </c>
-      <c r="B427" s="83"/>
-      <c r="C427" s="82"/>
-      <c r="D427" s="82"/>
+      <c r="B427" s="77"/>
+      <c r="C427" s="76"/>
+      <c r="D427" s="76"/>
       <c r="E427" s="61" t="s">
         <v>720</v>
       </c>
@@ -19376,9 +19380,9 @@
       <c r="A428" s="33">
         <v>410</v>
       </c>
-      <c r="B428" s="83"/>
-      <c r="C428" s="82"/>
-      <c r="D428" s="82"/>
+      <c r="B428" s="77"/>
+      <c r="C428" s="76"/>
+      <c r="D428" s="76"/>
       <c r="E428" s="61" t="s">
         <v>721</v>
       </c>
@@ -19397,30 +19401,30 @@
       <c r="J428" s="13"/>
     </row>
     <row r="429" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A429" s="78" t="s">
+      <c r="A429" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="B429" s="78"/>
-      <c r="C429" s="78"/>
-      <c r="D429" s="78"/>
-      <c r="E429" s="78"/>
-      <c r="F429" s="78"/>
-      <c r="G429" s="78"/>
-      <c r="H429" s="78"/>
-      <c r="I429" s="78"/>
-      <c r="J429" s="78"/>
+      <c r="B429" s="66"/>
+      <c r="C429" s="66"/>
+      <c r="D429" s="66"/>
+      <c r="E429" s="66"/>
+      <c r="F429" s="66"/>
+      <c r="G429" s="66"/>
+      <c r="H429" s="66"/>
+      <c r="I429" s="66"/>
+      <c r="J429" s="66"/>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="33">
         <v>411</v>
       </c>
-      <c r="B430" s="64" t="s">
+      <c r="B430" s="65" t="s">
         <v>722</v>
       </c>
-      <c r="C430" s="65" t="s">
+      <c r="C430" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D430" s="65" t="s">
+      <c r="D430" s="64" t="s">
         <v>650</v>
       </c>
       <c r="E430" s="57" t="s">
@@ -19446,9 +19450,9 @@
       <c r="A431" s="33">
         <v>412</v>
       </c>
-      <c r="B431" s="64"/>
-      <c r="C431" s="65"/>
-      <c r="D431" s="65"/>
+      <c r="B431" s="65"/>
+      <c r="C431" s="64"/>
+      <c r="D431" s="64"/>
       <c r="E431" s="57" t="s">
         <v>725</v>
       </c>
@@ -19470,9 +19474,9 @@
       <c r="A432" s="33">
         <v>413</v>
       </c>
-      <c r="B432" s="64"/>
-      <c r="C432" s="65"/>
-      <c r="D432" s="65"/>
+      <c r="B432" s="65"/>
+      <c r="C432" s="64"/>
+      <c r="D432" s="64"/>
       <c r="E432" s="57" t="s">
         <v>726</v>
       </c>
@@ -19494,9 +19498,9 @@
       <c r="A433" s="33">
         <v>414</v>
       </c>
-      <c r="B433" s="64"/>
-      <c r="C433" s="65"/>
-      <c r="D433" s="65"/>
+      <c r="B433" s="65"/>
+      <c r="C433" s="64"/>
+      <c r="D433" s="64"/>
       <c r="E433" s="57" t="s">
         <v>727</v>
       </c>
@@ -19518,9 +19522,9 @@
       <c r="A434" s="33">
         <v>415</v>
       </c>
-      <c r="B434" s="64"/>
-      <c r="C434" s="65"/>
-      <c r="D434" s="65"/>
+      <c r="B434" s="65"/>
+      <c r="C434" s="64"/>
+      <c r="D434" s="64"/>
       <c r="E434" s="57" t="s">
         <v>728</v>
       </c>
@@ -19542,9 +19546,9 @@
       <c r="A435" s="33">
         <v>416</v>
       </c>
-      <c r="B435" s="64"/>
-      <c r="C435" s="65"/>
-      <c r="D435" s="65"/>
+      <c r="B435" s="65"/>
+      <c r="C435" s="64"/>
+      <c r="D435" s="64"/>
       <c r="E435" s="57" t="s">
         <v>729</v>
       </c>
@@ -19566,9 +19570,9 @@
       <c r="A436" s="33">
         <v>417</v>
       </c>
-      <c r="B436" s="64"/>
-      <c r="C436" s="65"/>
-      <c r="D436" s="65"/>
+      <c r="B436" s="65"/>
+      <c r="C436" s="64"/>
+      <c r="D436" s="64"/>
       <c r="E436" s="57" t="s">
         <v>730</v>
       </c>
@@ -19590,9 +19594,9 @@
       <c r="A437" s="33">
         <v>418</v>
       </c>
-      <c r="B437" s="64"/>
-      <c r="C437" s="65"/>
-      <c r="D437" s="65"/>
+      <c r="B437" s="65"/>
+      <c r="C437" s="64"/>
+      <c r="D437" s="64"/>
       <c r="E437" s="57" t="s">
         <v>731</v>
       </c>
@@ -19614,9 +19618,9 @@
       <c r="A438" s="33">
         <v>419</v>
       </c>
-      <c r="B438" s="64"/>
-      <c r="C438" s="65"/>
-      <c r="D438" s="65"/>
+      <c r="B438" s="65"/>
+      <c r="C438" s="64"/>
+      <c r="D438" s="64"/>
       <c r="E438" s="57" t="s">
         <v>732</v>
       </c>
@@ -19638,9 +19642,9 @@
       <c r="A439" s="33">
         <v>420</v>
       </c>
-      <c r="B439" s="64"/>
-      <c r="C439" s="65"/>
-      <c r="D439" s="65"/>
+      <c r="B439" s="65"/>
+      <c r="C439" s="64"/>
+      <c r="D439" s="64"/>
       <c r="E439" s="57" t="s">
         <v>733</v>
       </c>
@@ -19662,9 +19666,9 @@
       <c r="A440" s="33">
         <v>421</v>
       </c>
-      <c r="B440" s="64"/>
-      <c r="C440" s="65"/>
-      <c r="D440" s="65"/>
+      <c r="B440" s="65"/>
+      <c r="C440" s="64"/>
+      <c r="D440" s="64"/>
       <c r="E440" s="57" t="s">
         <v>734</v>
       </c>
@@ -19686,9 +19690,9 @@
       <c r="A441" s="33">
         <v>422</v>
       </c>
-      <c r="B441" s="64"/>
-      <c r="C441" s="65"/>
-      <c r="D441" s="65"/>
+      <c r="B441" s="65"/>
+      <c r="C441" s="64"/>
+      <c r="D441" s="64"/>
       <c r="E441" s="57" t="s">
         <v>735</v>
       </c>
@@ -19707,30 +19711,30 @@
       <c r="J441" s="13"/>
     </row>
     <row r="442" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A442" s="78" t="s">
+      <c r="A442" s="66" t="s">
         <v>770</v>
       </c>
-      <c r="B442" s="78"/>
-      <c r="C442" s="78"/>
-      <c r="D442" s="78"/>
-      <c r="E442" s="78"/>
-      <c r="F442" s="78"/>
-      <c r="G442" s="78"/>
-      <c r="H442" s="78"/>
-      <c r="I442" s="78"/>
-      <c r="J442" s="78"/>
+      <c r="B442" s="66"/>
+      <c r="C442" s="66"/>
+      <c r="D442" s="66"/>
+      <c r="E442" s="66"/>
+      <c r="F442" s="66"/>
+      <c r="G442" s="66"/>
+      <c r="H442" s="66"/>
+      <c r="I442" s="66"/>
+      <c r="J442" s="66"/>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="33">
         <v>443</v>
       </c>
-      <c r="B443" s="64" t="s">
+      <c r="B443" s="65" t="s">
         <v>777</v>
       </c>
-      <c r="C443" s="65" t="s">
+      <c r="C443" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D443" s="65" t="s">
+      <c r="D443" s="64" t="s">
         <v>778</v>
       </c>
       <c r="E443" s="62" t="s">
@@ -19756,9 +19760,9 @@
       <c r="A444" s="33">
         <v>444</v>
       </c>
-      <c r="B444" s="64"/>
-      <c r="C444" s="65"/>
-      <c r="D444" s="65"/>
+      <c r="B444" s="65"/>
+      <c r="C444" s="64"/>
+      <c r="D444" s="64"/>
       <c r="E444" s="62" t="s">
         <v>782</v>
       </c>
@@ -19780,9 +19784,9 @@
       <c r="A445" s="33">
         <v>445</v>
       </c>
-      <c r="B445" s="64"/>
-      <c r="C445" s="65"/>
-      <c r="D445" s="65"/>
+      <c r="B445" s="65"/>
+      <c r="C445" s="64"/>
+      <c r="D445" s="64"/>
       <c r="E445" s="62" t="s">
         <v>783</v>
       </c>
@@ -19804,9 +19808,9 @@
       <c r="A446" s="33">
         <v>446</v>
       </c>
-      <c r="B446" s="64"/>
-      <c r="C446" s="65"/>
-      <c r="D446" s="65"/>
+      <c r="B446" s="65"/>
+      <c r="C446" s="64"/>
+      <c r="D446" s="64"/>
       <c r="E446" s="62" t="s">
         <v>784</v>
       </c>
@@ -19828,9 +19832,9 @@
       <c r="A447" s="33">
         <v>447</v>
       </c>
-      <c r="B447" s="64"/>
-      <c r="C447" s="65"/>
-      <c r="D447" s="65"/>
+      <c r="B447" s="65"/>
+      <c r="C447" s="64"/>
+      <c r="D447" s="64"/>
       <c r="E447" s="62" t="s">
         <v>785</v>
       </c>
@@ -19852,9 +19856,9 @@
       <c r="A448" s="33">
         <v>448</v>
       </c>
-      <c r="B448" s="64"/>
-      <c r="C448" s="65"/>
-      <c r="D448" s="65"/>
+      <c r="B448" s="65"/>
+      <c r="C448" s="64"/>
+      <c r="D448" s="64"/>
       <c r="E448" s="62" t="s">
         <v>786</v>
       </c>
@@ -19876,9 +19880,9 @@
       <c r="A449" s="33">
         <v>449</v>
       </c>
-      <c r="B449" s="64"/>
-      <c r="C449" s="65"/>
-      <c r="D449" s="65"/>
+      <c r="B449" s="65"/>
+      <c r="C449" s="64"/>
+      <c r="D449" s="64"/>
       <c r="E449" s="62" t="s">
         <v>787</v>
       </c>
@@ -19900,9 +19904,9 @@
       <c r="A450" s="33">
         <v>450</v>
       </c>
-      <c r="B450" s="64"/>
-      <c r="C450" s="65"/>
-      <c r="D450" s="65"/>
+      <c r="B450" s="65"/>
+      <c r="C450" s="64"/>
+      <c r="D450" s="64"/>
       <c r="E450" s="62" t="s">
         <v>788</v>
       </c>
@@ -19924,9 +19928,9 @@
       <c r="A451" s="33">
         <v>451</v>
       </c>
-      <c r="B451" s="64"/>
-      <c r="C451" s="65"/>
-      <c r="D451" s="65"/>
+      <c r="B451" s="65"/>
+      <c r="C451" s="64"/>
+      <c r="D451" s="64"/>
       <c r="E451" s="62" t="s">
         <v>789</v>
       </c>
@@ -19948,9 +19952,9 @@
       <c r="A452" s="33">
         <v>452</v>
       </c>
-      <c r="B452" s="64"/>
-      <c r="C452" s="65"/>
-      <c r="D452" s="65"/>
+      <c r="B452" s="65"/>
+      <c r="C452" s="64"/>
+      <c r="D452" s="64"/>
       <c r="E452" s="62" t="s">
         <v>790</v>
       </c>
@@ -19972,9 +19976,9 @@
       <c r="A453" s="33">
         <v>453</v>
       </c>
-      <c r="B453" s="64"/>
-      <c r="C453" s="65"/>
-      <c r="D453" s="65"/>
+      <c r="B453" s="65"/>
+      <c r="C453" s="64"/>
+      <c r="D453" s="64"/>
       <c r="E453" s="62" t="s">
         <v>791</v>
       </c>
@@ -19996,9 +20000,9 @@
       <c r="A454" s="33">
         <v>454</v>
       </c>
-      <c r="B454" s="64"/>
-      <c r="C454" s="65"/>
-      <c r="D454" s="65"/>
+      <c r="B454" s="65"/>
+      <c r="C454" s="64"/>
+      <c r="D454" s="64"/>
       <c r="E454" s="62" t="s">
         <v>792</v>
       </c>
@@ -20020,9 +20024,9 @@
       <c r="A455" s="33">
         <v>455</v>
       </c>
-      <c r="B455" s="64"/>
-      <c r="C455" s="65"/>
-      <c r="D455" s="65"/>
+      <c r="B455" s="65"/>
+      <c r="C455" s="64"/>
+      <c r="D455" s="64"/>
       <c r="E455" s="62" t="s">
         <v>792</v>
       </c>
@@ -20044,9 +20048,9 @@
       <c r="A456" s="33">
         <v>456</v>
       </c>
-      <c r="B456" s="64"/>
-      <c r="C456" s="65"/>
-      <c r="D456" s="65"/>
+      <c r="B456" s="65"/>
+      <c r="C456" s="64"/>
+      <c r="D456" s="64"/>
       <c r="E456" s="62" t="s">
         <v>793</v>
       </c>
@@ -20068,9 +20072,9 @@
       <c r="A457" s="33">
         <v>457</v>
       </c>
-      <c r="B457" s="64"/>
-      <c r="C457" s="65"/>
-      <c r="D457" s="65"/>
+      <c r="B457" s="65"/>
+      <c r="C457" s="64"/>
+      <c r="D457" s="64"/>
       <c r="E457" s="62" t="s">
         <v>794</v>
       </c>
@@ -20092,9 +20096,9 @@
       <c r="A458" s="33">
         <v>458</v>
       </c>
-      <c r="B458" s="64"/>
-      <c r="C458" s="65"/>
-      <c r="D458" s="65"/>
+      <c r="B458" s="65"/>
+      <c r="C458" s="64"/>
+      <c r="D458" s="64"/>
       <c r="E458" s="62" t="s">
         <v>795</v>
       </c>
@@ -20116,9 +20120,9 @@
       <c r="A459" s="33">
         <v>459</v>
       </c>
-      <c r="B459" s="64"/>
-      <c r="C459" s="65"/>
-      <c r="D459" s="65"/>
+      <c r="B459" s="65"/>
+      <c r="C459" s="64"/>
+      <c r="D459" s="64"/>
       <c r="E459" s="62" t="s">
         <v>796</v>
       </c>
@@ -20137,22 +20141,22 @@
       <c r="J459" s="13"/>
     </row>
     <row r="460" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A460" s="78" t="s">
+      <c r="A460" s="66" t="s">
         <v>798</v>
       </c>
-      <c r="B460" s="78"/>
-      <c r="C460" s="78"/>
-      <c r="D460" s="78"/>
-      <c r="E460" s="78"/>
-      <c r="F460" s="78"/>
-      <c r="G460" s="78"/>
-      <c r="H460" s="78"/>
-      <c r="I460" s="78"/>
-      <c r="J460" s="78"/>
+      <c r="B460" s="66"/>
+      <c r="C460" s="66"/>
+      <c r="D460" s="66"/>
+      <c r="E460" s="66"/>
+      <c r="F460" s="66"/>
+      <c r="G460" s="66"/>
+      <c r="H460" s="66"/>
+      <c r="I460" s="66"/>
+      <c r="J460" s="66"/>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" s="33"/>
-      <c r="B461" s="91"/>
+      <c r="B461" s="63"/>
       <c r="C461" s="33"/>
       <c r="D461" s="33"/>
       <c r="E461" s="33"/>
@@ -20164,7 +20168,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" s="33"/>
-      <c r="B462" s="91"/>
+      <c r="B462" s="63"/>
       <c r="C462" s="33"/>
       <c r="D462" s="33"/>
       <c r="E462" s="33"/>
@@ -20212,11 +20216,11 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" s="5"/>
-      <c r="B466" s="79" t="s">
+      <c r="B466" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="C466" s="80"/>
-      <c r="D466" s="81"/>
+      <c r="C466" s="74"/>
+      <c r="D466" s="75"/>
       <c r="E466" s="5"/>
       <c r="F466" s="5"/>
       <c r="G466" s="5"/>
@@ -20286,73 +20290,63 @@
     </row>
   </sheetData>
   <mergeCells count="149">
-    <mergeCell ref="C443:C459"/>
-    <mergeCell ref="B443:B459"/>
-    <mergeCell ref="A460:J460"/>
-    <mergeCell ref="A353:J353"/>
-    <mergeCell ref="C348:C352"/>
-    <mergeCell ref="B328:B352"/>
-    <mergeCell ref="C328:C339"/>
-    <mergeCell ref="D328:D339"/>
-    <mergeCell ref="D340:D347"/>
-    <mergeCell ref="C340:C347"/>
-    <mergeCell ref="B466:D466"/>
-    <mergeCell ref="C354:C371"/>
-    <mergeCell ref="D354:D371"/>
-    <mergeCell ref="B354:B371"/>
-    <mergeCell ref="A372:J372"/>
-    <mergeCell ref="A379:J379"/>
-    <mergeCell ref="D373:D378"/>
-    <mergeCell ref="C373:C378"/>
-    <mergeCell ref="B373:B378"/>
-    <mergeCell ref="D380:D403"/>
-    <mergeCell ref="C380:C403"/>
-    <mergeCell ref="B380:B403"/>
-    <mergeCell ref="A404:J404"/>
-    <mergeCell ref="B405:B428"/>
-    <mergeCell ref="C405:C428"/>
-    <mergeCell ref="D405:D428"/>
-    <mergeCell ref="D443:D459"/>
-    <mergeCell ref="A429:J429"/>
-    <mergeCell ref="D430:D441"/>
-    <mergeCell ref="C430:C441"/>
-    <mergeCell ref="B430:B441"/>
-    <mergeCell ref="A442:J442"/>
-    <mergeCell ref="D91:D96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="D103:D110"/>
-    <mergeCell ref="C103:C110"/>
-    <mergeCell ref="D116:D121"/>
-    <mergeCell ref="C116:C121"/>
-    <mergeCell ref="C127:C132"/>
-    <mergeCell ref="D127:D132"/>
-    <mergeCell ref="E348:E352"/>
-    <mergeCell ref="D133:D148"/>
-    <mergeCell ref="C133:C148"/>
-    <mergeCell ref="A151:J151"/>
-    <mergeCell ref="B116:B125"/>
-    <mergeCell ref="A126:J126"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="B127:B148"/>
-    <mergeCell ref="A180:J180"/>
-    <mergeCell ref="B181:B194"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="F348:F352"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="D66:D72"/>
-    <mergeCell ref="C66:C72"/>
-    <mergeCell ref="D41:D48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="D79:D84"/>
-    <mergeCell ref="C79:C84"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="B103:B114"/>
+    <mergeCell ref="A327:J327"/>
+    <mergeCell ref="D238:D260"/>
+    <mergeCell ref="C238:C260"/>
+    <mergeCell ref="A314:J314"/>
+    <mergeCell ref="B315:B326"/>
+    <mergeCell ref="C315:C320"/>
+    <mergeCell ref="D315:D320"/>
+    <mergeCell ref="C321:C325"/>
+    <mergeCell ref="D321:D325"/>
+    <mergeCell ref="F271:F274"/>
+    <mergeCell ref="G271:G274"/>
+    <mergeCell ref="D261:D274"/>
+    <mergeCell ref="C261:C274"/>
+    <mergeCell ref="B238:B274"/>
+    <mergeCell ref="A275:J275"/>
+    <mergeCell ref="F263:F266"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="F267:F270"/>
+    <mergeCell ref="G267:G270"/>
+    <mergeCell ref="A301:J301"/>
+    <mergeCell ref="B302:B313"/>
+    <mergeCell ref="C302:C307"/>
+    <mergeCell ref="D302:D307"/>
+    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="D308:D312"/>
+    <mergeCell ref="A288:J288"/>
+    <mergeCell ref="B289:B300"/>
+    <mergeCell ref="C289:C294"/>
+    <mergeCell ref="D289:D294"/>
+    <mergeCell ref="C295:C299"/>
+    <mergeCell ref="D295:D299"/>
+    <mergeCell ref="D276:D281"/>
+    <mergeCell ref="C276:C281"/>
+    <mergeCell ref="C282:C286"/>
+    <mergeCell ref="B276:B287"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A165:J165"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="D181:D189"/>
+    <mergeCell ref="C181:C189"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="B226:B236"/>
+    <mergeCell ref="C232:C233"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="D226:D231"/>
+    <mergeCell ref="C226:C231"/>
+    <mergeCell ref="B196:B209"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="A210:J210"/>
+    <mergeCell ref="B211:B224"/>
+    <mergeCell ref="C220:C221"/>
+    <mergeCell ref="D196:D204"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="D211:D219"/>
+    <mergeCell ref="C211:C219"/>
+    <mergeCell ref="A195:J195"/>
     <mergeCell ref="B2:B39"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C85:C86"/>
@@ -20377,64 +20371,74 @@
     <mergeCell ref="C61:C64"/>
     <mergeCell ref="B53:B64"/>
     <mergeCell ref="B66:B77"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="D66:D72"/>
+    <mergeCell ref="C66:C72"/>
+    <mergeCell ref="D41:D48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="D79:D84"/>
+    <mergeCell ref="C79:C84"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="D91:D96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="D103:D110"/>
+    <mergeCell ref="C103:C110"/>
+    <mergeCell ref="D116:D121"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C127:C132"/>
+    <mergeCell ref="D127:D132"/>
+    <mergeCell ref="E348:E352"/>
+    <mergeCell ref="D133:D148"/>
+    <mergeCell ref="C133:C148"/>
+    <mergeCell ref="A151:J151"/>
+    <mergeCell ref="B116:B125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="B127:B148"/>
+    <mergeCell ref="A180:J180"/>
+    <mergeCell ref="B181:B194"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="F348:F352"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="B103:B114"/>
     <mergeCell ref="B152:B164"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A165:J165"/>
-    <mergeCell ref="B41:B52"/>
-    <mergeCell ref="D181:D189"/>
-    <mergeCell ref="C181:C189"/>
-    <mergeCell ref="A225:J225"/>
-    <mergeCell ref="B226:B236"/>
-    <mergeCell ref="C232:C233"/>
-    <mergeCell ref="A237:J237"/>
-    <mergeCell ref="D226:D231"/>
-    <mergeCell ref="C226:C231"/>
-    <mergeCell ref="B196:B209"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="A210:J210"/>
-    <mergeCell ref="B211:B224"/>
-    <mergeCell ref="C220:C221"/>
-    <mergeCell ref="D196:D204"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="D211:D219"/>
-    <mergeCell ref="C211:C219"/>
-    <mergeCell ref="A195:J195"/>
-    <mergeCell ref="D308:D312"/>
-    <mergeCell ref="A288:J288"/>
-    <mergeCell ref="B289:B300"/>
-    <mergeCell ref="C289:C294"/>
-    <mergeCell ref="D289:D294"/>
-    <mergeCell ref="C295:C299"/>
-    <mergeCell ref="D295:D299"/>
-    <mergeCell ref="D276:D281"/>
-    <mergeCell ref="C276:C281"/>
-    <mergeCell ref="C282:C286"/>
-    <mergeCell ref="B276:B287"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="A327:J327"/>
-    <mergeCell ref="D238:D260"/>
-    <mergeCell ref="C238:C260"/>
-    <mergeCell ref="A314:J314"/>
-    <mergeCell ref="B315:B326"/>
-    <mergeCell ref="C315:C320"/>
-    <mergeCell ref="D315:D320"/>
-    <mergeCell ref="C321:C325"/>
-    <mergeCell ref="D321:D325"/>
-    <mergeCell ref="F271:F274"/>
-    <mergeCell ref="G271:G274"/>
-    <mergeCell ref="D261:D274"/>
-    <mergeCell ref="C261:C274"/>
-    <mergeCell ref="B238:B274"/>
-    <mergeCell ref="A275:J275"/>
-    <mergeCell ref="F263:F266"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="F267:F270"/>
-    <mergeCell ref="G267:G270"/>
-    <mergeCell ref="A301:J301"/>
-    <mergeCell ref="B302:B313"/>
-    <mergeCell ref="C302:C307"/>
-    <mergeCell ref="D302:D307"/>
-    <mergeCell ref="C308:C312"/>
+    <mergeCell ref="B466:D466"/>
+    <mergeCell ref="C354:C371"/>
+    <mergeCell ref="D354:D371"/>
+    <mergeCell ref="B354:B371"/>
+    <mergeCell ref="A372:J372"/>
+    <mergeCell ref="A379:J379"/>
+    <mergeCell ref="D373:D378"/>
+    <mergeCell ref="C373:C378"/>
+    <mergeCell ref="B373:B378"/>
+    <mergeCell ref="D380:D403"/>
+    <mergeCell ref="C380:C403"/>
+    <mergeCell ref="B380:B403"/>
+    <mergeCell ref="A404:J404"/>
+    <mergeCell ref="B405:B428"/>
+    <mergeCell ref="C405:C428"/>
+    <mergeCell ref="D405:D428"/>
+    <mergeCell ref="D443:D459"/>
+    <mergeCell ref="A429:J429"/>
+    <mergeCell ref="D430:D441"/>
+    <mergeCell ref="C430:C441"/>
+    <mergeCell ref="B430:B441"/>
+    <mergeCell ref="A442:J442"/>
+    <mergeCell ref="C443:C459"/>
+    <mergeCell ref="B443:B459"/>
+    <mergeCell ref="A460:J460"/>
+    <mergeCell ref="A353:J353"/>
+    <mergeCell ref="C348:C352"/>
+    <mergeCell ref="B328:B352"/>
+    <mergeCell ref="C328:C339"/>
+    <mergeCell ref="D328:D339"/>
+    <mergeCell ref="D340:D347"/>
+    <mergeCell ref="C340:C347"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="4294967293" r:id="rId1"/>
@@ -20462,18 +20466,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>335</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="H1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -21036,11 +21040,11 @@
       <c r="A1" t="s">
         <v>640</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="85" t="s">
         <v>622</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="51" t="s">
@@ -21185,11 +21189,11 @@
       <c r="A12" t="s">
         <v>639</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="85" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="51" t="s">
@@ -21339,24 +21343,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="37"/>
-    <col min="2" max="2" width="6.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="6.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="36" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="6.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" style="36" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7" style="36" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.85546875" style="36" bestFit="1" customWidth="1"/>
@@ -21364,30 +21367,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>298</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="87" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="88" t="s">
         <v>567</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87" t="s">
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88" t="s">
         <v>566</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -21504,14 +21507,14 @@
         <v>25</v>
       </c>
       <c r="B4" s="35">
-        <f t="shared" ref="B4:B15" si="0">A4*220/(330220)</f>
+        <f>A4*220/(330220)</f>
         <v>1.6655562958027982E-2</v>
       </c>
       <c r="C4" s="35">
         <v>2.3E-2</v>
       </c>
       <c r="D4" s="35">
-        <f t="shared" ref="D4:D15" si="1">C4-B4</f>
+        <f t="shared" ref="D4:D15" si="0">C4-B4</f>
         <v>6.3444370419720175E-3</v>
       </c>
       <c r="E4" s="40">
@@ -21519,14 +21522,14 @@
         <v>38.091999999999992</v>
       </c>
       <c r="F4" s="35">
-        <f t="shared" ref="F4:F15" si="2">B4*8.2</f>
+        <f>B4*8.2</f>
         <v>0.13657561625582945</v>
       </c>
       <c r="G4" s="35">
         <v>0.19</v>
       </c>
       <c r="H4" s="35">
-        <f t="shared" ref="H4:H15" si="3">G4-F4</f>
+        <f t="shared" ref="H4:H15" si="1">G4-F4</f>
         <v>5.342438374417055E-2</v>
       </c>
       <c r="I4" s="40">
@@ -21534,14 +21537,14 @@
         <v>39.1170731707317</v>
       </c>
       <c r="J4" s="35">
-        <f t="shared" ref="J4:J15" si="4">F4*1.6</f>
+        <f t="shared" ref="J4:J15" si="2">F4*1.6</f>
         <v>0.21852098600932712</v>
       </c>
       <c r="K4" s="35">
         <v>0.30299999999999999</v>
       </c>
       <c r="L4" s="35">
-        <f t="shared" ref="L4:L15" si="5">K4-J4</f>
+        <f t="shared" ref="L4:L15" si="3">K4-J4</f>
         <v>8.4479013990672869E-2</v>
       </c>
       <c r="M4" s="40">
@@ -21564,7 +21567,7 @@
         <v>38.201829268292677</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R15" si="6">P4*10</f>
+        <f t="shared" ref="R4:R15" si="4">P4*10</f>
         <v>0.83479013990672868</v>
       </c>
     </row>
@@ -21573,25 +21576,25 @@
         <v>50</v>
       </c>
       <c r="B5" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B4:B15" si="5">A5*220/(330220)</f>
         <v>3.3311125916055964E-2</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.3311125916055964E-2</v>
       </c>
       <c r="E5" s="40">
-        <f t="shared" ref="E5:E15" si="7">ABS(D5/B5*100)</f>
+        <f t="shared" ref="E5:E15" si="6">ABS(D5/B5*100)</f>
         <v>100</v>
       </c>
       <c r="F5" s="35">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F4:F15" si="7">B5*8.2</f>
         <v>0.2731512325116589</v>
       </c>
       <c r="G5" s="35"/>
       <c r="H5" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.2731512325116589</v>
       </c>
       <c r="I5" s="40">
@@ -21599,14 +21602,14 @@
         <v>100</v>
       </c>
       <c r="J5" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.43704197201865425</v>
       </c>
       <c r="K5" s="35">
         <v>0.52400000000000002</v>
       </c>
       <c r="L5" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.6958027981345776E-2</v>
       </c>
       <c r="M5" s="40">
@@ -21629,7 +21632,7 @@
         <v>19.439329268292681</v>
       </c>
       <c r="R5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.84958027981345774</v>
       </c>
     </row>
@@ -21638,25 +21641,25 @@
         <v>75</v>
       </c>
       <c r="B6" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4.9966688874083946E-2</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.9966688874083946E-2</v>
       </c>
       <c r="E6" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F6" s="35">
-        <f t="shared" si="2"/>
         <v>0.40972684876748833</v>
       </c>
       <c r="G6" s="35"/>
       <c r="H6" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.40972684876748833</v>
       </c>
       <c r="I6" s="40">
@@ -21664,7 +21667,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.65556295802798137</v>
       </c>
       <c r="K6" s="35">
@@ -21694,7 +21697,7 @@
         <v>11.812296747967475</v>
       </c>
       <c r="R6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.77437041972018616</v>
       </c>
     </row>
@@ -21703,25 +21706,25 @@
         <v>100</v>
       </c>
       <c r="B7" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.6622251832111928E-2</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.6622251832111928E-2</v>
       </c>
       <c r="E7" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F7" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F7" s="35">
-        <f t="shared" si="2"/>
         <v>0.54630246502331781</v>
       </c>
       <c r="G7" s="35"/>
       <c r="H7" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.54630246502331781</v>
       </c>
       <c r="I7" s="40">
@@ -21729,14 +21732,14 @@
         <v>100</v>
       </c>
       <c r="J7" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.87408394403730849</v>
       </c>
       <c r="K7" s="35">
         <v>0.96399999999999997</v>
       </c>
       <c r="L7" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.9916055962691477E-2</v>
       </c>
       <c r="M7" s="40">
@@ -21759,7 +21762,7 @@
         <v>9.0284298780487724</v>
       </c>
       <c r="R7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.78916055962691467</v>
       </c>
     </row>
@@ -21768,25 +21771,25 @@
         <v>125</v>
       </c>
       <c r="B8" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.3277814790139904E-2</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-8.3277814790139904E-2</v>
       </c>
       <c r="E8" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F8" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F8" s="35">
-        <f t="shared" si="2"/>
         <v>0.68287808127914718</v>
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.68287808127914718</v>
       </c>
       <c r="I8" s="40">
@@ -21794,14 +21797,14 @@
         <v>100</v>
       </c>
       <c r="J8" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0926049300466356</v>
       </c>
       <c r="K8" s="35">
         <v>1.1890000000000001</v>
       </c>
       <c r="L8" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.6395069953364443E-2</v>
       </c>
       <c r="M8" s="40">
@@ -21824,7 +21827,7 @@
         <v>6.9920121951219505</v>
       </c>
       <c r="R8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.76395069953364425</v>
       </c>
     </row>
@@ -21833,25 +21836,25 @@
         <v>150</v>
       </c>
       <c r="B9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9.9933377748167893E-2</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-9.9933377748167893E-2</v>
       </c>
       <c r="E9" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F9" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F9" s="35">
-        <f t="shared" si="2"/>
         <v>0.81945369753497665</v>
       </c>
       <c r="G9" s="35"/>
       <c r="H9" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.81945369753497665</v>
       </c>
       <c r="I9" s="40">
@@ -21859,14 +21862,14 @@
         <v>100</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.3111259160559627</v>
       </c>
       <c r="K9" s="35">
         <v>1.4019999999999999</v>
       </c>
       <c r="L9" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9.0874083944037176E-2</v>
       </c>
       <c r="M9" s="40">
@@ -21889,7 +21892,7 @@
         <v>5.4055894308942971</v>
       </c>
       <c r="R9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.70874083944037158</v>
       </c>
     </row>
@@ -21898,25 +21901,25 @@
         <v>175</v>
       </c>
       <c r="B10" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.11658894070619587</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.11658894070619587</v>
       </c>
       <c r="E10" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F10" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F10" s="35">
-        <f t="shared" si="2"/>
         <v>0.95602931379080602</v>
       </c>
       <c r="G10" s="35"/>
       <c r="H10" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-0.95602931379080602</v>
       </c>
       <c r="I10" s="40">
@@ -21924,14 +21927,14 @@
         <v>100</v>
       </c>
       <c r="J10" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.5296469020652896</v>
       </c>
       <c r="K10" s="35">
         <v>1.6140000000000001</v>
       </c>
       <c r="L10" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.4353097934710464E-2</v>
       </c>
       <c r="M10" s="40">
@@ -21954,7 +21957,7 @@
         <v>4.7300522648083803</v>
       </c>
       <c r="R10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.72353097934710453</v>
       </c>
     </row>
@@ -21963,25 +21966,25 @@
         <v>200</v>
       </c>
       <c r="B11" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.13324450366422386</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.13324450366422386</v>
       </c>
       <c r="E11" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F11" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F11" s="35">
-        <f t="shared" si="2"/>
         <v>1.0926049300466356</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.0926049300466356</v>
       </c>
       <c r="I11" s="40">
@@ -21989,14 +21992,14 @@
         <v>100</v>
       </c>
       <c r="J11" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.748167888074617</v>
       </c>
       <c r="K11" s="35">
         <v>1.8380000000000001</v>
       </c>
       <c r="L11" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.9832111925383096E-2</v>
       </c>
       <c r="M11" s="40">
@@ -22019,7 +22022,7 @@
         <v>3.6513719512195122</v>
       </c>
       <c r="R11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.63832111925383073</v>
       </c>
     </row>
@@ -22028,25 +22031,25 @@
         <v>225</v>
       </c>
       <c r="B12" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.14990006662225183</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.14990006662225183</v>
       </c>
       <c r="E12" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F12" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F12" s="35">
-        <f t="shared" si="2"/>
         <v>1.229180546302465</v>
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.229180546302465</v>
       </c>
       <c r="I12" s="40">
@@ -22054,14 +22057,14 @@
         <v>100</v>
       </c>
       <c r="J12" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.9666888740839441</v>
       </c>
       <c r="K12" s="35">
         <v>2.052</v>
       </c>
       <c r="L12" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.5311125916055941E-2</v>
       </c>
       <c r="M12" s="40">
@@ -22084,7 +22087,7 @@
         <v>3.3717140921409134</v>
       </c>
       <c r="R12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.66311125916055813</v>
       </c>
     </row>
@@ -22093,25 +22096,25 @@
         <v>250</v>
       </c>
       <c r="B13" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.16655562958027981</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.16655562958027981</v>
       </c>
       <c r="E13" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F13" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F13" s="35">
-        <f t="shared" si="2"/>
         <v>1.3657561625582944</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.3657561625582944</v>
       </c>
       <c r="I13" s="40">
@@ -22119,14 +22122,14 @@
         <v>100</v>
       </c>
       <c r="J13" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.1852098600932712</v>
       </c>
       <c r="K13" s="35">
         <v>2.2610000000000001</v>
       </c>
       <c r="L13" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.5790139906728893E-2</v>
       </c>
       <c r="M13" s="40">
@@ -22149,7 +22152,7 @@
         <v>3.0564634146341327</v>
       </c>
       <c r="R13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.66790139906728552</v>
       </c>
     </row>
@@ -22158,25 +22161,25 @@
         <v>275</v>
       </c>
       <c r="B14" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.18321119253830778</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.18321119253830778</v>
       </c>
       <c r="E14" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F14" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F14" s="35">
-        <f t="shared" si="2"/>
         <v>1.5023317788141237</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.5023317788141237</v>
       </c>
       <c r="I14" s="40">
@@ -22184,14 +22187,14 @@
         <v>100</v>
       </c>
       <c r="J14" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.4037308461025981</v>
       </c>
       <c r="K14" s="35">
         <v>2.472</v>
       </c>
       <c r="L14" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.8269153897401846E-2</v>
       </c>
       <c r="M14" s="40">
@@ -22214,7 +22217,7 @@
         <v>2.5489190687361418</v>
       </c>
       <c r="R14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.61269153897401729</v>
       </c>
     </row>
@@ -22223,25 +22226,25 @@
         <v>300</v>
       </c>
       <c r="B15" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.19986675549633579</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.19986675549633579</v>
       </c>
       <c r="E15" s="40">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="F15" s="35">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="F15" s="35">
-        <f t="shared" si="2"/>
         <v>1.6389073950699533</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>-1.6389073950699533</v>
       </c>
       <c r="I15" s="40">
@@ -22249,14 +22252,14 @@
         <v>100</v>
       </c>
       <c r="J15" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.6222518321119255</v>
       </c>
       <c r="K15" s="35">
         <v>2.6829999999999998</v>
       </c>
       <c r="L15" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.0748167888074356E-2</v>
       </c>
       <c r="M15" s="40">
@@ -22279,7 +22282,7 @@
         <v>2.0115599593495834</v>
       </c>
       <c r="R15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.52748167888074349</v>
       </c>
     </row>
@@ -22344,30 +22347,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="89" t="s">
         <v>319</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="89" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="89" t="s">
         <v>617</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="87" t="s">
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="88" t="s">
         <v>616</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -23290,30 +23293,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="89" t="s">
         <v>618</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="87" t="s">
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="88" t="s">
         <v>619</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -24236,30 +24239,30 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="88" t="s">
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="89" t="s">
         <v>620</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="87" t="s">
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="88" t="s">
         <v>621</v>
       </c>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -25174,18 +25177,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="89" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -25501,18 +25504,18 @@
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87" t="s">
+      <c r="D1" s="88"/>
+      <c r="E1" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="90"/>
+      <c r="H1" s="91"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
